--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="model4(1)" sheetId="1" r:id="rId1"/>
+    <sheet name="model4(1)" sheetId="7" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model4(1)'!$P$1:$P$187</definedName>
     <definedName name="金额" localSheetId="0">OFFSET('model4(1)'!K1,0,0,COUNTA('model4(1)'!K:K)-1)</definedName>
     <definedName name="买卖" localSheetId="0">OFFSET('model4(1)'!E1,0,0,COUNTA('model4(1)'!E:E)-2)</definedName>
     <definedName name="时间" localSheetId="0">OFFSET('model4(1)'!A1,0,0,COUNTA('model4(1)'!A:A)-1)</definedName>
@@ -28,13 +29,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
+    <t>PE</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
     <t>szse innovation100</t>
-  </si>
-  <si>
-    <t>PE</t>
   </si>
   <si>
     <t>historical PE mean</t>
@@ -64,9 +65,6 @@
     <t>recovered funds</t>
   </si>
   <si>
-    <t>unit:yuan</t>
-  </si>
-  <si>
     <t>investment per year</t>
   </si>
   <si>
@@ -74,6 +72,10 @@
   </si>
   <si>
     <t>annualized RR</t>
+  </si>
+  <si>
+    <t>unit:yuan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -224,13 +226,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -240,11 +247,32 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -254,30 +282,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -325,7 +329,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -351,8 +355,8 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
-          <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -362,7 +366,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1300813604622218"/>
+          <c:x val="0.13008136046222177"/>
           <c:y val="7.4401451718666578E-2"/>
           <c:w val="0.83511435446609106"/>
           <c:h val="0.59209072023586662"/>
@@ -390,9 +394,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -402,7 +406,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -454,6 +458,9 @@
                 <c:pt idx="16">
                   <c:v>44804</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>44834</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -462,7 +469,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -514,10 +521,18 @@
                 <c:pt idx="16">
                   <c:v>2379024.8131143185</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>2717832.047090339</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D6A0-4C10-8CC9-BF21CBF2A97F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -538,9 +553,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -550,7 +565,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -602,6 +617,9 @@
                 <c:pt idx="16">
                   <c:v>44804</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>44834</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -610,7 +628,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -662,10 +680,18 @@
                 <c:pt idx="16">
                   <c:v>2266535.4481778746</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>2388388.957364744</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D6A0-4C10-8CC9-BF21CBF2A97F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -686,9 +712,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -698,7 +724,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -750,6 +776,9 @@
                 <c:pt idx="16">
                   <c:v>44804</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>44834</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -758,7 +787,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -810,10 +839,18 @@
                 <c:pt idx="16">
                   <c:v>-112489.36493644398</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>-329443.08972559497</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D6A0-4C10-8CC9-BF21CBF2A97F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -825,11 +862,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114494080"/>
-        <c:axId val="381613184"/>
+        <c:axId val="87316736"/>
+        <c:axId val="87330816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="114494080"/>
+        <c:axId val="87316736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,16 +885,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -872,14 +909,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381613184"/>
+        <c:crossAx val="87330816"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
+        <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="381613184"/>
+        <c:axId val="87330816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,9 +931,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -907,15 +944,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
-            <a:prstDash val="solid"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -930,10 +967,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114494080"/>
+        <c:crossAx val="87316736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -943,15 +987,15 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
-          <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -971,6 +1015,31 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1000,7 +1069,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1013,10 +1082,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t>szseinnovation100index &amp;                                            sales amount per month</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1025,8 +1098,8 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
-          <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1038,15 +1111,15 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -1054,7 +1127,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1106,6 +1179,9 @@
                 <c:pt idx="16">
                   <c:v>252649.34925635549</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>338807.23397602042</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1119,23 +1195,23 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="565777920"/>
-        <c:axId val="565779840"/>
+        <c:axId val="604940928"/>
+        <c:axId val="604939008"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1145,7 +1221,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1197,6 +1273,9 @@
                 <c:pt idx="16">
                   <c:v>44804</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>44834</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1205,7 +1284,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1257,6 +1336,9 @@
                 <c:pt idx="16">
                   <c:v>3.7022099609375001</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3477299804687499</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1272,70 +1354,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="567621120"/>
-        <c:axId val="567622656"/>
+        <c:axId val="526964224"/>
+        <c:axId val="526965760"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="565777920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="565779840"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="565779840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="565777920"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
       <c:dateAx>
-        <c:axId val="567621120"/>
+        <c:axId val="526964224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1354,16 +1377,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1378,14 +1401,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567622656"/>
+        <c:crossAx val="526965760"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
+        <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="567622656"/>
+        <c:axId val="526965760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1400,9 +1423,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1413,15 +1436,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
-            <a:prstDash val="solid"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1436,15 +1459,106 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567621120"/>
+        <c:crossAx val="526964224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="604939008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="604940928"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="604940928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="604939008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1458,20 +1572,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1488,20 +1604,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
+      <xdr:colOff>57149</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -14397,9 +14515,7 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="B2">
-            <v>0</v>
-          </cell>
+          <cell r="B2"/>
           <cell r="C2" t="str">
             <v>PE</v>
           </cell>
@@ -15237,7 +15353,7 @@
             <v>44403</v>
           </cell>
           <cell r="C78">
-            <v>39.900001525878913</v>
+            <v>39.900001525878906</v>
           </cell>
           <cell r="D78">
             <v>41.020526335866805</v>
@@ -15248,7 +15364,7 @@
             <v>44404</v>
           </cell>
           <cell r="C79">
-            <v>38.209999084472663</v>
+            <v>38.209999084472656</v>
           </cell>
           <cell r="D79">
             <v>40.984025981952598</v>
@@ -15259,7 +15375,7 @@
             <v>44405</v>
           </cell>
           <cell r="C80">
-            <v>38.619998931884773</v>
+            <v>38.619998931884766</v>
           </cell>
           <cell r="D80">
             <v>40.953717942849167</v>
@@ -15270,7 +15386,7 @@
             <v>44406</v>
           </cell>
           <cell r="C81">
-            <v>40.119998931884773</v>
+            <v>40.119998931884766</v>
           </cell>
           <cell r="D81">
             <v>40.943164537647085</v>
@@ -15325,7 +15441,7 @@
             <v>44413</v>
           </cell>
           <cell r="C86">
-            <v>41.130001068115227</v>
+            <v>41.130001068115234</v>
           </cell>
           <cell r="D86">
             <v>40.931428547813759</v>
@@ -15358,7 +15474,7 @@
             <v>44418</v>
           </cell>
           <cell r="C89">
-            <v>40.869998931884773</v>
+            <v>40.869998931884766</v>
           </cell>
           <cell r="D89">
             <v>40.927701096808754</v>
@@ -15402,7 +15518,7 @@
             <v>44424</v>
           </cell>
           <cell r="C93">
-            <v>39.290000915527337</v>
+            <v>39.290000915527344</v>
           </cell>
           <cell r="D93">
             <v>40.886703283288959</v>
@@ -15457,7 +15573,7 @@
             <v>44431</v>
           </cell>
           <cell r="C98">
-            <v>39.130001068115227</v>
+            <v>39.130001068115234</v>
           </cell>
           <cell r="D98">
             <v>40.770416618982935</v>
@@ -15501,7 +15617,7 @@
             <v>44435</v>
           </cell>
           <cell r="C102">
-            <v>38.630001068115227</v>
+            <v>38.630001068115234</v>
           </cell>
           <cell r="D102">
             <v>40.702299958801255</v>
@@ -15556,7 +15672,7 @@
             <v>44442</v>
           </cell>
           <cell r="C107">
-            <v>34.220001220703118</v>
+            <v>34.220001220703125</v>
           </cell>
           <cell r="D107">
             <v>40.482476154145722</v>
@@ -15567,7 +15683,7 @@
             <v>44445</v>
           </cell>
           <cell r="C108">
-            <v>35.540000915527337</v>
+            <v>35.540000915527344</v>
           </cell>
           <cell r="D108">
             <v>40.435849029253099</v>
@@ -15578,7 +15694,7 @@
             <v>44446</v>
           </cell>
           <cell r="C109">
-            <v>35.720001220703118</v>
+            <v>35.720001220703125</v>
           </cell>
           <cell r="D109">
             <v>40.391775685247957</v>
@@ -15633,7 +15749,7 @@
             <v>44453</v>
           </cell>
           <cell r="C114">
-            <v>35.470001220703118</v>
+            <v>35.470001220703125</v>
           </cell>
           <cell r="D114">
             <v>40.173214266640784</v>
@@ -15644,7 +15760,7 @@
             <v>44454</v>
           </cell>
           <cell r="C115">
-            <v>35.130001068115227</v>
+            <v>35.130001068115234</v>
           </cell>
           <cell r="D115">
             <v>40.128584061344093</v>
@@ -15677,7 +15793,7 @@
             <v>44461</v>
           </cell>
           <cell r="C118">
-            <v>34.560001373291023</v>
+            <v>34.560001373291016</v>
           </cell>
           <cell r="D118">
             <v>39.985344822324535</v>
@@ -18376,10 +18492,10 @@
 </v>
           </cell>
           <cell r="C347">
-            <v>24.680000305175781</v>
+            <v>23.5</v>
           </cell>
           <cell r="D347">
-            <v>33.152985469638168</v>
+            <v>33.149565178898534</v>
           </cell>
         </row>
         <row r="348">
@@ -18388,10 +18504,10 @@
 </v>
           </cell>
           <cell r="C348">
-            <v>24.6341</v>
+            <v>23.5</v>
           </cell>
           <cell r="D348">
-            <v>33.128364413367542</v>
+            <v>33.121676262196516</v>
           </cell>
         </row>
         <row r="349">
@@ -18400,10 +18516,10 @@
 </v>
           </cell>
           <cell r="C349">
-            <v>24.469999313354489</v>
+            <v>23.5</v>
           </cell>
           <cell r="D349">
-            <v>33.103412352560589</v>
+            <v>33.093948088530247</v>
           </cell>
         </row>
         <row r="350">
@@ -18412,10 +18528,10 @@
 </v>
           </cell>
           <cell r="C350">
-            <v>24.54000091552734</v>
+            <v>23.33</v>
           </cell>
           <cell r="D350">
-            <v>33.078804848431183</v>
+            <v>33.065890766436766</v>
           </cell>
         </row>
         <row r="351">
@@ -18424,10 +18540,10 @@
 </v>
           </cell>
           <cell r="C351">
-            <v>24.780000686645511</v>
+            <v>23.05</v>
           </cell>
           <cell r="D351">
-            <v>33.055026039944693</v>
+            <v>33.037191939025774</v>
           </cell>
         </row>
         <row r="352">
@@ -18436,10 +18552,10 @@
 </v>
           </cell>
           <cell r="C352">
-            <v>24.440000534057621</v>
+            <v>22.91</v>
           </cell>
           <cell r="D352">
-            <v>33.030411681356441</v>
+            <v>33.008257104914271</v>
           </cell>
         </row>
         <row r="353">
@@ -18448,10 +18564,10 @@
 </v>
           </cell>
           <cell r="C353">
-            <v>24.770099999999999</v>
+            <v>23</v>
           </cell>
           <cell r="D353">
-            <v>33.006878029842611</v>
+            <v>32.979743551908818</v>
           </cell>
         </row>
         <row r="354">
@@ -18460,10 +18576,10 @@
 </v>
           </cell>
           <cell r="C354">
-            <v>24.93</v>
+            <v>23.46</v>
           </cell>
           <cell r="D354">
-            <v>32.983932353621462</v>
+            <v>32.952698825909074</v>
           </cell>
         </row>
         <row r="355">
@@ -18472,10 +18588,10 @@
 </v>
           </cell>
           <cell r="C355">
-            <v>24.52</v>
+            <v>22.93</v>
           </cell>
           <cell r="D355">
-            <v>32.959955208143782</v>
+            <v>32.924305911388082</v>
           </cell>
         </row>
         <row r="356">
@@ -18484,10 +18600,10 @@
 </v>
           </cell>
           <cell r="C356">
-            <v>23.94</v>
+            <v>23.03</v>
           </cell>
           <cell r="D356">
-            <v>32.934475108685753</v>
+            <v>32.89635589468925</v>
           </cell>
         </row>
         <row r="357">
@@ -18496,10 +18612,10 @@
 </v>
           </cell>
           <cell r="C357">
-            <v>23.5</v>
+            <v>22.61000061</v>
           </cell>
           <cell r="D357">
-            <v>32.907899122464102</v>
+            <v>32.867380245999989</v>
           </cell>
         </row>
         <row r="358">
@@ -18508,10 +18624,10 @@
 </v>
           </cell>
           <cell r="C358">
-            <v>23.5</v>
+            <v>22.040000920000001</v>
           </cell>
           <cell r="D358">
-            <v>32.881472439535827</v>
+            <v>32.836966259129198</v>
           </cell>
         </row>
         <row r="359">
@@ -18520,10 +18636,10 @@
 </v>
           </cell>
           <cell r="C359">
-            <v>23.5</v>
+            <v>22.239999770000001</v>
           </cell>
           <cell r="D359">
-            <v>32.855193805251417</v>
+            <v>32.807282879607826</v>
           </cell>
         </row>
         <row r="360">
@@ -18532,10 +18648,10 @@
 </v>
           </cell>
           <cell r="C360">
-            <v>23.33</v>
+            <v>22.920000080000001</v>
           </cell>
           <cell r="D360">
-            <v>32.82858711864457</v>
+            <v>32.779664771229037</v>
           </cell>
         </row>
         <row r="361">
@@ -18544,10 +18660,10 @@
 </v>
           </cell>
           <cell r="C361">
-            <v>23.05</v>
+            <v>22.850000380000001</v>
           </cell>
           <cell r="D361">
-            <v>32.80134871441436</v>
+            <v>32.752005538941489</v>
           </cell>
         </row>
         <row r="362">
@@ -18556,10 +18672,10 @@
 </v>
           </cell>
           <cell r="C362">
-            <v>22.91</v>
+            <v>23.649999619999999</v>
           </cell>
           <cell r="D362">
-            <v>32.773872745763207</v>
+            <v>32.726722189166651</v>
           </cell>
         </row>
         <row r="363">
@@ -18568,10 +18684,10 @@
 </v>
           </cell>
           <cell r="C363">
-            <v>23</v>
+            <v>23.719999309999999</v>
           </cell>
           <cell r="D363">
-            <v>32.746798306024253</v>
+            <v>32.701772818310232</v>
           </cell>
         </row>
         <row r="364">
@@ -18580,10 +18696,10 @@
 </v>
           </cell>
           <cell r="C364">
-            <v>23.46</v>
+            <v>23.850000380000001</v>
           </cell>
           <cell r="D364">
-            <v>32.721144167057332</v>
+            <v>32.677320408259654</v>
           </cell>
         </row>
         <row r="365">
@@ -18592,10 +18708,10 @@
 </v>
           </cell>
           <cell r="C365">
-            <v>22.93</v>
+            <v>23.590000150000002</v>
           </cell>
           <cell r="D365">
-            <v>32.694171318112282</v>
+            <v>32.652286468154252</v>
           </cell>
         </row>
         <row r="366">
@@ -18604,21 +18720,21 @@
 </v>
           </cell>
           <cell r="C366">
-            <v>23.03</v>
+            <v>23.399999619999999</v>
           </cell>
           <cell r="D366">
-            <v>32.667621396908672</v>
+            <v>32.626868097692288</v>
           </cell>
         </row>
         <row r="367">
-          <cell r="B367" t="str">
-            <v>2022/9/30</v>
+          <cell r="B367">
+            <v>44834</v>
           </cell>
           <cell r="C367">
-            <v>22.610000610351559</v>
+            <v>23.340000150000002</v>
           </cell>
           <cell r="D367">
-            <v>32.640066271466047</v>
+            <v>32.601424623862997</v>
           </cell>
         </row>
       </sheetData>
@@ -18915,7 +19031,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18927,992 +19043,1445 @@
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="15" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="15" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="15" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="6.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="3" customWidth="1"/>
     <col min="10" max="10" width="12.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.75" style="15" customWidth="1"/>
+    <col min="12" max="12" width="10.75" style="3" customWidth="1"/>
     <col min="13" max="13" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="9" style="1"/>
     <col min="16" max="16" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="11.375" style="1" customWidth="1"/>
     <col min="19" max="20" width="11.125" style="1" customWidth="1"/>
     <col min="21" max="21" width="10.375" style="1" customWidth="1"/>
     <col min="22" max="22" width="10.25" style="1" customWidth="1"/>
     <col min="23" max="23" width="10.125" style="1" customWidth="1"/>
-    <col min="24" max="25" width="9" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:23" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="7"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5">
         <v>3950</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20">
+      <c r="F2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5">
         <f>MIN(G:G)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22">
+      <c r="A3" s="15">
         <v>44316</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="16">
         <f>VLOOKUP(A3,[1]szse_innovation_100!$A:$F,6)</f>
         <v>4.7860299999999993</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="16">
         <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2)</f>
         <v>47.64</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="17">
         <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3)</f>
         <v>45.46631578947369</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="17">
         <v>0</v>
       </c>
-      <c r="F3" s="24">
-        <f t="shared" ref="F3:F19" si="0">E3/B3</f>
+      <c r="F3" s="18">
+        <f t="shared" ref="F3:F20" si="0">E3/B3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="24">
-        <f t="shared" ref="G3:G19" si="1">G2+F3</f>
+      <c r="G3" s="18">
+        <f>G2+F3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="24">
-        <f t="shared" ref="H3:H19" si="2">G3*B3</f>
+      <c r="H3" s="18">
+        <f t="shared" ref="H3:H20" si="1">G3*B3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="24">
-        <f t="shared" ref="I3:I19" si="3">IF(E3&gt;0,I2+E3,I2)</f>
+      <c r="I3" s="18">
+        <f>IF(E3&gt;0,I2+E3,I2)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="24">
-        <f t="shared" ref="J3:J19" si="4">H3+L3</f>
+      <c r="J3" s="18">
+        <f t="shared" ref="J3:J20" si="2">H3+L3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="24">
-        <f t="shared" ref="K3:K19" si="5">J3-I3</f>
+      <c r="K3" s="18">
+        <f t="shared" ref="K3:K20" si="3">J3-I3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="23">
-        <f t="shared" ref="L3:L19" si="6">IF(E3&lt;0,L2-E3,L2)</f>
+      <c r="L3" s="17">
+        <f>IF(E3&lt;0,L2-E3,L2)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="P3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="13" t="s">
+      <c r="M3" s="7"/>
+      <c r="P3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="V3" s="13" t="s">
+      <c r="W3" s="27" t="s">
         <v>14</v>
-      </c>
-      <c r="W3" s="13" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22">
+      <c r="A4" s="15">
         <v>44347</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="16">
         <f>VLOOKUP(A4,[1]szse_innovation_100!$A:$F,6)</f>
         <v>4.9806599999999994</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="16">
         <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2)</f>
         <v>39.85</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="17">
         <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3)</f>
         <v>41.802432432432425</v>
       </c>
-      <c r="E4" s="23">
-        <f t="shared" ref="E4:E19" si="7">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
+      <c r="E4" s="17">
+        <f t="shared" ref="E4:E20" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
         <v>15057.369992695269</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="18">
         <f t="shared" si="0"/>
         <v>3023.1676108578522</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="18">
+        <f t="shared" ref="G4:G20" si="5">G3+F4</f>
+        <v>3023.1676108578522</v>
+      </c>
+      <c r="H4" s="18">
         <f t="shared" si="1"/>
-        <v>3023.1676108578522</v>
-      </c>
-      <c r="H4" s="24">
+        <v>15057.369992695269</v>
+      </c>
+      <c r="I4" s="18">
+        <f t="shared" ref="I4:I20" si="6">IF(E4&gt;0,I3+E4,I3)</f>
+        <v>15057.369992695269</v>
+      </c>
+      <c r="J4" s="18">
         <f t="shared" si="2"/>
         <v>15057.369992695269</v>
       </c>
-      <c r="I4" s="24">
+      <c r="K4" s="18">
         <f t="shared" si="3"/>
-        <v>15057.369992695269</v>
-      </c>
-      <c r="J4" s="24">
-        <f t="shared" si="4"/>
-        <v>15057.369992695269</v>
-      </c>
-      <c r="K4" s="24">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L4" s="23">
-        <f t="shared" si="6"/>
+      <c r="L4" s="17">
+        <f t="shared" ref="L4:L20" si="7">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="P4" s="25">
+      <c r="M4" s="7"/>
+      <c r="P4" s="20">
         <v>44561</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="10">
         <f>R4</f>
         <v>260275.18576464822</v>
       </c>
-      <c r="R4" s="20">
-        <f>VLOOKUP(P4,A:I,9,)</f>
+      <c r="R4" s="5">
+        <f t="shared" ref="R4" si="8">VLOOKUP(P4,A:I,9,)</f>
         <v>260275.18576464822</v>
       </c>
-      <c r="S4" s="20">
-        <f>VLOOKUP(P4,A:J,10,)</f>
+      <c r="S4" s="5">
+        <f t="shared" ref="S4" si="9">VLOOKUP(P4,A:J,10,)</f>
         <v>262454.74910559482</v>
       </c>
-      <c r="T4" s="20">
-        <f>VLOOKUP(P4,A:K,11,)</f>
+      <c r="T4" s="5">
+        <f t="shared" ref="T4" si="10">VLOOKUP(P4,A:K,11,)</f>
         <v>2179.5633409465954</v>
       </c>
-      <c r="U4" s="20">
-        <f>VLOOKUP(P4,A:L,12,)</f>
+      <c r="U4" s="5">
+        <f t="shared" ref="U4" si="11">VLOOKUP(P4,A:L,12,)</f>
         <v>657.86627675392538</v>
       </c>
-      <c r="V4" s="5">
-        <f>(S4-R4)/R4</f>
+      <c r="V4" s="9">
+        <f t="shared" ref="V4" si="12">(S4-R4)/R4</f>
         <v>8.3740727512819774E-3</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="9">
         <f>V4</f>
         <v>8.3740727512819774E-3</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22">
+      <c r="A5" s="15">
         <v>44377</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="16">
         <f>VLOOKUP(A5,[1]szse_innovation_100!$A:$F,6)</f>
         <v>5.1114799999999994</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="16">
         <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2)</f>
         <v>41.45</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="17">
         <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3)</f>
         <v>41.041896551724122</v>
       </c>
-      <c r="E5" s="23">
-        <f t="shared" si="7"/>
+      <c r="E5" s="17">
+        <f t="shared" si="4"/>
         <v>-657.86627675392538</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="18">
         <f t="shared" si="0"/>
         <v>-128.70367814291075</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="18">
+        <f t="shared" si="5"/>
+        <v>2894.4639327149416</v>
+      </c>
+      <c r="H5" s="18">
         <f t="shared" si="1"/>
-        <v>2894.4639327149416</v>
-      </c>
-      <c r="H5" s="24">
+        <v>14794.994502793768</v>
+      </c>
+      <c r="I5" s="18">
+        <f t="shared" si="6"/>
+        <v>15057.369992695269</v>
+      </c>
+      <c r="J5" s="18">
         <f t="shared" si="2"/>
-        <v>14794.994502793768</v>
-      </c>
-      <c r="I5" s="24">
+        <v>15452.860779547693</v>
+      </c>
+      <c r="K5" s="18">
         <f t="shared" si="3"/>
-        <v>15057.369992695269</v>
-      </c>
-      <c r="J5" s="24">
-        <f t="shared" si="4"/>
-        <v>15452.860779547693</v>
-      </c>
-      <c r="K5" s="24">
-        <f t="shared" si="5"/>
         <v>395.49078685242421</v>
       </c>
-      <c r="L5" s="23">
-        <f t="shared" si="6"/>
+      <c r="L5" s="17">
+        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M5" s="4"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22">
+      <c r="A6" s="15">
         <v>44407</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="16">
         <f>VLOOKUP(A6,[1]szse_innovation_100!$A:$F,6)</f>
         <v>4.9776999999999996</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="16">
         <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2)</f>
         <v>39.930000305175781</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="17">
         <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3)</f>
         <v>40.930499984741189</v>
       </c>
-      <c r="E6" s="23">
-        <f t="shared" si="7"/>
+      <c r="E6" s="17">
+        <f t="shared" si="4"/>
         <v>3953.9484548014116</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="18">
         <f t="shared" si="0"/>
         <v>794.33241352460209</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="18">
+        <f t="shared" si="5"/>
+        <v>3688.7963462395437</v>
+      </c>
+      <c r="H6" s="18">
         <f t="shared" si="1"/>
-        <v>3688.7963462395437</v>
-      </c>
-      <c r="H6" s="24">
+        <v>18361.721572676575</v>
+      </c>
+      <c r="I6" s="18">
+        <f t="shared" si="6"/>
+        <v>19011.31844749668</v>
+      </c>
+      <c r="J6" s="18">
         <f t="shared" si="2"/>
-        <v>18361.721572676575</v>
-      </c>
-      <c r="I6" s="24">
+        <v>19019.5878494305</v>
+      </c>
+      <c r="K6" s="18">
         <f t="shared" si="3"/>
-        <v>19011.31844749668</v>
-      </c>
-      <c r="J6" s="24">
-        <f t="shared" si="4"/>
-        <v>19019.5878494305</v>
-      </c>
-      <c r="K6" s="24">
-        <f t="shared" si="5"/>
         <v>8.2694019338196085</v>
       </c>
-      <c r="L6" s="23">
-        <f t="shared" si="6"/>
+      <c r="L6" s="17">
+        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M6" s="4"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22">
+      <c r="A7" s="15">
         <v>44439</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="16">
         <f>VLOOKUP(A7,[1]szse_innovation_100!$A:$F,6)</f>
         <v>4.7613100000000008</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="16">
         <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2)</f>
         <v>38.069999694824219</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="17">
         <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3)</f>
         <v>40.654705834482208</v>
       </c>
-      <c r="E7" s="23">
-        <f t="shared" si="7"/>
+      <c r="E7" s="17">
+        <f t="shared" si="4"/>
         <v>26388.788022123525</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="18">
         <f t="shared" si="0"/>
         <v>5542.3377226274952</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="18">
+        <f t="shared" si="5"/>
+        <v>9231.1340688670389</v>
+      </c>
+      <c r="H7" s="18">
         <f t="shared" si="1"/>
-        <v>9231.1340688670389</v>
-      </c>
-      <c r="H7" s="24">
+        <v>43952.290953437332</v>
+      </c>
+      <c r="I7" s="18">
+        <f t="shared" si="6"/>
+        <v>45400.106469620208</v>
+      </c>
+      <c r="J7" s="18">
         <f t="shared" si="2"/>
-        <v>43952.290953437332</v>
-      </c>
-      <c r="I7" s="24">
+        <v>44610.15723019126</v>
+      </c>
+      <c r="K7" s="18">
         <f t="shared" si="3"/>
-        <v>45400.106469620208</v>
-      </c>
-      <c r="J7" s="24">
-        <f t="shared" si="4"/>
-        <v>44610.15723019126</v>
-      </c>
-      <c r="K7" s="24">
-        <f t="shared" si="5"/>
         <v>-789.9492394289482</v>
       </c>
-      <c r="L7" s="23">
-        <f t="shared" si="6"/>
+      <c r="L7" s="17">
+        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
+      <c r="A8" s="15">
         <v>44469</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="16">
         <f>VLOOKUP(A8,[1]szse_innovation_100!$A:$F,6)</f>
         <v>4.7106400000000006</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="16">
         <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2)</f>
         <v>35.020000457763672</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="17">
         <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3)</f>
         <v>39.730819672131133</v>
       </c>
-      <c r="E8" s="23">
-        <f t="shared" si="7"/>
+      <c r="E8" s="17">
+        <f t="shared" si="4"/>
         <v>87657.679798291982</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="18">
         <f t="shared" si="0"/>
         <v>18608.443820434586</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="18">
+        <f t="shared" si="5"/>
+        <v>27839.577889301625</v>
+      </c>
+      <c r="H8" s="18">
         <f t="shared" si="1"/>
-        <v>27839.577889301625</v>
-      </c>
-      <c r="H8" s="24">
+        <v>131142.22918845981</v>
+      </c>
+      <c r="I8" s="18">
+        <f t="shared" si="6"/>
+        <v>133057.78626791219</v>
+      </c>
+      <c r="J8" s="18">
         <f t="shared" si="2"/>
-        <v>131142.22918845981</v>
-      </c>
-      <c r="I8" s="24">
+        <v>131800.09546521373</v>
+      </c>
+      <c r="K8" s="18">
         <f t="shared" si="3"/>
-        <v>133057.78626791219</v>
-      </c>
-      <c r="J8" s="24">
-        <f t="shared" si="4"/>
-        <v>131800.09546521373</v>
-      </c>
-      <c r="K8" s="24">
-        <f t="shared" si="5"/>
         <v>-1257.6908026984602</v>
       </c>
-      <c r="L8" s="23">
-        <f t="shared" si="6"/>
+      <c r="L8" s="17">
+        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
+      <c r="A9" s="15">
         <v>44498</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="16">
         <f>VLOOKUP(A9,[1]szse_innovation_100!$A:$F,6)</f>
         <v>4.8678999999999997</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="16">
         <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2)</f>
         <v>36.299999239999998</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="17">
         <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3)</f>
         <v>39.253623134275358</v>
       </c>
-      <c r="E9" s="23">
-        <f t="shared" si="7"/>
+      <c r="E9" s="17">
+        <f t="shared" si="4"/>
         <v>34459.381729895649</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="18">
         <f t="shared" si="0"/>
         <v>7078.9009079676352</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="18">
+        <f t="shared" si="5"/>
+        <v>34918.478797269257</v>
+      </c>
+      <c r="H9" s="18">
         <f t="shared" si="1"/>
-        <v>34918.478797269257</v>
-      </c>
-      <c r="H9" s="24">
+        <v>169979.662937227</v>
+      </c>
+      <c r="I9" s="18">
+        <f t="shared" si="6"/>
+        <v>167517.16799780785</v>
+      </c>
+      <c r="J9" s="18">
         <f t="shared" si="2"/>
-        <v>169979.662937227</v>
-      </c>
-      <c r="I9" s="24">
+        <v>170637.52921398092</v>
+      </c>
+      <c r="K9" s="18">
         <f t="shared" si="3"/>
-        <v>167517.16799780785</v>
-      </c>
-      <c r="J9" s="24">
-        <f t="shared" si="4"/>
-        <v>170637.52921398092</v>
-      </c>
-      <c r="K9" s="24">
-        <f t="shared" si="5"/>
         <v>3120.3612161730707</v>
       </c>
-      <c r="L9" s="23">
-        <f t="shared" si="6"/>
+      <c r="L9" s="17">
+        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
+      <c r="A10" s="15">
         <v>44530</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="16">
         <f>VLOOKUP(A10,[1]szse_innovation_100!$A:$F,6)</f>
         <v>4.9547099609374996</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="16">
         <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2)</f>
         <v>35.450000000000003</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="17">
         <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3)</f>
         <v>38.695499988749994</v>
       </c>
-      <c r="E10" s="23">
-        <f t="shared" si="7"/>
+      <c r="E10" s="17">
+        <f t="shared" si="4"/>
         <v>41606.417199055955</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="18">
         <f t="shared" si="0"/>
         <v>8397.3466715665127</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="18">
+        <f t="shared" si="5"/>
+        <v>43315.82546883577</v>
+      </c>
+      <c r="H10" s="18">
         <f t="shared" si="1"/>
-        <v>43315.82546883577</v>
-      </c>
-      <c r="H10" s="24">
+        <v>214617.35191667083</v>
+      </c>
+      <c r="I10" s="18">
+        <f t="shared" si="6"/>
+        <v>209123.5851968638</v>
+      </c>
+      <c r="J10" s="18">
         <f t="shared" si="2"/>
-        <v>214617.35191667083</v>
-      </c>
-      <c r="I10" s="24">
+        <v>215275.21819342475</v>
+      </c>
+      <c r="K10" s="18">
         <f t="shared" si="3"/>
-        <v>209123.5851968638</v>
-      </c>
-      <c r="J10" s="24">
-        <f t="shared" si="4"/>
-        <v>215275.21819342475</v>
-      </c>
-      <c r="K10" s="24">
-        <f t="shared" si="5"/>
         <v>6151.6329965609475</v>
       </c>
-      <c r="L10" s="23">
-        <f t="shared" si="6"/>
+      <c r="L10" s="17">
+        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22">
+      <c r="A11" s="15">
         <v>44561</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="16">
         <f>VLOOKUP(A11,[1]szse_innovation_100!$A:$F,6)</f>
         <v>4.8630097656249998</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="16">
         <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2)</f>
         <v>34.630000000000003</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="17">
         <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3)</f>
         <v>38.228579205136612</v>
       </c>
-      <c r="E11" s="23">
-        <f t="shared" si="7"/>
+      <c r="E11" s="17">
+        <f t="shared" si="4"/>
         <v>51151.60056778443</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="18">
         <f t="shared" si="0"/>
         <v>10518.506651859534</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="18">
+        <f t="shared" si="5"/>
+        <v>53834.332120695304</v>
+      </c>
+      <c r="H11" s="18">
         <f t="shared" si="1"/>
-        <v>53834.332120695304</v>
-      </c>
-      <c r="H11" s="24">
+        <v>261796.88282884087</v>
+      </c>
+      <c r="I11" s="18">
+        <f t="shared" si="6"/>
+        <v>260275.18576464822</v>
+      </c>
+      <c r="J11" s="18">
         <f t="shared" si="2"/>
-        <v>261796.88282884087</v>
-      </c>
-      <c r="I11" s="24">
+        <v>262454.74910559482</v>
+      </c>
+      <c r="K11" s="18">
         <f t="shared" si="3"/>
-        <v>260275.18576464822</v>
-      </c>
-      <c r="J11" s="24">
-        <f t="shared" si="4"/>
-        <v>262454.74910559482</v>
-      </c>
-      <c r="K11" s="24">
-        <f t="shared" si="5"/>
         <v>2179.5633409465954</v>
       </c>
-      <c r="L11" s="23">
-        <f t="shared" si="6"/>
+      <c r="L11" s="17">
+        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M11" s="4"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22">
+      <c r="A12" s="15">
         <v>44589</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="16">
         <f>VLOOKUP(A12,[1]szse_innovation_100!$A:$F,6)</f>
         <v>4.3440297851562502</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="16">
         <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2)</f>
         <v>31.159999849999998</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="17">
         <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3)</f>
         <v>37.710494996683174</v>
       </c>
-      <c r="E12" s="23">
-        <f t="shared" si="7"/>
+      <c r="E12" s="17">
+        <f t="shared" si="4"/>
         <v>169490.49733354338</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="18">
         <f t="shared" si="0"/>
         <v>39016.881954331948</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="18">
+        <f t="shared" si="5"/>
+        <v>92851.214075027252</v>
+      </c>
+      <c r="H12" s="18">
         <f t="shared" si="1"/>
-        <v>92851.214075027252</v>
-      </c>
-      <c r="H12" s="24">
+        <v>403348.43952983763</v>
+      </c>
+      <c r="I12" s="18">
+        <f t="shared" si="6"/>
+        <v>429765.68309819163</v>
+      </c>
+      <c r="J12" s="18">
         <f t="shared" si="2"/>
-        <v>403348.43952983763</v>
-      </c>
-      <c r="I12" s="24">
+        <v>404006.30580659158</v>
+      </c>
+      <c r="K12" s="18">
         <f t="shared" si="3"/>
-        <v>429765.68309819163</v>
-      </c>
-      <c r="J12" s="24">
-        <f t="shared" si="4"/>
-        <v>404006.30580659158</v>
-      </c>
-      <c r="K12" s="24">
-        <f t="shared" si="5"/>
         <v>-25759.377291600045</v>
       </c>
-      <c r="L12" s="23">
-        <f t="shared" si="6"/>
+      <c r="L12" s="17">
+        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M12" s="4"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22">
+      <c r="A13" s="15">
         <v>44620</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="16">
         <f>VLOOKUP(A13,[1]szse_innovation_100!$A:$F,6)</f>
         <v>4.3355400390624999</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="16">
         <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2)</f>
         <v>30.969999309999999</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="17">
         <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3)</f>
         <v>37.189770586238538</v>
       </c>
-      <c r="E13" s="23">
-        <f t="shared" si="7"/>
+      <c r="E13" s="17">
+        <f t="shared" si="4"/>
         <v>152807.94117845185</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="18">
         <f t="shared" si="0"/>
         <v>35245.422669766056</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="18">
+        <f t="shared" si="5"/>
+        <v>128096.6367447933</v>
+      </c>
+      <c r="H13" s="18">
         <f t="shared" si="1"/>
-        <v>128096.6367447933</v>
-      </c>
-      <c r="H13" s="24">
+        <v>555368.09747629601</v>
+      </c>
+      <c r="I13" s="18">
+        <f t="shared" si="6"/>
+        <v>582573.6242766435</v>
+      </c>
+      <c r="J13" s="18">
         <f t="shared" si="2"/>
-        <v>555368.09747629601</v>
-      </c>
-      <c r="I13" s="24">
+        <v>556025.96375304996</v>
+      </c>
+      <c r="K13" s="18">
         <f t="shared" si="3"/>
-        <v>582573.6242766435</v>
-      </c>
-      <c r="J13" s="24">
-        <f t="shared" si="4"/>
-        <v>556025.96375304996</v>
-      </c>
-      <c r="K13" s="24">
-        <f t="shared" si="5"/>
         <v>-26547.660523593542</v>
       </c>
-      <c r="L13" s="23">
-        <f t="shared" si="6"/>
+      <c r="L13" s="17">
+        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M13" s="4"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22">
+      <c r="A14" s="15">
         <v>44651</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="16">
         <f>VLOOKUP(A14,[1]szse_innovation_100!$A:$F,6)</f>
         <v>3.8658500976562502</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="16">
         <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2)</f>
         <v>27.63999939</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="17">
         <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3)</f>
         <v>36.340622369004151</v>
       </c>
-      <c r="E14" s="23">
-        <f t="shared" si="7"/>
+      <c r="E14" s="17">
+        <f t="shared" si="4"/>
         <v>299018.3188799615</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="18">
         <f t="shared" si="0"/>
         <v>77348.658464860651</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="18">
+        <f t="shared" si="5"/>
+        <v>205445.29520965397</v>
+      </c>
+      <c r="H14" s="18">
         <f t="shared" si="1"/>
-        <v>205445.29520965397</v>
-      </c>
-      <c r="H14" s="24">
+        <v>794220.71454925789</v>
+      </c>
+      <c r="I14" s="18">
+        <f t="shared" si="6"/>
+        <v>881591.943156605</v>
+      </c>
+      <c r="J14" s="18">
         <f t="shared" si="2"/>
-        <v>794220.71454925789</v>
-      </c>
-      <c r="I14" s="24">
+        <v>794878.58082601184</v>
+      </c>
+      <c r="K14" s="18">
         <f t="shared" si="3"/>
-        <v>881591.943156605</v>
-      </c>
-      <c r="J14" s="24">
-        <f t="shared" si="4"/>
-        <v>794878.58082601184</v>
-      </c>
-      <c r="K14" s="24">
-        <f t="shared" si="5"/>
         <v>-86713.362330593169</v>
       </c>
-      <c r="L14" s="23">
-        <f t="shared" si="6"/>
+      <c r="L14" s="17">
+        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M14" s="4"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22">
+      <c r="A15" s="15">
         <v>44680</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="16">
         <f>VLOOKUP(A15,[1]szse_innovation_100!$A:$F,6)</f>
         <v>3.5012099609375</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="16">
         <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2)</f>
         <v>25.129999160000001</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="17">
         <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3)</f>
         <v>35.566653817730753</v>
       </c>
-      <c r="E15" s="23">
-        <f t="shared" si="7"/>
+      <c r="E15" s="17">
+        <f t="shared" si="4"/>
         <v>430248.85375669535</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="18">
         <f t="shared" si="0"/>
         <v>122885.76193856422</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="18">
+        <f t="shared" si="5"/>
+        <v>328331.05714821815</v>
+      </c>
+      <c r="H15" s="18">
         <f t="shared" si="1"/>
-        <v>328331.05714821815</v>
-      </c>
-      <c r="H15" s="24">
+        <v>1149555.967772481</v>
+      </c>
+      <c r="I15" s="18">
+        <f t="shared" si="6"/>
+        <v>1311840.7969133004</v>
+      </c>
+      <c r="J15" s="18">
         <f t="shared" si="2"/>
-        <v>1149555.967772481</v>
-      </c>
-      <c r="I15" s="24">
+        <v>1150213.8340492349</v>
+      </c>
+      <c r="K15" s="18">
         <f t="shared" si="3"/>
-        <v>1311840.7969133004</v>
-      </c>
-      <c r="J15" s="24">
-        <f t="shared" si="4"/>
-        <v>1150213.8340492349</v>
-      </c>
-      <c r="K15" s="24">
-        <f t="shared" si="5"/>
         <v>-161626.96286406554</v>
       </c>
-      <c r="L15" s="23">
-        <f t="shared" si="6"/>
+      <c r="L15" s="17">
+        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M15" s="4"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22">
+      <c r="A16" s="15">
         <v>44712</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="16">
         <f>VLOOKUP(A16,[1]szse_innovation_100!$A:$F,6)</f>
         <v>3.6361599121093748</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="16">
         <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2)</f>
         <v>24.129999160000001</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="17">
         <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3)</f>
         <v>34.740573439534039</v>
       </c>
-      <c r="E16" s="23">
-        <f t="shared" si="7"/>
+      <c r="E16" s="17">
+        <f t="shared" si="4"/>
         <v>444707.93183896161</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="18">
         <f t="shared" si="0"/>
         <v>122301.53309758642</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="18">
+        <f t="shared" si="5"/>
+        <v>450632.59024580457</v>
+      </c>
+      <c r="H16" s="18">
         <f t="shared" si="1"/>
-        <v>450632.59024580457</v>
-      </c>
-      <c r="H16" s="24">
+        <v>1638572.1597418047</v>
+      </c>
+      <c r="I16" s="18">
+        <f t="shared" si="6"/>
+        <v>1756548.728752262</v>
+      </c>
+      <c r="J16" s="18">
         <f t="shared" si="2"/>
-        <v>1638572.1597418047</v>
-      </c>
-      <c r="I16" s="24">
+        <v>1639230.0260185585</v>
+      </c>
+      <c r="K16" s="18">
         <f t="shared" si="3"/>
-        <v>1756548.728752262</v>
-      </c>
-      <c r="J16" s="24">
-        <f t="shared" si="4"/>
-        <v>1639230.0260185585</v>
-      </c>
-      <c r="K16" s="24">
-        <f t="shared" si="5"/>
         <v>-117318.70273370342</v>
       </c>
-      <c r="L16" s="23">
-        <f t="shared" si="6"/>
+      <c r="L16" s="17">
+        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M16" s="4"/>
+      <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22">
+    <row r="17" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
         <v>44742</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="16">
         <f>VLOOKUP(A17,[1]szse_innovation_100!$A:$F,6)</f>
         <v>4.1096201171875002</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="16">
         <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2)</f>
         <v>27.809999470000001</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="17">
         <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3)</f>
         <v>34.119366627533324</v>
       </c>
-      <c r="E17" s="23">
-        <f t="shared" si="7"/>
+      <c r="E17" s="17">
+        <f t="shared" si="4"/>
         <v>157242.05001781249</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="18">
         <f t="shared" si="0"/>
         <v>38261.942839968433</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="18">
+        <f t="shared" si="5"/>
+        <v>488894.533085773</v>
+      </c>
+      <c r="H17" s="18">
         <f t="shared" si="1"/>
-        <v>488894.533085773</v>
-      </c>
-      <c r="H17" s="24">
+        <v>2009170.8083522827</v>
+      </c>
+      <c r="I17" s="18">
+        <f t="shared" si="6"/>
+        <v>1913790.7787700745</v>
+      </c>
+      <c r="J17" s="18">
         <f t="shared" si="2"/>
-        <v>2009170.8083522827</v>
-      </c>
-      <c r="I17" s="24">
+        <v>2009828.6746290366</v>
+      </c>
+      <c r="K17" s="18">
         <f t="shared" si="3"/>
-        <v>1913790.7787700745</v>
-      </c>
-      <c r="J17" s="24">
-        <f t="shared" si="4"/>
-        <v>2009828.6746290366</v>
-      </c>
-      <c r="K17" s="24">
-        <f t="shared" si="5"/>
         <v>96037.895858962089</v>
       </c>
-      <c r="L17" s="23">
-        <f t="shared" si="6"/>
+      <c r="L17" s="17">
+        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M17" s="4"/>
+      <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22">
+    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
         <v>44771</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="16">
         <f>VLOOKUP(A18,[1]szse_innovation_100!$A:$F,6)</f>
         <v>3.8724699707031252</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="16">
         <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
         <v>26.329999919999999</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="17">
         <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
         <v>33.666137024579427</v>
       </c>
-      <c r="E18" s="23">
-        <f t="shared" si="7"/>
+      <c r="E18" s="17">
+        <f t="shared" si="4"/>
         <v>212584.68508788882</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="18">
         <f t="shared" si="0"/>
         <v>54896.406349482881</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="18">
+        <f t="shared" si="5"/>
+        <v>543790.93943525583</v>
+      </c>
+      <c r="H18" s="18">
         <f t="shared" si="1"/>
-        <v>543790.93943525583</v>
-      </c>
-      <c r="H18" s="24">
+        <v>2105814.0833034702</v>
+      </c>
+      <c r="I18" s="18">
+        <f t="shared" si="6"/>
+        <v>2126375.4638579632</v>
+      </c>
+      <c r="J18" s="18">
         <f t="shared" si="2"/>
-        <v>2105814.0833034702</v>
-      </c>
-      <c r="I18" s="24">
+        <v>2106471.9495802242</v>
+      </c>
+      <c r="K18" s="18">
         <f t="shared" si="3"/>
-        <v>2126375.4638579632</v>
-      </c>
-      <c r="J18" s="24">
-        <f t="shared" si="4"/>
-        <v>2106471.9495802242</v>
-      </c>
-      <c r="K18" s="24">
-        <f t="shared" si="5"/>
         <v>-19903.514277738985</v>
       </c>
-      <c r="L18" s="23">
-        <f t="shared" si="6"/>
+      <c r="L18" s="17">
+        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M18" s="4"/>
+      <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22">
+    <row r="19" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
         <v>44804</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="16">
         <f>VLOOKUP(A19,[1]szse_innovation_100!$A:$F,6)</f>
         <v>3.7022099609375001</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="16">
         <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
         <v>25.18000031</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="17">
         <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
         <v>33.177616240465106</v>
       </c>
-      <c r="E19" s="23">
-        <f t="shared" si="7"/>
+      <c r="E19" s="17">
+        <f t="shared" si="4"/>
         <v>252649.34925635549</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="18">
         <f t="shared" si="0"/>
         <v>68242.847359304767</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="18">
+        <f t="shared" si="5"/>
+        <v>612033.78679456061</v>
+      </c>
+      <c r="H19" s="18">
         <f t="shared" si="1"/>
-        <v>612033.78679456061</v>
-      </c>
-      <c r="H19" s="24">
+        <v>2265877.5819011205</v>
+      </c>
+      <c r="I19" s="18">
+        <f t="shared" si="6"/>
+        <v>2379024.8131143185</v>
+      </c>
+      <c r="J19" s="18">
         <f t="shared" si="2"/>
-        <v>2265877.5819011205</v>
-      </c>
-      <c r="I19" s="24">
+        <v>2266535.4481778746</v>
+      </c>
+      <c r="K19" s="18">
         <f t="shared" si="3"/>
-        <v>2379024.8131143185</v>
-      </c>
-      <c r="J19" s="24">
+        <v>-112489.36493644398</v>
+      </c>
+      <c r="L19" s="17">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <v>44834</v>
+      </c>
+      <c r="B20" s="16">
+        <f>VLOOKUP(A20,[1]szse_innovation_100!$A:$F,6)</f>
+        <v>3.3477299804687499</v>
+      </c>
+      <c r="C20" s="16">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <v>23.340000150000002</v>
+      </c>
+      <c r="D20" s="17">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
+        <v>32.601424623862997</v>
+      </c>
+      <c r="E20" s="17">
         <f t="shared" si="4"/>
-        <v>2266535.4481778746</v>
-      </c>
-      <c r="K19" s="24">
+        <v>338807.23397602042</v>
+      </c>
+      <c r="F20" s="18">
+        <f t="shared" si="0"/>
+        <v>101205.06610529579</v>
+      </c>
+      <c r="G20" s="18">
         <f t="shared" si="5"/>
-        <v>-112489.36493644398</v>
-      </c>
-      <c r="L19" s="23">
+        <v>713238.8528998564</v>
+      </c>
+      <c r="H20" s="18">
+        <f t="shared" si="1"/>
+        <v>2387731.09108799</v>
+      </c>
+      <c r="I20" s="18">
         <f t="shared" si="6"/>
+        <v>2717832.047090339</v>
+      </c>
+      <c r="J20" s="18">
+        <f t="shared" si="2"/>
+        <v>2388388.957364744</v>
+      </c>
+      <c r="K20" s="18">
+        <f t="shared" si="3"/>
+        <v>-329443.08972559497</v>
+      </c>
+      <c r="L20" s="17">
+        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M19" s="4"/>
+      <c r="M20" s="8"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M32" s="7"/>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M40" s="7"/>
+    </row>
+    <row r="41" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M41" s="7"/>
+    </row>
+    <row r="42" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M42" s="7"/>
+    </row>
+    <row r="43" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M43" s="7"/>
+    </row>
+    <row r="44" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M44" s="7"/>
+    </row>
+    <row r="45" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M45" s="7"/>
+    </row>
+    <row r="46" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M46" s="7"/>
+    </row>
+    <row r="47" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M47" s="7"/>
+    </row>
+    <row r="48" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M48" s="7"/>
+    </row>
+    <row r="49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M95" s="7"/>
+    </row>
+    <row r="96" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M96" s="7"/>
+    </row>
+    <row r="97" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M97" s="7"/>
+    </row>
+    <row r="98" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M98" s="7"/>
+    </row>
+    <row r="99" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M99" s="7"/>
+    </row>
+    <row r="100" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M100" s="7"/>
+    </row>
+    <row r="101" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M101" s="7"/>
+    </row>
+    <row r="102" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M102" s="7"/>
+    </row>
+    <row r="103" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M103" s="7"/>
+    </row>
+    <row r="104" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M104" s="7"/>
+      <c r="P104" s="3"/>
+    </row>
+    <row r="105" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M105" s="7"/>
+    </row>
+    <row r="106" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M106" s="7"/>
+    </row>
+    <row r="107" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M107" s="7"/>
+    </row>
+    <row r="108" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M108" s="7"/>
+    </row>
+    <row r="109" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M109" s="7"/>
+    </row>
+    <row r="110" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M110" s="7"/>
+    </row>
+    <row r="111" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M111" s="7"/>
+    </row>
+    <row r="112" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M112" s="7"/>
+    </row>
+    <row r="113" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M113" s="7"/>
+    </row>
+    <row r="114" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M114" s="7"/>
+    </row>
+    <row r="115" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M115" s="7"/>
+    </row>
+    <row r="116" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M116" s="7"/>
+      <c r="P116" s="3"/>
+    </row>
+    <row r="117" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M117" s="7"/>
+    </row>
+    <row r="118" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M118" s="7"/>
+    </row>
+    <row r="119" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M119" s="7"/>
+    </row>
+    <row r="120" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M120" s="7"/>
+    </row>
+    <row r="121" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M121" s="7"/>
+    </row>
+    <row r="122" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M122" s="7"/>
+    </row>
+    <row r="123" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M123" s="7"/>
+    </row>
+    <row r="124" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M124" s="7"/>
+    </row>
+    <row r="125" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M125" s="7"/>
+    </row>
+    <row r="126" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M126" s="7"/>
+    </row>
+    <row r="127" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M127" s="7"/>
+    </row>
+    <row r="128" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M128" s="7"/>
+      <c r="P128" s="3"/>
+    </row>
+    <row r="129" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M129" s="7"/>
+    </row>
+    <row r="130" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M130" s="7"/>
+    </row>
+    <row r="131" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M131" s="7"/>
+    </row>
+    <row r="132" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M132" s="7"/>
+    </row>
+    <row r="133" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M133" s="7"/>
+    </row>
+    <row r="134" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M134" s="7"/>
+    </row>
+    <row r="135" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M135" s="7"/>
+    </row>
+    <row r="136" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M136" s="7"/>
+    </row>
+    <row r="137" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M137" s="7"/>
+    </row>
+    <row r="138" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M138" s="7"/>
+    </row>
+    <row r="139" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M139" s="7"/>
+    </row>
+    <row r="140" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M140" s="7"/>
+      <c r="P140" s="3"/>
+    </row>
+    <row r="141" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M141" s="7"/>
+    </row>
+    <row r="142" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M142" s="7"/>
+    </row>
+    <row r="143" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M143" s="7"/>
+    </row>
+    <row r="144" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M144" s="7"/>
+    </row>
+    <row r="145" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M145" s="7"/>
+    </row>
+    <row r="146" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M146" s="7"/>
+    </row>
+    <row r="147" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M147" s="7"/>
+    </row>
+    <row r="148" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M148" s="7"/>
+    </row>
+    <row r="149" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M149" s="7"/>
+    </row>
+    <row r="150" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M150" s="7"/>
+    </row>
+    <row r="151" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M151" s="7"/>
+    </row>
+    <row r="152" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M152" s="7"/>
+      <c r="P152" s="3"/>
+    </row>
+    <row r="153" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M153" s="7"/>
+    </row>
+    <row r="154" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M154" s="7"/>
+    </row>
+    <row r="155" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M155" s="7"/>
+    </row>
+    <row r="156" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M156" s="7"/>
+    </row>
+    <row r="157" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M157" s="7"/>
+    </row>
+    <row r="158" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M158" s="7"/>
+    </row>
+    <row r="159" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M159" s="7"/>
+    </row>
+    <row r="160" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M160" s="7"/>
+    </row>
+    <row r="161" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M161" s="7"/>
+    </row>
+    <row r="162" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M162" s="7"/>
+    </row>
+    <row r="163" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M163" s="7"/>
+    </row>
+    <row r="164" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M164" s="7"/>
+      <c r="P164" s="3"/>
+    </row>
+    <row r="165" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M165" s="7"/>
+    </row>
+    <row r="166" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M166" s="7"/>
+    </row>
+    <row r="167" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M167" s="7"/>
+    </row>
+    <row r="168" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M168" s="7"/>
+    </row>
+    <row r="169" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M169" s="7"/>
+    </row>
+    <row r="170" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M170" s="4"/>
+    </row>
+    <row r="171" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M171" s="4"/>
+    </row>
+    <row r="172" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M172" s="4"/>
+    </row>
+    <row r="173" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M173" s="4"/>
+    </row>
+    <row r="174" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M174" s="4"/>
+    </row>
+    <row r="175" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M175" s="4"/>
+    </row>
+    <row r="176" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M176" s="4"/>
+    </row>
+    <row r="177" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M177" s="4"/>
+    </row>
+    <row r="178" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M178" s="4"/>
+    </row>
+    <row r="179" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M179" s="4"/>
+    </row>
+    <row r="180" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M180" s="4"/>
+    </row>
+    <row r="181" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M181" s="4"/>
+    </row>
+    <row r="182" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M182" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -19922,7 +20491,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model4(1)'!$P$1:$P$187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model4(1)'!$P$1:$P$186</definedName>
     <definedName name="金额" localSheetId="0">OFFSET('model4(1)'!K1,0,0,COUNTA('model4(1)'!K:K)-1)</definedName>
     <definedName name="买卖" localSheetId="0">OFFSET('model4(1)'!E1,0,0,COUNTA('model4(1)'!E:E)-2)</definedName>
     <definedName name="时间" localSheetId="0">OFFSET('model4(1)'!A1,0,0,COUNTA('model4(1)'!A:A)-1)</definedName>
@@ -862,11 +862,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87316736"/>
-        <c:axId val="87330816"/>
+        <c:axId val="148380672"/>
+        <c:axId val="210142336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87316736"/>
+        <c:axId val="148380672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,14 +909,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87330816"/>
+        <c:crossAx val="210142336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="87330816"/>
+        <c:axId val="210142336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -967,7 +967,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87316736"/>
+        <c:crossAx val="148380672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1195,8 +1195,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="604940928"/>
-        <c:axId val="604939008"/>
+        <c:axId val="273960960"/>
+        <c:axId val="273441152"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1354,11 +1354,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="526964224"/>
-        <c:axId val="526965760"/>
+        <c:axId val="271117312"/>
+        <c:axId val="273060608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="526964224"/>
+        <c:axId val="271117312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,14 +1401,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526965760"/>
+        <c:crossAx val="273060608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="526965760"/>
+        <c:axId val="273060608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1459,12 +1459,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526964224"/>
+        <c:crossAx val="271117312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="604939008"/>
+        <c:axId val="273441152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1501,12 +1501,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604940928"/>
+        <c:crossAx val="273960960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="604940928"/>
+        <c:axId val="273960960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1515,7 +1515,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="604939008"/>
+        <c:crossAx val="273441152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1579,7 +1579,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1611,7 +1611,7 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14488,6 +14488,326 @@
             <v>3.3477299804687499</v>
           </cell>
         </row>
+        <row r="644">
+          <cell r="A644">
+            <v>44844</v>
+          </cell>
+          <cell r="B644">
+            <v>3343.81005859375</v>
+          </cell>
+          <cell r="C644">
+            <v>3346.669921875</v>
+          </cell>
+          <cell r="D644">
+            <v>3256.929931640625</v>
+          </cell>
+          <cell r="E644">
+            <v>3261.929931640625</v>
+          </cell>
+          <cell r="F644">
+            <v>3.2619299316406249</v>
+          </cell>
+        </row>
+        <row r="645">
+          <cell r="A645">
+            <v>44845</v>
+          </cell>
+          <cell r="B645">
+            <v>3279.3798828125</v>
+          </cell>
+          <cell r="C645">
+            <v>3299.820068359375</v>
+          </cell>
+          <cell r="D645">
+            <v>3265.889892578125</v>
+          </cell>
+          <cell r="E645">
+            <v>3289.3798828125</v>
+          </cell>
+          <cell r="F645">
+            <v>3.2893798828124998</v>
+          </cell>
+        </row>
+        <row r="646">
+          <cell r="A646">
+            <v>44846</v>
+          </cell>
+          <cell r="B646">
+            <v>3282.8701171875</v>
+          </cell>
+          <cell r="C646">
+            <v>3394.090087890625</v>
+          </cell>
+          <cell r="D646">
+            <v>3246.179931640625</v>
+          </cell>
+          <cell r="E646">
+            <v>3393.550048828125</v>
+          </cell>
+          <cell r="F646">
+            <v>3.3935500488281249</v>
+          </cell>
+        </row>
+        <row r="647">
+          <cell r="A647">
+            <v>44847</v>
+          </cell>
+          <cell r="B647">
+            <v>3370.300048828125</v>
+          </cell>
+          <cell r="C647">
+            <v>3419.0400390625</v>
+          </cell>
+          <cell r="D647">
+            <v>3360.389892578125</v>
+          </cell>
+          <cell r="E647">
+            <v>3384.889892578125</v>
+          </cell>
+          <cell r="F647">
+            <v>3.384889892578125</v>
+          </cell>
+        </row>
+        <row r="648">
+          <cell r="A648">
+            <v>44848</v>
+          </cell>
+          <cell r="B648">
+            <v>3422.25</v>
+          </cell>
+          <cell r="C648">
+            <v>3514.3798828125</v>
+          </cell>
+          <cell r="D648">
+            <v>3408.35009765625</v>
+          </cell>
+          <cell r="E648">
+            <v>3494.800048828125</v>
+          </cell>
+          <cell r="F648">
+            <v>3.4948000488281248</v>
+          </cell>
+        </row>
+        <row r="649">
+          <cell r="A649">
+            <v>44851</v>
+          </cell>
+          <cell r="B649">
+            <v>3476.409912109375</v>
+          </cell>
+          <cell r="C649">
+            <v>3515.889892578125</v>
+          </cell>
+          <cell r="D649">
+            <v>3470.8701171875</v>
+          </cell>
+          <cell r="E649">
+            <v>3512.5</v>
+          </cell>
+          <cell r="F649">
+            <v>3.5125000000000002</v>
+          </cell>
+        </row>
+        <row r="650">
+          <cell r="A650">
+            <v>44852</v>
+          </cell>
+          <cell r="B650">
+            <v>3541.27001953125</v>
+          </cell>
+          <cell r="C650">
+            <v>3558.300048828125</v>
+          </cell>
+          <cell r="D650">
+            <v>3508.800048828125</v>
+          </cell>
+          <cell r="E650">
+            <v>3528.550048828125</v>
+          </cell>
+          <cell r="F650">
+            <v>3.5285500488281252</v>
+          </cell>
+        </row>
+        <row r="651">
+          <cell r="A651">
+            <v>44853</v>
+          </cell>
+          <cell r="B651">
+            <v>3518.679931640625</v>
+          </cell>
+          <cell r="C651">
+            <v>3538.050048828125</v>
+          </cell>
+          <cell r="D651">
+            <v>3488.25</v>
+          </cell>
+          <cell r="E651">
+            <v>3488.52001953125</v>
+          </cell>
+          <cell r="F651">
+            <v>3.4885200195312498</v>
+          </cell>
+        </row>
+        <row r="652">
+          <cell r="A652">
+            <v>44854</v>
+          </cell>
+          <cell r="B652">
+            <v>3458.52001953125</v>
+          </cell>
+          <cell r="C652">
+            <v>3513.31005859375</v>
+          </cell>
+          <cell r="D652">
+            <v>3414.3701171875</v>
+          </cell>
+          <cell r="E652">
+            <v>3460.64990234375</v>
+          </cell>
+          <cell r="F652">
+            <v>3.46064990234375</v>
+          </cell>
+        </row>
+        <row r="653">
+          <cell r="A653">
+            <v>44855</v>
+          </cell>
+          <cell r="B653">
+            <v>3447.35009765625</v>
+          </cell>
+          <cell r="C653">
+            <v>3468.64990234375</v>
+          </cell>
+          <cell r="D653">
+            <v>3434.070068359375</v>
+          </cell>
+          <cell r="E653">
+            <v>3452.3798828125</v>
+          </cell>
+          <cell r="F653">
+            <v>3.4523798828125001</v>
+          </cell>
+        </row>
+        <row r="654">
+          <cell r="A654">
+            <v>44858</v>
+          </cell>
+          <cell r="B654">
+            <v>3446.139892578125</v>
+          </cell>
+          <cell r="C654">
+            <v>3487.570068359375</v>
+          </cell>
+          <cell r="D654">
+            <v>3357.989990234375</v>
+          </cell>
+          <cell r="E654">
+            <v>3378.89990234375</v>
+          </cell>
+          <cell r="F654">
+            <v>3.37889990234375</v>
+          </cell>
+        </row>
+        <row r="655">
+          <cell r="A655">
+            <v>44859</v>
+          </cell>
+          <cell r="B655">
+            <v>3364.510009765625</v>
+          </cell>
+          <cell r="C655">
+            <v>3407.090087890625</v>
+          </cell>
+          <cell r="D655">
+            <v>3325.6298828125</v>
+          </cell>
+          <cell r="E655">
+            <v>3367.929931640625</v>
+          </cell>
+          <cell r="F655">
+            <v>3.3679299316406248</v>
+          </cell>
+        </row>
+        <row r="656">
+          <cell r="A656">
+            <v>44860</v>
+          </cell>
+          <cell r="B656">
+            <v>3380.97998046875</v>
+          </cell>
+          <cell r="C656">
+            <v>3468.889892578125</v>
+          </cell>
+          <cell r="D656">
+            <v>3374.47998046875</v>
+          </cell>
+          <cell r="E656">
+            <v>3434.7099609375</v>
+          </cell>
+          <cell r="F656">
+            <v>3.4347099609375</v>
+          </cell>
+        </row>
+        <row r="657">
+          <cell r="A657">
+            <v>44861</v>
+          </cell>
+          <cell r="B657">
+            <v>3445.030029296875</v>
+          </cell>
+          <cell r="C657">
+            <v>3451.7099609375</v>
+          </cell>
+          <cell r="D657">
+            <v>3407.320068359375</v>
+          </cell>
+          <cell r="E657">
+            <v>3408</v>
+          </cell>
+          <cell r="F657">
+            <v>3.4079999999999999</v>
+          </cell>
+        </row>
+        <row r="658">
+          <cell r="A658">
+            <v>44862</v>
+          </cell>
+          <cell r="B658">
+            <v>3374.10009765625</v>
+          </cell>
+          <cell r="C658">
+            <v>3387.27001953125</v>
+          </cell>
+          <cell r="D658">
+            <v>3278.010009765625</v>
+          </cell>
+          <cell r="E658">
+            <v>3287.969970703125</v>
+          </cell>
+          <cell r="F658">
+            <v>3.2879699707031249</v>
+          </cell>
+        </row>
+        <row r="659">
+          <cell r="A659">
+            <v>44865</v>
+          </cell>
+          <cell r="B659">
+            <v>3256.2900390625</v>
+          </cell>
+          <cell r="C659">
+            <v>3338.070068359375</v>
+          </cell>
+          <cell r="D659">
+            <v>3254.77001953125</v>
+          </cell>
+          <cell r="E659">
+            <v>3299.39990234375</v>
+          </cell>
+          <cell r="F659">
+            <v>3.2993999023437501</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
@@ -14515,7 +14835,9 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="B2"/>
+          <cell r="B2">
+            <v>0</v>
+          </cell>
           <cell r="C2" t="str">
             <v>PE</v>
           </cell>
@@ -19031,7 +19353,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W182"/>
+  <dimension ref="A1:W181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19255,23 +19577,23 @@
         <v>260275.18576464822</v>
       </c>
       <c r="R4" s="5">
-        <f t="shared" ref="R4" si="8">VLOOKUP(P4,A:I,9,)</f>
+        <f>VLOOKUP(P4,A:I,9,)</f>
         <v>260275.18576464822</v>
       </c>
       <c r="S4" s="5">
-        <f t="shared" ref="S4" si="9">VLOOKUP(P4,A:J,10,)</f>
+        <f>VLOOKUP(P4,A:J,10,)</f>
         <v>262454.74910559482</v>
       </c>
       <c r="T4" s="5">
-        <f t="shared" ref="T4" si="10">VLOOKUP(P4,A:K,11,)</f>
+        <f>VLOOKUP(P4,A:K,11,)</f>
         <v>2179.5633409465954</v>
       </c>
       <c r="U4" s="5">
-        <f t="shared" ref="U4" si="11">VLOOKUP(P4,A:L,12,)</f>
+        <f>VLOOKUP(P4,A:L,12,)</f>
         <v>657.86627675392538</v>
       </c>
       <c r="V4" s="9">
-        <f t="shared" ref="V4" si="12">(S4-R4)/R4</f>
+        <f t="shared" ref="V4" si="8">(S4-R4)/R4</f>
         <v>8.3740727512819774E-3</v>
       </c>
       <c r="W4" s="9">
@@ -20112,10 +20434,10 @@
     </row>
     <row r="31" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M31" s="7"/>
+      <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M32" s="7"/>
-      <c r="P32" s="3"/>
     </row>
     <row r="33" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M33" s="7"/>
@@ -20162,9 +20484,7 @@
     <row r="47" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M47" s="7"/>
     </row>
-    <row r="48" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M48" s="7"/>
-    </row>
+    <row r="48" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20207,12 +20527,14 @@
     <row r="88" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="89" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="90" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="P92" s="3"/>
+    <row r="91" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P91" s="3"/>
     </row>
+    <row r="92" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="93" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M94" s="7"/>
+    </row>
     <row r="95" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M95" s="7"/>
     </row>
@@ -20239,10 +20561,10 @@
     </row>
     <row r="103" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M103" s="7"/>
+      <c r="P103" s="3"/>
     </row>
     <row r="104" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M104" s="7"/>
-      <c r="P104" s="3"/>
     </row>
     <row r="105" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M105" s="7"/>
@@ -20276,10 +20598,10 @@
     </row>
     <row r="115" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M115" s="7"/>
+      <c r="P115" s="3"/>
     </row>
     <row r="116" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M116" s="7"/>
-      <c r="P116" s="3"/>
     </row>
     <row r="117" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M117" s="7"/>
@@ -20313,10 +20635,10 @@
     </row>
     <row r="127" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M127" s="7"/>
+      <c r="P127" s="3"/>
     </row>
     <row r="128" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M128" s="7"/>
-      <c r="P128" s="3"/>
     </row>
     <row r="129" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M129" s="7"/>
@@ -20350,10 +20672,10 @@
     </row>
     <row r="139" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M139" s="7"/>
+      <c r="P139" s="3"/>
     </row>
     <row r="140" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M140" s="7"/>
-      <c r="P140" s="3"/>
     </row>
     <row r="141" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M141" s="7"/>
@@ -20387,10 +20709,10 @@
     </row>
     <row r="151" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M151" s="7"/>
+      <c r="P151" s="3"/>
     </row>
     <row r="152" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M152" s="7"/>
-      <c r="P152" s="3"/>
     </row>
     <row r="153" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M153" s="7"/>
@@ -20424,10 +20746,10 @@
     </row>
     <row r="163" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M163" s="7"/>
+      <c r="P163" s="3"/>
     </row>
     <row r="164" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M164" s="7"/>
-      <c r="P164" s="3"/>
     </row>
     <row r="165" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M165" s="7"/>
@@ -20442,7 +20764,7 @@
       <c r="M168" s="7"/>
     </row>
     <row r="169" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M169" s="7"/>
+      <c r="M169" s="4"/>
     </row>
     <row r="170" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M170" s="4"/>
@@ -20480,9 +20802,6 @@
     <row r="181" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M181" s="4"/>
     </row>
-    <row r="182" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M182" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="model4(1)" sheetId="7" r:id="rId1"/>
+    <sheet name="model4(1)" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model4(1)'!$P$1:$P$186</definedName>
     <definedName name="金额" localSheetId="0">OFFSET('model4(1)'!K1,0,0,COUNTA('model4(1)'!K:K)-1)</definedName>
     <definedName name="买卖" localSheetId="0">OFFSET('model4(1)'!E1,0,0,COUNTA('model4(1)'!E:E)-2)</definedName>
     <definedName name="时间" localSheetId="0">OFFSET('model4(1)'!A1,0,0,COUNTA('model4(1)'!A:A)-1)</definedName>
@@ -22,159 +20,113 @@
     <definedName name="资产" localSheetId="0">OFFSET('model4(1)'!J1,0,0,COUNTA('model4(1)'!J:J)-1)</definedName>
     <definedName name="资金" localSheetId="0">OFFSET('model4(1)'!I1,0,0,COUNTA('model4(1)'!I:I)-1)</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>szse innovation100</t>
-  </si>
-  <si>
-    <t>historical PE mean</t>
-  </si>
-  <si>
-    <t>sales amount</t>
-  </si>
-  <si>
-    <t>sales shares</t>
-  </si>
-  <si>
-    <t>shares held</t>
-  </si>
-  <si>
-    <t>market value</t>
-  </si>
-  <si>
-    <t>accumulated investment</t>
-  </si>
-  <si>
-    <t>total assets</t>
-  </si>
-  <si>
-    <t>profit amount</t>
-  </si>
-  <si>
-    <t>recovered funds</t>
-  </si>
-  <si>
-    <t>investment per year</t>
-  </si>
-  <si>
-    <t>absolute RR</t>
-  </si>
-  <si>
-    <t>annualized RR</t>
-  </si>
-  <si>
-    <t>unit:yuan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.00_);(0.00)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
       <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="0"/>
       <sz val="10"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <color indexed="10"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="10"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <color rgb="00ff0000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -223,65 +175,95 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="45">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -300,36 +282,88 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -347,536 +381,537 @@
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
+        </rich>
+      </tx>
+      <layout/>
+      <overlay val="0"/>
+      <spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13008136046222177"/>
-          <c:y val="7.4401451718666578E-2"/>
-          <c:w val="0.83511435446609106"/>
-          <c:h val="0.59209072023586662"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'model4(1)'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>accumulated investment</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
+      </spPr>
+    </title>
+    <plotArea>
+      <layout>
+        <manualLayout>
+          <layoutTarget val="inner"/>
+          <xMode val="edge"/>
+          <yMode val="edge"/>
+          <wMode val="factor"/>
+          <hMode val="factor"/>
+          <x val="0.1300813604622218"/>
+          <y val="0.07440145171866658"/>
+          <w val="0.8351143544660911"/>
+          <h val="0.5920907202358666"/>
+        </manualLayout>
+      </layout>
+      <lineChart>
+        <grouping val="standard"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'model4(1)'!$I$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>accumulated investment</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'model4(1)'!时间</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>44316</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44347</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44377</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44407</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44439</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44469</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44498</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44530</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44589</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44620</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44651</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44680</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44712</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44771</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44804</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44834</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'model4(1)'!资金</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15057.369992695269</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15057.369992695269</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19011.31844749668</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45400.106469620208</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>133057.78626791219</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>167517.16799780785</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>209123.5851968638</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>260275.18576464822</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>429765.68309819163</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>582573.6242766435</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>881591.943156605</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1311840.7969133004</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1756548.728752262</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1913790.7787700745</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2126375.4638579632</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2379024.8131143185</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2717832.047090339</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D6A0-4C10-8CC9-BF21CBF2A97F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'model4(1)'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>total assets</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'model4(1)'!时间</f>
+              <numCache>
+                <formatCode>yyyy\-mm\-dd</formatCode>
+                <ptCount val="18"/>
+                <pt idx="0">
+                  <v>44316</v>
+                </pt>
+                <pt idx="1">
+                  <v>44347</v>
+                </pt>
+                <pt idx="2">
+                  <v>44377</v>
+                </pt>
+                <pt idx="3">
+                  <v>44407</v>
+                </pt>
+                <pt idx="4">
+                  <v>44439</v>
+                </pt>
+                <pt idx="5">
+                  <v>44469</v>
+                </pt>
+                <pt idx="6">
+                  <v>44498</v>
+                </pt>
+                <pt idx="7">
+                  <v>44530</v>
+                </pt>
+                <pt idx="8">
+                  <v>44561</v>
+                </pt>
+                <pt idx="9">
+                  <v>44589</v>
+                </pt>
+                <pt idx="10">
+                  <v>44620</v>
+                </pt>
+                <pt idx="11">
+                  <v>44651</v>
+                </pt>
+                <pt idx="12">
+                  <v>44680</v>
+                </pt>
+                <pt idx="13">
+                  <v>44712</v>
+                </pt>
+                <pt idx="14">
+                  <v>44742</v>
+                </pt>
+                <pt idx="15">
+                  <v>44771</v>
+                </pt>
+                <pt idx="16">
+                  <v>44804</v>
+                </pt>
+                <pt idx="17">
+                  <v>44834</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'model4(1)'!资金</f>
+              <numCache>
+                <formatCode xml:space="preserve">0.00_ </formatCode>
+                <ptCount val="18"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>15057.36999269527</v>
+                </pt>
+                <pt idx="2">
+                  <v>15057.36999269527</v>
+                </pt>
+                <pt idx="3">
+                  <v>19011.31844749668</v>
+                </pt>
+                <pt idx="4">
+                  <v>45400.10646962021</v>
+                </pt>
+                <pt idx="5">
+                  <v>133057.7862679122</v>
+                </pt>
+                <pt idx="6">
+                  <v>167517.1679978078</v>
+                </pt>
+                <pt idx="7">
+                  <v>209123.5851968638</v>
+                </pt>
+                <pt idx="8">
+                  <v>260275.1857646482</v>
+                </pt>
+                <pt idx="9">
+                  <v>429765.6830981916</v>
+                </pt>
+                <pt idx="10">
+                  <v>582573.6242766435</v>
+                </pt>
+                <pt idx="11">
+                  <v>881591.943156605</v>
+                </pt>
+                <pt idx="12">
+                  <v>1311840.7969133</v>
+                </pt>
+                <pt idx="13">
+                  <v>1756548.728752262</v>
+                </pt>
+                <pt idx="14">
+                  <v>1913790.778770074</v>
+                </pt>
+                <pt idx="15">
+                  <v>2126375.463857963</v>
+                </pt>
+                <pt idx="16">
+                  <v>2379024.813114319</v>
+                </pt>
+                <pt idx="17">
+                  <v>2717832.047090339</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'model4(1)'!$J$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>total assets</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'model4(1)'!时间</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>44316</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44347</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44377</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44407</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44439</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44469</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44498</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44530</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44589</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44620</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44651</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44680</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44712</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44771</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44804</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44834</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'model4(1)'!资产</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15057.369992695269</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15452.860779547693</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19019.5878494305</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44610.15723019126</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>131800.09546521373</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>170637.52921398092</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>215275.21819342475</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>262454.74910559482</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>404006.30580659158</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>556025.96375304996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>794878.58082601184</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1150213.8340492349</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1639230.0260185585</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2009828.6746290366</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2106471.9495802242</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2266535.4481778746</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2388388.957364744</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D6A0-4C10-8CC9-BF21CBF2A97F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'model4(1)'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>profit amount</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'model4(1)'!时间</f>
+              <numCache>
+                <formatCode>yyyy\-mm\-dd</formatCode>
+                <ptCount val="18"/>
+                <pt idx="0">
+                  <v>44316</v>
+                </pt>
+                <pt idx="1">
+                  <v>44347</v>
+                </pt>
+                <pt idx="2">
+                  <v>44377</v>
+                </pt>
+                <pt idx="3">
+                  <v>44407</v>
+                </pt>
+                <pt idx="4">
+                  <v>44439</v>
+                </pt>
+                <pt idx="5">
+                  <v>44469</v>
+                </pt>
+                <pt idx="6">
+                  <v>44498</v>
+                </pt>
+                <pt idx="7">
+                  <v>44530</v>
+                </pt>
+                <pt idx="8">
+                  <v>44561</v>
+                </pt>
+                <pt idx="9">
+                  <v>44589</v>
+                </pt>
+                <pt idx="10">
+                  <v>44620</v>
+                </pt>
+                <pt idx="11">
+                  <v>44651</v>
+                </pt>
+                <pt idx="12">
+                  <v>44680</v>
+                </pt>
+                <pt idx="13">
+                  <v>44712</v>
+                </pt>
+                <pt idx="14">
+                  <v>44742</v>
+                </pt>
+                <pt idx="15">
+                  <v>44771</v>
+                </pt>
+                <pt idx="16">
+                  <v>44804</v>
+                </pt>
+                <pt idx="17">
+                  <v>44834</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'model4(1)'!资产</f>
+              <numCache>
+                <formatCode xml:space="preserve">0.00_ </formatCode>
+                <ptCount val="18"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>15057.36999269527</v>
+                </pt>
+                <pt idx="2">
+                  <v>15452.86077954769</v>
+                </pt>
+                <pt idx="3">
+                  <v>19019.5878494305</v>
+                </pt>
+                <pt idx="4">
+                  <v>44610.15723019126</v>
+                </pt>
+                <pt idx="5">
+                  <v>131800.0954652137</v>
+                </pt>
+                <pt idx="6">
+                  <v>170637.5292139809</v>
+                </pt>
+                <pt idx="7">
+                  <v>215275.2181934247</v>
+                </pt>
+                <pt idx="8">
+                  <v>262454.7491055948</v>
+                </pt>
+                <pt idx="9">
+                  <v>404006.3058065916</v>
+                </pt>
+                <pt idx="10">
+                  <v>556025.96375305</v>
+                </pt>
+                <pt idx="11">
+                  <v>794878.5808260118</v>
+                </pt>
+                <pt idx="12">
+                  <v>1150213.834049235</v>
+                </pt>
+                <pt idx="13">
+                  <v>1639230.026018559</v>
+                </pt>
+                <pt idx="14">
+                  <v>2009828.674629037</v>
+                </pt>
+                <pt idx="15">
+                  <v>2106471.949580224</v>
+                </pt>
+                <pt idx="16">
+                  <v>2266535.448177875</v>
+                </pt>
+                <pt idx="17">
+                  <v>2388388.957364744</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'model4(1)'!$K$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>profit amount</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'model4(1)'!时间</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>44316</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44347</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44377</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44407</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44439</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44469</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44498</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44530</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44589</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44620</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44651</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44680</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44712</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44771</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44804</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44834</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'model4(1)'!金额</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>395.49078685242421</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.2694019338196085</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-789.9492394289482</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1257.6908026984602</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3120.3612161730707</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6151.6329965609475</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2179.5633409465954</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-25759.377291600045</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-26547.660523593542</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-86713.362330593169</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-161626.96286406554</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-117318.70273370342</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>96037.895858962089</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-19903.514277738985</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-112489.36493644398</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-329443.08972559497</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D6A0-4C10-8CC9-BF21CBF2A97F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="148380672"/>
-        <c:axId val="210142336"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="148380672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'model4(1)'!时间</f>
+              <numCache>
+                <formatCode>yyyy\-mm\-dd</formatCode>
+                <ptCount val="18"/>
+                <pt idx="0">
+                  <v>44316</v>
+                </pt>
+                <pt idx="1">
+                  <v>44347</v>
+                </pt>
+                <pt idx="2">
+                  <v>44377</v>
+                </pt>
+                <pt idx="3">
+                  <v>44407</v>
+                </pt>
+                <pt idx="4">
+                  <v>44439</v>
+                </pt>
+                <pt idx="5">
+                  <v>44469</v>
+                </pt>
+                <pt idx="6">
+                  <v>44498</v>
+                </pt>
+                <pt idx="7">
+                  <v>44530</v>
+                </pt>
+                <pt idx="8">
+                  <v>44561</v>
+                </pt>
+                <pt idx="9">
+                  <v>44589</v>
+                </pt>
+                <pt idx="10">
+                  <v>44620</v>
+                </pt>
+                <pt idx="11">
+                  <v>44651</v>
+                </pt>
+                <pt idx="12">
+                  <v>44680</v>
+                </pt>
+                <pt idx="13">
+                  <v>44712</v>
+                </pt>
+                <pt idx="14">
+                  <v>44742</v>
+                </pt>
+                <pt idx="15">
+                  <v>44771</v>
+                </pt>
+                <pt idx="16">
+                  <v>44804</v>
+                </pt>
+                <pt idx="17">
+                  <v>44834</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'model4(1)'!金额</f>
+              <numCache>
+                <formatCode xml:space="preserve">0.00_ </formatCode>
+                <ptCount val="18"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0</v>
+                </pt>
+                <pt idx="2">
+                  <v>395.4907868524242</v>
+                </pt>
+                <pt idx="3">
+                  <v>8.269401933819609</v>
+                </pt>
+                <pt idx="4">
+                  <v>-789.9492394289482</v>
+                </pt>
+                <pt idx="5">
+                  <v>-1257.69080269846</v>
+                </pt>
+                <pt idx="6">
+                  <v>3120.361216173071</v>
+                </pt>
+                <pt idx="7">
+                  <v>6151.632996560948</v>
+                </pt>
+                <pt idx="8">
+                  <v>2179.563340946595</v>
+                </pt>
+                <pt idx="9">
+                  <v>-25759.37729160005</v>
+                </pt>
+                <pt idx="10">
+                  <v>-26547.66052359354</v>
+                </pt>
+                <pt idx="11">
+                  <v>-86713.36233059317</v>
+                </pt>
+                <pt idx="12">
+                  <v>-161626.9628640655</v>
+                </pt>
+                <pt idx="13">
+                  <v>-117318.7027337034</v>
+                </pt>
+                <pt idx="14">
+                  <v>96037.89585896209</v>
+                </pt>
+                <pt idx="15">
+                  <v>-19903.51427773898</v>
+                </pt>
+                <pt idx="16">
+                  <v>-112489.364936444</v>
+                </pt>
+                <pt idx="17">
+                  <v>-329443.089725595</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <marker val="1"/>
+        <smooth val="0"/>
+        <axId val="248757632"/>
+        <axId val="248763904"/>
+      </lineChart>
+      <dateAx>
+        <axId val="248757632"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="low"/>
+        <spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -885,191 +920,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
+        </spPr>
+        <txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="210142336"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="210142336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="148380672"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1082,311 +942,54 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>szseinnovation100index &amp;                                            sales amount per month</a:t>
+              <a:t/>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'model4(1)'!买卖</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15057.369992695269</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-657.86627675392538</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3953.9484548014116</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26388.788022123525</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>87657.679798291982</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>34459.381729895649</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41606.417199055955</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>51151.60056778443</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>169490.49733354338</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>152807.94117845185</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>299018.3188799615</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>430248.85375669535</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>444707.93183896161</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>157242.05001781249</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>212584.68508788882</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>252649.34925635549</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>338807.23397602042</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="273960960"/>
-        <c:axId val="273441152"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
+        </txPr>
+        <crossAx val="248763904"/>
+        <crosses val="autoZero"/>
+        <lblOffset val="100"/>
+        <baseTimeUnit val="days"/>
+      </dateAx>
+      <valAx>
+        <axId val="248763904"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'model4(1)'!时间</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>44316</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44347</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44377</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44407</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44439</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44469</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44498</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44530</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44589</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44620</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44651</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44680</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44712</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44771</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44804</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44834</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'model4(1)'!指数</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>4.7860299999999993</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.9806599999999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.1114799999999994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9776999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.7613100000000008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.7106400000000006</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.8678999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.9547099609374996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.8630097656249998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.3440297851562502</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.3355400390624999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.8658500976562502</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.5012099609375</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.6361599121093748</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.1096201171875002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.8724699707031252</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.7022099609375001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.3477299804687499</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="271117312"/>
-        <c:axId val="273060608"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="271117312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
+        </spPr>
+        <txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1398,53 +1001,69 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
-        </c:txPr>
-        <c:crossAx val="273060608"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="273060608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        </txPr>
+        <crossAx val="248757632"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <layout/>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </txPr>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1456,37 +1075,323 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0"/>
+              <a:t>szseinnovation100index &amp;                                            sales amount per month</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
           </a:p>
-        </c:txPr>
-        <c:crossAx val="271117312"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="273441152"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="1"/>
+          <order val="0"/>
+          <spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <val>
+            <numRef>
+              <f>'model4(1)'!买卖</f>
+              <numCache>
+                <formatCode xml:space="preserve">0.00_ </formatCode>
+                <ptCount val="18"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>15057.36999269527</v>
+                </pt>
+                <pt idx="2">
+                  <v>-657.8662767539254</v>
+                </pt>
+                <pt idx="3">
+                  <v>3953.948454801412</v>
+                </pt>
+                <pt idx="4">
+                  <v>26388.78802212352</v>
+                </pt>
+                <pt idx="5">
+                  <v>87657.67979829198</v>
+                </pt>
+                <pt idx="6">
+                  <v>34459.38172989565</v>
+                </pt>
+                <pt idx="7">
+                  <v>41606.41719905596</v>
+                </pt>
+                <pt idx="8">
+                  <v>51151.60056778443</v>
+                </pt>
+                <pt idx="9">
+                  <v>169490.4973335434</v>
+                </pt>
+                <pt idx="10">
+                  <v>152807.9411784518</v>
+                </pt>
+                <pt idx="11">
+                  <v>299018.3188799615</v>
+                </pt>
+                <pt idx="12">
+                  <v>430248.8537566953</v>
+                </pt>
+                <pt idx="13">
+                  <v>444707.9318389616</v>
+                </pt>
+                <pt idx="14">
+                  <v>157242.0500178125</v>
+                </pt>
+                <pt idx="15">
+                  <v>212584.6850878888</v>
+                </pt>
+                <pt idx="16">
+                  <v>252649.3492563555</v>
+                </pt>
+                <pt idx="17">
+                  <v>338807.2339760204</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="248773632"/>
+        <axId val="249103488"/>
+      </barChart>
+      <lineChart>
+        <grouping val="standard"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="2"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'model4(1)'!时间</f>
+              <numCache>
+                <formatCode>yyyy\-mm\-dd</formatCode>
+                <ptCount val="18"/>
+                <pt idx="0">
+                  <v>44316</v>
+                </pt>
+                <pt idx="1">
+                  <v>44347</v>
+                </pt>
+                <pt idx="2">
+                  <v>44377</v>
+                </pt>
+                <pt idx="3">
+                  <v>44407</v>
+                </pt>
+                <pt idx="4">
+                  <v>44439</v>
+                </pt>
+                <pt idx="5">
+                  <v>44469</v>
+                </pt>
+                <pt idx="6">
+                  <v>44498</v>
+                </pt>
+                <pt idx="7">
+                  <v>44530</v>
+                </pt>
+                <pt idx="8">
+                  <v>44561</v>
+                </pt>
+                <pt idx="9">
+                  <v>44589</v>
+                </pt>
+                <pt idx="10">
+                  <v>44620</v>
+                </pt>
+                <pt idx="11">
+                  <v>44651</v>
+                </pt>
+                <pt idx="12">
+                  <v>44680</v>
+                </pt>
+                <pt idx="13">
+                  <v>44712</v>
+                </pt>
+                <pt idx="14">
+                  <v>44742</v>
+                </pt>
+                <pt idx="15">
+                  <v>44771</v>
+                </pt>
+                <pt idx="16">
+                  <v>44804</v>
+                </pt>
+                <pt idx="17">
+                  <v>44834</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'model4(1)'!指数</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="18"/>
+                <pt idx="0">
+                  <v>4.786029999999999</v>
+                </pt>
+                <pt idx="1">
+                  <v>4.980659999999999</v>
+                </pt>
+                <pt idx="2">
+                  <v>5.111479999999999</v>
+                </pt>
+                <pt idx="3">
+                  <v>4.9777</v>
+                </pt>
+                <pt idx="4">
+                  <v>4.761310000000001</v>
+                </pt>
+                <pt idx="5">
+                  <v>4.710640000000001</v>
+                </pt>
+                <pt idx="6">
+                  <v>4.8679</v>
+                </pt>
+                <pt idx="7">
+                  <v>4.9547099609375</v>
+                </pt>
+                <pt idx="8">
+                  <v>4.863009765625</v>
+                </pt>
+                <pt idx="9">
+                  <v>4.34402978515625</v>
+                </pt>
+                <pt idx="10">
+                  <v>4.3355400390625</v>
+                </pt>
+                <pt idx="11">
+                  <v>3.86585009765625</v>
+                </pt>
+                <pt idx="12">
+                  <v>3.5012099609375</v>
+                </pt>
+                <pt idx="13">
+                  <v>3.636159912109375</v>
+                </pt>
+                <pt idx="14">
+                  <v>4.1096201171875</v>
+                </pt>
+                <pt idx="15">
+                  <v>3.872469970703125</v>
+                </pt>
+                <pt idx="16">
+                  <v>3.7022099609375</v>
+                </pt>
+                <pt idx="17">
+                  <v>3.34772998046875</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <marker val="1"/>
+        <smooth val="0"/>
+        <axId val="249105024"/>
+        <axId val="249106816"/>
+      </lineChart>
+      <catAx>
+        <axId val="248773632"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="b"/>
+        <majorTickMark val="out"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="249103488"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="249103488"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="r"/>
+        <numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <majorTickMark val="out"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
           <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
+        </spPr>
+        <txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1498,147 +1403,196 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
-        </c:txPr>
-        <c:crossAx val="273960960"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="273960960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="273441152"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
+        </txPr>
+        <crossAx val="248773632"/>
+        <crosses val="max"/>
+        <crossBetween val="between"/>
+      </valAx>
+      <dateAx>
+        <axId val="249105024"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <majorTickMark val="out"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
           <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </txPr>
+        <crossAx val="249106816"/>
+        <crosses val="autoZero"/>
+        <lblOffset val="100"/>
+        <baseTimeUnit val="days"/>
+      </dateAx>
+      <valAx>
+        <axId val="249106816"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </txPr>
+        <crossAx val="249105024"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor>
+    <from>
+      <col>14</col>
+      <colOff>676275</colOff>
+      <row>4</row>
+      <rowOff>85725</rowOff>
+    </from>
+    <to>
+      <col>21</col>
+      <colOff>752475</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor>
+    <from>
+      <col>22</col>
+      <colOff>57149</colOff>
+      <row>4</row>
+      <rowOff>104775</rowOff>
+    </from>
+    <to>
+      <col>30</col>
+      <colOff>209549</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="szse_innovation_100"/>
       <sheetName val="szseinnovation100index"/>
@@ -14817,8 +14771,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="model1"/>
       <sheetName val="myPEPB"/>
@@ -19351,1466 +19305,1151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W181"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.75" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="2"/>
-    <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.375" style="1" customWidth="1"/>
-    <col min="19" max="20" width="11.125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.25" style="1" customWidth="1"/>
-    <col min="23" max="23" width="10.125" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col width="10" customWidth="1" style="1" min="1" max="1"/>
+    <col width="8" customWidth="1" style="1" min="2" max="2"/>
+    <col width="6.375" customWidth="1" style="1" min="3" max="3"/>
+    <col width="6.875" customWidth="1" style="28" min="4" max="4"/>
+    <col width="9.375" customWidth="1" style="28" min="5" max="5"/>
+    <col width="9.25" customWidth="1" style="28" min="6" max="6"/>
+    <col width="10.75" customWidth="1" style="28" min="7" max="7"/>
+    <col width="11.5" customWidth="1" style="28" min="8" max="8"/>
+    <col width="12.75" customWidth="1" style="28" min="9" max="9"/>
+    <col width="12.625" customWidth="1" style="1" min="10" max="10"/>
+    <col width="10.75" customWidth="1" style="1" min="11" max="11"/>
+    <col width="10.75" customWidth="1" style="28" min="12" max="12"/>
+    <col width="9.5" bestFit="1" customWidth="1" style="1" min="13" max="13"/>
+    <col width="9" customWidth="1" style="2" min="14" max="14"/>
+    <col width="9" customWidth="1" style="1" min="15" max="15"/>
+    <col width="9.75" bestFit="1" customWidth="1" style="1" min="16" max="16"/>
+    <col width="11.375" customWidth="1" style="1" min="17" max="18"/>
+    <col width="11.125" customWidth="1" style="1" min="19" max="20"/>
+    <col width="10.375" customWidth="1" style="1" min="21" max="21"/>
+    <col width="10.25" customWidth="1" style="1" min="22" max="22"/>
+    <col width="10.125" customWidth="1" style="1" min="23" max="23"/>
+    <col width="9" customWidth="1" style="1" min="24" max="25"/>
+    <col width="9" customWidth="1" style="1" min="26" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="13" t="s">
+    <row r="1" ht="27" customFormat="1" customHeight="1" s="7">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>szse innovation100</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="D1" s="29" t="inlineStr">
+        <is>
+          <t>historical PE mean</t>
+        </is>
+      </c>
+      <c r="E1" s="30" t="inlineStr">
+        <is>
+          <t>sales amount</t>
+        </is>
+      </c>
+      <c r="F1" s="30" t="inlineStr">
+        <is>
+          <t>sales shares</t>
+        </is>
+      </c>
+      <c r="G1" s="30" t="inlineStr">
+        <is>
+          <t>shares held</t>
+        </is>
+      </c>
+      <c r="H1" s="30" t="inlineStr">
+        <is>
+          <t>market value</t>
+        </is>
+      </c>
+      <c r="I1" s="31" t="inlineStr">
+        <is>
+          <t>accumulated investment</t>
+        </is>
+      </c>
+      <c r="J1" s="11" t="inlineStr">
+        <is>
+          <t>total assets</t>
+        </is>
+      </c>
+      <c r="K1" s="12" t="inlineStr">
+        <is>
+          <t>profit amount</t>
+        </is>
+      </c>
+      <c r="L1" s="32" t="inlineStr">
+        <is>
+          <t>recovered funds</t>
+        </is>
+      </c>
+      <c r="N1" s="8" t="n"/>
+    </row>
+    <row r="2" ht="14.1" customHeight="1">
+      <c r="A2" s="3" t="n"/>
+      <c r="B2" s="3" t="n"/>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="33" t="n"/>
+      <c r="E2" s="33" t="n">
+        <v>3950</v>
+      </c>
+      <c r="F2" s="34" t="inlineStr">
+        <is>
+          <t>unit:yuan</t>
+        </is>
+      </c>
+      <c r="G2" s="33" t="n"/>
+      <c r="H2" s="33">
+        <f>MIN(G:G)</f>
+        <v/>
+      </c>
+      <c r="I2" s="33" t="n"/>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="33" t="n"/>
+      <c r="M2" s="4" t="n"/>
+    </row>
+    <row r="3" ht="14.1" customHeight="1">
+      <c r="A3" s="35" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B3" s="10">
+        <f>VLOOKUP(A3,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C3" s="10">
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D3" s="36">
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E3" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="12"/>
+      <c r="F3" s="37">
+        <f>E3/B3</f>
+        <v/>
+      </c>
+      <c r="G3" s="37">
+        <f>G2+F3</f>
+        <v/>
+      </c>
+      <c r="H3" s="37">
+        <f>G3*B3</f>
+        <v/>
+      </c>
+      <c r="I3" s="37">
+        <f>IF(E3&gt;0,I2+E3,I2)</f>
+        <v/>
+      </c>
+      <c r="J3" s="37">
+        <f>H3+L3</f>
+        <v/>
+      </c>
+      <c r="K3" s="37">
+        <f>J3-I3</f>
+        <v/>
+      </c>
+      <c r="L3" s="36">
+        <f>IF(E3&lt;0,L2-E3,L2)</f>
+        <v/>
+      </c>
+      <c r="M3" s="4" t="n"/>
+      <c r="P3" s="13" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="Q3" s="14" t="inlineStr">
+        <is>
+          <t>investment per year</t>
+        </is>
+      </c>
+      <c r="R3" s="14" t="inlineStr">
+        <is>
+          <t>accumulated investment</t>
+        </is>
+      </c>
+      <c r="S3" s="14" t="inlineStr">
+        <is>
+          <t>total assets</t>
+        </is>
+      </c>
+      <c r="T3" s="14" t="inlineStr">
+        <is>
+          <t>profit amount</t>
+        </is>
+      </c>
+      <c r="U3" s="15" t="inlineStr">
+        <is>
+          <t>recovered funds</t>
+        </is>
+      </c>
+      <c r="V3" s="14" t="inlineStr">
+        <is>
+          <t>absolute RR</t>
+        </is>
+      </c>
+      <c r="W3" s="14" t="inlineStr">
+        <is>
+          <t>annualized RR</t>
+        </is>
+      </c>
     </row>
-    <row r="2" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5">
-        <v>3950</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5">
-        <f>MIN(G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="7"/>
+    <row r="4" ht="14.1" customHeight="1">
+      <c r="A4" s="35" t="n">
+        <v>44347</v>
+      </c>
+      <c r="B4" s="10">
+        <f>VLOOKUP(A4,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C4" s="10">
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D4" s="36">
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E4" s="36">
+        <f>IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
+        <v/>
+      </c>
+      <c r="F4" s="37">
+        <f>E4/B4</f>
+        <v/>
+      </c>
+      <c r="G4" s="37">
+        <f>G3+F4</f>
+        <v/>
+      </c>
+      <c r="H4" s="37">
+        <f>G4*B4</f>
+        <v/>
+      </c>
+      <c r="I4" s="37">
+        <f>IF(E4&gt;0,I3+E4,I3)</f>
+        <v/>
+      </c>
+      <c r="J4" s="37">
+        <f>H4+L4</f>
+        <v/>
+      </c>
+      <c r="K4" s="37">
+        <f>J4-I4</f>
+        <v/>
+      </c>
+      <c r="L4" s="36">
+        <f>IF(E4&lt;0,L3-E4,L3)</f>
+        <v/>
+      </c>
+      <c r="M4" s="4" t="n"/>
+      <c r="P4" s="38" t="n">
+        <v>44561</v>
+      </c>
+      <c r="Q4" s="39">
+        <f>R4</f>
+        <v/>
+      </c>
+      <c r="R4" s="33">
+        <f>VLOOKUP(P4,A:I,9,)</f>
+        <v/>
+      </c>
+      <c r="S4" s="33">
+        <f>VLOOKUP(P4,A:J,10,)</f>
+        <v/>
+      </c>
+      <c r="T4" s="33">
+        <f>VLOOKUP(P4,A:K,11,)</f>
+        <v/>
+      </c>
+      <c r="U4" s="33">
+        <f>VLOOKUP(P4,A:L,12,)</f>
+        <v/>
+      </c>
+      <c r="V4" s="6">
+        <f>(S4-R4)/R4</f>
+        <v/>
+      </c>
+      <c r="W4" s="6">
+        <f>V4</f>
+        <v/>
+      </c>
     </row>
-    <row r="3" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
-        <v>44316</v>
-      </c>
-      <c r="B3" s="16">
-        <f>VLOOKUP(A3,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>4.7860299999999993</v>
-      </c>
-      <c r="C3" s="16">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2)</f>
-        <v>47.64</v>
-      </c>
-      <c r="D3" s="17">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3)</f>
-        <v>45.46631578947369</v>
-      </c>
-      <c r="E3" s="17">
-        <v>0</v>
-      </c>
-      <c r="F3" s="18">
-        <f t="shared" ref="F3:F20" si="0">E3/B3</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="18">
-        <f>G2+F3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <f t="shared" ref="H3:H20" si="1">G3*B3</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="18">
-        <f>IF(E3&gt;0,I2+E3,I2)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="18">
-        <f t="shared" ref="J3:J20" si="2">H3+L3</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="18">
-        <f t="shared" ref="K3:K20" si="3">J3-I3</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="17">
-        <f>IF(E3&lt;0,L2-E3,L2)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="P3" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="V3" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="W3" s="27" t="s">
-        <v>14</v>
-      </c>
+    <row r="5" ht="14.1" customHeight="1">
+      <c r="A5" s="35" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B5" s="10">
+        <f>VLOOKUP(A5,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C5" s="10">
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D5" s="36">
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E5" s="36">
+        <f>IF(C5&lt;D5,$E$2*(D5-C5)^2,-$E$2*(D5-C5)^2)</f>
+        <v/>
+      </c>
+      <c r="F5" s="37">
+        <f>E5/B5</f>
+        <v/>
+      </c>
+      <c r="G5" s="37">
+        <f>G4+F5</f>
+        <v/>
+      </c>
+      <c r="H5" s="37">
+        <f>G5*B5</f>
+        <v/>
+      </c>
+      <c r="I5" s="37">
+        <f>IF(E5&gt;0,I4+E5,I4)</f>
+        <v/>
+      </c>
+      <c r="J5" s="37">
+        <f>H5+L5</f>
+        <v/>
+      </c>
+      <c r="K5" s="37">
+        <f>J5-I5</f>
+        <v/>
+      </c>
+      <c r="L5" s="36">
+        <f>IF(E5&lt;0,L4-E5,L4)</f>
+        <v/>
+      </c>
+      <c r="M5" s="4" t="n"/>
     </row>
-    <row r="4" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
-        <v>44347</v>
-      </c>
-      <c r="B4" s="16">
-        <f>VLOOKUP(A4,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>4.9806599999999994</v>
-      </c>
-      <c r="C4" s="16">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2)</f>
-        <v>39.85</v>
-      </c>
-      <c r="D4" s="17">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3)</f>
-        <v>41.802432432432425</v>
-      </c>
-      <c r="E4" s="17">
-        <f t="shared" ref="E4:E20" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
-        <v>15057.369992695269</v>
-      </c>
-      <c r="F4" s="18">
-        <f t="shared" si="0"/>
-        <v>3023.1676108578522</v>
-      </c>
-      <c r="G4" s="18">
-        <f t="shared" ref="G4:G20" si="5">G3+F4</f>
-        <v>3023.1676108578522</v>
-      </c>
-      <c r="H4" s="18">
-        <f t="shared" si="1"/>
-        <v>15057.369992695269</v>
-      </c>
-      <c r="I4" s="18">
-        <f t="shared" ref="I4:I20" si="6">IF(E4&gt;0,I3+E4,I3)</f>
-        <v>15057.369992695269</v>
-      </c>
-      <c r="J4" s="18">
-        <f t="shared" si="2"/>
-        <v>15057.369992695269</v>
-      </c>
-      <c r="K4" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="17">
-        <f t="shared" ref="L4:L20" si="7">IF(E4&lt;0,L3-E4,L3)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="7"/>
-      <c r="P4" s="20">
+    <row r="6" ht="14.1" customHeight="1">
+      <c r="A6" s="35" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B6" s="10">
+        <f>VLOOKUP(A6,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C6" s="10">
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D6" s="36">
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E6" s="36">
+        <f>IF(C6&lt;D6,$E$2*(D6-C6)^2,-$E$2*(D6-C6)^2)</f>
+        <v/>
+      </c>
+      <c r="F6" s="37">
+        <f>E6/B6</f>
+        <v/>
+      </c>
+      <c r="G6" s="37">
+        <f>G5+F6</f>
+        <v/>
+      </c>
+      <c r="H6" s="37">
+        <f>G6*B6</f>
+        <v/>
+      </c>
+      <c r="I6" s="37">
+        <f>IF(E6&gt;0,I5+E6,I5)</f>
+        <v/>
+      </c>
+      <c r="J6" s="37">
+        <f>H6+L6</f>
+        <v/>
+      </c>
+      <c r="K6" s="37">
+        <f>J6-I6</f>
+        <v/>
+      </c>
+      <c r="L6" s="36">
+        <f>IF(E6&lt;0,L5-E6,L5)</f>
+        <v/>
+      </c>
+      <c r="M6" s="4" t="n"/>
+    </row>
+    <row r="7" ht="14.1" customHeight="1">
+      <c r="A7" s="35" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B7" s="10">
+        <f>VLOOKUP(A7,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C7" s="10">
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D7" s="36">
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E7" s="36">
+        <f>IF(C7&lt;D7,$E$2*(D7-C7)^2,-$E$2*(D7-C7)^2)</f>
+        <v/>
+      </c>
+      <c r="F7" s="37">
+        <f>E7/B7</f>
+        <v/>
+      </c>
+      <c r="G7" s="37">
+        <f>G6+F7</f>
+        <v/>
+      </c>
+      <c r="H7" s="37">
+        <f>G7*B7</f>
+        <v/>
+      </c>
+      <c r="I7" s="37">
+        <f>IF(E7&gt;0,I6+E7,I6)</f>
+        <v/>
+      </c>
+      <c r="J7" s="37">
+        <f>H7+L7</f>
+        <v/>
+      </c>
+      <c r="K7" s="37">
+        <f>J7-I7</f>
+        <v/>
+      </c>
+      <c r="L7" s="36">
+        <f>IF(E7&lt;0,L6-E7,L6)</f>
+        <v/>
+      </c>
+      <c r="M7" s="4" t="n"/>
+    </row>
+    <row r="8" ht="14.1" customHeight="1">
+      <c r="A8" s="35" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B8" s="10">
+        <f>VLOOKUP(A8,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C8" s="10">
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D8" s="36">
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E8" s="36">
+        <f>IF(C8&lt;D8,$E$2*(D8-C8)^2,-$E$2*(D8-C8)^2)</f>
+        <v/>
+      </c>
+      <c r="F8" s="37">
+        <f>E8/B8</f>
+        <v/>
+      </c>
+      <c r="G8" s="37">
+        <f>G7+F8</f>
+        <v/>
+      </c>
+      <c r="H8" s="37">
+        <f>G8*B8</f>
+        <v/>
+      </c>
+      <c r="I8" s="37">
+        <f>IF(E8&gt;0,I7+E8,I7)</f>
+        <v/>
+      </c>
+      <c r="J8" s="37">
+        <f>H8+L8</f>
+        <v/>
+      </c>
+      <c r="K8" s="37">
+        <f>J8-I8</f>
+        <v/>
+      </c>
+      <c r="L8" s="36">
+        <f>IF(E8&lt;0,L7-E8,L7)</f>
+        <v/>
+      </c>
+      <c r="M8" s="4" t="n"/>
+    </row>
+    <row r="9" ht="14.1" customHeight="1">
+      <c r="A9" s="35" t="n">
+        <v>44498</v>
+      </c>
+      <c r="B9" s="10">
+        <f>VLOOKUP(A9,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C9" s="10">
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D9" s="36">
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E9" s="36">
+        <f>IF(C9&lt;D9,$E$2*(D9-C9)^2,-$E$2*(D9-C9)^2)</f>
+        <v/>
+      </c>
+      <c r="F9" s="37">
+        <f>E9/B9</f>
+        <v/>
+      </c>
+      <c r="G9" s="37">
+        <f>G8+F9</f>
+        <v/>
+      </c>
+      <c r="H9" s="37">
+        <f>G9*B9</f>
+        <v/>
+      </c>
+      <c r="I9" s="37">
+        <f>IF(E9&gt;0,I8+E9,I8)</f>
+        <v/>
+      </c>
+      <c r="J9" s="37">
+        <f>H9+L9</f>
+        <v/>
+      </c>
+      <c r="K9" s="37">
+        <f>J9-I9</f>
+        <v/>
+      </c>
+      <c r="L9" s="36">
+        <f>IF(E9&lt;0,L8-E9,L8)</f>
+        <v/>
+      </c>
+      <c r="M9" s="4" t="n"/>
+    </row>
+    <row r="10" ht="14.1" customHeight="1">
+      <c r="A10" s="35" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B10" s="10">
+        <f>VLOOKUP(A10,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C10" s="10">
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D10" s="36">
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E10" s="36">
+        <f>IF(C10&lt;D10,$E$2*(D10-C10)^2,-$E$2*(D10-C10)^2)</f>
+        <v/>
+      </c>
+      <c r="F10" s="37">
+        <f>E10/B10</f>
+        <v/>
+      </c>
+      <c r="G10" s="37">
+        <f>G9+F10</f>
+        <v/>
+      </c>
+      <c r="H10" s="37">
+        <f>G10*B10</f>
+        <v/>
+      </c>
+      <c r="I10" s="37">
+        <f>IF(E10&gt;0,I9+E10,I9)</f>
+        <v/>
+      </c>
+      <c r="J10" s="37">
+        <f>H10+L10</f>
+        <v/>
+      </c>
+      <c r="K10" s="37">
+        <f>J10-I10</f>
+        <v/>
+      </c>
+      <c r="L10" s="36">
+        <f>IF(E10&lt;0,L9-E10,L9)</f>
+        <v/>
+      </c>
+      <c r="M10" s="4" t="n"/>
+    </row>
+    <row r="11" ht="14.1" customHeight="1">
+      <c r="A11" s="35" t="n">
         <v>44561</v>
       </c>
-      <c r="Q4" s="10">
-        <f>R4</f>
-        <v>260275.18576464822</v>
-      </c>
-      <c r="R4" s="5">
-        <f>VLOOKUP(P4,A:I,9,)</f>
-        <v>260275.18576464822</v>
-      </c>
-      <c r="S4" s="5">
-        <f>VLOOKUP(P4,A:J,10,)</f>
-        <v>262454.74910559482</v>
-      </c>
-      <c r="T4" s="5">
-        <f>VLOOKUP(P4,A:K,11,)</f>
-        <v>2179.5633409465954</v>
-      </c>
-      <c r="U4" s="5">
-        <f>VLOOKUP(P4,A:L,12,)</f>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="V4" s="9">
-        <f t="shared" ref="V4" si="8">(S4-R4)/R4</f>
-        <v>8.3740727512819774E-3</v>
-      </c>
-      <c r="W4" s="9">
-        <f>V4</f>
-        <v>8.3740727512819774E-3</v>
-      </c>
+      <c r="B11" s="10">
+        <f>VLOOKUP(A11,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C11" s="10">
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D11" s="36">
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E11" s="36">
+        <f>IF(C11&lt;D11,$E$2*(D11-C11)^2,-$E$2*(D11-C11)^2)</f>
+        <v/>
+      </c>
+      <c r="F11" s="37">
+        <f>E11/B11</f>
+        <v/>
+      </c>
+      <c r="G11" s="37">
+        <f>G10+F11</f>
+        <v/>
+      </c>
+      <c r="H11" s="37">
+        <f>G11*B11</f>
+        <v/>
+      </c>
+      <c r="I11" s="37">
+        <f>IF(E11&gt;0,I10+E11,I10)</f>
+        <v/>
+      </c>
+      <c r="J11" s="37">
+        <f>H11+L11</f>
+        <v/>
+      </c>
+      <c r="K11" s="37">
+        <f>J11-I11</f>
+        <v/>
+      </c>
+      <c r="L11" s="36">
+        <f>IF(E11&lt;0,L10-E11,L10)</f>
+        <v/>
+      </c>
+      <c r="M11" s="4" t="n"/>
     </row>
-    <row r="5" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
-        <v>44377</v>
-      </c>
-      <c r="B5" s="16">
-        <f>VLOOKUP(A5,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>5.1114799999999994</v>
-      </c>
-      <c r="C5" s="16">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2)</f>
-        <v>41.45</v>
-      </c>
-      <c r="D5" s="17">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3)</f>
-        <v>41.041896551724122</v>
-      </c>
-      <c r="E5" s="17">
-        <f t="shared" si="4"/>
-        <v>-657.86627675392538</v>
-      </c>
-      <c r="F5" s="18">
-        <f t="shared" si="0"/>
-        <v>-128.70367814291075</v>
-      </c>
-      <c r="G5" s="18">
-        <f t="shared" si="5"/>
-        <v>2894.4639327149416</v>
-      </c>
-      <c r="H5" s="18">
-        <f t="shared" si="1"/>
-        <v>14794.994502793768</v>
-      </c>
-      <c r="I5" s="18">
-        <f t="shared" si="6"/>
-        <v>15057.369992695269</v>
-      </c>
-      <c r="J5" s="18">
-        <f t="shared" si="2"/>
-        <v>15452.860779547693</v>
-      </c>
-      <c r="K5" s="18">
-        <f t="shared" si="3"/>
-        <v>395.49078685242421</v>
-      </c>
-      <c r="L5" s="17">
-        <f t="shared" si="7"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M5" s="7"/>
+    <row r="12" ht="14.1" customHeight="1">
+      <c r="A12" s="35" t="n">
+        <v>44589</v>
+      </c>
+      <c r="B12" s="10">
+        <f>VLOOKUP(A12,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C12" s="10">
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D12" s="36">
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E12" s="36">
+        <f>IF(C12&lt;D12,$E$2*(D12-C12)^2,-$E$2*(D12-C12)^2)</f>
+        <v/>
+      </c>
+      <c r="F12" s="37">
+        <f>E12/B12</f>
+        <v/>
+      </c>
+      <c r="G12" s="37">
+        <f>G11+F12</f>
+        <v/>
+      </c>
+      <c r="H12" s="37">
+        <f>G12*B12</f>
+        <v/>
+      </c>
+      <c r="I12" s="37">
+        <f>IF(E12&gt;0,I11+E12,I11)</f>
+        <v/>
+      </c>
+      <c r="J12" s="37">
+        <f>H12+L12</f>
+        <v/>
+      </c>
+      <c r="K12" s="37">
+        <f>J12-I12</f>
+        <v/>
+      </c>
+      <c r="L12" s="36">
+        <f>IF(E12&lt;0,L11-E12,L11)</f>
+        <v/>
+      </c>
+      <c r="M12" s="4" t="n"/>
     </row>
-    <row r="6" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
-        <v>44407</v>
-      </c>
-      <c r="B6" s="16">
-        <f>VLOOKUP(A6,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>4.9776999999999996</v>
-      </c>
-      <c r="C6" s="16">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2)</f>
-        <v>39.930000305175781</v>
-      </c>
-      <c r="D6" s="17">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3)</f>
-        <v>40.930499984741189</v>
-      </c>
-      <c r="E6" s="17">
-        <f t="shared" si="4"/>
-        <v>3953.9484548014116</v>
-      </c>
-      <c r="F6" s="18">
-        <f t="shared" si="0"/>
-        <v>794.33241352460209</v>
-      </c>
-      <c r="G6" s="18">
-        <f t="shared" si="5"/>
-        <v>3688.7963462395437</v>
-      </c>
-      <c r="H6" s="18">
-        <f t="shared" si="1"/>
-        <v>18361.721572676575</v>
-      </c>
-      <c r="I6" s="18">
-        <f t="shared" si="6"/>
-        <v>19011.31844749668</v>
-      </c>
-      <c r="J6" s="18">
-        <f t="shared" si="2"/>
-        <v>19019.5878494305</v>
-      </c>
-      <c r="K6" s="18">
-        <f t="shared" si="3"/>
-        <v>8.2694019338196085</v>
-      </c>
-      <c r="L6" s="17">
-        <f t="shared" si="7"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M6" s="7"/>
+    <row r="13" ht="14.1" customHeight="1">
+      <c r="A13" s="35" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B13" s="10">
+        <f>VLOOKUP(A13,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C13" s="10">
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D13" s="36">
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E13" s="36">
+        <f>IF(C13&lt;D13,$E$2*(D13-C13)^2,-$E$2*(D13-C13)^2)</f>
+        <v/>
+      </c>
+      <c r="F13" s="37">
+        <f>E13/B13</f>
+        <v/>
+      </c>
+      <c r="G13" s="37">
+        <f>G12+F13</f>
+        <v/>
+      </c>
+      <c r="H13" s="37">
+        <f>G13*B13</f>
+        <v/>
+      </c>
+      <c r="I13" s="37">
+        <f>IF(E13&gt;0,I12+E13,I12)</f>
+        <v/>
+      </c>
+      <c r="J13" s="37">
+        <f>H13+L13</f>
+        <v/>
+      </c>
+      <c r="K13" s="37">
+        <f>J13-I13</f>
+        <v/>
+      </c>
+      <c r="L13" s="36">
+        <f>IF(E13&lt;0,L12-E13,L12)</f>
+        <v/>
+      </c>
+      <c r="M13" s="4" t="n"/>
     </row>
-    <row r="7" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
-        <v>44439</v>
-      </c>
-      <c r="B7" s="16">
-        <f>VLOOKUP(A7,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>4.7613100000000008</v>
-      </c>
-      <c r="C7" s="16">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2)</f>
-        <v>38.069999694824219</v>
-      </c>
-      <c r="D7" s="17">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3)</f>
-        <v>40.654705834482208</v>
-      </c>
-      <c r="E7" s="17">
-        <f t="shared" si="4"/>
-        <v>26388.788022123525</v>
-      </c>
-      <c r="F7" s="18">
-        <f t="shared" si="0"/>
-        <v>5542.3377226274952</v>
-      </c>
-      <c r="G7" s="18">
-        <f t="shared" si="5"/>
-        <v>9231.1340688670389</v>
-      </c>
-      <c r="H7" s="18">
-        <f t="shared" si="1"/>
-        <v>43952.290953437332</v>
-      </c>
-      <c r="I7" s="18">
-        <f t="shared" si="6"/>
-        <v>45400.106469620208</v>
-      </c>
-      <c r="J7" s="18">
-        <f t="shared" si="2"/>
-        <v>44610.15723019126</v>
-      </c>
-      <c r="K7" s="18">
-        <f t="shared" si="3"/>
-        <v>-789.9492394289482</v>
-      </c>
-      <c r="L7" s="17">
-        <f t="shared" si="7"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M7" s="7"/>
+    <row r="14" ht="14.1" customHeight="1">
+      <c r="A14" s="35" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B14" s="10">
+        <f>VLOOKUP(A14,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C14" s="10">
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D14" s="36">
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E14" s="36">
+        <f>IF(C14&lt;D14,$E$2*(D14-C14)^2,-$E$2*(D14-C14)^2)</f>
+        <v/>
+      </c>
+      <c r="F14" s="37">
+        <f>E14/B14</f>
+        <v/>
+      </c>
+      <c r="G14" s="37">
+        <f>G13+F14</f>
+        <v/>
+      </c>
+      <c r="H14" s="37">
+        <f>G14*B14</f>
+        <v/>
+      </c>
+      <c r="I14" s="37">
+        <f>IF(E14&gt;0,I13+E14,I13)</f>
+        <v/>
+      </c>
+      <c r="J14" s="37">
+        <f>H14+L14</f>
+        <v/>
+      </c>
+      <c r="K14" s="37">
+        <f>J14-I14</f>
+        <v/>
+      </c>
+      <c r="L14" s="36">
+        <f>IF(E14&lt;0,L13-E14,L13)</f>
+        <v/>
+      </c>
+      <c r="M14" s="4" t="n"/>
     </row>
-    <row r="8" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
-        <v>44469</v>
-      </c>
-      <c r="B8" s="16">
-        <f>VLOOKUP(A8,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>4.7106400000000006</v>
-      </c>
-      <c r="C8" s="16">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2)</f>
-        <v>35.020000457763672</v>
-      </c>
-      <c r="D8" s="17">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3)</f>
-        <v>39.730819672131133</v>
-      </c>
-      <c r="E8" s="17">
-        <f t="shared" si="4"/>
-        <v>87657.679798291982</v>
-      </c>
-      <c r="F8" s="18">
-        <f t="shared" si="0"/>
-        <v>18608.443820434586</v>
-      </c>
-      <c r="G8" s="18">
-        <f t="shared" si="5"/>
-        <v>27839.577889301625</v>
-      </c>
-      <c r="H8" s="18">
-        <f t="shared" si="1"/>
-        <v>131142.22918845981</v>
-      </c>
-      <c r="I8" s="18">
-        <f t="shared" si="6"/>
-        <v>133057.78626791219</v>
-      </c>
-      <c r="J8" s="18">
-        <f t="shared" si="2"/>
-        <v>131800.09546521373</v>
-      </c>
-      <c r="K8" s="18">
-        <f t="shared" si="3"/>
-        <v>-1257.6908026984602</v>
-      </c>
-      <c r="L8" s="17">
-        <f t="shared" si="7"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M8" s="7"/>
+    <row r="15" ht="14.1" customHeight="1">
+      <c r="A15" s="35" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B15" s="10">
+        <f>VLOOKUP(A15,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C15" s="10">
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D15" s="36">
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E15" s="36">
+        <f>IF(C15&lt;D15,$E$2*(D15-C15)^2,-$E$2*(D15-C15)^2)</f>
+        <v/>
+      </c>
+      <c r="F15" s="37">
+        <f>E15/B15</f>
+        <v/>
+      </c>
+      <c r="G15" s="37">
+        <f>G14+F15</f>
+        <v/>
+      </c>
+      <c r="H15" s="37">
+        <f>G15*B15</f>
+        <v/>
+      </c>
+      <c r="I15" s="37">
+        <f>IF(E15&gt;0,I14+E15,I14)</f>
+        <v/>
+      </c>
+      <c r="J15" s="37">
+        <f>H15+L15</f>
+        <v/>
+      </c>
+      <c r="K15" s="37">
+        <f>J15-I15</f>
+        <v/>
+      </c>
+      <c r="L15" s="36">
+        <f>IF(E15&lt;0,L14-E15,L14)</f>
+        <v/>
+      </c>
+      <c r="M15" s="4" t="n"/>
     </row>
-    <row r="9" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
-        <v>44498</v>
-      </c>
-      <c r="B9" s="16">
-        <f>VLOOKUP(A9,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>4.8678999999999997</v>
-      </c>
-      <c r="C9" s="16">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2)</f>
-        <v>36.299999239999998</v>
-      </c>
-      <c r="D9" s="17">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3)</f>
-        <v>39.253623134275358</v>
-      </c>
-      <c r="E9" s="17">
-        <f t="shared" si="4"/>
-        <v>34459.381729895649</v>
-      </c>
-      <c r="F9" s="18">
-        <f t="shared" si="0"/>
-        <v>7078.9009079676352</v>
-      </c>
-      <c r="G9" s="18">
-        <f t="shared" si="5"/>
-        <v>34918.478797269257</v>
-      </c>
-      <c r="H9" s="18">
-        <f t="shared" si="1"/>
-        <v>169979.662937227</v>
-      </c>
-      <c r="I9" s="18">
-        <f t="shared" si="6"/>
-        <v>167517.16799780785</v>
-      </c>
-      <c r="J9" s="18">
-        <f t="shared" si="2"/>
-        <v>170637.52921398092</v>
-      </c>
-      <c r="K9" s="18">
-        <f t="shared" si="3"/>
-        <v>3120.3612161730707</v>
-      </c>
-      <c r="L9" s="17">
-        <f t="shared" si="7"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M9" s="7"/>
+    <row r="16" ht="14.1" customHeight="1">
+      <c r="A16" s="35" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B16" s="10">
+        <f>VLOOKUP(A16,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C16" s="10">
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D16" s="36">
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E16" s="36">
+        <f>IF(C16&lt;D16,$E$2*(D16-C16)^2,-$E$2*(D16-C16)^2)</f>
+        <v/>
+      </c>
+      <c r="F16" s="37">
+        <f>E16/B16</f>
+        <v/>
+      </c>
+      <c r="G16" s="37">
+        <f>G15+F16</f>
+        <v/>
+      </c>
+      <c r="H16" s="37">
+        <f>G16*B16</f>
+        <v/>
+      </c>
+      <c r="I16" s="37">
+        <f>IF(E16&gt;0,I15+E16,I15)</f>
+        <v/>
+      </c>
+      <c r="J16" s="37">
+        <f>H16+L16</f>
+        <v/>
+      </c>
+      <c r="K16" s="37">
+        <f>J16-I16</f>
+        <v/>
+      </c>
+      <c r="L16" s="36">
+        <f>IF(E16&lt;0,L15-E16,L15)</f>
+        <v/>
+      </c>
+      <c r="M16" s="4" t="n"/>
     </row>
-    <row r="10" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
-        <v>44530</v>
-      </c>
-      <c r="B10" s="16">
-        <f>VLOOKUP(A10,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>4.9547099609374996</v>
-      </c>
-      <c r="C10" s="16">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2)</f>
-        <v>35.450000000000003</v>
-      </c>
-      <c r="D10" s="17">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3)</f>
-        <v>38.695499988749994</v>
-      </c>
-      <c r="E10" s="17">
-        <f t="shared" si="4"/>
-        <v>41606.417199055955</v>
-      </c>
-      <c r="F10" s="18">
-        <f t="shared" si="0"/>
-        <v>8397.3466715665127</v>
-      </c>
-      <c r="G10" s="18">
-        <f t="shared" si="5"/>
-        <v>43315.82546883577</v>
-      </c>
-      <c r="H10" s="18">
-        <f t="shared" si="1"/>
-        <v>214617.35191667083</v>
-      </c>
-      <c r="I10" s="18">
-        <f t="shared" si="6"/>
-        <v>209123.5851968638</v>
-      </c>
-      <c r="J10" s="18">
-        <f t="shared" si="2"/>
-        <v>215275.21819342475</v>
-      </c>
-      <c r="K10" s="18">
-        <f t="shared" si="3"/>
-        <v>6151.6329965609475</v>
-      </c>
-      <c r="L10" s="17">
-        <f t="shared" si="7"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M10" s="7"/>
+    <row r="17" ht="14.1" customHeight="1">
+      <c r="A17" s="35" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B17" s="10">
+        <f>VLOOKUP(A17,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C17" s="10">
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D17" s="36">
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E17" s="36">
+        <f>IF(C17&lt;D17,$E$2*(D17-C17)^2,-$E$2*(D17-C17)^2)</f>
+        <v/>
+      </c>
+      <c r="F17" s="37">
+        <f>E17/B17</f>
+        <v/>
+      </c>
+      <c r="G17" s="37">
+        <f>G16+F17</f>
+        <v/>
+      </c>
+      <c r="H17" s="37">
+        <f>G17*B17</f>
+        <v/>
+      </c>
+      <c r="I17" s="37">
+        <f>IF(E17&gt;0,I16+E17,I16)</f>
+        <v/>
+      </c>
+      <c r="J17" s="37">
+        <f>H17+L17</f>
+        <v/>
+      </c>
+      <c r="K17" s="37">
+        <f>J17-I17</f>
+        <v/>
+      </c>
+      <c r="L17" s="36">
+        <f>IF(E17&lt;0,L16-E17,L16)</f>
+        <v/>
+      </c>
+      <c r="M17" s="4" t="n"/>
     </row>
-    <row r="11" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
-        <v>44561</v>
-      </c>
-      <c r="B11" s="16">
-        <f>VLOOKUP(A11,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>4.8630097656249998</v>
-      </c>
-      <c r="C11" s="16">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2)</f>
-        <v>34.630000000000003</v>
-      </c>
-      <c r="D11" s="17">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3)</f>
-        <v>38.228579205136612</v>
-      </c>
-      <c r="E11" s="17">
-        <f t="shared" si="4"/>
-        <v>51151.60056778443</v>
-      </c>
-      <c r="F11" s="18">
-        <f t="shared" si="0"/>
-        <v>10518.506651859534</v>
-      </c>
-      <c r="G11" s="18">
-        <f t="shared" si="5"/>
-        <v>53834.332120695304</v>
-      </c>
-      <c r="H11" s="18">
-        <f t="shared" si="1"/>
-        <v>261796.88282884087</v>
-      </c>
-      <c r="I11" s="18">
-        <f t="shared" si="6"/>
-        <v>260275.18576464822</v>
-      </c>
-      <c r="J11" s="18">
-        <f t="shared" si="2"/>
-        <v>262454.74910559482</v>
-      </c>
-      <c r="K11" s="18">
-        <f t="shared" si="3"/>
-        <v>2179.5633409465954</v>
-      </c>
-      <c r="L11" s="17">
-        <f t="shared" si="7"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M11" s="7"/>
+    <row r="18" ht="14.1" customHeight="1">
+      <c r="A18" s="35" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B18" s="10">
+        <f>VLOOKUP(A18,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C18" s="10">
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D18" s="36">
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E18" s="36">
+        <f>IF(C18&lt;D18,$E$2*(D18-C18)^2,-$E$2*(D18-C18)^2)</f>
+        <v/>
+      </c>
+      <c r="F18" s="37">
+        <f>E18/B18</f>
+        <v/>
+      </c>
+      <c r="G18" s="37">
+        <f>G17+F18</f>
+        <v/>
+      </c>
+      <c r="H18" s="37">
+        <f>G18*B18</f>
+        <v/>
+      </c>
+      <c r="I18" s="37">
+        <f>IF(E18&gt;0,I17+E18,I17)</f>
+        <v/>
+      </c>
+      <c r="J18" s="37">
+        <f>H18+L18</f>
+        <v/>
+      </c>
+      <c r="K18" s="37">
+        <f>J18-I18</f>
+        <v/>
+      </c>
+      <c r="L18" s="36">
+        <f>IF(E18&lt;0,L17-E18,L17)</f>
+        <v/>
+      </c>
+      <c r="M18" s="4" t="n"/>
     </row>
-    <row r="12" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15">
-        <v>44589</v>
-      </c>
-      <c r="B12" s="16">
-        <f>VLOOKUP(A12,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>4.3440297851562502</v>
-      </c>
-      <c r="C12" s="16">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2)</f>
-        <v>31.159999849999998</v>
-      </c>
-      <c r="D12" s="17">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3)</f>
-        <v>37.710494996683174</v>
-      </c>
-      <c r="E12" s="17">
-        <f t="shared" si="4"/>
-        <v>169490.49733354338</v>
-      </c>
-      <c r="F12" s="18">
-        <f t="shared" si="0"/>
-        <v>39016.881954331948</v>
-      </c>
-      <c r="G12" s="18">
-        <f t="shared" si="5"/>
-        <v>92851.214075027252</v>
-      </c>
-      <c r="H12" s="18">
-        <f t="shared" si="1"/>
-        <v>403348.43952983763</v>
-      </c>
-      <c r="I12" s="18">
-        <f t="shared" si="6"/>
-        <v>429765.68309819163</v>
-      </c>
-      <c r="J12" s="18">
-        <f t="shared" si="2"/>
-        <v>404006.30580659158</v>
-      </c>
-      <c r="K12" s="18">
-        <f t="shared" si="3"/>
-        <v>-25759.377291600045</v>
-      </c>
-      <c r="L12" s="17">
-        <f t="shared" si="7"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M12" s="7"/>
+    <row r="19" ht="14.1" customHeight="1">
+      <c r="A19" s="35" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B19" s="10">
+        <f>VLOOKUP(A19,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C19" s="10">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D19" s="36">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E19" s="36">
+        <f>IF(C19&lt;D19,$E$2*(D19-C19)^2,-$E$2*(D19-C19)^2)</f>
+        <v/>
+      </c>
+      <c r="F19" s="37">
+        <f>E19/B19</f>
+        <v/>
+      </c>
+      <c r="G19" s="37">
+        <f>G18+F19</f>
+        <v/>
+      </c>
+      <c r="H19" s="37">
+        <f>G19*B19</f>
+        <v/>
+      </c>
+      <c r="I19" s="37">
+        <f>IF(E19&gt;0,I18+E19,I18)</f>
+        <v/>
+      </c>
+      <c r="J19" s="37">
+        <f>H19+L19</f>
+        <v/>
+      </c>
+      <c r="K19" s="37">
+        <f>J19-I19</f>
+        <v/>
+      </c>
+      <c r="L19" s="36">
+        <f>IF(E19&lt;0,L18-E19,L18)</f>
+        <v/>
+      </c>
+      <c r="M19" s="4" t="n"/>
     </row>
-    <row r="13" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
-        <v>44620</v>
-      </c>
-      <c r="B13" s="16">
-        <f>VLOOKUP(A13,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>4.3355400390624999</v>
-      </c>
-      <c r="C13" s="16">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2)</f>
-        <v>30.969999309999999</v>
-      </c>
-      <c r="D13" s="17">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3)</f>
-        <v>37.189770586238538</v>
-      </c>
-      <c r="E13" s="17">
-        <f t="shared" si="4"/>
-        <v>152807.94117845185</v>
-      </c>
-      <c r="F13" s="18">
-        <f t="shared" si="0"/>
-        <v>35245.422669766056</v>
-      </c>
-      <c r="G13" s="18">
-        <f t="shared" si="5"/>
-        <v>128096.6367447933</v>
-      </c>
-      <c r="H13" s="18">
-        <f t="shared" si="1"/>
-        <v>555368.09747629601</v>
-      </c>
-      <c r="I13" s="18">
-        <f t="shared" si="6"/>
-        <v>582573.6242766435</v>
-      </c>
-      <c r="J13" s="18">
-        <f t="shared" si="2"/>
-        <v>556025.96375304996</v>
-      </c>
-      <c r="K13" s="18">
-        <f t="shared" si="3"/>
-        <v>-26547.660523593542</v>
-      </c>
-      <c r="L13" s="17">
-        <f t="shared" si="7"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M13" s="7"/>
+    <row r="20" ht="14.1" customHeight="1">
+      <c r="A20" s="35" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B20" s="10">
+        <f>VLOOKUP(A20,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C20" s="10">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D20" s="36">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E20" s="36">
+        <f>IF(C20&lt;D20,$E$2*(D20-C20)^2,-$E$2*(D20-C20)^2)</f>
+        <v/>
+      </c>
+      <c r="F20" s="37">
+        <f>E20/B20</f>
+        <v/>
+      </c>
+      <c r="G20" s="37">
+        <f>G19+F20</f>
+        <v/>
+      </c>
+      <c r="H20" s="37">
+        <f>G20*B20</f>
+        <v/>
+      </c>
+      <c r="I20" s="37">
+        <f>IF(E20&gt;0,I19+E20,I19)</f>
+        <v/>
+      </c>
+      <c r="J20" s="37">
+        <f>H20+L20</f>
+        <v/>
+      </c>
+      <c r="K20" s="37">
+        <f>J20-I20</f>
+        <v/>
+      </c>
+      <c r="L20" s="36">
+        <f>IF(E20&lt;0,L19-E20,L19)</f>
+        <v/>
+      </c>
+      <c r="M20" s="5" t="n"/>
+      <c r="P20" s="28" t="n"/>
     </row>
-    <row r="14" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
-        <v>44651</v>
-      </c>
-      <c r="B14" s="16">
-        <f>VLOOKUP(A14,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>3.8658500976562502</v>
-      </c>
-      <c r="C14" s="16">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2)</f>
-        <v>27.63999939</v>
-      </c>
-      <c r="D14" s="17">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3)</f>
-        <v>36.340622369004151</v>
-      </c>
-      <c r="E14" s="17">
-        <f t="shared" si="4"/>
-        <v>299018.3188799615</v>
-      </c>
-      <c r="F14" s="18">
-        <f t="shared" si="0"/>
-        <v>77348.658464860651</v>
-      </c>
-      <c r="G14" s="18">
-        <f t="shared" si="5"/>
-        <v>205445.29520965397</v>
-      </c>
-      <c r="H14" s="18">
-        <f t="shared" si="1"/>
-        <v>794220.71454925789</v>
-      </c>
-      <c r="I14" s="18">
-        <f t="shared" si="6"/>
-        <v>881591.943156605</v>
-      </c>
-      <c r="J14" s="18">
-        <f t="shared" si="2"/>
-        <v>794878.58082601184</v>
-      </c>
-      <c r="K14" s="18">
-        <f t="shared" si="3"/>
-        <v>-86713.362330593169</v>
-      </c>
-      <c r="L14" s="17">
-        <f t="shared" si="7"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
-        <v>44680</v>
-      </c>
-      <c r="B15" s="16">
-        <f>VLOOKUP(A15,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>3.5012099609375</v>
-      </c>
-      <c r="C15" s="16">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2)</f>
-        <v>25.129999160000001</v>
-      </c>
-      <c r="D15" s="17">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3)</f>
-        <v>35.566653817730753</v>
-      </c>
-      <c r="E15" s="17">
-        <f t="shared" si="4"/>
-        <v>430248.85375669535</v>
-      </c>
-      <c r="F15" s="18">
-        <f t="shared" si="0"/>
-        <v>122885.76193856422</v>
-      </c>
-      <c r="G15" s="18">
-        <f t="shared" si="5"/>
-        <v>328331.05714821815</v>
-      </c>
-      <c r="H15" s="18">
-        <f t="shared" si="1"/>
-        <v>1149555.967772481</v>
-      </c>
-      <c r="I15" s="18">
-        <f t="shared" si="6"/>
-        <v>1311840.7969133004</v>
-      </c>
-      <c r="J15" s="18">
-        <f t="shared" si="2"/>
-        <v>1150213.8340492349</v>
-      </c>
-      <c r="K15" s="18">
-        <f t="shared" si="3"/>
-        <v>-161626.96286406554</v>
-      </c>
-      <c r="L15" s="17">
-        <f t="shared" si="7"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
-        <v>44712</v>
-      </c>
-      <c r="B16" s="16">
-        <f>VLOOKUP(A16,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>3.6361599121093748</v>
-      </c>
-      <c r="C16" s="16">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2)</f>
-        <v>24.129999160000001</v>
-      </c>
-      <c r="D16" s="17">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3)</f>
-        <v>34.740573439534039</v>
-      </c>
-      <c r="E16" s="17">
-        <f t="shared" si="4"/>
-        <v>444707.93183896161</v>
-      </c>
-      <c r="F16" s="18">
-        <f t="shared" si="0"/>
-        <v>122301.53309758642</v>
-      </c>
-      <c r="G16" s="18">
-        <f t="shared" si="5"/>
-        <v>450632.59024580457</v>
-      </c>
-      <c r="H16" s="18">
-        <f t="shared" si="1"/>
-        <v>1638572.1597418047</v>
-      </c>
-      <c r="I16" s="18">
-        <f t="shared" si="6"/>
-        <v>1756548.728752262</v>
-      </c>
-      <c r="J16" s="18">
-        <f t="shared" si="2"/>
-        <v>1639230.0260185585</v>
-      </c>
-      <c r="K16" s="18">
-        <f t="shared" si="3"/>
-        <v>-117318.70273370342</v>
-      </c>
-      <c r="L16" s="17">
-        <f t="shared" si="7"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15">
-        <v>44742</v>
-      </c>
-      <c r="B17" s="16">
-        <f>VLOOKUP(A17,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>4.1096201171875002</v>
-      </c>
-      <c r="C17" s="16">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2)</f>
-        <v>27.809999470000001</v>
-      </c>
-      <c r="D17" s="17">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3)</f>
-        <v>34.119366627533324</v>
-      </c>
-      <c r="E17" s="17">
-        <f t="shared" si="4"/>
-        <v>157242.05001781249</v>
-      </c>
-      <c r="F17" s="18">
-        <f t="shared" si="0"/>
-        <v>38261.942839968433</v>
-      </c>
-      <c r="G17" s="18">
-        <f t="shared" si="5"/>
-        <v>488894.533085773</v>
-      </c>
-      <c r="H17" s="18">
-        <f t="shared" si="1"/>
-        <v>2009170.8083522827</v>
-      </c>
-      <c r="I17" s="18">
-        <f t="shared" si="6"/>
-        <v>1913790.7787700745</v>
-      </c>
-      <c r="J17" s="18">
-        <f t="shared" si="2"/>
-        <v>2009828.6746290366</v>
-      </c>
-      <c r="K17" s="18">
-        <f t="shared" si="3"/>
-        <v>96037.895858962089</v>
-      </c>
-      <c r="L17" s="17">
-        <f t="shared" si="7"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15">
-        <v>44771</v>
-      </c>
-      <c r="B18" s="16">
-        <f>VLOOKUP(A18,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>3.8724699707031252</v>
-      </c>
-      <c r="C18" s="16">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
-        <v>26.329999919999999</v>
-      </c>
-      <c r="D18" s="17">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
-        <v>33.666137024579427</v>
-      </c>
-      <c r="E18" s="17">
-        <f t="shared" si="4"/>
-        <v>212584.68508788882</v>
-      </c>
-      <c r="F18" s="18">
-        <f t="shared" si="0"/>
-        <v>54896.406349482881</v>
-      </c>
-      <c r="G18" s="18">
-        <f t="shared" si="5"/>
-        <v>543790.93943525583</v>
-      </c>
-      <c r="H18" s="18">
-        <f t="shared" si="1"/>
-        <v>2105814.0833034702</v>
-      </c>
-      <c r="I18" s="18">
-        <f t="shared" si="6"/>
-        <v>2126375.4638579632</v>
-      </c>
-      <c r="J18" s="18">
-        <f t="shared" si="2"/>
-        <v>2106471.9495802242</v>
-      </c>
-      <c r="K18" s="18">
-        <f t="shared" si="3"/>
-        <v>-19903.514277738985</v>
-      </c>
-      <c r="L18" s="17">
-        <f t="shared" si="7"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15">
-        <v>44804</v>
-      </c>
-      <c r="B19" s="16">
-        <f>VLOOKUP(A19,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>3.7022099609375001</v>
-      </c>
-      <c r="C19" s="16">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
-        <v>25.18000031</v>
-      </c>
-      <c r="D19" s="17">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
-        <v>33.177616240465106</v>
-      </c>
-      <c r="E19" s="17">
-        <f t="shared" si="4"/>
-        <v>252649.34925635549</v>
-      </c>
-      <c r="F19" s="18">
-        <f t="shared" si="0"/>
-        <v>68242.847359304767</v>
-      </c>
-      <c r="G19" s="18">
-        <f t="shared" si="5"/>
-        <v>612033.78679456061</v>
-      </c>
-      <c r="H19" s="18">
-        <f t="shared" si="1"/>
-        <v>2265877.5819011205</v>
-      </c>
-      <c r="I19" s="18">
-        <f t="shared" si="6"/>
-        <v>2379024.8131143185</v>
-      </c>
-      <c r="J19" s="18">
-        <f t="shared" si="2"/>
-        <v>2266535.4481778746</v>
-      </c>
-      <c r="K19" s="18">
-        <f t="shared" si="3"/>
-        <v>-112489.36493644398</v>
-      </c>
-      <c r="L19" s="17">
-        <f t="shared" si="7"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15">
-        <v>44834</v>
-      </c>
-      <c r="B20" s="16">
-        <f>VLOOKUP(A20,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>3.3477299804687499</v>
-      </c>
-      <c r="C20" s="16">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
-        <v>23.340000150000002</v>
-      </c>
-      <c r="D20" s="17">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
-        <v>32.601424623862997</v>
-      </c>
-      <c r="E20" s="17">
-        <f t="shared" si="4"/>
-        <v>338807.23397602042</v>
-      </c>
-      <c r="F20" s="18">
-        <f t="shared" si="0"/>
-        <v>101205.06610529579</v>
-      </c>
-      <c r="G20" s="18">
-        <f t="shared" si="5"/>
-        <v>713238.8528998564</v>
-      </c>
-      <c r="H20" s="18">
-        <f t="shared" si="1"/>
-        <v>2387731.09108799</v>
-      </c>
-      <c r="I20" s="18">
-        <f t="shared" si="6"/>
-        <v>2717832.047090339</v>
-      </c>
-      <c r="J20" s="18">
-        <f t="shared" si="2"/>
-        <v>2388388.957364744</v>
-      </c>
-      <c r="K20" s="18">
-        <f t="shared" si="3"/>
-        <v>-329443.08972559497</v>
-      </c>
-      <c r="L20" s="17">
-        <f t="shared" si="7"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M20" s="8"/>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M30" s="7"/>
-    </row>
-    <row r="31" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M31" s="7"/>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M32" s="7"/>
-    </row>
-    <row r="33" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M33" s="7"/>
-    </row>
-    <row r="34" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M34" s="7"/>
-    </row>
-    <row r="35" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M35" s="7"/>
-    </row>
-    <row r="36" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M36" s="7"/>
-    </row>
-    <row r="37" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M37" s="7"/>
-    </row>
-    <row r="38" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M38" s="7"/>
-    </row>
-    <row r="39" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M39" s="7"/>
-    </row>
-    <row r="40" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M40" s="7"/>
-    </row>
-    <row r="41" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M41" s="7"/>
-    </row>
-    <row r="42" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M42" s="7"/>
-    </row>
-    <row r="43" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M43" s="7"/>
-    </row>
-    <row r="44" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M44" s="7"/>
-    </row>
-    <row r="45" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M45" s="7"/>
-    </row>
-    <row r="46" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M46" s="7"/>
-    </row>
-    <row r="47" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M47" s="7"/>
-    </row>
-    <row r="48" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="P91" s="3"/>
-    </row>
-    <row r="92" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M94" s="7"/>
-    </row>
-    <row r="95" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M95" s="7"/>
-    </row>
-    <row r="96" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M96" s="7"/>
-    </row>
-    <row r="97" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M97" s="7"/>
-    </row>
-    <row r="98" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M98" s="7"/>
-    </row>
-    <row r="99" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M99" s="7"/>
-    </row>
-    <row r="100" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M100" s="7"/>
-    </row>
-    <row r="101" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M101" s="7"/>
-    </row>
-    <row r="102" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M102" s="7"/>
-    </row>
-    <row r="103" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M103" s="7"/>
-      <c r="P103" s="3"/>
-    </row>
-    <row r="104" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M104" s="7"/>
-    </row>
-    <row r="105" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M105" s="7"/>
-    </row>
-    <row r="106" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M106" s="7"/>
-    </row>
-    <row r="107" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M107" s="7"/>
-    </row>
-    <row r="108" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M108" s="7"/>
-    </row>
-    <row r="109" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M109" s="7"/>
-    </row>
-    <row r="110" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M110" s="7"/>
-    </row>
-    <row r="111" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M111" s="7"/>
-    </row>
-    <row r="112" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M112" s="7"/>
-    </row>
-    <row r="113" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M113" s="7"/>
-    </row>
-    <row r="114" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M114" s="7"/>
-    </row>
-    <row r="115" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M115" s="7"/>
-      <c r="P115" s="3"/>
-    </row>
-    <row r="116" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M116" s="7"/>
-    </row>
-    <row r="117" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M117" s="7"/>
-    </row>
-    <row r="118" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M118" s="7"/>
-    </row>
-    <row r="119" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M119" s="7"/>
-    </row>
-    <row r="120" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M120" s="7"/>
-    </row>
-    <row r="121" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M121" s="7"/>
-    </row>
-    <row r="122" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M122" s="7"/>
-    </row>
-    <row r="123" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M123" s="7"/>
-    </row>
-    <row r="124" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M124" s="7"/>
-    </row>
-    <row r="125" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M125" s="7"/>
-    </row>
-    <row r="126" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M126" s="7"/>
-    </row>
-    <row r="127" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M127" s="7"/>
-      <c r="P127" s="3"/>
-    </row>
-    <row r="128" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M128" s="7"/>
-    </row>
-    <row r="129" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M129" s="7"/>
-    </row>
-    <row r="130" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M130" s="7"/>
-    </row>
-    <row r="131" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M131" s="7"/>
-    </row>
-    <row r="132" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M132" s="7"/>
-    </row>
-    <row r="133" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M133" s="7"/>
-    </row>
-    <row r="134" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M134" s="7"/>
-    </row>
-    <row r="135" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M135" s="7"/>
-    </row>
-    <row r="136" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M136" s="7"/>
-    </row>
-    <row r="137" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M137" s="7"/>
-    </row>
-    <row r="138" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M138" s="7"/>
-    </row>
-    <row r="139" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M139" s="7"/>
-      <c r="P139" s="3"/>
-    </row>
-    <row r="140" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M140" s="7"/>
-    </row>
-    <row r="141" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M141" s="7"/>
-    </row>
-    <row r="142" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M142" s="7"/>
-    </row>
-    <row r="143" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M143" s="7"/>
-    </row>
-    <row r="144" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M144" s="7"/>
-    </row>
-    <row r="145" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M145" s="7"/>
-    </row>
-    <row r="146" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M146" s="7"/>
-    </row>
-    <row r="147" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M147" s="7"/>
-    </row>
-    <row r="148" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M148" s="7"/>
-    </row>
-    <row r="149" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M149" s="7"/>
-    </row>
-    <row r="150" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M150" s="7"/>
-    </row>
-    <row r="151" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M151" s="7"/>
-      <c r="P151" s="3"/>
-    </row>
-    <row r="152" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M152" s="7"/>
-    </row>
-    <row r="153" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M153" s="7"/>
-    </row>
-    <row r="154" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M154" s="7"/>
-    </row>
-    <row r="155" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M155" s="7"/>
-    </row>
-    <row r="156" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M156" s="7"/>
-    </row>
-    <row r="157" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M157" s="7"/>
-    </row>
-    <row r="158" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M158" s="7"/>
-    </row>
-    <row r="159" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M159" s="7"/>
-    </row>
-    <row r="160" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M160" s="7"/>
-    </row>
-    <row r="161" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M161" s="7"/>
-    </row>
-    <row r="162" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M162" s="7"/>
-    </row>
-    <row r="163" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M163" s="7"/>
-      <c r="P163" s="3"/>
-    </row>
-    <row r="164" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M164" s="7"/>
-    </row>
-    <row r="165" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M165" s="7"/>
-    </row>
-    <row r="166" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M166" s="7"/>
-    </row>
-    <row r="167" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M167" s="7"/>
-    </row>
-    <row r="168" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M168" s="7"/>
-    </row>
-    <row r="169" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M169" s="4"/>
-    </row>
-    <row r="170" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M170" s="4"/>
-    </row>
-    <row r="171" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M171" s="4"/>
-    </row>
-    <row r="172" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M172" s="4"/>
-    </row>
-    <row r="173" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M173" s="4"/>
-    </row>
-    <row r="174" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M174" s="4"/>
-    </row>
-    <row r="175" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M175" s="4"/>
-    </row>
-    <row r="176" spans="13:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M176" s="4"/>
-    </row>
-    <row r="177" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M177" s="4"/>
-    </row>
-    <row r="178" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M178" s="4"/>
-    </row>
-    <row r="179" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M179" s="4"/>
-    </row>
-    <row r="180" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M180" s="4"/>
-    </row>
-    <row r="181" spans="13:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M181" s="4"/>
+    <row r="21">
+      <c r="A21" s="40" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="B21" s="41" t="n">
+        <v>3.34772998046875</v>
+      </c>
+      <c r="C21" s="42" t="n">
+        <v>22.23999977</v>
+      </c>
+      <c r="D21" s="42" t="n">
+        <v>32.19740153892386</v>
+      </c>
+      <c r="E21" s="43" t="n">
+        <v>391641.9074516833</v>
+      </c>
+      <c r="F21" s="43" t="n">
+        <v>116987.3047517547</v>
+      </c>
+      <c r="G21" s="43" t="n">
+        <v>830226.157651611</v>
+      </c>
+      <c r="H21" s="43" t="n">
+        <v>2779372.998539673</v>
+      </c>
+      <c r="I21" s="43" t="n">
+        <v>3109473.954542022</v>
+      </c>
+      <c r="J21" s="43" t="n">
+        <v>2780030.864816427</v>
+      </c>
+      <c r="K21" s="44" t="n">
+        <v>-329443.089725595</v>
+      </c>
+      <c r="L21" s="43" t="n">
+        <v>657.8662767539254</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" priority="2" operator="lessThan" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="model4(1)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="model4(1)" sheetId="7" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model4(1)'!$P$1:$P$25</definedName>
     <definedName name="金额" localSheetId="0">OFFSET('model4(1)'!K1,0,0,COUNTA('model4(1)'!K:K)-1)</definedName>
     <definedName name="买卖" localSheetId="0">OFFSET('model4(1)'!E1,0,0,COUNTA('model4(1)'!E:E)-2)</definedName>
     <definedName name="时间" localSheetId="0">OFFSET('model4(1)'!A1,0,0,COUNTA('model4(1)'!A:A)-1)</definedName>
@@ -20,113 +22,159 @@
     <definedName name="资产" localSheetId="0">OFFSET('model4(1)'!J1,0,0,COUNTA('model4(1)'!J:J)-1)</definedName>
     <definedName name="资金" localSheetId="0">OFFSET('model4(1)'!I1,0,0,COUNTA('model4(1)'!I:I)-1)</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>szse innovation100</t>
+  </si>
+  <si>
+    <t>historical PE mean</t>
+  </si>
+  <si>
+    <t>sales amount</t>
+  </si>
+  <si>
+    <t>sales shares</t>
+  </si>
+  <si>
+    <t>shares held</t>
+  </si>
+  <si>
+    <t>market value</t>
+  </si>
+  <si>
+    <t>accumulated investment</t>
+  </si>
+  <si>
+    <t>total assets</t>
+  </si>
+  <si>
+    <t>profit amount</t>
+  </si>
+  <si>
+    <t>recovered funds</t>
+  </si>
+  <si>
+    <t>investment per year</t>
+  </si>
+  <si>
+    <t>absolute RR</t>
+  </si>
+  <si>
+    <t>annualized RR</t>
+  </si>
+  <si>
+    <t>unit:yuan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="0.00_ "/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.00_);(0.00)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <color indexed="10"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <color rgb="00ff0000"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -175,95 +223,64 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -282,88 +299,36 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -381,537 +346,554 @@
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
-        </rich>
-      </tx>
-      <layout/>
-      <overlay val="0"/>
-      <spPr>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
-          <a:prstDash val="solid"/>
         </a:ln>
-      </spPr>
-    </title>
-    <plotArea>
-      <layout>
-        <manualLayout>
-          <layoutTarget val="inner"/>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.1300813604622218"/>
-          <y val="0.07440145171866658"/>
-          <w val="0.8351143544660911"/>
-          <h val="0.5920907202358666"/>
-        </manualLayout>
-      </layout>
-      <lineChart>
-        <grouping val="standard"/>
-        <varyColors val="0"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'model4(1)'!$I$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>accumulated investment</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13008136046222177"/>
+          <c:y val="7.4401451718666578E-2"/>
+          <c:w val="0.83511435446609106"/>
+          <c:h val="0.59209072023586662"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'model4(1)'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>accumulated investment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'model4(1)'!时间</f>
-              <numCache>
-                <formatCode>yyyy\-mm\-dd</formatCode>
-                <ptCount val="18"/>
-                <pt idx="0">
-                  <v>44316</v>
-                </pt>
-                <pt idx="1">
-                  <v>44347</v>
-                </pt>
-                <pt idx="2">
-                  <v>44377</v>
-                </pt>
-                <pt idx="3">
-                  <v>44407</v>
-                </pt>
-                <pt idx="4">
-                  <v>44439</v>
-                </pt>
-                <pt idx="5">
-                  <v>44469</v>
-                </pt>
-                <pt idx="6">
-                  <v>44498</v>
-                </pt>
-                <pt idx="7">
-                  <v>44530</v>
-                </pt>
-                <pt idx="8">
-                  <v>44561</v>
-                </pt>
-                <pt idx="9">
-                  <v>44589</v>
-                </pt>
-                <pt idx="10">
-                  <v>44620</v>
-                </pt>
-                <pt idx="11">
-                  <v>44651</v>
-                </pt>
-                <pt idx="12">
-                  <v>44680</v>
-                </pt>
-                <pt idx="13">
-                  <v>44712</v>
-                </pt>
-                <pt idx="14">
-                  <v>44742</v>
-                </pt>
-                <pt idx="15">
-                  <v>44771</v>
-                </pt>
-                <pt idx="16">
-                  <v>44804</v>
-                </pt>
-                <pt idx="17">
-                  <v>44834</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'model4(1)'!资金</f>
-              <numCache>
-                <formatCode xml:space="preserve">0.00_ </formatCode>
-                <ptCount val="18"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>15057.36999269527</v>
-                </pt>
-                <pt idx="2">
-                  <v>15057.36999269527</v>
-                </pt>
-                <pt idx="3">
-                  <v>19011.31844749668</v>
-                </pt>
-                <pt idx="4">
-                  <v>45400.10646962021</v>
-                </pt>
-                <pt idx="5">
-                  <v>133057.7862679122</v>
-                </pt>
-                <pt idx="6">
-                  <v>167517.1679978078</v>
-                </pt>
-                <pt idx="7">
-                  <v>209123.5851968638</v>
-                </pt>
-                <pt idx="8">
-                  <v>260275.1857646482</v>
-                </pt>
-                <pt idx="9">
-                  <v>429765.6830981916</v>
-                </pt>
-                <pt idx="10">
-                  <v>582573.6242766435</v>
-                </pt>
-                <pt idx="11">
-                  <v>881591.943156605</v>
-                </pt>
-                <pt idx="12">
-                  <v>1311840.7969133</v>
-                </pt>
-                <pt idx="13">
-                  <v>1756548.728752262</v>
-                </pt>
-                <pt idx="14">
-                  <v>1913790.778770074</v>
-                </pt>
-                <pt idx="15">
-                  <v>2126375.463857963</v>
-                </pt>
-                <pt idx="16">
-                  <v>2379024.813114319</v>
-                </pt>
-                <pt idx="17">
-                  <v>2717832.047090339</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-          <smooth val="0"/>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'model4(1)'!$J$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>total assets</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'model4(1)'!时间</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44530</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44865</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'model4(1)'!资金</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15057.369992695269</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15057.369992695269</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19011.31844749668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45400.106469620208</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>133057.78626791219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>167517.16799780785</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>209123.5851968638</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>260275.18576464822</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>429765.68309819163</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>582573.6242766435</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>881591.943156605</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1311840.7969133004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1756548.728752262</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1913790.7787700745</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2126375.4638579632</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2379024.8131143185</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2717832.047090339</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2717832.047090339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D6A0-4C10-8CC9-BF21CBF2A97F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'model4(1)'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total assets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'model4(1)'!时间</f>
-              <numCache>
-                <formatCode>yyyy\-mm\-dd</formatCode>
-                <ptCount val="18"/>
-                <pt idx="0">
-                  <v>44316</v>
-                </pt>
-                <pt idx="1">
-                  <v>44347</v>
-                </pt>
-                <pt idx="2">
-                  <v>44377</v>
-                </pt>
-                <pt idx="3">
-                  <v>44407</v>
-                </pt>
-                <pt idx="4">
-                  <v>44439</v>
-                </pt>
-                <pt idx="5">
-                  <v>44469</v>
-                </pt>
-                <pt idx="6">
-                  <v>44498</v>
-                </pt>
-                <pt idx="7">
-                  <v>44530</v>
-                </pt>
-                <pt idx="8">
-                  <v>44561</v>
-                </pt>
-                <pt idx="9">
-                  <v>44589</v>
-                </pt>
-                <pt idx="10">
-                  <v>44620</v>
-                </pt>
-                <pt idx="11">
-                  <v>44651</v>
-                </pt>
-                <pt idx="12">
-                  <v>44680</v>
-                </pt>
-                <pt idx="13">
-                  <v>44712</v>
-                </pt>
-                <pt idx="14">
-                  <v>44742</v>
-                </pt>
-                <pt idx="15">
-                  <v>44771</v>
-                </pt>
-                <pt idx="16">
-                  <v>44804</v>
-                </pt>
-                <pt idx="17">
-                  <v>44834</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'model4(1)'!资产</f>
-              <numCache>
-                <formatCode xml:space="preserve">0.00_ </formatCode>
-                <ptCount val="18"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>15057.36999269527</v>
-                </pt>
-                <pt idx="2">
-                  <v>15452.86077954769</v>
-                </pt>
-                <pt idx="3">
-                  <v>19019.5878494305</v>
-                </pt>
-                <pt idx="4">
-                  <v>44610.15723019126</v>
-                </pt>
-                <pt idx="5">
-                  <v>131800.0954652137</v>
-                </pt>
-                <pt idx="6">
-                  <v>170637.5292139809</v>
-                </pt>
-                <pt idx="7">
-                  <v>215275.2181934247</v>
-                </pt>
-                <pt idx="8">
-                  <v>262454.7491055948</v>
-                </pt>
-                <pt idx="9">
-                  <v>404006.3058065916</v>
-                </pt>
-                <pt idx="10">
-                  <v>556025.96375305</v>
-                </pt>
-                <pt idx="11">
-                  <v>794878.5808260118</v>
-                </pt>
-                <pt idx="12">
-                  <v>1150213.834049235</v>
-                </pt>
-                <pt idx="13">
-                  <v>1639230.026018559</v>
-                </pt>
-                <pt idx="14">
-                  <v>2009828.674629037</v>
-                </pt>
-                <pt idx="15">
-                  <v>2106471.949580224</v>
-                </pt>
-                <pt idx="16">
-                  <v>2266535.448177875</v>
-                </pt>
-                <pt idx="17">
-                  <v>2388388.957364744</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-          <smooth val="0"/>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'model4(1)'!$K$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>profit amount</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'model4(1)'!时间</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44530</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44865</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'model4(1)'!资产</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15057.369992695269</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15452.860779547693</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19019.5878494305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44610.15723019126</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>131800.09546521373</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170637.52921398092</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>215275.21819342475</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262454.74910559482</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>404006.30580659158</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>556025.96375304996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>794878.58082601184</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1150213.8340492349</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1639230.0260185585</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009828.6746290366</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2106471.9495802242</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2266535.4481778746</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2388388.957364744</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2353918.0678823083</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D6A0-4C10-8CC9-BF21CBF2A97F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'model4(1)'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>profit amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'model4(1)'!时间</f>
-              <numCache>
-                <formatCode>yyyy\-mm\-dd</formatCode>
-                <ptCount val="18"/>
-                <pt idx="0">
-                  <v>44316</v>
-                </pt>
-                <pt idx="1">
-                  <v>44347</v>
-                </pt>
-                <pt idx="2">
-                  <v>44377</v>
-                </pt>
-                <pt idx="3">
-                  <v>44407</v>
-                </pt>
-                <pt idx="4">
-                  <v>44439</v>
-                </pt>
-                <pt idx="5">
-                  <v>44469</v>
-                </pt>
-                <pt idx="6">
-                  <v>44498</v>
-                </pt>
-                <pt idx="7">
-                  <v>44530</v>
-                </pt>
-                <pt idx="8">
-                  <v>44561</v>
-                </pt>
-                <pt idx="9">
-                  <v>44589</v>
-                </pt>
-                <pt idx="10">
-                  <v>44620</v>
-                </pt>
-                <pt idx="11">
-                  <v>44651</v>
-                </pt>
-                <pt idx="12">
-                  <v>44680</v>
-                </pt>
-                <pt idx="13">
-                  <v>44712</v>
-                </pt>
-                <pt idx="14">
-                  <v>44742</v>
-                </pt>
-                <pt idx="15">
-                  <v>44771</v>
-                </pt>
-                <pt idx="16">
-                  <v>44804</v>
-                </pt>
-                <pt idx="17">
-                  <v>44834</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'model4(1)'!金额</f>
-              <numCache>
-                <formatCode xml:space="preserve">0.00_ </formatCode>
-                <ptCount val="18"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>0</v>
-                </pt>
-                <pt idx="2">
-                  <v>395.4907868524242</v>
-                </pt>
-                <pt idx="3">
-                  <v>8.269401933819609</v>
-                </pt>
-                <pt idx="4">
-                  <v>-789.9492394289482</v>
-                </pt>
-                <pt idx="5">
-                  <v>-1257.69080269846</v>
-                </pt>
-                <pt idx="6">
-                  <v>3120.361216173071</v>
-                </pt>
-                <pt idx="7">
-                  <v>6151.632996560948</v>
-                </pt>
-                <pt idx="8">
-                  <v>2179.563340946595</v>
-                </pt>
-                <pt idx="9">
-                  <v>-25759.37729160005</v>
-                </pt>
-                <pt idx="10">
-                  <v>-26547.66052359354</v>
-                </pt>
-                <pt idx="11">
-                  <v>-86713.36233059317</v>
-                </pt>
-                <pt idx="12">
-                  <v>-161626.9628640655</v>
-                </pt>
-                <pt idx="13">
-                  <v>-117318.7027337034</v>
-                </pt>
-                <pt idx="14">
-                  <v>96037.89585896209</v>
-                </pt>
-                <pt idx="15">
-                  <v>-19903.51427773898</v>
-                </pt>
-                <pt idx="16">
-                  <v>-112489.364936444</v>
-                </pt>
-                <pt idx="17">
-                  <v>-329443.089725595</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-          <smooth val="0"/>
-        </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
-        <marker val="1"/>
-        <smooth val="0"/>
-        <axId val="248757632"/>
-        <axId val="248763904"/>
-      </lineChart>
-      <dateAx>
-        <axId val="248757632"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="low"/>
-        <spPr>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'model4(1)'!时间</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44530</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44865</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'model4(1)'!金额</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>395.49078685242421</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2694019338196085</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-789.9492394289482</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1257.6908026984602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3120.3612161730707</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6151.6329965609475</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2179.5633409465954</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-25759.377291600045</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-26547.660523593542</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-86713.362330593169</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-161626.96286406554</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-117318.70273370342</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96037.895858962089</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-19903.514277738985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-112489.36493644398</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-329443.08972559497</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-363913.97920803074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D6A0-4C10-8CC9-BF21CBF2A97F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="39302272"/>
+        <c:axId val="39303808"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="39302272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -920,16 +902,191 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-        </spPr>
-        <txPr>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39303808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="39303808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39302272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -942,54 +1099,320 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>szseinnovation100index &amp;                                            sales amount per month</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
-        </txPr>
-        <crossAx val="248763904"/>
-        <crosses val="autoZero"/>
-        <lblOffset val="100"/>
-        <baseTimeUnit val="days"/>
-      </dateAx>
-      <valAx>
-        <axId val="248763904"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="l"/>
-        <majorGridlines>
-          <spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'model4(1)'!买卖</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15057.369992695269</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-657.86627675392538</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3953.9484548014116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26388.788022123525</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87657.679798291982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34459.381729895649</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41606.417199055955</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51151.60056778443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>169490.49733354338</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>152807.94117845185</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>299018.3188799615</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>430248.85375669535</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>444707.93183896161</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>157242.05001781249</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>212584.68508788882</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>252649.34925635549</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>338807.23397602042</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1953739.4795899205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="108182528"/>
+        <c:axId val="108180608"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-          </spPr>
-        </majorGridlines>
-        <numFmt formatCode="0.00_ " sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'model4(1)'!时间</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44530</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44865</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'model4(1)'!指数</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>4.7860299999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9806599999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1114799999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9776999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7613100000000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7106400000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8678999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9547099609374996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8630097656249998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3440297851562502</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.3355400390624999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8658500976562502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5012099609375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6361599121093748</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.1096201171875002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8724699707031252</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7022099609375001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3477299804687499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2993999023437501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="92080384"/>
+        <c:axId val="98640640"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="92080384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
-        </spPr>
-        <txPr>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1001,69 +1424,53 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
-        </txPr>
-        <crossAx val="248757632"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="b"/>
-      <layout/>
-      <overlay val="0"/>
-      <spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-      <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+        </c:txPr>
+        <c:crossAx val="98640640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="98640640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </txPr>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1075,323 +1482,37 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0"/>
-              <a:t>szseinnovation100index &amp;                                            sales amount per month</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
-        </rich>
-      </tx>
-      <overlay val="0"/>
-      <spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </title>
-    <plotArea>
-      <layout/>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <varyColors val="0"/>
-        <ser>
-          <idx val="1"/>
-          <order val="0"/>
-          <spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <val>
-            <numRef>
-              <f>'model4(1)'!买卖</f>
-              <numCache>
-                <formatCode xml:space="preserve">0.00_ </formatCode>
-                <ptCount val="18"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>15057.36999269527</v>
-                </pt>
-                <pt idx="2">
-                  <v>-657.8662767539254</v>
-                </pt>
-                <pt idx="3">
-                  <v>3953.948454801412</v>
-                </pt>
-                <pt idx="4">
-                  <v>26388.78802212352</v>
-                </pt>
-                <pt idx="5">
-                  <v>87657.67979829198</v>
-                </pt>
-                <pt idx="6">
-                  <v>34459.38172989565</v>
-                </pt>
-                <pt idx="7">
-                  <v>41606.41719905596</v>
-                </pt>
-                <pt idx="8">
-                  <v>51151.60056778443</v>
-                </pt>
-                <pt idx="9">
-                  <v>169490.4973335434</v>
-                </pt>
-                <pt idx="10">
-                  <v>152807.9411784518</v>
-                </pt>
-                <pt idx="11">
-                  <v>299018.3188799615</v>
-                </pt>
-                <pt idx="12">
-                  <v>430248.8537566953</v>
-                </pt>
-                <pt idx="13">
-                  <v>444707.9318389616</v>
-                </pt>
-                <pt idx="14">
-                  <v>157242.0500178125</v>
-                </pt>
-                <pt idx="15">
-                  <v>212584.6850878888</v>
-                </pt>
-                <pt idx="16">
-                  <v>252649.3492563555</v>
-                </pt>
-                <pt idx="17">
-                  <v>338807.2339760204</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
-        <gapWidth val="150"/>
-        <axId val="248773632"/>
-        <axId val="249103488"/>
-      </barChart>
-      <lineChart>
-        <grouping val="standard"/>
-        <varyColors val="0"/>
-        <ser>
-          <idx val="2"/>
-          <order val="1"/>
-          <spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'model4(1)'!时间</f>
-              <numCache>
-                <formatCode>yyyy\-mm\-dd</formatCode>
-                <ptCount val="18"/>
-                <pt idx="0">
-                  <v>44316</v>
-                </pt>
-                <pt idx="1">
-                  <v>44347</v>
-                </pt>
-                <pt idx="2">
-                  <v>44377</v>
-                </pt>
-                <pt idx="3">
-                  <v>44407</v>
-                </pt>
-                <pt idx="4">
-                  <v>44439</v>
-                </pt>
-                <pt idx="5">
-                  <v>44469</v>
-                </pt>
-                <pt idx="6">
-                  <v>44498</v>
-                </pt>
-                <pt idx="7">
-                  <v>44530</v>
-                </pt>
-                <pt idx="8">
-                  <v>44561</v>
-                </pt>
-                <pt idx="9">
-                  <v>44589</v>
-                </pt>
-                <pt idx="10">
-                  <v>44620</v>
-                </pt>
-                <pt idx="11">
-                  <v>44651</v>
-                </pt>
-                <pt idx="12">
-                  <v>44680</v>
-                </pt>
-                <pt idx="13">
-                  <v>44712</v>
-                </pt>
-                <pt idx="14">
-                  <v>44742</v>
-                </pt>
-                <pt idx="15">
-                  <v>44771</v>
-                </pt>
-                <pt idx="16">
-                  <v>44804</v>
-                </pt>
-                <pt idx="17">
-                  <v>44834</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'model4(1)'!指数</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="18"/>
-                <pt idx="0">
-                  <v>4.786029999999999</v>
-                </pt>
-                <pt idx="1">
-                  <v>4.980659999999999</v>
-                </pt>
-                <pt idx="2">
-                  <v>5.111479999999999</v>
-                </pt>
-                <pt idx="3">
-                  <v>4.9777</v>
-                </pt>
-                <pt idx="4">
-                  <v>4.761310000000001</v>
-                </pt>
-                <pt idx="5">
-                  <v>4.710640000000001</v>
-                </pt>
-                <pt idx="6">
-                  <v>4.8679</v>
-                </pt>
-                <pt idx="7">
-                  <v>4.9547099609375</v>
-                </pt>
-                <pt idx="8">
-                  <v>4.863009765625</v>
-                </pt>
-                <pt idx="9">
-                  <v>4.34402978515625</v>
-                </pt>
-                <pt idx="10">
-                  <v>4.3355400390625</v>
-                </pt>
-                <pt idx="11">
-                  <v>3.86585009765625</v>
-                </pt>
-                <pt idx="12">
-                  <v>3.5012099609375</v>
-                </pt>
-                <pt idx="13">
-                  <v>3.636159912109375</v>
-                </pt>
-                <pt idx="14">
-                  <v>4.1096201171875</v>
-                </pt>
-                <pt idx="15">
-                  <v>3.872469970703125</v>
-                </pt>
-                <pt idx="16">
-                  <v>3.7022099609375</v>
-                </pt>
-                <pt idx="17">
-                  <v>3.34772998046875</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-          <smooth val="0"/>
-        </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
-        <marker val="1"/>
-        <smooth val="0"/>
-        <axId val="249105024"/>
-        <axId val="249106816"/>
-      </lineChart>
-      <catAx>
-        <axId val="248773632"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="1"/>
-        <axPos val="b"/>
-        <majorTickMark val="out"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <crossAx val="249103488"/>
-        <crosses val="autoZero"/>
-        <auto val="1"/>
-        <lblAlgn val="ctr"/>
-        <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
-      </catAx>
-      <valAx>
-        <axId val="249103488"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="r"/>
-        <numFmt formatCode="0.00_ " sourceLinked="1"/>
-        <majorTickMark val="out"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
+        </c:txPr>
+        <c:crossAx val="92080384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="108180608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
           <a:noFill/>
           <a:ln>
             <a:noFill/>
-            <a:prstDash val="solid"/>
           </a:ln>
-        </spPr>
-        <txPr>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1403,196 +1524,147 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
-        </txPr>
-        <crossAx val="248773632"/>
-        <crosses val="max"/>
-        <crossBetween val="between"/>
-      </valAx>
-      <dateAx>
-        <axId val="249105024"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
-        <majorTickMark val="out"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
+        </c:txPr>
+        <c:crossAx val="108182528"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="108182528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108180608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </txPr>
-        <crossAx val="249106816"/>
-        <crosses val="autoZero"/>
-        <lblOffset val="100"/>
-        <baseTimeUnit val="days"/>
-      </dateAx>
-      <valAx>
-        <axId val="249106816"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="l"/>
-        <majorGridlines>
-          <spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </spPr>
-        </majorGridlines>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </txPr>
-        <crossAx val="249105024"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <twoCellAnchor>
-    <from>
-      <col>14</col>
-      <colOff>676275</colOff>
-      <row>4</row>
-      <rowOff>85725</rowOff>
-    </from>
-    <to>
-      <col>21</col>
-      <colOff>752475</colOff>
-      <row>20</row>
-      <rowOff>0</rowOff>
-    </to>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </twoCellAnchor>
-  <twoCellAnchor>
-    <from>
-      <col>22</col>
-      <colOff>57149</colOff>
-      <row>4</row>
-      <rowOff>104775</rowOff>
-    </from>
-    <to>
-      <col>30</col>
-      <colOff>209549</colOff>
-      <row>20</row>
-      <rowOff>0</rowOff>
-    </to>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </twoCellAnchor>
-</wsDr>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="szse_innovation_100"/>
       <sheetName val="szseinnovation100index"/>
@@ -14771,8 +14843,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="model1"/>
       <sheetName val="myPEPB"/>
@@ -14807,7 +14879,7 @@
             <v>45.12</v>
           </cell>
           <cell r="D3">
-            <v>45.12</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="4">
@@ -14818,7 +14890,7 @@
             <v>44.81</v>
           </cell>
           <cell r="D4">
-            <v>44.965000000000003</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="5">
@@ -14829,7 +14901,7 @@
             <v>45.06</v>
           </cell>
           <cell r="D5">
-            <v>44.99666666666667</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="6">
@@ -14840,7 +14912,7 @@
             <v>44.18</v>
           </cell>
           <cell r="D6">
-            <v>44.792500000000004</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="7">
@@ -14851,7 +14923,7 @@
             <v>43.03</v>
           </cell>
           <cell r="D7">
-            <v>44.440000000000005</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="8">
@@ -14862,7 +14934,7 @@
             <v>43.34</v>
           </cell>
           <cell r="D8">
-            <v>44.256666666666668</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="9">
@@ -14873,7 +14945,7 @@
             <v>44.23</v>
           </cell>
           <cell r="D9">
-            <v>44.252857142857145</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="10">
@@ -14884,7 +14956,7 @@
             <v>43.99</v>
           </cell>
           <cell r="D10">
-            <v>44.220000000000006</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="11">
@@ -14895,7 +14967,7 @@
             <v>43.87</v>
           </cell>
           <cell r="D11">
-            <v>44.181111111111115</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="12">
@@ -14906,7 +14978,7 @@
             <v>45.78</v>
           </cell>
           <cell r="D12">
-            <v>44.341000000000008</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="13">
@@ -14917,7 +14989,7 @@
             <v>45.63</v>
           </cell>
           <cell r="D13">
-            <v>44.458181818181828</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="14">
@@ -14928,7 +15000,7 @@
             <v>45.89</v>
           </cell>
           <cell r="D14">
-            <v>44.577500000000008</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="15">
@@ -14939,7 +15011,7 @@
             <v>46.21</v>
           </cell>
           <cell r="D15">
-            <v>44.703076923076928</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="16">
@@ -14950,7 +15022,7 @@
             <v>46.9</v>
           </cell>
           <cell r="D16">
-            <v>44.860000000000007</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="17">
@@ -14961,7 +15033,7 @@
             <v>46.48</v>
           </cell>
           <cell r="D17">
-            <v>44.968000000000004</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="18">
@@ -14972,7 +15044,7 @@
             <v>46.74</v>
           </cell>
           <cell r="D18">
-            <v>45.078750000000007</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="19">
@@ -14983,7 +15055,7 @@
             <v>47.38</v>
           </cell>
           <cell r="D19">
-            <v>45.214117647058828</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="20">
@@ -14994,7 +15066,7 @@
             <v>47.58</v>
           </cell>
           <cell r="D20">
-            <v>45.345555555555563</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="21">
@@ -15005,7 +15077,7 @@
             <v>47.64</v>
           </cell>
           <cell r="D21">
-            <v>45.46631578947369</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="22">
@@ -15016,7 +15088,7 @@
             <v>37.39</v>
           </cell>
           <cell r="D22">
-            <v>45.062500000000007</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="23">
@@ -15027,7 +15099,7 @@
             <v>36.26</v>
           </cell>
           <cell r="D23">
-            <v>44.643333333333338</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="24">
@@ -15038,7 +15110,7 @@
             <v>36.409999999999997</v>
           </cell>
           <cell r="D24">
-            <v>44.269090909090913</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="25">
@@ -15049,7 +15121,7 @@
             <v>36.44</v>
           </cell>
           <cell r="D25">
-            <v>43.928695652173921</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="26">
@@ -15060,7 +15132,7 @@
             <v>36.700000000000003</v>
           </cell>
           <cell r="D26">
-            <v>43.627500000000005</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="27">
@@ -15071,7 +15143,7 @@
             <v>36.25</v>
           </cell>
           <cell r="D27">
-            <v>43.332400000000007</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="28">
@@ -15082,7 +15154,7 @@
             <v>36.99</v>
           </cell>
           <cell r="D28">
-            <v>43.088461538461544</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="29">
@@ -15093,7 +15165,7 @@
             <v>38.049999999999997</v>
           </cell>
           <cell r="D29">
-            <v>42.901851851851859</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="30">
@@ -15104,7 +15176,7 @@
             <v>37.979999999999997</v>
           </cell>
           <cell r="D30">
-            <v>42.726071428571437</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="31">
@@ -15115,7 +15187,7 @@
             <v>38.200000000000003</v>
           </cell>
           <cell r="D31">
-            <v>42.570000000000007</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="32">
@@ -15126,7 +15198,7 @@
             <v>38.520000000000003</v>
           </cell>
           <cell r="D32">
-            <v>42.435000000000009</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="33">
@@ -15137,7 +15209,7 @@
             <v>38.200000000000003</v>
           </cell>
           <cell r="D33">
-            <v>42.298387096774199</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="34">
@@ -15148,7 +15220,7 @@
             <v>38.479999999999997</v>
           </cell>
           <cell r="D34">
-            <v>42.179062500000008</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="35">
@@ -15159,7 +15231,7 @@
             <v>39.35</v>
           </cell>
           <cell r="D35">
-            <v>42.093333333333341</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="36">
@@ -15170,7 +15242,7 @@
             <v>39.090000000000003</v>
           </cell>
           <cell r="D36">
-            <v>42.005000000000003</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="37">
@@ -15181,7 +15253,7 @@
             <v>39.36</v>
           </cell>
           <cell r="D37">
-            <v>41.929428571428573</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="38">
@@ -15192,7 +15264,7 @@
             <v>39.31</v>
           </cell>
           <cell r="D38">
-            <v>41.856666666666662</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="39">
@@ -15203,7 +15275,7 @@
             <v>39.85</v>
           </cell>
           <cell r="D39">
-            <v>41.802432432432425</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="40">
@@ -15214,7 +15286,7 @@
             <v>39.86</v>
           </cell>
           <cell r="D40">
-            <v>41.751315789473679</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="41">
@@ -15225,7 +15297,7 @@
             <v>39.36</v>
           </cell>
           <cell r="D41">
-            <v>41.689999999999991</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="42">
@@ -15236,7 +15308,7 @@
             <v>38.97</v>
           </cell>
           <cell r="D42">
-            <v>41.621999999999993</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="43">
@@ -15247,7 +15319,7 @@
             <v>39.409999999999997</v>
           </cell>
           <cell r="D43">
-            <v>41.5680487804878</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="44">
@@ -15258,7 +15330,7 @@
             <v>39.229999999999997</v>
           </cell>
           <cell r="D44">
-            <v>41.512380952380944</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="45">
@@ -15269,7 +15341,7 @@
             <v>39.01</v>
           </cell>
           <cell r="D45">
-            <v>41.454186046511623</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="46">
@@ -15280,7 +15352,7 @@
             <v>39.04</v>
           </cell>
           <cell r="D46">
-            <v>41.399318181818174</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="47">
@@ -15291,7 +15363,7 @@
             <v>39.65</v>
           </cell>
           <cell r="D47">
-            <v>41.36044444444444</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="48">
@@ -15302,7 +15374,7 @@
             <v>39.61</v>
           </cell>
           <cell r="D48">
-            <v>41.322391304347818</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="49">
@@ -15313,7 +15385,7 @@
             <v>39.58</v>
           </cell>
           <cell r="D49">
-            <v>41.285319148936161</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="50">
@@ -15324,7 +15396,7 @@
             <v>38.270000000000003</v>
           </cell>
           <cell r="D50">
-            <v>41.222499999999989</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="51">
@@ -15335,7 +15407,7 @@
             <v>38.880000000000003</v>
           </cell>
           <cell r="D51">
-            <v>41.174693877551015</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="52">
@@ -15346,7 +15418,7 @@
             <v>39.4</v>
           </cell>
           <cell r="D52">
-            <v>41.139199999999988</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="53">
@@ -15357,7 +15429,7 @@
             <v>39.49</v>
           </cell>
           <cell r="D53">
-            <v>41.106862745098027</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="54">
@@ -15368,7 +15440,7 @@
             <v>39.64</v>
           </cell>
           <cell r="D54">
-            <v>41.078653846153834</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="55">
@@ -15379,7 +15451,7 @@
             <v>40.22</v>
           </cell>
           <cell r="D55">
-            <v>41.062452830188661</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="56">
@@ -15390,7 +15462,7 @@
             <v>40.15</v>
           </cell>
           <cell r="D56">
-            <v>41.045555555555538</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="57">
@@ -15401,7 +15473,7 @@
             <v>40.64</v>
           </cell>
           <cell r="D57">
-            <v>41.038181818181798</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="58">
@@ -15412,7 +15484,7 @@
             <v>41.08</v>
           </cell>
           <cell r="D58">
-            <v>41.038928571428549</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="59">
@@ -15423,7 +15495,7 @@
             <v>40.799999999999997</v>
           </cell>
           <cell r="D59">
-            <v>41.034736842105247</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="60">
@@ -15434,7 +15506,7 @@
             <v>41.45</v>
           </cell>
           <cell r="D60">
-            <v>41.041896551724122</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="61">
@@ -15445,7 +15517,7 @@
             <v>41.29</v>
           </cell>
           <cell r="D61">
-            <v>41.046101694915237</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="62">
@@ -15456,7 +15528,7 @@
             <v>40.03</v>
           </cell>
           <cell r="D62">
-            <v>41.029166666666654</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="63">
@@ -15467,7 +15539,7 @@
             <v>40.21</v>
           </cell>
           <cell r="D63">
-            <v>41.015737704918017</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="64">
@@ -15478,7 +15550,7 @@
             <v>39.89</v>
           </cell>
           <cell r="D64">
-            <v>40.997580645161271</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="65">
@@ -15489,7 +15561,7 @@
             <v>40.98</v>
           </cell>
           <cell r="D65">
-            <v>40.997301587301571</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="66">
@@ -15500,7 +15572,7 @@
             <v>41.06</v>
           </cell>
           <cell r="D66">
-            <v>40.998281249999984</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="67">
@@ -15511,7 +15583,7 @@
             <v>40.729999999999997</v>
           </cell>
           <cell r="D67">
-            <v>40.994153846153829</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="68">
@@ -15522,7 +15594,7 @@
             <v>41.78</v>
           </cell>
           <cell r="D68">
-            <v>41.006060606060593</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="69">
@@ -15533,7 +15605,7 @@
             <v>41.7</v>
           </cell>
           <cell r="D69">
-            <v>41.01641791044775</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="70">
@@ -15544,7 +15616,7 @@
             <v>41.28</v>
           </cell>
           <cell r="D70">
-            <v>41.020294117647047</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="71">
@@ -15555,7 +15627,7 @@
             <v>41.54</v>
           </cell>
           <cell r="D71">
-            <v>41.027826086956509</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="72">
@@ -15566,7 +15638,7 @@
             <v>40.58</v>
           </cell>
           <cell r="D72">
-            <v>41.021428571428558</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="73">
@@ -15577,7 +15649,7 @@
             <v>40.869999999999997</v>
           </cell>
           <cell r="D73">
-            <v>41.019295774647873</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="74">
@@ -15588,7 +15660,7 @@
             <v>40.89</v>
           </cell>
           <cell r="D74">
-            <v>41.017499999999984</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="75">
@@ -15599,7 +15671,7 @@
             <v>41.72</v>
           </cell>
           <cell r="D75">
-            <v>41.027123287671216</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="76">
@@ -15610,7 +15682,7 @@
             <v>41.69</v>
           </cell>
           <cell r="D76">
-            <v>41.036081081081065</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="77">
@@ -15621,7 +15693,7 @@
             <v>40.99</v>
           </cell>
           <cell r="D77">
-            <v>41.035466666666643</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="78">
@@ -15629,10 +15701,10 @@
             <v>44403</v>
           </cell>
           <cell r="C78">
-            <v>39.900001525878906</v>
+            <v>39.900001525878913</v>
           </cell>
           <cell r="D78">
-            <v>41.020526335866805</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="79">
@@ -15640,10 +15712,10 @@
             <v>44404</v>
           </cell>
           <cell r="C79">
-            <v>38.209999084472656</v>
+            <v>38.209999084472663</v>
           </cell>
           <cell r="D79">
-            <v>40.984025981952598</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="80">
@@ -15651,10 +15723,10 @@
             <v>44405</v>
           </cell>
           <cell r="C80">
-            <v>38.619998931884766</v>
+            <v>38.619998931884773</v>
           </cell>
           <cell r="D80">
-            <v>40.953717942849167</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="81">
@@ -15662,10 +15734,10 @@
             <v>44406</v>
           </cell>
           <cell r="C81">
-            <v>40.119998931884766</v>
+            <v>40.119998931884773</v>
           </cell>
           <cell r="D81">
-            <v>40.943164537647085</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="82">
@@ -15676,7 +15748,7 @@
             <v>39.930000305175781</v>
           </cell>
           <cell r="D82">
-            <v>40.930499984741189</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="83">
@@ -15687,7 +15759,7 @@
             <v>40.659999847412109</v>
           </cell>
           <cell r="D83">
-            <v>40.927160476872935</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="84">
@@ -15698,7 +15770,7 @@
             <v>40.5</v>
           </cell>
           <cell r="D84">
-            <v>40.921951202764724</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="85">
@@ -15709,7 +15781,7 @@
             <v>41.509998321533203</v>
           </cell>
           <cell r="D85">
-            <v>40.929036107810127</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="86">
@@ -15717,10 +15789,10 @@
             <v>44413</v>
           </cell>
           <cell r="C86">
-            <v>41.130001068115234</v>
+            <v>41.130001068115227</v>
           </cell>
           <cell r="D86">
-            <v>40.931428547813759</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="87">
@@ -15731,7 +15803,7 @@
             <v>40.799999237060547</v>
           </cell>
           <cell r="D87">
-            <v>40.92988232062843</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="88">
@@ -15742,7 +15814,7 @@
             <v>40.799999237060547</v>
           </cell>
           <cell r="D88">
-            <v>40.928372052214847</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="89">
@@ -15750,10 +15822,10 @@
             <v>44418</v>
           </cell>
           <cell r="C89">
-            <v>40.869998931884766</v>
+            <v>40.869998931884773</v>
           </cell>
           <cell r="D89">
-            <v>40.927701096808754</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="90">
@@ -15764,7 +15836,7 @@
             <v>40.610000610351563</v>
           </cell>
           <cell r="D90">
-            <v>40.924090864008107</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="91">
@@ -15775,7 +15847,7 @@
             <v>40.340000152587891</v>
           </cell>
           <cell r="D91">
-            <v>40.917528047025854</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="92">
@@ -15786,7 +15858,7 @@
             <v>39.740001678466797</v>
           </cell>
           <cell r="D92">
-            <v>40.904444420708536</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="93">
@@ -15794,10 +15866,10 @@
             <v>44424</v>
           </cell>
           <cell r="C93">
-            <v>39.290000915527344</v>
+            <v>39.290000915527337</v>
           </cell>
           <cell r="D93">
-            <v>40.886703283288959</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="94">
@@ -15808,7 +15880,7 @@
             <v>38.419998168945313</v>
           </cell>
           <cell r="D94">
-            <v>40.859891271176529</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="95">
@@ -15819,7 +15891,7 @@
             <v>38.669998168945313</v>
           </cell>
           <cell r="D95">
-            <v>40.836344033518131</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="96">
@@ -15830,7 +15902,7 @@
             <v>38.909999847412109</v>
           </cell>
           <cell r="D96">
-            <v>40.815851010261682</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="97">
@@ -15841,7 +15913,7 @@
             <v>38.139999389648438</v>
           </cell>
           <cell r="D97">
-            <v>40.787684151097331</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="98">
@@ -15849,10 +15921,10 @@
             <v>44431</v>
           </cell>
           <cell r="C98">
-            <v>39.130001068115234</v>
+            <v>39.130001068115227</v>
           </cell>
           <cell r="D98">
-            <v>40.770416618982935</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="99">
@@ -15863,7 +15935,7 @@
             <v>39.450000762939453</v>
           </cell>
           <cell r="D99">
-            <v>40.756804084384548</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="100">
@@ -15874,7 +15946,7 @@
             <v>39.549999237060547</v>
           </cell>
           <cell r="D100">
-            <v>40.744489749207773</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="101">
@@ -15885,7 +15957,7 @@
             <v>38.639999389648438</v>
           </cell>
           <cell r="D101">
-            <v>40.723232270828383</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="102">
@@ -15893,10 +15965,10 @@
             <v>44435</v>
           </cell>
           <cell r="C102">
-            <v>38.630001068115234</v>
+            <v>38.630001068115227</v>
           </cell>
           <cell r="D102">
-            <v>40.702299958801255</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="103">
@@ -15907,7 +15979,7 @@
             <v>38.479999542236328</v>
           </cell>
           <cell r="D103">
-            <v>40.680296984379815</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="104">
@@ -15918,7 +15990,7 @@
             <v>38.069999694824219</v>
           </cell>
           <cell r="D104">
-            <v>40.654705834482208</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="105">
@@ -15929,7 +16001,7 @@
             <v>35.020000457763672</v>
           </cell>
           <cell r="D105">
-            <v>40.599999957038342</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="106">
@@ -15940,7 +16012,7 @@
             <v>34.639999389648438</v>
           </cell>
           <cell r="D106">
-            <v>40.542692259274979</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="107">
@@ -15948,10 +16020,10 @@
             <v>44442</v>
           </cell>
           <cell r="C107">
-            <v>34.220001220703125</v>
+            <v>34.220001220703118</v>
           </cell>
           <cell r="D107">
-            <v>40.482476154145722</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="108">
@@ -15959,10 +16031,10 @@
             <v>44445</v>
           </cell>
           <cell r="C108">
-            <v>35.540000915527344</v>
+            <v>35.540000915527337</v>
           </cell>
           <cell r="D108">
-            <v>40.435849029253099</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="109">
@@ -15970,10 +16042,10 @@
             <v>44446</v>
           </cell>
           <cell r="C109">
-            <v>35.720001220703125</v>
+            <v>35.720001220703118</v>
           </cell>
           <cell r="D109">
-            <v>40.391775685247957</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="110">
@@ -15984,7 +16056,7 @@
             <v>35.509998321533203</v>
           </cell>
           <cell r="D110">
-            <v>40.346574042991335</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="111">
@@ -15995,7 +16067,7 @@
             <v>35.5</v>
           </cell>
           <cell r="D111">
-            <v>40.302110060945544</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="112">
@@ -16006,7 +16078,7 @@
             <v>35.700000762939453</v>
           </cell>
           <cell r="D112">
-            <v>40.260272703690944</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="113">
@@ -16017,7 +16089,7 @@
             <v>35.299999237060547</v>
           </cell>
           <cell r="D113">
-            <v>40.215585555342926</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="114">
@@ -16025,10 +16097,10 @@
             <v>44453</v>
           </cell>
           <cell r="C114">
-            <v>35.470001220703125</v>
+            <v>35.470001220703118</v>
           </cell>
           <cell r="D114">
-            <v>40.173214266640784</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="115">
@@ -16036,10 +16108,10 @@
             <v>44454</v>
           </cell>
           <cell r="C115">
-            <v>35.130001068115234</v>
+            <v>35.130001068115227</v>
           </cell>
           <cell r="D115">
-            <v>40.128584061344093</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="116">
@@ -16050,7 +16122,7 @@
             <v>34.389999389648438</v>
           </cell>
           <cell r="D116">
-            <v>40.078245599311678</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="117">
@@ -16061,7 +16133,7 @@
             <v>34.819999694824219</v>
           </cell>
           <cell r="D117">
-            <v>40.032521721881352</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="118">
@@ -16069,10 +16141,10 @@
             <v>44461</v>
           </cell>
           <cell r="C118">
-            <v>34.560001373291016</v>
+            <v>34.560001373291023</v>
           </cell>
           <cell r="D118">
-            <v>39.985344822324535</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="119">
@@ -16083,7 +16155,7 @@
             <v>34.729999542236328</v>
           </cell>
           <cell r="D119">
-            <v>39.940427341298147</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="120">
@@ -16094,7 +16166,7 @@
             <v>34.819999694824219</v>
           </cell>
           <cell r="D120">
-            <v>39.89703388666701</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="121">
@@ -16105,7 +16177,7 @@
             <v>35.090000152587891</v>
           </cell>
           <cell r="D121">
-            <v>39.856638645204157</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="122">
@@ -16116,7 +16188,7 @@
             <v>34.840000152587891</v>
           </cell>
           <cell r="D122">
-            <v>39.814833324432357</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="123">
@@ -16127,7 +16199,7 @@
             <v>34.360000610351563</v>
           </cell>
           <cell r="D123">
-            <v>39.769752062332515</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="124">
@@ -16138,7 +16210,7 @@
             <v>35.020000457763672</v>
           </cell>
           <cell r="D124">
-            <v>39.730819672131133</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="125">
@@ -16150,7 +16222,7 @@
             <v>35.27999878</v>
           </cell>
           <cell r="D125">
-            <v>39.694634136422749</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="126">
@@ -16162,7 +16234,7 @@
             <v>35.009998320000001</v>
           </cell>
           <cell r="D126">
-            <v>39.656854815322561</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="127">
@@ -16174,7 +16246,7 @@
             <v>34.52999878</v>
           </cell>
           <cell r="D127">
-            <v>39.615839967039982</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="128">
@@ -16186,7 +16258,7 @@
             <v>35.150001529999997</v>
           </cell>
           <cell r="D128">
-            <v>39.58039680484125</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="129">
@@ -16198,7 +16270,7 @@
             <v>35.13999939</v>
           </cell>
           <cell r="D129">
-            <v>39.545433045669277</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="130">
@@ -16210,7 +16282,7 @@
             <v>35.619998930000001</v>
           </cell>
           <cell r="D130">
-            <v>39.514765591640611</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="131">
@@ -16222,7 +16294,7 @@
             <v>35.540000919999997</v>
           </cell>
           <cell r="D131">
-            <v>39.483953462403086</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="132">
@@ -16234,7 +16306,7 @@
             <v>35.770000459999999</v>
           </cell>
           <cell r="D132">
-            <v>39.455384593153838</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="133">
@@ -16246,7 +16318,7 @@
             <v>35.52999878</v>
           </cell>
           <cell r="D133">
-            <v>39.425419815954186</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="134">
@@ -16258,7 +16330,7 @@
             <v>35.619998930000001</v>
           </cell>
           <cell r="D134">
-            <v>39.396590869848474</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="135">
@@ -16270,7 +16342,7 @@
             <v>36.009998320000001</v>
           </cell>
           <cell r="D135">
-            <v>39.371127767969917</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="136">
@@ -16282,7 +16354,7 @@
             <v>36.319999690000003</v>
           </cell>
           <cell r="D136">
-            <v>39.348358155447755</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="137">
@@ -16294,7 +16366,7 @@
             <v>36.299999239999998</v>
           </cell>
           <cell r="D137">
-            <v>39.325777719037028</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="138">
@@ -16306,7 +16378,7 @@
             <v>35.990001679999999</v>
           </cell>
           <cell r="D138">
-            <v>39.30124995404411</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="139">
@@ -16317,7 +16389,7 @@
             <v>35.729999540000001</v>
           </cell>
           <cell r="D139">
-            <v>39.275182432773718</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="140">
@@ -16328,7 +16400,7 @@
             <v>36.299999239999998</v>
           </cell>
           <cell r="D140">
-            <v>39.253623134275358</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="141">
@@ -16340,7 +16412,7 @@
             <v>34.930000309999997</v>
           </cell>
           <cell r="D141">
-            <v>39.222517934100708</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="142">
@@ -16352,7 +16424,7 @@
             <v>34.909999849999998</v>
           </cell>
           <cell r="D142">
-            <v>39.191714233499987</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="143">
@@ -16364,7 +16436,7 @@
             <v>34.630001069999999</v>
           </cell>
           <cell r="D143">
-            <v>39.159361657872324</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="144">
@@ -16376,7 +16448,7 @@
             <v>35.090000150000002</v>
           </cell>
           <cell r="D144">
-            <v>39.130704182464775</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="145">
@@ -16388,7 +16460,7 @@
             <v>34.900001529999997</v>
           </cell>
           <cell r="D145">
-            <v>39.101118849230758</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="146">
@@ -16400,7 +16472,7 @@
             <v>35.040000919999997</v>
           </cell>
           <cell r="D146">
-            <v>39.072916641388879</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="147">
@@ -16412,7 +16484,7 @@
             <v>35.22000122</v>
           </cell>
           <cell r="D147">
-            <v>39.046344810896542</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="148">
@@ -16424,7 +16496,7 @@
             <v>34.990001679999999</v>
           </cell>
           <cell r="D148">
-            <v>39.018561638767117</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="149">
@@ -16436,7 +16508,7 @@
             <v>35.409999849999998</v>
           </cell>
           <cell r="D149">
-            <v>38.994013599387742</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="150">
@@ -16448,7 +16520,7 @@
             <v>35.259998320000001</v>
           </cell>
           <cell r="D150">
-            <v>38.968783766418909</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="151">
@@ -16460,7 +16532,7 @@
             <v>34.950000760000002</v>
           </cell>
           <cell r="D151">
-            <v>38.941812068389247</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="152">
@@ -16472,7 +16544,7 @@
             <v>34.950000760000002</v>
           </cell>
           <cell r="D152">
-            <v>38.915199992999987</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="153">
@@ -16484,7 +16556,7 @@
             <v>35.229999540000001</v>
           </cell>
           <cell r="D153">
-            <v>38.890794691986741</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="154">
@@ -16496,7 +16568,7 @@
             <v>34.840000150000002</v>
           </cell>
           <cell r="D154">
-            <v>38.864144727894725</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="155">
@@ -16508,7 +16580,7 @@
             <v>35.270000459999999</v>
           </cell>
           <cell r="D155">
-            <v>38.840653588888877</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="156">
@@ -16520,7 +16592,7 @@
             <v>35.990001679999999</v>
           </cell>
           <cell r="D156">
-            <v>38.822142862207784</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="157">
@@ -16532,7 +16604,7 @@
             <v>35.680000309999997</v>
           </cell>
           <cell r="D157">
-            <v>38.801870974774182</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="158">
@@ -16544,7 +16616,7 @@
             <v>35.549999239999998</v>
           </cell>
           <cell r="D158">
-            <v>38.781025643141014</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="159">
@@ -16556,7 +16628,7 @@
             <v>35.38999939</v>
           </cell>
           <cell r="D159">
-            <v>38.75942674980891</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="160">
@@ -16568,7 +16640,7 @@
             <v>35.189998629999998</v>
           </cell>
           <cell r="D160">
-            <v>38.73683543259493</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="161">
@@ -16579,7 +16651,7 @@
             <v>35.409999849999998</v>
           </cell>
           <cell r="D161">
-            <v>38.715911938364776</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="162">
@@ -16590,7 +16662,7 @@
             <v>35.450000000000003</v>
           </cell>
           <cell r="D162">
-            <v>38.695499988749994</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="163">
@@ -16601,7 +16673,7 @@
             <v>35.27999878</v>
           </cell>
           <cell r="D163">
-            <v>38.674285695527942</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="164">
@@ -16612,7 +16684,7 @@
             <v>35.22000122</v>
           </cell>
           <cell r="D164">
-            <v>38.652962951851848</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="165">
@@ -16623,7 +16695,7 @@
             <v>35.319999690000003</v>
           </cell>
           <cell r="D165">
-            <v>38.632515324478518</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="166">
@@ -16634,7 +16706,7 @@
             <v>34.939998629999998</v>
           </cell>
           <cell r="D166">
-            <v>38.609999978780486</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="167">
@@ -16645,7 +16717,7 @@
             <v>34.709999080000003</v>
           </cell>
           <cell r="D167">
-            <v>38.586363609696967</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="168">
@@ -16656,7 +16728,7 @@
             <v>35.33000183</v>
           </cell>
           <cell r="D168">
-            <v>38.566746972469872</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="169">
@@ -16667,7 +16739,7 @@
             <v>35.869998930000001</v>
           </cell>
           <cell r="D169">
-            <v>38.550598780598797</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="170">
@@ -16678,7 +16750,7 @@
             <v>35.86000061</v>
           </cell>
           <cell r="D170">
-            <v>38.53458331529761</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="171">
@@ -16689,7 +16761,7 @@
             <v>35.86000061</v>
           </cell>
           <cell r="D171">
-            <v>38.518757382130168</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="172">
@@ -16700,7 +16772,7 @@
             <v>35.599998470000003</v>
           </cell>
           <cell r="D172">
-            <v>38.501588212058813</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="173">
@@ -16711,7 +16783,7 @@
             <v>35.290000919999997</v>
           </cell>
           <cell r="D173">
-            <v>38.482806999824554</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="174">
@@ -16722,7 +16794,7 @@
             <v>35.520000459999999</v>
           </cell>
           <cell r="D174">
-            <v>38.465581380406974</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="175">
@@ -16733,7 +16805,7 @@
             <v>34.939998629999998</v>
           </cell>
           <cell r="D175">
-            <v>38.445202289364161</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="176">
@@ -16744,7 +16816,7 @@
             <v>34.099998470000003</v>
           </cell>
           <cell r="D176">
-            <v>38.42022985362069</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="177">
@@ -16755,7 +16827,7 @@
             <v>34.439998629999998</v>
           </cell>
           <cell r="D177">
-            <v>38.397485675200002</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="178">
@@ -16766,7 +16838,7 @@
             <v>34.689998629999998</v>
           </cell>
           <cell r="D178">
-            <v>38.376420407897733</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="179">
@@ -16777,7 +16849,7 @@
             <v>34.810001370000002</v>
           </cell>
           <cell r="D179">
-            <v>38.356271147796612</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="180">
@@ -16788,7 +16860,7 @@
             <v>34.290000919999997</v>
           </cell>
           <cell r="D180">
-            <v>38.333426933033707</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="181">
@@ -16799,7 +16871,7 @@
             <v>34.36000061</v>
           </cell>
           <cell r="D181">
-            <v>38.311229020614526</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="182">
@@ -16810,7 +16882,7 @@
             <v>34.650001529999997</v>
           </cell>
           <cell r="D182">
-            <v>38.290888867888889</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="183">
@@ -16821,7 +16893,7 @@
             <v>34.259998320000001</v>
           </cell>
           <cell r="D183">
-            <v>38.268618754364638</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="184">
@@ -16832,7 +16904,7 @@
             <v>34.58</v>
           </cell>
           <cell r="D184">
-            <v>38.248351618351641</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="185">
@@ -16843,7 +16915,7 @@
             <v>34.630000000000003</v>
           </cell>
           <cell r="D185">
-            <v>38.228579205136612</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="186">
@@ -16855,7 +16927,7 @@
             <v>34.229999540000001</v>
           </cell>
           <cell r="D186">
-            <v>38.206847793913042</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="187">
@@ -16867,7 +16939,7 @@
             <v>33.459999080000003</v>
           </cell>
           <cell r="D187">
-            <v>38.181189152216213</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="188">
@@ -16879,7 +16951,7 @@
             <v>33.099998470000003</v>
           </cell>
           <cell r="D188">
-            <v>38.15387092274193</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="189">
@@ -16891,7 +16963,7 @@
             <v>33.049999239999998</v>
           </cell>
           <cell r="D189">
-            <v>38.12657749128342</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="190">
@@ -16903,7 +16975,7 @@
             <v>33.13999939</v>
           </cell>
           <cell r="D190">
-            <v>38.100053139680853</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="191">
@@ -16915,7 +16987,7 @@
             <v>32.65</v>
           </cell>
           <cell r="D191">
-            <v>38.071216879682538</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="192">
@@ -16927,7 +16999,7 @@
             <v>33.209999080000003</v>
           </cell>
           <cell r="D192">
-            <v>38.0456315228421</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="193">
@@ -16939,7 +17011,7 @@
             <v>32.6</v>
           </cell>
           <cell r="D193">
-            <v>38.017120363036646</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="194">
@@ -16951,7 +17023,7 @@
             <v>32.770000459999999</v>
           </cell>
           <cell r="D194">
-            <v>37.989791613541662</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="195">
@@ -16963,7 +17035,7 @@
             <v>33.340000150000002</v>
           </cell>
           <cell r="D195">
-            <v>37.965699429792743</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="196">
@@ -16975,7 +17047,7 @@
             <v>33.340000150000002</v>
           </cell>
           <cell r="D196">
-            <v>37.941855619072165</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="197">
@@ -16987,7 +17059,7 @@
             <v>32.729999540000001</v>
           </cell>
           <cell r="D197">
-            <v>37.915128152000001</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="198">
@@ -16999,7 +17071,7 @@
             <v>32.819999690000003</v>
           </cell>
           <cell r="D198">
-            <v>37.889132598622453</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="199">
@@ -17011,7 +17083,7 @@
             <v>32.400001529999997</v>
           </cell>
           <cell r="D199">
-            <v>37.861268989137059</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="200">
@@ -17023,7 +17095,7 @@
             <v>32.590000150000002</v>
           </cell>
           <cell r="D200">
-            <v>37.834646419242425</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="201">
@@ -17035,7 +17107,7 @@
             <v>31.81999969</v>
           </cell>
           <cell r="D201">
-            <v>37.804422063819104</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="202">
@@ -17047,7 +17119,7 @@
             <v>32.119998930000001</v>
           </cell>
           <cell r="D202">
-            <v>37.775999948150009</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="203">
@@ -17058,7 +17130,7 @@
             <v>31.159999849999998</v>
           </cell>
           <cell r="D203">
-            <v>37.743084524776123</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="204">
@@ -17069,7 +17141,7 @@
             <v>31.159999849999998</v>
           </cell>
           <cell r="D204">
-            <v>37.710494996683174</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="205">
@@ -17081,7 +17153,7 @@
             <v>31.209999079999999</v>
           </cell>
           <cell r="D205">
-            <v>37.678472849310346</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="206">
@@ -17093,7 +17165,7 @@
             <v>30.620000839999999</v>
           </cell>
           <cell r="D206">
-            <v>37.643872496323532</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="207">
@@ -17105,7 +17177,7 @@
             <v>31.010000229999999</v>
           </cell>
           <cell r="D207">
-            <v>37.61151214380488</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="208">
@@ -17117,7 +17189,7 @@
             <v>30.559999470000001</v>
           </cell>
           <cell r="D208">
-            <v>37.577281499757277</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="209">
@@ -17129,7 +17201,7 @@
             <v>29.899999619999999</v>
           </cell>
           <cell r="D209">
-            <v>37.540193181497585</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="210">
@@ -17141,7 +17213,7 @@
             <v>29.850000380000001</v>
           </cell>
           <cell r="D210">
-            <v>37.503221100721149</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="211">
@@ -17153,7 +17225,7 @@
             <v>30.559999470000001</v>
           </cell>
           <cell r="D211">
-            <v>37.469999944593297</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="212">
@@ -17165,7 +17237,7 @@
             <v>30.620000839999999</v>
           </cell>
           <cell r="D212">
-            <v>37.437380901238093</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="213">
@@ -17177,7 +17249,7 @@
             <v>30.770000459999999</v>
           </cell>
           <cell r="D213">
-            <v>37.405781941800946</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="214">
@@ -17189,7 +17261,7 @@
             <v>30.719999309999999</v>
           </cell>
           <cell r="D214">
-            <v>37.374245231273584</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="215">
@@ -17201,7 +17273,7 @@
             <v>30.63999939</v>
           </cell>
           <cell r="D215">
-            <v>37.342629053615028</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="216">
@@ -17213,7 +17285,7 @@
             <v>30.190000529999999</v>
           </cell>
           <cell r="D216">
-            <v>37.309205555841125</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="217">
@@ -17225,7 +17297,7 @@
             <v>30.989999770000001</v>
           </cell>
           <cell r="D217">
-            <v>37.27981390102326</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="218">
@@ -17237,7 +17309,7 @@
             <v>30.340000150000002</v>
           </cell>
           <cell r="D218">
-            <v>37.247685133657413</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="219">
@@ -17248,7 +17320,7 @@
             <v>30.899999619999999</v>
           </cell>
           <cell r="D219">
-            <v>37.218433126682037</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="220">
@@ -17259,7 +17331,7 @@
             <v>30.969999309999999</v>
           </cell>
           <cell r="D220">
-            <v>37.189770586238538</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="221">
@@ -17271,7 +17343,7 @@
             <v>30.940000529999999</v>
           </cell>
           <cell r="D221">
-            <v>37.161232823424669</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="222">
@@ -17283,7 +17355,7 @@
             <v>30.459999079999999</v>
           </cell>
           <cell r="D222">
-            <v>37.130772670045459</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="223">
@@ -17295,7 +17367,7 @@
             <v>30.090000150000002</v>
           </cell>
           <cell r="D223">
-            <v>37.098913970859734</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="224">
@@ -17307,7 +17379,7 @@
             <v>29.61000061</v>
           </cell>
           <cell r="D224">
-            <v>37.065180126891896</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="225">
@@ -17319,7 +17391,7 @@
             <v>28.340000150000002</v>
           </cell>
           <cell r="D225">
-            <v>37.026053759282519</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="226">
@@ -17331,7 +17403,7 @@
             <v>27.709999079999999</v>
           </cell>
           <cell r="D226">
-            <v>36.984464229464287</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="227">
@@ -17343,7 +17415,7 @@
             <v>27.540000920000001</v>
           </cell>
           <cell r="D227">
-            <v>36.94248883697778</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="228">
@@ -17355,7 +17427,7 @@
             <v>28.209999079999999</v>
           </cell>
           <cell r="D228">
-            <v>36.903849501769912</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="229">
@@ -17367,7 +17439,7 @@
             <v>28.450000760000002</v>
           </cell>
           <cell r="D229">
-            <v>36.866607877356834</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="230">
@@ -17379,7 +17451,7 @@
             <v>27.479999540000001</v>
           </cell>
           <cell r="D230">
-            <v>36.825438542543864</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="231">
@@ -17391,7 +17463,7 @@
             <v>26.540000920000001</v>
           </cell>
           <cell r="D231">
-            <v>36.780523967772936</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="232">
@@ -17403,7 +17475,7 @@
             <v>27.68000031</v>
           </cell>
           <cell r="D232">
-            <v>36.740956473608705</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="233">
@@ -17415,7 +17487,7 @@
             <v>28.43000031</v>
           </cell>
           <cell r="D233">
-            <v>36.704978308398275</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="234">
@@ -17427,7 +17499,7 @@
             <v>28.340000150000002</v>
           </cell>
           <cell r="D234">
-            <v>36.66892236806035</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="235">
@@ -17439,7 +17511,7 @@
             <v>28.520000459999999</v>
           </cell>
           <cell r="D235">
-            <v>36.633948454291847</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="236">
@@ -17451,7 +17523,7 @@
             <v>28.25</v>
           </cell>
           <cell r="D236">
-            <v>36.598119614743588</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="237">
@@ -17463,7 +17535,7 @@
             <v>28.43000031</v>
           </cell>
           <cell r="D237">
-            <v>36.563361660255318</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="238">
@@ -17475,7 +17547,7 @@
             <v>28.280000690000001</v>
           </cell>
           <cell r="D238">
-            <v>36.528262673093217</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="239">
@@ -17487,7 +17559,7 @@
             <v>27.61000061</v>
           </cell>
           <cell r="D239">
-            <v>36.490632875358649</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="240">
@@ -17499,7 +17571,7 @@
             <v>27.18000031</v>
           </cell>
           <cell r="D240">
-            <v>36.451512570462185</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="241">
@@ -17511,7 +17583,7 @@
             <v>27.010000229999999</v>
           </cell>
           <cell r="D241">
-            <v>36.412008334728036</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="242">
@@ -17522,7 +17594,7 @@
             <v>27.979999540000001</v>
           </cell>
           <cell r="D242">
-            <v>36.376874964750002</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="243">
@@ -17533,7 +17605,7 @@
             <v>27.63999939</v>
           </cell>
           <cell r="D243">
-            <v>36.340622369004151</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="244">
@@ -17545,7 +17617,7 @@
             <v>27.840000150000002</v>
           </cell>
           <cell r="D244">
-            <v>36.305495830909088</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="245">
@@ -17557,7 +17629,7 @@
             <v>27.649999619999999</v>
           </cell>
           <cell r="D245">
-            <v>36.269876504938274</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="246">
@@ -17569,7 +17641,7 @@
             <v>27.200000760000002</v>
           </cell>
           <cell r="D246">
-            <v>36.232704883032788</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="247">
@@ -17581,7 +17653,7 @@
             <v>27.170000080000001</v>
           </cell>
           <cell r="D247">
-            <v>36.195714251183674</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="248">
@@ -17593,7 +17665,7 @@
             <v>26.11000061</v>
           </cell>
           <cell r="D248">
-            <v>36.154715415243899</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="249">
@@ -17605,7 +17677,7 @@
             <v>26.620000839999999</v>
           </cell>
           <cell r="D249">
-            <v>36.116113331943318</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="250">
@@ -17617,7 +17689,7 @@
             <v>26.18000031</v>
           </cell>
           <cell r="D250">
-            <v>36.076048360080641</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="251">
@@ -17629,7 +17701,7 @@
             <v>26.340000150000002</v>
           </cell>
           <cell r="D251">
-            <v>36.036947764859427</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="252">
@@ -17641,7 +17713,7 @@
             <v>26.209999079999999</v>
           </cell>
           <cell r="D252">
-            <v>35.997639970119991</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="253">
@@ -17653,7 +17725,7 @@
             <v>26.399999619999999</v>
           </cell>
           <cell r="D253">
-            <v>35.959402359163342</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="254">
@@ -17665,7 +17737,7 @@
             <v>26.120000839999999</v>
           </cell>
           <cell r="D254">
-            <v>35.920357115039671</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="255">
@@ -17677,7 +17749,7 @@
             <v>25.469999309999999</v>
           </cell>
           <cell r="D255">
-            <v>35.879051352964417</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="256">
@@ -17689,7 +17761,7 @@
             <v>24.88999939</v>
           </cell>
           <cell r="D256">
-            <v>35.835787368858256</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="257">
@@ -17701,7 +17773,7 @@
             <v>24.88999939</v>
           </cell>
           <cell r="D257">
-            <v>35.792862710117632</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="258">
@@ -17713,7 +17785,7 @@
             <v>23.450000760000002</v>
           </cell>
           <cell r="D258">
-            <v>35.744648405624986</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="259">
@@ -17725,7 +17797,7 @@
             <v>23.170000080000001</v>
           </cell>
           <cell r="D259">
-            <v>35.69571981291827</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="260">
@@ -17737,7 +17809,7 @@
             <v>24.280000690000001</v>
           </cell>
           <cell r="D260">
-            <v>35.651472839573628</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="261">
@@ -17748,7 +17820,7 @@
             <v>24.120000839999999</v>
           </cell>
           <cell r="D261">
-            <v>35.606949781660212</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="262">
@@ -17759,7 +17831,7 @@
             <v>25.129999160000001</v>
           </cell>
           <cell r="D262">
-            <v>35.566653817730753</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="263">
@@ -17771,7 +17843,7 @@
             <v>23.229999540000001</v>
           </cell>
           <cell r="D263">
-            <v>35.519386943103434</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="264">
@@ -17783,7 +17855,7 @@
             <v>22.719999309999999</v>
           </cell>
           <cell r="D264">
-            <v>35.470534318549603</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="265">
@@ -17795,7 +17867,7 @@
             <v>22.459999079999999</v>
           </cell>
           <cell r="D265">
-            <v>35.421064602813672</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="266">
@@ -17807,7 +17879,7 @@
             <v>22.780000690000001</v>
           </cell>
           <cell r="D266">
-            <v>35.373181784962107</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="267">
@@ -17819,7 +17891,7 @@
             <v>23.450000760000002</v>
           </cell>
           <cell r="D267">
-            <v>35.328188649018855</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="268">
@@ -17831,7 +17903,7 @@
             <v>23.370000839999999</v>
           </cell>
           <cell r="D268">
-            <v>35.283233055751865</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="269">
@@ -17843,7 +17915,7 @@
             <v>23.549999239999998</v>
           </cell>
           <cell r="D269">
-            <v>35.239288359812718</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="270">
@@ -17855,7 +17927,7 @@
             <v>23.290000920000001</v>
           </cell>
           <cell r="D270">
-            <v>35.194701466380579</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="271">
@@ -17867,7 +17939,7 @@
             <v>23.729999540000001</v>
           </cell>
           <cell r="D271">
-            <v>35.152081756617086</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="272">
@@ -17879,7 +17951,7 @@
             <v>23.709999079999999</v>
           </cell>
           <cell r="D272">
-            <v>35.109703672629614</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="273">
@@ -17891,7 +17963,7 @@
             <v>23.790000920000001</v>
           </cell>
           <cell r="D273">
-            <v>35.067933551771205</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="274">
@@ -17903,7 +17975,7 @@
             <v>24.17</v>
           </cell>
           <cell r="D274">
-            <v>35.027867619595575</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="275">
@@ -17915,7 +17987,7 @@
             <v>24.049999239999998</v>
           </cell>
           <cell r="D275">
-            <v>34.987655647509143</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="276">
@@ -17927,7 +17999,7 @@
             <v>23.209999079999999</v>
           </cell>
           <cell r="D276">
-            <v>34.944671499452539</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="277">
@@ -17939,7 +18011,7 @@
             <v>23.309999470000001</v>
           </cell>
           <cell r="D277">
-            <v>34.902363601163621</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="278">
@@ -17951,7 +18023,7 @@
             <v>23.329999919999999</v>
           </cell>
           <cell r="D278">
-            <v>34.860434747246366</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="279">
@@ -17963,7 +18035,7 @@
             <v>23.370000839999999</v>
           </cell>
           <cell r="D279">
-            <v>34.818953036389878</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="280">
@@ -17974,7 +18046,7 @@
             <v>23.63999939</v>
           </cell>
           <cell r="D280">
-            <v>34.778740972913653</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="281">
@@ -17985,7 +18057,7 @@
             <v>24.129999160000001</v>
           </cell>
           <cell r="D281">
-            <v>34.740573439534039</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="282">
@@ -17997,7 +18069,7 @@
             <v>24.309999470000001</v>
           </cell>
           <cell r="D282">
-            <v>34.703321389642845</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="283">
@@ -18009,7 +18081,7 @@
             <v>24.510000229999999</v>
           </cell>
           <cell r="D283">
-            <v>34.66704622537366</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="284">
@@ -18021,7 +18093,7 @@
             <v>25.329999919999999</v>
           </cell>
           <cell r="D284">
-            <v>34.633936132092195</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="285">
@@ -18033,7 +18105,7 @@
             <v>25.270000459999999</v>
           </cell>
           <cell r="D285">
-            <v>34.60084802017667</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="286">
@@ -18045,7 +18117,7 @@
             <v>25.459999079999999</v>
           </cell>
           <cell r="D286">
-            <v>34.568661932359149</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="287">
@@ -18057,7 +18129,7 @@
             <v>24.75</v>
           </cell>
           <cell r="D287">
-            <v>34.534210486982445</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="288">
@@ -18069,7 +18141,7 @@
             <v>25.379999160000001</v>
           </cell>
           <cell r="D288">
-            <v>34.502202755069924</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="289">
@@ -18081,7 +18153,7 @@
             <v>17.149999619999999</v>
           </cell>
           <cell r="D289">
-            <v>34.441742116968634</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="290">
@@ -18093,7 +18165,7 @@
             <v>25.61000061</v>
           </cell>
           <cell r="D290">
-            <v>34.411076347847221</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="291">
@@ -18105,7 +18177,7 @@
             <v>25.979999540000001</v>
           </cell>
           <cell r="D291">
-            <v>34.381903071695504</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="292">
@@ -18117,7 +18189,7 @@
             <v>26</v>
           </cell>
           <cell r="D292">
-            <v>34.352999957655172</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="293">
@@ -18129,7 +18201,7 @@
             <v>26.5</v>
           </cell>
           <cell r="D293">
-            <v>34.326013703505154</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="294">
@@ -18141,7 +18213,7 @@
             <v>27.010000229999999</v>
           </cell>
           <cell r="D294">
-            <v>34.300958862842464</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="295">
@@ -18153,7 +18225,7 @@
             <v>26.989999770000001</v>
           </cell>
           <cell r="D295">
-            <v>34.276006784027302</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="296">
@@ -18165,7 +18237,7 @@
             <v>26.600000380000001</v>
           </cell>
           <cell r="D296">
-            <v>34.249897918707482</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="297">
@@ -18177,7 +18249,7 @@
             <v>27.239999770000001</v>
           </cell>
           <cell r="D297">
-            <v>34.226135552101695</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="298">
@@ -18189,7 +18261,7 @@
             <v>27.739999770000001</v>
           </cell>
           <cell r="D298">
-            <v>34.204222931216215</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="299">
@@ -18201,7 +18273,7 @@
             <v>27.870000839999999</v>
           </cell>
           <cell r="D299">
-            <v>34.18289558410774</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="300">
@@ -18213,7 +18285,7 @@
             <v>28.170000080000001</v>
           </cell>
           <cell r="D300">
-            <v>34.162718082416099</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="301">
@@ -18224,7 +18296,7 @@
             <v>27.510000229999999</v>
           </cell>
           <cell r="D301">
-            <v>34.140468189933102</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="302">
@@ -18235,7 +18307,7 @@
             <v>27.809999470000001</v>
           </cell>
           <cell r="D302">
-            <v>34.119366627533324</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="303">
@@ -18247,7 +18319,7 @@
             <v>27.63999939</v>
           </cell>
           <cell r="D303">
-            <v>34.097840490531553</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="304">
@@ -18259,7 +18331,7 @@
             <v>28.079999919999999</v>
           </cell>
           <cell r="D304">
-            <v>34.077913866125826</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="305">
@@ -18271,7 +18343,7 @@
             <v>27.93000031</v>
           </cell>
           <cell r="D305">
-            <v>34.057623722376235</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="306">
@@ -18283,7 +18355,7 @@
             <v>27.709999079999999</v>
           </cell>
           <cell r="D306">
-            <v>34.036743378157887</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="307">
@@ -18295,7 +18367,7 @@
             <v>28.079999919999999</v>
           </cell>
           <cell r="D307">
-            <v>34.0172130717377</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="308">
@@ -18307,7 +18379,7 @@
             <v>27.86000061</v>
           </cell>
           <cell r="D308">
-            <v>33.997091462385619</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="309">
@@ -18319,7 +18391,7 @@
             <v>27.280000690000001</v>
           </cell>
           <cell r="D309">
-            <v>33.975211687882734</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="310">
@@ -18331,7 +18403,7 @@
             <v>26.770000459999999</v>
           </cell>
           <cell r="D310">
-            <v>33.951818144935061</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="311">
@@ -18343,7 +18415,7 @@
             <v>27.020000459999999</v>
           </cell>
           <cell r="D311">
-            <v>33.929385077993516</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="312">
@@ -18355,7 +18427,7 @@
             <v>27.459999079999999</v>
           </cell>
           <cell r="D312">
-            <v>33.90851609090322</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="313">
@@ -18367,7 +18439,7 @@
             <v>27.059999470000001</v>
           </cell>
           <cell r="D313">
-            <v>33.886495137138255</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="314">
@@ -18379,7 +18451,7 @@
             <v>27.329999919999999</v>
           </cell>
           <cell r="D314">
-            <v>33.865480729391024</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="315">
@@ -18391,7 +18463,7 @@
             <v>27.049999239999998</v>
           </cell>
           <cell r="D315">
-            <v>33.843706028146961</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="316">
@@ -18403,7 +18475,7 @@
             <v>27.120000839999999</v>
           </cell>
           <cell r="D316">
-            <v>33.822292954299357</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="317">
@@ -18415,7 +18487,7 @@
             <v>26.88999939</v>
           </cell>
           <cell r="D317">
-            <v>33.800285673142845</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="318">
@@ -18427,7 +18499,7 @@
             <v>26.799999239999998</v>
           </cell>
           <cell r="D318">
-            <v>33.778132867974676</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="319">
@@ -18439,7 +18511,7 @@
             <v>26.56999969</v>
           </cell>
           <cell r="D319">
-            <v>33.755394277507875</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="320">
@@ -18451,7 +18523,7 @@
             <v>26.709999079999999</v>
           </cell>
           <cell r="D320">
-            <v>33.733238946698101</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="321">
@@ -18463,7 +18535,7 @@
             <v>26.620000839999999</v>
           </cell>
           <cell r="D321">
-            <v>33.710940394639486</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="322">
@@ -18474,7 +18546,7 @@
             <v>26.709999079999999</v>
           </cell>
           <cell r="D322">
-            <v>33.689062453031241</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="323">
@@ -18485,7 +18557,7 @@
             <v>26.329999919999999</v>
           </cell>
           <cell r="D323">
-            <v>33.666137024579427</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="324">
@@ -18497,7 +18569,7 @@
             <v>26.870000839999999</v>
           </cell>
           <cell r="D324">
-            <v>33.645031011583839</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="325">
@@ -18509,7 +18581,7 @@
             <v>26.34</v>
           </cell>
           <cell r="D325">
-            <v>33.622414816501539</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="326">
@@ -18521,7 +18593,7 @@
             <v>25.96</v>
           </cell>
           <cell r="D326">
-            <v>33.59876538805554</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="327">
@@ -18533,7 +18605,7 @@
             <v>26.08</v>
           </cell>
           <cell r="D327">
-            <v>33.575630725323066</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="328">
@@ -18545,7 +18617,7 @@
             <v>26.459999079999999</v>
           </cell>
           <cell r="D328">
-            <v>33.55380363438649</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="329">
@@ -18557,7 +18629,7 @@
             <v>26.450000760000002</v>
           </cell>
           <cell r="D329">
-            <v>33.532079466574906</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="330">
@@ -18569,7 +18641,7 @@
             <v>26.559999470000001</v>
           </cell>
           <cell r="D330">
-            <v>33.510823125121938</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="331">
@@ -18581,7 +18653,7 @@
             <v>26.200000760000002</v>
           </cell>
           <cell r="D331">
-            <v>33.4886017805471</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="332">
@@ -18593,7 +18665,7 @@
             <v>26.81</v>
           </cell>
           <cell r="D332">
-            <v>33.468363593333315</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="333">
@@ -18605,7 +18677,7 @@
             <v>26.620000839999999</v>
           </cell>
           <cell r="D333">
-            <v>33.447673675649533</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="334">
@@ -18617,7 +18689,7 @@
             <v>26.709999079999999</v>
           </cell>
           <cell r="D334">
-            <v>33.427379475060221</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="335">
@@ -18629,7 +18701,7 @@
             <v>26.719999309999999</v>
           </cell>
           <cell r="D335">
-            <v>33.407237192282267</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="336">
@@ -18641,7 +18713,7 @@
             <v>27.159999849999998</v>
           </cell>
           <cell r="D336">
-            <v>33.388532888862258</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="337">
@@ -18653,7 +18725,7 @@
             <v>27.030000690000001</v>
           </cell>
           <cell r="D337">
-            <v>33.36955219573133</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="338">
@@ -18665,7 +18737,7 @@
             <v>26.559999470000001</v>
           </cell>
           <cell r="D338">
-            <v>33.34928566976189</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="339">
@@ -18677,7 +18749,7 @@
             <v>26.969999309999999</v>
           </cell>
           <cell r="D339">
-            <v>33.330356036646869</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="340">
@@ -18689,7 +18761,7 @@
             <v>26.86000061</v>
           </cell>
           <cell r="D340">
-            <v>33.311212973254428</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="341">
@@ -18701,7 +18773,7 @@
             <v>25.950000760000002</v>
           </cell>
           <cell r="D341">
-            <v>33.289498482949838</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="342">
@@ -18713,7 +18785,7 @@
             <v>25.899999619999999</v>
           </cell>
           <cell r="D342">
-            <v>33.267764662764691</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="343">
@@ -18725,7 +18797,7 @@
             <v>25.780000690000001</v>
           </cell>
           <cell r="D343">
-            <v>33.245806410645152</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="344">
@@ -18737,7 +18809,7 @@
             <v>25.620000839999999</v>
           </cell>
           <cell r="D344">
-            <v>33.223508733537997</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="345">
@@ -18748,7 +18820,7 @@
             <v>25.479999540000001</v>
           </cell>
           <cell r="D345">
-            <v>33.200932904985407</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="346">
@@ -18759,7 +18831,7 @@
             <v>25.18000031</v>
           </cell>
           <cell r="D346">
-            <v>33.177616240465106</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="347">
@@ -18771,7 +18843,7 @@
             <v>23.5</v>
           </cell>
           <cell r="D347">
-            <v>33.149565178898534</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="348">
@@ -18783,7 +18855,7 @@
             <v>23.5</v>
           </cell>
           <cell r="D348">
-            <v>33.121676262196516</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="349">
@@ -18795,7 +18867,7 @@
             <v>23.5</v>
           </cell>
           <cell r="D349">
-            <v>33.093948088530247</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="350">
@@ -18807,7 +18879,7 @@
             <v>23.33</v>
           </cell>
           <cell r="D350">
-            <v>33.065890766436766</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="351">
@@ -18819,7 +18891,7 @@
             <v>23.05</v>
           </cell>
           <cell r="D351">
-            <v>33.037191939025774</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="352">
@@ -18831,7 +18903,7 @@
             <v>22.91</v>
           </cell>
           <cell r="D352">
-            <v>33.008257104914271</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="353">
@@ -18843,7 +18915,7 @@
             <v>23</v>
           </cell>
           <cell r="D353">
-            <v>32.979743551908818</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="354">
@@ -18855,7 +18927,7 @@
             <v>23.46</v>
           </cell>
           <cell r="D354">
-            <v>32.952698825909074</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="355">
@@ -18867,7 +18939,7 @@
             <v>22.93</v>
           </cell>
           <cell r="D355">
-            <v>32.924305911388082</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="356">
@@ -18879,7 +18951,7 @@
             <v>23.03</v>
           </cell>
           <cell r="D356">
-            <v>32.89635589468925</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="357">
@@ -18891,7 +18963,7 @@
             <v>22.61000061</v>
           </cell>
           <cell r="D357">
-            <v>32.867380245999989</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="358">
@@ -18903,7 +18975,7 @@
             <v>22.040000920000001</v>
           </cell>
           <cell r="D358">
-            <v>32.836966259129198</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="359">
@@ -18915,7 +18987,7 @@
             <v>22.239999770000001</v>
           </cell>
           <cell r="D359">
-            <v>32.807282879607826</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="360">
@@ -18927,7 +18999,7 @@
             <v>22.920000080000001</v>
           </cell>
           <cell r="D360">
-            <v>32.779664771229037</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="361">
@@ -18939,7 +19011,7 @@
             <v>22.850000380000001</v>
           </cell>
           <cell r="D361">
-            <v>32.752005538941489</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="362">
@@ -18951,7 +19023,7 @@
             <v>23.649999619999999</v>
           </cell>
           <cell r="D362">
-            <v>32.726722189166651</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="363">
@@ -18963,7 +19035,7 @@
             <v>23.719999309999999</v>
           </cell>
           <cell r="D363">
-            <v>32.701772818310232</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="364">
@@ -18975,7 +19047,7 @@
             <v>23.850000380000001</v>
           </cell>
           <cell r="D364">
-            <v>32.677320408259654</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="365">
@@ -18987,7 +19059,7 @@
             <v>23.590000150000002</v>
           </cell>
           <cell r="D365">
-            <v>32.652286468154252</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="366">
@@ -18999,7 +19071,7 @@
             <v>23.399999619999999</v>
           </cell>
           <cell r="D366">
-            <v>32.626868097692288</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="367">
@@ -19010,7 +19082,197 @@
             <v>23.340000150000002</v>
           </cell>
           <cell r="D367">
-            <v>32.601424623862997</v>
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="B368" t="str">
+            <v xml:space="preserve">2022/10/10
+</v>
+          </cell>
+          <cell r="C368">
+            <v>22.040000920000001</v>
+          </cell>
+          <cell r="D368">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="B369" t="str">
+            <v xml:space="preserve">2022/10/11
+</v>
+          </cell>
+          <cell r="C369">
+            <v>22.239999770000001</v>
+          </cell>
+          <cell r="D369">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="B370" t="str">
+            <v xml:space="preserve">2022/10/12
+</v>
+          </cell>
+          <cell r="C370">
+            <v>22.920000080000001</v>
+          </cell>
+          <cell r="D370">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="B371" t="str">
+            <v xml:space="preserve">2022/10/13
+</v>
+          </cell>
+          <cell r="C371">
+            <v>22.850000380000001</v>
+          </cell>
+          <cell r="D371">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="B372" t="str">
+            <v xml:space="preserve">2022/10/14
+</v>
+          </cell>
+          <cell r="C372">
+            <v>23.649999619999999</v>
+          </cell>
+          <cell r="D372">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="B373" t="str">
+            <v xml:space="preserve">2022/10/17
+</v>
+          </cell>
+          <cell r="C373">
+            <v>23.719999309999999</v>
+          </cell>
+          <cell r="D373">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="B374" t="str">
+            <v xml:space="preserve">2022/10/18
+</v>
+          </cell>
+          <cell r="C374">
+            <v>23.850000380000001</v>
+          </cell>
+          <cell r="D374">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="B375" t="str">
+            <v xml:space="preserve">2022/10/19
+</v>
+          </cell>
+          <cell r="C375">
+            <v>23.590000150000002</v>
+          </cell>
+          <cell r="D375">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="B376" t="str">
+            <v xml:space="preserve">2022/10/20
+</v>
+          </cell>
+          <cell r="C376">
+            <v>23.399999619999999</v>
+          </cell>
+          <cell r="D376">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="377">
+          <cell r="B377" t="str">
+            <v xml:space="preserve">2022/10/21
+</v>
+          </cell>
+          <cell r="C377">
+            <v>23.340000150000002</v>
+          </cell>
+          <cell r="D377">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="378">
+          <cell r="B378" t="str">
+            <v xml:space="preserve">2022/10/24
+</v>
+          </cell>
+          <cell r="C378">
+            <v>22.829999919999999</v>
+          </cell>
+          <cell r="D378">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="B379" t="str">
+            <v xml:space="preserve">2022/10/25
+</v>
+          </cell>
+          <cell r="C379">
+            <v>22.739999770000001</v>
+          </cell>
+          <cell r="D379">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="380">
+          <cell r="B380" t="str">
+            <v xml:space="preserve">2022/10/26
+</v>
+          </cell>
+          <cell r="C380">
+            <v>23.18000031</v>
+          </cell>
+          <cell r="D380">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="381">
+          <cell r="B381" t="str">
+            <v xml:space="preserve">2022/10/27
+</v>
+          </cell>
+          <cell r="C381">
+            <v>22.959999079999999</v>
+          </cell>
+          <cell r="D381">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="B382">
+            <v>44862</v>
+          </cell>
+          <cell r="C382">
+            <v>22.13999939</v>
+          </cell>
+          <cell r="D382">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="B383">
+            <v>44865</v>
+          </cell>
+          <cell r="C383">
+            <v>22.239999770000001</v>
+          </cell>
+          <cell r="D383">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -19305,11 +19567,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -19317,1139 +19576,1106 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col width="10" customWidth="1" style="1" min="1" max="1"/>
-    <col width="8" customWidth="1" style="1" min="2" max="2"/>
-    <col width="6.375" customWidth="1" style="1" min="3" max="3"/>
-    <col width="6.875" customWidth="1" style="28" min="4" max="4"/>
-    <col width="9.375" customWidth="1" style="28" min="5" max="5"/>
-    <col width="9.25" customWidth="1" style="28" min="6" max="6"/>
-    <col width="10.75" customWidth="1" style="28" min="7" max="7"/>
-    <col width="11.5" customWidth="1" style="28" min="8" max="8"/>
-    <col width="12.75" customWidth="1" style="28" min="9" max="9"/>
-    <col width="12.625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="10.75" customWidth="1" style="1" min="11" max="11"/>
-    <col width="10.75" customWidth="1" style="28" min="12" max="12"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="1" min="13" max="13"/>
-    <col width="9" customWidth="1" style="2" min="14" max="14"/>
-    <col width="9" customWidth="1" style="1" min="15" max="15"/>
-    <col width="9.75" bestFit="1" customWidth="1" style="1" min="16" max="16"/>
-    <col width="11.375" customWidth="1" style="1" min="17" max="18"/>
-    <col width="11.125" customWidth="1" style="1" min="19" max="20"/>
-    <col width="10.375" customWidth="1" style="1" min="21" max="21"/>
-    <col width="10.25" customWidth="1" style="1" min="22" max="22"/>
-    <col width="10.125" customWidth="1" style="1" min="23" max="23"/>
-    <col width="9" customWidth="1" style="1" min="24" max="25"/>
-    <col width="9" customWidth="1" style="1" min="26" max="16384"/>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.75" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.375" style="1" customWidth="1"/>
+    <col min="19" max="20" width="11.125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.25" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10.125" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customFormat="1" customHeight="1" s="7">
-      <c r="A1" s="9" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="9" t="inlineStr">
-        <is>
-          <t>szse innovation100</t>
-        </is>
-      </c>
-      <c r="C1" s="9" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="D1" s="29" t="inlineStr">
-        <is>
-          <t>historical PE mean</t>
-        </is>
-      </c>
-      <c r="E1" s="30" t="inlineStr">
-        <is>
-          <t>sales amount</t>
-        </is>
-      </c>
-      <c r="F1" s="30" t="inlineStr">
-        <is>
-          <t>sales shares</t>
-        </is>
-      </c>
-      <c r="G1" s="30" t="inlineStr">
-        <is>
-          <t>shares held</t>
-        </is>
-      </c>
-      <c r="H1" s="30" t="inlineStr">
-        <is>
-          <t>market value</t>
-        </is>
-      </c>
-      <c r="I1" s="31" t="inlineStr">
-        <is>
-          <t>accumulated investment</t>
-        </is>
-      </c>
-      <c r="J1" s="11" t="inlineStr">
-        <is>
-          <t>total assets</t>
-        </is>
-      </c>
-      <c r="K1" s="12" t="inlineStr">
-        <is>
-          <t>profit amount</t>
-        </is>
-      </c>
-      <c r="L1" s="32" t="inlineStr">
-        <is>
-          <t>recovered funds</t>
-        </is>
-      </c>
-      <c r="N1" s="8" t="n"/>
+    <row r="1" spans="1:23" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="11"/>
     </row>
-    <row r="2" ht="14.1" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="33" t="n"/>
-      <c r="E2" s="33" t="n">
+    <row r="2" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4">
         <v>3950</v>
       </c>
-      <c r="F2" s="34" t="inlineStr">
-        <is>
-          <t>unit:yuan</t>
-        </is>
-      </c>
-      <c r="G2" s="33" t="n"/>
-      <c r="H2" s="33">
+      <c r="F2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4">
         <f>MIN(G:G)</f>
-        <v/>
-      </c>
-      <c r="I2" s="33" t="n"/>
-      <c r="J2" s="3" t="n"/>
-      <c r="K2" s="3" t="n"/>
-      <c r="L2" s="33" t="n"/>
-      <c r="M2" s="4" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="6"/>
     </row>
-    <row r="3" ht="14.1" customHeight="1">
-      <c r="A3" s="35" t="n">
+    <row r="3" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
         <v>44316</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="15">
         <f>VLOOKUP(A3,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
-      </c>
-      <c r="C3" s="10">
+        <v>4.7860299999999993</v>
+      </c>
+      <c r="C3" s="15">
         <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D3" s="36">
+        <v>47.64</v>
+      </c>
+      <c r="D3" s="16">
         <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E3" s="36" t="n">
+        <v>45.46631578947369</v>
+      </c>
+      <c r="E3" s="16">
         <v>0</v>
       </c>
-      <c r="F3" s="37">
-        <f>E3/B3</f>
-        <v/>
-      </c>
-      <c r="G3" s="37">
+      <c r="F3" s="17">
+        <f t="shared" ref="F3:F21" si="0">E3/B3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
         <f>G2+F3</f>
-        <v/>
-      </c>
-      <c r="H3" s="37">
-        <f>G3*B3</f>
-        <v/>
-      </c>
-      <c r="I3" s="37">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
+        <f t="shared" ref="H3:H21" si="1">G3*B3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="17">
         <f>IF(E3&gt;0,I2+E3,I2)</f>
-        <v/>
-      </c>
-      <c r="J3" s="37">
-        <f>H3+L3</f>
-        <v/>
-      </c>
-      <c r="K3" s="37">
-        <f>J3-I3</f>
-        <v/>
-      </c>
-      <c r="L3" s="36">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <f t="shared" ref="J3:J21" si="2">H3+L3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="17">
+        <f t="shared" ref="K3:K21" si="3">J3-I3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="16">
         <f>IF(E3&lt;0,L2-E3,L2)</f>
-        <v/>
-      </c>
-      <c r="M3" s="4" t="n"/>
-      <c r="P3" s="13" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="Q3" s="14" t="inlineStr">
-        <is>
-          <t>investment per year</t>
-        </is>
-      </c>
-      <c r="R3" s="14" t="inlineStr">
-        <is>
-          <t>accumulated investment</t>
-        </is>
-      </c>
-      <c r="S3" s="14" t="inlineStr">
-        <is>
-          <t>total assets</t>
-        </is>
-      </c>
-      <c r="T3" s="14" t="inlineStr">
-        <is>
-          <t>profit amount</t>
-        </is>
-      </c>
-      <c r="U3" s="15" t="inlineStr">
-        <is>
-          <t>recovered funds</t>
-        </is>
-      </c>
-      <c r="V3" s="14" t="inlineStr">
-        <is>
-          <t>absolute RR</t>
-        </is>
-      </c>
-      <c r="W3" s="14" t="inlineStr">
-        <is>
-          <t>annualized RR</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="P3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="26" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" ht="14.1" customHeight="1">
-      <c r="A4" s="35" t="n">
+    <row r="4" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
         <v>44347</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="15">
         <f>VLOOKUP(A4,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
-      </c>
-      <c r="C4" s="10">
+        <v>4.9806599999999994</v>
+      </c>
+      <c r="C4" s="15">
         <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D4" s="36">
+        <v>39.85</v>
+      </c>
+      <c r="D4" s="16">
         <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E4" s="36">
-        <f>IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
-        <v/>
-      </c>
-      <c r="F4" s="37">
-        <f>E4/B4</f>
-        <v/>
-      </c>
-      <c r="G4" s="37">
-        <f>G3+F4</f>
-        <v/>
-      </c>
-      <c r="H4" s="37">
-        <f>G4*B4</f>
-        <v/>
-      </c>
-      <c r="I4" s="37">
-        <f>IF(E4&gt;0,I3+E4,I3)</f>
-        <v/>
-      </c>
-      <c r="J4" s="37">
-        <f>H4+L4</f>
-        <v/>
-      </c>
-      <c r="K4" s="37">
-        <f>J4-I4</f>
-        <v/>
-      </c>
-      <c r="L4" s="36">
-        <f>IF(E4&lt;0,L3-E4,L3)</f>
-        <v/>
-      </c>
-      <c r="M4" s="4" t="n"/>
-      <c r="P4" s="38" t="n">
+        <v>41.802432432432425</v>
+      </c>
+      <c r="E4" s="16">
+        <f t="shared" ref="E4:E21" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
+        <v>15057.369992695269</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" si="0"/>
+        <v>3023.1676108578522</v>
+      </c>
+      <c r="G4" s="17">
+        <f t="shared" ref="G4:G21" si="5">G3+F4</f>
+        <v>3023.1676108578522</v>
+      </c>
+      <c r="H4" s="17">
+        <f t="shared" si="1"/>
+        <v>15057.369992695269</v>
+      </c>
+      <c r="I4" s="17">
+        <f t="shared" ref="I4:I21" si="6">IF(E4&gt;0,I3+E4,I3)</f>
+        <v>15057.369992695269</v>
+      </c>
+      <c r="J4" s="17">
+        <f t="shared" si="2"/>
+        <v>15057.369992695269</v>
+      </c>
+      <c r="K4" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="16">
+        <f t="shared" ref="L4:L21" si="7">IF(E4&lt;0,L3-E4,L3)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="P4" s="19">
         <v>44561</v>
       </c>
-      <c r="Q4" s="39">
+      <c r="Q4" s="9">
         <f>R4</f>
-        <v/>
-      </c>
-      <c r="R4" s="33">
+        <v>260275.18576464822</v>
+      </c>
+      <c r="R4" s="4">
         <f>VLOOKUP(P4,A:I,9,)</f>
-        <v/>
-      </c>
-      <c r="S4" s="33">
+        <v>260275.18576464822</v>
+      </c>
+      <c r="S4" s="4">
         <f>VLOOKUP(P4,A:J,10,)</f>
-        <v/>
-      </c>
-      <c r="T4" s="33">
+        <v>262454.74910559482</v>
+      </c>
+      <c r="T4" s="4">
         <f>VLOOKUP(P4,A:K,11,)</f>
-        <v/>
-      </c>
-      <c r="U4" s="33">
+        <v>2179.5633409465954</v>
+      </c>
+      <c r="U4" s="4">
         <f>VLOOKUP(P4,A:L,12,)</f>
-        <v/>
-      </c>
-      <c r="V4" s="6">
-        <f>(S4-R4)/R4</f>
-        <v/>
-      </c>
-      <c r="W4" s="6">
+        <v>657.86627675392538</v>
+      </c>
+      <c r="V4" s="8">
+        <f t="shared" ref="V4" si="8">(S4-R4)/R4</f>
+        <v>8.3740727512819774E-3</v>
+      </c>
+      <c r="W4" s="8">
         <f>V4</f>
-        <v/>
+        <v>8.3740727512819774E-3</v>
       </c>
     </row>
-    <row r="5" ht="14.1" customHeight="1">
-      <c r="A5" s="35" t="n">
+    <row r="5" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
         <v>44377</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="15">
         <f>VLOOKUP(A5,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
-      </c>
-      <c r="C5" s="10">
+        <v>5.1114799999999994</v>
+      </c>
+      <c r="C5" s="15">
         <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D5" s="36">
+        <v>41.45</v>
+      </c>
+      <c r="D5" s="16">
         <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E5" s="36">
-        <f>IF(C5&lt;D5,$E$2*(D5-C5)^2,-$E$2*(D5-C5)^2)</f>
-        <v/>
-      </c>
-      <c r="F5" s="37">
-        <f>E5/B5</f>
-        <v/>
-      </c>
-      <c r="G5" s="37">
-        <f>G4+F5</f>
-        <v/>
-      </c>
-      <c r="H5" s="37">
-        <f>G5*B5</f>
-        <v/>
-      </c>
-      <c r="I5" s="37">
-        <f>IF(E5&gt;0,I4+E5,I4)</f>
-        <v/>
-      </c>
-      <c r="J5" s="37">
-        <f>H5+L5</f>
-        <v/>
-      </c>
-      <c r="K5" s="37">
-        <f>J5-I5</f>
-        <v/>
-      </c>
-      <c r="L5" s="36">
-        <f>IF(E5&lt;0,L4-E5,L4)</f>
-        <v/>
-      </c>
-      <c r="M5" s="4" t="n"/>
+        <v>41.041896551724122</v>
+      </c>
+      <c r="E5" s="16">
+        <f t="shared" si="4"/>
+        <v>-657.86627675392538</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="0"/>
+        <v>-128.70367814291075</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" si="5"/>
+        <v>2894.4639327149416</v>
+      </c>
+      <c r="H5" s="17">
+        <f t="shared" si="1"/>
+        <v>14794.994502793768</v>
+      </c>
+      <c r="I5" s="17">
+        <f t="shared" si="6"/>
+        <v>15057.369992695269</v>
+      </c>
+      <c r="J5" s="17">
+        <f t="shared" si="2"/>
+        <v>15452.860779547693</v>
+      </c>
+      <c r="K5" s="17">
+        <f t="shared" si="3"/>
+        <v>395.49078685242421</v>
+      </c>
+      <c r="L5" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M5" s="6"/>
     </row>
-    <row r="6" ht="14.1" customHeight="1">
-      <c r="A6" s="35" t="n">
+    <row r="6" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
         <v>44407</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="15">
         <f>VLOOKUP(A6,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
-      </c>
-      <c r="C6" s="10">
+        <v>4.9776999999999996</v>
+      </c>
+      <c r="C6" s="15">
         <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D6" s="36">
+        <v>39.930000305175781</v>
+      </c>
+      <c r="D6" s="16">
         <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E6" s="36">
-        <f>IF(C6&lt;D6,$E$2*(D6-C6)^2,-$E$2*(D6-C6)^2)</f>
-        <v/>
-      </c>
-      <c r="F6" s="37">
-        <f>E6/B6</f>
-        <v/>
-      </c>
-      <c r="G6" s="37">
-        <f>G5+F6</f>
-        <v/>
-      </c>
-      <c r="H6" s="37">
-        <f>G6*B6</f>
-        <v/>
-      </c>
-      <c r="I6" s="37">
-        <f>IF(E6&gt;0,I5+E6,I5)</f>
-        <v/>
-      </c>
-      <c r="J6" s="37">
-        <f>H6+L6</f>
-        <v/>
-      </c>
-      <c r="K6" s="37">
-        <f>J6-I6</f>
-        <v/>
-      </c>
-      <c r="L6" s="36">
-        <f>IF(E6&lt;0,L5-E6,L5)</f>
-        <v/>
-      </c>
-      <c r="M6" s="4" t="n"/>
+        <v>40.930499984741189</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" si="4"/>
+        <v>3953.9484548014116</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="0"/>
+        <v>794.33241352460209</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="5"/>
+        <v>3688.7963462395437</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" si="1"/>
+        <v>18361.721572676575</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" si="6"/>
+        <v>19011.31844749668</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" si="2"/>
+        <v>19019.5878494305</v>
+      </c>
+      <c r="K6" s="17">
+        <f t="shared" si="3"/>
+        <v>8.2694019338196085</v>
+      </c>
+      <c r="L6" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M6" s="6"/>
     </row>
-    <row r="7" ht="14.1" customHeight="1">
-      <c r="A7" s="35" t="n">
+    <row r="7" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
         <v>44439</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="15">
         <f>VLOOKUP(A7,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
-      </c>
-      <c r="C7" s="10">
+        <v>4.7613100000000008</v>
+      </c>
+      <c r="C7" s="15">
         <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D7" s="36">
+        <v>38.069999694824219</v>
+      </c>
+      <c r="D7" s="16">
         <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E7" s="36">
-        <f>IF(C7&lt;D7,$E$2*(D7-C7)^2,-$E$2*(D7-C7)^2)</f>
-        <v/>
-      </c>
-      <c r="F7" s="37">
-        <f>E7/B7</f>
-        <v/>
-      </c>
-      <c r="G7" s="37">
-        <f>G6+F7</f>
-        <v/>
-      </c>
-      <c r="H7" s="37">
-        <f>G7*B7</f>
-        <v/>
-      </c>
-      <c r="I7" s="37">
-        <f>IF(E7&gt;0,I6+E7,I6)</f>
-        <v/>
-      </c>
-      <c r="J7" s="37">
-        <f>H7+L7</f>
-        <v/>
-      </c>
-      <c r="K7" s="37">
-        <f>J7-I7</f>
-        <v/>
-      </c>
-      <c r="L7" s="36">
-        <f>IF(E7&lt;0,L6-E7,L6)</f>
-        <v/>
-      </c>
-      <c r="M7" s="4" t="n"/>
+        <v>40.654705834482208</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="4"/>
+        <v>26388.788022123525</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="0"/>
+        <v>5542.3377226274952</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="5"/>
+        <v>9231.1340688670389</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" si="1"/>
+        <v>43952.290953437332</v>
+      </c>
+      <c r="I7" s="17">
+        <f t="shared" si="6"/>
+        <v>45400.106469620208</v>
+      </c>
+      <c r="J7" s="17">
+        <f t="shared" si="2"/>
+        <v>44610.15723019126</v>
+      </c>
+      <c r="K7" s="17">
+        <f t="shared" si="3"/>
+        <v>-789.9492394289482</v>
+      </c>
+      <c r="L7" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M7" s="6"/>
     </row>
-    <row r="8" ht="14.1" customHeight="1">
-      <c r="A8" s="35" t="n">
+    <row r="8" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
         <v>44469</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="15">
         <f>VLOOKUP(A8,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
-      </c>
-      <c r="C8" s="10">
+        <v>4.7106400000000006</v>
+      </c>
+      <c r="C8" s="15">
         <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D8" s="36">
+        <v>35.020000457763672</v>
+      </c>
+      <c r="D8" s="16">
         <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E8" s="36">
-        <f>IF(C8&lt;D8,$E$2*(D8-C8)^2,-$E$2*(D8-C8)^2)</f>
-        <v/>
-      </c>
-      <c r="F8" s="37">
-        <f>E8/B8</f>
-        <v/>
-      </c>
-      <c r="G8" s="37">
-        <f>G7+F8</f>
-        <v/>
-      </c>
-      <c r="H8" s="37">
-        <f>G8*B8</f>
-        <v/>
-      </c>
-      <c r="I8" s="37">
-        <f>IF(E8&gt;0,I7+E8,I7)</f>
-        <v/>
-      </c>
-      <c r="J8" s="37">
-        <f>H8+L8</f>
-        <v/>
-      </c>
-      <c r="K8" s="37">
-        <f>J8-I8</f>
-        <v/>
-      </c>
-      <c r="L8" s="36">
-        <f>IF(E8&lt;0,L7-E8,L7)</f>
-        <v/>
-      </c>
-      <c r="M8" s="4" t="n"/>
+        <v>39.730819672131133</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="4"/>
+        <v>87657.679798291982</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="0"/>
+        <v>18608.443820434586</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="5"/>
+        <v>27839.577889301625</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="1"/>
+        <v>131142.22918845981</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" si="6"/>
+        <v>133057.78626791219</v>
+      </c>
+      <c r="J8" s="17">
+        <f t="shared" si="2"/>
+        <v>131800.09546521373</v>
+      </c>
+      <c r="K8" s="17">
+        <f t="shared" si="3"/>
+        <v>-1257.6908026984602</v>
+      </c>
+      <c r="L8" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M8" s="6"/>
     </row>
-    <row r="9" ht="14.1" customHeight="1">
-      <c r="A9" s="35" t="n">
+    <row r="9" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
         <v>44498</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="15">
         <f>VLOOKUP(A9,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
-      </c>
-      <c r="C9" s="10">
+        <v>4.8678999999999997</v>
+      </c>
+      <c r="C9" s="15">
         <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D9" s="36">
+        <v>36.299999239999998</v>
+      </c>
+      <c r="D9" s="16">
         <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E9" s="36">
-        <f>IF(C9&lt;D9,$E$2*(D9-C9)^2,-$E$2*(D9-C9)^2)</f>
-        <v/>
-      </c>
-      <c r="F9" s="37">
-        <f>E9/B9</f>
-        <v/>
-      </c>
-      <c r="G9" s="37">
-        <f>G8+F9</f>
-        <v/>
-      </c>
-      <c r="H9" s="37">
-        <f>G9*B9</f>
-        <v/>
-      </c>
-      <c r="I9" s="37">
-        <f>IF(E9&gt;0,I8+E9,I8)</f>
-        <v/>
-      </c>
-      <c r="J9" s="37">
-        <f>H9+L9</f>
-        <v/>
-      </c>
-      <c r="K9" s="37">
-        <f>J9-I9</f>
-        <v/>
-      </c>
-      <c r="L9" s="36">
-        <f>IF(E9&lt;0,L8-E9,L8)</f>
-        <v/>
-      </c>
-      <c r="M9" s="4" t="n"/>
+        <v>39.253623134275358</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="4"/>
+        <v>34459.381729895649</v>
+      </c>
+      <c r="F9" s="17">
+        <f t="shared" si="0"/>
+        <v>7078.9009079676352</v>
+      </c>
+      <c r="G9" s="17">
+        <f t="shared" si="5"/>
+        <v>34918.478797269257</v>
+      </c>
+      <c r="H9" s="17">
+        <f t="shared" si="1"/>
+        <v>169979.662937227</v>
+      </c>
+      <c r="I9" s="17">
+        <f t="shared" si="6"/>
+        <v>167517.16799780785</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" si="2"/>
+        <v>170637.52921398092</v>
+      </c>
+      <c r="K9" s="17">
+        <f t="shared" si="3"/>
+        <v>3120.3612161730707</v>
+      </c>
+      <c r="L9" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M9" s="6"/>
     </row>
-    <row r="10" ht="14.1" customHeight="1">
-      <c r="A10" s="35" t="n">
+    <row r="10" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
         <v>44530</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="15">
         <f>VLOOKUP(A10,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
-      </c>
-      <c r="C10" s="10">
+        <v>4.9547099609374996</v>
+      </c>
+      <c r="C10" s="15">
         <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D10" s="36">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="D10" s="16">
         <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E10" s="36">
-        <f>IF(C10&lt;D10,$E$2*(D10-C10)^2,-$E$2*(D10-C10)^2)</f>
-        <v/>
-      </c>
-      <c r="F10" s="37">
-        <f>E10/B10</f>
-        <v/>
-      </c>
-      <c r="G10" s="37">
-        <f>G9+F10</f>
-        <v/>
-      </c>
-      <c r="H10" s="37">
-        <f>G10*B10</f>
-        <v/>
-      </c>
-      <c r="I10" s="37">
-        <f>IF(E10&gt;0,I9+E10,I9)</f>
-        <v/>
-      </c>
-      <c r="J10" s="37">
-        <f>H10+L10</f>
-        <v/>
-      </c>
-      <c r="K10" s="37">
-        <f>J10-I10</f>
-        <v/>
-      </c>
-      <c r="L10" s="36">
-        <f>IF(E10&lt;0,L9-E10,L9)</f>
-        <v/>
-      </c>
-      <c r="M10" s="4" t="n"/>
+        <v>38.695499988749994</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="4"/>
+        <v>41606.417199055955</v>
+      </c>
+      <c r="F10" s="17">
+        <f t="shared" si="0"/>
+        <v>8397.3466715665127</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" si="5"/>
+        <v>43315.82546883577</v>
+      </c>
+      <c r="H10" s="17">
+        <f t="shared" si="1"/>
+        <v>214617.35191667083</v>
+      </c>
+      <c r="I10" s="17">
+        <f t="shared" si="6"/>
+        <v>209123.5851968638</v>
+      </c>
+      <c r="J10" s="17">
+        <f t="shared" si="2"/>
+        <v>215275.21819342475</v>
+      </c>
+      <c r="K10" s="17">
+        <f t="shared" si="3"/>
+        <v>6151.6329965609475</v>
+      </c>
+      <c r="L10" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M10" s="6"/>
     </row>
-    <row r="11" ht="14.1" customHeight="1">
-      <c r="A11" s="35" t="n">
+    <row r="11" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
         <v>44561</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="15">
         <f>VLOOKUP(A11,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
-      </c>
-      <c r="C11" s="10">
+        <v>4.8630097656249998</v>
+      </c>
+      <c r="C11" s="15">
         <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D11" s="36">
+        <v>34.630000000000003</v>
+      </c>
+      <c r="D11" s="16">
         <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E11" s="36">
-        <f>IF(C11&lt;D11,$E$2*(D11-C11)^2,-$E$2*(D11-C11)^2)</f>
-        <v/>
-      </c>
-      <c r="F11" s="37">
-        <f>E11/B11</f>
-        <v/>
-      </c>
-      <c r="G11" s="37">
-        <f>G10+F11</f>
-        <v/>
-      </c>
-      <c r="H11" s="37">
-        <f>G11*B11</f>
-        <v/>
-      </c>
-      <c r="I11" s="37">
-        <f>IF(E11&gt;0,I10+E11,I10)</f>
-        <v/>
-      </c>
-      <c r="J11" s="37">
-        <f>H11+L11</f>
-        <v/>
-      </c>
-      <c r="K11" s="37">
-        <f>J11-I11</f>
-        <v/>
-      </c>
-      <c r="L11" s="36">
-        <f>IF(E11&lt;0,L10-E11,L10)</f>
-        <v/>
-      </c>
-      <c r="M11" s="4" t="n"/>
+        <v>38.228579205136612</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="4"/>
+        <v>51151.60056778443</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" si="0"/>
+        <v>10518.506651859534</v>
+      </c>
+      <c r="G11" s="17">
+        <f t="shared" si="5"/>
+        <v>53834.332120695304</v>
+      </c>
+      <c r="H11" s="17">
+        <f t="shared" si="1"/>
+        <v>261796.88282884087</v>
+      </c>
+      <c r="I11" s="17">
+        <f t="shared" si="6"/>
+        <v>260275.18576464822</v>
+      </c>
+      <c r="J11" s="17">
+        <f t="shared" si="2"/>
+        <v>262454.74910559482</v>
+      </c>
+      <c r="K11" s="17">
+        <f t="shared" si="3"/>
+        <v>2179.5633409465954</v>
+      </c>
+      <c r="L11" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M11" s="6"/>
     </row>
-    <row r="12" ht="14.1" customHeight="1">
-      <c r="A12" s="35" t="n">
+    <row r="12" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
         <v>44589</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="15">
         <f>VLOOKUP(A12,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
-      </c>
-      <c r="C12" s="10">
+        <v>4.3440297851562502</v>
+      </c>
+      <c r="C12" s="15">
         <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D12" s="36">
+        <v>31.159999849999998</v>
+      </c>
+      <c r="D12" s="16">
         <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E12" s="36">
-        <f>IF(C12&lt;D12,$E$2*(D12-C12)^2,-$E$2*(D12-C12)^2)</f>
-        <v/>
-      </c>
-      <c r="F12" s="37">
-        <f>E12/B12</f>
-        <v/>
-      </c>
-      <c r="G12" s="37">
-        <f>G11+F12</f>
-        <v/>
-      </c>
-      <c r="H12" s="37">
-        <f>G12*B12</f>
-        <v/>
-      </c>
-      <c r="I12" s="37">
-        <f>IF(E12&gt;0,I11+E12,I11)</f>
-        <v/>
-      </c>
-      <c r="J12" s="37">
-        <f>H12+L12</f>
-        <v/>
-      </c>
-      <c r="K12" s="37">
-        <f>J12-I12</f>
-        <v/>
-      </c>
-      <c r="L12" s="36">
-        <f>IF(E12&lt;0,L11-E12,L11)</f>
-        <v/>
-      </c>
-      <c r="M12" s="4" t="n"/>
+        <v>37.710494996683174</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="4"/>
+        <v>169490.49733354338</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" si="0"/>
+        <v>39016.881954331948</v>
+      </c>
+      <c r="G12" s="17">
+        <f t="shared" si="5"/>
+        <v>92851.214075027252</v>
+      </c>
+      <c r="H12" s="17">
+        <f t="shared" si="1"/>
+        <v>403348.43952983763</v>
+      </c>
+      <c r="I12" s="17">
+        <f t="shared" si="6"/>
+        <v>429765.68309819163</v>
+      </c>
+      <c r="J12" s="17">
+        <f t="shared" si="2"/>
+        <v>404006.30580659158</v>
+      </c>
+      <c r="K12" s="17">
+        <f t="shared" si="3"/>
+        <v>-25759.377291600045</v>
+      </c>
+      <c r="L12" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M12" s="6"/>
     </row>
-    <row r="13" ht="14.1" customHeight="1">
-      <c r="A13" s="35" t="n">
+    <row r="13" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
         <v>44620</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="15">
         <f>VLOOKUP(A13,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
-      </c>
-      <c r="C13" s="10">
+        <v>4.3355400390624999</v>
+      </c>
+      <c r="C13" s="15">
         <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D13" s="36">
+        <v>30.969999309999999</v>
+      </c>
+      <c r="D13" s="16">
         <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E13" s="36">
-        <f>IF(C13&lt;D13,$E$2*(D13-C13)^2,-$E$2*(D13-C13)^2)</f>
-        <v/>
-      </c>
-      <c r="F13" s="37">
-        <f>E13/B13</f>
-        <v/>
-      </c>
-      <c r="G13" s="37">
-        <f>G12+F13</f>
-        <v/>
-      </c>
-      <c r="H13" s="37">
-        <f>G13*B13</f>
-        <v/>
-      </c>
-      <c r="I13" s="37">
-        <f>IF(E13&gt;0,I12+E13,I12)</f>
-        <v/>
-      </c>
-      <c r="J13" s="37">
-        <f>H13+L13</f>
-        <v/>
-      </c>
-      <c r="K13" s="37">
-        <f>J13-I13</f>
-        <v/>
-      </c>
-      <c r="L13" s="36">
-        <f>IF(E13&lt;0,L12-E13,L12)</f>
-        <v/>
-      </c>
-      <c r="M13" s="4" t="n"/>
+        <v>37.189770586238538</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="4"/>
+        <v>152807.94117845185</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="shared" si="0"/>
+        <v>35245.422669766056</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" si="5"/>
+        <v>128096.6367447933</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" si="1"/>
+        <v>555368.09747629601</v>
+      </c>
+      <c r="I13" s="17">
+        <f t="shared" si="6"/>
+        <v>582573.6242766435</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" si="2"/>
+        <v>556025.96375304996</v>
+      </c>
+      <c r="K13" s="17">
+        <f t="shared" si="3"/>
+        <v>-26547.660523593542</v>
+      </c>
+      <c r="L13" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M13" s="6"/>
     </row>
-    <row r="14" ht="14.1" customHeight="1">
-      <c r="A14" s="35" t="n">
+    <row r="14" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
         <v>44651</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="15">
         <f>VLOOKUP(A14,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
-      </c>
-      <c r="C14" s="10">
+        <v>3.8658500976562502</v>
+      </c>
+      <c r="C14" s="15">
         <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D14" s="36">
+        <v>27.63999939</v>
+      </c>
+      <c r="D14" s="16">
         <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E14" s="36">
-        <f>IF(C14&lt;D14,$E$2*(D14-C14)^2,-$E$2*(D14-C14)^2)</f>
-        <v/>
-      </c>
-      <c r="F14" s="37">
-        <f>E14/B14</f>
-        <v/>
-      </c>
-      <c r="G14" s="37">
-        <f>G13+F14</f>
-        <v/>
-      </c>
-      <c r="H14" s="37">
-        <f>G14*B14</f>
-        <v/>
-      </c>
-      <c r="I14" s="37">
-        <f>IF(E14&gt;0,I13+E14,I13)</f>
-        <v/>
-      </c>
-      <c r="J14" s="37">
-        <f>H14+L14</f>
-        <v/>
-      </c>
-      <c r="K14" s="37">
-        <f>J14-I14</f>
-        <v/>
-      </c>
-      <c r="L14" s="36">
-        <f>IF(E14&lt;0,L13-E14,L13)</f>
-        <v/>
-      </c>
-      <c r="M14" s="4" t="n"/>
+        <v>36.340622369004151</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" si="4"/>
+        <v>299018.3188799615</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="0"/>
+        <v>77348.658464860651</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" si="5"/>
+        <v>205445.29520965397</v>
+      </c>
+      <c r="H14" s="17">
+        <f t="shared" si="1"/>
+        <v>794220.71454925789</v>
+      </c>
+      <c r="I14" s="17">
+        <f t="shared" si="6"/>
+        <v>881591.943156605</v>
+      </c>
+      <c r="J14" s="17">
+        <f t="shared" si="2"/>
+        <v>794878.58082601184</v>
+      </c>
+      <c r="K14" s="17">
+        <f t="shared" si="3"/>
+        <v>-86713.362330593169</v>
+      </c>
+      <c r="L14" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M14" s="6"/>
     </row>
-    <row r="15" ht="14.1" customHeight="1">
-      <c r="A15" s="35" t="n">
+    <row r="15" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
         <v>44680</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="15">
         <f>VLOOKUP(A15,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
-      </c>
-      <c r="C15" s="10">
+        <v>3.5012099609375</v>
+      </c>
+      <c r="C15" s="15">
         <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D15" s="36">
+        <v>25.129999160000001</v>
+      </c>
+      <c r="D15" s="16">
         <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E15" s="36">
-        <f>IF(C15&lt;D15,$E$2*(D15-C15)^2,-$E$2*(D15-C15)^2)</f>
-        <v/>
-      </c>
-      <c r="F15" s="37">
-        <f>E15/B15</f>
-        <v/>
-      </c>
-      <c r="G15" s="37">
-        <f>G14+F15</f>
-        <v/>
-      </c>
-      <c r="H15" s="37">
-        <f>G15*B15</f>
-        <v/>
-      </c>
-      <c r="I15" s="37">
-        <f>IF(E15&gt;0,I14+E15,I14)</f>
-        <v/>
-      </c>
-      <c r="J15" s="37">
-        <f>H15+L15</f>
-        <v/>
-      </c>
-      <c r="K15" s="37">
-        <f>J15-I15</f>
-        <v/>
-      </c>
-      <c r="L15" s="36">
-        <f>IF(E15&lt;0,L14-E15,L14)</f>
-        <v/>
-      </c>
-      <c r="M15" s="4" t="n"/>
+        <v>35.566653817730753</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="4"/>
+        <v>430248.85375669535</v>
+      </c>
+      <c r="F15" s="17">
+        <f t="shared" si="0"/>
+        <v>122885.76193856422</v>
+      </c>
+      <c r="G15" s="17">
+        <f t="shared" si="5"/>
+        <v>328331.05714821815</v>
+      </c>
+      <c r="H15" s="17">
+        <f t="shared" si="1"/>
+        <v>1149555.967772481</v>
+      </c>
+      <c r="I15" s="17">
+        <f t="shared" si="6"/>
+        <v>1311840.7969133004</v>
+      </c>
+      <c r="J15" s="17">
+        <f t="shared" si="2"/>
+        <v>1150213.8340492349</v>
+      </c>
+      <c r="K15" s="17">
+        <f t="shared" si="3"/>
+        <v>-161626.96286406554</v>
+      </c>
+      <c r="L15" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M15" s="6"/>
     </row>
-    <row r="16" ht="14.1" customHeight="1">
-      <c r="A16" s="35" t="n">
+    <row r="16" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
         <v>44712</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="15">
         <f>VLOOKUP(A16,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
-      </c>
-      <c r="C16" s="10">
+        <v>3.6361599121093748</v>
+      </c>
+      <c r="C16" s="15">
         <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D16" s="36">
+        <v>24.129999160000001</v>
+      </c>
+      <c r="D16" s="16">
         <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E16" s="36">
-        <f>IF(C16&lt;D16,$E$2*(D16-C16)^2,-$E$2*(D16-C16)^2)</f>
-        <v/>
-      </c>
-      <c r="F16" s="37">
-        <f>E16/B16</f>
-        <v/>
-      </c>
-      <c r="G16" s="37">
-        <f>G15+F16</f>
-        <v/>
-      </c>
-      <c r="H16" s="37">
-        <f>G16*B16</f>
-        <v/>
-      </c>
-      <c r="I16" s="37">
-        <f>IF(E16&gt;0,I15+E16,I15)</f>
-        <v/>
-      </c>
-      <c r="J16" s="37">
-        <f>H16+L16</f>
-        <v/>
-      </c>
-      <c r="K16" s="37">
-        <f>J16-I16</f>
-        <v/>
-      </c>
-      <c r="L16" s="36">
-        <f>IF(E16&lt;0,L15-E16,L15)</f>
-        <v/>
-      </c>
-      <c r="M16" s="4" t="n"/>
+        <v>34.740573439534039</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="4"/>
+        <v>444707.93183896161</v>
+      </c>
+      <c r="F16" s="17">
+        <f t="shared" si="0"/>
+        <v>122301.53309758642</v>
+      </c>
+      <c r="G16" s="17">
+        <f t="shared" si="5"/>
+        <v>450632.59024580457</v>
+      </c>
+      <c r="H16" s="17">
+        <f t="shared" si="1"/>
+        <v>1638572.1597418047</v>
+      </c>
+      <c r="I16" s="17">
+        <f t="shared" si="6"/>
+        <v>1756548.728752262</v>
+      </c>
+      <c r="J16" s="17">
+        <f t="shared" si="2"/>
+        <v>1639230.0260185585</v>
+      </c>
+      <c r="K16" s="17">
+        <f t="shared" si="3"/>
+        <v>-117318.70273370342</v>
+      </c>
+      <c r="L16" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M16" s="6"/>
     </row>
-    <row r="17" ht="14.1" customHeight="1">
-      <c r="A17" s="35" t="n">
+    <row r="17" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
         <v>44742</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="15">
         <f>VLOOKUP(A17,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
-      </c>
-      <c r="C17" s="10">
+        <v>4.1096201171875002</v>
+      </c>
+      <c r="C17" s="15">
         <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D17" s="36">
+        <v>27.809999470000001</v>
+      </c>
+      <c r="D17" s="16">
         <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E17" s="36">
-        <f>IF(C17&lt;D17,$E$2*(D17-C17)^2,-$E$2*(D17-C17)^2)</f>
-        <v/>
-      </c>
-      <c r="F17" s="37">
-        <f>E17/B17</f>
-        <v/>
-      </c>
-      <c r="G17" s="37">
-        <f>G16+F17</f>
-        <v/>
-      </c>
-      <c r="H17" s="37">
-        <f>G17*B17</f>
-        <v/>
-      </c>
-      <c r="I17" s="37">
-        <f>IF(E17&gt;0,I16+E17,I16)</f>
-        <v/>
-      </c>
-      <c r="J17" s="37">
-        <f>H17+L17</f>
-        <v/>
-      </c>
-      <c r="K17" s="37">
-        <f>J17-I17</f>
-        <v/>
-      </c>
-      <c r="L17" s="36">
-        <f>IF(E17&lt;0,L16-E17,L16)</f>
-        <v/>
-      </c>
-      <c r="M17" s="4" t="n"/>
+        <v>34.119366627533324</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="4"/>
+        <v>157242.05001781249</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" si="0"/>
+        <v>38261.942839968433</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" si="5"/>
+        <v>488894.533085773</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="1"/>
+        <v>2009170.8083522827</v>
+      </c>
+      <c r="I17" s="17">
+        <f t="shared" si="6"/>
+        <v>1913790.7787700745</v>
+      </c>
+      <c r="J17" s="17">
+        <f t="shared" si="2"/>
+        <v>2009828.6746290366</v>
+      </c>
+      <c r="K17" s="17">
+        <f t="shared" si="3"/>
+        <v>96037.895858962089</v>
+      </c>
+      <c r="L17" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M17" s="6"/>
     </row>
-    <row r="18" ht="14.1" customHeight="1">
-      <c r="A18" s="35" t="n">
+    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
         <v>44771</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="15">
         <f>VLOOKUP(A18,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
-      </c>
-      <c r="C18" s="10">
+        <v>3.8724699707031252</v>
+      </c>
+      <c r="C18" s="15">
         <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D18" s="36">
+        <v>26.329999919999999</v>
+      </c>
+      <c r="D18" s="16">
         <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E18" s="36">
-        <f>IF(C18&lt;D18,$E$2*(D18-C18)^2,-$E$2*(D18-C18)^2)</f>
-        <v/>
-      </c>
-      <c r="F18" s="37">
-        <f>E18/B18</f>
-        <v/>
-      </c>
-      <c r="G18" s="37">
-        <f>G17+F18</f>
-        <v/>
-      </c>
-      <c r="H18" s="37">
-        <f>G18*B18</f>
-        <v/>
-      </c>
-      <c r="I18" s="37">
-        <f>IF(E18&gt;0,I17+E18,I17)</f>
-        <v/>
-      </c>
-      <c r="J18" s="37">
-        <f>H18+L18</f>
-        <v/>
-      </c>
-      <c r="K18" s="37">
-        <f>J18-I18</f>
-        <v/>
-      </c>
-      <c r="L18" s="36">
-        <f>IF(E18&lt;0,L17-E18,L17)</f>
-        <v/>
-      </c>
-      <c r="M18" s="4" t="n"/>
+        <v>33.666137024579427</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="4"/>
+        <v>212584.68508788882</v>
+      </c>
+      <c r="F18" s="17">
+        <f t="shared" si="0"/>
+        <v>54896.406349482881</v>
+      </c>
+      <c r="G18" s="17">
+        <f t="shared" si="5"/>
+        <v>543790.93943525583</v>
+      </c>
+      <c r="H18" s="17">
+        <f t="shared" si="1"/>
+        <v>2105814.0833034702</v>
+      </c>
+      <c r="I18" s="17">
+        <f t="shared" si="6"/>
+        <v>2126375.4638579632</v>
+      </c>
+      <c r="J18" s="17">
+        <f t="shared" si="2"/>
+        <v>2106471.9495802242</v>
+      </c>
+      <c r="K18" s="17">
+        <f t="shared" si="3"/>
+        <v>-19903.514277738985</v>
+      </c>
+      <c r="L18" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M18" s="6"/>
     </row>
-    <row r="19" ht="14.1" customHeight="1">
-      <c r="A19" s="35" t="n">
+    <row r="19" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
         <v>44804</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="15">
         <f>VLOOKUP(A19,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
-      </c>
-      <c r="C19" s="10">
+        <v>3.7022099609375001</v>
+      </c>
+      <c r="C19" s="15">
         <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D19" s="36">
+        <v>25.18000031</v>
+      </c>
+      <c r="D19" s="16">
         <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E19" s="36">
-        <f>IF(C19&lt;D19,$E$2*(D19-C19)^2,-$E$2*(D19-C19)^2)</f>
-        <v/>
-      </c>
-      <c r="F19" s="37">
-        <f>E19/B19</f>
-        <v/>
-      </c>
-      <c r="G19" s="37">
-        <f>G18+F19</f>
-        <v/>
-      </c>
-      <c r="H19" s="37">
-        <f>G19*B19</f>
-        <v/>
-      </c>
-      <c r="I19" s="37">
-        <f>IF(E19&gt;0,I18+E19,I18)</f>
-        <v/>
-      </c>
-      <c r="J19" s="37">
-        <f>H19+L19</f>
-        <v/>
-      </c>
-      <c r="K19" s="37">
-        <f>J19-I19</f>
-        <v/>
-      </c>
-      <c r="L19" s="36">
-        <f>IF(E19&lt;0,L18-E19,L18)</f>
-        <v/>
-      </c>
-      <c r="M19" s="4" t="n"/>
+        <v>33.177616240465106</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="4"/>
+        <v>252649.34925635549</v>
+      </c>
+      <c r="F19" s="17">
+        <f t="shared" si="0"/>
+        <v>68242.847359304767</v>
+      </c>
+      <c r="G19" s="17">
+        <f t="shared" si="5"/>
+        <v>612033.78679456061</v>
+      </c>
+      <c r="H19" s="17">
+        <f t="shared" si="1"/>
+        <v>2265877.5819011205</v>
+      </c>
+      <c r="I19" s="17">
+        <f t="shared" si="6"/>
+        <v>2379024.8131143185</v>
+      </c>
+      <c r="J19" s="17">
+        <f t="shared" si="2"/>
+        <v>2266535.4481778746</v>
+      </c>
+      <c r="K19" s="17">
+        <f t="shared" si="3"/>
+        <v>-112489.36493644398</v>
+      </c>
+      <c r="L19" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M19" s="6"/>
     </row>
-    <row r="20" ht="14.1" customHeight="1">
-      <c r="A20" s="35" t="n">
+    <row r="20" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
         <v>44834</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="15">
         <f>VLOOKUP(A20,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
-      </c>
-      <c r="C20" s="10">
+        <v>3.3477299804687499</v>
+      </c>
+      <c r="C20" s="15">
         <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D20" s="36">
+        <v>23.340000150000002</v>
+      </c>
+      <c r="D20" s="16">
         <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E20" s="36">
-        <f>IF(C20&lt;D20,$E$2*(D20-C20)^2,-$E$2*(D20-C20)^2)</f>
-        <v/>
-      </c>
-      <c r="F20" s="37">
-        <f>E20/B20</f>
-        <v/>
-      </c>
-      <c r="G20" s="37">
-        <f>G19+F20</f>
-        <v/>
-      </c>
-      <c r="H20" s="37">
-        <f>G20*B20</f>
-        <v/>
-      </c>
-      <c r="I20" s="37">
-        <f>IF(E20&gt;0,I19+E20,I19)</f>
-        <v/>
-      </c>
-      <c r="J20" s="37">
-        <f>H20+L20</f>
-        <v/>
-      </c>
-      <c r="K20" s="37">
-        <f>J20-I20</f>
-        <v/>
-      </c>
-      <c r="L20" s="36">
-        <f>IF(E20&lt;0,L19-E20,L19)</f>
-        <v/>
-      </c>
-      <c r="M20" s="5" t="n"/>
-      <c r="P20" s="28" t="n"/>
+        <v>32.601424623862997</v>
+      </c>
+      <c r="E20" s="16">
+        <f t="shared" si="4"/>
+        <v>338807.23397602042</v>
+      </c>
+      <c r="F20" s="17">
+        <f t="shared" si="0"/>
+        <v>101205.06610529579</v>
+      </c>
+      <c r="G20" s="17">
+        <f t="shared" si="5"/>
+        <v>713238.8528998564</v>
+      </c>
+      <c r="H20" s="17">
+        <f t="shared" si="1"/>
+        <v>2387731.09108799</v>
+      </c>
+      <c r="I20" s="17">
+        <f t="shared" si="6"/>
+        <v>2717832.047090339</v>
+      </c>
+      <c r="J20" s="17">
+        <f t="shared" si="2"/>
+        <v>2388388.957364744</v>
+      </c>
+      <c r="K20" s="17">
+        <f t="shared" si="3"/>
+        <v>-329443.08972559497</v>
+      </c>
+      <c r="L20" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M20" s="7"/>
+      <c r="P20" s="3"/>
     </row>
-    <row r="21">
-      <c r="A21" s="40" t="inlineStr">
-        <is>
-          <t>2022-09-30</t>
-        </is>
-      </c>
-      <c r="B21" s="41" t="n">
-        <v>3.34772998046875</v>
-      </c>
-      <c r="C21" s="42" t="n">
-        <v>22.23999977</v>
-      </c>
-      <c r="D21" s="42" t="n">
-        <v>32.19740153892386</v>
-      </c>
-      <c r="E21" s="43" t="n">
-        <v>391641.9074516833</v>
-      </c>
-      <c r="F21" s="43" t="n">
-        <v>116987.3047517547</v>
-      </c>
-      <c r="G21" s="43" t="n">
-        <v>830226.157651611</v>
-      </c>
-      <c r="H21" s="43" t="n">
-        <v>2779372.998539673</v>
-      </c>
-      <c r="I21" s="43" t="n">
-        <v>3109473.954542022</v>
-      </c>
-      <c r="J21" s="43" t="n">
-        <v>2780030.864816427</v>
-      </c>
-      <c r="K21" s="44" t="n">
-        <v>-329443.089725595</v>
-      </c>
-      <c r="L21" s="43" t="n">
-        <v>657.8662767539254</v>
+    <row r="21" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>44865</v>
+      </c>
+      <c r="B21" s="15">
+        <f>VLOOKUP(A21,[1]szse_innovation_100!$A:$F,6)</f>
+        <v>3.2993999023437501</v>
+      </c>
+      <c r="C21" s="15">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <v>22.239999770000001</v>
+      </c>
+      <c r="D21" s="16">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <f t="shared" si="4"/>
+        <v>-1953739.4795899205</v>
+      </c>
+      <c r="F21" s="17">
+        <f t="shared" si="0"/>
+        <v>-592149.94769263011</v>
+      </c>
+      <c r="G21" s="17">
+        <f t="shared" si="5"/>
+        <v>121088.90520722629</v>
+      </c>
+      <c r="H21" s="17">
+        <f t="shared" si="1"/>
+        <v>399520.722015634</v>
+      </c>
+      <c r="I21" s="17">
+        <f t="shared" si="6"/>
+        <v>2717832.047090339</v>
+      </c>
+      <c r="J21" s="17">
+        <f t="shared" si="2"/>
+        <v>2353918.0678823083</v>
+      </c>
+      <c r="K21" s="17">
+        <f t="shared" si="3"/>
+        <v>-363913.97920803074</v>
+      </c>
+      <c r="L21" s="16">
+        <f t="shared" si="7"/>
+        <v>1954397.3458666743</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" priority="2" operator="lessThan" dxfId="0">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -2,19 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="model4(1)" sheetId="7" r:id="rId1"/>
+    <sheet name="model4(1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model4(1)'!$P$1:$P$25</definedName>
     <definedName name="金额" localSheetId="0">OFFSET('model4(1)'!K1,0,0,COUNTA('model4(1)'!K:K)-1)</definedName>
     <definedName name="买卖" localSheetId="0">OFFSET('model4(1)'!E1,0,0,COUNTA('model4(1)'!E:E)-2)</definedName>
     <definedName name="时间" localSheetId="0">OFFSET('model4(1)'!A1,0,0,COUNTA('model4(1)'!A:A)-1)</definedName>
@@ -29,13 +28,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>PE</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
     <t>szse innovation100</t>
+  </si>
+  <si>
+    <t>PE</t>
   </si>
   <si>
     <t>historical PE mean</t>
@@ -65,6 +64,9 @@
     <t>recovered funds</t>
   </si>
   <si>
+    <t>unit:yuan</t>
+  </si>
+  <si>
     <t>investment per year</t>
   </si>
   <si>
@@ -73,10 +75,6 @@
   <si>
     <t>annualized RR</t>
   </si>
-  <si>
-    <t>unit:yuan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -84,8 +82,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -230,13 +228,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -246,32 +241,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -281,6 +255,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -328,7 +326,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -354,8 +352,8 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -365,7 +363,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13008136046222177"/>
+          <c:x val="0.1300813604622218"/>
           <c:y val="7.4401451718666578E-2"/>
           <c:w val="0.83511435446609106"/>
           <c:h val="0.59209072023586662"/>
@@ -393,9 +391,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -527,17 +525,12 @@
                   <c:v>2717832.047090339</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2717832.047090339</c:v>
+                  <c:v>3109473.9545420222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D6A0-4C10-8CC9-BF21CBF2A97F}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -558,9 +551,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -692,17 +685,12 @@
                   <c:v>2388388.957364744</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2353918.0678823083</c:v>
+                  <c:v>2745559.9753339919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D6A0-4C10-8CC9-BF21CBF2A97F}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -723,9 +711,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -857,17 +845,12 @@
                   <c:v>-329443.08972559497</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-363913.97920803074</c:v>
+                  <c:v>-363913.97920803027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D6A0-4C10-8CC9-BF21CBF2A97F}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -879,11 +862,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39302272"/>
-        <c:axId val="39303808"/>
+        <c:axId val="141854976"/>
+        <c:axId val="248165120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="39302272"/>
+        <c:axId val="141854976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -902,16 +885,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -926,14 +909,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39303808"/>
+        <c:crossAx val="248165120"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="39303808"/>
+        <c:axId val="248165120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -948,9 +931,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -961,15 +944,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -984,17 +967,10 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39302272"/>
+        <c:crossAx val="141854976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -1004,15 +980,15 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1032,31 +1008,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1086,7 +1037,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1099,14 +1050,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0"/>
               <a:t>szseinnovation100index &amp;                                            sales amount per month</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1115,8 +1062,8 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1128,15 +1075,15 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -1200,7 +1147,7 @@
                   <c:v>338807.23397602042</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1953739.4795899205</c:v>
+                  <c:v>391641.90745168331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1215,23 +1162,23 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="108182528"/>
-        <c:axId val="108180608"/>
+        <c:axId val="261926272"/>
+        <c:axId val="267974144"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="1"/>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1380,11 +1327,70 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92080384"/>
-        <c:axId val="98640640"/>
+        <c:axId val="267976064"/>
+        <c:axId val="268072448"/>
       </c:lineChart>
+      <c:catAx>
+        <c:axId val="261926272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="267974144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="267974144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261926272"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:dateAx>
-        <c:axId val="92080384"/>
+        <c:axId val="267976064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1403,16 +1409,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1427,14 +1433,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98640640"/>
+        <c:crossAx val="268072448"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="98640640"/>
+        <c:axId val="268072448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1449,9 +1455,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1462,15 +1468,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1485,106 +1491,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92080384"/>
+        <c:crossAx val="267976064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="108180608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="108182528"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="108182528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108180608"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1610,10 +1525,8 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1642,10 +1555,8 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -14834,6 +14745,306 @@
             <v>3.2993999023437501</v>
           </cell>
         </row>
+        <row r="660">
+          <cell r="A660">
+            <v>44875</v>
+          </cell>
+          <cell r="B660">
+            <v>3447.840087890625</v>
+          </cell>
+          <cell r="C660">
+            <v>3456.550048828125</v>
+          </cell>
+          <cell r="D660">
+            <v>3395.860107421875</v>
+          </cell>
+          <cell r="E660">
+            <v>3413.8701171875</v>
+          </cell>
+          <cell r="F660">
+            <v>3.4138701171874999</v>
+          </cell>
+        </row>
+        <row r="661">
+          <cell r="A661">
+            <v>44876</v>
+          </cell>
+          <cell r="B661">
+            <v>3518.199951171875</v>
+          </cell>
+          <cell r="C661">
+            <v>3543.360107421875</v>
+          </cell>
+          <cell r="D661">
+            <v>3481.409912109375</v>
+          </cell>
+          <cell r="E661">
+            <v>3499.14990234375</v>
+          </cell>
+          <cell r="F661">
+            <v>3.49914990234375</v>
+          </cell>
+        </row>
+        <row r="662">
+          <cell r="A662">
+            <v>44879</v>
+          </cell>
+          <cell r="B662">
+            <v>3517.820068359375</v>
+          </cell>
+          <cell r="C662">
+            <v>3547.3701171875</v>
+          </cell>
+          <cell r="D662">
+            <v>3485.489990234375</v>
+          </cell>
+          <cell r="E662">
+            <v>3500.659912109375</v>
+          </cell>
+          <cell r="F662">
+            <v>3.5006599121093749</v>
+          </cell>
+        </row>
+        <row r="663">
+          <cell r="A663">
+            <v>44880</v>
+          </cell>
+          <cell r="B663">
+            <v>3501.409912109375</v>
+          </cell>
+          <cell r="C663">
+            <v>3587.2900390625</v>
+          </cell>
+          <cell r="D663">
+            <v>3484.409912109375</v>
+          </cell>
+          <cell r="E663">
+            <v>3587.2900390625</v>
+          </cell>
+          <cell r="F663">
+            <v>3.5872900390625002</v>
+          </cell>
+        </row>
+        <row r="664">
+          <cell r="A664">
+            <v>44881</v>
+          </cell>
+          <cell r="B664">
+            <v>3581.68994140625</v>
+          </cell>
+          <cell r="C664">
+            <v>3593.52001953125</v>
+          </cell>
+          <cell r="D664">
+            <v>3535.050048828125</v>
+          </cell>
+          <cell r="E664">
+            <v>3538.889892578125</v>
+          </cell>
+          <cell r="F664">
+            <v>3.5388898925781249</v>
+          </cell>
+        </row>
+        <row r="665">
+          <cell r="A665">
+            <v>44882</v>
+          </cell>
+          <cell r="B665">
+            <v>3524.179931640625</v>
+          </cell>
+          <cell r="C665">
+            <v>3524.179931640625</v>
+          </cell>
+          <cell r="D665">
+            <v>3471.820068359375</v>
+          </cell>
+          <cell r="E665">
+            <v>3523.830078125</v>
+          </cell>
+          <cell r="F665">
+            <v>3.523830078125</v>
+          </cell>
+        </row>
+        <row r="666">
+          <cell r="A666">
+            <v>44883</v>
+          </cell>
+          <cell r="B666">
+            <v>3533.02001953125</v>
+          </cell>
+          <cell r="C666">
+            <v>3562.85009765625</v>
+          </cell>
+          <cell r="D666">
+            <v>3518.969970703125</v>
+          </cell>
+          <cell r="E666">
+            <v>3521.929931640625</v>
+          </cell>
+          <cell r="F666">
+            <v>3.5219299316406252</v>
+          </cell>
+        </row>
+        <row r="667">
+          <cell r="A667">
+            <v>44886</v>
+          </cell>
+          <cell r="B667">
+            <v>3492.5</v>
+          </cell>
+          <cell r="C667">
+            <v>3517.469970703125</v>
+          </cell>
+          <cell r="D667">
+            <v>3472.719970703125</v>
+          </cell>
+          <cell r="E667">
+            <v>3515.72998046875</v>
+          </cell>
+          <cell r="F667">
+            <v>3.5157299804687501</v>
+          </cell>
+        </row>
+        <row r="668">
+          <cell r="A668">
+            <v>44887</v>
+          </cell>
+          <cell r="B668">
+            <v>3503.659912109375</v>
+          </cell>
+          <cell r="C668">
+            <v>3509.800048828125</v>
+          </cell>
+          <cell r="D668">
+            <v>3448.469970703125</v>
+          </cell>
+          <cell r="E668">
+            <v>3461.9599609375</v>
+          </cell>
+          <cell r="F668">
+            <v>3.4619599609375</v>
+          </cell>
+        </row>
+        <row r="669">
+          <cell r="A669">
+            <v>44888</v>
+          </cell>
+          <cell r="B669">
+            <v>3448.550048828125</v>
+          </cell>
+          <cell r="C669">
+            <v>3465.469970703125</v>
+          </cell>
+          <cell r="D669">
+            <v>3404.7099609375</v>
+          </cell>
+          <cell r="E669">
+            <v>3446.010009765625</v>
+          </cell>
+          <cell r="F669">
+            <v>3.446010009765625</v>
+          </cell>
+        </row>
+        <row r="670">
+          <cell r="A670">
+            <v>44889</v>
+          </cell>
+          <cell r="B670">
+            <v>3463.010009765625</v>
+          </cell>
+          <cell r="C670">
+            <v>3475.219970703125</v>
+          </cell>
+          <cell r="D670">
+            <v>3429.199951171875</v>
+          </cell>
+          <cell r="E670">
+            <v>3439.31005859375</v>
+          </cell>
+          <cell r="F670">
+            <v>3.4393100585937502</v>
+          </cell>
+        </row>
+        <row r="671">
+          <cell r="A671">
+            <v>44890</v>
+          </cell>
+          <cell r="B671">
+            <v>3427.909912109375</v>
+          </cell>
+          <cell r="C671">
+            <v>3438.139892578125</v>
+          </cell>
+          <cell r="D671">
+            <v>3410.330078125</v>
+          </cell>
+          <cell r="E671">
+            <v>3413.85009765625</v>
+          </cell>
+          <cell r="F671">
+            <v>3.4138500976562498</v>
+          </cell>
+        </row>
+        <row r="672">
+          <cell r="A672">
+            <v>44893</v>
+          </cell>
+          <cell r="B672">
+            <v>3349.239990234375</v>
+          </cell>
+          <cell r="C672">
+            <v>3392.52001953125</v>
+          </cell>
+          <cell r="D672">
+            <v>3340.739990234375</v>
+          </cell>
+          <cell r="E672">
+            <v>3389.6201171875</v>
+          </cell>
+          <cell r="F672">
+            <v>3.3896201171875</v>
+          </cell>
+        </row>
+        <row r="673">
+          <cell r="A673">
+            <v>44894</v>
+          </cell>
+          <cell r="B673">
+            <v>3408.320068359375</v>
+          </cell>
+          <cell r="C673">
+            <v>3474.080078125</v>
+          </cell>
+          <cell r="D673">
+            <v>3402.820068359375</v>
+          </cell>
+          <cell r="E673">
+            <v>3466.5400390625</v>
+          </cell>
+          <cell r="F673">
+            <v>3.4665400390625001</v>
+          </cell>
+        </row>
+        <row r="674">
+          <cell r="A674">
+            <v>44895</v>
+          </cell>
+          <cell r="B674">
+            <v>3459.139892578125</v>
+          </cell>
+          <cell r="C674">
+            <v>3485.0400390625</v>
+          </cell>
+          <cell r="D674">
+            <v>3448.510009765625</v>
+          </cell>
+          <cell r="E674">
+            <v>3480.2900390625</v>
+          </cell>
+          <cell r="F674">
+            <v>3.4802900390625</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
@@ -14879,7 +15090,7 @@
             <v>45.12</v>
           </cell>
           <cell r="D3">
-            <v>0</v>
+            <v>45.12</v>
           </cell>
         </row>
         <row r="4">
@@ -14890,7 +15101,7 @@
             <v>44.81</v>
           </cell>
           <cell r="D4">
-            <v>0</v>
+            <v>44.965000000000003</v>
           </cell>
         </row>
         <row r="5">
@@ -14901,7 +15112,7 @@
             <v>45.06</v>
           </cell>
           <cell r="D5">
-            <v>0</v>
+            <v>44.99666666666667</v>
           </cell>
         </row>
         <row r="6">
@@ -14912,7 +15123,7 @@
             <v>44.18</v>
           </cell>
           <cell r="D6">
-            <v>0</v>
+            <v>44.792500000000004</v>
           </cell>
         </row>
         <row r="7">
@@ -14923,7 +15134,7 @@
             <v>43.03</v>
           </cell>
           <cell r="D7">
-            <v>0</v>
+            <v>44.440000000000005</v>
           </cell>
         </row>
         <row r="8">
@@ -14934,7 +15145,7 @@
             <v>43.34</v>
           </cell>
           <cell r="D8">
-            <v>0</v>
+            <v>44.256666666666668</v>
           </cell>
         </row>
         <row r="9">
@@ -14945,7 +15156,7 @@
             <v>44.23</v>
           </cell>
           <cell r="D9">
-            <v>0</v>
+            <v>44.252857142857145</v>
           </cell>
         </row>
         <row r="10">
@@ -14956,7 +15167,7 @@
             <v>43.99</v>
           </cell>
           <cell r="D10">
-            <v>0</v>
+            <v>44.220000000000006</v>
           </cell>
         </row>
         <row r="11">
@@ -14967,7 +15178,7 @@
             <v>43.87</v>
           </cell>
           <cell r="D11">
-            <v>0</v>
+            <v>44.181111111111115</v>
           </cell>
         </row>
         <row r="12">
@@ -14978,7 +15189,7 @@
             <v>45.78</v>
           </cell>
           <cell r="D12">
-            <v>0</v>
+            <v>44.341000000000008</v>
           </cell>
         </row>
         <row r="13">
@@ -14989,7 +15200,7 @@
             <v>45.63</v>
           </cell>
           <cell r="D13">
-            <v>0</v>
+            <v>44.458181818181828</v>
           </cell>
         </row>
         <row r="14">
@@ -15000,7 +15211,7 @@
             <v>45.89</v>
           </cell>
           <cell r="D14">
-            <v>0</v>
+            <v>44.577500000000008</v>
           </cell>
         </row>
         <row r="15">
@@ -15011,7 +15222,7 @@
             <v>46.21</v>
           </cell>
           <cell r="D15">
-            <v>0</v>
+            <v>44.703076923076928</v>
           </cell>
         </row>
         <row r="16">
@@ -15022,7 +15233,7 @@
             <v>46.9</v>
           </cell>
           <cell r="D16">
-            <v>0</v>
+            <v>44.860000000000007</v>
           </cell>
         </row>
         <row r="17">
@@ -15033,7 +15244,7 @@
             <v>46.48</v>
           </cell>
           <cell r="D17">
-            <v>0</v>
+            <v>44.968000000000004</v>
           </cell>
         </row>
         <row r="18">
@@ -15044,7 +15255,7 @@
             <v>46.74</v>
           </cell>
           <cell r="D18">
-            <v>0</v>
+            <v>45.078750000000007</v>
           </cell>
         </row>
         <row r="19">
@@ -15055,7 +15266,7 @@
             <v>47.38</v>
           </cell>
           <cell r="D19">
-            <v>0</v>
+            <v>45.214117647058828</v>
           </cell>
         </row>
         <row r="20">
@@ -15066,7 +15277,7 @@
             <v>47.58</v>
           </cell>
           <cell r="D20">
-            <v>0</v>
+            <v>45.345555555555563</v>
           </cell>
         </row>
         <row r="21">
@@ -15077,7 +15288,7 @@
             <v>47.64</v>
           </cell>
           <cell r="D21">
-            <v>0</v>
+            <v>45.46631578947369</v>
           </cell>
         </row>
         <row r="22">
@@ -15088,7 +15299,7 @@
             <v>37.39</v>
           </cell>
           <cell r="D22">
-            <v>0</v>
+            <v>45.062500000000007</v>
           </cell>
         </row>
         <row r="23">
@@ -15099,7 +15310,7 @@
             <v>36.26</v>
           </cell>
           <cell r="D23">
-            <v>0</v>
+            <v>44.643333333333338</v>
           </cell>
         </row>
         <row r="24">
@@ -15110,7 +15321,7 @@
             <v>36.409999999999997</v>
           </cell>
           <cell r="D24">
-            <v>0</v>
+            <v>44.269090909090913</v>
           </cell>
         </row>
         <row r="25">
@@ -15121,7 +15332,7 @@
             <v>36.44</v>
           </cell>
           <cell r="D25">
-            <v>0</v>
+            <v>43.928695652173921</v>
           </cell>
         </row>
         <row r="26">
@@ -15132,7 +15343,7 @@
             <v>36.700000000000003</v>
           </cell>
           <cell r="D26">
-            <v>0</v>
+            <v>43.627500000000005</v>
           </cell>
         </row>
         <row r="27">
@@ -15143,7 +15354,7 @@
             <v>36.25</v>
           </cell>
           <cell r="D27">
-            <v>0</v>
+            <v>43.332400000000007</v>
           </cell>
         </row>
         <row r="28">
@@ -15154,7 +15365,7 @@
             <v>36.99</v>
           </cell>
           <cell r="D28">
-            <v>0</v>
+            <v>43.088461538461544</v>
           </cell>
         </row>
         <row r="29">
@@ -15165,7 +15376,7 @@
             <v>38.049999999999997</v>
           </cell>
           <cell r="D29">
-            <v>0</v>
+            <v>42.901851851851859</v>
           </cell>
         </row>
         <row r="30">
@@ -15176,7 +15387,7 @@
             <v>37.979999999999997</v>
           </cell>
           <cell r="D30">
-            <v>0</v>
+            <v>42.726071428571437</v>
           </cell>
         </row>
         <row r="31">
@@ -15187,7 +15398,7 @@
             <v>38.200000000000003</v>
           </cell>
           <cell r="D31">
-            <v>0</v>
+            <v>42.570000000000007</v>
           </cell>
         </row>
         <row r="32">
@@ -15198,7 +15409,7 @@
             <v>38.520000000000003</v>
           </cell>
           <cell r="D32">
-            <v>0</v>
+            <v>42.435000000000009</v>
           </cell>
         </row>
         <row r="33">
@@ -15209,7 +15420,7 @@
             <v>38.200000000000003</v>
           </cell>
           <cell r="D33">
-            <v>0</v>
+            <v>42.298387096774199</v>
           </cell>
         </row>
         <row r="34">
@@ -15220,7 +15431,7 @@
             <v>38.479999999999997</v>
           </cell>
           <cell r="D34">
-            <v>0</v>
+            <v>42.179062500000008</v>
           </cell>
         </row>
         <row r="35">
@@ -15231,7 +15442,7 @@
             <v>39.35</v>
           </cell>
           <cell r="D35">
-            <v>0</v>
+            <v>42.093333333333341</v>
           </cell>
         </row>
         <row r="36">
@@ -15242,7 +15453,7 @@
             <v>39.090000000000003</v>
           </cell>
           <cell r="D36">
-            <v>0</v>
+            <v>42.005000000000003</v>
           </cell>
         </row>
         <row r="37">
@@ -15253,7 +15464,7 @@
             <v>39.36</v>
           </cell>
           <cell r="D37">
-            <v>0</v>
+            <v>41.929428571428573</v>
           </cell>
         </row>
         <row r="38">
@@ -15264,7 +15475,7 @@
             <v>39.31</v>
           </cell>
           <cell r="D38">
-            <v>0</v>
+            <v>41.856666666666662</v>
           </cell>
         </row>
         <row r="39">
@@ -15275,7 +15486,7 @@
             <v>39.85</v>
           </cell>
           <cell r="D39">
-            <v>0</v>
+            <v>41.802432432432425</v>
           </cell>
         </row>
         <row r="40">
@@ -15286,7 +15497,7 @@
             <v>39.86</v>
           </cell>
           <cell r="D40">
-            <v>0</v>
+            <v>41.751315789473679</v>
           </cell>
         </row>
         <row r="41">
@@ -15297,7 +15508,7 @@
             <v>39.36</v>
           </cell>
           <cell r="D41">
-            <v>0</v>
+            <v>41.689999999999991</v>
           </cell>
         </row>
         <row r="42">
@@ -15308,7 +15519,7 @@
             <v>38.97</v>
           </cell>
           <cell r="D42">
-            <v>0</v>
+            <v>41.621999999999993</v>
           </cell>
         </row>
         <row r="43">
@@ -15319,7 +15530,7 @@
             <v>39.409999999999997</v>
           </cell>
           <cell r="D43">
-            <v>0</v>
+            <v>41.5680487804878</v>
           </cell>
         </row>
         <row r="44">
@@ -15330,7 +15541,7 @@
             <v>39.229999999999997</v>
           </cell>
           <cell r="D44">
-            <v>0</v>
+            <v>41.512380952380944</v>
           </cell>
         </row>
         <row r="45">
@@ -15341,7 +15552,7 @@
             <v>39.01</v>
           </cell>
           <cell r="D45">
-            <v>0</v>
+            <v>41.454186046511623</v>
           </cell>
         </row>
         <row r="46">
@@ -15352,7 +15563,7 @@
             <v>39.04</v>
           </cell>
           <cell r="D46">
-            <v>0</v>
+            <v>41.399318181818174</v>
           </cell>
         </row>
         <row r="47">
@@ -15363,7 +15574,7 @@
             <v>39.65</v>
           </cell>
           <cell r="D47">
-            <v>0</v>
+            <v>41.36044444444444</v>
           </cell>
         </row>
         <row r="48">
@@ -15374,7 +15585,7 @@
             <v>39.61</v>
           </cell>
           <cell r="D48">
-            <v>0</v>
+            <v>41.322391304347818</v>
           </cell>
         </row>
         <row r="49">
@@ -15385,7 +15596,7 @@
             <v>39.58</v>
           </cell>
           <cell r="D49">
-            <v>0</v>
+            <v>41.285319148936161</v>
           </cell>
         </row>
         <row r="50">
@@ -15396,7 +15607,7 @@
             <v>38.270000000000003</v>
           </cell>
           <cell r="D50">
-            <v>0</v>
+            <v>41.222499999999989</v>
           </cell>
         </row>
         <row r="51">
@@ -15407,7 +15618,7 @@
             <v>38.880000000000003</v>
           </cell>
           <cell r="D51">
-            <v>0</v>
+            <v>41.174693877551015</v>
           </cell>
         </row>
         <row r="52">
@@ -15418,7 +15629,7 @@
             <v>39.4</v>
           </cell>
           <cell r="D52">
-            <v>0</v>
+            <v>41.139199999999988</v>
           </cell>
         </row>
         <row r="53">
@@ -15429,7 +15640,7 @@
             <v>39.49</v>
           </cell>
           <cell r="D53">
-            <v>0</v>
+            <v>41.106862745098027</v>
           </cell>
         </row>
         <row r="54">
@@ -15440,7 +15651,7 @@
             <v>39.64</v>
           </cell>
           <cell r="D54">
-            <v>0</v>
+            <v>41.078653846153834</v>
           </cell>
         </row>
         <row r="55">
@@ -15451,7 +15662,7 @@
             <v>40.22</v>
           </cell>
           <cell r="D55">
-            <v>0</v>
+            <v>41.062452830188661</v>
           </cell>
         </row>
         <row r="56">
@@ -15462,7 +15673,7 @@
             <v>40.15</v>
           </cell>
           <cell r="D56">
-            <v>0</v>
+            <v>41.045555555555538</v>
           </cell>
         </row>
         <row r="57">
@@ -15473,7 +15684,7 @@
             <v>40.64</v>
           </cell>
           <cell r="D57">
-            <v>0</v>
+            <v>41.038181818181798</v>
           </cell>
         </row>
         <row r="58">
@@ -15484,7 +15695,7 @@
             <v>41.08</v>
           </cell>
           <cell r="D58">
-            <v>0</v>
+            <v>41.038928571428549</v>
           </cell>
         </row>
         <row r="59">
@@ -15495,7 +15706,7 @@
             <v>40.799999999999997</v>
           </cell>
           <cell r="D59">
-            <v>0</v>
+            <v>41.034736842105247</v>
           </cell>
         </row>
         <row r="60">
@@ -15506,7 +15717,7 @@
             <v>41.45</v>
           </cell>
           <cell r="D60">
-            <v>0</v>
+            <v>41.041896551724122</v>
           </cell>
         </row>
         <row r="61">
@@ -15517,7 +15728,7 @@
             <v>41.29</v>
           </cell>
           <cell r="D61">
-            <v>0</v>
+            <v>41.046101694915237</v>
           </cell>
         </row>
         <row r="62">
@@ -15528,7 +15739,7 @@
             <v>40.03</v>
           </cell>
           <cell r="D62">
-            <v>0</v>
+            <v>41.029166666666654</v>
           </cell>
         </row>
         <row r="63">
@@ -15539,7 +15750,7 @@
             <v>40.21</v>
           </cell>
           <cell r="D63">
-            <v>0</v>
+            <v>41.015737704918017</v>
           </cell>
         </row>
         <row r="64">
@@ -15550,7 +15761,7 @@
             <v>39.89</v>
           </cell>
           <cell r="D64">
-            <v>0</v>
+            <v>40.997580645161271</v>
           </cell>
         </row>
         <row r="65">
@@ -15561,7 +15772,7 @@
             <v>40.98</v>
           </cell>
           <cell r="D65">
-            <v>0</v>
+            <v>40.997301587301571</v>
           </cell>
         </row>
         <row r="66">
@@ -15572,7 +15783,7 @@
             <v>41.06</v>
           </cell>
           <cell r="D66">
-            <v>0</v>
+            <v>40.998281249999984</v>
           </cell>
         </row>
         <row r="67">
@@ -15583,7 +15794,7 @@
             <v>40.729999999999997</v>
           </cell>
           <cell r="D67">
-            <v>0</v>
+            <v>40.994153846153829</v>
           </cell>
         </row>
         <row r="68">
@@ -15594,7 +15805,7 @@
             <v>41.78</v>
           </cell>
           <cell r="D68">
-            <v>0</v>
+            <v>41.006060606060593</v>
           </cell>
         </row>
         <row r="69">
@@ -15605,7 +15816,7 @@
             <v>41.7</v>
           </cell>
           <cell r="D69">
-            <v>0</v>
+            <v>41.01641791044775</v>
           </cell>
         </row>
         <row r="70">
@@ -15616,7 +15827,7 @@
             <v>41.28</v>
           </cell>
           <cell r="D70">
-            <v>0</v>
+            <v>41.020294117647047</v>
           </cell>
         </row>
         <row r="71">
@@ -15627,7 +15838,7 @@
             <v>41.54</v>
           </cell>
           <cell r="D71">
-            <v>0</v>
+            <v>41.027826086956509</v>
           </cell>
         </row>
         <row r="72">
@@ -15638,7 +15849,7 @@
             <v>40.58</v>
           </cell>
           <cell r="D72">
-            <v>0</v>
+            <v>41.021428571428558</v>
           </cell>
         </row>
         <row r="73">
@@ -15649,7 +15860,7 @@
             <v>40.869999999999997</v>
           </cell>
           <cell r="D73">
-            <v>0</v>
+            <v>41.019295774647873</v>
           </cell>
         </row>
         <row r="74">
@@ -15660,7 +15871,7 @@
             <v>40.89</v>
           </cell>
           <cell r="D74">
-            <v>0</v>
+            <v>41.017499999999984</v>
           </cell>
         </row>
         <row r="75">
@@ -15671,7 +15882,7 @@
             <v>41.72</v>
           </cell>
           <cell r="D75">
-            <v>0</v>
+            <v>41.027123287671216</v>
           </cell>
         </row>
         <row r="76">
@@ -15682,7 +15893,7 @@
             <v>41.69</v>
           </cell>
           <cell r="D76">
-            <v>0</v>
+            <v>41.036081081081065</v>
           </cell>
         </row>
         <row r="77">
@@ -15693,7 +15904,7 @@
             <v>40.99</v>
           </cell>
           <cell r="D77">
-            <v>0</v>
+            <v>41.035466666666643</v>
           </cell>
         </row>
         <row r="78">
@@ -15701,10 +15912,10 @@
             <v>44403</v>
           </cell>
           <cell r="C78">
-            <v>39.900001525878913</v>
+            <v>39.900001525878906</v>
           </cell>
           <cell r="D78">
-            <v>0</v>
+            <v>41.020526335866805</v>
           </cell>
         </row>
         <row r="79">
@@ -15712,10 +15923,10 @@
             <v>44404</v>
           </cell>
           <cell r="C79">
-            <v>38.209999084472663</v>
+            <v>38.209999084472656</v>
           </cell>
           <cell r="D79">
-            <v>0</v>
+            <v>40.984025981952598</v>
           </cell>
         </row>
         <row r="80">
@@ -15723,10 +15934,10 @@
             <v>44405</v>
           </cell>
           <cell r="C80">
-            <v>38.619998931884773</v>
+            <v>38.619998931884766</v>
           </cell>
           <cell r="D80">
-            <v>0</v>
+            <v>40.953717942849167</v>
           </cell>
         </row>
         <row r="81">
@@ -15734,10 +15945,10 @@
             <v>44406</v>
           </cell>
           <cell r="C81">
-            <v>40.119998931884773</v>
+            <v>40.119998931884766</v>
           </cell>
           <cell r="D81">
-            <v>0</v>
+            <v>40.943164537647085</v>
           </cell>
         </row>
         <row r="82">
@@ -15748,7 +15959,7 @@
             <v>39.930000305175781</v>
           </cell>
           <cell r="D82">
-            <v>0</v>
+            <v>40.930499984741189</v>
           </cell>
         </row>
         <row r="83">
@@ -15759,7 +15970,7 @@
             <v>40.659999847412109</v>
           </cell>
           <cell r="D83">
-            <v>0</v>
+            <v>40.927160476872935</v>
           </cell>
         </row>
         <row r="84">
@@ -15770,7 +15981,7 @@
             <v>40.5</v>
           </cell>
           <cell r="D84">
-            <v>0</v>
+            <v>40.921951202764724</v>
           </cell>
         </row>
         <row r="85">
@@ -15781,7 +15992,7 @@
             <v>41.509998321533203</v>
           </cell>
           <cell r="D85">
-            <v>0</v>
+            <v>40.929036107810127</v>
           </cell>
         </row>
         <row r="86">
@@ -15789,10 +16000,10 @@
             <v>44413</v>
           </cell>
           <cell r="C86">
-            <v>41.130001068115227</v>
+            <v>41.130001068115234</v>
           </cell>
           <cell r="D86">
-            <v>0</v>
+            <v>40.931428547813759</v>
           </cell>
         </row>
         <row r="87">
@@ -15803,7 +16014,7 @@
             <v>40.799999237060547</v>
           </cell>
           <cell r="D87">
-            <v>0</v>
+            <v>40.92988232062843</v>
           </cell>
         </row>
         <row r="88">
@@ -15814,7 +16025,7 @@
             <v>40.799999237060547</v>
           </cell>
           <cell r="D88">
-            <v>0</v>
+            <v>40.928372052214847</v>
           </cell>
         </row>
         <row r="89">
@@ -15822,10 +16033,10 @@
             <v>44418</v>
           </cell>
           <cell r="C89">
-            <v>40.869998931884773</v>
+            <v>40.869998931884766</v>
           </cell>
           <cell r="D89">
-            <v>0</v>
+            <v>40.927701096808754</v>
           </cell>
         </row>
         <row r="90">
@@ -15836,7 +16047,7 @@
             <v>40.610000610351563</v>
           </cell>
           <cell r="D90">
-            <v>0</v>
+            <v>40.924090864008107</v>
           </cell>
         </row>
         <row r="91">
@@ -15847,7 +16058,7 @@
             <v>40.340000152587891</v>
           </cell>
           <cell r="D91">
-            <v>0</v>
+            <v>40.917528047025854</v>
           </cell>
         </row>
         <row r="92">
@@ -15858,7 +16069,7 @@
             <v>39.740001678466797</v>
           </cell>
           <cell r="D92">
-            <v>0</v>
+            <v>40.904444420708536</v>
           </cell>
         </row>
         <row r="93">
@@ -15866,10 +16077,10 @@
             <v>44424</v>
           </cell>
           <cell r="C93">
-            <v>39.290000915527337</v>
+            <v>39.290000915527344</v>
           </cell>
           <cell r="D93">
-            <v>0</v>
+            <v>40.886703283288959</v>
           </cell>
         </row>
         <row r="94">
@@ -15880,7 +16091,7 @@
             <v>38.419998168945313</v>
           </cell>
           <cell r="D94">
-            <v>0</v>
+            <v>40.859891271176529</v>
           </cell>
         </row>
         <row r="95">
@@ -15891,7 +16102,7 @@
             <v>38.669998168945313</v>
           </cell>
           <cell r="D95">
-            <v>0</v>
+            <v>40.836344033518131</v>
           </cell>
         </row>
         <row r="96">
@@ -15902,7 +16113,7 @@
             <v>38.909999847412109</v>
           </cell>
           <cell r="D96">
-            <v>0</v>
+            <v>40.815851010261682</v>
           </cell>
         </row>
         <row r="97">
@@ -15913,7 +16124,7 @@
             <v>38.139999389648438</v>
           </cell>
           <cell r="D97">
-            <v>0</v>
+            <v>40.787684151097331</v>
           </cell>
         </row>
         <row r="98">
@@ -15921,10 +16132,10 @@
             <v>44431</v>
           </cell>
           <cell r="C98">
-            <v>39.130001068115227</v>
+            <v>39.130001068115234</v>
           </cell>
           <cell r="D98">
-            <v>0</v>
+            <v>40.770416618982935</v>
           </cell>
         </row>
         <row r="99">
@@ -15935,7 +16146,7 @@
             <v>39.450000762939453</v>
           </cell>
           <cell r="D99">
-            <v>0</v>
+            <v>40.756804084384548</v>
           </cell>
         </row>
         <row r="100">
@@ -15946,7 +16157,7 @@
             <v>39.549999237060547</v>
           </cell>
           <cell r="D100">
-            <v>0</v>
+            <v>40.744489749207773</v>
           </cell>
         </row>
         <row r="101">
@@ -15957,7 +16168,7 @@
             <v>38.639999389648438</v>
           </cell>
           <cell r="D101">
-            <v>0</v>
+            <v>40.723232270828383</v>
           </cell>
         </row>
         <row r="102">
@@ -15965,10 +16176,10 @@
             <v>44435</v>
           </cell>
           <cell r="C102">
-            <v>38.630001068115227</v>
+            <v>38.630001068115234</v>
           </cell>
           <cell r="D102">
-            <v>0</v>
+            <v>40.702299958801255</v>
           </cell>
         </row>
         <row r="103">
@@ -15979,7 +16190,7 @@
             <v>38.479999542236328</v>
           </cell>
           <cell r="D103">
-            <v>0</v>
+            <v>40.680296984379815</v>
           </cell>
         </row>
         <row r="104">
@@ -15990,7 +16201,7 @@
             <v>38.069999694824219</v>
           </cell>
           <cell r="D104">
-            <v>0</v>
+            <v>40.654705834482208</v>
           </cell>
         </row>
         <row r="105">
@@ -16001,7 +16212,7 @@
             <v>35.020000457763672</v>
           </cell>
           <cell r="D105">
-            <v>0</v>
+            <v>40.599999957038342</v>
           </cell>
         </row>
         <row r="106">
@@ -16012,7 +16223,7 @@
             <v>34.639999389648438</v>
           </cell>
           <cell r="D106">
-            <v>0</v>
+            <v>40.542692259274979</v>
           </cell>
         </row>
         <row r="107">
@@ -16020,10 +16231,10 @@
             <v>44442</v>
           </cell>
           <cell r="C107">
-            <v>34.220001220703118</v>
+            <v>34.220001220703125</v>
           </cell>
           <cell r="D107">
-            <v>0</v>
+            <v>40.482476154145722</v>
           </cell>
         </row>
         <row r="108">
@@ -16031,10 +16242,10 @@
             <v>44445</v>
           </cell>
           <cell r="C108">
-            <v>35.540000915527337</v>
+            <v>35.540000915527344</v>
           </cell>
           <cell r="D108">
-            <v>0</v>
+            <v>40.435849029253099</v>
           </cell>
         </row>
         <row r="109">
@@ -16042,10 +16253,10 @@
             <v>44446</v>
           </cell>
           <cell r="C109">
-            <v>35.720001220703118</v>
+            <v>35.720001220703125</v>
           </cell>
           <cell r="D109">
-            <v>0</v>
+            <v>40.391775685247957</v>
           </cell>
         </row>
         <row r="110">
@@ -16056,7 +16267,7 @@
             <v>35.509998321533203</v>
           </cell>
           <cell r="D110">
-            <v>0</v>
+            <v>40.346574042991335</v>
           </cell>
         </row>
         <row r="111">
@@ -16067,7 +16278,7 @@
             <v>35.5</v>
           </cell>
           <cell r="D111">
-            <v>0</v>
+            <v>40.302110060945544</v>
           </cell>
         </row>
         <row r="112">
@@ -16078,7 +16289,7 @@
             <v>35.700000762939453</v>
           </cell>
           <cell r="D112">
-            <v>0</v>
+            <v>40.260272703690944</v>
           </cell>
         </row>
         <row r="113">
@@ -16089,7 +16300,7 @@
             <v>35.299999237060547</v>
           </cell>
           <cell r="D113">
-            <v>0</v>
+            <v>40.215585555342926</v>
           </cell>
         </row>
         <row r="114">
@@ -16097,10 +16308,10 @@
             <v>44453</v>
           </cell>
           <cell r="C114">
-            <v>35.470001220703118</v>
+            <v>35.470001220703125</v>
           </cell>
           <cell r="D114">
-            <v>0</v>
+            <v>40.173214266640784</v>
           </cell>
         </row>
         <row r="115">
@@ -16108,10 +16319,10 @@
             <v>44454</v>
           </cell>
           <cell r="C115">
-            <v>35.130001068115227</v>
+            <v>35.130001068115234</v>
           </cell>
           <cell r="D115">
-            <v>0</v>
+            <v>40.128584061344093</v>
           </cell>
         </row>
         <row r="116">
@@ -16122,7 +16333,7 @@
             <v>34.389999389648438</v>
           </cell>
           <cell r="D116">
-            <v>0</v>
+            <v>40.078245599311678</v>
           </cell>
         </row>
         <row r="117">
@@ -16133,7 +16344,7 @@
             <v>34.819999694824219</v>
           </cell>
           <cell r="D117">
-            <v>0</v>
+            <v>40.032521721881352</v>
           </cell>
         </row>
         <row r="118">
@@ -16141,10 +16352,10 @@
             <v>44461</v>
           </cell>
           <cell r="C118">
-            <v>34.560001373291023</v>
+            <v>34.560001373291016</v>
           </cell>
           <cell r="D118">
-            <v>0</v>
+            <v>39.985344822324535</v>
           </cell>
         </row>
         <row r="119">
@@ -16155,7 +16366,7 @@
             <v>34.729999542236328</v>
           </cell>
           <cell r="D119">
-            <v>0</v>
+            <v>39.940427341298147</v>
           </cell>
         </row>
         <row r="120">
@@ -16166,7 +16377,7 @@
             <v>34.819999694824219</v>
           </cell>
           <cell r="D120">
-            <v>0</v>
+            <v>39.89703388666701</v>
           </cell>
         </row>
         <row r="121">
@@ -16177,7 +16388,7 @@
             <v>35.090000152587891</v>
           </cell>
           <cell r="D121">
-            <v>0</v>
+            <v>39.856638645204157</v>
           </cell>
         </row>
         <row r="122">
@@ -16188,7 +16399,7 @@
             <v>34.840000152587891</v>
           </cell>
           <cell r="D122">
-            <v>0</v>
+            <v>39.814833324432357</v>
           </cell>
         </row>
         <row r="123">
@@ -16199,7 +16410,7 @@
             <v>34.360000610351563</v>
           </cell>
           <cell r="D123">
-            <v>0</v>
+            <v>39.769752062332515</v>
           </cell>
         </row>
         <row r="124">
@@ -16210,7 +16421,7 @@
             <v>35.020000457763672</v>
           </cell>
           <cell r="D124">
-            <v>0</v>
+            <v>39.730819672131133</v>
           </cell>
         </row>
         <row r="125">
@@ -16222,7 +16433,7 @@
             <v>35.27999878</v>
           </cell>
           <cell r="D125">
-            <v>0</v>
+            <v>39.694634136422749</v>
           </cell>
         </row>
         <row r="126">
@@ -16234,7 +16445,7 @@
             <v>35.009998320000001</v>
           </cell>
           <cell r="D126">
-            <v>0</v>
+            <v>39.656854815322561</v>
           </cell>
         </row>
         <row r="127">
@@ -16246,7 +16457,7 @@
             <v>34.52999878</v>
           </cell>
           <cell r="D127">
-            <v>0</v>
+            <v>39.615839967039982</v>
           </cell>
         </row>
         <row r="128">
@@ -16258,7 +16469,7 @@
             <v>35.150001529999997</v>
           </cell>
           <cell r="D128">
-            <v>0</v>
+            <v>39.58039680484125</v>
           </cell>
         </row>
         <row r="129">
@@ -16270,7 +16481,7 @@
             <v>35.13999939</v>
           </cell>
           <cell r="D129">
-            <v>0</v>
+            <v>39.545433045669277</v>
           </cell>
         </row>
         <row r="130">
@@ -16282,7 +16493,7 @@
             <v>35.619998930000001</v>
           </cell>
           <cell r="D130">
-            <v>0</v>
+            <v>39.514765591640611</v>
           </cell>
         </row>
         <row r="131">
@@ -16294,7 +16505,7 @@
             <v>35.540000919999997</v>
           </cell>
           <cell r="D131">
-            <v>0</v>
+            <v>39.483953462403086</v>
           </cell>
         </row>
         <row r="132">
@@ -16306,7 +16517,7 @@
             <v>35.770000459999999</v>
           </cell>
           <cell r="D132">
-            <v>0</v>
+            <v>39.455384593153838</v>
           </cell>
         </row>
         <row r="133">
@@ -16318,7 +16529,7 @@
             <v>35.52999878</v>
           </cell>
           <cell r="D133">
-            <v>0</v>
+            <v>39.425419815954186</v>
           </cell>
         </row>
         <row r="134">
@@ -16330,7 +16541,7 @@
             <v>35.619998930000001</v>
           </cell>
           <cell r="D134">
-            <v>0</v>
+            <v>39.396590869848474</v>
           </cell>
         </row>
         <row r="135">
@@ -16342,7 +16553,7 @@
             <v>36.009998320000001</v>
           </cell>
           <cell r="D135">
-            <v>0</v>
+            <v>39.371127767969917</v>
           </cell>
         </row>
         <row r="136">
@@ -16354,7 +16565,7 @@
             <v>36.319999690000003</v>
           </cell>
           <cell r="D136">
-            <v>0</v>
+            <v>39.348358155447755</v>
           </cell>
         </row>
         <row r="137">
@@ -16366,7 +16577,7 @@
             <v>36.299999239999998</v>
           </cell>
           <cell r="D137">
-            <v>0</v>
+            <v>39.325777719037028</v>
           </cell>
         </row>
         <row r="138">
@@ -16378,7 +16589,7 @@
             <v>35.990001679999999</v>
           </cell>
           <cell r="D138">
-            <v>0</v>
+            <v>39.30124995404411</v>
           </cell>
         </row>
         <row r="139">
@@ -16389,7 +16600,7 @@
             <v>35.729999540000001</v>
           </cell>
           <cell r="D139">
-            <v>0</v>
+            <v>39.275182432773718</v>
           </cell>
         </row>
         <row r="140">
@@ -16400,7 +16611,7 @@
             <v>36.299999239999998</v>
           </cell>
           <cell r="D140">
-            <v>0</v>
+            <v>39.253623134275358</v>
           </cell>
         </row>
         <row r="141">
@@ -16412,7 +16623,7 @@
             <v>34.930000309999997</v>
           </cell>
           <cell r="D141">
-            <v>0</v>
+            <v>39.222517934100708</v>
           </cell>
         </row>
         <row r="142">
@@ -16424,7 +16635,7 @@
             <v>34.909999849999998</v>
           </cell>
           <cell r="D142">
-            <v>0</v>
+            <v>39.191714233499987</v>
           </cell>
         </row>
         <row r="143">
@@ -16436,7 +16647,7 @@
             <v>34.630001069999999</v>
           </cell>
           <cell r="D143">
-            <v>0</v>
+            <v>39.159361657872324</v>
           </cell>
         </row>
         <row r="144">
@@ -16448,7 +16659,7 @@
             <v>35.090000150000002</v>
           </cell>
           <cell r="D144">
-            <v>0</v>
+            <v>39.130704182464775</v>
           </cell>
         </row>
         <row r="145">
@@ -16460,7 +16671,7 @@
             <v>34.900001529999997</v>
           </cell>
           <cell r="D145">
-            <v>0</v>
+            <v>39.101118849230758</v>
           </cell>
         </row>
         <row r="146">
@@ -16472,7 +16683,7 @@
             <v>35.040000919999997</v>
           </cell>
           <cell r="D146">
-            <v>0</v>
+            <v>39.072916641388879</v>
           </cell>
         </row>
         <row r="147">
@@ -16484,7 +16695,7 @@
             <v>35.22000122</v>
           </cell>
           <cell r="D147">
-            <v>0</v>
+            <v>39.046344810896542</v>
           </cell>
         </row>
         <row r="148">
@@ -16496,7 +16707,7 @@
             <v>34.990001679999999</v>
           </cell>
           <cell r="D148">
-            <v>0</v>
+            <v>39.018561638767117</v>
           </cell>
         </row>
         <row r="149">
@@ -16508,7 +16719,7 @@
             <v>35.409999849999998</v>
           </cell>
           <cell r="D149">
-            <v>0</v>
+            <v>38.994013599387742</v>
           </cell>
         </row>
         <row r="150">
@@ -16520,7 +16731,7 @@
             <v>35.259998320000001</v>
           </cell>
           <cell r="D150">
-            <v>0</v>
+            <v>38.968783766418909</v>
           </cell>
         </row>
         <row r="151">
@@ -16532,7 +16743,7 @@
             <v>34.950000760000002</v>
           </cell>
           <cell r="D151">
-            <v>0</v>
+            <v>38.941812068389247</v>
           </cell>
         </row>
         <row r="152">
@@ -16544,7 +16755,7 @@
             <v>34.950000760000002</v>
           </cell>
           <cell r="D152">
-            <v>0</v>
+            <v>38.915199992999987</v>
           </cell>
         </row>
         <row r="153">
@@ -16556,7 +16767,7 @@
             <v>35.229999540000001</v>
           </cell>
           <cell r="D153">
-            <v>0</v>
+            <v>38.890794691986741</v>
           </cell>
         </row>
         <row r="154">
@@ -16568,7 +16779,7 @@
             <v>34.840000150000002</v>
           </cell>
           <cell r="D154">
-            <v>0</v>
+            <v>38.864144727894725</v>
           </cell>
         </row>
         <row r="155">
@@ -16580,7 +16791,7 @@
             <v>35.270000459999999</v>
           </cell>
           <cell r="D155">
-            <v>0</v>
+            <v>38.840653588888877</v>
           </cell>
         </row>
         <row r="156">
@@ -16592,7 +16803,7 @@
             <v>35.990001679999999</v>
           </cell>
           <cell r="D156">
-            <v>0</v>
+            <v>38.822142862207784</v>
           </cell>
         </row>
         <row r="157">
@@ -16604,7 +16815,7 @@
             <v>35.680000309999997</v>
           </cell>
           <cell r="D157">
-            <v>0</v>
+            <v>38.801870974774182</v>
           </cell>
         </row>
         <row r="158">
@@ -16616,7 +16827,7 @@
             <v>35.549999239999998</v>
           </cell>
           <cell r="D158">
-            <v>0</v>
+            <v>38.781025643141014</v>
           </cell>
         </row>
         <row r="159">
@@ -16628,7 +16839,7 @@
             <v>35.38999939</v>
           </cell>
           <cell r="D159">
-            <v>0</v>
+            <v>38.75942674980891</v>
           </cell>
         </row>
         <row r="160">
@@ -16640,7 +16851,7 @@
             <v>35.189998629999998</v>
           </cell>
           <cell r="D160">
-            <v>0</v>
+            <v>38.73683543259493</v>
           </cell>
         </row>
         <row r="161">
@@ -16651,7 +16862,7 @@
             <v>35.409999849999998</v>
           </cell>
           <cell r="D161">
-            <v>0</v>
+            <v>38.715911938364776</v>
           </cell>
         </row>
         <row r="162">
@@ -16662,7 +16873,7 @@
             <v>35.450000000000003</v>
           </cell>
           <cell r="D162">
-            <v>0</v>
+            <v>38.695499988749994</v>
           </cell>
         </row>
         <row r="163">
@@ -16673,7 +16884,7 @@
             <v>35.27999878</v>
           </cell>
           <cell r="D163">
-            <v>0</v>
+            <v>38.674285695527942</v>
           </cell>
         </row>
         <row r="164">
@@ -16684,7 +16895,7 @@
             <v>35.22000122</v>
           </cell>
           <cell r="D164">
-            <v>0</v>
+            <v>38.652962951851848</v>
           </cell>
         </row>
         <row r="165">
@@ -16695,7 +16906,7 @@
             <v>35.319999690000003</v>
           </cell>
           <cell r="D165">
-            <v>0</v>
+            <v>38.632515324478518</v>
           </cell>
         </row>
         <row r="166">
@@ -16706,7 +16917,7 @@
             <v>34.939998629999998</v>
           </cell>
           <cell r="D166">
-            <v>0</v>
+            <v>38.609999978780486</v>
           </cell>
         </row>
         <row r="167">
@@ -16717,7 +16928,7 @@
             <v>34.709999080000003</v>
           </cell>
           <cell r="D167">
-            <v>0</v>
+            <v>38.586363609696967</v>
           </cell>
         </row>
         <row r="168">
@@ -16728,7 +16939,7 @@
             <v>35.33000183</v>
           </cell>
           <cell r="D168">
-            <v>0</v>
+            <v>38.566746972469872</v>
           </cell>
         </row>
         <row r="169">
@@ -16739,7 +16950,7 @@
             <v>35.869998930000001</v>
           </cell>
           <cell r="D169">
-            <v>0</v>
+            <v>38.550598780598797</v>
           </cell>
         </row>
         <row r="170">
@@ -16750,7 +16961,7 @@
             <v>35.86000061</v>
           </cell>
           <cell r="D170">
-            <v>0</v>
+            <v>38.53458331529761</v>
           </cell>
         </row>
         <row r="171">
@@ -16761,7 +16972,7 @@
             <v>35.86000061</v>
           </cell>
           <cell r="D171">
-            <v>0</v>
+            <v>38.518757382130168</v>
           </cell>
         </row>
         <row r="172">
@@ -16772,7 +16983,7 @@
             <v>35.599998470000003</v>
           </cell>
           <cell r="D172">
-            <v>0</v>
+            <v>38.501588212058813</v>
           </cell>
         </row>
         <row r="173">
@@ -16783,7 +16994,7 @@
             <v>35.290000919999997</v>
           </cell>
           <cell r="D173">
-            <v>0</v>
+            <v>38.482806999824554</v>
           </cell>
         </row>
         <row r="174">
@@ -16794,7 +17005,7 @@
             <v>35.520000459999999</v>
           </cell>
           <cell r="D174">
-            <v>0</v>
+            <v>38.465581380406974</v>
           </cell>
         </row>
         <row r="175">
@@ -16805,7 +17016,7 @@
             <v>34.939998629999998</v>
           </cell>
           <cell r="D175">
-            <v>0</v>
+            <v>38.445202289364161</v>
           </cell>
         </row>
         <row r="176">
@@ -16816,7 +17027,7 @@
             <v>34.099998470000003</v>
           </cell>
           <cell r="D176">
-            <v>0</v>
+            <v>38.42022985362069</v>
           </cell>
         </row>
         <row r="177">
@@ -16827,7 +17038,7 @@
             <v>34.439998629999998</v>
           </cell>
           <cell r="D177">
-            <v>0</v>
+            <v>38.397485675200002</v>
           </cell>
         </row>
         <row r="178">
@@ -16838,7 +17049,7 @@
             <v>34.689998629999998</v>
           </cell>
           <cell r="D178">
-            <v>0</v>
+            <v>38.376420407897733</v>
           </cell>
         </row>
         <row r="179">
@@ -16849,7 +17060,7 @@
             <v>34.810001370000002</v>
           </cell>
           <cell r="D179">
-            <v>0</v>
+            <v>38.356271147796612</v>
           </cell>
         </row>
         <row r="180">
@@ -16860,7 +17071,7 @@
             <v>34.290000919999997</v>
           </cell>
           <cell r="D180">
-            <v>0</v>
+            <v>38.333426933033707</v>
           </cell>
         </row>
         <row r="181">
@@ -16871,7 +17082,7 @@
             <v>34.36000061</v>
           </cell>
           <cell r="D181">
-            <v>0</v>
+            <v>38.311229020614526</v>
           </cell>
         </row>
         <row r="182">
@@ -16882,7 +17093,7 @@
             <v>34.650001529999997</v>
           </cell>
           <cell r="D182">
-            <v>0</v>
+            <v>38.290888867888889</v>
           </cell>
         </row>
         <row r="183">
@@ -16893,7 +17104,7 @@
             <v>34.259998320000001</v>
           </cell>
           <cell r="D183">
-            <v>0</v>
+            <v>38.268618754364638</v>
           </cell>
         </row>
         <row r="184">
@@ -16904,7 +17115,7 @@
             <v>34.58</v>
           </cell>
           <cell r="D184">
-            <v>0</v>
+            <v>38.248351618351641</v>
           </cell>
         </row>
         <row r="185">
@@ -16915,7 +17126,7 @@
             <v>34.630000000000003</v>
           </cell>
           <cell r="D185">
-            <v>0</v>
+            <v>38.228579205136612</v>
           </cell>
         </row>
         <row r="186">
@@ -16927,7 +17138,7 @@
             <v>34.229999540000001</v>
           </cell>
           <cell r="D186">
-            <v>0</v>
+            <v>38.206847793913042</v>
           </cell>
         </row>
         <row r="187">
@@ -16939,7 +17150,7 @@
             <v>33.459999080000003</v>
           </cell>
           <cell r="D187">
-            <v>0</v>
+            <v>38.181189152216213</v>
           </cell>
         </row>
         <row r="188">
@@ -16951,7 +17162,7 @@
             <v>33.099998470000003</v>
           </cell>
           <cell r="D188">
-            <v>0</v>
+            <v>38.15387092274193</v>
           </cell>
         </row>
         <row r="189">
@@ -16963,7 +17174,7 @@
             <v>33.049999239999998</v>
           </cell>
           <cell r="D189">
-            <v>0</v>
+            <v>38.12657749128342</v>
           </cell>
         </row>
         <row r="190">
@@ -16975,7 +17186,7 @@
             <v>33.13999939</v>
           </cell>
           <cell r="D190">
-            <v>0</v>
+            <v>38.100053139680853</v>
           </cell>
         </row>
         <row r="191">
@@ -16987,7 +17198,7 @@
             <v>32.65</v>
           </cell>
           <cell r="D191">
-            <v>0</v>
+            <v>38.071216879682538</v>
           </cell>
         </row>
         <row r="192">
@@ -16999,7 +17210,7 @@
             <v>33.209999080000003</v>
           </cell>
           <cell r="D192">
-            <v>0</v>
+            <v>38.0456315228421</v>
           </cell>
         </row>
         <row r="193">
@@ -17011,7 +17222,7 @@
             <v>32.6</v>
           </cell>
           <cell r="D193">
-            <v>0</v>
+            <v>38.017120363036646</v>
           </cell>
         </row>
         <row r="194">
@@ -17023,7 +17234,7 @@
             <v>32.770000459999999</v>
           </cell>
           <cell r="D194">
-            <v>0</v>
+            <v>37.989791613541662</v>
           </cell>
         </row>
         <row r="195">
@@ -17035,7 +17246,7 @@
             <v>33.340000150000002</v>
           </cell>
           <cell r="D195">
-            <v>0</v>
+            <v>37.965699429792743</v>
           </cell>
         </row>
         <row r="196">
@@ -17047,7 +17258,7 @@
             <v>33.340000150000002</v>
           </cell>
           <cell r="D196">
-            <v>0</v>
+            <v>37.941855619072165</v>
           </cell>
         </row>
         <row r="197">
@@ -17059,7 +17270,7 @@
             <v>32.729999540000001</v>
           </cell>
           <cell r="D197">
-            <v>0</v>
+            <v>37.915128152000001</v>
           </cell>
         </row>
         <row r="198">
@@ -17071,7 +17282,7 @@
             <v>32.819999690000003</v>
           </cell>
           <cell r="D198">
-            <v>0</v>
+            <v>37.889132598622453</v>
           </cell>
         </row>
         <row r="199">
@@ -17083,7 +17294,7 @@
             <v>32.400001529999997</v>
           </cell>
           <cell r="D199">
-            <v>0</v>
+            <v>37.861268989137059</v>
           </cell>
         </row>
         <row r="200">
@@ -17095,7 +17306,7 @@
             <v>32.590000150000002</v>
           </cell>
           <cell r="D200">
-            <v>0</v>
+            <v>37.834646419242425</v>
           </cell>
         </row>
         <row r="201">
@@ -17107,7 +17318,7 @@
             <v>31.81999969</v>
           </cell>
           <cell r="D201">
-            <v>0</v>
+            <v>37.804422063819104</v>
           </cell>
         </row>
         <row r="202">
@@ -17119,7 +17330,7 @@
             <v>32.119998930000001</v>
           </cell>
           <cell r="D202">
-            <v>0</v>
+            <v>37.775999948150009</v>
           </cell>
         </row>
         <row r="203">
@@ -17130,7 +17341,7 @@
             <v>31.159999849999998</v>
           </cell>
           <cell r="D203">
-            <v>0</v>
+            <v>37.743084524776123</v>
           </cell>
         </row>
         <row r="204">
@@ -17141,7 +17352,7 @@
             <v>31.159999849999998</v>
           </cell>
           <cell r="D204">
-            <v>0</v>
+            <v>37.710494996683174</v>
           </cell>
         </row>
         <row r="205">
@@ -17153,7 +17364,7 @@
             <v>31.209999079999999</v>
           </cell>
           <cell r="D205">
-            <v>0</v>
+            <v>37.678472849310346</v>
           </cell>
         </row>
         <row r="206">
@@ -17165,7 +17376,7 @@
             <v>30.620000839999999</v>
           </cell>
           <cell r="D206">
-            <v>0</v>
+            <v>37.643872496323532</v>
           </cell>
         </row>
         <row r="207">
@@ -17177,7 +17388,7 @@
             <v>31.010000229999999</v>
           </cell>
           <cell r="D207">
-            <v>0</v>
+            <v>37.61151214380488</v>
           </cell>
         </row>
         <row r="208">
@@ -17189,7 +17400,7 @@
             <v>30.559999470000001</v>
           </cell>
           <cell r="D208">
-            <v>0</v>
+            <v>37.577281499757277</v>
           </cell>
         </row>
         <row r="209">
@@ -17201,7 +17412,7 @@
             <v>29.899999619999999</v>
           </cell>
           <cell r="D209">
-            <v>0</v>
+            <v>37.540193181497585</v>
           </cell>
         </row>
         <row r="210">
@@ -17213,7 +17424,7 @@
             <v>29.850000380000001</v>
           </cell>
           <cell r="D210">
-            <v>0</v>
+            <v>37.503221100721149</v>
           </cell>
         </row>
         <row r="211">
@@ -17225,7 +17436,7 @@
             <v>30.559999470000001</v>
           </cell>
           <cell r="D211">
-            <v>0</v>
+            <v>37.469999944593297</v>
           </cell>
         </row>
         <row r="212">
@@ -17237,7 +17448,7 @@
             <v>30.620000839999999</v>
           </cell>
           <cell r="D212">
-            <v>0</v>
+            <v>37.437380901238093</v>
           </cell>
         </row>
         <row r="213">
@@ -17249,7 +17460,7 @@
             <v>30.770000459999999</v>
           </cell>
           <cell r="D213">
-            <v>0</v>
+            <v>37.405781941800946</v>
           </cell>
         </row>
         <row r="214">
@@ -17261,7 +17472,7 @@
             <v>30.719999309999999</v>
           </cell>
           <cell r="D214">
-            <v>0</v>
+            <v>37.374245231273584</v>
           </cell>
         </row>
         <row r="215">
@@ -17273,7 +17484,7 @@
             <v>30.63999939</v>
           </cell>
           <cell r="D215">
-            <v>0</v>
+            <v>37.342629053615028</v>
           </cell>
         </row>
         <row r="216">
@@ -17285,7 +17496,7 @@
             <v>30.190000529999999</v>
           </cell>
           <cell r="D216">
-            <v>0</v>
+            <v>37.309205555841125</v>
           </cell>
         </row>
         <row r="217">
@@ -17297,7 +17508,7 @@
             <v>30.989999770000001</v>
           </cell>
           <cell r="D217">
-            <v>0</v>
+            <v>37.27981390102326</v>
           </cell>
         </row>
         <row r="218">
@@ -17309,7 +17520,7 @@
             <v>30.340000150000002</v>
           </cell>
           <cell r="D218">
-            <v>0</v>
+            <v>37.247685133657413</v>
           </cell>
         </row>
         <row r="219">
@@ -17320,7 +17531,7 @@
             <v>30.899999619999999</v>
           </cell>
           <cell r="D219">
-            <v>0</v>
+            <v>37.218433126682037</v>
           </cell>
         </row>
         <row r="220">
@@ -17331,7 +17542,7 @@
             <v>30.969999309999999</v>
           </cell>
           <cell r="D220">
-            <v>0</v>
+            <v>37.189770586238538</v>
           </cell>
         </row>
         <row r="221">
@@ -17343,7 +17554,7 @@
             <v>30.940000529999999</v>
           </cell>
           <cell r="D221">
-            <v>0</v>
+            <v>37.161232823424669</v>
           </cell>
         </row>
         <row r="222">
@@ -17355,7 +17566,7 @@
             <v>30.459999079999999</v>
           </cell>
           <cell r="D222">
-            <v>0</v>
+            <v>37.130772670045459</v>
           </cell>
         </row>
         <row r="223">
@@ -17367,7 +17578,7 @@
             <v>30.090000150000002</v>
           </cell>
           <cell r="D223">
-            <v>0</v>
+            <v>37.098913970859734</v>
           </cell>
         </row>
         <row r="224">
@@ -17379,7 +17590,7 @@
             <v>29.61000061</v>
           </cell>
           <cell r="D224">
-            <v>0</v>
+            <v>37.065180126891896</v>
           </cell>
         </row>
         <row r="225">
@@ -17391,7 +17602,7 @@
             <v>28.340000150000002</v>
           </cell>
           <cell r="D225">
-            <v>0</v>
+            <v>37.026053759282519</v>
           </cell>
         </row>
         <row r="226">
@@ -17403,7 +17614,7 @@
             <v>27.709999079999999</v>
           </cell>
           <cell r="D226">
-            <v>0</v>
+            <v>36.984464229464287</v>
           </cell>
         </row>
         <row r="227">
@@ -17415,7 +17626,7 @@
             <v>27.540000920000001</v>
           </cell>
           <cell r="D227">
-            <v>0</v>
+            <v>36.94248883697778</v>
           </cell>
         </row>
         <row r="228">
@@ -17427,7 +17638,7 @@
             <v>28.209999079999999</v>
           </cell>
           <cell r="D228">
-            <v>0</v>
+            <v>36.903849501769912</v>
           </cell>
         </row>
         <row r="229">
@@ -17439,7 +17650,7 @@
             <v>28.450000760000002</v>
           </cell>
           <cell r="D229">
-            <v>0</v>
+            <v>36.866607877356834</v>
           </cell>
         </row>
         <row r="230">
@@ -17451,7 +17662,7 @@
             <v>27.479999540000001</v>
           </cell>
           <cell r="D230">
-            <v>0</v>
+            <v>36.825438542543864</v>
           </cell>
         </row>
         <row r="231">
@@ -17463,7 +17674,7 @@
             <v>26.540000920000001</v>
           </cell>
           <cell r="D231">
-            <v>0</v>
+            <v>36.780523967772936</v>
           </cell>
         </row>
         <row r="232">
@@ -17475,7 +17686,7 @@
             <v>27.68000031</v>
           </cell>
           <cell r="D232">
-            <v>0</v>
+            <v>36.740956473608705</v>
           </cell>
         </row>
         <row r="233">
@@ -17487,7 +17698,7 @@
             <v>28.43000031</v>
           </cell>
           <cell r="D233">
-            <v>0</v>
+            <v>36.704978308398275</v>
           </cell>
         </row>
         <row r="234">
@@ -17499,7 +17710,7 @@
             <v>28.340000150000002</v>
           </cell>
           <cell r="D234">
-            <v>0</v>
+            <v>36.66892236806035</v>
           </cell>
         </row>
         <row r="235">
@@ -17511,7 +17722,7 @@
             <v>28.520000459999999</v>
           </cell>
           <cell r="D235">
-            <v>0</v>
+            <v>36.633948454291847</v>
           </cell>
         </row>
         <row r="236">
@@ -17523,7 +17734,7 @@
             <v>28.25</v>
           </cell>
           <cell r="D236">
-            <v>0</v>
+            <v>36.598119614743588</v>
           </cell>
         </row>
         <row r="237">
@@ -17535,7 +17746,7 @@
             <v>28.43000031</v>
           </cell>
           <cell r="D237">
-            <v>0</v>
+            <v>36.563361660255318</v>
           </cell>
         </row>
         <row r="238">
@@ -17547,7 +17758,7 @@
             <v>28.280000690000001</v>
           </cell>
           <cell r="D238">
-            <v>0</v>
+            <v>36.528262673093217</v>
           </cell>
         </row>
         <row r="239">
@@ -17559,7 +17770,7 @@
             <v>27.61000061</v>
           </cell>
           <cell r="D239">
-            <v>0</v>
+            <v>36.490632875358649</v>
           </cell>
         </row>
         <row r="240">
@@ -17571,7 +17782,7 @@
             <v>27.18000031</v>
           </cell>
           <cell r="D240">
-            <v>0</v>
+            <v>36.451512570462185</v>
           </cell>
         </row>
         <row r="241">
@@ -17583,7 +17794,7 @@
             <v>27.010000229999999</v>
           </cell>
           <cell r="D241">
-            <v>0</v>
+            <v>36.412008334728036</v>
           </cell>
         </row>
         <row r="242">
@@ -17594,7 +17805,7 @@
             <v>27.979999540000001</v>
           </cell>
           <cell r="D242">
-            <v>0</v>
+            <v>36.376874964750002</v>
           </cell>
         </row>
         <row r="243">
@@ -17605,7 +17816,7 @@
             <v>27.63999939</v>
           </cell>
           <cell r="D243">
-            <v>0</v>
+            <v>36.340622369004151</v>
           </cell>
         </row>
         <row r="244">
@@ -17617,7 +17828,7 @@
             <v>27.840000150000002</v>
           </cell>
           <cell r="D244">
-            <v>0</v>
+            <v>36.305495830909088</v>
           </cell>
         </row>
         <row r="245">
@@ -17629,7 +17840,7 @@
             <v>27.649999619999999</v>
           </cell>
           <cell r="D245">
-            <v>0</v>
+            <v>36.269876504938274</v>
           </cell>
         </row>
         <row r="246">
@@ -17641,7 +17852,7 @@
             <v>27.200000760000002</v>
           </cell>
           <cell r="D246">
-            <v>0</v>
+            <v>36.232704883032788</v>
           </cell>
         </row>
         <row r="247">
@@ -17653,7 +17864,7 @@
             <v>27.170000080000001</v>
           </cell>
           <cell r="D247">
-            <v>0</v>
+            <v>36.195714251183674</v>
           </cell>
         </row>
         <row r="248">
@@ -17665,7 +17876,7 @@
             <v>26.11000061</v>
           </cell>
           <cell r="D248">
-            <v>0</v>
+            <v>36.154715415243899</v>
           </cell>
         </row>
         <row r="249">
@@ -17677,7 +17888,7 @@
             <v>26.620000839999999</v>
           </cell>
           <cell r="D249">
-            <v>0</v>
+            <v>36.116113331943318</v>
           </cell>
         </row>
         <row r="250">
@@ -17689,7 +17900,7 @@
             <v>26.18000031</v>
           </cell>
           <cell r="D250">
-            <v>0</v>
+            <v>36.076048360080641</v>
           </cell>
         </row>
         <row r="251">
@@ -17701,7 +17912,7 @@
             <v>26.340000150000002</v>
           </cell>
           <cell r="D251">
-            <v>0</v>
+            <v>36.036947764859427</v>
           </cell>
         </row>
         <row r="252">
@@ -17713,7 +17924,7 @@
             <v>26.209999079999999</v>
           </cell>
           <cell r="D252">
-            <v>0</v>
+            <v>35.997639970119991</v>
           </cell>
         </row>
         <row r="253">
@@ -17725,7 +17936,7 @@
             <v>26.399999619999999</v>
           </cell>
           <cell r="D253">
-            <v>0</v>
+            <v>35.959402359163342</v>
           </cell>
         </row>
         <row r="254">
@@ -17737,7 +17948,7 @@
             <v>26.120000839999999</v>
           </cell>
           <cell r="D254">
-            <v>0</v>
+            <v>35.920357115039671</v>
           </cell>
         </row>
         <row r="255">
@@ -17749,7 +17960,7 @@
             <v>25.469999309999999</v>
           </cell>
           <cell r="D255">
-            <v>0</v>
+            <v>35.879051352964417</v>
           </cell>
         </row>
         <row r="256">
@@ -17761,7 +17972,7 @@
             <v>24.88999939</v>
           </cell>
           <cell r="D256">
-            <v>0</v>
+            <v>35.835787368858256</v>
           </cell>
         </row>
         <row r="257">
@@ -17773,7 +17984,7 @@
             <v>24.88999939</v>
           </cell>
           <cell r="D257">
-            <v>0</v>
+            <v>35.792862710117632</v>
           </cell>
         </row>
         <row r="258">
@@ -17785,7 +17996,7 @@
             <v>23.450000760000002</v>
           </cell>
           <cell r="D258">
-            <v>0</v>
+            <v>35.744648405624986</v>
           </cell>
         </row>
         <row r="259">
@@ -17797,7 +18008,7 @@
             <v>23.170000080000001</v>
           </cell>
           <cell r="D259">
-            <v>0</v>
+            <v>35.69571981291827</v>
           </cell>
         </row>
         <row r="260">
@@ -17809,7 +18020,7 @@
             <v>24.280000690000001</v>
           </cell>
           <cell r="D260">
-            <v>0</v>
+            <v>35.651472839573628</v>
           </cell>
         </row>
         <row r="261">
@@ -17820,7 +18031,7 @@
             <v>24.120000839999999</v>
           </cell>
           <cell r="D261">
-            <v>0</v>
+            <v>35.606949781660212</v>
           </cell>
         </row>
         <row r="262">
@@ -17831,7 +18042,7 @@
             <v>25.129999160000001</v>
           </cell>
           <cell r="D262">
-            <v>0</v>
+            <v>35.566653817730753</v>
           </cell>
         </row>
         <row r="263">
@@ -17843,7 +18054,7 @@
             <v>23.229999540000001</v>
           </cell>
           <cell r="D263">
-            <v>0</v>
+            <v>35.519386943103434</v>
           </cell>
         </row>
         <row r="264">
@@ -17855,7 +18066,7 @@
             <v>22.719999309999999</v>
           </cell>
           <cell r="D264">
-            <v>0</v>
+            <v>35.470534318549603</v>
           </cell>
         </row>
         <row r="265">
@@ -17867,7 +18078,7 @@
             <v>22.459999079999999</v>
           </cell>
           <cell r="D265">
-            <v>0</v>
+            <v>35.421064602813672</v>
           </cell>
         </row>
         <row r="266">
@@ -17879,7 +18090,7 @@
             <v>22.780000690000001</v>
           </cell>
           <cell r="D266">
-            <v>0</v>
+            <v>35.373181784962107</v>
           </cell>
         </row>
         <row r="267">
@@ -17891,7 +18102,7 @@
             <v>23.450000760000002</v>
           </cell>
           <cell r="D267">
-            <v>0</v>
+            <v>35.328188649018855</v>
           </cell>
         </row>
         <row r="268">
@@ -17903,7 +18114,7 @@
             <v>23.370000839999999</v>
           </cell>
           <cell r="D268">
-            <v>0</v>
+            <v>35.283233055751865</v>
           </cell>
         </row>
         <row r="269">
@@ -17915,7 +18126,7 @@
             <v>23.549999239999998</v>
           </cell>
           <cell r="D269">
-            <v>0</v>
+            <v>35.239288359812718</v>
           </cell>
         </row>
         <row r="270">
@@ -17927,7 +18138,7 @@
             <v>23.290000920000001</v>
           </cell>
           <cell r="D270">
-            <v>0</v>
+            <v>35.194701466380579</v>
           </cell>
         </row>
         <row r="271">
@@ -17939,7 +18150,7 @@
             <v>23.729999540000001</v>
           </cell>
           <cell r="D271">
-            <v>0</v>
+            <v>35.152081756617086</v>
           </cell>
         </row>
         <row r="272">
@@ -17951,7 +18162,7 @@
             <v>23.709999079999999</v>
           </cell>
           <cell r="D272">
-            <v>0</v>
+            <v>35.109703672629614</v>
           </cell>
         </row>
         <row r="273">
@@ -17963,7 +18174,7 @@
             <v>23.790000920000001</v>
           </cell>
           <cell r="D273">
-            <v>0</v>
+            <v>35.067933551771205</v>
           </cell>
         </row>
         <row r="274">
@@ -17975,7 +18186,7 @@
             <v>24.17</v>
           </cell>
           <cell r="D274">
-            <v>0</v>
+            <v>35.027867619595575</v>
           </cell>
         </row>
         <row r="275">
@@ -17987,7 +18198,7 @@
             <v>24.049999239999998</v>
           </cell>
           <cell r="D275">
-            <v>0</v>
+            <v>34.987655647509143</v>
           </cell>
         </row>
         <row r="276">
@@ -17999,7 +18210,7 @@
             <v>23.209999079999999</v>
           </cell>
           <cell r="D276">
-            <v>0</v>
+            <v>34.944671499452539</v>
           </cell>
         </row>
         <row r="277">
@@ -18011,7 +18222,7 @@
             <v>23.309999470000001</v>
           </cell>
           <cell r="D277">
-            <v>0</v>
+            <v>34.902363601163621</v>
           </cell>
         </row>
         <row r="278">
@@ -18023,7 +18234,7 @@
             <v>23.329999919999999</v>
           </cell>
           <cell r="D278">
-            <v>0</v>
+            <v>34.860434747246366</v>
           </cell>
         </row>
         <row r="279">
@@ -18035,7 +18246,7 @@
             <v>23.370000839999999</v>
           </cell>
           <cell r="D279">
-            <v>0</v>
+            <v>34.818953036389878</v>
           </cell>
         </row>
         <row r="280">
@@ -18046,7 +18257,7 @@
             <v>23.63999939</v>
           </cell>
           <cell r="D280">
-            <v>0</v>
+            <v>34.778740972913653</v>
           </cell>
         </row>
         <row r="281">
@@ -18057,7 +18268,7 @@
             <v>24.129999160000001</v>
           </cell>
           <cell r="D281">
-            <v>0</v>
+            <v>34.740573439534039</v>
           </cell>
         </row>
         <row r="282">
@@ -18069,7 +18280,7 @@
             <v>24.309999470000001</v>
           </cell>
           <cell r="D282">
-            <v>0</v>
+            <v>34.703321389642845</v>
           </cell>
         </row>
         <row r="283">
@@ -18081,7 +18292,7 @@
             <v>24.510000229999999</v>
           </cell>
           <cell r="D283">
-            <v>0</v>
+            <v>34.66704622537366</v>
           </cell>
         </row>
         <row r="284">
@@ -18093,7 +18304,7 @@
             <v>25.329999919999999</v>
           </cell>
           <cell r="D284">
-            <v>0</v>
+            <v>34.633936132092195</v>
           </cell>
         </row>
         <row r="285">
@@ -18105,7 +18316,7 @@
             <v>25.270000459999999</v>
           </cell>
           <cell r="D285">
-            <v>0</v>
+            <v>34.60084802017667</v>
           </cell>
         </row>
         <row r="286">
@@ -18117,7 +18328,7 @@
             <v>25.459999079999999</v>
           </cell>
           <cell r="D286">
-            <v>0</v>
+            <v>34.568661932359149</v>
           </cell>
         </row>
         <row r="287">
@@ -18129,7 +18340,7 @@
             <v>24.75</v>
           </cell>
           <cell r="D287">
-            <v>0</v>
+            <v>34.534210486982445</v>
           </cell>
         </row>
         <row r="288">
@@ -18141,7 +18352,7 @@
             <v>25.379999160000001</v>
           </cell>
           <cell r="D288">
-            <v>0</v>
+            <v>34.502202755069924</v>
           </cell>
         </row>
         <row r="289">
@@ -18153,7 +18364,7 @@
             <v>17.149999619999999</v>
           </cell>
           <cell r="D289">
-            <v>0</v>
+            <v>34.441742116968634</v>
           </cell>
         </row>
         <row r="290">
@@ -18165,7 +18376,7 @@
             <v>25.61000061</v>
           </cell>
           <cell r="D290">
-            <v>0</v>
+            <v>34.411076347847221</v>
           </cell>
         </row>
         <row r="291">
@@ -18177,7 +18388,7 @@
             <v>25.979999540000001</v>
           </cell>
           <cell r="D291">
-            <v>0</v>
+            <v>34.381903071695504</v>
           </cell>
         </row>
         <row r="292">
@@ -18189,7 +18400,7 @@
             <v>26</v>
           </cell>
           <cell r="D292">
-            <v>0</v>
+            <v>34.352999957655172</v>
           </cell>
         </row>
         <row r="293">
@@ -18201,7 +18412,7 @@
             <v>26.5</v>
           </cell>
           <cell r="D293">
-            <v>0</v>
+            <v>34.326013703505154</v>
           </cell>
         </row>
         <row r="294">
@@ -18213,7 +18424,7 @@
             <v>27.010000229999999</v>
           </cell>
           <cell r="D294">
-            <v>0</v>
+            <v>34.300958862842464</v>
           </cell>
         </row>
         <row r="295">
@@ -18225,7 +18436,7 @@
             <v>26.989999770000001</v>
           </cell>
           <cell r="D295">
-            <v>0</v>
+            <v>34.276006784027302</v>
           </cell>
         </row>
         <row r="296">
@@ -18237,7 +18448,7 @@
             <v>26.600000380000001</v>
           </cell>
           <cell r="D296">
-            <v>0</v>
+            <v>34.249897918707482</v>
           </cell>
         </row>
         <row r="297">
@@ -18249,7 +18460,7 @@
             <v>27.239999770000001</v>
           </cell>
           <cell r="D297">
-            <v>0</v>
+            <v>34.226135552101695</v>
           </cell>
         </row>
         <row r="298">
@@ -18261,7 +18472,7 @@
             <v>27.739999770000001</v>
           </cell>
           <cell r="D298">
-            <v>0</v>
+            <v>34.204222931216215</v>
           </cell>
         </row>
         <row r="299">
@@ -18273,7 +18484,7 @@
             <v>27.870000839999999</v>
           </cell>
           <cell r="D299">
-            <v>0</v>
+            <v>34.18289558410774</v>
           </cell>
         </row>
         <row r="300">
@@ -18285,7 +18496,7 @@
             <v>28.170000080000001</v>
           </cell>
           <cell r="D300">
-            <v>0</v>
+            <v>34.162718082416099</v>
           </cell>
         </row>
         <row r="301">
@@ -18296,7 +18507,7 @@
             <v>27.510000229999999</v>
           </cell>
           <cell r="D301">
-            <v>0</v>
+            <v>34.140468189933102</v>
           </cell>
         </row>
         <row r="302">
@@ -18307,7 +18518,7 @@
             <v>27.809999470000001</v>
           </cell>
           <cell r="D302">
-            <v>0</v>
+            <v>34.119366627533324</v>
           </cell>
         </row>
         <row r="303">
@@ -18319,7 +18530,7 @@
             <v>27.63999939</v>
           </cell>
           <cell r="D303">
-            <v>0</v>
+            <v>34.097840490531553</v>
           </cell>
         </row>
         <row r="304">
@@ -18331,7 +18542,7 @@
             <v>28.079999919999999</v>
           </cell>
           <cell r="D304">
-            <v>0</v>
+            <v>34.077913866125826</v>
           </cell>
         </row>
         <row r="305">
@@ -18343,7 +18554,7 @@
             <v>27.93000031</v>
           </cell>
           <cell r="D305">
-            <v>0</v>
+            <v>34.057623722376235</v>
           </cell>
         </row>
         <row r="306">
@@ -18355,7 +18566,7 @@
             <v>27.709999079999999</v>
           </cell>
           <cell r="D306">
-            <v>0</v>
+            <v>34.036743378157887</v>
           </cell>
         </row>
         <row r="307">
@@ -18367,7 +18578,7 @@
             <v>28.079999919999999</v>
           </cell>
           <cell r="D307">
-            <v>0</v>
+            <v>34.0172130717377</v>
           </cell>
         </row>
         <row r="308">
@@ -18379,7 +18590,7 @@
             <v>27.86000061</v>
           </cell>
           <cell r="D308">
-            <v>0</v>
+            <v>33.997091462385619</v>
           </cell>
         </row>
         <row r="309">
@@ -18391,7 +18602,7 @@
             <v>27.280000690000001</v>
           </cell>
           <cell r="D309">
-            <v>0</v>
+            <v>33.975211687882734</v>
           </cell>
         </row>
         <row r="310">
@@ -18403,7 +18614,7 @@
             <v>26.770000459999999</v>
           </cell>
           <cell r="D310">
-            <v>0</v>
+            <v>33.951818144935061</v>
           </cell>
         </row>
         <row r="311">
@@ -18415,7 +18626,7 @@
             <v>27.020000459999999</v>
           </cell>
           <cell r="D311">
-            <v>0</v>
+            <v>33.929385077993516</v>
           </cell>
         </row>
         <row r="312">
@@ -18427,7 +18638,7 @@
             <v>27.459999079999999</v>
           </cell>
           <cell r="D312">
-            <v>0</v>
+            <v>33.90851609090322</v>
           </cell>
         </row>
         <row r="313">
@@ -18439,7 +18650,7 @@
             <v>27.059999470000001</v>
           </cell>
           <cell r="D313">
-            <v>0</v>
+            <v>33.886495137138255</v>
           </cell>
         </row>
         <row r="314">
@@ -18451,7 +18662,7 @@
             <v>27.329999919999999</v>
           </cell>
           <cell r="D314">
-            <v>0</v>
+            <v>33.865480729391024</v>
           </cell>
         </row>
         <row r="315">
@@ -18463,7 +18674,7 @@
             <v>27.049999239999998</v>
           </cell>
           <cell r="D315">
-            <v>0</v>
+            <v>33.843706028146961</v>
           </cell>
         </row>
         <row r="316">
@@ -18475,7 +18686,7 @@
             <v>27.120000839999999</v>
           </cell>
           <cell r="D316">
-            <v>0</v>
+            <v>33.822292954299357</v>
           </cell>
         </row>
         <row r="317">
@@ -18487,7 +18698,7 @@
             <v>26.88999939</v>
           </cell>
           <cell r="D317">
-            <v>0</v>
+            <v>33.800285673142845</v>
           </cell>
         </row>
         <row r="318">
@@ -18499,7 +18710,7 @@
             <v>26.799999239999998</v>
           </cell>
           <cell r="D318">
-            <v>0</v>
+            <v>33.778132867974676</v>
           </cell>
         </row>
         <row r="319">
@@ -18511,7 +18722,7 @@
             <v>26.56999969</v>
           </cell>
           <cell r="D319">
-            <v>0</v>
+            <v>33.755394277507875</v>
           </cell>
         </row>
         <row r="320">
@@ -18523,7 +18734,7 @@
             <v>26.709999079999999</v>
           </cell>
           <cell r="D320">
-            <v>0</v>
+            <v>33.733238946698101</v>
           </cell>
         </row>
         <row r="321">
@@ -18535,7 +18746,7 @@
             <v>26.620000839999999</v>
           </cell>
           <cell r="D321">
-            <v>0</v>
+            <v>33.710940394639486</v>
           </cell>
         </row>
         <row r="322">
@@ -18546,7 +18757,7 @@
             <v>26.709999079999999</v>
           </cell>
           <cell r="D322">
-            <v>0</v>
+            <v>33.689062453031241</v>
           </cell>
         </row>
         <row r="323">
@@ -18557,7 +18768,7 @@
             <v>26.329999919999999</v>
           </cell>
           <cell r="D323">
-            <v>0</v>
+            <v>33.666137024579427</v>
           </cell>
         </row>
         <row r="324">
@@ -18569,7 +18780,7 @@
             <v>26.870000839999999</v>
           </cell>
           <cell r="D324">
-            <v>0</v>
+            <v>33.645031011583839</v>
           </cell>
         </row>
         <row r="325">
@@ -18581,7 +18792,7 @@
             <v>26.34</v>
           </cell>
           <cell r="D325">
-            <v>0</v>
+            <v>33.622414816501539</v>
           </cell>
         </row>
         <row r="326">
@@ -18593,7 +18804,7 @@
             <v>25.96</v>
           </cell>
           <cell r="D326">
-            <v>0</v>
+            <v>33.59876538805554</v>
           </cell>
         </row>
         <row r="327">
@@ -18605,7 +18816,7 @@
             <v>26.08</v>
           </cell>
           <cell r="D327">
-            <v>0</v>
+            <v>33.575630725323066</v>
           </cell>
         </row>
         <row r="328">
@@ -18617,7 +18828,7 @@
             <v>26.459999079999999</v>
           </cell>
           <cell r="D328">
-            <v>0</v>
+            <v>33.55380363438649</v>
           </cell>
         </row>
         <row r="329">
@@ -18629,7 +18840,7 @@
             <v>26.450000760000002</v>
           </cell>
           <cell r="D329">
-            <v>0</v>
+            <v>33.532079466574906</v>
           </cell>
         </row>
         <row r="330">
@@ -18641,7 +18852,7 @@
             <v>26.559999470000001</v>
           </cell>
           <cell r="D330">
-            <v>0</v>
+            <v>33.510823125121938</v>
           </cell>
         </row>
         <row r="331">
@@ -18653,7 +18864,7 @@
             <v>26.200000760000002</v>
           </cell>
           <cell r="D331">
-            <v>0</v>
+            <v>33.4886017805471</v>
           </cell>
         </row>
         <row r="332">
@@ -18665,7 +18876,7 @@
             <v>26.81</v>
           </cell>
           <cell r="D332">
-            <v>0</v>
+            <v>33.468363593333315</v>
           </cell>
         </row>
         <row r="333">
@@ -18677,7 +18888,7 @@
             <v>26.620000839999999</v>
           </cell>
           <cell r="D333">
-            <v>0</v>
+            <v>33.447673675649533</v>
           </cell>
         </row>
         <row r="334">
@@ -18689,7 +18900,7 @@
             <v>26.709999079999999</v>
           </cell>
           <cell r="D334">
-            <v>0</v>
+            <v>33.427379475060221</v>
           </cell>
         </row>
         <row r="335">
@@ -18701,7 +18912,7 @@
             <v>26.719999309999999</v>
           </cell>
           <cell r="D335">
-            <v>0</v>
+            <v>33.407237192282267</v>
           </cell>
         </row>
         <row r="336">
@@ -18713,7 +18924,7 @@
             <v>27.159999849999998</v>
           </cell>
           <cell r="D336">
-            <v>0</v>
+            <v>33.388532888862258</v>
           </cell>
         </row>
         <row r="337">
@@ -18725,7 +18936,7 @@
             <v>27.030000690000001</v>
           </cell>
           <cell r="D337">
-            <v>0</v>
+            <v>33.36955219573133</v>
           </cell>
         </row>
         <row r="338">
@@ -18737,7 +18948,7 @@
             <v>26.559999470000001</v>
           </cell>
           <cell r="D338">
-            <v>0</v>
+            <v>33.34928566976189</v>
           </cell>
         </row>
         <row r="339">
@@ -18749,7 +18960,7 @@
             <v>26.969999309999999</v>
           </cell>
           <cell r="D339">
-            <v>0</v>
+            <v>33.330356036646869</v>
           </cell>
         </row>
         <row r="340">
@@ -18761,7 +18972,7 @@
             <v>26.86000061</v>
           </cell>
           <cell r="D340">
-            <v>0</v>
+            <v>33.311212973254428</v>
           </cell>
         </row>
         <row r="341">
@@ -18773,7 +18984,7 @@
             <v>25.950000760000002</v>
           </cell>
           <cell r="D341">
-            <v>0</v>
+            <v>33.289498482949838</v>
           </cell>
         </row>
         <row r="342">
@@ -18785,7 +18996,7 @@
             <v>25.899999619999999</v>
           </cell>
           <cell r="D342">
-            <v>0</v>
+            <v>33.267764662764691</v>
           </cell>
         </row>
         <row r="343">
@@ -18797,7 +19008,7 @@
             <v>25.780000690000001</v>
           </cell>
           <cell r="D343">
-            <v>0</v>
+            <v>33.245806410645152</v>
           </cell>
         </row>
         <row r="344">
@@ -18809,7 +19020,7 @@
             <v>25.620000839999999</v>
           </cell>
           <cell r="D344">
-            <v>0</v>
+            <v>33.223508733537997</v>
           </cell>
         </row>
         <row r="345">
@@ -18820,7 +19031,7 @@
             <v>25.479999540000001</v>
           </cell>
           <cell r="D345">
-            <v>0</v>
+            <v>33.200932904985407</v>
           </cell>
         </row>
         <row r="346">
@@ -18831,7 +19042,7 @@
             <v>25.18000031</v>
           </cell>
           <cell r="D346">
-            <v>0</v>
+            <v>33.177616240465106</v>
           </cell>
         </row>
         <row r="347">
@@ -18843,7 +19054,7 @@
             <v>23.5</v>
           </cell>
           <cell r="D347">
-            <v>0</v>
+            <v>33.149565178898534</v>
           </cell>
         </row>
         <row r="348">
@@ -18855,7 +19066,7 @@
             <v>23.5</v>
           </cell>
           <cell r="D348">
-            <v>0</v>
+            <v>33.121676262196516</v>
           </cell>
         </row>
         <row r="349">
@@ -18867,7 +19078,7 @@
             <v>23.5</v>
           </cell>
           <cell r="D349">
-            <v>0</v>
+            <v>33.093948088530247</v>
           </cell>
         </row>
         <row r="350">
@@ -18879,7 +19090,7 @@
             <v>23.33</v>
           </cell>
           <cell r="D350">
-            <v>0</v>
+            <v>33.065890766436766</v>
           </cell>
         </row>
         <row r="351">
@@ -18891,7 +19102,7 @@
             <v>23.05</v>
           </cell>
           <cell r="D351">
-            <v>0</v>
+            <v>33.037191939025774</v>
           </cell>
         </row>
         <row r="352">
@@ -18903,7 +19114,7 @@
             <v>22.91</v>
           </cell>
           <cell r="D352">
-            <v>0</v>
+            <v>33.008257104914271</v>
           </cell>
         </row>
         <row r="353">
@@ -18915,7 +19126,7 @@
             <v>23</v>
           </cell>
           <cell r="D353">
-            <v>0</v>
+            <v>32.979743551908818</v>
           </cell>
         </row>
         <row r="354">
@@ -18927,7 +19138,7 @@
             <v>23.46</v>
           </cell>
           <cell r="D354">
-            <v>0</v>
+            <v>32.952698825909074</v>
           </cell>
         </row>
         <row r="355">
@@ -18939,7 +19150,7 @@
             <v>22.93</v>
           </cell>
           <cell r="D355">
-            <v>0</v>
+            <v>32.924305911388082</v>
           </cell>
         </row>
         <row r="356">
@@ -18951,7 +19162,7 @@
             <v>23.03</v>
           </cell>
           <cell r="D356">
-            <v>0</v>
+            <v>32.89635589468925</v>
           </cell>
         </row>
         <row r="357">
@@ -18963,7 +19174,7 @@
             <v>22.61000061</v>
           </cell>
           <cell r="D357">
-            <v>0</v>
+            <v>32.867380245999989</v>
           </cell>
         </row>
         <row r="358">
@@ -18975,7 +19186,7 @@
             <v>22.040000920000001</v>
           </cell>
           <cell r="D358">
-            <v>0</v>
+            <v>32.836966259129198</v>
           </cell>
         </row>
         <row r="359">
@@ -18987,7 +19198,7 @@
             <v>22.239999770000001</v>
           </cell>
           <cell r="D359">
-            <v>0</v>
+            <v>32.807282879607826</v>
           </cell>
         </row>
         <row r="360">
@@ -18999,7 +19210,7 @@
             <v>22.920000080000001</v>
           </cell>
           <cell r="D360">
-            <v>0</v>
+            <v>32.779664771229037</v>
           </cell>
         </row>
         <row r="361">
@@ -19011,7 +19222,7 @@
             <v>22.850000380000001</v>
           </cell>
           <cell r="D361">
-            <v>0</v>
+            <v>32.752005538941489</v>
           </cell>
         </row>
         <row r="362">
@@ -19023,7 +19234,7 @@
             <v>23.649999619999999</v>
           </cell>
           <cell r="D362">
-            <v>0</v>
+            <v>32.726722189166651</v>
           </cell>
         </row>
         <row r="363">
@@ -19035,7 +19246,7 @@
             <v>23.719999309999999</v>
           </cell>
           <cell r="D363">
-            <v>0</v>
+            <v>32.701772818310232</v>
           </cell>
         </row>
         <row r="364">
@@ -19047,7 +19258,7 @@
             <v>23.850000380000001</v>
           </cell>
           <cell r="D364">
-            <v>0</v>
+            <v>32.677320408259654</v>
           </cell>
         </row>
         <row r="365">
@@ -19059,7 +19270,7 @@
             <v>23.590000150000002</v>
           </cell>
           <cell r="D365">
-            <v>0</v>
+            <v>32.652286468154252</v>
           </cell>
         </row>
         <row r="366">
@@ -19071,7 +19282,7 @@
             <v>23.399999619999999</v>
           </cell>
           <cell r="D366">
-            <v>0</v>
+            <v>32.626868097692288</v>
           </cell>
         </row>
         <row r="367">
@@ -19082,7 +19293,7 @@
             <v>23.340000150000002</v>
           </cell>
           <cell r="D367">
-            <v>0</v>
+            <v>32.601424623862997</v>
           </cell>
         </row>
         <row r="368">
@@ -19094,7 +19305,7 @@
             <v>22.040000920000001</v>
           </cell>
           <cell r="D368">
-            <v>0</v>
+            <v>32.57256827494534</v>
           </cell>
         </row>
         <row r="369">
@@ -19106,7 +19317,7 @@
             <v>22.239999770000001</v>
           </cell>
           <cell r="D369">
-            <v>0</v>
+            <v>32.544414137329682</v>
           </cell>
         </row>
         <row r="370">
@@ -19118,7 +19329,7 @@
             <v>22.920000080000001</v>
           </cell>
           <cell r="D370">
-            <v>0</v>
+            <v>32.518260838260851</v>
           </cell>
         </row>
         <row r="371">
@@ -19130,7 +19341,7 @@
             <v>22.850000380000001</v>
           </cell>
           <cell r="D371">
-            <v>0</v>
+            <v>32.492059590406484</v>
           </cell>
         </row>
         <row r="372">
@@ -19142,7 +19353,7 @@
             <v>23.649999619999999</v>
           </cell>
           <cell r="D372">
-            <v>0</v>
+            <v>32.468162131027007</v>
           </cell>
         </row>
         <row r="373">
@@ -19154,7 +19365,7 @@
             <v>23.719999309999999</v>
           </cell>
           <cell r="D373">
-            <v>0</v>
+            <v>32.444582177331519</v>
           </cell>
         </row>
         <row r="374">
@@ -19166,7 +19377,7 @@
             <v>23.850000380000001</v>
           </cell>
           <cell r="D374">
-            <v>0</v>
+            <v>32.421478462822563</v>
           </cell>
         </row>
         <row r="375">
@@ -19178,7 +19389,7 @@
             <v>23.590000150000002</v>
           </cell>
           <cell r="D375">
-            <v>0</v>
+            <v>32.39780157726539</v>
           </cell>
         </row>
         <row r="376">
@@ -19190,7 +19401,7 @@
             <v>23.399999619999999</v>
           </cell>
           <cell r="D376">
-            <v>0</v>
+            <v>32.373743283262009</v>
           </cell>
         </row>
         <row r="377">
@@ -19202,7 +19413,7 @@
             <v>23.340000150000002</v>
           </cell>
           <cell r="D377">
-            <v>0</v>
+            <v>32.349653301573312</v>
           </cell>
         </row>
         <row r="378">
@@ -19214,7 +19425,7 @@
             <v>22.829999919999999</v>
           </cell>
           <cell r="D378">
-            <v>0</v>
+            <v>32.324335074494662</v>
           </cell>
         </row>
         <row r="379">
@@ -19226,7 +19437,7 @@
             <v>22.739999770000001</v>
           </cell>
           <cell r="D379">
-            <v>0</v>
+            <v>32.298912434429688</v>
           </cell>
         </row>
         <row r="380">
@@ -19238,7 +19449,7 @@
             <v>23.18000031</v>
           </cell>
           <cell r="D380">
-            <v>0</v>
+            <v>32.274788328280401</v>
           </cell>
         </row>
         <row r="381">
@@ -19250,7 +19461,7 @@
             <v>22.959999079999999</v>
           </cell>
           <cell r="D381">
-            <v>0</v>
+            <v>32.250211047941931</v>
           </cell>
         </row>
         <row r="382">
@@ -19261,7 +19472,7 @@
             <v>22.13999939</v>
           </cell>
           <cell r="D382">
-            <v>0</v>
+            <v>32.223605227789449</v>
           </cell>
         </row>
         <row r="383">
@@ -19272,7 +19483,259 @@
             <v>22.239999770000001</v>
           </cell>
           <cell r="D383">
-            <v>0</v>
+            <v>32.197401538923856</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="B384" t="str">
+            <v xml:space="preserve">2022/11/1
+</v>
+          </cell>
+          <cell r="C384">
+            <v>22.270000459999999</v>
+          </cell>
+          <cell r="D384">
+            <v>32.171413577984268</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="B385" t="str">
+            <v xml:space="preserve">2022/11/2
+</v>
+          </cell>
+          <cell r="C385">
+            <v>22.600000380000001</v>
+          </cell>
+          <cell r="D385">
+            <v>32.146422943002584</v>
+          </cell>
+        </row>
+        <row r="386">
+          <cell r="B386" t="str">
+            <v xml:space="preserve">2022/11/3
+</v>
+          </cell>
+          <cell r="C386">
+            <v>22.479999540000001</v>
+          </cell>
+          <cell r="D386">
+            <v>32.121249965390597</v>
+          </cell>
+        </row>
+        <row r="387">
+          <cell r="B387" t="str">
+            <v xml:space="preserve">2022/11/4
+</v>
+          </cell>
+          <cell r="C387">
+            <v>23.200000760000002</v>
+          </cell>
+          <cell r="D387">
+            <v>32.098077889532441</v>
+          </cell>
+        </row>
+        <row r="388">
+          <cell r="B388" t="str">
+            <v xml:space="preserve">2022/11/7
+</v>
+          </cell>
+          <cell r="C388">
+            <v>23.190000529999999</v>
+          </cell>
+          <cell r="D388">
+            <v>32.074999968911889</v>
+          </cell>
+        </row>
+        <row r="389">
+          <cell r="B389" t="str">
+            <v xml:space="preserve">2022/11/8
+</v>
+          </cell>
+          <cell r="C389">
+            <v>23.030000690000001</v>
+          </cell>
+          <cell r="D389">
+            <v>32.051627877751912</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="B390" t="str">
+            <v xml:space="preserve">2022/11/9
+</v>
+          </cell>
+          <cell r="C390">
+            <v>22.760000229999999</v>
+          </cell>
+          <cell r="D390">
+            <v>32.027680383814406</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="B391" t="str">
+            <v xml:space="preserve">2022/11/10
+</v>
+          </cell>
+          <cell r="C391">
+            <v>22.31999969</v>
+          </cell>
+          <cell r="D391">
+            <v>32.002724906452414</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="B392" t="str">
+            <v xml:space="preserve">2022/11/11
+</v>
+          </cell>
+          <cell r="C392">
+            <v>22.870000839999999</v>
+          </cell>
+          <cell r="D392">
+            <v>31.979307665256382</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="B393" t="str">
+            <v xml:space="preserve">2022/11/14
+</v>
+          </cell>
+          <cell r="C393">
+            <v>22.88999939</v>
+          </cell>
+          <cell r="D393">
+            <v>31.95606135253194</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="B394" t="str">
+            <v xml:space="preserve">2022/11/15
+</v>
+          </cell>
+          <cell r="C394">
+            <v>23.450000760000002</v>
+          </cell>
+          <cell r="D394">
+            <v>31.934362218367319</v>
+          </cell>
+        </row>
+        <row r="395">
+          <cell r="B395" t="str">
+            <v xml:space="preserve">2022/11/16
+</v>
+          </cell>
+          <cell r="C395">
+            <v>23.129999160000001</v>
+          </cell>
+          <cell r="D395">
+            <v>31.911959258931272</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="B396" t="str">
+            <v xml:space="preserve">2022/11/17
+</v>
+          </cell>
+          <cell r="C396">
+            <v>23.010000229999999</v>
+          </cell>
+          <cell r="D396">
+            <v>31.889365454289315</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="B397" t="str">
+            <v xml:space="preserve">2022/11/18
+</v>
+          </cell>
+          <cell r="C397">
+            <v>23.030000690000001</v>
+          </cell>
+          <cell r="D397">
+            <v>31.866936682734149</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="B398" t="str">
+            <v xml:space="preserve">2022/11/21
+</v>
+          </cell>
+          <cell r="C398">
+            <v>23</v>
+          </cell>
+          <cell r="D398">
+            <v>31.844545428484821</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="B399" t="str">
+            <v xml:space="preserve">2022/11/22
+</v>
+          </cell>
+          <cell r="C399">
+            <v>22.649999619999999</v>
+          </cell>
+          <cell r="D399">
+            <v>31.821385363476043</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="B400" t="str">
+            <v xml:space="preserve">2022/11/23
+</v>
+          </cell>
+          <cell r="C400">
+            <v>22.540000920000001</v>
+          </cell>
+          <cell r="D400">
+            <v>31.798065302060277</v>
+          </cell>
+        </row>
+        <row r="401">
+          <cell r="B401" t="str">
+            <v xml:space="preserve">2022/11/24
+</v>
+          </cell>
+          <cell r="C401">
+            <v>22.510000229999999</v>
+          </cell>
+          <cell r="D401">
+            <v>31.774786943483686</v>
+          </cell>
+        </row>
+        <row r="402">
+          <cell r="B402" t="str">
+            <v xml:space="preserve">2022/11/25
+</v>
+          </cell>
+          <cell r="C402">
+            <v>22.36000061</v>
+          </cell>
+          <cell r="D402">
+            <v>31.751249977649977</v>
+          </cell>
+        </row>
+        <row r="403">
+          <cell r="B403" t="str">
+            <v xml:space="preserve">2022/11/28
+</v>
+          </cell>
+          <cell r="C403">
+            <v>22.200000760000002</v>
+          </cell>
+          <cell r="D403">
+            <v>31.727431401047358</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="B404" t="str">
+            <v xml:space="preserve">2022/11/29
+</v>
+          </cell>
+          <cell r="C404">
+            <v>22.700000760000002</v>
+          </cell>
+          <cell r="D404">
+            <v>31.704975105920376</v>
           </cell>
         </row>
       </sheetData>
@@ -19581,1090 +20044,1091 @@
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="16" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="16" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="16" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="16" customWidth="1"/>
     <col min="10" max="10" width="12.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.75" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.75" style="16" customWidth="1"/>
     <col min="13" max="13" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="2"/>
-    <col min="15" max="15" width="9" style="1"/>
+    <col min="14" max="14" width="9" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1" customWidth="1"/>
     <col min="16" max="16" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="11.375" style="1" customWidth="1"/>
     <col min="19" max="20" width="11.125" style="1" customWidth="1"/>
     <col min="21" max="21" width="10.375" style="1" customWidth="1"/>
     <col min="22" max="22" width="10.25" style="1" customWidth="1"/>
     <col min="23" max="23" width="10.125" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="24" max="24" width="9" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:23" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="11"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21">
         <v>3950</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4">
+      <c r="F2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21">
         <f>MIN(G:G)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="6"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
+      <c r="A3" s="23">
         <v>44316</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="10">
         <f>VLOOKUP(A3,[1]szse_innovation_100!$A:$F,6)</f>
         <v>4.7860299999999993</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="10">
         <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2)</f>
         <v>47.64</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="24">
         <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3)</f>
         <v>45.46631578947369</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="24">
         <v>0</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="25">
         <f t="shared" ref="F3:F21" si="0">E3/B3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="17">
-        <f>G2+F3</f>
+      <c r="G3" s="25">
+        <f t="shared" ref="G3:G21" si="1">G2+F3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="17">
-        <f t="shared" ref="H3:H21" si="1">G3*B3</f>
+      <c r="H3" s="25">
+        <f t="shared" ref="H3:H21" si="2">G3*B3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="17">
-        <f>IF(E3&gt;0,I2+E3,I2)</f>
+      <c r="I3" s="25">
+        <f t="shared" ref="I3:I21" si="3">IF(E3&gt;0,I2+E3,I2)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="17">
-        <f t="shared" ref="J3:J21" si="2">H3+L3</f>
+      <c r="J3" s="25">
+        <f t="shared" ref="J3:J21" si="4">H3+L3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="17">
-        <f t="shared" ref="K3:K21" si="3">J3-I3</f>
+      <c r="K3" s="25">
+        <f t="shared" ref="K3:K21" si="5">J3-I3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="16">
-        <f>IF(E3&lt;0,L2-E3,L2)</f>
+      <c r="L3" s="24">
+        <f t="shared" ref="L3:L21" si="6">IF(E3&lt;0,L2-E3,L2)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="P3" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="26" t="s">
+      <c r="M3" s="4"/>
+      <c r="P3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="26" t="s">
+      <c r="S3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="26" t="s">
+      <c r="T3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="27" t="s">
+      <c r="U3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="W3" s="26" t="s">
+      <c r="V3" s="14" t="s">
         <v>14</v>
+      </c>
+      <c r="W3" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
+      <c r="A4" s="23">
         <v>44347</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="10">
         <f>VLOOKUP(A4,[1]szse_innovation_100!$A:$F,6)</f>
         <v>4.9806599999999994</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="10">
         <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2)</f>
         <v>39.85</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="24">
         <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3)</f>
         <v>41.802432432432425</v>
       </c>
-      <c r="E4" s="16">
-        <f t="shared" ref="E4:E21" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
+      <c r="E4" s="24">
+        <f t="shared" ref="E4:E21" si="7">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
         <v>15057.369992695269</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="25">
         <f t="shared" si="0"/>
         <v>3023.1676108578522</v>
       </c>
-      <c r="G4" s="17">
-        <f t="shared" ref="G4:G21" si="5">G3+F4</f>
+      <c r="G4" s="25">
+        <f t="shared" si="1"/>
         <v>3023.1676108578522</v>
       </c>
-      <c r="H4" s="17">
-        <f t="shared" si="1"/>
-        <v>15057.369992695269</v>
-      </c>
-      <c r="I4" s="17">
-        <f t="shared" ref="I4:I21" si="6">IF(E4&gt;0,I3+E4,I3)</f>
-        <v>15057.369992695269</v>
-      </c>
-      <c r="J4" s="17">
+      <c r="H4" s="25">
         <f t="shared" si="2"/>
         <v>15057.369992695269</v>
       </c>
-      <c r="K4" s="17">
+      <c r="I4" s="25">
         <f t="shared" si="3"/>
+        <v>15057.369992695269</v>
+      </c>
+      <c r="J4" s="25">
+        <f t="shared" si="4"/>
+        <v>15057.369992695269</v>
+      </c>
+      <c r="K4" s="25">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L4" s="16">
-        <f t="shared" ref="L4:L21" si="7">IF(E4&lt;0,L3-E4,L3)</f>
+      <c r="L4" s="24">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="P4" s="19">
+      <c r="M4" s="4"/>
+      <c r="P4" s="26">
         <v>44561</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="27">
         <f>R4</f>
         <v>260275.18576464822</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="21">
         <f>VLOOKUP(P4,A:I,9,)</f>
         <v>260275.18576464822</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="21">
         <f>VLOOKUP(P4,A:J,10,)</f>
         <v>262454.74910559482</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="21">
         <f>VLOOKUP(P4,A:K,11,)</f>
         <v>2179.5633409465954</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="21">
         <f>VLOOKUP(P4,A:L,12,)</f>
         <v>657.86627675392538</v>
       </c>
-      <c r="V4" s="8">
-        <f t="shared" ref="V4" si="8">(S4-R4)/R4</f>
+      <c r="V4" s="6">
+        <f>(S4-R4)/R4</f>
         <v>8.3740727512819774E-3</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4" s="6">
         <f>V4</f>
         <v>8.3740727512819774E-3</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
+      <c r="A5" s="23">
         <v>44377</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="10">
         <f>VLOOKUP(A5,[1]szse_innovation_100!$A:$F,6)</f>
         <v>5.1114799999999994</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="10">
         <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2)</f>
         <v>41.45</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="24">
         <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3)</f>
         <v>41.041896551724122</v>
       </c>
-      <c r="E5" s="16">
-        <f t="shared" si="4"/>
+      <c r="E5" s="24">
+        <f t="shared" si="7"/>
         <v>-657.86627675392538</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="25">
         <f t="shared" si="0"/>
         <v>-128.70367814291075</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="25">
+        <f t="shared" si="1"/>
+        <v>2894.4639327149416</v>
+      </c>
+      <c r="H5" s="25">
+        <f t="shared" si="2"/>
+        <v>14794.994502793768</v>
+      </c>
+      <c r="I5" s="25">
+        <f t="shared" si="3"/>
+        <v>15057.369992695269</v>
+      </c>
+      <c r="J5" s="25">
+        <f t="shared" si="4"/>
+        <v>15452.860779547693</v>
+      </c>
+      <c r="K5" s="25">
         <f t="shared" si="5"/>
-        <v>2894.4639327149416</v>
-      </c>
-      <c r="H5" s="17">
-        <f t="shared" si="1"/>
-        <v>14794.994502793768</v>
-      </c>
-      <c r="I5" s="17">
+        <v>395.49078685242421</v>
+      </c>
+      <c r="L5" s="24">
         <f t="shared" si="6"/>
-        <v>15057.369992695269</v>
-      </c>
-      <c r="J5" s="17">
-        <f t="shared" si="2"/>
-        <v>15452.860779547693</v>
-      </c>
-      <c r="K5" s="17">
-        <f t="shared" si="3"/>
-        <v>395.49078685242421</v>
-      </c>
-      <c r="L5" s="16">
-        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M5" s="6"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
+      <c r="A6" s="23">
         <v>44407</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="10">
         <f>VLOOKUP(A6,[1]szse_innovation_100!$A:$F,6)</f>
         <v>4.9776999999999996</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="10">
         <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2)</f>
         <v>39.930000305175781</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="24">
         <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3)</f>
         <v>40.930499984741189</v>
       </c>
-      <c r="E6" s="16">
-        <f t="shared" si="4"/>
+      <c r="E6" s="24">
+        <f t="shared" si="7"/>
         <v>3953.9484548014116</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="25">
         <f t="shared" si="0"/>
         <v>794.33241352460209</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="25">
+        <f t="shared" si="1"/>
+        <v>3688.7963462395437</v>
+      </c>
+      <c r="H6" s="25">
+        <f t="shared" si="2"/>
+        <v>18361.721572676575</v>
+      </c>
+      <c r="I6" s="25">
+        <f t="shared" si="3"/>
+        <v>19011.31844749668</v>
+      </c>
+      <c r="J6" s="25">
+        <f t="shared" si="4"/>
+        <v>19019.5878494305</v>
+      </c>
+      <c r="K6" s="25">
         <f t="shared" si="5"/>
-        <v>3688.7963462395437</v>
-      </c>
-      <c r="H6" s="17">
-        <f t="shared" si="1"/>
-        <v>18361.721572676575</v>
-      </c>
-      <c r="I6" s="17">
+        <v>8.2694019338196085</v>
+      </c>
+      <c r="L6" s="24">
         <f t="shared" si="6"/>
-        <v>19011.31844749668</v>
-      </c>
-      <c r="J6" s="17">
-        <f t="shared" si="2"/>
-        <v>19019.5878494305</v>
-      </c>
-      <c r="K6" s="17">
-        <f t="shared" si="3"/>
-        <v>8.2694019338196085</v>
-      </c>
-      <c r="L6" s="16">
-        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M6" s="6"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+      <c r="A7" s="23">
         <v>44439</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="10">
         <f>VLOOKUP(A7,[1]szse_innovation_100!$A:$F,6)</f>
         <v>4.7613100000000008</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="10">
         <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2)</f>
         <v>38.069999694824219</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="24">
         <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3)</f>
         <v>40.654705834482208</v>
       </c>
-      <c r="E7" s="16">
-        <f t="shared" si="4"/>
+      <c r="E7" s="24">
+        <f t="shared" si="7"/>
         <v>26388.788022123525</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="25">
         <f t="shared" si="0"/>
         <v>5542.3377226274952</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="25">
+        <f t="shared" si="1"/>
+        <v>9231.1340688670389</v>
+      </c>
+      <c r="H7" s="25">
+        <f t="shared" si="2"/>
+        <v>43952.290953437332</v>
+      </c>
+      <c r="I7" s="25">
+        <f t="shared" si="3"/>
+        <v>45400.106469620208</v>
+      </c>
+      <c r="J7" s="25">
+        <f t="shared" si="4"/>
+        <v>44610.15723019126</v>
+      </c>
+      <c r="K7" s="25">
         <f t="shared" si="5"/>
-        <v>9231.1340688670389</v>
-      </c>
-      <c r="H7" s="17">
-        <f t="shared" si="1"/>
-        <v>43952.290953437332</v>
-      </c>
-      <c r="I7" s="17">
+        <v>-789.9492394289482</v>
+      </c>
+      <c r="L7" s="24">
         <f t="shared" si="6"/>
-        <v>45400.106469620208</v>
-      </c>
-      <c r="J7" s="17">
-        <f t="shared" si="2"/>
-        <v>44610.15723019126</v>
-      </c>
-      <c r="K7" s="17">
-        <f t="shared" si="3"/>
-        <v>-789.9492394289482</v>
-      </c>
-      <c r="L7" s="16">
-        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M7" s="6"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
+      <c r="A8" s="23">
         <v>44469</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="10">
         <f>VLOOKUP(A8,[1]szse_innovation_100!$A:$F,6)</f>
         <v>4.7106400000000006</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="10">
         <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2)</f>
         <v>35.020000457763672</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="24">
         <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3)</f>
         <v>39.730819672131133</v>
       </c>
-      <c r="E8" s="16">
-        <f t="shared" si="4"/>
+      <c r="E8" s="24">
+        <f t="shared" si="7"/>
         <v>87657.679798291982</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="25">
         <f t="shared" si="0"/>
         <v>18608.443820434586</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="25">
+        <f t="shared" si="1"/>
+        <v>27839.577889301625</v>
+      </c>
+      <c r="H8" s="25">
+        <f t="shared" si="2"/>
+        <v>131142.22918845981</v>
+      </c>
+      <c r="I8" s="25">
+        <f t="shared" si="3"/>
+        <v>133057.78626791219</v>
+      </c>
+      <c r="J8" s="25">
+        <f t="shared" si="4"/>
+        <v>131800.09546521373</v>
+      </c>
+      <c r="K8" s="25">
         <f t="shared" si="5"/>
-        <v>27839.577889301625</v>
-      </c>
-      <c r="H8" s="17">
-        <f t="shared" si="1"/>
-        <v>131142.22918845981</v>
-      </c>
-      <c r="I8" s="17">
+        <v>-1257.6908026984602</v>
+      </c>
+      <c r="L8" s="24">
         <f t="shared" si="6"/>
-        <v>133057.78626791219</v>
-      </c>
-      <c r="J8" s="17">
-        <f t="shared" si="2"/>
-        <v>131800.09546521373</v>
-      </c>
-      <c r="K8" s="17">
-        <f t="shared" si="3"/>
-        <v>-1257.6908026984602</v>
-      </c>
-      <c r="L8" s="16">
-        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M8" s="6"/>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
+      <c r="A9" s="23">
         <v>44498</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="10">
         <f>VLOOKUP(A9,[1]szse_innovation_100!$A:$F,6)</f>
         <v>4.8678999999999997</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="10">
         <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2)</f>
         <v>36.299999239999998</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="24">
         <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3)</f>
         <v>39.253623134275358</v>
       </c>
-      <c r="E9" s="16">
-        <f t="shared" si="4"/>
+      <c r="E9" s="24">
+        <f t="shared" si="7"/>
         <v>34459.381729895649</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="25">
         <f t="shared" si="0"/>
         <v>7078.9009079676352</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="25">
+        <f t="shared" si="1"/>
+        <v>34918.478797269257</v>
+      </c>
+      <c r="H9" s="25">
+        <f t="shared" si="2"/>
+        <v>169979.662937227</v>
+      </c>
+      <c r="I9" s="25">
+        <f t="shared" si="3"/>
+        <v>167517.16799780785</v>
+      </c>
+      <c r="J9" s="25">
+        <f t="shared" si="4"/>
+        <v>170637.52921398092</v>
+      </c>
+      <c r="K9" s="25">
         <f t="shared" si="5"/>
-        <v>34918.478797269257</v>
-      </c>
-      <c r="H9" s="17">
-        <f t="shared" si="1"/>
-        <v>169979.662937227</v>
-      </c>
-      <c r="I9" s="17">
+        <v>3120.3612161730707</v>
+      </c>
+      <c r="L9" s="24">
         <f t="shared" si="6"/>
-        <v>167517.16799780785</v>
-      </c>
-      <c r="J9" s="17">
-        <f t="shared" si="2"/>
-        <v>170637.52921398092</v>
-      </c>
-      <c r="K9" s="17">
-        <f t="shared" si="3"/>
-        <v>3120.3612161730707</v>
-      </c>
-      <c r="L9" s="16">
-        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M9" s="6"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
+      <c r="A10" s="23">
         <v>44530</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="10">
         <f>VLOOKUP(A10,[1]szse_innovation_100!$A:$F,6)</f>
         <v>4.9547099609374996</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="10">
         <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2)</f>
         <v>35.450000000000003</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="24">
         <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3)</f>
         <v>38.695499988749994</v>
       </c>
-      <c r="E10" s="16">
-        <f t="shared" si="4"/>
+      <c r="E10" s="24">
+        <f t="shared" si="7"/>
         <v>41606.417199055955</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="25">
         <f t="shared" si="0"/>
         <v>8397.3466715665127</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="25">
+        <f t="shared" si="1"/>
+        <v>43315.82546883577</v>
+      </c>
+      <c r="H10" s="25">
+        <f t="shared" si="2"/>
+        <v>214617.35191667083</v>
+      </c>
+      <c r="I10" s="25">
+        <f t="shared" si="3"/>
+        <v>209123.5851968638</v>
+      </c>
+      <c r="J10" s="25">
+        <f t="shared" si="4"/>
+        <v>215275.21819342475</v>
+      </c>
+      <c r="K10" s="25">
         <f t="shared" si="5"/>
-        <v>43315.82546883577</v>
-      </c>
-      <c r="H10" s="17">
-        <f t="shared" si="1"/>
-        <v>214617.35191667083</v>
-      </c>
-      <c r="I10" s="17">
+        <v>6151.6329965609475</v>
+      </c>
+      <c r="L10" s="24">
         <f t="shared" si="6"/>
-        <v>209123.5851968638</v>
-      </c>
-      <c r="J10" s="17">
-        <f t="shared" si="2"/>
-        <v>215275.21819342475</v>
-      </c>
-      <c r="K10" s="17">
-        <f t="shared" si="3"/>
-        <v>6151.6329965609475</v>
-      </c>
-      <c r="L10" s="16">
-        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M10" s="6"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14">
+      <c r="A11" s="23">
         <v>44561</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="10">
         <f>VLOOKUP(A11,[1]szse_innovation_100!$A:$F,6)</f>
         <v>4.8630097656249998</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="10">
         <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2)</f>
         <v>34.630000000000003</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="24">
         <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3)</f>
         <v>38.228579205136612</v>
       </c>
-      <c r="E11" s="16">
-        <f t="shared" si="4"/>
+      <c r="E11" s="24">
+        <f t="shared" si="7"/>
         <v>51151.60056778443</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="25">
         <f t="shared" si="0"/>
         <v>10518.506651859534</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="25">
+        <f t="shared" si="1"/>
+        <v>53834.332120695304</v>
+      </c>
+      <c r="H11" s="25">
+        <f t="shared" si="2"/>
+        <v>261796.88282884087</v>
+      </c>
+      <c r="I11" s="25">
+        <f t="shared" si="3"/>
+        <v>260275.18576464822</v>
+      </c>
+      <c r="J11" s="25">
+        <f t="shared" si="4"/>
+        <v>262454.74910559482</v>
+      </c>
+      <c r="K11" s="25">
         <f t="shared" si="5"/>
-        <v>53834.332120695304</v>
-      </c>
-      <c r="H11" s="17">
-        <f t="shared" si="1"/>
-        <v>261796.88282884087</v>
-      </c>
-      <c r="I11" s="17">
+        <v>2179.5633409465954</v>
+      </c>
+      <c r="L11" s="24">
         <f t="shared" si="6"/>
-        <v>260275.18576464822</v>
-      </c>
-      <c r="J11" s="17">
-        <f t="shared" si="2"/>
-        <v>262454.74910559482</v>
-      </c>
-      <c r="K11" s="17">
-        <f t="shared" si="3"/>
-        <v>2179.5633409465954</v>
-      </c>
-      <c r="L11" s="16">
-        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M11" s="6"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
+      <c r="A12" s="23">
         <v>44589</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="10">
         <f>VLOOKUP(A12,[1]szse_innovation_100!$A:$F,6)</f>
         <v>4.3440297851562502</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="10">
         <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2)</f>
         <v>31.159999849999998</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="24">
         <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3)</f>
         <v>37.710494996683174</v>
       </c>
-      <c r="E12" s="16">
-        <f t="shared" si="4"/>
+      <c r="E12" s="24">
+        <f t="shared" si="7"/>
         <v>169490.49733354338</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="25">
         <f t="shared" si="0"/>
         <v>39016.881954331948</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="25">
+        <f t="shared" si="1"/>
+        <v>92851.214075027252</v>
+      </c>
+      <c r="H12" s="25">
+        <f t="shared" si="2"/>
+        <v>403348.43952983763</v>
+      </c>
+      <c r="I12" s="25">
+        <f t="shared" si="3"/>
+        <v>429765.68309819163</v>
+      </c>
+      <c r="J12" s="25">
+        <f t="shared" si="4"/>
+        <v>404006.30580659158</v>
+      </c>
+      <c r="K12" s="25">
         <f t="shared" si="5"/>
-        <v>92851.214075027252</v>
-      </c>
-      <c r="H12" s="17">
-        <f t="shared" si="1"/>
-        <v>403348.43952983763</v>
-      </c>
-      <c r="I12" s="17">
+        <v>-25759.377291600045</v>
+      </c>
+      <c r="L12" s="24">
         <f t="shared" si="6"/>
-        <v>429765.68309819163</v>
-      </c>
-      <c r="J12" s="17">
-        <f t="shared" si="2"/>
-        <v>404006.30580659158</v>
-      </c>
-      <c r="K12" s="17">
-        <f t="shared" si="3"/>
-        <v>-25759.377291600045</v>
-      </c>
-      <c r="L12" s="16">
-        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M12" s="6"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="A13" s="23">
         <v>44620</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="10">
         <f>VLOOKUP(A13,[1]szse_innovation_100!$A:$F,6)</f>
         <v>4.3355400390624999</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="10">
         <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2)</f>
         <v>30.969999309999999</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="24">
         <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3)</f>
         <v>37.189770586238538</v>
       </c>
-      <c r="E13" s="16">
-        <f t="shared" si="4"/>
+      <c r="E13" s="24">
+        <f t="shared" si="7"/>
         <v>152807.94117845185</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="25">
         <f t="shared" si="0"/>
         <v>35245.422669766056</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="25">
+        <f t="shared" si="1"/>
+        <v>128096.6367447933</v>
+      </c>
+      <c r="H13" s="25">
+        <f t="shared" si="2"/>
+        <v>555368.09747629601</v>
+      </c>
+      <c r="I13" s="25">
+        <f t="shared" si="3"/>
+        <v>582573.6242766435</v>
+      </c>
+      <c r="J13" s="25">
+        <f t="shared" si="4"/>
+        <v>556025.96375304996</v>
+      </c>
+      <c r="K13" s="25">
         <f t="shared" si="5"/>
-        <v>128096.6367447933</v>
-      </c>
-      <c r="H13" s="17">
-        <f t="shared" si="1"/>
-        <v>555368.09747629601</v>
-      </c>
-      <c r="I13" s="17">
+        <v>-26547.660523593542</v>
+      </c>
+      <c r="L13" s="24">
         <f t="shared" si="6"/>
-        <v>582573.6242766435</v>
-      </c>
-      <c r="J13" s="17">
-        <f t="shared" si="2"/>
-        <v>556025.96375304996</v>
-      </c>
-      <c r="K13" s="17">
-        <f t="shared" si="3"/>
-        <v>-26547.660523593542</v>
-      </c>
-      <c r="L13" s="16">
-        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M13" s="6"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
+      <c r="A14" s="23">
         <v>44651</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="10">
         <f>VLOOKUP(A14,[1]szse_innovation_100!$A:$F,6)</f>
         <v>3.8658500976562502</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="10">
         <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2)</f>
         <v>27.63999939</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="24">
         <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3)</f>
         <v>36.340622369004151</v>
       </c>
-      <c r="E14" s="16">
-        <f t="shared" si="4"/>
+      <c r="E14" s="24">
+        <f t="shared" si="7"/>
         <v>299018.3188799615</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="25">
         <f t="shared" si="0"/>
         <v>77348.658464860651</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="25">
+        <f t="shared" si="1"/>
+        <v>205445.29520965397</v>
+      </c>
+      <c r="H14" s="25">
+        <f t="shared" si="2"/>
+        <v>794220.71454925789</v>
+      </c>
+      <c r="I14" s="25">
+        <f t="shared" si="3"/>
+        <v>881591.943156605</v>
+      </c>
+      <c r="J14" s="25">
+        <f t="shared" si="4"/>
+        <v>794878.58082601184</v>
+      </c>
+      <c r="K14" s="25">
         <f t="shared" si="5"/>
-        <v>205445.29520965397</v>
-      </c>
-      <c r="H14" s="17">
-        <f t="shared" si="1"/>
-        <v>794220.71454925789</v>
-      </c>
-      <c r="I14" s="17">
+        <v>-86713.362330593169</v>
+      </c>
+      <c r="L14" s="24">
         <f t="shared" si="6"/>
-        <v>881591.943156605</v>
-      </c>
-      <c r="J14" s="17">
-        <f t="shared" si="2"/>
-        <v>794878.58082601184</v>
-      </c>
-      <c r="K14" s="17">
-        <f t="shared" si="3"/>
-        <v>-86713.362330593169</v>
-      </c>
-      <c r="L14" s="16">
-        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M14" s="6"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14">
+      <c r="A15" s="23">
         <v>44680</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="10">
         <f>VLOOKUP(A15,[1]szse_innovation_100!$A:$F,6)</f>
         <v>3.5012099609375</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="10">
         <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2)</f>
         <v>25.129999160000001</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="24">
         <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3)</f>
         <v>35.566653817730753</v>
       </c>
-      <c r="E15" s="16">
-        <f t="shared" si="4"/>
+      <c r="E15" s="24">
+        <f t="shared" si="7"/>
         <v>430248.85375669535</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="25">
         <f t="shared" si="0"/>
         <v>122885.76193856422</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="25">
+        <f t="shared" si="1"/>
+        <v>328331.05714821815</v>
+      </c>
+      <c r="H15" s="25">
+        <f t="shared" si="2"/>
+        <v>1149555.967772481</v>
+      </c>
+      <c r="I15" s="25">
+        <f t="shared" si="3"/>
+        <v>1311840.7969133004</v>
+      </c>
+      <c r="J15" s="25">
+        <f t="shared" si="4"/>
+        <v>1150213.8340492349</v>
+      </c>
+      <c r="K15" s="25">
         <f t="shared" si="5"/>
-        <v>328331.05714821815</v>
-      </c>
-      <c r="H15" s="17">
-        <f t="shared" si="1"/>
-        <v>1149555.967772481</v>
-      </c>
-      <c r="I15" s="17">
+        <v>-161626.96286406554</v>
+      </c>
+      <c r="L15" s="24">
         <f t="shared" si="6"/>
-        <v>1311840.7969133004</v>
-      </c>
-      <c r="J15" s="17">
-        <f t="shared" si="2"/>
-        <v>1150213.8340492349</v>
-      </c>
-      <c r="K15" s="17">
-        <f t="shared" si="3"/>
-        <v>-161626.96286406554</v>
-      </c>
-      <c r="L15" s="16">
-        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M15" s="6"/>
+      <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
+      <c r="A16" s="23">
         <v>44712</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="10">
         <f>VLOOKUP(A16,[1]szse_innovation_100!$A:$F,6)</f>
         <v>3.6361599121093748</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="10">
         <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2)</f>
         <v>24.129999160000001</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="24">
         <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3)</f>
         <v>34.740573439534039</v>
       </c>
-      <c r="E16" s="16">
-        <f t="shared" si="4"/>
+      <c r="E16" s="24">
+        <f t="shared" si="7"/>
         <v>444707.93183896161</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="25">
         <f t="shared" si="0"/>
         <v>122301.53309758642</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="25">
+        <f t="shared" si="1"/>
+        <v>450632.59024580457</v>
+      </c>
+      <c r="H16" s="25">
+        <f t="shared" si="2"/>
+        <v>1638572.1597418047</v>
+      </c>
+      <c r="I16" s="25">
+        <f t="shared" si="3"/>
+        <v>1756548.728752262</v>
+      </c>
+      <c r="J16" s="25">
+        <f t="shared" si="4"/>
+        <v>1639230.0260185585</v>
+      </c>
+      <c r="K16" s="25">
         <f t="shared" si="5"/>
-        <v>450632.59024580457</v>
-      </c>
-      <c r="H16" s="17">
-        <f t="shared" si="1"/>
-        <v>1638572.1597418047</v>
-      </c>
-      <c r="I16" s="17">
+        <v>-117318.70273370342</v>
+      </c>
+      <c r="L16" s="24">
         <f t="shared" si="6"/>
-        <v>1756548.728752262</v>
-      </c>
-      <c r="J16" s="17">
-        <f t="shared" si="2"/>
-        <v>1639230.0260185585</v>
-      </c>
-      <c r="K16" s="17">
-        <f t="shared" si="3"/>
-        <v>-117318.70273370342</v>
-      </c>
-      <c r="L16" s="16">
-        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M16" s="6"/>
+      <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14">
+      <c r="A17" s="23">
         <v>44742</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="10">
         <f>VLOOKUP(A17,[1]szse_innovation_100!$A:$F,6)</f>
         <v>4.1096201171875002</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="10">
         <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2)</f>
         <v>27.809999470000001</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="24">
         <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3)</f>
         <v>34.119366627533324</v>
       </c>
-      <c r="E17" s="16">
-        <f t="shared" si="4"/>
+      <c r="E17" s="24">
+        <f t="shared" si="7"/>
         <v>157242.05001781249</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="25">
         <f t="shared" si="0"/>
         <v>38261.942839968433</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="25">
+        <f t="shared" si="1"/>
+        <v>488894.533085773</v>
+      </c>
+      <c r="H17" s="25">
+        <f t="shared" si="2"/>
+        <v>2009170.8083522827</v>
+      </c>
+      <c r="I17" s="25">
+        <f t="shared" si="3"/>
+        <v>1913790.7787700745</v>
+      </c>
+      <c r="J17" s="25">
+        <f t="shared" si="4"/>
+        <v>2009828.6746290366</v>
+      </c>
+      <c r="K17" s="25">
         <f t="shared" si="5"/>
-        <v>488894.533085773</v>
-      </c>
-      <c r="H17" s="17">
-        <f t="shared" si="1"/>
-        <v>2009170.8083522827</v>
-      </c>
-      <c r="I17" s="17">
+        <v>96037.895858962089</v>
+      </c>
+      <c r="L17" s="24">
         <f t="shared" si="6"/>
-        <v>1913790.7787700745</v>
-      </c>
-      <c r="J17" s="17">
-        <f t="shared" si="2"/>
-        <v>2009828.6746290366</v>
-      </c>
-      <c r="K17" s="17">
-        <f t="shared" si="3"/>
-        <v>96037.895858962089</v>
-      </c>
-      <c r="L17" s="16">
-        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M17" s="6"/>
+      <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
+      <c r="A18" s="23">
         <v>44771</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="10">
         <f>VLOOKUP(A18,[1]szse_innovation_100!$A:$F,6)</f>
         <v>3.8724699707031252</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="10">
         <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
         <v>26.329999919999999</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="24">
         <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
         <v>33.666137024579427</v>
       </c>
-      <c r="E18" s="16">
-        <f t="shared" si="4"/>
+      <c r="E18" s="24">
+        <f t="shared" si="7"/>
         <v>212584.68508788882</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="25">
         <f t="shared" si="0"/>
         <v>54896.406349482881</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="25">
+        <f t="shared" si="1"/>
+        <v>543790.93943525583</v>
+      </c>
+      <c r="H18" s="25">
+        <f t="shared" si="2"/>
+        <v>2105814.0833034702</v>
+      </c>
+      <c r="I18" s="25">
+        <f t="shared" si="3"/>
+        <v>2126375.4638579632</v>
+      </c>
+      <c r="J18" s="25">
+        <f t="shared" si="4"/>
+        <v>2106471.9495802242</v>
+      </c>
+      <c r="K18" s="25">
         <f t="shared" si="5"/>
-        <v>543790.93943525583</v>
-      </c>
-      <c r="H18" s="17">
-        <f t="shared" si="1"/>
-        <v>2105814.0833034702</v>
-      </c>
-      <c r="I18" s="17">
+        <v>-19903.514277738985</v>
+      </c>
+      <c r="L18" s="24">
         <f t="shared" si="6"/>
-        <v>2126375.4638579632</v>
-      </c>
-      <c r="J18" s="17">
-        <f t="shared" si="2"/>
-        <v>2106471.9495802242</v>
-      </c>
-      <c r="K18" s="17">
-        <f t="shared" si="3"/>
-        <v>-19903.514277738985</v>
-      </c>
-      <c r="L18" s="16">
-        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M18" s="6"/>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14">
+      <c r="A19" s="23">
         <v>44804</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="10">
         <f>VLOOKUP(A19,[1]szse_innovation_100!$A:$F,6)</f>
         <v>3.7022099609375001</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="10">
         <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
         <v>25.18000031</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="24">
         <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
         <v>33.177616240465106</v>
       </c>
-      <c r="E19" s="16">
-        <f t="shared" si="4"/>
+      <c r="E19" s="24">
+        <f t="shared" si="7"/>
         <v>252649.34925635549</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="25">
         <f t="shared" si="0"/>
         <v>68242.847359304767</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="25">
+        <f t="shared" si="1"/>
+        <v>612033.78679456061</v>
+      </c>
+      <c r="H19" s="25">
+        <f t="shared" si="2"/>
+        <v>2265877.5819011205</v>
+      </c>
+      <c r="I19" s="25">
+        <f t="shared" si="3"/>
+        <v>2379024.8131143185</v>
+      </c>
+      <c r="J19" s="25">
+        <f t="shared" si="4"/>
+        <v>2266535.4481778746</v>
+      </c>
+      <c r="K19" s="25">
         <f t="shared" si="5"/>
-        <v>612033.78679456061</v>
-      </c>
-      <c r="H19" s="17">
-        <f t="shared" si="1"/>
-        <v>2265877.5819011205</v>
-      </c>
-      <c r="I19" s="17">
+        <v>-112489.36493644398</v>
+      </c>
+      <c r="L19" s="24">
         <f t="shared" si="6"/>
-        <v>2379024.8131143185</v>
-      </c>
-      <c r="J19" s="17">
-        <f t="shared" si="2"/>
-        <v>2266535.4481778746</v>
-      </c>
-      <c r="K19" s="17">
-        <f t="shared" si="3"/>
-        <v>-112489.36493644398</v>
-      </c>
-      <c r="L19" s="16">
-        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M19" s="6"/>
+      <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
+      <c r="A20" s="23">
         <v>44834</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="10">
         <f>VLOOKUP(A20,[1]szse_innovation_100!$A:$F,6)</f>
         <v>3.3477299804687499</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="10">
         <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
         <v>23.340000150000002</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="24">
         <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
         <v>32.601424623862997</v>
       </c>
-      <c r="E20" s="16">
-        <f t="shared" si="4"/>
+      <c r="E20" s="24">
+        <f t="shared" si="7"/>
         <v>338807.23397602042</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="25">
         <f t="shared" si="0"/>
         <v>101205.06610529579</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="25">
+        <f t="shared" si="1"/>
+        <v>713238.8528998564</v>
+      </c>
+      <c r="H20" s="25">
+        <f t="shared" si="2"/>
+        <v>2387731.09108799</v>
+      </c>
+      <c r="I20" s="25">
+        <f t="shared" si="3"/>
+        <v>2717832.047090339</v>
+      </c>
+      <c r="J20" s="25">
+        <f t="shared" si="4"/>
+        <v>2388388.957364744</v>
+      </c>
+      <c r="K20" s="25">
         <f t="shared" si="5"/>
-        <v>713238.8528998564</v>
-      </c>
-      <c r="H20" s="17">
-        <f t="shared" si="1"/>
-        <v>2387731.09108799</v>
-      </c>
-      <c r="I20" s="17">
+        <v>-329443.08972559497</v>
+      </c>
+      <c r="L20" s="24">
         <f t="shared" si="6"/>
-        <v>2717832.047090339</v>
-      </c>
-      <c r="J20" s="17">
-        <f t="shared" si="2"/>
-        <v>2388388.957364744</v>
-      </c>
-      <c r="K20" s="17">
-        <f t="shared" si="3"/>
-        <v>-329443.08972559497</v>
-      </c>
-      <c r="L20" s="16">
-        <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>
-      <c r="M20" s="7"/>
-      <c r="P20" s="3"/>
+      <c r="M20" s="5"/>
+      <c r="P20" s="16"/>
     </row>
-    <row r="21" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="14">
+    <row r="21" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23">
         <v>44865</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="10">
         <f>VLOOKUP(A21,[1]szse_innovation_100!$A:$F,6)</f>
         <v>3.2993999023437501</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="10">
         <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
         <v>22.239999770000001</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="24">
         <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="16">
+        <v>32.197401538923856</v>
+      </c>
+      <c r="E21" s="24">
+        <f t="shared" si="7"/>
+        <v>391641.90745168331</v>
+      </c>
+      <c r="F21" s="25">
+        <f t="shared" si="0"/>
+        <v>118700.95139830669</v>
+      </c>
+      <c r="G21" s="25">
+        <f t="shared" si="1"/>
+        <v>831939.80429816304</v>
+      </c>
+      <c r="H21" s="25">
+        <f t="shared" si="2"/>
+        <v>2744902.1090572379</v>
+      </c>
+      <c r="I21" s="25">
+        <f t="shared" si="3"/>
+        <v>3109473.9545420222</v>
+      </c>
+      <c r="J21" s="25">
         <f t="shared" si="4"/>
-        <v>-1953739.4795899205</v>
-      </c>
-      <c r="F21" s="17">
-        <f t="shared" si="0"/>
-        <v>-592149.94769263011</v>
-      </c>
-      <c r="G21" s="17">
+        <v>2745559.9753339919</v>
+      </c>
+      <c r="K21" s="25">
         <f t="shared" si="5"/>
-        <v>121088.90520722629</v>
-      </c>
-      <c r="H21" s="17">
-        <f t="shared" si="1"/>
-        <v>399520.722015634</v>
-      </c>
-      <c r="I21" s="17">
+        <v>-363913.97920803027</v>
+      </c>
+      <c r="L21" s="24">
         <f t="shared" si="6"/>
-        <v>2717832.047090339</v>
-      </c>
-      <c r="J21" s="17">
-        <f t="shared" si="2"/>
-        <v>2353918.0678823083</v>
-      </c>
-      <c r="K21" s="17">
-        <f t="shared" si="3"/>
-        <v>-363913.97920803074</v>
-      </c>
-      <c r="L21" s="16">
-        <f t="shared" si="7"/>
-        <v>1954397.3458666743</v>
+        <v>657.86627675392538</v>
       </c>
     </row>
   </sheetData>
@@ -20675,7 +21139,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="model4(1)" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="model4(1)" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="金额" localSheetId="0">OFFSET('model4(1)'!K1,0,0,COUNTA('model4(1)'!K:K)-1)</definedName>
@@ -21,158 +20,113 @@
     <definedName name="资产" localSheetId="0">OFFSET('model4(1)'!J1,0,0,COUNTA('model4(1)'!J:J)-1)</definedName>
     <definedName name="资金" localSheetId="0">OFFSET('model4(1)'!I1,0,0,COUNTA('model4(1)'!I:I)-1)</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>szse innovation100</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>historical PE mean</t>
-  </si>
-  <si>
-    <t>sales amount</t>
-  </si>
-  <si>
-    <t>sales shares</t>
-  </si>
-  <si>
-    <t>shares held</t>
-  </si>
-  <si>
-    <t>market value</t>
-  </si>
-  <si>
-    <t>accumulated investment</t>
-  </si>
-  <si>
-    <t>total assets</t>
-  </si>
-  <si>
-    <t>profit amount</t>
-  </si>
-  <si>
-    <t>recovered funds</t>
-  </si>
-  <si>
-    <t>unit:yuan</t>
-  </si>
-  <si>
-    <t>investment per year</t>
-  </si>
-  <si>
-    <t>absolute RR</t>
-  </si>
-  <si>
-    <t>annualized RR</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.00_);(0.00)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
       <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="0"/>
       <sz val="10"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <color indexed="10"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="10"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <color rgb="00ff0000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -221,64 +175,95 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="45">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="11" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="8" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="11" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -297,34 +282,86 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -344,541 +381,557 @@
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
+        </rich>
+      </tx>
+      <layout/>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.1300813604622218"/>
-          <c:y val="7.4401451718666578E-2"/>
-          <c:w val="0.83511435446609106"/>
-          <c:h val="0.59209072023586662"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'model4(1)'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>accumulated investment</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
+      </spPr>
+    </title>
+    <plotArea>
+      <layout>
+        <manualLayout>
+          <layoutTarget val="inner"/>
+          <xMode val="edge"/>
+          <yMode val="edge"/>
+          <wMode val="factor"/>
+          <hMode val="factor"/>
+          <x val="0.1300813604622218"/>
+          <y val="0.07440145171866658"/>
+          <w val="0.8351143544660911"/>
+          <h val="0.5920907202358666"/>
+        </manualLayout>
+      </layout>
+      <lineChart>
+        <grouping val="standard"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'model4(1)'!$I$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>accumulated investment</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'model4(1)'!时间</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>44316</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44347</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44377</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44407</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44439</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44469</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44498</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44530</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44589</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44620</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44651</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44680</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44712</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44771</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44804</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44834</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44865</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'model4(1)'!资金</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15057.369992695269</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15057.369992695269</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19011.31844749668</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45400.106469620208</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>133057.78626791219</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>167517.16799780785</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>209123.5851968638</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>260275.18576464822</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>429765.68309819163</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>582573.6242766435</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>881591.943156605</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1311840.7969133004</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1756548.728752262</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1913790.7787700745</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2126375.4638579632</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2379024.8131143185</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2717832.047090339</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3109473.9545420222</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'model4(1)'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>total assets</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'model4(1)'!时间</f>
+              <numCache>
+                <formatCode>yyyy\-mm\-dd</formatCode>
+                <ptCount val="19"/>
+                <pt idx="0">
+                  <v>44316</v>
+                </pt>
+                <pt idx="1">
+                  <v>44347</v>
+                </pt>
+                <pt idx="2">
+                  <v>44377</v>
+                </pt>
+                <pt idx="3">
+                  <v>44407</v>
+                </pt>
+                <pt idx="4">
+                  <v>44439</v>
+                </pt>
+                <pt idx="5">
+                  <v>44469</v>
+                </pt>
+                <pt idx="6">
+                  <v>44498</v>
+                </pt>
+                <pt idx="7">
+                  <v>44530</v>
+                </pt>
+                <pt idx="8">
+                  <v>44561</v>
+                </pt>
+                <pt idx="9">
+                  <v>44589</v>
+                </pt>
+                <pt idx="10">
+                  <v>44620</v>
+                </pt>
+                <pt idx="11">
+                  <v>44651</v>
+                </pt>
+                <pt idx="12">
+                  <v>44680</v>
+                </pt>
+                <pt idx="13">
+                  <v>44712</v>
+                </pt>
+                <pt idx="14">
+                  <v>44742</v>
+                </pt>
+                <pt idx="15">
+                  <v>44771</v>
+                </pt>
+                <pt idx="16">
+                  <v>44804</v>
+                </pt>
+                <pt idx="17">
+                  <v>44834</v>
+                </pt>
+                <pt idx="18">
+                  <v>44865</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'model4(1)'!资金</f>
+              <numCache>
+                <formatCode xml:space="preserve">0.00_ </formatCode>
+                <ptCount val="19"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>15057.36999269527</v>
+                </pt>
+                <pt idx="2">
+                  <v>15057.36999269527</v>
+                </pt>
+                <pt idx="3">
+                  <v>19011.31844749668</v>
+                </pt>
+                <pt idx="4">
+                  <v>45400.10646962021</v>
+                </pt>
+                <pt idx="5">
+                  <v>133057.7862679122</v>
+                </pt>
+                <pt idx="6">
+                  <v>167517.1679978078</v>
+                </pt>
+                <pt idx="7">
+                  <v>209123.5851968638</v>
+                </pt>
+                <pt idx="8">
+                  <v>260275.1857646482</v>
+                </pt>
+                <pt idx="9">
+                  <v>429765.6830981916</v>
+                </pt>
+                <pt idx="10">
+                  <v>582573.6242766435</v>
+                </pt>
+                <pt idx="11">
+                  <v>881591.943156605</v>
+                </pt>
+                <pt idx="12">
+                  <v>1311840.7969133</v>
+                </pt>
+                <pt idx="13">
+                  <v>1756548.728752262</v>
+                </pt>
+                <pt idx="14">
+                  <v>1913790.778770074</v>
+                </pt>
+                <pt idx="15">
+                  <v>2126375.463857963</v>
+                </pt>
+                <pt idx="16">
+                  <v>2379024.813114319</v>
+                </pt>
+                <pt idx="17">
+                  <v>2717832.047090339</v>
+                </pt>
+                <pt idx="18">
+                  <v>3109473.954542022</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'model4(1)'!$J$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>total assets</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'model4(1)'!时间</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>44316</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44347</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44377</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44407</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44439</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44469</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44498</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44530</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44589</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44620</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44651</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44680</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44712</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44771</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44804</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44834</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44865</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'model4(1)'!资产</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15057.369992695269</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15452.860779547693</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19019.5878494305</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44610.15723019126</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>131800.09546521373</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>170637.52921398092</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>215275.21819342475</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>262454.74910559482</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>404006.30580659158</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>556025.96375304996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>794878.58082601184</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1150213.8340492349</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1639230.0260185585</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2009828.6746290366</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2106471.9495802242</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2266535.4481778746</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2388388.957364744</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2745559.9753339919</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'model4(1)'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>profit amount</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'model4(1)'!时间</f>
+              <numCache>
+                <formatCode>yyyy\-mm\-dd</formatCode>
+                <ptCount val="19"/>
+                <pt idx="0">
+                  <v>44316</v>
+                </pt>
+                <pt idx="1">
+                  <v>44347</v>
+                </pt>
+                <pt idx="2">
+                  <v>44377</v>
+                </pt>
+                <pt idx="3">
+                  <v>44407</v>
+                </pt>
+                <pt idx="4">
+                  <v>44439</v>
+                </pt>
+                <pt idx="5">
+                  <v>44469</v>
+                </pt>
+                <pt idx="6">
+                  <v>44498</v>
+                </pt>
+                <pt idx="7">
+                  <v>44530</v>
+                </pt>
+                <pt idx="8">
+                  <v>44561</v>
+                </pt>
+                <pt idx="9">
+                  <v>44589</v>
+                </pt>
+                <pt idx="10">
+                  <v>44620</v>
+                </pt>
+                <pt idx="11">
+                  <v>44651</v>
+                </pt>
+                <pt idx="12">
+                  <v>44680</v>
+                </pt>
+                <pt idx="13">
+                  <v>44712</v>
+                </pt>
+                <pt idx="14">
+                  <v>44742</v>
+                </pt>
+                <pt idx="15">
+                  <v>44771</v>
+                </pt>
+                <pt idx="16">
+                  <v>44804</v>
+                </pt>
+                <pt idx="17">
+                  <v>44834</v>
+                </pt>
+                <pt idx="18">
+                  <v>44865</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'model4(1)'!资产</f>
+              <numCache>
+                <formatCode xml:space="preserve">0.00_ </formatCode>
+                <ptCount val="19"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>15057.36999269527</v>
+                </pt>
+                <pt idx="2">
+                  <v>15452.86077954769</v>
+                </pt>
+                <pt idx="3">
+                  <v>19019.5878494305</v>
+                </pt>
+                <pt idx="4">
+                  <v>44610.15723019126</v>
+                </pt>
+                <pt idx="5">
+                  <v>131800.0954652137</v>
+                </pt>
+                <pt idx="6">
+                  <v>170637.5292139809</v>
+                </pt>
+                <pt idx="7">
+                  <v>215275.2181934247</v>
+                </pt>
+                <pt idx="8">
+                  <v>262454.7491055948</v>
+                </pt>
+                <pt idx="9">
+                  <v>404006.3058065916</v>
+                </pt>
+                <pt idx="10">
+                  <v>556025.96375305</v>
+                </pt>
+                <pt idx="11">
+                  <v>794878.5808260118</v>
+                </pt>
+                <pt idx="12">
+                  <v>1150213.834049235</v>
+                </pt>
+                <pt idx="13">
+                  <v>1639230.026018559</v>
+                </pt>
+                <pt idx="14">
+                  <v>2009828.674629037</v>
+                </pt>
+                <pt idx="15">
+                  <v>2106471.949580224</v>
+                </pt>
+                <pt idx="16">
+                  <v>2266535.448177875</v>
+                </pt>
+                <pt idx="17">
+                  <v>2388388.957364744</v>
+                </pt>
+                <pt idx="18">
+                  <v>2745559.975333992</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'model4(1)'!$K$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>profit amount</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'model4(1)'!时间</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>44316</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44347</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44377</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44407</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44439</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44469</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44498</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44530</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44589</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44620</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44651</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44680</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44712</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44771</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44804</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44834</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44865</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'model4(1)'!金额</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>395.49078685242421</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.2694019338196085</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-789.9492394289482</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1257.6908026984602</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3120.3612161730707</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6151.6329965609475</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2179.5633409465954</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-25759.377291600045</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-26547.660523593542</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-86713.362330593169</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-161626.96286406554</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-117318.70273370342</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>96037.895858962089</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-19903.514277738985</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-112489.36493644398</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-329443.08972559497</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-363913.97920803027</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="141854976"/>
-        <c:axId val="248165120"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="141854976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'model4(1)'!时间</f>
+              <numCache>
+                <formatCode>yyyy\-mm\-dd</formatCode>
+                <ptCount val="19"/>
+                <pt idx="0">
+                  <v>44316</v>
+                </pt>
+                <pt idx="1">
+                  <v>44347</v>
+                </pt>
+                <pt idx="2">
+                  <v>44377</v>
+                </pt>
+                <pt idx="3">
+                  <v>44407</v>
+                </pt>
+                <pt idx="4">
+                  <v>44439</v>
+                </pt>
+                <pt idx="5">
+                  <v>44469</v>
+                </pt>
+                <pt idx="6">
+                  <v>44498</v>
+                </pt>
+                <pt idx="7">
+                  <v>44530</v>
+                </pt>
+                <pt idx="8">
+                  <v>44561</v>
+                </pt>
+                <pt idx="9">
+                  <v>44589</v>
+                </pt>
+                <pt idx="10">
+                  <v>44620</v>
+                </pt>
+                <pt idx="11">
+                  <v>44651</v>
+                </pt>
+                <pt idx="12">
+                  <v>44680</v>
+                </pt>
+                <pt idx="13">
+                  <v>44712</v>
+                </pt>
+                <pt idx="14">
+                  <v>44742</v>
+                </pt>
+                <pt idx="15">
+                  <v>44771</v>
+                </pt>
+                <pt idx="16">
+                  <v>44804</v>
+                </pt>
+                <pt idx="17">
+                  <v>44834</v>
+                </pt>
+                <pt idx="18">
+                  <v>44865</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'model4(1)'!金额</f>
+              <numCache>
+                <formatCode xml:space="preserve">0.00_ </formatCode>
+                <ptCount val="19"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0</v>
+                </pt>
+                <pt idx="2">
+                  <v>395.4907868524242</v>
+                </pt>
+                <pt idx="3">
+                  <v>8.269401933819609</v>
+                </pt>
+                <pt idx="4">
+                  <v>-789.9492394289482</v>
+                </pt>
+                <pt idx="5">
+                  <v>-1257.69080269846</v>
+                </pt>
+                <pt idx="6">
+                  <v>3120.361216173071</v>
+                </pt>
+                <pt idx="7">
+                  <v>6151.632996560948</v>
+                </pt>
+                <pt idx="8">
+                  <v>2179.563340946595</v>
+                </pt>
+                <pt idx="9">
+                  <v>-25759.37729160005</v>
+                </pt>
+                <pt idx="10">
+                  <v>-26547.66052359354</v>
+                </pt>
+                <pt idx="11">
+                  <v>-86713.36233059317</v>
+                </pt>
+                <pt idx="12">
+                  <v>-161626.9628640655</v>
+                </pt>
+                <pt idx="13">
+                  <v>-117318.7027337034</v>
+                </pt>
+                <pt idx="14">
+                  <v>96037.89585896209</v>
+                </pt>
+                <pt idx="15">
+                  <v>-19903.51427773898</v>
+                </pt>
+                <pt idx="16">
+                  <v>-112489.364936444</v>
+                </pt>
+                <pt idx="17">
+                  <v>-329443.089725595</v>
+                </pt>
+                <pt idx="18">
+                  <v>-363913.9792080303</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <marker val="1"/>
+        <smooth val="0"/>
+        <axId val="76528256"/>
+        <axId val="94351744"/>
+      </lineChart>
+      <dateAx>
+        <axId val="76528256"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="low"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -888,11 +941,11 @@
             <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -906,25 +959,27 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
-        </c:txPr>
-        <c:crossAx val="248165120"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="248165120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        </txPr>
+        <crossAx val="94351744"/>
+        <crosses val="autoZero"/>
+        <lblOffset val="100"/>
+        <baseTimeUnit val="days"/>
+      </dateAx>
+      <valAx>
+        <axId val="94351744"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -934,23 +989,23 @@
               <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -964,29 +1019,32 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
-        </c:txPr>
-        <c:crossAx val="141854976"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
+        </txPr>
+        <crossAx val="76528256"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <layout/>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
+      </spPr>
+      <txPr>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -1000,42 +1058,28 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
           <a:endParaRPr lang="zh-CN"/>
         </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+      </txPr>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -1050,325 +1094,333 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                <effectLst/>
+              </a:rPr>
               <a:t>szseinnovation100index &amp;                                            sales amount per month</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <effectLst/>
+            </a:endParaRPr>
           </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
+      </spPr>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:schemeClr val="accent2"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'model4(1)'!买卖</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15057.369992695269</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-657.86627675392538</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3953.9484548014116</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26388.788022123525</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>87657.679798291982</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>34459.381729895649</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41606.417199055955</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>51151.60056778443</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>169490.49733354338</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>152807.94117845185</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>299018.3188799615</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>430248.85375669535</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>444707.93183896161</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>157242.05001781249</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>212584.68508788882</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>252649.34925635549</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>338807.23397602042</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>391641.90745168331</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="261926272"/>
-        <c:axId val="267974144"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
+          </spPr>
+          <invertIfNegative val="0"/>
+          <val>
+            <numRef>
+              <f>'model4(1)'!买卖</f>
+              <numCache>
+                <formatCode xml:space="preserve">0.00_ </formatCode>
+                <ptCount val="19"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>15057.36999269527</v>
+                </pt>
+                <pt idx="2">
+                  <v>-657.8662767539254</v>
+                </pt>
+                <pt idx="3">
+                  <v>3953.948454801412</v>
+                </pt>
+                <pt idx="4">
+                  <v>26388.78802212352</v>
+                </pt>
+                <pt idx="5">
+                  <v>87657.67979829198</v>
+                </pt>
+                <pt idx="6">
+                  <v>34459.38172989565</v>
+                </pt>
+                <pt idx="7">
+                  <v>41606.41719905596</v>
+                </pt>
+                <pt idx="8">
+                  <v>51151.60056778443</v>
+                </pt>
+                <pt idx="9">
+                  <v>169490.4973335434</v>
+                </pt>
+                <pt idx="10">
+                  <v>152807.9411784518</v>
+                </pt>
+                <pt idx="11">
+                  <v>299018.3188799615</v>
+                </pt>
+                <pt idx="12">
+                  <v>430248.8537566953</v>
+                </pt>
+                <pt idx="13">
+                  <v>444707.9318389616</v>
+                </pt>
+                <pt idx="14">
+                  <v>157242.0500178125</v>
+                </pt>
+                <pt idx="15">
+                  <v>212584.6850878888</v>
+                </pt>
+                <pt idx="16">
+                  <v>252649.3492563555</v>
+                </pt>
+                <pt idx="17">
+                  <v>338807.2339760204</v>
+                </pt>
+                <pt idx="18">
+                  <v>391641.9074516833</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="77567488"/>
+        <axId val="77565952"/>
+      </barChart>
+      <lineChart>
+        <grouping val="standard"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'model4(1)'!时间</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>44316</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44347</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44377</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44407</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44439</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44469</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44498</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44530</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44589</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44620</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44651</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44680</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44712</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44771</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44804</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44834</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44865</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'model4(1)'!指数</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>4.7860299999999993</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.9806599999999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.1114799999999994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9776999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.7613100000000008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.7106400000000006</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.8678999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.9547099609374996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.8630097656249998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.3440297851562502</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.3355400390624999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.8658500976562502</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.5012099609375</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.6361599121093748</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.1096201171875002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.8724699707031252</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.7022099609375001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.3477299804687499</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.2993999023437501</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="267976064"/>
-        <c:axId val="268072448"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="261926272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267974144"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="267974144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'model4(1)'!时间</f>
+              <numCache>
+                <formatCode>yyyy\-mm\-dd</formatCode>
+                <ptCount val="19"/>
+                <pt idx="0">
+                  <v>44316</v>
+                </pt>
+                <pt idx="1">
+                  <v>44347</v>
+                </pt>
+                <pt idx="2">
+                  <v>44377</v>
+                </pt>
+                <pt idx="3">
+                  <v>44407</v>
+                </pt>
+                <pt idx="4">
+                  <v>44439</v>
+                </pt>
+                <pt idx="5">
+                  <v>44469</v>
+                </pt>
+                <pt idx="6">
+                  <v>44498</v>
+                </pt>
+                <pt idx="7">
+                  <v>44530</v>
+                </pt>
+                <pt idx="8">
+                  <v>44561</v>
+                </pt>
+                <pt idx="9">
+                  <v>44589</v>
+                </pt>
+                <pt idx="10">
+                  <v>44620</v>
+                </pt>
+                <pt idx="11">
+                  <v>44651</v>
+                </pt>
+                <pt idx="12">
+                  <v>44680</v>
+                </pt>
+                <pt idx="13">
+                  <v>44712</v>
+                </pt>
+                <pt idx="14">
+                  <v>44742</v>
+                </pt>
+                <pt idx="15">
+                  <v>44771</v>
+                </pt>
+                <pt idx="16">
+                  <v>44804</v>
+                </pt>
+                <pt idx="17">
+                  <v>44834</v>
+                </pt>
+                <pt idx="18">
+                  <v>44865</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'model4(1)'!指数</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="19"/>
+                <pt idx="0">
+                  <v>4.786029999999999</v>
+                </pt>
+                <pt idx="1">
+                  <v>4.980659999999999</v>
+                </pt>
+                <pt idx="2">
+                  <v>5.111479999999999</v>
+                </pt>
+                <pt idx="3">
+                  <v>4.9777</v>
+                </pt>
+                <pt idx="4">
+                  <v>4.761310000000001</v>
+                </pt>
+                <pt idx="5">
+                  <v>4.710640000000001</v>
+                </pt>
+                <pt idx="6">
+                  <v>4.8679</v>
+                </pt>
+                <pt idx="7">
+                  <v>4.9547099609375</v>
+                </pt>
+                <pt idx="8">
+                  <v>4.863009765625</v>
+                </pt>
+                <pt idx="9">
+                  <v>4.34402978515625</v>
+                </pt>
+                <pt idx="10">
+                  <v>4.3355400390625</v>
+                </pt>
+                <pt idx="11">
+                  <v>3.86585009765625</v>
+                </pt>
+                <pt idx="12">
+                  <v>3.5012099609375</v>
+                </pt>
+                <pt idx="13">
+                  <v>3.636159912109375</v>
+                </pt>
+                <pt idx="14">
+                  <v>4.1096201171875</v>
+                </pt>
+                <pt idx="15">
+                  <v>3.872469970703125</v>
+                </pt>
+                <pt idx="16">
+                  <v>3.7022099609375</v>
+                </pt>
+                <pt idx="17">
+                  <v>3.34772998046875</v>
+                </pt>
+                <pt idx="18">
+                  <v>3.29939990234375</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <marker val="1"/>
+        <smooth val="0"/>
+        <axId val="77550336"/>
+        <axId val="77551872"/>
+      </lineChart>
+      <catAx>
+        <axId val="77567488"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="b"/>
+        <majorTickMark val="out"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="77565952"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="77565952"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="r"/>
+        <numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <majorTickMark val="out"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -1382,27 +1434,30 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
-        </c:txPr>
-        <c:crossAx val="261926272"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:dateAx>
-        <c:axId val="267976064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        </txPr>
+        <crossAx val="77567488"/>
+        <crosses val="max"/>
+        <crossBetween val="between"/>
+      </valAx>
+      <dateAx>
+        <axId val="77550336"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <majorTickMark val="out"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1412,11 +1467,11 @@
             <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -1430,25 +1485,27 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
-        </c:txPr>
-        <c:crossAx val="268072448"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="268072448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        </txPr>
+        <crossAx val="77551872"/>
+        <crosses val="autoZero"/>
+        <lblOffset val="100"/>
+        <baseTimeUnit val="days"/>
+      </dateAx>
+      <valAx>
+        <axId val="77551872"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -1458,23 +1515,23 @@
               <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -1488,93 +1545,84 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
-        </c:txPr>
-        <c:crossAx val="267976064"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+        </txPr>
+        <crossAx val="77550336"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor>
+    <from>
+      <col>14</col>
+      <colOff>676275</colOff>
+      <row>4</row>
+      <rowOff>85725</rowOff>
+    </from>
+    <to>
+      <col>21</col>
+      <colOff>752475</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor>
+    <from>
+      <col>22</col>
+      <colOff>57149</colOff>
+      <row>4</row>
+      <rowOff>104775</rowOff>
+    </from>
+    <to>
+      <col>30</col>
+      <colOff>209549</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="szse_innovation_100"/>
@@ -15054,7 +15102,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="model1"/>
@@ -20030,1116 +20078,1199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="16" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="16" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="16" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="16" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.75" style="16" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.375" style="1" customWidth="1"/>
-    <col min="19" max="20" width="11.125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.25" style="1" customWidth="1"/>
-    <col min="23" max="23" width="10.125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="9" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="1"/>
+    <col width="10" customWidth="1" style="1" min="1" max="1"/>
+    <col width="8" customWidth="1" style="1" min="2" max="2"/>
+    <col width="6.375" customWidth="1" style="1" min="3" max="3"/>
+    <col width="6.875" customWidth="1" style="28" min="4" max="4"/>
+    <col width="9.375" customWidth="1" style="28" min="5" max="5"/>
+    <col width="9.25" customWidth="1" style="28" min="6" max="6"/>
+    <col width="10.75" customWidth="1" style="28" min="7" max="7"/>
+    <col width="11.5" customWidth="1" style="28" min="8" max="8"/>
+    <col width="12.75" customWidth="1" style="28" min="9" max="9"/>
+    <col width="12.625" customWidth="1" style="1" min="10" max="10"/>
+    <col width="10.75" customWidth="1" style="1" min="11" max="11"/>
+    <col width="10.75" customWidth="1" style="28" min="12" max="12"/>
+    <col width="9.5" bestFit="1" customWidth="1" style="1" min="13" max="13"/>
+    <col width="9" customWidth="1" style="2" min="14" max="14"/>
+    <col width="9" customWidth="1" style="1" min="15" max="15"/>
+    <col width="9.75" bestFit="1" customWidth="1" style="1" min="16" max="16"/>
+    <col width="11.375" customWidth="1" style="1" min="17" max="18"/>
+    <col width="11.125" customWidth="1" style="1" min="19" max="20"/>
+    <col width="10.375" customWidth="1" style="1" min="21" max="21"/>
+    <col width="10.25" customWidth="1" style="1" min="22" max="22"/>
+    <col width="10.125" customWidth="1" style="1" min="23" max="23"/>
+    <col width="9" customWidth="1" style="1" min="24" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" ht="27" customFormat="1" customHeight="1" s="10">
+      <c r="A1" s="12" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="12" t="inlineStr">
+        <is>
+          <t>szse innovation100</t>
+        </is>
+      </c>
+      <c r="C1" s="12" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="D1" s="29" t="inlineStr">
+        <is>
+          <t>historical PE mean</t>
+        </is>
+      </c>
+      <c r="E1" s="30" t="inlineStr">
+        <is>
+          <t>sales amount</t>
+        </is>
+      </c>
+      <c r="F1" s="30" t="inlineStr">
+        <is>
+          <t>sales shares</t>
+        </is>
+      </c>
+      <c r="G1" s="30" t="inlineStr">
+        <is>
+          <t>shares held</t>
+        </is>
+      </c>
+      <c r="H1" s="30" t="inlineStr">
+        <is>
+          <t>market value</t>
+        </is>
+      </c>
+      <c r="I1" s="31" t="inlineStr">
+        <is>
+          <t>accumulated investment</t>
+        </is>
+      </c>
+      <c r="J1" s="22" t="inlineStr">
+        <is>
+          <t>total assets</t>
+        </is>
+      </c>
+      <c r="K1" s="23" t="inlineStr">
+        <is>
+          <t>profit amount</t>
+        </is>
+      </c>
+      <c r="L1" s="32" t="inlineStr">
+        <is>
+          <t>recovered funds</t>
+        </is>
+      </c>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2" ht="14.1" customHeight="1">
+      <c r="A2" s="5" t="n"/>
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="5" t="n"/>
+      <c r="D2" s="33" t="n"/>
+      <c r="E2" s="33" t="n">
+        <v>3950</v>
+      </c>
+      <c r="F2" s="34" t="inlineStr">
+        <is>
+          <t>unit:yuan</t>
+        </is>
+      </c>
+      <c r="G2" s="33" t="n"/>
+      <c r="H2" s="33">
+        <f>MIN(G:G)</f>
+        <v/>
+      </c>
+      <c r="I2" s="33" t="n"/>
+      <c r="J2" s="5" t="n"/>
+      <c r="K2" s="5" t="n"/>
+      <c r="L2" s="33" t="n"/>
+      <c r="M2" s="6" t="n"/>
+    </row>
+    <row r="3" ht="14.1" customHeight="1">
+      <c r="A3" s="35" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B3" s="15">
+        <f>VLOOKUP(A3,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C3" s="15">
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D3" s="36">
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E3" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="8"/>
+      <c r="F3" s="37">
+        <f>E3/B3</f>
+        <v/>
+      </c>
+      <c r="G3" s="37">
+        <f>G2+F3</f>
+        <v/>
+      </c>
+      <c r="H3" s="37">
+        <f>G3*B3</f>
+        <v/>
+      </c>
+      <c r="I3" s="37">
+        <f>IF(E3&gt;0,I2+E3,I2)</f>
+        <v/>
+      </c>
+      <c r="J3" s="37">
+        <f>H3+L3</f>
+        <v/>
+      </c>
+      <c r="K3" s="37">
+        <f>J3-I3</f>
+        <v/>
+      </c>
+      <c r="L3" s="36">
+        <f>IF(E3&lt;0,L2-E3,L2)</f>
+        <v/>
+      </c>
+      <c r="M3" s="6" t="n"/>
+      <c r="P3" s="25" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="Q3" s="26" t="inlineStr">
+        <is>
+          <t>investment per year</t>
+        </is>
+      </c>
+      <c r="R3" s="26" t="inlineStr">
+        <is>
+          <t>accumulated investment</t>
+        </is>
+      </c>
+      <c r="S3" s="26" t="inlineStr">
+        <is>
+          <t>total assets</t>
+        </is>
+      </c>
+      <c r="T3" s="26" t="inlineStr">
+        <is>
+          <t>profit amount</t>
+        </is>
+      </c>
+      <c r="U3" s="27" t="inlineStr">
+        <is>
+          <t>recovered funds</t>
+        </is>
+      </c>
+      <c r="V3" s="26" t="inlineStr">
+        <is>
+          <t>absolute RR</t>
+        </is>
+      </c>
+      <c r="W3" s="26" t="inlineStr">
+        <is>
+          <t>annualized RR</t>
+        </is>
+      </c>
     </row>
-    <row r="2" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21">
-        <v>3950</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21">
-        <f>MIN(G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="4"/>
+    <row r="4" ht="14.1" customHeight="1">
+      <c r="A4" s="35" t="n">
+        <v>44347</v>
+      </c>
+      <c r="B4" s="15">
+        <f>VLOOKUP(A4,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C4" s="15">
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D4" s="36">
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E4" s="36">
+        <f>IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
+        <v/>
+      </c>
+      <c r="F4" s="37">
+        <f>E4/B4</f>
+        <v/>
+      </c>
+      <c r="G4" s="37">
+        <f>G3+F4</f>
+        <v/>
+      </c>
+      <c r="H4" s="37">
+        <f>G4*B4</f>
+        <v/>
+      </c>
+      <c r="I4" s="37">
+        <f>IF(E4&gt;0,I3+E4,I3)</f>
+        <v/>
+      </c>
+      <c r="J4" s="37">
+        <f>H4+L4</f>
+        <v/>
+      </c>
+      <c r="K4" s="37">
+        <f>J4-I4</f>
+        <v/>
+      </c>
+      <c r="L4" s="36">
+        <f>IF(E4&lt;0,L3-E4,L3)</f>
+        <v/>
+      </c>
+      <c r="M4" s="6" t="n"/>
+      <c r="P4" s="38" t="n">
+        <v>44561</v>
+      </c>
+      <c r="Q4" s="39">
+        <f>R4</f>
+        <v/>
+      </c>
+      <c r="R4" s="33">
+        <f>VLOOKUP(P4,A:I,9,)</f>
+        <v/>
+      </c>
+      <c r="S4" s="33">
+        <f>VLOOKUP(P4,A:J,10,)</f>
+        <v/>
+      </c>
+      <c r="T4" s="33">
+        <f>VLOOKUP(P4,A:K,11,)</f>
+        <v/>
+      </c>
+      <c r="U4" s="33">
+        <f>VLOOKUP(P4,A:L,12,)</f>
+        <v/>
+      </c>
+      <c r="V4" s="8">
+        <f>(S4-R4)/R4</f>
+        <v/>
+      </c>
+      <c r="W4" s="8">
+        <f>V4</f>
+        <v/>
+      </c>
     </row>
-    <row r="3" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23">
-        <v>44316</v>
-      </c>
-      <c r="B3" s="10">
-        <f>VLOOKUP(A3,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>4.7860299999999993</v>
-      </c>
-      <c r="C3" s="10">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2)</f>
-        <v>47.64</v>
-      </c>
-      <c r="D3" s="24">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3)</f>
-        <v>45.46631578947369</v>
-      </c>
-      <c r="E3" s="24">
-        <v>0</v>
-      </c>
-      <c r="F3" s="25">
-        <f t="shared" ref="F3:F21" si="0">E3/B3</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="25">
-        <f t="shared" ref="G3:G21" si="1">G2+F3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="25">
-        <f t="shared" ref="H3:H21" si="2">G3*B3</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="25">
-        <f t="shared" ref="I3:I21" si="3">IF(E3&gt;0,I2+E3,I2)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="25">
-        <f t="shared" ref="J3:J21" si="4">H3+L3</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="25">
-        <f t="shared" ref="K3:K21" si="5">J3-I3</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="24">
-        <f t="shared" ref="L3:L21" si="6">IF(E3&lt;0,L2-E3,L2)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="P3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>15</v>
-      </c>
+    <row r="5" ht="14.1" customHeight="1">
+      <c r="A5" s="35" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B5" s="15">
+        <f>VLOOKUP(A5,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C5" s="15">
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D5" s="36">
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E5" s="36">
+        <f>IF(C5&lt;D5,$E$2*(D5-C5)^2,-$E$2*(D5-C5)^2)</f>
+        <v/>
+      </c>
+      <c r="F5" s="37">
+        <f>E5/B5</f>
+        <v/>
+      </c>
+      <c r="G5" s="37">
+        <f>G4+F5</f>
+        <v/>
+      </c>
+      <c r="H5" s="37">
+        <f>G5*B5</f>
+        <v/>
+      </c>
+      <c r="I5" s="37">
+        <f>IF(E5&gt;0,I4+E5,I4)</f>
+        <v/>
+      </c>
+      <c r="J5" s="37">
+        <f>H5+L5</f>
+        <v/>
+      </c>
+      <c r="K5" s="37">
+        <f>J5-I5</f>
+        <v/>
+      </c>
+      <c r="L5" s="36">
+        <f>IF(E5&lt;0,L4-E5,L4)</f>
+        <v/>
+      </c>
+      <c r="M5" s="6" t="n"/>
     </row>
-    <row r="4" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23">
-        <v>44347</v>
-      </c>
-      <c r="B4" s="10">
-        <f>VLOOKUP(A4,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>4.9806599999999994</v>
-      </c>
-      <c r="C4" s="10">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2)</f>
-        <v>39.85</v>
-      </c>
-      <c r="D4" s="24">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3)</f>
-        <v>41.802432432432425</v>
-      </c>
-      <c r="E4" s="24">
-        <f t="shared" ref="E4:E21" si="7">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
-        <v>15057.369992695269</v>
-      </c>
-      <c r="F4" s="25">
-        <f t="shared" si="0"/>
-        <v>3023.1676108578522</v>
-      </c>
-      <c r="G4" s="25">
-        <f t="shared" si="1"/>
-        <v>3023.1676108578522</v>
-      </c>
-      <c r="H4" s="25">
-        <f t="shared" si="2"/>
-        <v>15057.369992695269</v>
-      </c>
-      <c r="I4" s="25">
-        <f t="shared" si="3"/>
-        <v>15057.369992695269</v>
-      </c>
-      <c r="J4" s="25">
-        <f t="shared" si="4"/>
-        <v>15057.369992695269</v>
-      </c>
-      <c r="K4" s="25">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="P4" s="26">
+    <row r="6" ht="14.1" customHeight="1">
+      <c r="A6" s="35" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B6" s="15">
+        <f>VLOOKUP(A6,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C6" s="15">
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D6" s="36">
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E6" s="36">
+        <f>IF(C6&lt;D6,$E$2*(D6-C6)^2,-$E$2*(D6-C6)^2)</f>
+        <v/>
+      </c>
+      <c r="F6" s="37">
+        <f>E6/B6</f>
+        <v/>
+      </c>
+      <c r="G6" s="37">
+        <f>G5+F6</f>
+        <v/>
+      </c>
+      <c r="H6" s="37">
+        <f>G6*B6</f>
+        <v/>
+      </c>
+      <c r="I6" s="37">
+        <f>IF(E6&gt;0,I5+E6,I5)</f>
+        <v/>
+      </c>
+      <c r="J6" s="37">
+        <f>H6+L6</f>
+        <v/>
+      </c>
+      <c r="K6" s="37">
+        <f>J6-I6</f>
+        <v/>
+      </c>
+      <c r="L6" s="36">
+        <f>IF(E6&lt;0,L5-E6,L5)</f>
+        <v/>
+      </c>
+      <c r="M6" s="6" t="n"/>
+    </row>
+    <row r="7" ht="14.1" customHeight="1">
+      <c r="A7" s="35" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B7" s="15">
+        <f>VLOOKUP(A7,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C7" s="15">
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D7" s="36">
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E7" s="36">
+        <f>IF(C7&lt;D7,$E$2*(D7-C7)^2,-$E$2*(D7-C7)^2)</f>
+        <v/>
+      </c>
+      <c r="F7" s="37">
+        <f>E7/B7</f>
+        <v/>
+      </c>
+      <c r="G7" s="37">
+        <f>G6+F7</f>
+        <v/>
+      </c>
+      <c r="H7" s="37">
+        <f>G7*B7</f>
+        <v/>
+      </c>
+      <c r="I7" s="37">
+        <f>IF(E7&gt;0,I6+E7,I6)</f>
+        <v/>
+      </c>
+      <c r="J7" s="37">
+        <f>H7+L7</f>
+        <v/>
+      </c>
+      <c r="K7" s="37">
+        <f>J7-I7</f>
+        <v/>
+      </c>
+      <c r="L7" s="36">
+        <f>IF(E7&lt;0,L6-E7,L6)</f>
+        <v/>
+      </c>
+      <c r="M7" s="6" t="n"/>
+    </row>
+    <row r="8" ht="14.1" customHeight="1">
+      <c r="A8" s="35" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B8" s="15">
+        <f>VLOOKUP(A8,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C8" s="15">
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D8" s="36">
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E8" s="36">
+        <f>IF(C8&lt;D8,$E$2*(D8-C8)^2,-$E$2*(D8-C8)^2)</f>
+        <v/>
+      </c>
+      <c r="F8" s="37">
+        <f>E8/B8</f>
+        <v/>
+      </c>
+      <c r="G8" s="37">
+        <f>G7+F8</f>
+        <v/>
+      </c>
+      <c r="H8" s="37">
+        <f>G8*B8</f>
+        <v/>
+      </c>
+      <c r="I8" s="37">
+        <f>IF(E8&gt;0,I7+E8,I7)</f>
+        <v/>
+      </c>
+      <c r="J8" s="37">
+        <f>H8+L8</f>
+        <v/>
+      </c>
+      <c r="K8" s="37">
+        <f>J8-I8</f>
+        <v/>
+      </c>
+      <c r="L8" s="36">
+        <f>IF(E8&lt;0,L7-E8,L7)</f>
+        <v/>
+      </c>
+      <c r="M8" s="6" t="n"/>
+    </row>
+    <row r="9" ht="14.1" customHeight="1">
+      <c r="A9" s="35" t="n">
+        <v>44498</v>
+      </c>
+      <c r="B9" s="15">
+        <f>VLOOKUP(A9,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C9" s="15">
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D9" s="36">
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E9" s="36">
+        <f>IF(C9&lt;D9,$E$2*(D9-C9)^2,-$E$2*(D9-C9)^2)</f>
+        <v/>
+      </c>
+      <c r="F9" s="37">
+        <f>E9/B9</f>
+        <v/>
+      </c>
+      <c r="G9" s="37">
+        <f>G8+F9</f>
+        <v/>
+      </c>
+      <c r="H9" s="37">
+        <f>G9*B9</f>
+        <v/>
+      </c>
+      <c r="I9" s="37">
+        <f>IF(E9&gt;0,I8+E9,I8)</f>
+        <v/>
+      </c>
+      <c r="J9" s="37">
+        <f>H9+L9</f>
+        <v/>
+      </c>
+      <c r="K9" s="37">
+        <f>J9-I9</f>
+        <v/>
+      </c>
+      <c r="L9" s="36">
+        <f>IF(E9&lt;0,L8-E9,L8)</f>
+        <v/>
+      </c>
+      <c r="M9" s="6" t="n"/>
+    </row>
+    <row r="10" ht="14.1" customHeight="1">
+      <c r="A10" s="35" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B10" s="15">
+        <f>VLOOKUP(A10,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C10" s="15">
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D10" s="36">
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E10" s="36">
+        <f>IF(C10&lt;D10,$E$2*(D10-C10)^2,-$E$2*(D10-C10)^2)</f>
+        <v/>
+      </c>
+      <c r="F10" s="37">
+        <f>E10/B10</f>
+        <v/>
+      </c>
+      <c r="G10" s="37">
+        <f>G9+F10</f>
+        <v/>
+      </c>
+      <c r="H10" s="37">
+        <f>G10*B10</f>
+        <v/>
+      </c>
+      <c r="I10" s="37">
+        <f>IF(E10&gt;0,I9+E10,I9)</f>
+        <v/>
+      </c>
+      <c r="J10" s="37">
+        <f>H10+L10</f>
+        <v/>
+      </c>
+      <c r="K10" s="37">
+        <f>J10-I10</f>
+        <v/>
+      </c>
+      <c r="L10" s="36">
+        <f>IF(E10&lt;0,L9-E10,L9)</f>
+        <v/>
+      </c>
+      <c r="M10" s="6" t="n"/>
+    </row>
+    <row r="11" ht="14.1" customHeight="1">
+      <c r="A11" s="35" t="n">
         <v>44561</v>
       </c>
-      <c r="Q4" s="27">
-        <f>R4</f>
-        <v>260275.18576464822</v>
-      </c>
-      <c r="R4" s="21">
-        <f>VLOOKUP(P4,A:I,9,)</f>
-        <v>260275.18576464822</v>
-      </c>
-      <c r="S4" s="21">
-        <f>VLOOKUP(P4,A:J,10,)</f>
-        <v>262454.74910559482</v>
-      </c>
-      <c r="T4" s="21">
-        <f>VLOOKUP(P4,A:K,11,)</f>
-        <v>2179.5633409465954</v>
-      </c>
-      <c r="U4" s="21">
-        <f>VLOOKUP(P4,A:L,12,)</f>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="V4" s="6">
-        <f>(S4-R4)/R4</f>
-        <v>8.3740727512819774E-3</v>
-      </c>
-      <c r="W4" s="6">
-        <f>V4</f>
-        <v>8.3740727512819774E-3</v>
-      </c>
+      <c r="B11" s="15">
+        <f>VLOOKUP(A11,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C11" s="15">
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D11" s="36">
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E11" s="36">
+        <f>IF(C11&lt;D11,$E$2*(D11-C11)^2,-$E$2*(D11-C11)^2)</f>
+        <v/>
+      </c>
+      <c r="F11" s="37">
+        <f>E11/B11</f>
+        <v/>
+      </c>
+      <c r="G11" s="37">
+        <f>G10+F11</f>
+        <v/>
+      </c>
+      <c r="H11" s="37">
+        <f>G11*B11</f>
+        <v/>
+      </c>
+      <c r="I11" s="37">
+        <f>IF(E11&gt;0,I10+E11,I10)</f>
+        <v/>
+      </c>
+      <c r="J11" s="37">
+        <f>H11+L11</f>
+        <v/>
+      </c>
+      <c r="K11" s="37">
+        <f>J11-I11</f>
+        <v/>
+      </c>
+      <c r="L11" s="36">
+        <f>IF(E11&lt;0,L10-E11,L10)</f>
+        <v/>
+      </c>
+      <c r="M11" s="6" t="n"/>
     </row>
-    <row r="5" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23">
-        <v>44377</v>
-      </c>
-      <c r="B5" s="10">
-        <f>VLOOKUP(A5,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>5.1114799999999994</v>
-      </c>
-      <c r="C5" s="10">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2)</f>
-        <v>41.45</v>
-      </c>
-      <c r="D5" s="24">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3)</f>
-        <v>41.041896551724122</v>
-      </c>
-      <c r="E5" s="24">
-        <f t="shared" si="7"/>
-        <v>-657.86627675392538</v>
-      </c>
-      <c r="F5" s="25">
-        <f t="shared" si="0"/>
-        <v>-128.70367814291075</v>
-      </c>
-      <c r="G5" s="25">
-        <f t="shared" si="1"/>
-        <v>2894.4639327149416</v>
-      </c>
-      <c r="H5" s="25">
-        <f t="shared" si="2"/>
-        <v>14794.994502793768</v>
-      </c>
-      <c r="I5" s="25">
-        <f t="shared" si="3"/>
-        <v>15057.369992695269</v>
-      </c>
-      <c r="J5" s="25">
-        <f t="shared" si="4"/>
-        <v>15452.860779547693</v>
-      </c>
-      <c r="K5" s="25">
-        <f t="shared" si="5"/>
-        <v>395.49078685242421</v>
-      </c>
-      <c r="L5" s="24">
-        <f t="shared" si="6"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M5" s="4"/>
+    <row r="12" ht="14.1" customHeight="1">
+      <c r="A12" s="35" t="n">
+        <v>44589</v>
+      </c>
+      <c r="B12" s="15">
+        <f>VLOOKUP(A12,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C12" s="15">
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D12" s="36">
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E12" s="36">
+        <f>IF(C12&lt;D12,$E$2*(D12-C12)^2,-$E$2*(D12-C12)^2)</f>
+        <v/>
+      </c>
+      <c r="F12" s="37">
+        <f>E12/B12</f>
+        <v/>
+      </c>
+      <c r="G12" s="37">
+        <f>G11+F12</f>
+        <v/>
+      </c>
+      <c r="H12" s="37">
+        <f>G12*B12</f>
+        <v/>
+      </c>
+      <c r="I12" s="37">
+        <f>IF(E12&gt;0,I11+E12,I11)</f>
+        <v/>
+      </c>
+      <c r="J12" s="37">
+        <f>H12+L12</f>
+        <v/>
+      </c>
+      <c r="K12" s="37">
+        <f>J12-I12</f>
+        <v/>
+      </c>
+      <c r="L12" s="36">
+        <f>IF(E12&lt;0,L11-E12,L11)</f>
+        <v/>
+      </c>
+      <c r="M12" s="6" t="n"/>
     </row>
-    <row r="6" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
-        <v>44407</v>
-      </c>
-      <c r="B6" s="10">
-        <f>VLOOKUP(A6,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>4.9776999999999996</v>
-      </c>
-      <c r="C6" s="10">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2)</f>
-        <v>39.930000305175781</v>
-      </c>
-      <c r="D6" s="24">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3)</f>
-        <v>40.930499984741189</v>
-      </c>
-      <c r="E6" s="24">
-        <f t="shared" si="7"/>
-        <v>3953.9484548014116</v>
-      </c>
-      <c r="F6" s="25">
-        <f t="shared" si="0"/>
-        <v>794.33241352460209</v>
-      </c>
-      <c r="G6" s="25">
-        <f t="shared" si="1"/>
-        <v>3688.7963462395437</v>
-      </c>
-      <c r="H6" s="25">
-        <f t="shared" si="2"/>
-        <v>18361.721572676575</v>
-      </c>
-      <c r="I6" s="25">
-        <f t="shared" si="3"/>
-        <v>19011.31844749668</v>
-      </c>
-      <c r="J6" s="25">
-        <f t="shared" si="4"/>
-        <v>19019.5878494305</v>
-      </c>
-      <c r="K6" s="25">
-        <f t="shared" si="5"/>
-        <v>8.2694019338196085</v>
-      </c>
-      <c r="L6" s="24">
-        <f t="shared" si="6"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M6" s="4"/>
+    <row r="13" ht="14.1" customHeight="1">
+      <c r="A13" s="35" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B13" s="15">
+        <f>VLOOKUP(A13,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C13" s="15">
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D13" s="36">
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E13" s="36">
+        <f>IF(C13&lt;D13,$E$2*(D13-C13)^2,-$E$2*(D13-C13)^2)</f>
+        <v/>
+      </c>
+      <c r="F13" s="37">
+        <f>E13/B13</f>
+        <v/>
+      </c>
+      <c r="G13" s="37">
+        <f>G12+F13</f>
+        <v/>
+      </c>
+      <c r="H13" s="37">
+        <f>G13*B13</f>
+        <v/>
+      </c>
+      <c r="I13" s="37">
+        <f>IF(E13&gt;0,I12+E13,I12)</f>
+        <v/>
+      </c>
+      <c r="J13" s="37">
+        <f>H13+L13</f>
+        <v/>
+      </c>
+      <c r="K13" s="37">
+        <f>J13-I13</f>
+        <v/>
+      </c>
+      <c r="L13" s="36">
+        <f>IF(E13&lt;0,L12-E13,L12)</f>
+        <v/>
+      </c>
+      <c r="M13" s="6" t="n"/>
     </row>
-    <row r="7" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23">
-        <v>44439</v>
-      </c>
-      <c r="B7" s="10">
-        <f>VLOOKUP(A7,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>4.7613100000000008</v>
-      </c>
-      <c r="C7" s="10">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2)</f>
-        <v>38.069999694824219</v>
-      </c>
-      <c r="D7" s="24">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3)</f>
-        <v>40.654705834482208</v>
-      </c>
-      <c r="E7" s="24">
-        <f t="shared" si="7"/>
-        <v>26388.788022123525</v>
-      </c>
-      <c r="F7" s="25">
-        <f t="shared" si="0"/>
-        <v>5542.3377226274952</v>
-      </c>
-      <c r="G7" s="25">
-        <f t="shared" si="1"/>
-        <v>9231.1340688670389</v>
-      </c>
-      <c r="H7" s="25">
-        <f t="shared" si="2"/>
-        <v>43952.290953437332</v>
-      </c>
-      <c r="I7" s="25">
-        <f t="shared" si="3"/>
-        <v>45400.106469620208</v>
-      </c>
-      <c r="J7" s="25">
-        <f t="shared" si="4"/>
-        <v>44610.15723019126</v>
-      </c>
-      <c r="K7" s="25">
-        <f t="shared" si="5"/>
-        <v>-789.9492394289482</v>
-      </c>
-      <c r="L7" s="24">
-        <f t="shared" si="6"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M7" s="4"/>
+    <row r="14" ht="14.1" customHeight="1">
+      <c r="A14" s="35" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B14" s="15">
+        <f>VLOOKUP(A14,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C14" s="15">
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D14" s="36">
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E14" s="36">
+        <f>IF(C14&lt;D14,$E$2*(D14-C14)^2,-$E$2*(D14-C14)^2)</f>
+        <v/>
+      </c>
+      <c r="F14" s="37">
+        <f>E14/B14</f>
+        <v/>
+      </c>
+      <c r="G14" s="37">
+        <f>G13+F14</f>
+        <v/>
+      </c>
+      <c r="H14" s="37">
+        <f>G14*B14</f>
+        <v/>
+      </c>
+      <c r="I14" s="37">
+        <f>IF(E14&gt;0,I13+E14,I13)</f>
+        <v/>
+      </c>
+      <c r="J14" s="37">
+        <f>H14+L14</f>
+        <v/>
+      </c>
+      <c r="K14" s="37">
+        <f>J14-I14</f>
+        <v/>
+      </c>
+      <c r="L14" s="36">
+        <f>IF(E14&lt;0,L13-E14,L13)</f>
+        <v/>
+      </c>
+      <c r="M14" s="6" t="n"/>
     </row>
-    <row r="8" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23">
-        <v>44469</v>
-      </c>
-      <c r="B8" s="10">
-        <f>VLOOKUP(A8,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>4.7106400000000006</v>
-      </c>
-      <c r="C8" s="10">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2)</f>
-        <v>35.020000457763672</v>
-      </c>
-      <c r="D8" s="24">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3)</f>
-        <v>39.730819672131133</v>
-      </c>
-      <c r="E8" s="24">
-        <f t="shared" si="7"/>
-        <v>87657.679798291982</v>
-      </c>
-      <c r="F8" s="25">
-        <f t="shared" si="0"/>
-        <v>18608.443820434586</v>
-      </c>
-      <c r="G8" s="25">
-        <f t="shared" si="1"/>
-        <v>27839.577889301625</v>
-      </c>
-      <c r="H8" s="25">
-        <f t="shared" si="2"/>
-        <v>131142.22918845981</v>
-      </c>
-      <c r="I8" s="25">
-        <f t="shared" si="3"/>
-        <v>133057.78626791219</v>
-      </c>
-      <c r="J8" s="25">
-        <f t="shared" si="4"/>
-        <v>131800.09546521373</v>
-      </c>
-      <c r="K8" s="25">
-        <f t="shared" si="5"/>
-        <v>-1257.6908026984602</v>
-      </c>
-      <c r="L8" s="24">
-        <f t="shared" si="6"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M8" s="4"/>
+    <row r="15" ht="14.1" customHeight="1">
+      <c r="A15" s="35" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B15" s="15">
+        <f>VLOOKUP(A15,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C15" s="15">
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D15" s="36">
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E15" s="36">
+        <f>IF(C15&lt;D15,$E$2*(D15-C15)^2,-$E$2*(D15-C15)^2)</f>
+        <v/>
+      </c>
+      <c r="F15" s="37">
+        <f>E15/B15</f>
+        <v/>
+      </c>
+      <c r="G15" s="37">
+        <f>G14+F15</f>
+        <v/>
+      </c>
+      <c r="H15" s="37">
+        <f>G15*B15</f>
+        <v/>
+      </c>
+      <c r="I15" s="37">
+        <f>IF(E15&gt;0,I14+E15,I14)</f>
+        <v/>
+      </c>
+      <c r="J15" s="37">
+        <f>H15+L15</f>
+        <v/>
+      </c>
+      <c r="K15" s="37">
+        <f>J15-I15</f>
+        <v/>
+      </c>
+      <c r="L15" s="36">
+        <f>IF(E15&lt;0,L14-E15,L14)</f>
+        <v/>
+      </c>
+      <c r="M15" s="6" t="n"/>
     </row>
-    <row r="9" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23">
-        <v>44498</v>
-      </c>
-      <c r="B9" s="10">
-        <f>VLOOKUP(A9,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>4.8678999999999997</v>
-      </c>
-      <c r="C9" s="10">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2)</f>
-        <v>36.299999239999998</v>
-      </c>
-      <c r="D9" s="24">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3)</f>
-        <v>39.253623134275358</v>
-      </c>
-      <c r="E9" s="24">
-        <f t="shared" si="7"/>
-        <v>34459.381729895649</v>
-      </c>
-      <c r="F9" s="25">
-        <f t="shared" si="0"/>
-        <v>7078.9009079676352</v>
-      </c>
-      <c r="G9" s="25">
-        <f t="shared" si="1"/>
-        <v>34918.478797269257</v>
-      </c>
-      <c r="H9" s="25">
-        <f t="shared" si="2"/>
-        <v>169979.662937227</v>
-      </c>
-      <c r="I9" s="25">
-        <f t="shared" si="3"/>
-        <v>167517.16799780785</v>
-      </c>
-      <c r="J9" s="25">
-        <f t="shared" si="4"/>
-        <v>170637.52921398092</v>
-      </c>
-      <c r="K9" s="25">
-        <f t="shared" si="5"/>
-        <v>3120.3612161730707</v>
-      </c>
-      <c r="L9" s="24">
-        <f t="shared" si="6"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M9" s="4"/>
+    <row r="16" ht="14.1" customHeight="1">
+      <c r="A16" s="35" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B16" s="15">
+        <f>VLOOKUP(A16,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C16" s="15">
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D16" s="36">
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E16" s="36">
+        <f>IF(C16&lt;D16,$E$2*(D16-C16)^2,-$E$2*(D16-C16)^2)</f>
+        <v/>
+      </c>
+      <c r="F16" s="37">
+        <f>E16/B16</f>
+        <v/>
+      </c>
+      <c r="G16" s="37">
+        <f>G15+F16</f>
+        <v/>
+      </c>
+      <c r="H16" s="37">
+        <f>G16*B16</f>
+        <v/>
+      </c>
+      <c r="I16" s="37">
+        <f>IF(E16&gt;0,I15+E16,I15)</f>
+        <v/>
+      </c>
+      <c r="J16" s="37">
+        <f>H16+L16</f>
+        <v/>
+      </c>
+      <c r="K16" s="37">
+        <f>J16-I16</f>
+        <v/>
+      </c>
+      <c r="L16" s="36">
+        <f>IF(E16&lt;0,L15-E16,L15)</f>
+        <v/>
+      </c>
+      <c r="M16" s="6" t="n"/>
     </row>
-    <row r="10" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
-        <v>44530</v>
-      </c>
-      <c r="B10" s="10">
-        <f>VLOOKUP(A10,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>4.9547099609374996</v>
-      </c>
-      <c r="C10" s="10">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2)</f>
-        <v>35.450000000000003</v>
-      </c>
-      <c r="D10" s="24">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3)</f>
-        <v>38.695499988749994</v>
-      </c>
-      <c r="E10" s="24">
-        <f t="shared" si="7"/>
-        <v>41606.417199055955</v>
-      </c>
-      <c r="F10" s="25">
-        <f t="shared" si="0"/>
-        <v>8397.3466715665127</v>
-      </c>
-      <c r="G10" s="25">
-        <f t="shared" si="1"/>
-        <v>43315.82546883577</v>
-      </c>
-      <c r="H10" s="25">
-        <f t="shared" si="2"/>
-        <v>214617.35191667083</v>
-      </c>
-      <c r="I10" s="25">
-        <f t="shared" si="3"/>
-        <v>209123.5851968638</v>
-      </c>
-      <c r="J10" s="25">
-        <f t="shared" si="4"/>
-        <v>215275.21819342475</v>
-      </c>
-      <c r="K10" s="25">
-        <f t="shared" si="5"/>
-        <v>6151.6329965609475</v>
-      </c>
-      <c r="L10" s="24">
-        <f t="shared" si="6"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M10" s="4"/>
+    <row r="17" ht="14.1" customHeight="1">
+      <c r="A17" s="35" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B17" s="15">
+        <f>VLOOKUP(A17,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C17" s="15">
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D17" s="36">
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E17" s="36">
+        <f>IF(C17&lt;D17,$E$2*(D17-C17)^2,-$E$2*(D17-C17)^2)</f>
+        <v/>
+      </c>
+      <c r="F17" s="37">
+        <f>E17/B17</f>
+        <v/>
+      </c>
+      <c r="G17" s="37">
+        <f>G16+F17</f>
+        <v/>
+      </c>
+      <c r="H17" s="37">
+        <f>G17*B17</f>
+        <v/>
+      </c>
+      <c r="I17" s="37">
+        <f>IF(E17&gt;0,I16+E17,I16)</f>
+        <v/>
+      </c>
+      <c r="J17" s="37">
+        <f>H17+L17</f>
+        <v/>
+      </c>
+      <c r="K17" s="37">
+        <f>J17-I17</f>
+        <v/>
+      </c>
+      <c r="L17" s="36">
+        <f>IF(E17&lt;0,L16-E17,L16)</f>
+        <v/>
+      </c>
+      <c r="M17" s="6" t="n"/>
     </row>
-    <row r="11" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
-        <v>44561</v>
-      </c>
-      <c r="B11" s="10">
-        <f>VLOOKUP(A11,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>4.8630097656249998</v>
-      </c>
-      <c r="C11" s="10">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2)</f>
-        <v>34.630000000000003</v>
-      </c>
-      <c r="D11" s="24">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3)</f>
-        <v>38.228579205136612</v>
-      </c>
-      <c r="E11" s="24">
-        <f t="shared" si="7"/>
-        <v>51151.60056778443</v>
-      </c>
-      <c r="F11" s="25">
-        <f t="shared" si="0"/>
-        <v>10518.506651859534</v>
-      </c>
-      <c r="G11" s="25">
-        <f t="shared" si="1"/>
-        <v>53834.332120695304</v>
-      </c>
-      <c r="H11" s="25">
-        <f t="shared" si="2"/>
-        <v>261796.88282884087</v>
-      </c>
-      <c r="I11" s="25">
-        <f t="shared" si="3"/>
-        <v>260275.18576464822</v>
-      </c>
-      <c r="J11" s="25">
-        <f t="shared" si="4"/>
-        <v>262454.74910559482</v>
-      </c>
-      <c r="K11" s="25">
-        <f t="shared" si="5"/>
-        <v>2179.5633409465954</v>
-      </c>
-      <c r="L11" s="24">
-        <f t="shared" si="6"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M11" s="4"/>
+    <row r="18" ht="14.1" customHeight="1">
+      <c r="A18" s="35" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B18" s="15">
+        <f>VLOOKUP(A18,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C18" s="15">
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D18" s="36">
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E18" s="36">
+        <f>IF(C18&lt;D18,$E$2*(D18-C18)^2,-$E$2*(D18-C18)^2)</f>
+        <v/>
+      </c>
+      <c r="F18" s="37">
+        <f>E18/B18</f>
+        <v/>
+      </c>
+      <c r="G18" s="37">
+        <f>G17+F18</f>
+        <v/>
+      </c>
+      <c r="H18" s="37">
+        <f>G18*B18</f>
+        <v/>
+      </c>
+      <c r="I18" s="37">
+        <f>IF(E18&gt;0,I17+E18,I17)</f>
+        <v/>
+      </c>
+      <c r="J18" s="37">
+        <f>H18+L18</f>
+        <v/>
+      </c>
+      <c r="K18" s="37">
+        <f>J18-I18</f>
+        <v/>
+      </c>
+      <c r="L18" s="36">
+        <f>IF(E18&lt;0,L17-E18,L17)</f>
+        <v/>
+      </c>
+      <c r="M18" s="6" t="n"/>
     </row>
-    <row r="12" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
-        <v>44589</v>
-      </c>
-      <c r="B12" s="10">
-        <f>VLOOKUP(A12,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>4.3440297851562502</v>
-      </c>
-      <c r="C12" s="10">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2)</f>
-        <v>31.159999849999998</v>
-      </c>
-      <c r="D12" s="24">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3)</f>
-        <v>37.710494996683174</v>
-      </c>
-      <c r="E12" s="24">
-        <f t="shared" si="7"/>
-        <v>169490.49733354338</v>
-      </c>
-      <c r="F12" s="25">
-        <f t="shared" si="0"/>
-        <v>39016.881954331948</v>
-      </c>
-      <c r="G12" s="25">
-        <f t="shared" si="1"/>
-        <v>92851.214075027252</v>
-      </c>
-      <c r="H12" s="25">
-        <f t="shared" si="2"/>
-        <v>403348.43952983763</v>
-      </c>
-      <c r="I12" s="25">
-        <f t="shared" si="3"/>
-        <v>429765.68309819163</v>
-      </c>
-      <c r="J12" s="25">
-        <f t="shared" si="4"/>
-        <v>404006.30580659158</v>
-      </c>
-      <c r="K12" s="25">
-        <f t="shared" si="5"/>
-        <v>-25759.377291600045</v>
-      </c>
-      <c r="L12" s="24">
-        <f t="shared" si="6"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M12" s="4"/>
+    <row r="19" ht="14.1" customHeight="1">
+      <c r="A19" s="35" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B19" s="15">
+        <f>VLOOKUP(A19,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C19" s="15">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D19" s="36">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E19" s="36">
+        <f>IF(C19&lt;D19,$E$2*(D19-C19)^2,-$E$2*(D19-C19)^2)</f>
+        <v/>
+      </c>
+      <c r="F19" s="37">
+        <f>E19/B19</f>
+        <v/>
+      </c>
+      <c r="G19" s="37">
+        <f>G18+F19</f>
+        <v/>
+      </c>
+      <c r="H19" s="37">
+        <f>G19*B19</f>
+        <v/>
+      </c>
+      <c r="I19" s="37">
+        <f>IF(E19&gt;0,I18+E19,I18)</f>
+        <v/>
+      </c>
+      <c r="J19" s="37">
+        <f>H19+L19</f>
+        <v/>
+      </c>
+      <c r="K19" s="37">
+        <f>J19-I19</f>
+        <v/>
+      </c>
+      <c r="L19" s="36">
+        <f>IF(E19&lt;0,L18-E19,L18)</f>
+        <v/>
+      </c>
+      <c r="M19" s="6" t="n"/>
     </row>
-    <row r="13" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23">
-        <v>44620</v>
-      </c>
-      <c r="B13" s="10">
-        <f>VLOOKUP(A13,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>4.3355400390624999</v>
-      </c>
-      <c r="C13" s="10">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2)</f>
-        <v>30.969999309999999</v>
-      </c>
-      <c r="D13" s="24">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3)</f>
-        <v>37.189770586238538</v>
-      </c>
-      <c r="E13" s="24">
-        <f t="shared" si="7"/>
-        <v>152807.94117845185</v>
-      </c>
-      <c r="F13" s="25">
-        <f t="shared" si="0"/>
-        <v>35245.422669766056</v>
-      </c>
-      <c r="G13" s="25">
-        <f t="shared" si="1"/>
-        <v>128096.6367447933</v>
-      </c>
-      <c r="H13" s="25">
-        <f t="shared" si="2"/>
-        <v>555368.09747629601</v>
-      </c>
-      <c r="I13" s="25">
-        <f t="shared" si="3"/>
-        <v>582573.6242766435</v>
-      </c>
-      <c r="J13" s="25">
-        <f t="shared" si="4"/>
-        <v>556025.96375304996</v>
-      </c>
-      <c r="K13" s="25">
-        <f t="shared" si="5"/>
-        <v>-26547.660523593542</v>
-      </c>
-      <c r="L13" s="24">
-        <f t="shared" si="6"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M13" s="4"/>
+    <row r="20" ht="14.1" customHeight="1">
+      <c r="A20" s="35" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B20" s="15">
+        <f>VLOOKUP(A20,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C20" s="15">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D20" s="36">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E20" s="36">
+        <f>IF(C20&lt;D20,$E$2*(D20-C20)^2,-$E$2*(D20-C20)^2)</f>
+        <v/>
+      </c>
+      <c r="F20" s="37">
+        <f>E20/B20</f>
+        <v/>
+      </c>
+      <c r="G20" s="37">
+        <f>G19+F20</f>
+        <v/>
+      </c>
+      <c r="H20" s="37">
+        <f>G20*B20</f>
+        <v/>
+      </c>
+      <c r="I20" s="37">
+        <f>IF(E20&gt;0,I19+E20,I19)</f>
+        <v/>
+      </c>
+      <c r="J20" s="37">
+        <f>H20+L20</f>
+        <v/>
+      </c>
+      <c r="K20" s="37">
+        <f>J20-I20</f>
+        <v/>
+      </c>
+      <c r="L20" s="36">
+        <f>IF(E20&lt;0,L19-E20,L19)</f>
+        <v/>
+      </c>
+      <c r="M20" s="7" t="n"/>
+      <c r="P20" s="28" t="n"/>
     </row>
-    <row r="14" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
-        <v>44651</v>
-      </c>
-      <c r="B14" s="10">
-        <f>VLOOKUP(A14,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>3.8658500976562502</v>
-      </c>
-      <c r="C14" s="10">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2)</f>
-        <v>27.63999939</v>
-      </c>
-      <c r="D14" s="24">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3)</f>
-        <v>36.340622369004151</v>
-      </c>
-      <c r="E14" s="24">
-        <f t="shared" si="7"/>
-        <v>299018.3188799615</v>
-      </c>
-      <c r="F14" s="25">
-        <f t="shared" si="0"/>
-        <v>77348.658464860651</v>
-      </c>
-      <c r="G14" s="25">
-        <f t="shared" si="1"/>
-        <v>205445.29520965397</v>
-      </c>
-      <c r="H14" s="25">
-        <f t="shared" si="2"/>
-        <v>794220.71454925789</v>
-      </c>
-      <c r="I14" s="25">
-        <f t="shared" si="3"/>
-        <v>881591.943156605</v>
-      </c>
-      <c r="J14" s="25">
-        <f t="shared" si="4"/>
-        <v>794878.58082601184</v>
-      </c>
-      <c r="K14" s="25">
-        <f t="shared" si="5"/>
-        <v>-86713.362330593169</v>
-      </c>
-      <c r="L14" s="24">
-        <f t="shared" si="6"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M14" s="4"/>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="A21" s="35" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B21" s="15">
+        <f>VLOOKUP(A21,[1]szse_innovation_100!$A:$F,6)</f>
+        <v/>
+      </c>
+      <c r="C21" s="15">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <v/>
+      </c>
+      <c r="D21" s="36">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
+        <v/>
+      </c>
+      <c r="E21" s="36">
+        <f>IF(C21&lt;D21,$E$2*(D21-C21)^2,-$E$2*(D21-C21)^2)</f>
+        <v/>
+      </c>
+      <c r="F21" s="37">
+        <f>E21/B21</f>
+        <v/>
+      </c>
+      <c r="G21" s="37">
+        <f>G20+F21</f>
+        <v/>
+      </c>
+      <c r="H21" s="37">
+        <f>G21*B21</f>
+        <v/>
+      </c>
+      <c r="I21" s="37">
+        <f>IF(E21&gt;0,I20+E21,I20)</f>
+        <v/>
+      </c>
+      <c r="J21" s="37">
+        <f>H21+L21</f>
+        <v/>
+      </c>
+      <c r="K21" s="37">
+        <f>J21-I21</f>
+        <v/>
+      </c>
+      <c r="L21" s="36">
+        <f>IF(E21&lt;0,L20-E21,L20)</f>
+        <v/>
+      </c>
     </row>
-    <row r="15" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
-        <v>44680</v>
-      </c>
-      <c r="B15" s="10">
-        <f>VLOOKUP(A15,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>3.5012099609375</v>
-      </c>
-      <c r="C15" s="10">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2)</f>
-        <v>25.129999160000001</v>
-      </c>
-      <c r="D15" s="24">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3)</f>
-        <v>35.566653817730753</v>
-      </c>
-      <c r="E15" s="24">
-        <f t="shared" si="7"/>
-        <v>430248.85375669535</v>
-      </c>
-      <c r="F15" s="25">
-        <f t="shared" si="0"/>
-        <v>122885.76193856422</v>
-      </c>
-      <c r="G15" s="25">
-        <f t="shared" si="1"/>
-        <v>328331.05714821815</v>
-      </c>
-      <c r="H15" s="25">
-        <f t="shared" si="2"/>
-        <v>1149555.967772481</v>
-      </c>
-      <c r="I15" s="25">
-        <f t="shared" si="3"/>
-        <v>1311840.7969133004</v>
-      </c>
-      <c r="J15" s="25">
-        <f t="shared" si="4"/>
-        <v>1150213.8340492349</v>
-      </c>
-      <c r="K15" s="25">
-        <f t="shared" si="5"/>
-        <v>-161626.96286406554</v>
-      </c>
-      <c r="L15" s="24">
-        <f t="shared" si="6"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
-        <v>44712</v>
-      </c>
-      <c r="B16" s="10">
-        <f>VLOOKUP(A16,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>3.6361599121093748</v>
-      </c>
-      <c r="C16" s="10">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2)</f>
-        <v>24.129999160000001</v>
-      </c>
-      <c r="D16" s="24">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3)</f>
-        <v>34.740573439534039</v>
-      </c>
-      <c r="E16" s="24">
-        <f t="shared" si="7"/>
-        <v>444707.93183896161</v>
-      </c>
-      <c r="F16" s="25">
-        <f t="shared" si="0"/>
-        <v>122301.53309758642</v>
-      </c>
-      <c r="G16" s="25">
-        <f t="shared" si="1"/>
-        <v>450632.59024580457</v>
-      </c>
-      <c r="H16" s="25">
-        <f t="shared" si="2"/>
-        <v>1638572.1597418047</v>
-      </c>
-      <c r="I16" s="25">
-        <f t="shared" si="3"/>
-        <v>1756548.728752262</v>
-      </c>
-      <c r="J16" s="25">
-        <f t="shared" si="4"/>
-        <v>1639230.0260185585</v>
-      </c>
-      <c r="K16" s="25">
-        <f t="shared" si="5"/>
-        <v>-117318.70273370342</v>
-      </c>
-      <c r="L16" s="24">
-        <f t="shared" si="6"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
-        <v>44742</v>
-      </c>
-      <c r="B17" s="10">
-        <f>VLOOKUP(A17,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>4.1096201171875002</v>
-      </c>
-      <c r="C17" s="10">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2)</f>
-        <v>27.809999470000001</v>
-      </c>
-      <c r="D17" s="24">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3)</f>
-        <v>34.119366627533324</v>
-      </c>
-      <c r="E17" s="24">
-        <f t="shared" si="7"/>
-        <v>157242.05001781249</v>
-      </c>
-      <c r="F17" s="25">
-        <f t="shared" si="0"/>
-        <v>38261.942839968433</v>
-      </c>
-      <c r="G17" s="25">
-        <f t="shared" si="1"/>
-        <v>488894.533085773</v>
-      </c>
-      <c r="H17" s="25">
-        <f t="shared" si="2"/>
-        <v>2009170.8083522827</v>
-      </c>
-      <c r="I17" s="25">
-        <f t="shared" si="3"/>
-        <v>1913790.7787700745</v>
-      </c>
-      <c r="J17" s="25">
-        <f t="shared" si="4"/>
-        <v>2009828.6746290366</v>
-      </c>
-      <c r="K17" s="25">
-        <f t="shared" si="5"/>
-        <v>96037.895858962089</v>
-      </c>
-      <c r="L17" s="24">
-        <f t="shared" si="6"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23">
-        <v>44771</v>
-      </c>
-      <c r="B18" s="10">
-        <f>VLOOKUP(A18,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>3.8724699707031252</v>
-      </c>
-      <c r="C18" s="10">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
-        <v>26.329999919999999</v>
-      </c>
-      <c r="D18" s="24">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
-        <v>33.666137024579427</v>
-      </c>
-      <c r="E18" s="24">
-        <f t="shared" si="7"/>
-        <v>212584.68508788882</v>
-      </c>
-      <c r="F18" s="25">
-        <f t="shared" si="0"/>
-        <v>54896.406349482881</v>
-      </c>
-      <c r="G18" s="25">
-        <f t="shared" si="1"/>
-        <v>543790.93943525583</v>
-      </c>
-      <c r="H18" s="25">
-        <f t="shared" si="2"/>
-        <v>2105814.0833034702</v>
-      </c>
-      <c r="I18" s="25">
-        <f t="shared" si="3"/>
-        <v>2126375.4638579632</v>
-      </c>
-      <c r="J18" s="25">
-        <f t="shared" si="4"/>
-        <v>2106471.9495802242</v>
-      </c>
-      <c r="K18" s="25">
-        <f t="shared" si="5"/>
-        <v>-19903.514277738985</v>
-      </c>
-      <c r="L18" s="24">
-        <f t="shared" si="6"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23">
-        <v>44804</v>
-      </c>
-      <c r="B19" s="10">
-        <f>VLOOKUP(A19,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>3.7022099609375001</v>
-      </c>
-      <c r="C19" s="10">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
-        <v>25.18000031</v>
-      </c>
-      <c r="D19" s="24">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
-        <v>33.177616240465106</v>
-      </c>
-      <c r="E19" s="24">
-        <f t="shared" si="7"/>
-        <v>252649.34925635549</v>
-      </c>
-      <c r="F19" s="25">
-        <f t="shared" si="0"/>
-        <v>68242.847359304767</v>
-      </c>
-      <c r="G19" s="25">
-        <f t="shared" si="1"/>
-        <v>612033.78679456061</v>
-      </c>
-      <c r="H19" s="25">
-        <f t="shared" si="2"/>
-        <v>2265877.5819011205</v>
-      </c>
-      <c r="I19" s="25">
-        <f t="shared" si="3"/>
-        <v>2379024.8131143185</v>
-      </c>
-      <c r="J19" s="25">
-        <f t="shared" si="4"/>
-        <v>2266535.4481778746</v>
-      </c>
-      <c r="K19" s="25">
-        <f t="shared" si="5"/>
-        <v>-112489.36493644398</v>
-      </c>
-      <c r="L19" s="24">
-        <f t="shared" si="6"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23">
-        <v>44834</v>
-      </c>
-      <c r="B20" s="10">
-        <f>VLOOKUP(A20,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>3.3477299804687499</v>
-      </c>
-      <c r="C20" s="10">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
-        <v>23.340000150000002</v>
-      </c>
-      <c r="D20" s="24">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
-        <v>32.601424623862997</v>
-      </c>
-      <c r="E20" s="24">
-        <f t="shared" si="7"/>
-        <v>338807.23397602042</v>
-      </c>
-      <c r="F20" s="25">
-        <f t="shared" si="0"/>
-        <v>101205.06610529579</v>
-      </c>
-      <c r="G20" s="25">
-        <f t="shared" si="1"/>
-        <v>713238.8528998564</v>
-      </c>
-      <c r="H20" s="25">
-        <f t="shared" si="2"/>
-        <v>2387731.09108799</v>
-      </c>
-      <c r="I20" s="25">
-        <f t="shared" si="3"/>
-        <v>2717832.047090339</v>
-      </c>
-      <c r="J20" s="25">
-        <f t="shared" si="4"/>
-        <v>2388388.957364744</v>
-      </c>
-      <c r="K20" s="25">
-        <f t="shared" si="5"/>
-        <v>-329443.08972559497</v>
-      </c>
-      <c r="L20" s="24">
-        <f t="shared" si="6"/>
-        <v>657.86627675392538</v>
-      </c>
-      <c r="M20" s="5"/>
-      <c r="P20" s="16"/>
-    </row>
-    <row r="21" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23">
-        <v>44865</v>
-      </c>
-      <c r="B21" s="10">
-        <f>VLOOKUP(A21,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>3.2993999023437501</v>
-      </c>
-      <c r="C21" s="10">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
-        <v>22.239999770000001</v>
-      </c>
-      <c r="D21" s="24">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
-        <v>32.197401538923856</v>
-      </c>
-      <c r="E21" s="24">
-        <f t="shared" si="7"/>
-        <v>391641.90745168331</v>
-      </c>
-      <c r="F21" s="25">
-        <f t="shared" si="0"/>
-        <v>118700.95139830669</v>
-      </c>
-      <c r="G21" s="25">
-        <f t="shared" si="1"/>
-        <v>831939.80429816304</v>
-      </c>
-      <c r="H21" s="25">
-        <f t="shared" si="2"/>
-        <v>2744902.1090572379</v>
-      </c>
-      <c r="I21" s="25">
-        <f t="shared" si="3"/>
-        <v>3109473.9545420222</v>
-      </c>
-      <c r="J21" s="25">
-        <f t="shared" si="4"/>
-        <v>2745559.9753339919</v>
-      </c>
-      <c r="K21" s="25">
-        <f t="shared" si="5"/>
-        <v>-363913.97920803027</v>
-      </c>
-      <c r="L21" s="24">
-        <f t="shared" si="6"/>
-        <v>657.86627675392538</v>
+    <row r="22">
+      <c r="A22" s="40" t="inlineStr">
+        <is>
+          <t>2022-11-30</t>
+        </is>
+      </c>
+      <c r="B22" s="41" t="n">
+        <v>3.4802900390625</v>
+      </c>
+      <c r="C22" s="42" t="n">
+        <v>22.70000076</v>
+      </c>
+      <c r="D22" s="42" t="n">
+        <v>31.70497510592038</v>
+      </c>
+      <c r="E22" s="43" t="n">
+        <v>320303.7737342021</v>
+      </c>
+      <c r="F22" s="43" t="n">
+        <v>92033.64378805728</v>
+      </c>
+      <c r="G22" s="43" t="n">
+        <v>923973.4480862203</v>
+      </c>
+      <c r="H22" s="43" t="n">
+        <v>3215695.587732704</v>
+      </c>
+      <c r="I22" s="43" t="n">
+        <v>3429777.728276224</v>
+      </c>
+      <c r="J22" s="43" t="n">
+        <v>3216353.454009458</v>
+      </c>
+      <c r="K22" s="44" t="n">
+        <v>-213424.2742667659</v>
+      </c>
+      <c r="L22" s="43" t="n">
+        <v>657.8662767539254</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" priority="2" operator="lessThan" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="model4(1)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="model4(1)" sheetId="7" r:id="rId1"/>
   </sheets>
   <externalReferences>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model4(1)'!$P$1:$P$25</definedName>
     <definedName name="金额" localSheetId="0">OFFSET('model4(1)'!K1,0,0,COUNTA('model4(1)'!K:K)-1)</definedName>
     <definedName name="买卖" localSheetId="0">OFFSET('model4(1)'!E1,0,0,COUNTA('model4(1)'!E:E)-2)</definedName>
     <definedName name="时间" localSheetId="0">OFFSET('model4(1)'!A1,0,0,COUNTA('model4(1)'!A:A)-1)</definedName>
@@ -20,113 +22,159 @@
     <definedName name="资产" localSheetId="0">OFFSET('model4(1)'!J1,0,0,COUNTA('model4(1)'!J:J)-1)</definedName>
     <definedName name="资金" localSheetId="0">OFFSET('model4(1)'!I1,0,0,COUNTA('model4(1)'!I:I)-1)</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>szse innovation100</t>
+  </si>
+  <si>
+    <t>historical PE mean</t>
+  </si>
+  <si>
+    <t>sales amount</t>
+  </si>
+  <si>
+    <t>sales shares</t>
+  </si>
+  <si>
+    <t>shares held</t>
+  </si>
+  <si>
+    <t>market value</t>
+  </si>
+  <si>
+    <t>accumulated investment</t>
+  </si>
+  <si>
+    <t>total assets</t>
+  </si>
+  <si>
+    <t>profit amount</t>
+  </si>
+  <si>
+    <t>recovered funds</t>
+  </si>
+  <si>
+    <t>investment per year</t>
+  </si>
+  <si>
+    <t>absolute RR</t>
+  </si>
+  <si>
+    <t>annualized RR</t>
+  </si>
+  <si>
+    <t>unit:yuan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="0.00_ "/>
-    <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.00_);(0.00)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <color indexed="10"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <color rgb="00ff0000"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -175,95 +223,64 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="177" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="11" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="11" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -282,88 +299,36 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -381,573 +346,590 @@
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
-        </rich>
-      </tx>
-      <layout/>
-      <overlay val="0"/>
-      <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
-          <a:prstDash val="solid"/>
         </a:ln>
-      </spPr>
-    </title>
-    <plotArea>
-      <layout>
-        <manualLayout>
-          <layoutTarget val="inner"/>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.1300813604622218"/>
-          <y val="0.07440145171866658"/>
-          <w val="0.8351143544660911"/>
-          <h val="0.5920907202358666"/>
-        </manualLayout>
-      </layout>
-      <lineChart>
-        <grouping val="standard"/>
-        <varyColors val="0"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'model4(1)'!$I$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>accumulated investment</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13008136046222177"/>
+          <c:y val="7.4401451718666578E-2"/>
+          <c:w val="0.83511435446609106"/>
+          <c:h val="0.59209072023586662"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'model4(1)'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>accumulated investment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'model4(1)'!时间</f>
-              <numCache>
-                <formatCode>yyyy\-mm\-dd</formatCode>
-                <ptCount val="19"/>
-                <pt idx="0">
-                  <v>44316</v>
-                </pt>
-                <pt idx="1">
-                  <v>44347</v>
-                </pt>
-                <pt idx="2">
-                  <v>44377</v>
-                </pt>
-                <pt idx="3">
-                  <v>44407</v>
-                </pt>
-                <pt idx="4">
-                  <v>44439</v>
-                </pt>
-                <pt idx="5">
-                  <v>44469</v>
-                </pt>
-                <pt idx="6">
-                  <v>44498</v>
-                </pt>
-                <pt idx="7">
-                  <v>44530</v>
-                </pt>
-                <pt idx="8">
-                  <v>44561</v>
-                </pt>
-                <pt idx="9">
-                  <v>44589</v>
-                </pt>
-                <pt idx="10">
-                  <v>44620</v>
-                </pt>
-                <pt idx="11">
-                  <v>44651</v>
-                </pt>
-                <pt idx="12">
-                  <v>44680</v>
-                </pt>
-                <pt idx="13">
-                  <v>44712</v>
-                </pt>
-                <pt idx="14">
-                  <v>44742</v>
-                </pt>
-                <pt idx="15">
-                  <v>44771</v>
-                </pt>
-                <pt idx="16">
-                  <v>44804</v>
-                </pt>
-                <pt idx="17">
-                  <v>44834</v>
-                </pt>
-                <pt idx="18">
-                  <v>44865</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'model4(1)'!资金</f>
-              <numCache>
-                <formatCode xml:space="preserve">0.00_ </formatCode>
-                <ptCount val="19"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>15057.36999269527</v>
-                </pt>
-                <pt idx="2">
-                  <v>15057.36999269527</v>
-                </pt>
-                <pt idx="3">
-                  <v>19011.31844749668</v>
-                </pt>
-                <pt idx="4">
-                  <v>45400.10646962021</v>
-                </pt>
-                <pt idx="5">
-                  <v>133057.7862679122</v>
-                </pt>
-                <pt idx="6">
-                  <v>167517.1679978078</v>
-                </pt>
-                <pt idx="7">
-                  <v>209123.5851968638</v>
-                </pt>
-                <pt idx="8">
-                  <v>260275.1857646482</v>
-                </pt>
-                <pt idx="9">
-                  <v>429765.6830981916</v>
-                </pt>
-                <pt idx="10">
-                  <v>582573.6242766435</v>
-                </pt>
-                <pt idx="11">
-                  <v>881591.943156605</v>
-                </pt>
-                <pt idx="12">
-                  <v>1311840.7969133</v>
-                </pt>
-                <pt idx="13">
-                  <v>1756548.728752262</v>
-                </pt>
-                <pt idx="14">
-                  <v>1913790.778770074</v>
-                </pt>
-                <pt idx="15">
-                  <v>2126375.463857963</v>
-                </pt>
-                <pt idx="16">
-                  <v>2379024.813114319</v>
-                </pt>
-                <pt idx="17">
-                  <v>2717832.047090339</v>
-                </pt>
-                <pt idx="18">
-                  <v>3109473.954542022</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-          <smooth val="0"/>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'model4(1)'!$J$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>total assets</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'model4(1)'!时间</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44530</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'model4(1)'!资金</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15057.369992695269</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15057.369992695269</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19011.31844749668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45400.106469620208</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>133057.78626791219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>167517.16799780785</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>209123.5851968638</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>260275.18576464822</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>429765.68309819163</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>582573.6242766435</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>881591.943156605</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1311840.7969133004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1756548.728752262</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1913790.7787700745</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2126375.4638579632</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2379024.8131143185</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2717832.047090339</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3109473.9545420222</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3420451.2163454616</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D6A0-4C10-8CC9-BF21CBF2A97F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'model4(1)'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total assets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'model4(1)'!时间</f>
-              <numCache>
-                <formatCode>yyyy\-mm\-dd</formatCode>
-                <ptCount val="19"/>
-                <pt idx="0">
-                  <v>44316</v>
-                </pt>
-                <pt idx="1">
-                  <v>44347</v>
-                </pt>
-                <pt idx="2">
-                  <v>44377</v>
-                </pt>
-                <pt idx="3">
-                  <v>44407</v>
-                </pt>
-                <pt idx="4">
-                  <v>44439</v>
-                </pt>
-                <pt idx="5">
-                  <v>44469</v>
-                </pt>
-                <pt idx="6">
-                  <v>44498</v>
-                </pt>
-                <pt idx="7">
-                  <v>44530</v>
-                </pt>
-                <pt idx="8">
-                  <v>44561</v>
-                </pt>
-                <pt idx="9">
-                  <v>44589</v>
-                </pt>
-                <pt idx="10">
-                  <v>44620</v>
-                </pt>
-                <pt idx="11">
-                  <v>44651</v>
-                </pt>
-                <pt idx="12">
-                  <v>44680</v>
-                </pt>
-                <pt idx="13">
-                  <v>44712</v>
-                </pt>
-                <pt idx="14">
-                  <v>44742</v>
-                </pt>
-                <pt idx="15">
-                  <v>44771</v>
-                </pt>
-                <pt idx="16">
-                  <v>44804</v>
-                </pt>
-                <pt idx="17">
-                  <v>44834</v>
-                </pt>
-                <pt idx="18">
-                  <v>44865</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'model4(1)'!资产</f>
-              <numCache>
-                <formatCode xml:space="preserve">0.00_ </formatCode>
-                <ptCount val="19"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>15057.36999269527</v>
-                </pt>
-                <pt idx="2">
-                  <v>15452.86077954769</v>
-                </pt>
-                <pt idx="3">
-                  <v>19019.5878494305</v>
-                </pt>
-                <pt idx="4">
-                  <v>44610.15723019126</v>
-                </pt>
-                <pt idx="5">
-                  <v>131800.0954652137</v>
-                </pt>
-                <pt idx="6">
-                  <v>170637.5292139809</v>
-                </pt>
-                <pt idx="7">
-                  <v>215275.2181934247</v>
-                </pt>
-                <pt idx="8">
-                  <v>262454.7491055948</v>
-                </pt>
-                <pt idx="9">
-                  <v>404006.3058065916</v>
-                </pt>
-                <pt idx="10">
-                  <v>556025.96375305</v>
-                </pt>
-                <pt idx="11">
-                  <v>794878.5808260118</v>
-                </pt>
-                <pt idx="12">
-                  <v>1150213.834049235</v>
-                </pt>
-                <pt idx="13">
-                  <v>1639230.026018559</v>
-                </pt>
-                <pt idx="14">
-                  <v>2009828.674629037</v>
-                </pt>
-                <pt idx="15">
-                  <v>2106471.949580224</v>
-                </pt>
-                <pt idx="16">
-                  <v>2266535.448177875</v>
-                </pt>
-                <pt idx="17">
-                  <v>2388388.957364744</v>
-                </pt>
-                <pt idx="18">
-                  <v>2745559.975333992</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-          <smooth val="0"/>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'model4(1)'!$K$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>profit amount</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'model4(1)'!时间</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44530</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'model4(1)'!资产</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15057.369992695269</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15452.860779547693</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19019.5878494305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44610.15723019126</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>131800.09546521373</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170637.52921398092</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>215275.21819342475</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262454.74910559482</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>404006.30580659158</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>556025.96375304996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>794878.58082601184</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1150213.8340492349</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1639230.0260185585</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009828.6746290366</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2106471.9495802242</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2266535.4481778746</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2388388.957364744</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2745559.9753339919</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3207026.9420786961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D6A0-4C10-8CC9-BF21CBF2A97F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'model4(1)'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>profit amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'model4(1)'!时间</f>
-              <numCache>
-                <formatCode>yyyy\-mm\-dd</formatCode>
-                <ptCount val="19"/>
-                <pt idx="0">
-                  <v>44316</v>
-                </pt>
-                <pt idx="1">
-                  <v>44347</v>
-                </pt>
-                <pt idx="2">
-                  <v>44377</v>
-                </pt>
-                <pt idx="3">
-                  <v>44407</v>
-                </pt>
-                <pt idx="4">
-                  <v>44439</v>
-                </pt>
-                <pt idx="5">
-                  <v>44469</v>
-                </pt>
-                <pt idx="6">
-                  <v>44498</v>
-                </pt>
-                <pt idx="7">
-                  <v>44530</v>
-                </pt>
-                <pt idx="8">
-                  <v>44561</v>
-                </pt>
-                <pt idx="9">
-                  <v>44589</v>
-                </pt>
-                <pt idx="10">
-                  <v>44620</v>
-                </pt>
-                <pt idx="11">
-                  <v>44651</v>
-                </pt>
-                <pt idx="12">
-                  <v>44680</v>
-                </pt>
-                <pt idx="13">
-                  <v>44712</v>
-                </pt>
-                <pt idx="14">
-                  <v>44742</v>
-                </pt>
-                <pt idx="15">
-                  <v>44771</v>
-                </pt>
-                <pt idx="16">
-                  <v>44804</v>
-                </pt>
-                <pt idx="17">
-                  <v>44834</v>
-                </pt>
-                <pt idx="18">
-                  <v>44865</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'model4(1)'!金额</f>
-              <numCache>
-                <formatCode xml:space="preserve">0.00_ </formatCode>
-                <ptCount val="19"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>0</v>
-                </pt>
-                <pt idx="2">
-                  <v>395.4907868524242</v>
-                </pt>
-                <pt idx="3">
-                  <v>8.269401933819609</v>
-                </pt>
-                <pt idx="4">
-                  <v>-789.9492394289482</v>
-                </pt>
-                <pt idx="5">
-                  <v>-1257.69080269846</v>
-                </pt>
-                <pt idx="6">
-                  <v>3120.361216173071</v>
-                </pt>
-                <pt idx="7">
-                  <v>6151.632996560948</v>
-                </pt>
-                <pt idx="8">
-                  <v>2179.563340946595</v>
-                </pt>
-                <pt idx="9">
-                  <v>-25759.37729160005</v>
-                </pt>
-                <pt idx="10">
-                  <v>-26547.66052359354</v>
-                </pt>
-                <pt idx="11">
-                  <v>-86713.36233059317</v>
-                </pt>
-                <pt idx="12">
-                  <v>-161626.9628640655</v>
-                </pt>
-                <pt idx="13">
-                  <v>-117318.7027337034</v>
-                </pt>
-                <pt idx="14">
-                  <v>96037.89585896209</v>
-                </pt>
-                <pt idx="15">
-                  <v>-19903.51427773898</v>
-                </pt>
-                <pt idx="16">
-                  <v>-112489.364936444</v>
-                </pt>
-                <pt idx="17">
-                  <v>-329443.089725595</v>
-                </pt>
-                <pt idx="18">
-                  <v>-363913.9792080303</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-          <smooth val="0"/>
-        </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
-        <marker val="1"/>
-        <smooth val="0"/>
-        <axId val="76528256"/>
-        <axId val="94351744"/>
-      </lineChart>
-      <dateAx>
-        <axId val="76528256"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="low"/>
-        <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'model4(1)'!时间</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44530</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'model4(1)'!金额</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>395.49078685242421</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2694019338196085</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-789.9492394289482</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1257.6908026984602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3120.3612161730707</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6151.6329965609475</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2179.5633409465954</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-25759.377291600045</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-26547.660523593542</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-86713.362330593169</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-161626.96286406554</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-117318.70273370342</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96037.895858962089</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-19903.514277738985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-112489.36493644398</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-329443.08972559497</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-363913.97920803027</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-213424.27426676545</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D6A0-4C10-8CC9-BF21CBF2A97F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="158824704"/>
+        <c:axId val="158949760"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="158824704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -959,55 +941,53 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
-        </txPr>
-        <crossAx val="94351744"/>
-        <crosses val="autoZero"/>
-        <lblOffset val="100"/>
-        <baseTimeUnit val="days"/>
-      </dateAx>
-      <valAx>
-        <axId val="94351744"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="l"/>
-        <majorGridlines>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+        </c:txPr>
+        <c:crossAx val="158949760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="158949760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-          </spPr>
-        </majorGridlines>
-        <numFmt formatCode="0.00_ " sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
-            <a:prstDash val="solid"/>
           </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1019,34 +999,38 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
-        </txPr>
-        <crossAx val="76528256"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="b"/>
-      <layout/>
-      <overlay val="0"/>
-      <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        </c:txPr>
+        <c:crossAx val="158824704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
-          <a:prstDash val="solid"/>
         </a:ln>
-      </spPr>
-      <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1058,30 +1042,69 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr lang="zh-CN"/>
         </a:p>
-      </txPr>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1095,334 +1118,328 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
-                <effectLst/>
+                <a:effectLst/>
               </a:rPr>
               <a:t>szseinnovation100index &amp;                                            sales amount per month</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-              <effectLst/>
+              <a:effectLst/>
             </a:endParaRPr>
           </a:p>
-        </rich>
-      </tx>
-      <overlay val="0"/>
-      <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
-          <a:prstDash val="solid"/>
         </a:ln>
-      </spPr>
-    </title>
-    <plotArea>
-      <layout/>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <varyColors val="0"/>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
               <a:schemeClr val="accent2"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <val>
-            <numRef>
-              <f>'model4(1)'!买卖</f>
-              <numCache>
-                <formatCode xml:space="preserve">0.00_ </formatCode>
-                <ptCount val="19"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>15057.36999269527</v>
-                </pt>
-                <pt idx="2">
-                  <v>-657.8662767539254</v>
-                </pt>
-                <pt idx="3">
-                  <v>3953.948454801412</v>
-                </pt>
-                <pt idx="4">
-                  <v>26388.78802212352</v>
-                </pt>
-                <pt idx="5">
-                  <v>87657.67979829198</v>
-                </pt>
-                <pt idx="6">
-                  <v>34459.38172989565</v>
-                </pt>
-                <pt idx="7">
-                  <v>41606.41719905596</v>
-                </pt>
-                <pt idx="8">
-                  <v>51151.60056778443</v>
-                </pt>
-                <pt idx="9">
-                  <v>169490.4973335434</v>
-                </pt>
-                <pt idx="10">
-                  <v>152807.9411784518</v>
-                </pt>
-                <pt idx="11">
-                  <v>299018.3188799615</v>
-                </pt>
-                <pt idx="12">
-                  <v>430248.8537566953</v>
-                </pt>
-                <pt idx="13">
-                  <v>444707.9318389616</v>
-                </pt>
-                <pt idx="14">
-                  <v>157242.0500178125</v>
-                </pt>
-                <pt idx="15">
-                  <v>212584.6850878888</v>
-                </pt>
-                <pt idx="16">
-                  <v>252649.3492563555</v>
-                </pt>
-                <pt idx="17">
-                  <v>338807.2339760204</v>
-                </pt>
-                <pt idx="18">
-                  <v>391641.9074516833</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
-        <gapWidth val="150"/>
-        <axId val="77567488"/>
-        <axId val="77565952"/>
-      </barChart>
-      <lineChart>
-        <grouping val="standard"/>
-        <varyColors val="0"/>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'model4(1)'!买卖</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15057.369992695269</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-657.86627675392538</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3953.9484548014116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26388.788022123525</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87657.679798291982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34459.381729895649</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41606.417199055955</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51151.60056778443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>169490.49733354338</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>152807.94117845185</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>299018.3188799615</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>430248.85375669535</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>444707.93183896161</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>157242.05001781249</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>212584.68508788882</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>252649.34925635549</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>338807.23397602042</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>391641.90745168331</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>310977.26180343935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="532127104"/>
+        <c:axId val="532124800"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'model4(1)'!时间</f>
-              <numCache>
-                <formatCode>yyyy\-mm\-dd</formatCode>
-                <ptCount val="19"/>
-                <pt idx="0">
-                  <v>44316</v>
-                </pt>
-                <pt idx="1">
-                  <v>44347</v>
-                </pt>
-                <pt idx="2">
-                  <v>44377</v>
-                </pt>
-                <pt idx="3">
-                  <v>44407</v>
-                </pt>
-                <pt idx="4">
-                  <v>44439</v>
-                </pt>
-                <pt idx="5">
-                  <v>44469</v>
-                </pt>
-                <pt idx="6">
-                  <v>44498</v>
-                </pt>
-                <pt idx="7">
-                  <v>44530</v>
-                </pt>
-                <pt idx="8">
-                  <v>44561</v>
-                </pt>
-                <pt idx="9">
-                  <v>44589</v>
-                </pt>
-                <pt idx="10">
-                  <v>44620</v>
-                </pt>
-                <pt idx="11">
-                  <v>44651</v>
-                </pt>
-                <pt idx="12">
-                  <v>44680</v>
-                </pt>
-                <pt idx="13">
-                  <v>44712</v>
-                </pt>
-                <pt idx="14">
-                  <v>44742</v>
-                </pt>
-                <pt idx="15">
-                  <v>44771</v>
-                </pt>
-                <pt idx="16">
-                  <v>44804</v>
-                </pt>
-                <pt idx="17">
-                  <v>44834</v>
-                </pt>
-                <pt idx="18">
-                  <v>44865</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'model4(1)'!指数</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="19"/>
-                <pt idx="0">
-                  <v>4.786029999999999</v>
-                </pt>
-                <pt idx="1">
-                  <v>4.980659999999999</v>
-                </pt>
-                <pt idx="2">
-                  <v>5.111479999999999</v>
-                </pt>
-                <pt idx="3">
-                  <v>4.9777</v>
-                </pt>
-                <pt idx="4">
-                  <v>4.761310000000001</v>
-                </pt>
-                <pt idx="5">
-                  <v>4.710640000000001</v>
-                </pt>
-                <pt idx="6">
-                  <v>4.8679</v>
-                </pt>
-                <pt idx="7">
-                  <v>4.9547099609375</v>
-                </pt>
-                <pt idx="8">
-                  <v>4.863009765625</v>
-                </pt>
-                <pt idx="9">
-                  <v>4.34402978515625</v>
-                </pt>
-                <pt idx="10">
-                  <v>4.3355400390625</v>
-                </pt>
-                <pt idx="11">
-                  <v>3.86585009765625</v>
-                </pt>
-                <pt idx="12">
-                  <v>3.5012099609375</v>
-                </pt>
-                <pt idx="13">
-                  <v>3.636159912109375</v>
-                </pt>
-                <pt idx="14">
-                  <v>4.1096201171875</v>
-                </pt>
-                <pt idx="15">
-                  <v>3.872469970703125</v>
-                </pt>
-                <pt idx="16">
-                  <v>3.7022099609375</v>
-                </pt>
-                <pt idx="17">
-                  <v>3.34772998046875</v>
-                </pt>
-                <pt idx="18">
-                  <v>3.29939990234375</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-          <smooth val="0"/>
-        </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
-        <marker val="1"/>
-        <smooth val="0"/>
-        <axId val="77550336"/>
-        <axId val="77551872"/>
-      </lineChart>
-      <catAx>
-        <axId val="77567488"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="1"/>
-        <axPos val="b"/>
-        <majorTickMark val="out"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <crossAx val="77565952"/>
-        <crosses val="autoZero"/>
-        <auto val="1"/>
-        <lblAlgn val="ctr"/>
-        <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
-      </catAx>
-      <valAx>
-        <axId val="77565952"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="r"/>
-        <numFmt formatCode="0.00_ " sourceLinked="1"/>
-        <majorTickMark val="out"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:noFill/>
-            <a:prstDash val="solid"/>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'model4(1)'!时间</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44530</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'model4(1)'!指数</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.7860299999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9806599999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1114799999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9776999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7613100000000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7106400000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8678999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9547099609374996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8630097656249998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3440297851562502</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.3355400390624999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8658500976562502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5012099609375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6361599121093748</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.1096201171875002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8724699707031252</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7022099609375001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3477299804687499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2993999023437501</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4802900390625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="532051072"/>
+        <c:axId val="532052608"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="532051072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1434,46 +1451,53 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
-        </txPr>
-        <crossAx val="77567488"/>
-        <crosses val="max"/>
-        <crossBetween val="between"/>
-      </valAx>
-      <dateAx>
-        <axId val="77550336"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
-        <majorTickMark val="out"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
+        </c:txPr>
+        <c:crossAx val="532052608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="532052608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1485,55 +1509,37 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
-        </txPr>
-        <crossAx val="77551872"/>
-        <crosses val="autoZero"/>
-        <lblOffset val="100"/>
-        <baseTimeUnit val="days"/>
-      </dateAx>
-      <valAx>
-        <axId val="77551872"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="l"/>
-        <majorGridlines>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </spPr>
-        </majorGridlines>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        </c:txPr>
+        <c:crossAx val="532051072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="532124800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
-            <a:prstDash val="solid"/>
           </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1545,84 +1551,146 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
-        </txPr>
-        <crossAx val="77550336"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
+        </c:txPr>
+        <c:crossAx val="532127104"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="532127104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="532124800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <twoCellAnchor>
-    <from>
-      <col>14</col>
-      <colOff>676275</colOff>
-      <row>4</row>
-      <rowOff>85725</rowOff>
-    </from>
-    <to>
-      <col>21</col>
-      <colOff>752475</colOff>
-      <row>20</row>
-      <rowOff>0</rowOff>
-    </to>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </twoCellAnchor>
-  <twoCellAnchor>
-    <from>
-      <col>22</col>
-      <colOff>57149</colOff>
-      <row>4</row>
-      <rowOff>104775</rowOff>
-    </from>
-    <to>
-      <col>30</col>
-      <colOff>209549</colOff>
-      <row>20</row>
-      <rowOff>0</rowOff>
-    </to>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </twoCellAnchor>
-</wsDr>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="szse_innovation_100"/>
@@ -15093,6 +15161,306 @@
             <v>3.4802900390625</v>
           </cell>
         </row>
+        <row r="675">
+          <cell r="A675">
+            <v>44907</v>
+          </cell>
+          <cell r="B675">
+            <v>3609.10009765625</v>
+          </cell>
+          <cell r="C675">
+            <v>3629.239990234375</v>
+          </cell>
+          <cell r="D675">
+            <v>3597.340087890625</v>
+          </cell>
+          <cell r="E675">
+            <v>3607.06005859375</v>
+          </cell>
+          <cell r="F675">
+            <v>3.60706005859375</v>
+          </cell>
+        </row>
+        <row r="676">
+          <cell r="A676">
+            <v>44908</v>
+          </cell>
+          <cell r="B676">
+            <v>3608.77001953125</v>
+          </cell>
+          <cell r="C676">
+            <v>3608.969970703125</v>
+          </cell>
+          <cell r="D676">
+            <v>3562.97998046875</v>
+          </cell>
+          <cell r="E676">
+            <v>3564.9599609375</v>
+          </cell>
+          <cell r="F676">
+            <v>3.5649599609374998</v>
+          </cell>
+        </row>
+        <row r="677">
+          <cell r="A677">
+            <v>44909</v>
+          </cell>
+          <cell r="B677">
+            <v>3578.050048828125</v>
+          </cell>
+          <cell r="C677">
+            <v>3584.14990234375</v>
+          </cell>
+          <cell r="D677">
+            <v>3549.389892578125</v>
+          </cell>
+          <cell r="E677">
+            <v>3555.800048828125</v>
+          </cell>
+          <cell r="F677">
+            <v>3.5558000488281252</v>
+          </cell>
+        </row>
+        <row r="678">
+          <cell r="A678">
+            <v>44910</v>
+          </cell>
+          <cell r="B678">
+            <v>3552.389892578125</v>
+          </cell>
+          <cell r="C678">
+            <v>3592.31005859375</v>
+          </cell>
+          <cell r="D678">
+            <v>3548.2099609375</v>
+          </cell>
+          <cell r="E678">
+            <v>3589.489990234375</v>
+          </cell>
+          <cell r="F678">
+            <v>3.5894899902343749</v>
+          </cell>
+        </row>
+        <row r="679">
+          <cell r="A679">
+            <v>44911</v>
+          </cell>
+          <cell r="B679">
+            <v>3565.719970703125</v>
+          </cell>
+          <cell r="C679">
+            <v>3577.2900390625</v>
+          </cell>
+          <cell r="D679">
+            <v>3546.7900390625</v>
+          </cell>
+          <cell r="E679">
+            <v>3567.14990234375</v>
+          </cell>
+          <cell r="F679">
+            <v>3.5671499023437501</v>
+          </cell>
+        </row>
+        <row r="680">
+          <cell r="A680">
+            <v>44914</v>
+          </cell>
+          <cell r="B680">
+            <v>3565.75</v>
+          </cell>
+          <cell r="C680">
+            <v>3586.010009765625</v>
+          </cell>
+          <cell r="D680">
+            <v>3513.10009765625</v>
+          </cell>
+          <cell r="E680">
+            <v>3525.510009765625</v>
+          </cell>
+          <cell r="F680">
+            <v>3.5255100097656249</v>
+          </cell>
+        </row>
+        <row r="681">
+          <cell r="A681">
+            <v>44915</v>
+          </cell>
+          <cell r="B681">
+            <v>3514.239990234375</v>
+          </cell>
+          <cell r="C681">
+            <v>3514.570068359375</v>
+          </cell>
+          <cell r="D681">
+            <v>3456.780029296875</v>
+          </cell>
+          <cell r="E681">
+            <v>3467.97998046875</v>
+          </cell>
+          <cell r="F681">
+            <v>3.4679799804687499</v>
+          </cell>
+        </row>
+        <row r="682">
+          <cell r="A682">
+            <v>44916</v>
+          </cell>
+          <cell r="B682">
+            <v>3471.60009765625</v>
+          </cell>
+          <cell r="C682">
+            <v>3481.989990234375</v>
+          </cell>
+          <cell r="D682">
+            <v>3440.239990234375</v>
+          </cell>
+          <cell r="E682">
+            <v>3453.199951171875</v>
+          </cell>
+          <cell r="F682">
+            <v>3.4531999511718752</v>
+          </cell>
+        </row>
+        <row r="683">
+          <cell r="A683">
+            <v>44917</v>
+          </cell>
+          <cell r="B683">
+            <v>3476.35009765625</v>
+          </cell>
+          <cell r="C683">
+            <v>3489.139892578125</v>
+          </cell>
+          <cell r="D683">
+            <v>3433.7900390625</v>
+          </cell>
+          <cell r="E683">
+            <v>3443.830078125</v>
+          </cell>
+          <cell r="F683">
+            <v>3.443830078125</v>
+          </cell>
+        </row>
+        <row r="684">
+          <cell r="A684">
+            <v>44918</v>
+          </cell>
+          <cell r="B684">
+            <v>3421.8701171875</v>
+          </cell>
+          <cell r="C684">
+            <v>3450.989990234375</v>
+          </cell>
+          <cell r="D684">
+            <v>3409.989990234375</v>
+          </cell>
+          <cell r="E684">
+            <v>3426.989990234375</v>
+          </cell>
+          <cell r="F684">
+            <v>3.4269899902343748</v>
+          </cell>
+        </row>
+        <row r="685">
+          <cell r="A685">
+            <v>44921</v>
+          </cell>
+          <cell r="B685">
+            <v>3430.8798828125</v>
+          </cell>
+          <cell r="C685">
+            <v>3486.5</v>
+          </cell>
+          <cell r="D685">
+            <v>3430.8798828125</v>
+          </cell>
+          <cell r="E685">
+            <v>3480.330078125</v>
+          </cell>
+          <cell r="F685">
+            <v>3.4803300781250002</v>
+          </cell>
+        </row>
+        <row r="686">
+          <cell r="A686">
+            <v>44922</v>
+          </cell>
+          <cell r="B686">
+            <v>3487.590087890625</v>
+          </cell>
+          <cell r="C686">
+            <v>3517.739990234375</v>
+          </cell>
+          <cell r="D686">
+            <v>3476.340087890625</v>
+          </cell>
+          <cell r="E686">
+            <v>3513.85009765625</v>
+          </cell>
+          <cell r="F686">
+            <v>3.5138500976562499</v>
+          </cell>
+        </row>
+        <row r="687">
+          <cell r="A687">
+            <v>44923</v>
+          </cell>
+          <cell r="B687">
+            <v>3492.9599609375</v>
+          </cell>
+          <cell r="C687">
+            <v>3495.7099609375</v>
+          </cell>
+          <cell r="D687">
+            <v>3455.699951171875</v>
+          </cell>
+          <cell r="E687">
+            <v>3472.489990234375</v>
+          </cell>
+          <cell r="F687">
+            <v>3.4724899902343749</v>
+          </cell>
+        </row>
+        <row r="688">
+          <cell r="A688">
+            <v>44924</v>
+          </cell>
+          <cell r="B688">
+            <v>3460.449951171875</v>
+          </cell>
+          <cell r="C688">
+            <v>3499.260009765625</v>
+          </cell>
+          <cell r="D688">
+            <v>3456.27001953125</v>
+          </cell>
+          <cell r="E688">
+            <v>3476.469970703125</v>
+          </cell>
+          <cell r="F688">
+            <v>3.4764699707031248</v>
+          </cell>
+        </row>
+        <row r="689">
+          <cell r="A689">
+            <v>44925</v>
+          </cell>
+          <cell r="B689">
+            <v>3494.699951171875</v>
+          </cell>
+          <cell r="C689">
+            <v>3507.47998046875</v>
+          </cell>
+          <cell r="D689">
+            <v>3473.530029296875</v>
+          </cell>
+          <cell r="E689">
+            <v>3473.530029296875</v>
+          </cell>
+          <cell r="F689">
+            <v>3.4735300292968749</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
@@ -15102,7 +15470,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="model1"/>
@@ -15120,9 +15488,6 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="B2">
-            <v>0</v>
-          </cell>
           <cell r="C2" t="str">
             <v>PE</v>
           </cell>
@@ -15960,7 +16325,7 @@
             <v>44403</v>
           </cell>
           <cell r="C78">
-            <v>39.900001525878906</v>
+            <v>39.900001525878913</v>
           </cell>
           <cell r="D78">
             <v>41.020526335866805</v>
@@ -15971,7 +16336,7 @@
             <v>44404</v>
           </cell>
           <cell r="C79">
-            <v>38.209999084472656</v>
+            <v>38.209999084472663</v>
           </cell>
           <cell r="D79">
             <v>40.984025981952598</v>
@@ -15982,7 +16347,7 @@
             <v>44405</v>
           </cell>
           <cell r="C80">
-            <v>38.619998931884766</v>
+            <v>38.619998931884773</v>
           </cell>
           <cell r="D80">
             <v>40.953717942849167</v>
@@ -15993,7 +16358,7 @@
             <v>44406</v>
           </cell>
           <cell r="C81">
-            <v>40.119998931884766</v>
+            <v>40.119998931884773</v>
           </cell>
           <cell r="D81">
             <v>40.943164537647085</v>
@@ -16048,7 +16413,7 @@
             <v>44413</v>
           </cell>
           <cell r="C86">
-            <v>41.130001068115234</v>
+            <v>41.130001068115227</v>
           </cell>
           <cell r="D86">
             <v>40.931428547813759</v>
@@ -16081,7 +16446,7 @@
             <v>44418</v>
           </cell>
           <cell r="C89">
-            <v>40.869998931884766</v>
+            <v>40.869998931884773</v>
           </cell>
           <cell r="D89">
             <v>40.927701096808754</v>
@@ -16125,7 +16490,7 @@
             <v>44424</v>
           </cell>
           <cell r="C93">
-            <v>39.290000915527344</v>
+            <v>39.290000915527337</v>
           </cell>
           <cell r="D93">
             <v>40.886703283288959</v>
@@ -16180,7 +16545,7 @@
             <v>44431</v>
           </cell>
           <cell r="C98">
-            <v>39.130001068115234</v>
+            <v>39.130001068115227</v>
           </cell>
           <cell r="D98">
             <v>40.770416618982935</v>
@@ -16224,7 +16589,7 @@
             <v>44435</v>
           </cell>
           <cell r="C102">
-            <v>38.630001068115234</v>
+            <v>38.630001068115227</v>
           </cell>
           <cell r="D102">
             <v>40.702299958801255</v>
@@ -16279,7 +16644,7 @@
             <v>44442</v>
           </cell>
           <cell r="C107">
-            <v>34.220001220703125</v>
+            <v>34.220001220703118</v>
           </cell>
           <cell r="D107">
             <v>40.482476154145722</v>
@@ -16290,7 +16655,7 @@
             <v>44445</v>
           </cell>
           <cell r="C108">
-            <v>35.540000915527344</v>
+            <v>35.540000915527337</v>
           </cell>
           <cell r="D108">
             <v>40.435849029253099</v>
@@ -16301,7 +16666,7 @@
             <v>44446</v>
           </cell>
           <cell r="C109">
-            <v>35.720001220703125</v>
+            <v>35.720001220703118</v>
           </cell>
           <cell r="D109">
             <v>40.391775685247957</v>
@@ -16356,7 +16721,7 @@
             <v>44453</v>
           </cell>
           <cell r="C114">
-            <v>35.470001220703125</v>
+            <v>35.470001220703118</v>
           </cell>
           <cell r="D114">
             <v>40.173214266640784</v>
@@ -16367,7 +16732,7 @@
             <v>44454</v>
           </cell>
           <cell r="C115">
-            <v>35.130001068115234</v>
+            <v>35.130001068115227</v>
           </cell>
           <cell r="D115">
             <v>40.128584061344093</v>
@@ -16400,7 +16765,7 @@
             <v>44461</v>
           </cell>
           <cell r="C118">
-            <v>34.560001373291016</v>
+            <v>34.560001373291023</v>
           </cell>
           <cell r="D118">
             <v>39.985344822324535</v>
@@ -19784,6 +20149,17 @@
           </cell>
           <cell r="D404">
             <v>31.704975105920376</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="B405">
+            <v>44895</v>
+          </cell>
+          <cell r="C405">
+            <v>22.809999470000001</v>
+          </cell>
+          <cell r="D405">
+            <v>31.682903206079384</v>
           </cell>
         </row>
       </sheetData>
@@ -20078,11 +20454,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -20090,1187 +20463,1155 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col width="10" customWidth="1" style="1" min="1" max="1"/>
-    <col width="8" customWidth="1" style="1" min="2" max="2"/>
-    <col width="6.375" customWidth="1" style="1" min="3" max="3"/>
-    <col width="6.875" customWidth="1" style="28" min="4" max="4"/>
-    <col width="9.375" customWidth="1" style="28" min="5" max="5"/>
-    <col width="9.25" customWidth="1" style="28" min="6" max="6"/>
-    <col width="10.75" customWidth="1" style="28" min="7" max="7"/>
-    <col width="11.5" customWidth="1" style="28" min="8" max="8"/>
-    <col width="12.75" customWidth="1" style="28" min="9" max="9"/>
-    <col width="12.625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="10.75" customWidth="1" style="1" min="11" max="11"/>
-    <col width="10.75" customWidth="1" style="28" min="12" max="12"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="1" min="13" max="13"/>
-    <col width="9" customWidth="1" style="2" min="14" max="14"/>
-    <col width="9" customWidth="1" style="1" min="15" max="15"/>
-    <col width="9.75" bestFit="1" customWidth="1" style="1" min="16" max="16"/>
-    <col width="11.375" customWidth="1" style="1" min="17" max="18"/>
-    <col width="11.125" customWidth="1" style="1" min="19" max="20"/>
-    <col width="10.375" customWidth="1" style="1" min="21" max="21"/>
-    <col width="10.25" customWidth="1" style="1" min="22" max="22"/>
-    <col width="10.125" customWidth="1" style="1" min="23" max="23"/>
-    <col width="9" customWidth="1" style="1" min="24" max="16384"/>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.75" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.375" style="1" customWidth="1"/>
+    <col min="19" max="20" width="11.125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.25" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10.125" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customFormat="1" customHeight="1" s="10">
-      <c r="A1" s="12" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="12" t="inlineStr">
-        <is>
-          <t>szse innovation100</t>
-        </is>
-      </c>
-      <c r="C1" s="12" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="D1" s="29" t="inlineStr">
-        <is>
-          <t>historical PE mean</t>
-        </is>
-      </c>
-      <c r="E1" s="30" t="inlineStr">
-        <is>
-          <t>sales amount</t>
-        </is>
-      </c>
-      <c r="F1" s="30" t="inlineStr">
-        <is>
-          <t>sales shares</t>
-        </is>
-      </c>
-      <c r="G1" s="30" t="inlineStr">
-        <is>
-          <t>shares held</t>
-        </is>
-      </c>
-      <c r="H1" s="30" t="inlineStr">
-        <is>
-          <t>market value</t>
-        </is>
-      </c>
-      <c r="I1" s="31" t="inlineStr">
-        <is>
-          <t>accumulated investment</t>
-        </is>
-      </c>
-      <c r="J1" s="22" t="inlineStr">
-        <is>
-          <t>total assets</t>
-        </is>
-      </c>
-      <c r="K1" s="23" t="inlineStr">
-        <is>
-          <t>profit amount</t>
-        </is>
-      </c>
-      <c r="L1" s="32" t="inlineStr">
-        <is>
-          <t>recovered funds</t>
-        </is>
-      </c>
-      <c r="N1" s="11" t="n"/>
+    <row r="1" spans="1:23" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="11"/>
     </row>
-    <row r="2" ht="14.1" customHeight="1">
-      <c r="A2" s="5" t="n"/>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="5" t="n"/>
-      <c r="D2" s="33" t="n"/>
-      <c r="E2" s="33" t="n">
+    <row r="2" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4">
         <v>3950</v>
       </c>
-      <c r="F2" s="34" t="inlineStr">
-        <is>
-          <t>unit:yuan</t>
-        </is>
-      </c>
-      <c r="G2" s="33" t="n"/>
-      <c r="H2" s="33">
+      <c r="F2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4">
         <f>MIN(G:G)</f>
-        <v/>
-      </c>
-      <c r="I2" s="33" t="n"/>
-      <c r="J2" s="5" t="n"/>
-      <c r="K2" s="5" t="n"/>
-      <c r="L2" s="33" t="n"/>
-      <c r="M2" s="6" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="6"/>
     </row>
-    <row r="3" ht="14.1" customHeight="1">
-      <c r="A3" s="35" t="n">
+    <row r="3" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
         <v>44316</v>
       </c>
       <c r="B3" s="15">
         <f>VLOOKUP(A3,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
+        <v>4.7860299999999993</v>
       </c>
       <c r="C3" s="15">
         <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D3" s="36">
+        <v>47.64</v>
+      </c>
+      <c r="D3" s="16">
         <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E3" s="36" t="n">
+        <v>45.46631578947369</v>
+      </c>
+      <c r="E3" s="16">
         <v>0</v>
       </c>
-      <c r="F3" s="37">
-        <f>E3/B3</f>
-        <v/>
-      </c>
-      <c r="G3" s="37">
+      <c r="F3" s="17">
+        <f t="shared" ref="F3:F22" si="0">E3/B3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
         <f>G2+F3</f>
-        <v/>
-      </c>
-      <c r="H3" s="37">
-        <f>G3*B3</f>
-        <v/>
-      </c>
-      <c r="I3" s="37">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
+        <f t="shared" ref="H3:H22" si="1">G3*B3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="17">
         <f>IF(E3&gt;0,I2+E3,I2)</f>
-        <v/>
-      </c>
-      <c r="J3" s="37">
-        <f>H3+L3</f>
-        <v/>
-      </c>
-      <c r="K3" s="37">
-        <f>J3-I3</f>
-        <v/>
-      </c>
-      <c r="L3" s="36">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <f t="shared" ref="J3:J22" si="2">H3+L3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="17">
+        <f t="shared" ref="K3:K22" si="3">J3-I3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="16">
         <f>IF(E3&lt;0,L2-E3,L2)</f>
-        <v/>
-      </c>
-      <c r="M3" s="6" t="n"/>
-      <c r="P3" s="25" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="Q3" s="26" t="inlineStr">
-        <is>
-          <t>investment per year</t>
-        </is>
-      </c>
-      <c r="R3" s="26" t="inlineStr">
-        <is>
-          <t>accumulated investment</t>
-        </is>
-      </c>
-      <c r="S3" s="26" t="inlineStr">
-        <is>
-          <t>total assets</t>
-        </is>
-      </c>
-      <c r="T3" s="26" t="inlineStr">
-        <is>
-          <t>profit amount</t>
-        </is>
-      </c>
-      <c r="U3" s="27" t="inlineStr">
-        <is>
-          <t>recovered funds</t>
-        </is>
-      </c>
-      <c r="V3" s="26" t="inlineStr">
-        <is>
-          <t>absolute RR</t>
-        </is>
-      </c>
-      <c r="W3" s="26" t="inlineStr">
-        <is>
-          <t>annualized RR</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="P3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="26" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" ht="14.1" customHeight="1">
-      <c r="A4" s="35" t="n">
+    <row r="4" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
         <v>44347</v>
       </c>
       <c r="B4" s="15">
         <f>VLOOKUP(A4,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
+        <v>4.9806599999999994</v>
       </c>
       <c r="C4" s="15">
         <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D4" s="36">
+        <v>39.85</v>
+      </c>
+      <c r="D4" s="16">
         <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E4" s="36">
-        <f>IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
-        <v/>
-      </c>
-      <c r="F4" s="37">
-        <f>E4/B4</f>
-        <v/>
-      </c>
-      <c r="G4" s="37">
-        <f>G3+F4</f>
-        <v/>
-      </c>
-      <c r="H4" s="37">
-        <f>G4*B4</f>
-        <v/>
-      </c>
-      <c r="I4" s="37">
-        <f>IF(E4&gt;0,I3+E4,I3)</f>
-        <v/>
-      </c>
-      <c r="J4" s="37">
-        <f>H4+L4</f>
-        <v/>
-      </c>
-      <c r="K4" s="37">
-        <f>J4-I4</f>
-        <v/>
-      </c>
-      <c r="L4" s="36">
-        <f>IF(E4&lt;0,L3-E4,L3)</f>
-        <v/>
-      </c>
-      <c r="M4" s="6" t="n"/>
-      <c r="P4" s="38" t="n">
+        <v>41.802432432432425</v>
+      </c>
+      <c r="E4" s="16">
+        <f t="shared" ref="E4:E22" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
+        <v>15057.369992695269</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" si="0"/>
+        <v>3023.1676108578522</v>
+      </c>
+      <c r="G4" s="17">
+        <f t="shared" ref="G4:G22" si="5">G3+F4</f>
+        <v>3023.1676108578522</v>
+      </c>
+      <c r="H4" s="17">
+        <f t="shared" si="1"/>
+        <v>15057.369992695269</v>
+      </c>
+      <c r="I4" s="17">
+        <f t="shared" ref="I4:I22" si="6">IF(E4&gt;0,I3+E4,I3)</f>
+        <v>15057.369992695269</v>
+      </c>
+      <c r="J4" s="17">
+        <f t="shared" si="2"/>
+        <v>15057.369992695269</v>
+      </c>
+      <c r="K4" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="16">
+        <f t="shared" ref="L4:L22" si="7">IF(E4&lt;0,L3-E4,L3)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="P4" s="19">
         <v>44561</v>
       </c>
-      <c r="Q4" s="39">
+      <c r="Q4" s="9">
         <f>R4</f>
-        <v/>
-      </c>
-      <c r="R4" s="33">
+        <v>260275.18576464822</v>
+      </c>
+      <c r="R4" s="4">
         <f>VLOOKUP(P4,A:I,9,)</f>
-        <v/>
-      </c>
-      <c r="S4" s="33">
+        <v>260275.18576464822</v>
+      </c>
+      <c r="S4" s="4">
         <f>VLOOKUP(P4,A:J,10,)</f>
-        <v/>
-      </c>
-      <c r="T4" s="33">
+        <v>262454.74910559482</v>
+      </c>
+      <c r="T4" s="4">
         <f>VLOOKUP(P4,A:K,11,)</f>
-        <v/>
-      </c>
-      <c r="U4" s="33">
+        <v>2179.5633409465954</v>
+      </c>
+      <c r="U4" s="4">
         <f>VLOOKUP(P4,A:L,12,)</f>
-        <v/>
+        <v>657.86627675392538</v>
       </c>
       <c r="V4" s="8">
-        <f>(S4-R4)/R4</f>
-        <v/>
+        <f t="shared" ref="V4" si="8">(S4-R4)/R4</f>
+        <v>8.3740727512819774E-3</v>
       </c>
       <c r="W4" s="8">
         <f>V4</f>
-        <v/>
+        <v>8.3740727512819774E-3</v>
       </c>
     </row>
-    <row r="5" ht="14.1" customHeight="1">
-      <c r="A5" s="35" t="n">
+    <row r="5" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
         <v>44377</v>
       </c>
       <c r="B5" s="15">
         <f>VLOOKUP(A5,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
+        <v>5.1114799999999994</v>
       </c>
       <c r="C5" s="15">
         <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D5" s="36">
+        <v>41.45</v>
+      </c>
+      <c r="D5" s="16">
         <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E5" s="36">
-        <f>IF(C5&lt;D5,$E$2*(D5-C5)^2,-$E$2*(D5-C5)^2)</f>
-        <v/>
-      </c>
-      <c r="F5" s="37">
-        <f>E5/B5</f>
-        <v/>
-      </c>
-      <c r="G5" s="37">
-        <f>G4+F5</f>
-        <v/>
-      </c>
-      <c r="H5" s="37">
-        <f>G5*B5</f>
-        <v/>
-      </c>
-      <c r="I5" s="37">
-        <f>IF(E5&gt;0,I4+E5,I4)</f>
-        <v/>
-      </c>
-      <c r="J5" s="37">
-        <f>H5+L5</f>
-        <v/>
-      </c>
-      <c r="K5" s="37">
-        <f>J5-I5</f>
-        <v/>
-      </c>
-      <c r="L5" s="36">
-        <f>IF(E5&lt;0,L4-E5,L4)</f>
-        <v/>
-      </c>
-      <c r="M5" s="6" t="n"/>
+        <v>41.041896551724122</v>
+      </c>
+      <c r="E5" s="16">
+        <f t="shared" si="4"/>
+        <v>-657.86627675392538</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="0"/>
+        <v>-128.70367814291075</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" si="5"/>
+        <v>2894.4639327149416</v>
+      </c>
+      <c r="H5" s="17">
+        <f t="shared" si="1"/>
+        <v>14794.994502793768</v>
+      </c>
+      <c r="I5" s="17">
+        <f t="shared" si="6"/>
+        <v>15057.369992695269</v>
+      </c>
+      <c r="J5" s="17">
+        <f t="shared" si="2"/>
+        <v>15452.860779547693</v>
+      </c>
+      <c r="K5" s="17">
+        <f t="shared" si="3"/>
+        <v>395.49078685242421</v>
+      </c>
+      <c r="L5" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M5" s="6"/>
     </row>
-    <row r="6" ht="14.1" customHeight="1">
-      <c r="A6" s="35" t="n">
+    <row r="6" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
         <v>44407</v>
       </c>
       <c r="B6" s="15">
         <f>VLOOKUP(A6,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
+        <v>4.9776999999999996</v>
       </c>
       <c r="C6" s="15">
         <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D6" s="36">
+        <v>39.930000305175781</v>
+      </c>
+      <c r="D6" s="16">
         <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E6" s="36">
-        <f>IF(C6&lt;D6,$E$2*(D6-C6)^2,-$E$2*(D6-C6)^2)</f>
-        <v/>
-      </c>
-      <c r="F6" s="37">
-        <f>E6/B6</f>
-        <v/>
-      </c>
-      <c r="G6" s="37">
-        <f>G5+F6</f>
-        <v/>
-      </c>
-      <c r="H6" s="37">
-        <f>G6*B6</f>
-        <v/>
-      </c>
-      <c r="I6" s="37">
-        <f>IF(E6&gt;0,I5+E6,I5)</f>
-        <v/>
-      </c>
-      <c r="J6" s="37">
-        <f>H6+L6</f>
-        <v/>
-      </c>
-      <c r="K6" s="37">
-        <f>J6-I6</f>
-        <v/>
-      </c>
-      <c r="L6" s="36">
-        <f>IF(E6&lt;0,L5-E6,L5)</f>
-        <v/>
-      </c>
-      <c r="M6" s="6" t="n"/>
+        <v>40.930499984741189</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" si="4"/>
+        <v>3953.9484548014116</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="0"/>
+        <v>794.33241352460209</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="5"/>
+        <v>3688.7963462395437</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" si="1"/>
+        <v>18361.721572676575</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" si="6"/>
+        <v>19011.31844749668</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" si="2"/>
+        <v>19019.5878494305</v>
+      </c>
+      <c r="K6" s="17">
+        <f t="shared" si="3"/>
+        <v>8.2694019338196085</v>
+      </c>
+      <c r="L6" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M6" s="6"/>
     </row>
-    <row r="7" ht="14.1" customHeight="1">
-      <c r="A7" s="35" t="n">
+    <row r="7" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
         <v>44439</v>
       </c>
       <c r="B7" s="15">
         <f>VLOOKUP(A7,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
+        <v>4.7613100000000008</v>
       </c>
       <c r="C7" s="15">
         <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D7" s="36">
+        <v>38.069999694824219</v>
+      </c>
+      <c r="D7" s="16">
         <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E7" s="36">
-        <f>IF(C7&lt;D7,$E$2*(D7-C7)^2,-$E$2*(D7-C7)^2)</f>
-        <v/>
-      </c>
-      <c r="F7" s="37">
-        <f>E7/B7</f>
-        <v/>
-      </c>
-      <c r="G7" s="37">
-        <f>G6+F7</f>
-        <v/>
-      </c>
-      <c r="H7" s="37">
-        <f>G7*B7</f>
-        <v/>
-      </c>
-      <c r="I7" s="37">
-        <f>IF(E7&gt;0,I6+E7,I6)</f>
-        <v/>
-      </c>
-      <c r="J7" s="37">
-        <f>H7+L7</f>
-        <v/>
-      </c>
-      <c r="K7" s="37">
-        <f>J7-I7</f>
-        <v/>
-      </c>
-      <c r="L7" s="36">
-        <f>IF(E7&lt;0,L6-E7,L6)</f>
-        <v/>
-      </c>
-      <c r="M7" s="6" t="n"/>
+        <v>40.654705834482208</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="4"/>
+        <v>26388.788022123525</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="0"/>
+        <v>5542.3377226274952</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="5"/>
+        <v>9231.1340688670389</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" si="1"/>
+        <v>43952.290953437332</v>
+      </c>
+      <c r="I7" s="17">
+        <f t="shared" si="6"/>
+        <v>45400.106469620208</v>
+      </c>
+      <c r="J7" s="17">
+        <f t="shared" si="2"/>
+        <v>44610.15723019126</v>
+      </c>
+      <c r="K7" s="17">
+        <f t="shared" si="3"/>
+        <v>-789.9492394289482</v>
+      </c>
+      <c r="L7" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M7" s="6"/>
     </row>
-    <row r="8" ht="14.1" customHeight="1">
-      <c r="A8" s="35" t="n">
+    <row r="8" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
         <v>44469</v>
       </c>
       <c r="B8" s="15">
         <f>VLOOKUP(A8,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
+        <v>4.7106400000000006</v>
       </c>
       <c r="C8" s="15">
         <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D8" s="36">
+        <v>35.020000457763672</v>
+      </c>
+      <c r="D8" s="16">
         <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E8" s="36">
-        <f>IF(C8&lt;D8,$E$2*(D8-C8)^2,-$E$2*(D8-C8)^2)</f>
-        <v/>
-      </c>
-      <c r="F8" s="37">
-        <f>E8/B8</f>
-        <v/>
-      </c>
-      <c r="G8" s="37">
-        <f>G7+F8</f>
-        <v/>
-      </c>
-      <c r="H8" s="37">
-        <f>G8*B8</f>
-        <v/>
-      </c>
-      <c r="I8" s="37">
-        <f>IF(E8&gt;0,I7+E8,I7)</f>
-        <v/>
-      </c>
-      <c r="J8" s="37">
-        <f>H8+L8</f>
-        <v/>
-      </c>
-      <c r="K8" s="37">
-        <f>J8-I8</f>
-        <v/>
-      </c>
-      <c r="L8" s="36">
-        <f>IF(E8&lt;0,L7-E8,L7)</f>
-        <v/>
-      </c>
-      <c r="M8" s="6" t="n"/>
+        <v>39.730819672131133</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="4"/>
+        <v>87657.679798291982</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="0"/>
+        <v>18608.443820434586</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="5"/>
+        <v>27839.577889301625</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="1"/>
+        <v>131142.22918845981</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" si="6"/>
+        <v>133057.78626791219</v>
+      </c>
+      <c r="J8" s="17">
+        <f t="shared" si="2"/>
+        <v>131800.09546521373</v>
+      </c>
+      <c r="K8" s="17">
+        <f t="shared" si="3"/>
+        <v>-1257.6908026984602</v>
+      </c>
+      <c r="L8" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M8" s="6"/>
     </row>
-    <row r="9" ht="14.1" customHeight="1">
-      <c r="A9" s="35" t="n">
+    <row r="9" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
         <v>44498</v>
       </c>
       <c r="B9" s="15">
         <f>VLOOKUP(A9,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
+        <v>4.8678999999999997</v>
       </c>
       <c r="C9" s="15">
         <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D9" s="36">
+        <v>36.299999239999998</v>
+      </c>
+      <c r="D9" s="16">
         <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E9" s="36">
-        <f>IF(C9&lt;D9,$E$2*(D9-C9)^2,-$E$2*(D9-C9)^2)</f>
-        <v/>
-      </c>
-      <c r="F9" s="37">
-        <f>E9/B9</f>
-        <v/>
-      </c>
-      <c r="G9" s="37">
-        <f>G8+F9</f>
-        <v/>
-      </c>
-      <c r="H9" s="37">
-        <f>G9*B9</f>
-        <v/>
-      </c>
-      <c r="I9" s="37">
-        <f>IF(E9&gt;0,I8+E9,I8)</f>
-        <v/>
-      </c>
-      <c r="J9" s="37">
-        <f>H9+L9</f>
-        <v/>
-      </c>
-      <c r="K9" s="37">
-        <f>J9-I9</f>
-        <v/>
-      </c>
-      <c r="L9" s="36">
-        <f>IF(E9&lt;0,L8-E9,L8)</f>
-        <v/>
-      </c>
-      <c r="M9" s="6" t="n"/>
+        <v>39.253623134275358</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="4"/>
+        <v>34459.381729895649</v>
+      </c>
+      <c r="F9" s="17">
+        <f t="shared" si="0"/>
+        <v>7078.9009079676352</v>
+      </c>
+      <c r="G9" s="17">
+        <f t="shared" si="5"/>
+        <v>34918.478797269257</v>
+      </c>
+      <c r="H9" s="17">
+        <f t="shared" si="1"/>
+        <v>169979.662937227</v>
+      </c>
+      <c r="I9" s="17">
+        <f t="shared" si="6"/>
+        <v>167517.16799780785</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" si="2"/>
+        <v>170637.52921398092</v>
+      </c>
+      <c r="K9" s="17">
+        <f t="shared" si="3"/>
+        <v>3120.3612161730707</v>
+      </c>
+      <c r="L9" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M9" s="6"/>
     </row>
-    <row r="10" ht="14.1" customHeight="1">
-      <c r="A10" s="35" t="n">
+    <row r="10" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
         <v>44530</v>
       </c>
       <c r="B10" s="15">
         <f>VLOOKUP(A10,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
+        <v>4.9547099609374996</v>
       </c>
       <c r="C10" s="15">
         <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D10" s="36">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="D10" s="16">
         <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E10" s="36">
-        <f>IF(C10&lt;D10,$E$2*(D10-C10)^2,-$E$2*(D10-C10)^2)</f>
-        <v/>
-      </c>
-      <c r="F10" s="37">
-        <f>E10/B10</f>
-        <v/>
-      </c>
-      <c r="G10" s="37">
-        <f>G9+F10</f>
-        <v/>
-      </c>
-      <c r="H10" s="37">
-        <f>G10*B10</f>
-        <v/>
-      </c>
-      <c r="I10" s="37">
-        <f>IF(E10&gt;0,I9+E10,I9)</f>
-        <v/>
-      </c>
-      <c r="J10" s="37">
-        <f>H10+L10</f>
-        <v/>
-      </c>
-      <c r="K10" s="37">
-        <f>J10-I10</f>
-        <v/>
-      </c>
-      <c r="L10" s="36">
-        <f>IF(E10&lt;0,L9-E10,L9)</f>
-        <v/>
-      </c>
-      <c r="M10" s="6" t="n"/>
+        <v>38.695499988749994</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="4"/>
+        <v>41606.417199055955</v>
+      </c>
+      <c r="F10" s="17">
+        <f t="shared" si="0"/>
+        <v>8397.3466715665127</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" si="5"/>
+        <v>43315.82546883577</v>
+      </c>
+      <c r="H10" s="17">
+        <f t="shared" si="1"/>
+        <v>214617.35191667083</v>
+      </c>
+      <c r="I10" s="17">
+        <f t="shared" si="6"/>
+        <v>209123.5851968638</v>
+      </c>
+      <c r="J10" s="17">
+        <f t="shared" si="2"/>
+        <v>215275.21819342475</v>
+      </c>
+      <c r="K10" s="17">
+        <f t="shared" si="3"/>
+        <v>6151.6329965609475</v>
+      </c>
+      <c r="L10" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M10" s="6"/>
     </row>
-    <row r="11" ht="14.1" customHeight="1">
-      <c r="A11" s="35" t="n">
+    <row r="11" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
         <v>44561</v>
       </c>
       <c r="B11" s="15">
         <f>VLOOKUP(A11,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
+        <v>4.8630097656249998</v>
       </c>
       <c r="C11" s="15">
         <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D11" s="36">
+        <v>34.630000000000003</v>
+      </c>
+      <c r="D11" s="16">
         <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E11" s="36">
-        <f>IF(C11&lt;D11,$E$2*(D11-C11)^2,-$E$2*(D11-C11)^2)</f>
-        <v/>
-      </c>
-      <c r="F11" s="37">
-        <f>E11/B11</f>
-        <v/>
-      </c>
-      <c r="G11" s="37">
-        <f>G10+F11</f>
-        <v/>
-      </c>
-      <c r="H11" s="37">
-        <f>G11*B11</f>
-        <v/>
-      </c>
-      <c r="I11" s="37">
-        <f>IF(E11&gt;0,I10+E11,I10)</f>
-        <v/>
-      </c>
-      <c r="J11" s="37">
-        <f>H11+L11</f>
-        <v/>
-      </c>
-      <c r="K11" s="37">
-        <f>J11-I11</f>
-        <v/>
-      </c>
-      <c r="L11" s="36">
-        <f>IF(E11&lt;0,L10-E11,L10)</f>
-        <v/>
-      </c>
-      <c r="M11" s="6" t="n"/>
+        <v>38.228579205136612</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="4"/>
+        <v>51151.60056778443</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" si="0"/>
+        <v>10518.506651859534</v>
+      </c>
+      <c r="G11" s="17">
+        <f t="shared" si="5"/>
+        <v>53834.332120695304</v>
+      </c>
+      <c r="H11" s="17">
+        <f t="shared" si="1"/>
+        <v>261796.88282884087</v>
+      </c>
+      <c r="I11" s="17">
+        <f t="shared" si="6"/>
+        <v>260275.18576464822</v>
+      </c>
+      <c r="J11" s="17">
+        <f t="shared" si="2"/>
+        <v>262454.74910559482</v>
+      </c>
+      <c r="K11" s="17">
+        <f t="shared" si="3"/>
+        <v>2179.5633409465954</v>
+      </c>
+      <c r="L11" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M11" s="6"/>
     </row>
-    <row r="12" ht="14.1" customHeight="1">
-      <c r="A12" s="35" t="n">
+    <row r="12" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
         <v>44589</v>
       </c>
       <c r="B12" s="15">
         <f>VLOOKUP(A12,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
+        <v>4.3440297851562502</v>
       </c>
       <c r="C12" s="15">
         <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D12" s="36">
+        <v>31.159999849999998</v>
+      </c>
+      <c r="D12" s="16">
         <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E12" s="36">
-        <f>IF(C12&lt;D12,$E$2*(D12-C12)^2,-$E$2*(D12-C12)^2)</f>
-        <v/>
-      </c>
-      <c r="F12" s="37">
-        <f>E12/B12</f>
-        <v/>
-      </c>
-      <c r="G12" s="37">
-        <f>G11+F12</f>
-        <v/>
-      </c>
-      <c r="H12" s="37">
-        <f>G12*B12</f>
-        <v/>
-      </c>
-      <c r="I12" s="37">
-        <f>IF(E12&gt;0,I11+E12,I11)</f>
-        <v/>
-      </c>
-      <c r="J12" s="37">
-        <f>H12+L12</f>
-        <v/>
-      </c>
-      <c r="K12" s="37">
-        <f>J12-I12</f>
-        <v/>
-      </c>
-      <c r="L12" s="36">
-        <f>IF(E12&lt;0,L11-E12,L11)</f>
-        <v/>
-      </c>
-      <c r="M12" s="6" t="n"/>
+        <v>37.710494996683174</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="4"/>
+        <v>169490.49733354338</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" si="0"/>
+        <v>39016.881954331948</v>
+      </c>
+      <c r="G12" s="17">
+        <f t="shared" si="5"/>
+        <v>92851.214075027252</v>
+      </c>
+      <c r="H12" s="17">
+        <f t="shared" si="1"/>
+        <v>403348.43952983763</v>
+      </c>
+      <c r="I12" s="17">
+        <f t="shared" si="6"/>
+        <v>429765.68309819163</v>
+      </c>
+      <c r="J12" s="17">
+        <f t="shared" si="2"/>
+        <v>404006.30580659158</v>
+      </c>
+      <c r="K12" s="17">
+        <f t="shared" si="3"/>
+        <v>-25759.377291600045</v>
+      </c>
+      <c r="L12" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M12" s="6"/>
     </row>
-    <row r="13" ht="14.1" customHeight="1">
-      <c r="A13" s="35" t="n">
+    <row r="13" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
         <v>44620</v>
       </c>
       <c r="B13" s="15">
         <f>VLOOKUP(A13,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
+        <v>4.3355400390624999</v>
       </c>
       <c r="C13" s="15">
         <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D13" s="36">
+        <v>30.969999309999999</v>
+      </c>
+      <c r="D13" s="16">
         <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E13" s="36">
-        <f>IF(C13&lt;D13,$E$2*(D13-C13)^2,-$E$2*(D13-C13)^2)</f>
-        <v/>
-      </c>
-      <c r="F13" s="37">
-        <f>E13/B13</f>
-        <v/>
-      </c>
-      <c r="G13" s="37">
-        <f>G12+F13</f>
-        <v/>
-      </c>
-      <c r="H13" s="37">
-        <f>G13*B13</f>
-        <v/>
-      </c>
-      <c r="I13" s="37">
-        <f>IF(E13&gt;0,I12+E13,I12)</f>
-        <v/>
-      </c>
-      <c r="J13" s="37">
-        <f>H13+L13</f>
-        <v/>
-      </c>
-      <c r="K13" s="37">
-        <f>J13-I13</f>
-        <v/>
-      </c>
-      <c r="L13" s="36">
-        <f>IF(E13&lt;0,L12-E13,L12)</f>
-        <v/>
-      </c>
-      <c r="M13" s="6" t="n"/>
+        <v>37.189770586238538</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="4"/>
+        <v>152807.94117845185</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="shared" si="0"/>
+        <v>35245.422669766056</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" si="5"/>
+        <v>128096.6367447933</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" si="1"/>
+        <v>555368.09747629601</v>
+      </c>
+      <c r="I13" s="17">
+        <f t="shared" si="6"/>
+        <v>582573.6242766435</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" si="2"/>
+        <v>556025.96375304996</v>
+      </c>
+      <c r="K13" s="17">
+        <f t="shared" si="3"/>
+        <v>-26547.660523593542</v>
+      </c>
+      <c r="L13" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M13" s="6"/>
     </row>
-    <row r="14" ht="14.1" customHeight="1">
-      <c r="A14" s="35" t="n">
+    <row r="14" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
         <v>44651</v>
       </c>
       <c r="B14" s="15">
         <f>VLOOKUP(A14,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
+        <v>3.8658500976562502</v>
       </c>
       <c r="C14" s="15">
         <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D14" s="36">
+        <v>27.63999939</v>
+      </c>
+      <c r="D14" s="16">
         <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E14" s="36">
-        <f>IF(C14&lt;D14,$E$2*(D14-C14)^2,-$E$2*(D14-C14)^2)</f>
-        <v/>
-      </c>
-      <c r="F14" s="37">
-        <f>E14/B14</f>
-        <v/>
-      </c>
-      <c r="G14" s="37">
-        <f>G13+F14</f>
-        <v/>
-      </c>
-      <c r="H14" s="37">
-        <f>G14*B14</f>
-        <v/>
-      </c>
-      <c r="I14" s="37">
-        <f>IF(E14&gt;0,I13+E14,I13)</f>
-        <v/>
-      </c>
-      <c r="J14" s="37">
-        <f>H14+L14</f>
-        <v/>
-      </c>
-      <c r="K14" s="37">
-        <f>J14-I14</f>
-        <v/>
-      </c>
-      <c r="L14" s="36">
-        <f>IF(E14&lt;0,L13-E14,L13)</f>
-        <v/>
-      </c>
-      <c r="M14" s="6" t="n"/>
+        <v>36.340622369004151</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" si="4"/>
+        <v>299018.3188799615</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="0"/>
+        <v>77348.658464860651</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" si="5"/>
+        <v>205445.29520965397</v>
+      </c>
+      <c r="H14" s="17">
+        <f t="shared" si="1"/>
+        <v>794220.71454925789</v>
+      </c>
+      <c r="I14" s="17">
+        <f t="shared" si="6"/>
+        <v>881591.943156605</v>
+      </c>
+      <c r="J14" s="17">
+        <f t="shared" si="2"/>
+        <v>794878.58082601184</v>
+      </c>
+      <c r="K14" s="17">
+        <f t="shared" si="3"/>
+        <v>-86713.362330593169</v>
+      </c>
+      <c r="L14" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M14" s="6"/>
     </row>
-    <row r="15" ht="14.1" customHeight="1">
-      <c r="A15" s="35" t="n">
+    <row r="15" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
         <v>44680</v>
       </c>
       <c r="B15" s="15">
         <f>VLOOKUP(A15,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
+        <v>3.5012099609375</v>
       </c>
       <c r="C15" s="15">
         <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D15" s="36">
+        <v>25.129999160000001</v>
+      </c>
+      <c r="D15" s="16">
         <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E15" s="36">
-        <f>IF(C15&lt;D15,$E$2*(D15-C15)^2,-$E$2*(D15-C15)^2)</f>
-        <v/>
-      </c>
-      <c r="F15" s="37">
-        <f>E15/B15</f>
-        <v/>
-      </c>
-      <c r="G15" s="37">
-        <f>G14+F15</f>
-        <v/>
-      </c>
-      <c r="H15" s="37">
-        <f>G15*B15</f>
-        <v/>
-      </c>
-      <c r="I15" s="37">
-        <f>IF(E15&gt;0,I14+E15,I14)</f>
-        <v/>
-      </c>
-      <c r="J15" s="37">
-        <f>H15+L15</f>
-        <v/>
-      </c>
-      <c r="K15" s="37">
-        <f>J15-I15</f>
-        <v/>
-      </c>
-      <c r="L15" s="36">
-        <f>IF(E15&lt;0,L14-E15,L14)</f>
-        <v/>
-      </c>
-      <c r="M15" s="6" t="n"/>
+        <v>35.566653817730753</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="4"/>
+        <v>430248.85375669535</v>
+      </c>
+      <c r="F15" s="17">
+        <f t="shared" si="0"/>
+        <v>122885.76193856422</v>
+      </c>
+      <c r="G15" s="17">
+        <f t="shared" si="5"/>
+        <v>328331.05714821815</v>
+      </c>
+      <c r="H15" s="17">
+        <f t="shared" si="1"/>
+        <v>1149555.967772481</v>
+      </c>
+      <c r="I15" s="17">
+        <f t="shared" si="6"/>
+        <v>1311840.7969133004</v>
+      </c>
+      <c r="J15" s="17">
+        <f t="shared" si="2"/>
+        <v>1150213.8340492349</v>
+      </c>
+      <c r="K15" s="17">
+        <f t="shared" si="3"/>
+        <v>-161626.96286406554</v>
+      </c>
+      <c r="L15" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M15" s="6"/>
     </row>
-    <row r="16" ht="14.1" customHeight="1">
-      <c r="A16" s="35" t="n">
+    <row r="16" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
         <v>44712</v>
       </c>
       <c r="B16" s="15">
         <f>VLOOKUP(A16,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
+        <v>3.6361599121093748</v>
       </c>
       <c r="C16" s="15">
         <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D16" s="36">
+        <v>24.129999160000001</v>
+      </c>
+      <c r="D16" s="16">
         <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E16" s="36">
-        <f>IF(C16&lt;D16,$E$2*(D16-C16)^2,-$E$2*(D16-C16)^2)</f>
-        <v/>
-      </c>
-      <c r="F16" s="37">
-        <f>E16/B16</f>
-        <v/>
-      </c>
-      <c r="G16" s="37">
-        <f>G15+F16</f>
-        <v/>
-      </c>
-      <c r="H16" s="37">
-        <f>G16*B16</f>
-        <v/>
-      </c>
-      <c r="I16" s="37">
-        <f>IF(E16&gt;0,I15+E16,I15)</f>
-        <v/>
-      </c>
-      <c r="J16" s="37">
-        <f>H16+L16</f>
-        <v/>
-      </c>
-      <c r="K16" s="37">
-        <f>J16-I16</f>
-        <v/>
-      </c>
-      <c r="L16" s="36">
-        <f>IF(E16&lt;0,L15-E16,L15)</f>
-        <v/>
-      </c>
-      <c r="M16" s="6" t="n"/>
+        <v>34.740573439534039</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="4"/>
+        <v>444707.93183896161</v>
+      </c>
+      <c r="F16" s="17">
+        <f t="shared" si="0"/>
+        <v>122301.53309758642</v>
+      </c>
+      <c r="G16" s="17">
+        <f t="shared" si="5"/>
+        <v>450632.59024580457</v>
+      </c>
+      <c r="H16" s="17">
+        <f t="shared" si="1"/>
+        <v>1638572.1597418047</v>
+      </c>
+      <c r="I16" s="17">
+        <f t="shared" si="6"/>
+        <v>1756548.728752262</v>
+      </c>
+      <c r="J16" s="17">
+        <f t="shared" si="2"/>
+        <v>1639230.0260185585</v>
+      </c>
+      <c r="K16" s="17">
+        <f t="shared" si="3"/>
+        <v>-117318.70273370342</v>
+      </c>
+      <c r="L16" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M16" s="6"/>
     </row>
-    <row r="17" ht="14.1" customHeight="1">
-      <c r="A17" s="35" t="n">
+    <row r="17" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
         <v>44742</v>
       </c>
       <c r="B17" s="15">
         <f>VLOOKUP(A17,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
+        <v>4.1096201171875002</v>
       </c>
       <c r="C17" s="15">
         <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D17" s="36">
+        <v>27.809999470000001</v>
+      </c>
+      <c r="D17" s="16">
         <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E17" s="36">
-        <f>IF(C17&lt;D17,$E$2*(D17-C17)^2,-$E$2*(D17-C17)^2)</f>
-        <v/>
-      </c>
-      <c r="F17" s="37">
-        <f>E17/B17</f>
-        <v/>
-      </c>
-      <c r="G17" s="37">
-        <f>G16+F17</f>
-        <v/>
-      </c>
-      <c r="H17" s="37">
-        <f>G17*B17</f>
-        <v/>
-      </c>
-      <c r="I17" s="37">
-        <f>IF(E17&gt;0,I16+E17,I16)</f>
-        <v/>
-      </c>
-      <c r="J17" s="37">
-        <f>H17+L17</f>
-        <v/>
-      </c>
-      <c r="K17" s="37">
-        <f>J17-I17</f>
-        <v/>
-      </c>
-      <c r="L17" s="36">
-        <f>IF(E17&lt;0,L16-E17,L16)</f>
-        <v/>
-      </c>
-      <c r="M17" s="6" t="n"/>
+        <v>34.119366627533324</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="4"/>
+        <v>157242.05001781249</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" si="0"/>
+        <v>38261.942839968433</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" si="5"/>
+        <v>488894.533085773</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="1"/>
+        <v>2009170.8083522827</v>
+      </c>
+      <c r="I17" s="17">
+        <f t="shared" si="6"/>
+        <v>1913790.7787700745</v>
+      </c>
+      <c r="J17" s="17">
+        <f t="shared" si="2"/>
+        <v>2009828.6746290366</v>
+      </c>
+      <c r="K17" s="17">
+        <f t="shared" si="3"/>
+        <v>96037.895858962089</v>
+      </c>
+      <c r="L17" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M17" s="6"/>
     </row>
-    <row r="18" ht="14.1" customHeight="1">
-      <c r="A18" s="35" t="n">
+    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
         <v>44771</v>
       </c>
       <c r="B18" s="15">
         <f>VLOOKUP(A18,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
+        <v>3.8724699707031252</v>
       </c>
       <c r="C18" s="15">
         <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D18" s="36">
+        <v>26.329999919999999</v>
+      </c>
+      <c r="D18" s="16">
         <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E18" s="36">
-        <f>IF(C18&lt;D18,$E$2*(D18-C18)^2,-$E$2*(D18-C18)^2)</f>
-        <v/>
-      </c>
-      <c r="F18" s="37">
-        <f>E18/B18</f>
-        <v/>
-      </c>
-      <c r="G18" s="37">
-        <f>G17+F18</f>
-        <v/>
-      </c>
-      <c r="H18" s="37">
-        <f>G18*B18</f>
-        <v/>
-      </c>
-      <c r="I18" s="37">
-        <f>IF(E18&gt;0,I17+E18,I17)</f>
-        <v/>
-      </c>
-      <c r="J18" s="37">
-        <f>H18+L18</f>
-        <v/>
-      </c>
-      <c r="K18" s="37">
-        <f>J18-I18</f>
-        <v/>
-      </c>
-      <c r="L18" s="36">
-        <f>IF(E18&lt;0,L17-E18,L17)</f>
-        <v/>
-      </c>
-      <c r="M18" s="6" t="n"/>
+        <v>33.666137024579427</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="4"/>
+        <v>212584.68508788882</v>
+      </c>
+      <c r="F18" s="17">
+        <f t="shared" si="0"/>
+        <v>54896.406349482881</v>
+      </c>
+      <c r="G18" s="17">
+        <f t="shared" si="5"/>
+        <v>543790.93943525583</v>
+      </c>
+      <c r="H18" s="17">
+        <f t="shared" si="1"/>
+        <v>2105814.0833034702</v>
+      </c>
+      <c r="I18" s="17">
+        <f t="shared" si="6"/>
+        <v>2126375.4638579632</v>
+      </c>
+      <c r="J18" s="17">
+        <f t="shared" si="2"/>
+        <v>2106471.9495802242</v>
+      </c>
+      <c r="K18" s="17">
+        <f t="shared" si="3"/>
+        <v>-19903.514277738985</v>
+      </c>
+      <c r="L18" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M18" s="6"/>
     </row>
-    <row r="19" ht="14.1" customHeight="1">
-      <c r="A19" s="35" t="n">
+    <row r="19" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
         <v>44804</v>
       </c>
       <c r="B19" s="15">
         <f>VLOOKUP(A19,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
+        <v>3.7022099609375001</v>
       </c>
       <c r="C19" s="15">
         <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D19" s="36">
+        <v>25.18000031</v>
+      </c>
+      <c r="D19" s="16">
         <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E19" s="36">
-        <f>IF(C19&lt;D19,$E$2*(D19-C19)^2,-$E$2*(D19-C19)^2)</f>
-        <v/>
-      </c>
-      <c r="F19" s="37">
-        <f>E19/B19</f>
-        <v/>
-      </c>
-      <c r="G19" s="37">
-        <f>G18+F19</f>
-        <v/>
-      </c>
-      <c r="H19" s="37">
-        <f>G19*B19</f>
-        <v/>
-      </c>
-      <c r="I19" s="37">
-        <f>IF(E19&gt;0,I18+E19,I18)</f>
-        <v/>
-      </c>
-      <c r="J19" s="37">
-        <f>H19+L19</f>
-        <v/>
-      </c>
-      <c r="K19" s="37">
-        <f>J19-I19</f>
-        <v/>
-      </c>
-      <c r="L19" s="36">
-        <f>IF(E19&lt;0,L18-E19,L18)</f>
-        <v/>
-      </c>
-      <c r="M19" s="6" t="n"/>
+        <v>33.177616240465106</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="4"/>
+        <v>252649.34925635549</v>
+      </c>
+      <c r="F19" s="17">
+        <f t="shared" si="0"/>
+        <v>68242.847359304767</v>
+      </c>
+      <c r="G19" s="17">
+        <f t="shared" si="5"/>
+        <v>612033.78679456061</v>
+      </c>
+      <c r="H19" s="17">
+        <f t="shared" si="1"/>
+        <v>2265877.5819011205</v>
+      </c>
+      <c r="I19" s="17">
+        <f t="shared" si="6"/>
+        <v>2379024.8131143185</v>
+      </c>
+      <c r="J19" s="17">
+        <f t="shared" si="2"/>
+        <v>2266535.4481778746</v>
+      </c>
+      <c r="K19" s="17">
+        <f t="shared" si="3"/>
+        <v>-112489.36493644398</v>
+      </c>
+      <c r="L19" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M19" s="6"/>
     </row>
-    <row r="20" ht="14.1" customHeight="1">
-      <c r="A20" s="35" t="n">
+    <row r="20" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
         <v>44834</v>
       </c>
       <c r="B20" s="15">
         <f>VLOOKUP(A20,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
+        <v>3.3477299804687499</v>
       </c>
       <c r="C20" s="15">
         <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D20" s="36">
+        <v>23.340000150000002</v>
+      </c>
+      <c r="D20" s="16">
         <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E20" s="36">
-        <f>IF(C20&lt;D20,$E$2*(D20-C20)^2,-$E$2*(D20-C20)^2)</f>
-        <v/>
-      </c>
-      <c r="F20" s="37">
-        <f>E20/B20</f>
-        <v/>
-      </c>
-      <c r="G20" s="37">
-        <f>G19+F20</f>
-        <v/>
-      </c>
-      <c r="H20" s="37">
-        <f>G20*B20</f>
-        <v/>
-      </c>
-      <c r="I20" s="37">
-        <f>IF(E20&gt;0,I19+E20,I19)</f>
-        <v/>
-      </c>
-      <c r="J20" s="37">
-        <f>H20+L20</f>
-        <v/>
-      </c>
-      <c r="K20" s="37">
-        <f>J20-I20</f>
-        <v/>
-      </c>
-      <c r="L20" s="36">
-        <f>IF(E20&lt;0,L19-E20,L19)</f>
-        <v/>
-      </c>
-      <c r="M20" s="7" t="n"/>
-      <c r="P20" s="28" t="n"/>
+        <v>32.601424623862997</v>
+      </c>
+      <c r="E20" s="16">
+        <f t="shared" si="4"/>
+        <v>338807.23397602042</v>
+      </c>
+      <c r="F20" s="17">
+        <f t="shared" si="0"/>
+        <v>101205.06610529579</v>
+      </c>
+      <c r="G20" s="17">
+        <f t="shared" si="5"/>
+        <v>713238.8528998564</v>
+      </c>
+      <c r="H20" s="17">
+        <f t="shared" si="1"/>
+        <v>2387731.09108799</v>
+      </c>
+      <c r="I20" s="17">
+        <f t="shared" si="6"/>
+        <v>2717832.047090339</v>
+      </c>
+      <c r="J20" s="17">
+        <f t="shared" si="2"/>
+        <v>2388388.957364744</v>
+      </c>
+      <c r="K20" s="17">
+        <f t="shared" si="3"/>
+        <v>-329443.08972559497</v>
+      </c>
+      <c r="L20" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="M20" s="7"/>
+      <c r="P20" s="3"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="35" t="n">
+    <row r="21" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
         <v>44865</v>
       </c>
       <c r="B21" s="15">
         <f>VLOOKUP(A21,[1]szse_innovation_100!$A:$F,6)</f>
-        <v/>
+        <v>3.2993999023437501</v>
       </c>
       <c r="C21" s="15">
         <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
-        <v/>
-      </c>
-      <c r="D21" s="36">
+        <v>22.239999770000001</v>
+      </c>
+      <c r="D21" s="16">
         <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
-        <v/>
-      </c>
-      <c r="E21" s="36">
-        <f>IF(C21&lt;D21,$E$2*(D21-C21)^2,-$E$2*(D21-C21)^2)</f>
-        <v/>
-      </c>
-      <c r="F21" s="37">
-        <f>E21/B21</f>
-        <v/>
-      </c>
-      <c r="G21" s="37">
-        <f>G20+F21</f>
-        <v/>
-      </c>
-      <c r="H21" s="37">
-        <f>G21*B21</f>
-        <v/>
-      </c>
-      <c r="I21" s="37">
-        <f>IF(E21&gt;0,I20+E21,I20)</f>
-        <v/>
-      </c>
-      <c r="J21" s="37">
-        <f>H21+L21</f>
-        <v/>
-      </c>
-      <c r="K21" s="37">
-        <f>J21-I21</f>
-        <v/>
-      </c>
-      <c r="L21" s="36">
-        <f>IF(E21&lt;0,L20-E21,L20)</f>
-        <v/>
+        <v>32.197401538923856</v>
+      </c>
+      <c r="E21" s="16">
+        <f t="shared" si="4"/>
+        <v>391641.90745168331</v>
+      </c>
+      <c r="F21" s="17">
+        <f t="shared" si="0"/>
+        <v>118700.95139830669</v>
+      </c>
+      <c r="G21" s="17">
+        <f t="shared" si="5"/>
+        <v>831939.80429816304</v>
+      </c>
+      <c r="H21" s="17">
+        <f t="shared" si="1"/>
+        <v>2744902.1090572379</v>
+      </c>
+      <c r="I21" s="17">
+        <f t="shared" si="6"/>
+        <v>3109473.9545420222</v>
+      </c>
+      <c r="J21" s="17">
+        <f t="shared" si="2"/>
+        <v>2745559.9753339919</v>
+      </c>
+      <c r="K21" s="17">
+        <f t="shared" si="3"/>
+        <v>-363913.97920803027</v>
+      </c>
+      <c r="L21" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="40" t="inlineStr">
-        <is>
-          <t>2022-11-30</t>
-        </is>
-      </c>
-      <c r="B22" s="41" t="n">
+    <row r="22" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>44895</v>
+      </c>
+      <c r="B22" s="15">
+        <f>VLOOKUP(A22,[1]szse_innovation_100!$A:$F,6)</f>
         <v>3.4802900390625</v>
       </c>
-      <c r="C22" s="42" t="n">
-        <v>22.70000076</v>
-      </c>
-      <c r="D22" s="42" t="n">
-        <v>31.70497510592038</v>
-      </c>
-      <c r="E22" s="43" t="n">
-        <v>320303.7737342021</v>
-      </c>
-      <c r="F22" s="43" t="n">
-        <v>92033.64378805728</v>
-      </c>
-      <c r="G22" s="43" t="n">
-        <v>923973.4480862203</v>
-      </c>
-      <c r="H22" s="43" t="n">
-        <v>3215695.587732704</v>
-      </c>
-      <c r="I22" s="43" t="n">
-        <v>3429777.728276224</v>
-      </c>
-      <c r="J22" s="43" t="n">
-        <v>3216353.454009458</v>
-      </c>
-      <c r="K22" s="44" t="n">
-        <v>-213424.2742667659</v>
-      </c>
-      <c r="L22" s="43" t="n">
-        <v>657.8662767539254</v>
+      <c r="C22" s="15">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$C,2)</f>
+        <v>22.809999470000001</v>
+      </c>
+      <c r="D22" s="16">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$D,3)</f>
+        <v>31.682903206079384</v>
+      </c>
+      <c r="E22" s="16">
+        <f t="shared" si="4"/>
+        <v>310977.26180343935</v>
+      </c>
+      <c r="F22" s="17">
+        <f t="shared" si="0"/>
+        <v>89353.834971526841</v>
+      </c>
+      <c r="G22" s="17">
+        <f t="shared" si="5"/>
+        <v>921293.63926968991</v>
+      </c>
+      <c r="H22" s="17">
+        <f t="shared" si="1"/>
+        <v>3206369.075801942</v>
+      </c>
+      <c r="I22" s="17">
+        <f t="shared" si="6"/>
+        <v>3420451.2163454616</v>
+      </c>
+      <c r="J22" s="17">
+        <f t="shared" si="2"/>
+        <v>3207026.9420786961</v>
+      </c>
+      <c r="K22" s="17">
+        <f t="shared" si="3"/>
+        <v>-213424.27426676545</v>
+      </c>
+      <c r="L22" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" priority="2" operator="lessThan" dxfId="0">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -405,7 +405,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -466,6 +466,9 @@
                 <c:pt idx="19">
                   <c:v>44895</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>44925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -474,7 +477,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -535,6 +538,9 @@
                 <c:pt idx="19">
                   <c:v>3420451.2163454616</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>3705788.1726613492</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -576,7 +582,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -637,6 +643,9 @@
                 <c:pt idx="19">
                   <c:v>44895</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>44925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -645,7 +654,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -706,6 +715,9 @@
                 <c:pt idx="19">
                   <c:v>3207026.9420786961</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>3486135.9443961121</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -747,7 +759,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -808,6 +820,9 @@
                 <c:pt idx="19">
                   <c:v>44895</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>44925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -816,7 +831,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -877,6 +892,9 @@
                 <c:pt idx="19">
                   <c:v>-213424.27426676545</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>-219652.22826523706</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -897,11 +915,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="158824704"/>
-        <c:axId val="158949760"/>
+        <c:axId val="77949184"/>
+        <c:axId val="87520000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="158824704"/>
+        <c:axId val="77949184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -944,14 +962,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158949760"/>
+        <c:crossAx val="87520000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="158949760"/>
+        <c:axId val="87520000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1002,7 +1020,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158824704"/>
+        <c:crossAx val="77949184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1162,7 +1180,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1223,6 +1241,9 @@
                 <c:pt idx="19">
                   <c:v>310977.26180343935</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>285336.95631588745</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1236,8 +1257,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="532127104"/>
-        <c:axId val="532124800"/>
+        <c:axId val="89980288"/>
+        <c:axId val="89978752"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1262,7 +1283,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1323,6 +1344,9 @@
                 <c:pt idx="19">
                   <c:v>44895</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>44925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1331,7 +1355,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1392,6 +1416,9 @@
                 <c:pt idx="19">
                   <c:v>3.4802900390625</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4735300292968749</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1407,11 +1434,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532051072"/>
-        <c:axId val="532052608"/>
+        <c:axId val="89569152"/>
+        <c:axId val="89976832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="532051072"/>
+        <c:axId val="89569152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1454,14 +1481,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532052608"/>
+        <c:crossAx val="89976832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="532052608"/>
+        <c:axId val="89976832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1512,12 +1539,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532051072"/>
+        <c:crossAx val="89569152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="532124800"/>
+        <c:axId val="89978752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1554,12 +1581,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532127104"/>
+        <c:crossAx val="89980288"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="532127104"/>
+        <c:axId val="89980288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1568,7 +1595,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="532124800"/>
+        <c:crossAx val="89978752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15488,6 +15515,9 @@
           </cell>
         </row>
         <row r="2">
+          <cell r="B2">
+            <v>0</v>
+          </cell>
           <cell r="C2" t="str">
             <v>PE</v>
           </cell>
@@ -16325,7 +16355,7 @@
             <v>44403</v>
           </cell>
           <cell r="C78">
-            <v>39.900001525878913</v>
+            <v>39.900001525878906</v>
           </cell>
           <cell r="D78">
             <v>41.020526335866805</v>
@@ -16336,7 +16366,7 @@
             <v>44404</v>
           </cell>
           <cell r="C79">
-            <v>38.209999084472663</v>
+            <v>38.209999084472656</v>
           </cell>
           <cell r="D79">
             <v>40.984025981952598</v>
@@ -16347,7 +16377,7 @@
             <v>44405</v>
           </cell>
           <cell r="C80">
-            <v>38.619998931884773</v>
+            <v>38.619998931884766</v>
           </cell>
           <cell r="D80">
             <v>40.953717942849167</v>
@@ -16358,7 +16388,7 @@
             <v>44406</v>
           </cell>
           <cell r="C81">
-            <v>40.119998931884773</v>
+            <v>40.119998931884766</v>
           </cell>
           <cell r="D81">
             <v>40.943164537647085</v>
@@ -16413,7 +16443,7 @@
             <v>44413</v>
           </cell>
           <cell r="C86">
-            <v>41.130001068115227</v>
+            <v>41.130001068115234</v>
           </cell>
           <cell r="D86">
             <v>40.931428547813759</v>
@@ -16446,7 +16476,7 @@
             <v>44418</v>
           </cell>
           <cell r="C89">
-            <v>40.869998931884773</v>
+            <v>40.869998931884766</v>
           </cell>
           <cell r="D89">
             <v>40.927701096808754</v>
@@ -16490,7 +16520,7 @@
             <v>44424</v>
           </cell>
           <cell r="C93">
-            <v>39.290000915527337</v>
+            <v>39.290000915527344</v>
           </cell>
           <cell r="D93">
             <v>40.886703283288959</v>
@@ -16545,7 +16575,7 @@
             <v>44431</v>
           </cell>
           <cell r="C98">
-            <v>39.130001068115227</v>
+            <v>39.130001068115234</v>
           </cell>
           <cell r="D98">
             <v>40.770416618982935</v>
@@ -16589,7 +16619,7 @@
             <v>44435</v>
           </cell>
           <cell r="C102">
-            <v>38.630001068115227</v>
+            <v>38.630001068115234</v>
           </cell>
           <cell r="D102">
             <v>40.702299958801255</v>
@@ -16644,7 +16674,7 @@
             <v>44442</v>
           </cell>
           <cell r="C107">
-            <v>34.220001220703118</v>
+            <v>34.220001220703125</v>
           </cell>
           <cell r="D107">
             <v>40.482476154145722</v>
@@ -16655,7 +16685,7 @@
             <v>44445</v>
           </cell>
           <cell r="C108">
-            <v>35.540000915527337</v>
+            <v>35.540000915527344</v>
           </cell>
           <cell r="D108">
             <v>40.435849029253099</v>
@@ -16666,7 +16696,7 @@
             <v>44446</v>
           </cell>
           <cell r="C109">
-            <v>35.720001220703118</v>
+            <v>35.720001220703125</v>
           </cell>
           <cell r="D109">
             <v>40.391775685247957</v>
@@ -16721,7 +16751,7 @@
             <v>44453</v>
           </cell>
           <cell r="C114">
-            <v>35.470001220703118</v>
+            <v>35.470001220703125</v>
           </cell>
           <cell r="D114">
             <v>40.173214266640784</v>
@@ -16732,7 +16762,7 @@
             <v>44454</v>
           </cell>
           <cell r="C115">
-            <v>35.130001068115227</v>
+            <v>35.130001068115234</v>
           </cell>
           <cell r="D115">
             <v>40.128584061344093</v>
@@ -16765,7 +16795,7 @@
             <v>44461</v>
           </cell>
           <cell r="C118">
-            <v>34.560001373291023</v>
+            <v>34.560001373291016</v>
           </cell>
           <cell r="D118">
             <v>39.985344822324535</v>
@@ -20160,6 +20190,268 @@
           </cell>
           <cell r="D405">
             <v>31.682903206079384</v>
+          </cell>
+        </row>
+        <row r="406">
+          <cell r="B406" t="str">
+            <v xml:space="preserve">2022/12/1
+</v>
+          </cell>
+          <cell r="C406">
+            <v>23.170000080000001</v>
+          </cell>
+          <cell r="D406">
+            <v>31.661831663688094</v>
+          </cell>
+        </row>
+        <row r="407">
+          <cell r="B407" t="str">
+            <v xml:space="preserve">2022/12/2
+</v>
+          </cell>
+          <cell r="C407">
+            <v>23.030000690000001</v>
+          </cell>
+          <cell r="D407">
+            <v>31.640518500790101</v>
+          </cell>
+        </row>
+        <row r="408">
+          <cell r="B408" t="str">
+            <v xml:space="preserve">2022/12/5
+</v>
+          </cell>
+          <cell r="C408">
+            <v>23.219999309999999</v>
+          </cell>
+          <cell r="D408">
+            <v>31.619778305738894</v>
+          </cell>
+        </row>
+        <row r="409">
+          <cell r="B409" t="str">
+            <v xml:space="preserve">2022/12/6
+</v>
+          </cell>
+          <cell r="C409">
+            <v>23.459999079999999</v>
+          </cell>
+          <cell r="D409">
+            <v>31.599729708132653</v>
+          </cell>
+        </row>
+        <row r="410">
+          <cell r="B410" t="str">
+            <v xml:space="preserve">2022/12/7
+</v>
+          </cell>
+          <cell r="C410">
+            <v>23.649999619999999</v>
+          </cell>
+          <cell r="D410">
+            <v>31.580245075563703</v>
+          </cell>
+        </row>
+        <row r="411">
+          <cell r="B411" t="str">
+            <v xml:space="preserve">2022/12/8
+</v>
+          </cell>
+          <cell r="C411">
+            <v>23.629999160000001</v>
+          </cell>
+          <cell r="D411">
+            <v>31.560806821491422</v>
+          </cell>
+        </row>
+        <row r="412">
+          <cell r="B412" t="str">
+            <v xml:space="preserve">2022/12/9
+</v>
+          </cell>
+          <cell r="C412">
+            <v>23.840000150000002</v>
+          </cell>
+          <cell r="D412">
+            <v>31.541975585707295</v>
+          </cell>
+        </row>
+        <row r="413">
+          <cell r="B413" t="str">
+            <v xml:space="preserve">2022/12/12
+</v>
+          </cell>
+          <cell r="C413">
+            <v>23.600000380000001</v>
+          </cell>
+          <cell r="D413">
+            <v>31.522652045060806</v>
+          </cell>
+        </row>
+        <row r="414">
+          <cell r="B414" t="str">
+            <v xml:space="preserve">2022/12/13
+</v>
+          </cell>
+          <cell r="C414">
+            <v>23.329999919999999</v>
+          </cell>
+          <cell r="D414">
+            <v>31.502766967087357</v>
+          </cell>
+        </row>
+        <row r="415">
+          <cell r="B415" t="str">
+            <v xml:space="preserve">2022/12/14
+</v>
+          </cell>
+          <cell r="C415">
+            <v>23.270000459999999</v>
+          </cell>
+          <cell r="D415">
+            <v>31.482832907748161</v>
+          </cell>
+        </row>
+        <row r="416">
+          <cell r="B416" t="str">
+            <v xml:space="preserve">2022/12/15
+</v>
+          </cell>
+          <cell r="C416">
+            <v>23.5</v>
+          </cell>
+          <cell r="D416">
+            <v>31.463550702656981</v>
+          </cell>
+        </row>
+        <row r="417">
+          <cell r="B417" t="str">
+            <v xml:space="preserve">2022/12/16
+</v>
+          </cell>
+          <cell r="C417">
+            <v>23.350000380000001</v>
+          </cell>
+          <cell r="D417">
+            <v>31.443999978987929</v>
+          </cell>
+        </row>
+        <row r="418">
+          <cell r="B418" t="str">
+            <v xml:space="preserve">2022/12/19
+</v>
+          </cell>
+          <cell r="C418">
+            <v>23.079999919999999</v>
+          </cell>
+          <cell r="D418">
+            <v>31.423894209615362</v>
+          </cell>
+        </row>
+        <row r="419">
+          <cell r="B419" t="str">
+            <v xml:space="preserve">2022/12/20
+</v>
+          </cell>
+          <cell r="C419">
+            <v>22.709999079999999</v>
+          </cell>
+          <cell r="D419">
+            <v>31.402997578609092</v>
+          </cell>
+        </row>
+        <row r="420">
+          <cell r="B420" t="str">
+            <v xml:space="preserve">2022/12/21
+</v>
+          </cell>
+          <cell r="C420">
+            <v>22.61000061</v>
+          </cell>
+          <cell r="D420">
+            <v>31.381961700693761</v>
+          </cell>
+        </row>
+        <row r="421">
+          <cell r="B421" t="str">
+            <v xml:space="preserve">2022/12/22
+</v>
+          </cell>
+          <cell r="C421">
+            <v>22.549999239999998</v>
+          </cell>
+          <cell r="D421">
+            <v>31.360883031336495</v>
+          </cell>
+        </row>
+        <row r="422">
+          <cell r="B422" t="str">
+            <v xml:space="preserve">2022/12/23
+</v>
+          </cell>
+          <cell r="C422">
+            <v>22.450000760000002</v>
+          </cell>
+          <cell r="D422">
+            <v>31.33966664497617</v>
+          </cell>
+        </row>
+        <row r="423">
+          <cell r="B423" t="str">
+            <v xml:space="preserve">2022/12/26
+</v>
+          </cell>
+          <cell r="C423">
+            <v>22.790000920000001</v>
+          </cell>
+          <cell r="D423">
+            <v>31.319358650380028</v>
+          </cell>
+        </row>
+        <row r="424">
+          <cell r="B424" t="str">
+            <v xml:space="preserve">2022/12/27
+</v>
+          </cell>
+          <cell r="C424">
+            <v>23</v>
+          </cell>
+          <cell r="D424">
+            <v>31.29964453035543</v>
+          </cell>
+        </row>
+        <row r="425">
+          <cell r="B425" t="str">
+            <v xml:space="preserve">2022/12/28
+</v>
+          </cell>
+          <cell r="C425">
+            <v>22.729999540000001</v>
+          </cell>
+          <cell r="D425">
+            <v>31.279385322340406</v>
+          </cell>
+        </row>
+        <row r="426">
+          <cell r="B426">
+            <v>44924</v>
+          </cell>
+          <cell r="C426">
+            <v>22.760000229999999</v>
+          </cell>
+          <cell r="D426">
+            <v>31.259292432971684</v>
+          </cell>
+        </row>
+        <row r="427">
+          <cell r="B427">
+            <v>44925</v>
+          </cell>
+          <cell r="C427">
+            <v>22.739999770000001</v>
+          </cell>
+          <cell r="D427">
+            <v>31.23924703847057</v>
           </cell>
         </row>
       </sheetData>
@@ -20456,7 +20748,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20570,7 +20862,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="17">
-        <f t="shared" ref="F3:F22" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F23" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="17">
@@ -20578,7 +20870,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="17">
-        <f t="shared" ref="H3:H22" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H23" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="17">
@@ -20586,11 +20878,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="17">
-        <f t="shared" ref="J3:J22" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J23" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="17">
-        <f t="shared" ref="K3:K22" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K23" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="16">
@@ -20640,7 +20932,7 @@
         <v>41.802432432432425</v>
       </c>
       <c r="E4" s="16">
-        <f t="shared" ref="E4:E22" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
+        <f t="shared" ref="E4:E23" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
         <v>15057.369992695269</v>
       </c>
       <c r="F4" s="17">
@@ -20648,7 +20940,7 @@
         <v>3023.1676108578522</v>
       </c>
       <c r="G4" s="17">
-        <f t="shared" ref="G4:G22" si="5">G3+F4</f>
+        <f t="shared" ref="G4:G23" si="5">G3+F4</f>
         <v>3023.1676108578522</v>
       </c>
       <c r="H4" s="17">
@@ -20656,7 +20948,7 @@
         <v>15057.369992695269</v>
       </c>
       <c r="I4" s="17">
-        <f t="shared" ref="I4:I22" si="6">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I23" si="6">IF(E4&gt;0,I3+E4,I3)</f>
         <v>15057.369992695269</v>
       </c>
       <c r="J4" s="17">
@@ -20668,7 +20960,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="16">
-        <f t="shared" ref="L4:L22" si="7">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L23" si="7">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="6"/>
@@ -21599,6 +21891,55 @@
         <v>-213424.27426676545</v>
       </c>
       <c r="L22" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
+        <v>44925</v>
+      </c>
+      <c r="B23" s="15">
+        <f>VLOOKUP(A23,[1]szse_innovation_100!$A:$F,6)</f>
+        <v>3.4735300292968749</v>
+      </c>
+      <c r="C23" s="15">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$C,2)</f>
+        <v>22.739999770000001</v>
+      </c>
+      <c r="D23" s="16">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$D,3)</f>
+        <v>31.23924703847057</v>
+      </c>
+      <c r="E23" s="16">
+        <f t="shared" si="4"/>
+        <v>285336.95631588745</v>
+      </c>
+      <c r="F23" s="17">
+        <f t="shared" si="0"/>
+        <v>82146.103217551979</v>
+      </c>
+      <c r="G23" s="17">
+        <f t="shared" si="5"/>
+        <v>1003439.7424872419</v>
+      </c>
+      <c r="H23" s="17">
+        <f t="shared" si="1"/>
+        <v>3485478.078119358</v>
+      </c>
+      <c r="I23" s="17">
+        <f t="shared" si="6"/>
+        <v>3705788.1726613492</v>
+      </c>
+      <c r="J23" s="17">
+        <f t="shared" si="2"/>
+        <v>3486135.9443961121</v>
+      </c>
+      <c r="K23" s="17">
+        <f t="shared" si="3"/>
+        <v>-219652.22826523706</v>
+      </c>
+      <c r="L23" s="16">
         <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -915,11 +915,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77949184"/>
-        <c:axId val="87520000"/>
+        <c:axId val="295054336"/>
+        <c:axId val="324211456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="77949184"/>
+        <c:axId val="295054336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -962,14 +962,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87520000"/>
+        <c:crossAx val="324211456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="87520000"/>
+        <c:axId val="324211456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,7 +1020,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77949184"/>
+        <c:crossAx val="295054336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1257,8 +1257,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89980288"/>
-        <c:axId val="89978752"/>
+        <c:axId val="77546240"/>
+        <c:axId val="474774144"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1434,11 +1434,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89569152"/>
-        <c:axId val="89976832"/>
+        <c:axId val="470772736"/>
+        <c:axId val="474772224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89569152"/>
+        <c:axId val="470772736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1481,14 +1481,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89976832"/>
+        <c:crossAx val="474772224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89976832"/>
+        <c:axId val="474772224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1539,12 +1539,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89569152"/>
+        <c:crossAx val="470772736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89978752"/>
+        <c:axId val="474774144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1581,12 +1581,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89980288"/>
+        <c:crossAx val="77546240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="89980288"/>
+        <c:axId val="77546240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1595,7 +1595,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89978752"/>
+        <c:crossAx val="474774144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -405,7 +405,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -469,6 +469,9 @@
                 <c:pt idx="20">
                   <c:v>44925</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>44957</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -477,7 +480,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -530,16 +533,19 @@
                   <c:v>2379024.8131143185</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2717832.047090339</c:v>
+                  <c:v>2776403.61930225</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3109473.9545420222</c:v>
+                  <c:v>3170962.9752225801</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3420451.2163454616</c:v>
+                  <c:v>3484398.2942168578</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3705788.1726613492</c:v>
+                  <c:v>3771967.8672884186</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3919657.8912075376</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -582,7 +588,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -646,6 +652,9 @@
                 <c:pt idx="20">
                   <c:v>44925</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>44957</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -654,7 +663,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -707,16 +716,19 @@
                   <c:v>2266535.4481778746</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2388388.957364744</c:v>
+                  <c:v>2446960.529576655</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2745559.9753339919</c:v>
+                  <c:v>2806203.4174650786</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3207026.9420786961</c:v>
+                  <c:v>3273453.2279869318</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3486135.9443961121</c:v>
+                  <c:v>3554665.8226579186</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4047679.1028401488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -759,7 +771,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -823,6 +835,9 @@
                 <c:pt idx="20">
                   <c:v>44925</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>44957</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -831,7 +846,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -887,13 +902,16 @@
                   <c:v>-329443.08972559497</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-363913.97920803027</c:v>
+                  <c:v>-364759.55775750149</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-213424.27426676545</c:v>
+                  <c:v>-210945.06622992596</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-219652.22826523706</c:v>
+                  <c:v>-217302.04463050002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>128021.21163261123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -915,11 +933,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="295054336"/>
-        <c:axId val="324211456"/>
+        <c:axId val="91277184"/>
+        <c:axId val="91279360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="295054336"/>
+        <c:axId val="91277184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -962,14 +980,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324211456"/>
+        <c:crossAx val="91279360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="324211456"/>
+        <c:axId val="91279360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,7 +1038,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295054336"/>
+        <c:crossAx val="91277184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1180,7 +1198,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1233,16 +1251,19 @@
                   <c:v>252649.34925635549</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>338807.23397602042</c:v>
+                  <c:v>397378.80618793133</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>391641.90745168331</c:v>
+                  <c:v>394559.35592032992</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>310977.26180343935</c:v>
+                  <c:v>313435.3189942778</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>285336.95631588745</c:v>
+                  <c:v>287569.57307156065</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>147690.02391911903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1257,8 +1278,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="77546240"/>
-        <c:axId val="474774144"/>
+        <c:axId val="604022656"/>
+        <c:axId val="604020736"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1283,7 +1304,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1347,6 +1368,9 @@
                 <c:pt idx="20">
                   <c:v>44925</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>44957</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1355,7 +1379,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1419,6 +1443,9 @@
                 <c:pt idx="20">
                   <c:v>3.4735300292968749</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8110336914062501</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1434,11 +1461,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="470772736"/>
-        <c:axId val="474772224"/>
+        <c:axId val="564056064"/>
+        <c:axId val="564057984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="470772736"/>
+        <c:axId val="564056064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1481,14 +1508,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474772224"/>
+        <c:crossAx val="564057984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474772224"/>
+        <c:axId val="564057984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1539,12 +1566,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470772736"/>
+        <c:crossAx val="564056064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="474774144"/>
+        <c:axId val="604020736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1581,12 +1608,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77546240"/>
+        <c:crossAx val="604022656"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="77546240"/>
+        <c:axId val="604022656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1595,7 +1622,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="474774144"/>
+        <c:crossAx val="604020736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15488,6 +15515,326 @@
             <v>3.4735300292968749</v>
           </cell>
         </row>
+        <row r="690">
+          <cell r="A690">
+            <v>44929</v>
+          </cell>
+          <cell r="B690">
+            <v>3469.269287109375</v>
+          </cell>
+          <cell r="C690">
+            <v>3516.888427734375</v>
+          </cell>
+          <cell r="D690">
+            <v>3441.99169921875</v>
+          </cell>
+          <cell r="E690">
+            <v>3508.3173828125</v>
+          </cell>
+          <cell r="F690">
+            <v>3.5083173828124998</v>
+          </cell>
+        </row>
+        <row r="691">
+          <cell r="A691">
+            <v>44930</v>
+          </cell>
+          <cell r="B691">
+            <v>3500.761474609375</v>
+          </cell>
+          <cell r="C691">
+            <v>3509.062744140625</v>
+          </cell>
+          <cell r="D691">
+            <v>3469.442138671875</v>
+          </cell>
+          <cell r="E691">
+            <v>3489.908447265625</v>
+          </cell>
+          <cell r="F691">
+            <v>3.4899084472656252</v>
+          </cell>
+        </row>
+        <row r="692">
+          <cell r="A692">
+            <v>44931</v>
+          </cell>
+          <cell r="B692">
+            <v>3506.47021484375</v>
+          </cell>
+          <cell r="C692">
+            <v>3584.12353515625</v>
+          </cell>
+          <cell r="D692">
+            <v>3505.536376953125</v>
+          </cell>
+          <cell r="E692">
+            <v>3577.919921875</v>
+          </cell>
+          <cell r="F692">
+            <v>3.577919921875</v>
+          </cell>
+        </row>
+        <row r="693">
+          <cell r="A693">
+            <v>44932</v>
+          </cell>
+          <cell r="B693">
+            <v>3573.02392578125</v>
+          </cell>
+          <cell r="C693">
+            <v>3624.267333984375</v>
+          </cell>
+          <cell r="D693">
+            <v>3572.197998046875</v>
+          </cell>
+          <cell r="E693">
+            <v>3590.678955078125</v>
+          </cell>
+          <cell r="F693">
+            <v>3.5906789550781251</v>
+          </cell>
+        </row>
+        <row r="694">
+          <cell r="A694">
+            <v>44935</v>
+          </cell>
+          <cell r="B694">
+            <v>3601.79736328125</v>
+          </cell>
+          <cell r="C694">
+            <v>3624.94677734375</v>
+          </cell>
+          <cell r="D694">
+            <v>3596.2919921875</v>
+          </cell>
+          <cell r="E694">
+            <v>3604.57666015625</v>
+          </cell>
+          <cell r="F694">
+            <v>3.6045766601562499</v>
+          </cell>
+        </row>
+        <row r="695">
+          <cell r="A695">
+            <v>44936</v>
+          </cell>
+          <cell r="B695">
+            <v>3607.819580078125</v>
+          </cell>
+          <cell r="C695">
+            <v>3646.35693359375</v>
+          </cell>
+          <cell r="D695">
+            <v>3592.638671875</v>
+          </cell>
+          <cell r="E695">
+            <v>3638.47021484375</v>
+          </cell>
+          <cell r="F695">
+            <v>3.6384702148437502</v>
+          </cell>
+        </row>
+        <row r="696">
+          <cell r="A696">
+            <v>44937</v>
+          </cell>
+          <cell r="B696">
+            <v>3633.132568359375</v>
+          </cell>
+          <cell r="C696">
+            <v>3653.69287109375</v>
+          </cell>
+          <cell r="D696">
+            <v>3606.408203125</v>
+          </cell>
+          <cell r="E696">
+            <v>3610.81103515625</v>
+          </cell>
+          <cell r="F696">
+            <v>3.6108110351562499</v>
+          </cell>
+        </row>
+        <row r="697">
+          <cell r="A697">
+            <v>44938</v>
+          </cell>
+          <cell r="B697">
+            <v>3624.650634765625</v>
+          </cell>
+          <cell r="C697">
+            <v>3652.45654296875</v>
+          </cell>
+          <cell r="D697">
+            <v>3616.583251953125</v>
+          </cell>
+          <cell r="E697">
+            <v>3631.021240234375</v>
+          </cell>
+          <cell r="F697">
+            <v>3.6310212402343751</v>
+          </cell>
+        </row>
+        <row r="698">
+          <cell r="A698">
+            <v>44939</v>
+          </cell>
+          <cell r="B698">
+            <v>3653.294921875</v>
+          </cell>
+          <cell r="C698">
+            <v>3673.21337890625</v>
+          </cell>
+          <cell r="D698">
+            <v>3633.6328125</v>
+          </cell>
+          <cell r="E698">
+            <v>3673.21337890625</v>
+          </cell>
+          <cell r="F698">
+            <v>3.67321337890625</v>
+          </cell>
+        </row>
+        <row r="699">
+          <cell r="A699">
+            <v>44942</v>
+          </cell>
+          <cell r="B699">
+            <v>3671.072509765625</v>
+          </cell>
+          <cell r="C699">
+            <v>3762.3359375</v>
+          </cell>
+          <cell r="D699">
+            <v>3671.072509765625</v>
+          </cell>
+          <cell r="E699">
+            <v>3731.450927734375</v>
+          </cell>
+          <cell r="F699">
+            <v>3.7314509277343748</v>
+          </cell>
+        </row>
+        <row r="700">
+          <cell r="A700">
+            <v>44943</v>
+          </cell>
+          <cell r="B700">
+            <v>3735.49560546875</v>
+          </cell>
+          <cell r="C700">
+            <v>3756.7470703125</v>
+          </cell>
+          <cell r="D700">
+            <v>3730.148193359375</v>
+          </cell>
+          <cell r="E700">
+            <v>3745.24853515625</v>
+          </cell>
+          <cell r="F700">
+            <v>3.7452485351562501</v>
+          </cell>
+        </row>
+        <row r="701">
+          <cell r="A701">
+            <v>44944</v>
+          </cell>
+          <cell r="B701">
+            <v>3750.16259765625</v>
+          </cell>
+          <cell r="C701">
+            <v>3760.9462890625</v>
+          </cell>
+          <cell r="D701">
+            <v>3739.308349609375</v>
+          </cell>
+          <cell r="E701">
+            <v>3748.58447265625</v>
+          </cell>
+          <cell r="F701">
+            <v>3.7485844726562498</v>
+          </cell>
+        </row>
+        <row r="702">
+          <cell r="A702">
+            <v>44945</v>
+          </cell>
+          <cell r="B702">
+            <v>3743.17724609375</v>
+          </cell>
+          <cell r="C702">
+            <v>3780.742431640625</v>
+          </cell>
+          <cell r="D702">
+            <v>3733.563720703125</v>
+          </cell>
+          <cell r="E702">
+            <v>3780.742431640625</v>
+          </cell>
+          <cell r="F702">
+            <v>3.7807424316406251</v>
+          </cell>
+        </row>
+        <row r="703">
+          <cell r="A703">
+            <v>44946</v>
+          </cell>
+          <cell r="B703">
+            <v>3790.78759765625</v>
+          </cell>
+          <cell r="C703">
+            <v>3804.211181640625</v>
+          </cell>
+          <cell r="D703">
+            <v>3779.6181640625</v>
+          </cell>
+          <cell r="E703">
+            <v>3797.16845703125</v>
+          </cell>
+          <cell r="F703">
+            <v>3.7971684570312498</v>
+          </cell>
+        </row>
+        <row r="704">
+          <cell r="A704">
+            <v>44956</v>
+          </cell>
+          <cell r="B704">
+            <v>3897.607421875</v>
+          </cell>
+          <cell r="C704">
+            <v>3912.39501953125</v>
+          </cell>
+          <cell r="D704">
+            <v>3848.337158203125</v>
+          </cell>
+          <cell r="E704">
+            <v>3853.490234375</v>
+          </cell>
+          <cell r="F704">
+            <v>3.8534902343750002</v>
+          </cell>
+        </row>
+        <row r="705">
+          <cell r="A705">
+            <v>44957</v>
+          </cell>
+          <cell r="B705">
+            <v>3849.224609375</v>
+          </cell>
+          <cell r="C705">
+            <v>3857.215087890625</v>
+          </cell>
+          <cell r="D705">
+            <v>3805.035888671875</v>
+          </cell>
+          <cell r="E705">
+            <v>3811.03369140625</v>
+          </cell>
+          <cell r="F705">
+            <v>3.8110336914062501</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
@@ -19494,10 +19841,10 @@
 </v>
           </cell>
           <cell r="C347">
-            <v>23.5</v>
+            <v>24.68000031</v>
           </cell>
           <cell r="D347">
-            <v>33.149565178898534</v>
+            <v>33.152985469652158</v>
           </cell>
         </row>
         <row r="348">
@@ -19506,10 +19853,10 @@
 </v>
           </cell>
           <cell r="C348">
-            <v>23.5</v>
+            <v>24.6341</v>
           </cell>
           <cell r="D348">
-            <v>33.121676262196516</v>
+            <v>33.128364413381483</v>
           </cell>
         </row>
         <row r="349">
@@ -19518,10 +19865,10 @@
 </v>
           </cell>
           <cell r="C349">
-            <v>23.5</v>
+            <v>24.469999309999999</v>
           </cell>
           <cell r="D349">
-            <v>33.093948088530247</v>
+            <v>33.103412352564824</v>
           </cell>
         </row>
         <row r="350">
@@ -19530,10 +19877,10 @@
 </v>
           </cell>
           <cell r="C350">
-            <v>23.33</v>
+            <v>24.540000920000001</v>
           </cell>
           <cell r="D350">
-            <v>33.065890766436766</v>
+            <v>33.078804848448264</v>
           </cell>
         </row>
         <row r="351">
@@ -19542,10 +19889,10 @@
 </v>
           </cell>
           <cell r="C351">
-            <v>23.05</v>
+            <v>24.780000690000001</v>
           </cell>
           <cell r="D351">
-            <v>33.037191939025774</v>
+            <v>33.055026039971331</v>
           </cell>
         </row>
         <row r="352">
@@ -19554,10 +19901,10 @@
 </v>
           </cell>
           <cell r="C352">
-            <v>22.91</v>
+            <v>24.440000529999999</v>
           </cell>
           <cell r="D352">
-            <v>33.008257104914271</v>
+            <v>33.030411681371412</v>
           </cell>
         </row>
         <row r="353">
@@ -19566,10 +19913,10 @@
 </v>
           </cell>
           <cell r="C353">
-            <v>23</v>
+            <v>24.770099999999999</v>
           </cell>
           <cell r="D353">
-            <v>32.979743551908818</v>
+            <v>33.006878029857532</v>
           </cell>
         </row>
         <row r="354">
@@ -19578,10 +19925,10 @@
 </v>
           </cell>
           <cell r="C354">
-            <v>23.46</v>
+            <v>24.93</v>
           </cell>
           <cell r="D354">
-            <v>32.952698825909074</v>
+            <v>32.983932353636348</v>
           </cell>
         </row>
         <row r="355">
@@ -19590,10 +19937,10 @@
 </v>
           </cell>
           <cell r="C355">
-            <v>22.93</v>
+            <v>24.52</v>
           </cell>
           <cell r="D355">
-            <v>32.924305911388082</v>
+            <v>32.959955208158625</v>
           </cell>
         </row>
         <row r="356">
@@ -19602,10 +19949,10 @@
 </v>
           </cell>
           <cell r="C356">
-            <v>23.03</v>
+            <v>23.94</v>
           </cell>
           <cell r="D356">
-            <v>32.89635589468925</v>
+            <v>32.934475108700553</v>
           </cell>
         </row>
         <row r="357">
@@ -19614,10 +19961,10 @@
 </v>
           </cell>
           <cell r="C357">
-            <v>22.61000061</v>
+            <v>23.5</v>
           </cell>
           <cell r="D357">
-            <v>32.867380245999989</v>
+            <v>32.90789912247886</v>
           </cell>
         </row>
         <row r="358">
@@ -19626,10 +19973,10 @@
 </v>
           </cell>
           <cell r="C358">
-            <v>22.040000920000001</v>
+            <v>23.5</v>
           </cell>
           <cell r="D358">
-            <v>32.836966259129198</v>
+            <v>32.881472439550549</v>
           </cell>
         </row>
         <row r="359">
@@ -19638,10 +19985,10 @@
 </v>
           </cell>
           <cell r="C359">
-            <v>22.239999770000001</v>
+            <v>23.5</v>
           </cell>
           <cell r="D359">
-            <v>32.807282879607826</v>
+            <v>32.85519380526609</v>
           </cell>
         </row>
         <row r="360">
@@ -19650,10 +19997,10 @@
 </v>
           </cell>
           <cell r="C360">
-            <v>22.920000080000001</v>
+            <v>23.33</v>
           </cell>
           <cell r="D360">
-            <v>32.779664771229037</v>
+            <v>32.8285871186592</v>
           </cell>
         </row>
         <row r="361">
@@ -19662,10 +20009,10 @@
 </v>
           </cell>
           <cell r="C361">
-            <v>22.850000380000001</v>
+            <v>23.05</v>
           </cell>
           <cell r="D361">
-            <v>32.752005538941489</v>
+            <v>32.801348714428954</v>
           </cell>
         </row>
         <row r="362">
@@ -19674,10 +20021,10 @@
 </v>
           </cell>
           <cell r="C362">
-            <v>23.649999619999999</v>
+            <v>22.91</v>
           </cell>
           <cell r="D362">
-            <v>32.726722189166651</v>
+            <v>32.773872745777759</v>
           </cell>
         </row>
         <row r="363">
@@ -19686,10 +20033,10 @@
 </v>
           </cell>
           <cell r="C363">
-            <v>23.719999309999999</v>
+            <v>23</v>
           </cell>
           <cell r="D363">
-            <v>32.701772818310232</v>
+            <v>32.746798306038762</v>
           </cell>
         </row>
         <row r="364">
@@ -19698,10 +20045,10 @@
 </v>
           </cell>
           <cell r="C364">
-            <v>23.850000380000001</v>
+            <v>23.46</v>
           </cell>
           <cell r="D364">
-            <v>32.677320408259654</v>
+            <v>32.721144167071806</v>
           </cell>
         </row>
         <row r="365">
@@ -19710,10 +20057,10 @@
 </v>
           </cell>
           <cell r="C365">
-            <v>23.590000150000002</v>
+            <v>22.93</v>
           </cell>
           <cell r="D365">
-            <v>32.652286468154252</v>
+            <v>32.694171318126706</v>
           </cell>
         </row>
         <row r="366">
@@ -19722,10 +20069,10 @@
 </v>
           </cell>
           <cell r="C366">
-            <v>23.399999619999999</v>
+            <v>23.030000690000001</v>
           </cell>
           <cell r="D366">
-            <v>32.626868097692288</v>
+            <v>32.66762139881866</v>
           </cell>
         </row>
         <row r="367">
@@ -19733,10 +20080,10 @@
             <v>44834</v>
           </cell>
           <cell r="C367">
-            <v>23.340000150000002</v>
+            <v>22.61</v>
           </cell>
           <cell r="D367">
-            <v>32.601424623862997</v>
+            <v>32.640066271698615</v>
           </cell>
         </row>
         <row r="368">
@@ -19748,7 +20095,7 @@
             <v>22.040000920000001</v>
           </cell>
           <cell r="D368">
-            <v>32.57256827494534</v>
+            <v>32.611104344508178</v>
           </cell>
         </row>
         <row r="369">
@@ -19760,7 +20107,7 @@
             <v>22.239999770000001</v>
           </cell>
           <cell r="D369">
-            <v>32.544414137329682</v>
+            <v>32.582845203978181</v>
           </cell>
         </row>
         <row r="370">
@@ -19772,7 +20119,7 @@
             <v>22.920000080000001</v>
           </cell>
           <cell r="D370">
-            <v>32.518260838260851</v>
+            <v>32.556587472663026</v>
           </cell>
         </row>
         <row r="371">
@@ -19784,7 +20131,7 @@
             <v>22.850000380000001</v>
           </cell>
           <cell r="D371">
-            <v>32.492059590406484</v>
+            <v>32.530282358590767</v>
           </cell>
         </row>
         <row r="372">
@@ -19796,7 +20143,7 @@
             <v>23.649999619999999</v>
           </cell>
           <cell r="D372">
-            <v>32.468162131027007</v>
+            <v>32.506281594432416</v>
           </cell>
         </row>
         <row r="373">
@@ -19808,7 +20155,7 @@
             <v>23.719999309999999</v>
           </cell>
           <cell r="D373">
-            <v>32.444582177331519</v>
+            <v>32.482598892857126</v>
           </cell>
         </row>
         <row r="374">
@@ -19820,7 +20167,7 @@
             <v>23.850000380000001</v>
           </cell>
           <cell r="D374">
-            <v>32.421478462822563</v>
+            <v>32.459392982876324</v>
           </cell>
         </row>
         <row r="375">
@@ -19832,7 +20179,7 @@
             <v>23.590000150000002</v>
           </cell>
           <cell r="D375">
-            <v>32.39780157726539</v>
+            <v>32.435614449812313</v>
           </cell>
         </row>
         <row r="376">
@@ -19844,7 +20191,7 @@
             <v>23.399999619999999</v>
           </cell>
           <cell r="D376">
-            <v>32.373743283262009</v>
+            <v>32.411455051871634</v>
           </cell>
         </row>
         <row r="377">
@@ -19856,7 +20203,7 @@
             <v>23.340000150000002</v>
           </cell>
           <cell r="D377">
-            <v>32.349653301573312</v>
+            <v>32.387264505466646</v>
           </cell>
         </row>
         <row r="378">
@@ -19868,7 +20215,7 @@
             <v>22.829999919999999</v>
           </cell>
           <cell r="D378">
-            <v>32.324335074494662</v>
+            <v>32.361846248590403</v>
           </cell>
         </row>
         <row r="379">
@@ -19880,7 +20227,7 @@
             <v>22.739999770000001</v>
           </cell>
           <cell r="D379">
-            <v>32.298912434429688</v>
+            <v>32.336324109389899</v>
           </cell>
         </row>
         <row r="380">
@@ -19892,7 +20239,7 @@
             <v>23.18000031</v>
           </cell>
           <cell r="D380">
-            <v>32.274788328280401</v>
+            <v>32.312101030555532</v>
           </cell>
         </row>
         <row r="381">
@@ -19904,7 +20251,7 @@
             <v>22.959999079999999</v>
           </cell>
           <cell r="D381">
-            <v>32.250211047941931</v>
+            <v>32.287425299815283</v>
           </cell>
         </row>
         <row r="382">
@@ -19915,7 +20262,7 @@
             <v>22.13999939</v>
           </cell>
           <cell r="D382">
-            <v>32.223605227789449</v>
+            <v>32.260721547421028</v>
           </cell>
         </row>
         <row r="383">
@@ -19926,7 +20273,7 @@
             <v>22.239999770000001</v>
           </cell>
           <cell r="D383">
-            <v>32.197401538923856</v>
+            <v>32.234420440393677</v>
           </cell>
         </row>
         <row r="384">
@@ -19938,7 +20285,7 @@
             <v>22.270000459999999</v>
           </cell>
           <cell r="D384">
-            <v>32.171413577984268</v>
+            <v>32.208335571335049</v>
           </cell>
         </row>
         <row r="385">
@@ -19950,7 +20297,7 @@
             <v>22.600000380000001</v>
           </cell>
           <cell r="D385">
-            <v>32.146422943002584</v>
+            <v>32.183248534281958</v>
           </cell>
         </row>
         <row r="386">
@@ -19962,7 +20309,7 @@
             <v>22.479999540000001</v>
           </cell>
           <cell r="D386">
-            <v>32.121249965390597</v>
+            <v>32.157979656692682</v>
           </cell>
         </row>
         <row r="387">
@@ -19974,7 +20321,7 @@
             <v>23.200000760000002</v>
           </cell>
           <cell r="D387">
-            <v>32.098077889532441</v>
+            <v>32.134712179038935</v>
           </cell>
         </row>
         <row r="388">
@@ -19986,7 +20333,7 @@
             <v>23.190000529999999</v>
           </cell>
           <cell r="D388">
-            <v>32.074999968911889</v>
+            <v>32.111539350932617</v>
           </cell>
         </row>
         <row r="389">
@@ -19998,7 +20345,7 @@
             <v>23.030000690000001</v>
           </cell>
           <cell r="D389">
-            <v>32.051627877751912</v>
+            <v>32.088072842764831</v>
           </cell>
         </row>
         <row r="390">
@@ -20010,7 +20357,7 @@
             <v>22.760000229999999</v>
           </cell>
           <cell r="D390">
-            <v>32.027680383814406</v>
+            <v>32.064031418505131</v>
           </cell>
         </row>
         <row r="391">
@@ -20022,7 +20369,7 @@
             <v>22.31999969</v>
           </cell>
           <cell r="D391">
-            <v>32.002724906452414</v>
+            <v>32.038982493753188</v>
           </cell>
         </row>
         <row r="392">
@@ -20034,7 +20381,7 @@
             <v>22.870000839999999</v>
           </cell>
           <cell r="D392">
-            <v>31.979307665256382</v>
+            <v>32.015472284384586</v>
           </cell>
         </row>
         <row r="393">
@@ -20046,7 +20393,7 @@
             <v>22.88999939</v>
           </cell>
           <cell r="D393">
-            <v>31.95606135253194</v>
+            <v>31.992133479028105</v>
           </cell>
         </row>
         <row r="394">
@@ -20058,7 +20405,7 @@
             <v>23.450000760000002</v>
           </cell>
           <cell r="D394">
-            <v>31.934362218367319</v>
+            <v>31.970342324132627</v>
           </cell>
         </row>
         <row r="395">
@@ -20070,7 +20417,7 @@
             <v>23.129999160000001</v>
           </cell>
           <cell r="D395">
-            <v>31.911959258931272</v>
+            <v>31.947847812264605</v>
           </cell>
         </row>
         <row r="396">
@@ -20082,7 +20429,7 @@
             <v>23.010000229999999</v>
           </cell>
           <cell r="D396">
-            <v>31.889365454289315</v>
+            <v>31.925162919923835</v>
           </cell>
         </row>
         <row r="397">
@@ -20094,7 +20441,7 @@
             <v>23.030000690000001</v>
           </cell>
           <cell r="D397">
-            <v>31.866936682734149</v>
+            <v>31.902643521873394</v>
           </cell>
         </row>
         <row r="398">
@@ -20106,7 +20453,7 @@
             <v>23</v>
           </cell>
           <cell r="D398">
-            <v>31.844545428484821</v>
+            <v>31.880162098838358</v>
           </cell>
         </row>
         <row r="399">
@@ -20118,7 +20465,7 @@
             <v>22.649999619999999</v>
           </cell>
           <cell r="D399">
-            <v>31.821385363476043</v>
+            <v>31.856912319294686</v>
           </cell>
         </row>
         <row r="400">
@@ -20130,7 +20477,7 @@
             <v>22.540000920000001</v>
           </cell>
           <cell r="D400">
-            <v>31.798065302060277</v>
+            <v>31.833502994170832</v>
           </cell>
         </row>
         <row r="401">
@@ -20142,7 +20489,7 @@
             <v>22.510000229999999</v>
           </cell>
           <cell r="D401">
-            <v>31.774786943483686</v>
+            <v>31.810135819323285</v>
           </cell>
         </row>
         <row r="402">
@@ -20154,7 +20501,7 @@
             <v>22.36000061</v>
           </cell>
           <cell r="D402">
-            <v>31.751249977649977</v>
+            <v>31.786510481299977</v>
           </cell>
         </row>
         <row r="403">
@@ -20166,7 +20513,7 @@
             <v>22.200000760000002</v>
           </cell>
           <cell r="D403">
-            <v>31.727431401047358</v>
+            <v>31.762603973266813</v>
           </cell>
         </row>
         <row r="404">
@@ -20178,7 +20525,7 @@
             <v>22.700000760000002</v>
           </cell>
           <cell r="D404">
-            <v>31.704975105920376</v>
+            <v>31.740060184179082</v>
           </cell>
         </row>
         <row r="405">
@@ -20189,7 +20536,7 @@
             <v>22.809999470000001</v>
           </cell>
           <cell r="D405">
-            <v>31.682903206079384</v>
+            <v>31.717901224590552</v>
           </cell>
         </row>
         <row r="406">
@@ -20201,7 +20548,7 @@
             <v>23.170000080000001</v>
           </cell>
           <cell r="D406">
-            <v>31.661831663688094</v>
+            <v>31.696743053440571</v>
           </cell>
         </row>
         <row r="407">
@@ -20213,7 +20560,7 @@
             <v>23.030000690000001</v>
           </cell>
           <cell r="D407">
-            <v>31.640518500790101</v>
+            <v>31.675343689580224</v>
           </cell>
         </row>
         <row r="408">
@@ -20225,7 +20572,7 @@
             <v>23.219999309999999</v>
           </cell>
           <cell r="D408">
-            <v>31.619778305738894</v>
+            <v>31.654517718201948</v>
           </cell>
         </row>
         <row r="409">
@@ -20237,7 +20584,7 @@
             <v>23.459999079999999</v>
           </cell>
           <cell r="D409">
-            <v>31.599729708132653</v>
+            <v>31.634383765773933</v>
           </cell>
         </row>
         <row r="410">
@@ -20249,7 +20596,7 @@
             <v>23.649999619999999</v>
           </cell>
           <cell r="D410">
-            <v>31.580245075563703</v>
+            <v>31.614814196789194</v>
           </cell>
         </row>
         <row r="411">
@@ -20261,7 +20608,7 @@
             <v>23.629999160000001</v>
           </cell>
           <cell r="D411">
-            <v>31.560806821491422</v>
+            <v>31.595291421638123</v>
           </cell>
         </row>
         <row r="412">
@@ -20273,7 +20620,7 @@
             <v>23.840000150000002</v>
           </cell>
           <cell r="D412">
-            <v>31.541975585707295</v>
+            <v>31.576376077073149</v>
           </cell>
         </row>
         <row r="413">
@@ -20285,7 +20632,7 @@
             <v>23.600000380000001</v>
           </cell>
           <cell r="D413">
-            <v>31.522652045060806</v>
+            <v>31.556968836934285</v>
           </cell>
         </row>
         <row r="414">
@@ -20297,7 +20644,7 @@
             <v>23.329999919999999</v>
           </cell>
           <cell r="D414">
-            <v>31.502766967087357</v>
+            <v>31.537000465776678</v>
           </cell>
         </row>
         <row r="415">
@@ -20309,7 +20656,7 @@
             <v>23.270000459999999</v>
           </cell>
           <cell r="D415">
-            <v>31.482832907748161</v>
+            <v>31.51698351661015</v>
           </cell>
         </row>
         <row r="416">
@@ -20321,7 +20668,7 @@
             <v>23.5</v>
           </cell>
           <cell r="D416">
-            <v>31.463550702656981</v>
+            <v>31.497618822125581</v>
           </cell>
         </row>
         <row r="417">
@@ -20333,7 +20680,7 @@
             <v>23.350000380000001</v>
           </cell>
           <cell r="D417">
-            <v>31.443999978987929</v>
+            <v>31.477986006602389</v>
           </cell>
         </row>
         <row r="418">
@@ -20345,7 +20692,7 @@
             <v>23.079999919999999</v>
           </cell>
           <cell r="D418">
-            <v>31.423894209615362</v>
+            <v>31.457798540048056</v>
           </cell>
         </row>
         <row r="419">
@@ -20357,7 +20704,7 @@
             <v>22.709999079999999</v>
           </cell>
           <cell r="D419">
-            <v>31.402997578609092</v>
+            <v>31.436820603693025</v>
           </cell>
         </row>
         <row r="420">
@@ -20369,7 +20716,7 @@
             <v>22.61000061</v>
           </cell>
           <cell r="D420">
-            <v>31.381961700693761</v>
+            <v>31.415703809449742</v>
           </cell>
         </row>
         <row r="421">
@@ -20381,7 +20728,7 @@
             <v>22.549999239999998</v>
           </cell>
           <cell r="D421">
-            <v>31.360883031336495</v>
+            <v>31.394544609999983</v>
           </cell>
         </row>
         <row r="422">
@@ -20393,7 +20740,7 @@
             <v>22.450000760000002</v>
           </cell>
           <cell r="D422">
-            <v>31.33966664497617</v>
+            <v>31.373248077023792</v>
           </cell>
         </row>
         <row r="423">
@@ -20405,7 +20752,7 @@
             <v>22.790000920000001</v>
           </cell>
           <cell r="D423">
-            <v>31.319358650380028</v>
+            <v>31.352860316555802</v>
           </cell>
         </row>
         <row r="424">
@@ -20417,7 +20764,7 @@
             <v>23</v>
           </cell>
           <cell r="D424">
-            <v>31.29964453035543</v>
+            <v>31.333066808696664</v>
           </cell>
         </row>
         <row r="425">
@@ -20429,7 +20776,7 @@
             <v>22.729999540000001</v>
           </cell>
           <cell r="D425">
-            <v>31.279385322340406</v>
+            <v>31.312728588203292</v>
           </cell>
         </row>
         <row r="426">
@@ -20440,7 +20787,7 @@
             <v>22.760000229999999</v>
           </cell>
           <cell r="D426">
-            <v>31.259292432971684</v>
+            <v>31.292557059056588</v>
           </cell>
         </row>
         <row r="427">
@@ -20451,7 +20798,197 @@
             <v>22.739999770000001</v>
           </cell>
           <cell r="D427">
-            <v>31.23924703847057</v>
+            <v>31.272433394847042</v>
+          </cell>
+        </row>
+        <row r="428">
+          <cell r="B428" t="str">
+            <v xml:space="preserve">2023/1/3
+</v>
+          </cell>
+          <cell r="C428">
+            <v>22.829999919999999</v>
+          </cell>
+          <cell r="D428">
+            <v>31.252615475892004</v>
+          </cell>
+        </row>
+        <row r="429">
+          <cell r="B429" t="str">
+            <v xml:space="preserve">2023/1/4
+</v>
+          </cell>
+          <cell r="C429">
+            <v>23.409999849999998</v>
+          </cell>
+          <cell r="D429">
+            <v>31.234248694566734</v>
+          </cell>
+        </row>
+        <row r="430">
+          <cell r="B430" t="str">
+            <v xml:space="preserve">2023/1/5
+</v>
+          </cell>
+          <cell r="C430">
+            <v>23.5</v>
+          </cell>
+          <cell r="D430">
+            <v>31.216178020046716</v>
+          </cell>
+        </row>
+        <row r="431">
+          <cell r="B431" t="str">
+            <v xml:space="preserve">2023/1/6
+</v>
+          </cell>
+          <cell r="C431">
+            <v>23.579999919999999</v>
+          </cell>
+          <cell r="D431">
+            <v>31.198378071095561</v>
+          </cell>
+        </row>
+        <row r="432">
+          <cell r="B432" t="str">
+            <v xml:space="preserve">2023/1/9
+</v>
+          </cell>
+          <cell r="C432">
+            <v>23.81999969</v>
+          </cell>
+          <cell r="D432">
+            <v>31.181219051604643</v>
+          </cell>
+        </row>
+        <row r="433">
+          <cell r="B433" t="str">
+            <v xml:space="preserve">2023/1/10
+</v>
+          </cell>
+          <cell r="C433">
+            <v>23.649999619999999</v>
+          </cell>
+          <cell r="D433">
+            <v>31.163745224617159</v>
+          </cell>
+        </row>
+        <row r="434">
+          <cell r="B434" t="str">
+            <v xml:space="preserve">2023/1/11
+</v>
+          </cell>
+          <cell r="C434">
+            <v>23.780000690000001</v>
+          </cell>
+          <cell r="D434">
+            <v>31.146653223379619</v>
+          </cell>
+        </row>
+        <row r="435">
+          <cell r="B435" t="str">
+            <v xml:space="preserve">2023/1/12
+</v>
+          </cell>
+          <cell r="C435">
+            <v>24.100000380000001</v>
+          </cell>
+          <cell r="D435">
+            <v>31.13037919833717</v>
+          </cell>
+        </row>
+        <row r="436">
+          <cell r="B436" t="str">
+            <v xml:space="preserve">2023/1/13
+</v>
+          </cell>
+          <cell r="C436">
+            <v>24.450000760000002</v>
+          </cell>
+          <cell r="D436">
+            <v>31.114986621290313</v>
+          </cell>
+        </row>
+        <row r="437">
+          <cell r="B437" t="str">
+            <v xml:space="preserve">2023/1/16
+</v>
+          </cell>
+          <cell r="C437">
+            <v>24.520000459999999</v>
+          </cell>
+          <cell r="D437">
+            <v>31.099825733563208</v>
+          </cell>
+        </row>
+        <row r="438">
+          <cell r="B438" t="str">
+            <v xml:space="preserve">2023/1/17
+</v>
+          </cell>
+          <cell r="C438">
+            <v>24.530000690000001</v>
+          </cell>
+          <cell r="D438">
+            <v>31.084757327499986</v>
+          </cell>
+        </row>
+        <row r="439">
+          <cell r="B439" t="str">
+            <v xml:space="preserve">2023/1/18
+</v>
+          </cell>
+          <cell r="C439">
+            <v>24.739999770000001</v>
+          </cell>
+          <cell r="D439">
+            <v>31.0702384314874</v>
+          </cell>
+        </row>
+        <row r="440">
+          <cell r="B440" t="str">
+            <v xml:space="preserve">2023/1/19
+</v>
+          </cell>
+          <cell r="C440">
+            <v>24.829999919999999</v>
+          </cell>
+          <cell r="D440">
+            <v>31.055991311598159</v>
+          </cell>
+        </row>
+        <row r="441">
+          <cell r="B441" t="str">
+            <v xml:space="preserve">2023/1/20
+</v>
+          </cell>
+          <cell r="C441">
+            <v>25.170000080000001</v>
+          </cell>
+          <cell r="D441">
+            <v>31.042583586697024</v>
+          </cell>
+        </row>
+        <row r="442">
+          <cell r="B442">
+            <v>44956</v>
+          </cell>
+          <cell r="C442">
+            <v>24.899999619999999</v>
+          </cell>
+          <cell r="D442">
+            <v>31.028623168590894</v>
+          </cell>
+        </row>
+        <row r="443">
+          <cell r="B443">
+            <v>44957</v>
+          </cell>
+          <cell r="C443">
+            <v>24.899999619999999</v>
+          </cell>
+          <cell r="D443">
+            <v>31.014726063038534</v>
           </cell>
         </row>
       </sheetData>
@@ -20748,7 +21285,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20851,18 +21388,18 @@
         <v>4.7860299999999993</v>
       </c>
       <c r="C3" s="15">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>47.64</v>
       </c>
       <c r="D3" s="16">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>45.46631578947369</v>
       </c>
       <c r="E3" s="16">
         <v>0</v>
       </c>
       <c r="F3" s="17">
-        <f t="shared" ref="F3:F23" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F24" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="17">
@@ -20870,7 +21407,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="17">
-        <f t="shared" ref="H3:H23" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H24" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="17">
@@ -20878,11 +21415,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="17">
-        <f t="shared" ref="J3:J23" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J24" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="17">
-        <f t="shared" ref="K3:K23" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K24" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="16">
@@ -20924,15 +21461,15 @@
         <v>4.9806599999999994</v>
       </c>
       <c r="C4" s="15">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>39.85</v>
       </c>
       <c r="D4" s="16">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>41.802432432432425</v>
       </c>
       <c r="E4" s="16">
-        <f t="shared" ref="E4:E23" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
+        <f t="shared" ref="E4:E24" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
         <v>15057.369992695269</v>
       </c>
       <c r="F4" s="17">
@@ -20940,7 +21477,7 @@
         <v>3023.1676108578522</v>
       </c>
       <c r="G4" s="17">
-        <f t="shared" ref="G4:G23" si="5">G3+F4</f>
+        <f t="shared" ref="G4:G24" si="5">G3+F4</f>
         <v>3023.1676108578522</v>
       </c>
       <c r="H4" s="17">
@@ -20948,7 +21485,7 @@
         <v>15057.369992695269</v>
       </c>
       <c r="I4" s="17">
-        <f t="shared" ref="I4:I23" si="6">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I24" si="6">IF(E4&gt;0,I3+E4,I3)</f>
         <v>15057.369992695269</v>
       </c>
       <c r="J4" s="17">
@@ -20960,7 +21497,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="16">
-        <f t="shared" ref="L4:L23" si="7">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L24" si="7">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="6"/>
@@ -21005,11 +21542,11 @@
         <v>5.1114799999999994</v>
       </c>
       <c r="C5" s="15">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>41.45</v>
       </c>
       <c r="D5" s="16">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>41.041896551724122</v>
       </c>
       <c r="E5" s="16">
@@ -21055,11 +21592,11 @@
         <v>4.9776999999999996</v>
       </c>
       <c r="C6" s="15">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>39.930000305175781</v>
       </c>
       <c r="D6" s="16">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.930499984741189</v>
       </c>
       <c r="E6" s="16">
@@ -21105,11 +21642,11 @@
         <v>4.7613100000000008</v>
       </c>
       <c r="C7" s="15">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>38.069999694824219</v>
       </c>
       <c r="D7" s="16">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.654705834482208</v>
       </c>
       <c r="E7" s="16">
@@ -21155,11 +21692,11 @@
         <v>4.7106400000000006</v>
       </c>
       <c r="C8" s="15">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.020000457763672</v>
       </c>
       <c r="D8" s="16">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.730819672131133</v>
       </c>
       <c r="E8" s="16">
@@ -21205,11 +21742,11 @@
         <v>4.8678999999999997</v>
       </c>
       <c r="C9" s="15">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>36.299999239999998</v>
       </c>
       <c r="D9" s="16">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.253623134275358</v>
       </c>
       <c r="E9" s="16">
@@ -21255,11 +21792,11 @@
         <v>4.9547099609374996</v>
       </c>
       <c r="C10" s="15">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.450000000000003</v>
       </c>
       <c r="D10" s="16">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.695499988749994</v>
       </c>
       <c r="E10" s="16">
@@ -21305,11 +21842,11 @@
         <v>4.8630097656249998</v>
       </c>
       <c r="C11" s="15">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>34.630000000000003</v>
       </c>
       <c r="D11" s="16">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.228579205136612</v>
       </c>
       <c r="E11" s="16">
@@ -21355,11 +21892,11 @@
         <v>4.3440297851562502</v>
       </c>
       <c r="C12" s="15">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>31.159999849999998</v>
       </c>
       <c r="D12" s="16">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.710494996683174</v>
       </c>
       <c r="E12" s="16">
@@ -21405,11 +21942,11 @@
         <v>4.3355400390624999</v>
       </c>
       <c r="C13" s="15">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>30.969999309999999</v>
       </c>
       <c r="D13" s="16">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.189770586238538</v>
       </c>
       <c r="E13" s="16">
@@ -21455,11 +21992,11 @@
         <v>3.8658500976562502</v>
       </c>
       <c r="C14" s="15">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.63999939</v>
       </c>
       <c r="D14" s="16">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>36.340622369004151</v>
       </c>
       <c r="E14" s="16">
@@ -21505,11 +22042,11 @@
         <v>3.5012099609375</v>
       </c>
       <c r="C15" s="15">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.129999160000001</v>
       </c>
       <c r="D15" s="16">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>35.566653817730753</v>
       </c>
       <c r="E15" s="16">
@@ -21555,11 +22092,11 @@
         <v>3.6361599121093748</v>
       </c>
       <c r="C16" s="15">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>24.129999160000001</v>
       </c>
       <c r="D16" s="16">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.740573439534039</v>
       </c>
       <c r="E16" s="16">
@@ -21605,11 +22142,11 @@
         <v>4.1096201171875002</v>
       </c>
       <c r="C17" s="15">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.809999470000001</v>
       </c>
       <c r="D17" s="16">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.119366627533324</v>
       </c>
       <c r="E17" s="16">
@@ -21655,11 +22192,11 @@
         <v>3.8724699707031252</v>
       </c>
       <c r="C18" s="15">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>26.329999919999999</v>
       </c>
       <c r="D18" s="16">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.666137024579427</v>
       </c>
       <c r="E18" s="16">
@@ -21705,11 +22242,11 @@
         <v>3.7022099609375001</v>
       </c>
       <c r="C19" s="15">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.18000031</v>
       </c>
       <c r="D19" s="16">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.177616240465106</v>
       </c>
       <c r="E19" s="16">
@@ -21755,36 +22292,36 @@
         <v>3.3477299804687499</v>
       </c>
       <c r="C20" s="15">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
-        <v>23.340000150000002</v>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>22.61</v>
       </c>
       <c r="D20" s="16">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
-        <v>32.601424623862997</v>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.640066271698615</v>
       </c>
       <c r="E20" s="16">
         <f t="shared" si="4"/>
-        <v>338807.23397602042</v>
+        <v>397378.80618793133</v>
       </c>
       <c r="F20" s="17">
         <f t="shared" si="0"/>
-        <v>101205.06610529579</v>
+        <v>118700.97304929302</v>
       </c>
       <c r="G20" s="17">
         <f t="shared" si="5"/>
-        <v>713238.8528998564</v>
+        <v>730734.75984385365</v>
       </c>
       <c r="H20" s="17">
         <f t="shared" si="1"/>
-        <v>2387731.09108799</v>
+        <v>2446302.6632999009</v>
       </c>
       <c r="I20" s="17">
         <f t="shared" si="6"/>
-        <v>2717832.047090339</v>
+        <v>2776403.61930225</v>
       </c>
       <c r="J20" s="17">
         <f t="shared" si="2"/>
-        <v>2388388.957364744</v>
+        <v>2446960.529576655</v>
       </c>
       <c r="K20" s="17">
         <f t="shared" si="3"/>
@@ -21806,40 +22343,40 @@
         <v>3.2993999023437501</v>
       </c>
       <c r="C21" s="15">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.239999770000001</v>
       </c>
       <c r="D21" s="16">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
-        <v>32.197401538923856</v>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.234420440393677</v>
       </c>
       <c r="E21" s="16">
         <f t="shared" si="4"/>
-        <v>391641.90745168331</v>
+        <v>394559.35592032992</v>
       </c>
       <c r="F21" s="17">
         <f t="shared" si="0"/>
-        <v>118700.95139830669</v>
+        <v>119585.18748820115</v>
       </c>
       <c r="G21" s="17">
         <f t="shared" si="5"/>
-        <v>831939.80429816304</v>
+        <v>850319.94733205484</v>
       </c>
       <c r="H21" s="17">
         <f t="shared" si="1"/>
-        <v>2744902.1090572379</v>
+        <v>2805545.5511883246</v>
       </c>
       <c r="I21" s="17">
         <f t="shared" si="6"/>
-        <v>3109473.9545420222</v>
+        <v>3170962.9752225801</v>
       </c>
       <c r="J21" s="17">
         <f t="shared" si="2"/>
-        <v>2745559.9753339919</v>
+        <v>2806203.4174650786</v>
       </c>
       <c r="K21" s="17">
         <f t="shared" si="3"/>
-        <v>-363913.97920803027</v>
+        <v>-364759.55775750149</v>
       </c>
       <c r="L21" s="16">
         <f t="shared" si="7"/>
@@ -21855,40 +22392,40 @@
         <v>3.4802900390625</v>
       </c>
       <c r="C22" s="15">
-        <f>VLOOKUP(A22,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.809999470000001</v>
       </c>
       <c r="D22" s="16">
-        <f>VLOOKUP(A22,[2]myPEPB!$B:$D,3)</f>
-        <v>31.682903206079384</v>
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.717901224590552</v>
       </c>
       <c r="E22" s="16">
         <f t="shared" si="4"/>
-        <v>310977.26180343935</v>
+        <v>313435.3189942778</v>
       </c>
       <c r="F22" s="17">
         <f t="shared" si="0"/>
-        <v>89353.834971526841</v>
+        <v>90060.114380211016</v>
       </c>
       <c r="G22" s="17">
         <f t="shared" si="5"/>
-        <v>921293.63926968991</v>
+        <v>940380.06171226583</v>
       </c>
       <c r="H22" s="17">
         <f t="shared" si="1"/>
-        <v>3206369.075801942</v>
+        <v>3272795.3617101777</v>
       </c>
       <c r="I22" s="17">
         <f t="shared" si="6"/>
-        <v>3420451.2163454616</v>
+        <v>3484398.2942168578</v>
       </c>
       <c r="J22" s="17">
         <f t="shared" si="2"/>
-        <v>3207026.9420786961</v>
+        <v>3273453.2279869318</v>
       </c>
       <c r="K22" s="17">
         <f t="shared" si="3"/>
-        <v>-213424.27426676545</v>
+        <v>-210945.06622992596</v>
       </c>
       <c r="L22" s="16">
         <f t="shared" si="7"/>
@@ -21904,42 +22441,91 @@
         <v>3.4735300292968749</v>
       </c>
       <c r="C23" s="15">
-        <f>VLOOKUP(A23,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.739999770000001</v>
       </c>
       <c r="D23" s="16">
-        <f>VLOOKUP(A23,[2]myPEPB!$B:$D,3)</f>
-        <v>31.23924703847057</v>
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.272433394847042</v>
       </c>
       <c r="E23" s="16">
         <f t="shared" si="4"/>
-        <v>285336.95631588745</v>
+        <v>287569.57307156065</v>
       </c>
       <c r="F23" s="17">
         <f t="shared" si="0"/>
-        <v>82146.103217551979</v>
+        <v>82788.85475182478</v>
       </c>
       <c r="G23" s="17">
         <f t="shared" si="5"/>
-        <v>1003439.7424872419</v>
+        <v>1023168.9164640906</v>
       </c>
       <c r="H23" s="17">
         <f t="shared" si="1"/>
-        <v>3485478.078119358</v>
+        <v>3554007.9563811645</v>
       </c>
       <c r="I23" s="17">
         <f t="shared" si="6"/>
-        <v>3705788.1726613492</v>
+        <v>3771967.8672884186</v>
       </c>
       <c r="J23" s="17">
         <f t="shared" si="2"/>
-        <v>3486135.9443961121</v>
+        <v>3554665.8226579186</v>
       </c>
       <c r="K23" s="17">
         <f t="shared" si="3"/>
-        <v>-219652.22826523706</v>
+        <v>-217302.04463050002</v>
       </c>
       <c r="L23" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>44957</v>
+      </c>
+      <c r="B24" s="15">
+        <f>VLOOKUP(A24,[1]szse_innovation_100!$A:$F,6)</f>
+        <v>3.8110336914062501</v>
+      </c>
+      <c r="C24" s="15">
+        <f>VLOOKUP(A24,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>24.899999619999999</v>
+      </c>
+      <c r="D24" s="16">
+        <f>VLOOKUP(A24,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.014726063038534</v>
+      </c>
+      <c r="E24" s="16">
+        <f t="shared" si="4"/>
+        <v>147690.02391911903</v>
+      </c>
+      <c r="F24" s="17">
+        <f t="shared" si="0"/>
+        <v>38753.271652296055</v>
+      </c>
+      <c r="G24" s="17">
+        <f t="shared" si="5"/>
+        <v>1061922.1881163865</v>
+      </c>
+      <c r="H24" s="17">
+        <f t="shared" si="1"/>
+        <v>4047021.2365633948</v>
+      </c>
+      <c r="I24" s="17">
+        <f t="shared" si="6"/>
+        <v>3919657.8912075376</v>
+      </c>
+      <c r="J24" s="17">
+        <f t="shared" si="2"/>
+        <v>4047679.1028401488</v>
+      </c>
+      <c r="K24" s="17">
+        <f t="shared" si="3"/>
+        <v>128021.21163261123</v>
+      </c>
+      <c r="L24" s="16">
         <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -405,7 +405,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -472,6 +472,9 @@
                 <c:pt idx="21">
                   <c:v>44957</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>44985</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -480,7 +483,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -547,6 +550,9 @@
                 <c:pt idx="21">
                   <c:v>3919657.8912075376</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>4099788.7821944868</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -588,7 +594,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -655,6 +661,9 @@
                 <c:pt idx="21">
                   <c:v>44957</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>44985</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -663,7 +672,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -730,6 +739,9 @@
                 <c:pt idx="21">
                   <c:v>4047679.1028401488</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>4086251.0476492736</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -771,7 +783,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -838,6 +850,9 @@
                 <c:pt idx="21">
                   <c:v>44957</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>44985</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -846,7 +861,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -913,6 +928,9 @@
                 <c:pt idx="21">
                   <c:v>128021.21163261123</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>-13537.73454521317</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -933,11 +951,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91277184"/>
-        <c:axId val="91279360"/>
+        <c:axId val="529669504"/>
+        <c:axId val="543176192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91277184"/>
+        <c:axId val="529669504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -980,14 +998,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91279360"/>
+        <c:crossAx val="543176192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91279360"/>
+        <c:axId val="543176192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1038,7 +1056,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91277184"/>
+        <c:crossAx val="529669504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1198,7 +1216,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1265,6 +1283,9 @@
                 <c:pt idx="21">
                   <c:v>147690.02391911903</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>180130.89098694932</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1278,8 +1299,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="604022656"/>
-        <c:axId val="604020736"/>
+        <c:axId val="67198976"/>
+        <c:axId val="67193088"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1304,7 +1325,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1371,6 +1392,9 @@
                 <c:pt idx="21">
                   <c:v>44957</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>44985</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1379,7 +1403,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1446,6 +1470,9 @@
                 <c:pt idx="21">
                   <c:v>3.8110336914062501</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6777292480468748</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1461,11 +1488,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="564056064"/>
-        <c:axId val="564057984"/>
+        <c:axId val="67189760"/>
+        <c:axId val="67191552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="564056064"/>
+        <c:axId val="67189760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1508,14 +1535,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564057984"/>
+        <c:crossAx val="67191552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="564057984"/>
+        <c:axId val="67191552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1566,12 +1593,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564056064"/>
+        <c:crossAx val="67189760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="604020736"/>
+        <c:axId val="67193088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1608,12 +1635,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604022656"/>
+        <c:crossAx val="67198976"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="604022656"/>
+        <c:axId val="67198976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1622,7 +1649,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="604020736"/>
+        <c:crossAx val="67193088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1678,16 +1705,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15835,6 +15862,406 @@
             <v>3.8110336914062501</v>
           </cell>
         </row>
+        <row r="706">
+          <cell r="A706">
+            <v>44958</v>
+          </cell>
+          <cell r="B706">
+            <v>3826.91259765625</v>
+          </cell>
+          <cell r="C706">
+            <v>3861.890380859375</v>
+          </cell>
+          <cell r="D706">
+            <v>3809.948486328125</v>
+          </cell>
+          <cell r="E706">
+            <v>3861.890380859375</v>
+          </cell>
+          <cell r="F706">
+            <v>3.861890380859375</v>
+          </cell>
+        </row>
+        <row r="707">
+          <cell r="A707">
+            <v>44959</v>
+          </cell>
+          <cell r="B707">
+            <v>3870.02783203125</v>
+          </cell>
+          <cell r="C707">
+            <v>3875.9189453125</v>
+          </cell>
+          <cell r="D707">
+            <v>3834.403564453125</v>
+          </cell>
+          <cell r="E707">
+            <v>3841.62939453125</v>
+          </cell>
+          <cell r="F707">
+            <v>3.8416293945312501</v>
+          </cell>
+        </row>
+        <row r="708">
+          <cell r="A708">
+            <v>44960</v>
+          </cell>
+          <cell r="B708">
+            <v>3827.781982421875</v>
+          </cell>
+          <cell r="C708">
+            <v>3834.679931640625</v>
+          </cell>
+          <cell r="D708">
+            <v>3764.18212890625</v>
+          </cell>
+          <cell r="E708">
+            <v>3814.672607421875</v>
+          </cell>
+          <cell r="F708">
+            <v>3.8146726074218749</v>
+          </cell>
+        </row>
+        <row r="709">
+          <cell r="A709">
+            <v>44963</v>
+          </cell>
+          <cell r="B709">
+            <v>3787.275390625</v>
+          </cell>
+          <cell r="C709">
+            <v>3792.05712890625</v>
+          </cell>
+          <cell r="D709">
+            <v>3741.56640625</v>
+          </cell>
+          <cell r="E709">
+            <v>3767.203125</v>
+          </cell>
+          <cell r="F709">
+            <v>3.767203125</v>
+          </cell>
+        </row>
+        <row r="710">
+          <cell r="A710">
+            <v>44964</v>
+          </cell>
+          <cell r="B710">
+            <v>3776.9912109375</v>
+          </cell>
+          <cell r="C710">
+            <v>3785.594482421875</v>
+          </cell>
+          <cell r="D710">
+            <v>3749.65185546875</v>
+          </cell>
+          <cell r="E710">
+            <v>3765.985595703125</v>
+          </cell>
+          <cell r="F710">
+            <v>3.7659855957031252</v>
+          </cell>
+        </row>
+        <row r="711">
+          <cell r="A711">
+            <v>44965</v>
+          </cell>
+          <cell r="B711">
+            <v>3771.941650390625</v>
+          </cell>
+          <cell r="C711">
+            <v>3779.919189453125</v>
+          </cell>
+          <cell r="D711">
+            <v>3744.5322265625</v>
+          </cell>
+          <cell r="E711">
+            <v>3748.6572265625</v>
+          </cell>
+          <cell r="F711">
+            <v>3.7486572265625</v>
+          </cell>
+        </row>
+        <row r="712">
+          <cell r="A712">
+            <v>44966</v>
+          </cell>
+          <cell r="B712">
+            <v>3737.456787109375</v>
+          </cell>
+          <cell r="C712">
+            <v>3805.634033203125</v>
+          </cell>
+          <cell r="D712">
+            <v>3728.27880859375</v>
+          </cell>
+          <cell r="E712">
+            <v>3805.634033203125</v>
+          </cell>
+          <cell r="F712">
+            <v>3.8056340332031251</v>
+          </cell>
+        </row>
+        <row r="713">
+          <cell r="A713">
+            <v>44967</v>
+          </cell>
+          <cell r="B713">
+            <v>3799.178466796875</v>
+          </cell>
+          <cell r="C713">
+            <v>3808.2763671875</v>
+          </cell>
+          <cell r="D713">
+            <v>3756.863037109375</v>
+          </cell>
+          <cell r="E713">
+            <v>3773.57568359375</v>
+          </cell>
+          <cell r="F713">
+            <v>3.7735756835937502</v>
+          </cell>
+        </row>
+        <row r="714">
+          <cell r="A714">
+            <v>44970</v>
+          </cell>
+          <cell r="B714">
+            <v>3769.485595703125</v>
+          </cell>
+          <cell r="C714">
+            <v>3811.090576171875</v>
+          </cell>
+          <cell r="D714">
+            <v>3759.244384765625</v>
+          </cell>
+          <cell r="E714">
+            <v>3810.79931640625</v>
+          </cell>
+          <cell r="F714">
+            <v>3.8107993164062499</v>
+          </cell>
+        </row>
+        <row r="715">
+          <cell r="A715">
+            <v>44971</v>
+          </cell>
+          <cell r="B715">
+            <v>3824.993896484375</v>
+          </cell>
+          <cell r="C715">
+            <v>3825.396728515625</v>
+          </cell>
+          <cell r="D715">
+            <v>3778.573974609375</v>
+          </cell>
+          <cell r="E715">
+            <v>3799.543212890625</v>
+          </cell>
+          <cell r="F715">
+            <v>3.799543212890625</v>
+          </cell>
+        </row>
+        <row r="716">
+          <cell r="A716">
+            <v>44972</v>
+          </cell>
+          <cell r="B716">
+            <v>3803.33544921875</v>
+          </cell>
+          <cell r="C716">
+            <v>3819.007080078125</v>
+          </cell>
+          <cell r="D716">
+            <v>3780.156005859375</v>
+          </cell>
+          <cell r="E716">
+            <v>3792.92822265625</v>
+          </cell>
+          <cell r="F716">
+            <v>3.7929282226562502</v>
+          </cell>
+        </row>
+        <row r="717">
+          <cell r="A717">
+            <v>44973</v>
+          </cell>
+          <cell r="B717">
+            <v>3795.4775390625</v>
+          </cell>
+          <cell r="C717">
+            <v>3828.3017578125</v>
+          </cell>
+          <cell r="D717">
+            <v>3725.235595703125</v>
+          </cell>
+          <cell r="E717">
+            <v>3750.837646484375</v>
+          </cell>
+          <cell r="F717">
+            <v>3.7508376464843751</v>
+          </cell>
+        </row>
+        <row r="718">
+          <cell r="A718">
+            <v>44974</v>
+          </cell>
+          <cell r="B718">
+            <v>3745.79541015625</v>
+          </cell>
+          <cell r="C718">
+            <v>3750.267578125</v>
+          </cell>
+          <cell r="D718">
+            <v>3665.463134765625</v>
+          </cell>
+          <cell r="E718">
+            <v>3666.324462890625</v>
+          </cell>
+          <cell r="F718">
+            <v>3.6663244628906249</v>
+          </cell>
+        </row>
+        <row r="719">
+          <cell r="A719">
+            <v>44977</v>
+          </cell>
+          <cell r="B719">
+            <v>3659.568603515625</v>
+          </cell>
+          <cell r="C719">
+            <v>3738.56591796875</v>
+          </cell>
+          <cell r="D719">
+            <v>3645.048095703125</v>
+          </cell>
+          <cell r="E719">
+            <v>3738.56591796875</v>
+          </cell>
+          <cell r="F719">
+            <v>3.7385659179687498</v>
+          </cell>
+        </row>
+        <row r="720">
+          <cell r="A720">
+            <v>44978</v>
+          </cell>
+          <cell r="B720">
+            <v>3732.120849609375</v>
+          </cell>
+          <cell r="C720">
+            <v>3753.77587890625</v>
+          </cell>
+          <cell r="D720">
+            <v>3713.380126953125</v>
+          </cell>
+          <cell r="E720">
+            <v>3739.5302734375</v>
+          </cell>
+          <cell r="F720">
+            <v>3.7395302734375</v>
+          </cell>
+        </row>
+        <row r="721">
+          <cell r="A721">
+            <v>44979</v>
+          </cell>
+          <cell r="B721">
+            <v>3712.302490234375</v>
+          </cell>
+          <cell r="C721">
+            <v>3730.087646484375</v>
+          </cell>
+          <cell r="D721">
+            <v>3697.661376953125</v>
+          </cell>
+          <cell r="E721">
+            <v>3709.724609375</v>
+          </cell>
+          <cell r="F721">
+            <v>3.7097246093749998</v>
+          </cell>
+        </row>
+        <row r="722">
+          <cell r="A722">
+            <v>44980</v>
+          </cell>
+          <cell r="B722">
+            <v>3706.565185546875</v>
+          </cell>
+          <cell r="C722">
+            <v>3733.9375</v>
+          </cell>
+          <cell r="D722">
+            <v>3697.26171875</v>
+          </cell>
+          <cell r="E722">
+            <v>3713.523193359375</v>
+          </cell>
+          <cell r="F722">
+            <v>3.7135231933593751</v>
+          </cell>
+        </row>
+        <row r="723">
+          <cell r="A723">
+            <v>44981</v>
+          </cell>
+          <cell r="B723">
+            <v>3713.09033203125</v>
+          </cell>
+          <cell r="C723">
+            <v>3714.319580078125</v>
+          </cell>
+          <cell r="D723">
+            <v>3672.4208984375</v>
+          </cell>
+          <cell r="E723">
+            <v>3683.28759765625</v>
+          </cell>
+          <cell r="F723">
+            <v>3.6832875976562498</v>
+          </cell>
+        </row>
+        <row r="724">
+          <cell r="A724">
+            <v>44984</v>
+          </cell>
+          <cell r="B724">
+            <v>3660.90966796875</v>
+          </cell>
+          <cell r="C724">
+            <v>3677.21533203125</v>
+          </cell>
+          <cell r="D724">
+            <v>3640.158203125</v>
+          </cell>
+          <cell r="E724">
+            <v>3645.96533203125</v>
+          </cell>
+          <cell r="F724">
+            <v>3.64596533203125</v>
+          </cell>
+        </row>
+        <row r="725">
+          <cell r="A725">
+            <v>44985</v>
+          </cell>
+          <cell r="B725">
+            <v>3662.222900390625</v>
+          </cell>
+          <cell r="C725">
+            <v>3683.2353515625</v>
+          </cell>
+          <cell r="D725">
+            <v>3641.981689453125</v>
+          </cell>
+          <cell r="E725">
+            <v>3677.729248046875</v>
+          </cell>
+          <cell r="F725">
+            <v>3.6777292480468748</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
@@ -15862,9 +16289,7 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="B2">
-            <v>0</v>
-          </cell>
+          <cell r="B2"/>
           <cell r="C2" t="str">
             <v>PE</v>
           </cell>
@@ -20989,6 +21414,244 @@
           </cell>
           <cell r="D443">
             <v>31.014726063038534</v>
+          </cell>
+        </row>
+        <row r="444">
+          <cell r="B444" t="str">
+            <v xml:space="preserve">2023/2/1
+</v>
+          </cell>
+          <cell r="C444">
+            <v>25.239999770000001</v>
+          </cell>
+          <cell r="D444">
+            <v>31.001661071425325</v>
+          </cell>
+        </row>
+        <row r="445">
+          <cell r="B445" t="str">
+            <v xml:space="preserve">2023/2/2
+</v>
+          </cell>
+          <cell r="C445">
+            <v>25.129999160000001</v>
+          </cell>
+          <cell r="D445">
+            <v>30.988406755598181</v>
+          </cell>
+        </row>
+        <row r="446">
+          <cell r="B446" t="str">
+            <v xml:space="preserve">2023/2/3
+</v>
+          </cell>
+          <cell r="C446">
+            <v>24.93000031</v>
+          </cell>
+          <cell r="D446">
+            <v>30.974761696036023</v>
+          </cell>
+        </row>
+        <row r="447">
+          <cell r="B447" t="str">
+            <v xml:space="preserve">2023/2/6
+</v>
+          </cell>
+          <cell r="C447">
+            <v>24.600000380000001</v>
+          </cell>
+          <cell r="D447">
+            <v>30.960436389707851</v>
+          </cell>
+        </row>
+        <row r="448">
+          <cell r="B448" t="str">
+            <v xml:space="preserve">2023/2/7
+</v>
+          </cell>
+          <cell r="C448">
+            <v>24.61000061</v>
+          </cell>
+          <cell r="D448">
+            <v>30.94619774446187</v>
+          </cell>
+        </row>
+        <row r="449">
+          <cell r="B449" t="str">
+            <v xml:space="preserve">2023/2/8
+</v>
+          </cell>
+          <cell r="C449">
+            <v>24.5</v>
+          </cell>
+          <cell r="D449">
+            <v>30.931776720425042</v>
+          </cell>
+        </row>
+        <row r="450">
+          <cell r="B450" t="str">
+            <v xml:space="preserve">2023/2/9
+</v>
+          </cell>
+          <cell r="C450">
+            <v>24.870000839999999</v>
+          </cell>
+          <cell r="D450">
+            <v>30.918245970691949</v>
+          </cell>
+        </row>
+        <row r="451">
+          <cell r="B451" t="str">
+            <v xml:space="preserve">2023/2/10
+</v>
+          </cell>
+          <cell r="C451">
+            <v>24.63999939</v>
+          </cell>
+          <cell r="D451">
+            <v>30.904263238886397</v>
+          </cell>
+        </row>
+        <row r="452">
+          <cell r="B452" t="str">
+            <v xml:space="preserve">2023/2/13
+</v>
+          </cell>
+          <cell r="C452">
+            <v>24.879999160000001</v>
+          </cell>
+          <cell r="D452">
+            <v>30.890875985377765</v>
+          </cell>
+        </row>
+        <row r="453">
+          <cell r="B453" t="str">
+            <v xml:space="preserve">2023/2/14
+</v>
+          </cell>
+          <cell r="C453">
+            <v>24.809999470000001</v>
+          </cell>
+          <cell r="D453">
+            <v>30.87739288889134</v>
+          </cell>
+        </row>
+        <row r="454">
+          <cell r="B454" t="str">
+            <v xml:space="preserve">2023/2/15
+</v>
+          </cell>
+          <cell r="C454">
+            <v>24.739999770000001</v>
+          </cell>
+          <cell r="D454">
+            <v>30.86381458553096</v>
+          </cell>
+        </row>
+        <row r="455">
+          <cell r="B455" t="str">
+            <v xml:space="preserve">2023/2/16
+</v>
+          </cell>
+          <cell r="C455">
+            <v>24.489999770000001</v>
+          </cell>
+          <cell r="D455">
+            <v>30.849744354150097</v>
+          </cell>
+        </row>
+        <row r="456">
+          <cell r="B456" t="str">
+            <v xml:space="preserve">2023/2/17
+</v>
+          </cell>
+          <cell r="C456">
+            <v>23.950000760000002</v>
+          </cell>
+          <cell r="D456">
+            <v>30.834546681035228</v>
+          </cell>
+        </row>
+        <row r="457">
+          <cell r="B457" t="str">
+            <v xml:space="preserve">2023/2/20
+</v>
+          </cell>
+          <cell r="C457">
+            <v>24.409999849999998</v>
+          </cell>
+          <cell r="D457">
+            <v>30.820426797890097</v>
+          </cell>
+        </row>
+        <row r="458">
+          <cell r="B458" t="str">
+            <v xml:space="preserve">2023/2/21
+</v>
+          </cell>
+          <cell r="C458">
+            <v>24.399999619999999</v>
+          </cell>
+          <cell r="D458">
+            <v>30.806346913728056</v>
+          </cell>
+        </row>
+        <row r="459">
+          <cell r="B459" t="str">
+            <v xml:space="preserve">2023/2/22
+</v>
+          </cell>
+          <cell r="C459">
+            <v>24.200000760000002</v>
+          </cell>
+          <cell r="D459">
+            <v>30.791891014048126</v>
+          </cell>
+        </row>
+        <row r="460">
+          <cell r="B460" t="str">
+            <v xml:space="preserve">2023/2/23
+</v>
+          </cell>
+          <cell r="C460">
+            <v>24.229999540000001</v>
+          </cell>
+          <cell r="D460">
+            <v>30.777563740087324</v>
+          </cell>
+        </row>
+        <row r="461">
+          <cell r="B461" t="str">
+            <v xml:space="preserve">2023/2/24
+</v>
+          </cell>
+          <cell r="C461">
+            <v>24.020000459999999</v>
+          </cell>
+          <cell r="D461">
+            <v>30.762841379999987</v>
+          </cell>
+        </row>
+        <row r="462">
+          <cell r="B462">
+            <v>44984</v>
+          </cell>
+          <cell r="C462">
+            <v>23.780000690000001</v>
+          </cell>
+          <cell r="D462">
+            <v>30.747661291543466</v>
+          </cell>
+        </row>
+        <row r="463">
+          <cell r="B463">
+            <v>44985</v>
+          </cell>
+          <cell r="C463">
+            <v>23.979999540000001</v>
+          </cell>
+          <cell r="D463">
+            <v>30.732980897288492</v>
           </cell>
         </row>
       </sheetData>
@@ -21285,7 +21948,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21318,7 +21981,7 @@
     <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -21357,7 +22020,7 @@
       </c>
       <c r="N1" s="11"/>
     </row>
-    <row r="2" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -21379,7 +22042,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44316</v>
       </c>
@@ -21399,7 +22062,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="17">
-        <f t="shared" ref="F3:F24" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F25" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="17">
@@ -21407,7 +22070,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="17">
-        <f t="shared" ref="H3:H24" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H25" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="17">
@@ -21415,11 +22078,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="17">
-        <f t="shared" ref="J3:J24" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J25" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="17">
-        <f t="shared" ref="K3:K24" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K25" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="16">
@@ -21451,8 +22114,18 @@
       <c r="W3" s="26" t="s">
         <v>14</v>
       </c>
+      <c r="Y3" s="19">
+        <v>44561</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>260275.18576464822</v>
+      </c>
+      <c r="AA3" s="1">
+        <f>-Z3</f>
+        <v>-260275.18576464822</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44347</v>
       </c>
@@ -21469,7 +22142,7 @@
         <v>41.802432432432425</v>
       </c>
       <c r="E4" s="16">
-        <f t="shared" ref="E4:E24" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
+        <f t="shared" ref="E4:E25" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
         <v>15057.369992695269</v>
       </c>
       <c r="F4" s="17">
@@ -21477,7 +22150,7 @@
         <v>3023.1676108578522</v>
       </c>
       <c r="G4" s="17">
-        <f t="shared" ref="G4:G24" si="5">G3+F4</f>
+        <f t="shared" ref="G4:G25" si="5">G3+F4</f>
         <v>3023.1676108578522</v>
       </c>
       <c r="H4" s="17">
@@ -21485,7 +22158,7 @@
         <v>15057.369992695269</v>
       </c>
       <c r="I4" s="17">
-        <f t="shared" ref="I4:I24" si="6">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I25" si="6">IF(E4&gt;0,I3+E4,I3)</f>
         <v>15057.369992695269</v>
       </c>
       <c r="J4" s="17">
@@ -21497,7 +22170,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="16">
-        <f t="shared" ref="L4:L24" si="7">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L25" si="7">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="6"/>
@@ -21532,8 +22205,18 @@
         <f>V4</f>
         <v>8.3740727512819774E-3</v>
       </c>
+      <c r="Y4" s="19">
+        <v>44925</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>3771967.8672884186</v>
+      </c>
+      <c r="AA4" s="1">
+        <f>-Z4</f>
+        <v>-3771967.8672884186</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44377</v>
       </c>
@@ -21582,8 +22265,44 @@
         <v>657.86627675392538</v>
       </c>
       <c r="M5" s="6"/>
+      <c r="P5" s="19">
+        <v>44925</v>
+      </c>
+      <c r="Q5" s="9">
+        <f>R5-R4</f>
+        <v>3511692.6815237706</v>
+      </c>
+      <c r="R5" s="4">
+        <f>VLOOKUP(P5,A:I,9,)</f>
+        <v>3771967.8672884186</v>
+      </c>
+      <c r="S5" s="4">
+        <f>VLOOKUP(P5,A:J,10,)</f>
+        <v>3554665.8226579186</v>
+      </c>
+      <c r="T5" s="4">
+        <f>VLOOKUP(P5,A:K,11,)</f>
+        <v>-217302.04463050002</v>
+      </c>
+      <c r="U5" s="4">
+        <f>VLOOKUP(P5,A:L,12,)</f>
+        <v>657.86627675392538</v>
+      </c>
+      <c r="V5" s="8">
+        <f t="shared" ref="V5" si="9">(S5-R5)/R5</f>
+        <v>-5.7609728469588874E-2</v>
+      </c>
+      <c r="W5" s="8">
+        <v>-0.11201891251168983</v>
+      </c>
+      <c r="Y5" s="19">
+        <v>44925</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>3554665.8226579186</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44407</v>
       </c>
@@ -21632,8 +22351,12 @@
         <v>657.86627675392538</v>
       </c>
       <c r="M6" s="6"/>
+      <c r="AA6" s="2">
+        <f>IRR(AA3:AA5)</f>
+        <v>-0.11201891251168983</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44439</v>
       </c>
@@ -21683,7 +22406,7 @@
       </c>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44469</v>
       </c>
@@ -21733,7 +22456,7 @@
       </c>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44498</v>
       </c>
@@ -21783,7 +22506,7 @@
       </c>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44530</v>
       </c>
@@ -21833,7 +22556,7 @@
       </c>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>44561</v>
       </c>
@@ -21883,7 +22606,7 @@
       </c>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44589</v>
       </c>
@@ -21933,7 +22656,7 @@
       </c>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>44620</v>
       </c>
@@ -21983,7 +22706,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>44651</v>
       </c>
@@ -22033,7 +22756,7 @@
       </c>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>44680</v>
       </c>
@@ -22083,7 +22806,7 @@
       </c>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>44712</v>
       </c>
@@ -22526,6 +23249,55 @@
         <v>128021.21163261123</v>
       </c>
       <c r="L24" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>44985</v>
+      </c>
+      <c r="B25" s="15">
+        <f>VLOOKUP(A25,[1]szse_innovation_100!$A:$F,6)</f>
+        <v>3.6777292480468748</v>
+      </c>
+      <c r="C25" s="15">
+        <f>VLOOKUP(A25,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>23.979999540000001</v>
+      </c>
+      <c r="D25" s="16">
+        <f>VLOOKUP(A25,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>30.732980897288492</v>
+      </c>
+      <c r="E25" s="16">
+        <f t="shared" si="4"/>
+        <v>180130.89098694932</v>
+      </c>
+      <c r="F25" s="17">
+        <f t="shared" si="0"/>
+        <v>48978.834176716817</v>
+      </c>
+      <c r="G25" s="17">
+        <f t="shared" si="5"/>
+        <v>1110901.0222931034</v>
+      </c>
+      <c r="H25" s="17">
+        <f t="shared" si="1"/>
+        <v>4085593.1813725196</v>
+      </c>
+      <c r="I25" s="17">
+        <f t="shared" si="6"/>
+        <v>4099788.7821944868</v>
+      </c>
+      <c r="J25" s="17">
+        <f t="shared" si="2"/>
+        <v>4086251.0476492736</v>
+      </c>
+      <c r="K25" s="17">
+        <f t="shared" si="3"/>
+        <v>-13537.73454521317</v>
+      </c>
+      <c r="L25" s="16">
         <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -405,7 +405,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -472,9 +472,6 @@
                 <c:pt idx="21">
                   <c:v>44957</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>44985</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -483,7 +480,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -550,9 +547,6 @@
                 <c:pt idx="21">
                   <c:v>3919657.8912075376</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>4099788.7821944868</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -594,7 +588,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -661,9 +655,6 @@
                 <c:pt idx="21">
                   <c:v>44957</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>44985</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -672,7 +663,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -739,9 +730,6 @@
                 <c:pt idx="21">
                   <c:v>4047679.1028401488</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>4086251.0476492736</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -783,7 +771,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -850,9 +838,6 @@
                 <c:pt idx="21">
                   <c:v>44957</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>44985</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -861,7 +846,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -928,9 +913,6 @@
                 <c:pt idx="21">
                   <c:v>128021.21163261123</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>-13537.73454521317</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -951,11 +933,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="529669504"/>
-        <c:axId val="543176192"/>
+        <c:axId val="88564864"/>
+        <c:axId val="88566784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="529669504"/>
+        <c:axId val="88564864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,14 +980,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543176192"/>
+        <c:crossAx val="88566784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="543176192"/>
+        <c:axId val="88566784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1056,7 +1038,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529669504"/>
+        <c:crossAx val="88564864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1216,7 +1198,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1283,9 +1265,6 @@
                 <c:pt idx="21">
                   <c:v>147690.02391911903</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>180130.89098694932</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1299,8 +1278,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="67198976"/>
-        <c:axId val="67193088"/>
+        <c:axId val="531278464"/>
+        <c:axId val="531276928"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1325,7 +1304,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1392,9 +1371,6 @@
                 <c:pt idx="21">
                   <c:v>44957</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>44985</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1403,7 +1379,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1470,9 +1446,6 @@
                 <c:pt idx="21">
                   <c:v>3.8110336914062501</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.6777292480468748</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1488,11 +1461,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="67189760"/>
-        <c:axId val="67191552"/>
+        <c:axId val="531241984"/>
+        <c:axId val="531256832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="67189760"/>
+        <c:axId val="531241984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1535,14 +1508,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67191552"/>
+        <c:crossAx val="531256832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="67191552"/>
+        <c:axId val="531256832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1593,12 +1566,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67189760"/>
+        <c:crossAx val="531241984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67193088"/>
+        <c:axId val="531276928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1635,12 +1608,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67198976"/>
+        <c:crossAx val="531278464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="67198976"/>
+        <c:axId val="531278464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1649,7 +1622,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67193088"/>
+        <c:crossAx val="531276928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16289,7 +16262,9 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="B2"/>
+          <cell r="B2">
+            <v>0</v>
+          </cell>
           <cell r="C2" t="str">
             <v>PE</v>
           </cell>
@@ -21948,7 +21923,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22062,7 +22037,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="17">
-        <f t="shared" ref="F3:F25" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F24" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="17">
@@ -22070,7 +22045,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="17">
-        <f t="shared" ref="H3:H25" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H24" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="17">
@@ -22078,11 +22053,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="17">
-        <f t="shared" ref="J3:J25" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J24" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="17">
-        <f t="shared" ref="K3:K25" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K24" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="16">
@@ -22142,7 +22117,7 @@
         <v>41.802432432432425</v>
       </c>
       <c r="E4" s="16">
-        <f t="shared" ref="E4:E25" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
+        <f t="shared" ref="E4:E24" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
         <v>15057.369992695269</v>
       </c>
       <c r="F4" s="17">
@@ -22150,7 +22125,7 @@
         <v>3023.1676108578522</v>
       </c>
       <c r="G4" s="17">
-        <f t="shared" ref="G4:G25" si="5">G3+F4</f>
+        <f t="shared" ref="G4:G24" si="5">G3+F4</f>
         <v>3023.1676108578522</v>
       </c>
       <c r="H4" s="17">
@@ -22158,7 +22133,7 @@
         <v>15057.369992695269</v>
       </c>
       <c r="I4" s="17">
-        <f t="shared" ref="I4:I25" si="6">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I24" si="6">IF(E4&gt;0,I3+E4,I3)</f>
         <v>15057.369992695269</v>
       </c>
       <c r="J4" s="17">
@@ -22170,7 +22145,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="16">
-        <f t="shared" ref="L4:L25" si="7">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L24" si="7">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="6"/>
@@ -23249,55 +23224,6 @@
         <v>128021.21163261123</v>
       </c>
       <c r="L24" s="16">
-        <f t="shared" si="7"/>
-        <v>657.86627675392538</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="14">
-        <v>44985</v>
-      </c>
-      <c r="B25" s="15">
-        <f>VLOOKUP(A25,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>3.6777292480468748</v>
-      </c>
-      <c r="C25" s="15">
-        <f>VLOOKUP(A25,[2]myPEPB!$B:$C,2,FALSE)</f>
-        <v>23.979999540000001</v>
-      </c>
-      <c r="D25" s="16">
-        <f>VLOOKUP(A25,[2]myPEPB!$B:$D,3,FALSE)</f>
-        <v>30.732980897288492</v>
-      </c>
-      <c r="E25" s="16">
-        <f t="shared" si="4"/>
-        <v>180130.89098694932</v>
-      </c>
-      <c r="F25" s="17">
-        <f t="shared" si="0"/>
-        <v>48978.834176716817</v>
-      </c>
-      <c r="G25" s="17">
-        <f t="shared" si="5"/>
-        <v>1110901.0222931034</v>
-      </c>
-      <c r="H25" s="17">
-        <f t="shared" si="1"/>
-        <v>4085593.1813725196</v>
-      </c>
-      <c r="I25" s="17">
-        <f t="shared" si="6"/>
-        <v>4099788.7821944868</v>
-      </c>
-      <c r="J25" s="17">
-        <f t="shared" si="2"/>
-        <v>4086251.0476492736</v>
-      </c>
-      <c r="K25" s="17">
-        <f t="shared" si="3"/>
-        <v>-13537.73454521317</v>
-      </c>
-      <c r="L25" s="16">
         <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -405,7 +405,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -472,6 +472,9 @@
                 <c:pt idx="21">
                   <c:v>44957</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>44985</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -480,7 +483,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -547,6 +550,9 @@
                 <c:pt idx="21">
                   <c:v>3919657.8912075376</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>4099788.7821944868</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -588,7 +594,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -655,6 +661,9 @@
                 <c:pt idx="21">
                   <c:v>44957</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>44985</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -663,7 +672,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -730,6 +739,9 @@
                 <c:pt idx="21">
                   <c:v>4047679.1028401488</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>4086251.0476492736</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -771,7 +783,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -838,6 +850,9 @@
                 <c:pt idx="21">
                   <c:v>44957</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>44985</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -846,7 +861,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -913,6 +928,9 @@
                 <c:pt idx="21">
                   <c:v>128021.21163261123</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>-13537.73454521317</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -933,11 +951,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88564864"/>
-        <c:axId val="88566784"/>
+        <c:axId val="496222976"/>
+        <c:axId val="496224512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="88564864"/>
+        <c:axId val="496222976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -980,14 +998,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88566784"/>
+        <c:crossAx val="496224512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="88566784"/>
+        <c:axId val="496224512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1038,7 +1056,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88564864"/>
+        <c:crossAx val="496222976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1198,7 +1216,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1265,6 +1283,9 @@
                 <c:pt idx="21">
                   <c:v>147690.02391911903</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>180130.89098694932</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1278,8 +1299,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="531278464"/>
-        <c:axId val="531276928"/>
+        <c:axId val="494619264"/>
+        <c:axId val="494617728"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1304,7 +1325,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1371,6 +1392,9 @@
                 <c:pt idx="21">
                   <c:v>44957</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>44985</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1379,7 +1403,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1446,6 +1470,9 @@
                 <c:pt idx="21">
                   <c:v>3.8110336914062501</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6777292480468748</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1461,11 +1488,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="531241984"/>
-        <c:axId val="531256832"/>
+        <c:axId val="494602112"/>
+        <c:axId val="494603648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="531241984"/>
+        <c:axId val="494602112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1508,14 +1535,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531256832"/>
+        <c:crossAx val="494603648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="531256832"/>
+        <c:axId val="494603648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1566,12 +1593,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531241984"/>
+        <c:crossAx val="494602112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="531276928"/>
+        <c:axId val="494617728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1608,12 +1635,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531278464"/>
+        <c:crossAx val="494619264"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="531278464"/>
+        <c:axId val="494619264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1622,7 +1649,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531276928"/>
+        <c:crossAx val="494617728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21923,7 +21950,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22037,7 +22064,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="17">
-        <f t="shared" ref="F3:F24" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F25" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="17">
@@ -22045,7 +22072,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="17">
-        <f t="shared" ref="H3:H24" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H25" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="17">
@@ -22053,11 +22080,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="17">
-        <f t="shared" ref="J3:J24" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J25" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="17">
-        <f t="shared" ref="K3:K24" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K25" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="16">
@@ -22117,7 +22144,7 @@
         <v>41.802432432432425</v>
       </c>
       <c r="E4" s="16">
-        <f t="shared" ref="E4:E24" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
+        <f t="shared" ref="E4:E25" si="4">IF(C4&lt;D4,$E$2*(D4-C4)^2,-$E$2*(D4-C4)^2)</f>
         <v>15057.369992695269</v>
       </c>
       <c r="F4" s="17">
@@ -22125,7 +22152,7 @@
         <v>3023.1676108578522</v>
       </c>
       <c r="G4" s="17">
-        <f t="shared" ref="G4:G24" si="5">G3+F4</f>
+        <f t="shared" ref="G4:G25" si="5">G3+F4</f>
         <v>3023.1676108578522</v>
       </c>
       <c r="H4" s="17">
@@ -22133,7 +22160,7 @@
         <v>15057.369992695269</v>
       </c>
       <c r="I4" s="17">
-        <f t="shared" ref="I4:I24" si="6">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I25" si="6">IF(E4&gt;0,I3+E4,I3)</f>
         <v>15057.369992695269</v>
       </c>
       <c r="J4" s="17">
@@ -22145,7 +22172,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="16">
-        <f t="shared" ref="L4:L24" si="7">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L25" si="7">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="6"/>
@@ -23224,6 +23251,55 @@
         <v>128021.21163261123</v>
       </c>
       <c r="L24" s="16">
+        <f t="shared" si="7"/>
+        <v>657.86627675392538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>44985</v>
+      </c>
+      <c r="B25" s="15">
+        <f>VLOOKUP(A25,[1]szse_innovation_100!$A:$F,6)</f>
+        <v>3.6777292480468748</v>
+      </c>
+      <c r="C25" s="15">
+        <f>VLOOKUP(A25,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>23.979999540000001</v>
+      </c>
+      <c r="D25" s="16">
+        <f>VLOOKUP(A25,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>30.732980897288492</v>
+      </c>
+      <c r="E25" s="16">
+        <f t="shared" si="4"/>
+        <v>180130.89098694932</v>
+      </c>
+      <c r="F25" s="17">
+        <f t="shared" si="0"/>
+        <v>48978.834176716817</v>
+      </c>
+      <c r="G25" s="17">
+        <f t="shared" si="5"/>
+        <v>1110901.0222931034</v>
+      </c>
+      <c r="H25" s="17">
+        <f t="shared" si="1"/>
+        <v>4085593.1813725196</v>
+      </c>
+      <c r="I25" s="17">
+        <f t="shared" si="6"/>
+        <v>4099788.7821944868</v>
+      </c>
+      <c r="J25" s="17">
+        <f t="shared" si="2"/>
+        <v>4086251.0476492736</v>
+      </c>
+      <c r="K25" s="17">
+        <f t="shared" si="3"/>
+        <v>-13537.73454521317</v>
+      </c>
+      <c r="L25" s="16">
         <f t="shared" si="7"/>
         <v>657.86627675392538</v>
       </c>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -951,11 +951,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496222976"/>
-        <c:axId val="496224512"/>
+        <c:axId val="262609920"/>
+        <c:axId val="262648576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496222976"/>
+        <c:axId val="262609920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,14 +998,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496224512"/>
+        <c:crossAx val="262648576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496224512"/>
+        <c:axId val="262648576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1056,7 +1056,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496222976"/>
+        <c:crossAx val="262609920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1299,8 +1299,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="494619264"/>
-        <c:axId val="494617728"/>
+        <c:axId val="271536512"/>
+        <c:axId val="269118080"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1488,11 +1488,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494602112"/>
-        <c:axId val="494603648"/>
+        <c:axId val="269077504"/>
+        <c:axId val="269116544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494602112"/>
+        <c:axId val="269077504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1535,14 +1535,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494603648"/>
+        <c:crossAx val="269116544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494603648"/>
+        <c:axId val="269116544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1593,12 +1593,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494602112"/>
+        <c:crossAx val="269077504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="494617728"/>
+        <c:axId val="269118080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1635,12 +1635,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494619264"/>
+        <c:crossAx val="271536512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="494619264"/>
+        <c:axId val="271536512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1649,7 +1649,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="494617728"/>
+        <c:crossAx val="269118080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -951,11 +951,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="262609920"/>
-        <c:axId val="262648576"/>
+        <c:axId val="256823296"/>
+        <c:axId val="256824832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="262609920"/>
+        <c:axId val="256823296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,14 +998,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262648576"/>
+        <c:crossAx val="256824832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="262648576"/>
+        <c:axId val="256824832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1056,7 +1056,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262609920"/>
+        <c:crossAx val="256823296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1299,8 +1299,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="271536512"/>
-        <c:axId val="269118080"/>
+        <c:axId val="45282048"/>
+        <c:axId val="262327296"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1488,11 +1488,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="269077504"/>
-        <c:axId val="269116544"/>
+        <c:axId val="262126976"/>
+        <c:axId val="262325760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="269077504"/>
+        <c:axId val="262126976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1535,14 +1535,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269116544"/>
+        <c:crossAx val="262325760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="269116544"/>
+        <c:axId val="262325760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1593,12 +1593,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269077504"/>
+        <c:crossAx val="262126976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269118080"/>
+        <c:axId val="262327296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1635,12 +1635,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271536512"/>
+        <c:crossAx val="45282048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="271536512"/>
+        <c:axId val="45282048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1649,7 +1649,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269118080"/>
+        <c:crossAx val="262327296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -401,7 +401,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -470,6 +470,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -479,7 +482,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -548,6 +551,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4099788.7821944868</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4253465.4489123002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -590,7 +596,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -659,6 +665,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,7 +677,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -737,6 +746,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4086251.0476492736</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4282662.6880684253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -779,7 +791,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -848,6 +860,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -857,7 +872,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -926,6 +941,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-13537.73454521317</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29197.239156125113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -947,11 +965,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80927744"/>
-        <c:axId val="82256640"/>
+        <c:axId val="369321472"/>
+        <c:axId val="369323392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80927744"/>
+        <c:axId val="369321472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,14 +1012,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82256640"/>
+        <c:crossAx val="369323392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="82256640"/>
+        <c:axId val="369323392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1052,7 +1070,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80927744"/>
+        <c:crossAx val="369321472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1212,7 +1230,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1281,6 +1299,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>180130.89098694932</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>153676.66671781347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1295,8 +1316,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="495139840"/>
-        <c:axId val="495138304"/>
+        <c:axId val="551162240"/>
+        <c:axId val="473733760"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1321,7 +1342,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1390,6 +1411,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1399,7 +1423,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1468,6 +1492,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>3.6777292480468748</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.7161979980468751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1484,11 +1511,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="478349184"/>
-        <c:axId val="478350720"/>
+        <c:axId val="473467904"/>
+        <c:axId val="473732224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="478349184"/>
+        <c:axId val="473467904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1531,14 +1558,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478350720"/>
+        <c:crossAx val="473732224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="478350720"/>
+        <c:axId val="473732224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1589,12 +1616,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478349184"/>
+        <c:crossAx val="473467904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="495138304"/>
+        <c:axId val="473733760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1631,12 +1658,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495139840"/>
+        <c:crossAx val="551162240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="495139840"/>
+        <c:axId val="551162240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1645,7 +1672,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="495138304"/>
+        <c:crossAx val="473733760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2054,7 +2081,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2177,11 +2204,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="17">
-        <f t="shared" ref="J3:J25" si="0">H3+L3</f>
+        <f t="shared" ref="J3:J26" si="0">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="17">
-        <f t="shared" ref="K3:K25" si="1">J3-I3</f>
+        <f t="shared" ref="K3:K26" si="1">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="16">
@@ -2261,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="16">
-        <f t="shared" ref="L4:L25" si="2">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L26" si="2">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="6"/>
@@ -3221,6 +3248,47 @@
         <v>-13537.73454521317</v>
       </c>
       <c r="L25" s="16">
+        <f t="shared" si="2"/>
+        <v>657.86627675392538</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
+        <v>45016</v>
+      </c>
+      <c r="B26" s="15">
+        <v>3.7161979980468751</v>
+      </c>
+      <c r="C26" s="15">
+        <v>24.159999849999998</v>
+      </c>
+      <c r="D26" s="16">
+        <v>30.397426021508249</v>
+      </c>
+      <c r="E26" s="16">
+        <v>153676.66671781347</v>
+      </c>
+      <c r="F26" s="17">
+        <v>41353.196680742367</v>
+      </c>
+      <c r="G26" s="17">
+        <v>1152254.2189738457</v>
+      </c>
+      <c r="H26" s="17">
+        <v>4282004.8217916712</v>
+      </c>
+      <c r="I26" s="17">
+        <v>4253465.4489123002</v>
+      </c>
+      <c r="J26" s="17">
+        <f t="shared" si="0"/>
+        <v>4282662.6880684253</v>
+      </c>
+      <c r="K26" s="17">
+        <f t="shared" si="1"/>
+        <v>29197.239156125113</v>
+      </c>
+      <c r="L26" s="16">
         <f t="shared" si="2"/>
         <v>657.86627675392538</v>
       </c>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -965,11 +965,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="483406592"/>
-        <c:axId val="483408128"/>
+        <c:axId val="253258752"/>
+        <c:axId val="253424768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="483406592"/>
+        <c:axId val="253258752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,14 +1012,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483408128"/>
+        <c:crossAx val="253424768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="483408128"/>
+        <c:axId val="253424768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1070,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483406592"/>
+        <c:crossAx val="253258752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1196,7 +1196,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1317,8 +1316,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="617263104"/>
-        <c:axId val="613554048"/>
+        <c:axId val="254875520"/>
+        <c:axId val="254873984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1512,11 +1511,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="612407936"/>
-        <c:axId val="613552512"/>
+        <c:axId val="254318080"/>
+        <c:axId val="254812928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="612407936"/>
+        <c:axId val="254318080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,14 +1558,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613552512"/>
+        <c:crossAx val="254812928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="613552512"/>
+        <c:axId val="254812928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1617,12 +1616,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="612407936"/>
+        <c:crossAx val="254318080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="613554048"/>
+        <c:axId val="254873984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1659,12 +1658,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617263104"/>
+        <c:crossAx val="254875520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617263104"/>
+        <c:axId val="254875520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1673,7 +1672,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="613554048"/>
+        <c:crossAx val="254873984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2205,15 +2204,12 @@
         <v>0</v>
       </c>
       <c r="J3" s="17">
-        <f t="shared" ref="J3:J26" si="0">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="17">
-        <f t="shared" ref="K3:K26" si="1">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="16">
-        <f>IF(E3&lt;0,L2-E3,L2)</f>
         <v>0</v>
       </c>
       <c r="M3" s="6"/>
@@ -2281,15 +2277,12 @@
         <v>15057.369992695269</v>
       </c>
       <c r="J4" s="17">
-        <f t="shared" si="0"/>
         <v>15057.369992695269</v>
       </c>
       <c r="K4" s="17">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L4" s="16">
-        <f t="shared" ref="L4:L26" si="2">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="6"/>
@@ -2321,11 +2314,11 @@
         <v>44925</v>
       </c>
       <c r="Z4" s="1">
-        <v>3771967.8672884186</v>
+        <v>3518640.0716485092</v>
       </c>
       <c r="AA4" s="1">
         <f>-Z4</f>
-        <v>-3771967.8672884186</v>
+        <v>-3518640.0716485092</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2357,15 +2350,12 @@
         <v>15057.369992695269</v>
       </c>
       <c r="J5" s="17">
-        <f t="shared" si="0"/>
         <v>15452.860779547693</v>
       </c>
       <c r="K5" s="17">
-        <f t="shared" si="1"/>
         <v>395.49078685242421</v>
       </c>
       <c r="L5" s="16">
-        <f t="shared" si="2"/>
         <v>657.86627675392538</v>
       </c>
       <c r="M5" s="6"/>
@@ -2391,13 +2381,13 @@
         <v>-5.7885470312573274E-2</v>
       </c>
       <c r="W5" s="8">
-        <v>-0.11201891251168983</v>
+        <v>-5.4345791240333341E-2</v>
       </c>
       <c r="Y5" s="19">
         <v>44925</v>
       </c>
       <c r="AA5" s="1">
-        <v>3554665.8226579186</v>
+        <v>3560170.9704664377</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2429,20 +2419,17 @@
         <v>19011.31844749668</v>
       </c>
       <c r="J6" s="17">
-        <f t="shared" si="0"/>
         <v>19019.5878494305</v>
       </c>
       <c r="K6" s="17">
-        <f t="shared" si="1"/>
         <v>8.2694019338196085</v>
       </c>
       <c r="L6" s="16">
-        <f t="shared" si="2"/>
         <v>657.86627675392538</v>
       </c>
       <c r="M6" s="6"/>
       <c r="AA6" s="2">
-        <v>-0.11201891251168983</v>
+        <v>-5.4345791240333341E-2</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2474,15 +2461,12 @@
         <v>45400.106469620208</v>
       </c>
       <c r="J7" s="17">
-        <f t="shared" si="0"/>
         <v>44610.15723019126</v>
       </c>
       <c r="K7" s="17">
-        <f t="shared" si="1"/>
         <v>-789.9492394289482</v>
       </c>
       <c r="L7" s="16">
-        <f t="shared" si="2"/>
         <v>657.86627675392538</v>
       </c>
       <c r="M7" s="6"/>
@@ -2516,15 +2500,12 @@
         <v>133057.78626791219</v>
       </c>
       <c r="J8" s="17">
-        <f t="shared" si="0"/>
         <v>131800.09546521373</v>
       </c>
       <c r="K8" s="17">
-        <f t="shared" si="1"/>
         <v>-1257.6908026984602</v>
       </c>
       <c r="L8" s="16">
-        <f t="shared" si="2"/>
         <v>657.86627675392538</v>
       </c>
       <c r="M8" s="6"/>
@@ -2558,15 +2539,12 @@
         <v>167517.16799780785</v>
       </c>
       <c r="J9" s="17">
-        <f t="shared" si="0"/>
         <v>170637.52921398092</v>
       </c>
       <c r="K9" s="17">
-        <f t="shared" si="1"/>
         <v>3120.3612161730707</v>
       </c>
       <c r="L9" s="16">
-        <f t="shared" si="2"/>
         <v>657.86627675392538</v>
       </c>
       <c r="M9" s="6"/>
@@ -2600,15 +2578,12 @@
         <v>209123.5851968638</v>
       </c>
       <c r="J10" s="17">
-        <f t="shared" si="0"/>
         <v>215275.21819342475</v>
       </c>
       <c r="K10" s="17">
-        <f t="shared" si="1"/>
         <v>6151.6329965609475</v>
       </c>
       <c r="L10" s="16">
-        <f t="shared" si="2"/>
         <v>657.86627675392538</v>
       </c>
       <c r="M10" s="6"/>
@@ -2642,15 +2617,12 @@
         <v>260275.18576464822</v>
       </c>
       <c r="J11" s="17">
-        <f t="shared" si="0"/>
         <v>262454.74910559482</v>
       </c>
       <c r="K11" s="17">
-        <f t="shared" si="1"/>
         <v>2179.5633409465954</v>
       </c>
       <c r="L11" s="16">
-        <f t="shared" si="2"/>
         <v>657.86627675392538</v>
       </c>
       <c r="M11" s="6"/>
@@ -2684,15 +2656,12 @@
         <v>437051.31262262433</v>
       </c>
       <c r="J12" s="17">
-        <f t="shared" si="0"/>
         <v>411291.93533102429</v>
       </c>
       <c r="K12" s="17">
-        <f t="shared" si="1"/>
         <v>-25759.377291600045</v>
       </c>
       <c r="L12" s="16">
-        <f t="shared" si="2"/>
         <v>657.86627675392538</v>
       </c>
       <c r="M12" s="6"/>
@@ -2726,15 +2695,12 @@
         <v>589827.70011059835</v>
       </c>
       <c r="J13" s="17">
-        <f t="shared" si="0"/>
         <v>563265.80093122798</v>
       </c>
       <c r="K13" s="17">
-        <f t="shared" si="1"/>
         <v>-26561.899179370375</v>
       </c>
       <c r="L13" s="16">
-        <f t="shared" si="2"/>
         <v>657.86627675392538</v>
       </c>
       <c r="M13" s="6"/>
@@ -2768,15 +2734,12 @@
         <v>888806.09136624332</v>
       </c>
       <c r="J14" s="17">
-        <f t="shared" si="0"/>
         <v>801294.16393625352</v>
       </c>
       <c r="K14" s="17">
-        <f t="shared" si="1"/>
         <v>-87511.927429989795</v>
       </c>
       <c r="L14" s="16">
-        <f t="shared" si="2"/>
         <v>657.86627675392538</v>
       </c>
       <c r="M14" s="6"/>
@@ -2810,15 +2773,12 @@
         <v>1319010.550392495</v>
       </c>
       <c r="J15" s="17">
-        <f t="shared" si="0"/>
         <v>1155979.8827978123</v>
       </c>
       <c r="K15" s="17">
-        <f t="shared" si="1"/>
         <v>-163030.66759468266</v>
       </c>
       <c r="L15" s="16">
-        <f t="shared" si="2"/>
         <v>657.86627675392538</v>
       </c>
       <c r="M15" s="6"/>
@@ -2852,15 +2812,12 @@
         <v>1763676.4212813163</v>
       </c>
       <c r="J16" s="17">
-        <f t="shared" si="0"/>
         <v>1645176.2592709265</v>
       </c>
       <c r="K16" s="17">
-        <f t="shared" si="1"/>
         <v>-118500.16201038985</v>
       </c>
       <c r="L16" s="16">
-        <f t="shared" si="2"/>
         <v>657.86627675392538</v>
       </c>
       <c r="M16" s="6"/>
@@ -2894,15 +2851,12 @@
         <v>1920895.2116506842</v>
       </c>
       <c r="J17" s="17">
-        <f t="shared" si="0"/>
         <v>2016525.9004339518</v>
       </c>
       <c r="K17" s="17">
-        <f t="shared" si="1"/>
         <v>95630.688783267513</v>
       </c>
       <c r="L17" s="16">
-        <f t="shared" si="2"/>
         <v>657.86627675392538</v>
       </c>
       <c r="M17" s="6"/>
@@ -2936,15 +2890,12 @@
         <v>2133454.6209823084</v>
       </c>
       <c r="J18" s="17">
-        <f t="shared" si="0"/>
         <v>2112757.4288516776</v>
       </c>
       <c r="K18" s="17">
-        <f t="shared" si="1"/>
         <v>-20697.192130630836</v>
       </c>
       <c r="L18" s="16">
-        <f t="shared" si="2"/>
         <v>657.86627675392538</v>
       </c>
       <c r="M18" s="6"/>
@@ -2978,15 +2929,12 @@
         <v>2386078.2576552797</v>
       </c>
       <c r="J19" s="17">
-        <f t="shared" si="0"/>
         <v>2272518.8626229991</v>
       </c>
       <c r="K19" s="17">
-        <f t="shared" si="1"/>
         <v>-113559.39503228059</v>
       </c>
       <c r="L19" s="16">
-        <f t="shared" si="2"/>
         <v>657.86627675392538</v>
       </c>
       <c r="M19" s="6"/>
@@ -3020,15 +2968,12 @@
         <v>2783426.6719821105</v>
       </c>
       <c r="J20" s="17">
-        <f t="shared" si="0"/>
         <v>2452340.6509319474</v>
       </c>
       <c r="K20" s="17">
-        <f t="shared" si="1"/>
         <v>-331086.02105016308</v>
       </c>
       <c r="L20" s="16">
-        <f t="shared" si="2"/>
         <v>657.86627675392538</v>
       </c>
       <c r="M20" s="7"/>
@@ -3063,15 +3008,12 @@
         <v>3177957.0157916369</v>
       </c>
       <c r="J21" s="17">
-        <f t="shared" si="0"/>
         <v>2811476.8556647277</v>
       </c>
       <c r="K21" s="17">
-        <f t="shared" si="1"/>
         <v>-366480.16012690915</v>
       </c>
       <c r="L21" s="16">
-        <f t="shared" si="2"/>
         <v>657.86627675392538</v>
       </c>
     </row>
@@ -3104,15 +3046,12 @@
         <v>3491367.8882929226</v>
       </c>
       <c r="J22" s="17">
-        <f t="shared" si="0"/>
         <v>3278991.3368012891</v>
       </c>
       <c r="K22" s="17">
-        <f t="shared" si="1"/>
         <v>-212376.55149163352</v>
       </c>
       <c r="L22" s="16">
-        <f t="shared" si="2"/>
         <v>657.86627675392538</v>
       </c>
     </row>
@@ -3145,15 +3084,12 @@
         <v>3778915.2574131573</v>
       </c>
       <c r="J23" s="17">
-        <f t="shared" si="0"/>
         <v>3560170.9704664377</v>
       </c>
       <c r="K23" s="17">
-        <f t="shared" si="1"/>
         <v>-218744.28694671951</v>
       </c>
       <c r="L23" s="16">
-        <f t="shared" si="2"/>
         <v>657.86627675392538</v>
       </c>
     </row>
@@ -3186,15 +3122,12 @@
         <v>3926375.3409039653</v>
       </c>
       <c r="J24" s="17">
-        <f t="shared" si="0"/>
         <v>4053489.2149225362</v>
       </c>
       <c r="K24" s="17">
-        <f t="shared" si="1"/>
         <v>127113.87401857087</v>
       </c>
       <c r="L24" s="16">
-        <f t="shared" si="2"/>
         <v>657.86627675392538</v>
       </c>
     </row>
@@ -3227,15 +3160,12 @@
         <v>4106263.2945428016</v>
       </c>
       <c r="J25" s="17">
-        <f t="shared" si="0"/>
         <v>4091614.9930710532</v>
       </c>
       <c r="K25" s="17">
-        <f t="shared" si="1"/>
         <v>-14648.301471748389</v>
       </c>
       <c r="L25" s="16">
-        <f t="shared" si="2"/>
         <v>657.86627675392538</v>
       </c>
     </row>
@@ -3268,15 +3198,12 @@
         <v>4259726.2363496125</v>
       </c>
       <c r="J26" s="17">
-        <f t="shared" si="0"/>
         <v>4287869.0150137786</v>
       </c>
       <c r="K26" s="17">
-        <f t="shared" si="1"/>
         <v>28142.778664166108</v>
       </c>
       <c r="L26" s="16">
-        <f t="shared" si="2"/>
         <v>657.86627675392538</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -401,7 +401,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -473,6 +473,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -482,7 +485,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -554,6 +557,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>4259726.2363496125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4430455.1153657371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -596,7 +602,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -668,6 +674,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -677,7 +686,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -749,6 +758,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>4287869.0150137786</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4342932.4123021867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -791,7 +803,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -863,6 +875,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -872,7 +887,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -944,6 +959,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>28142.778664166108</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-87522.703063550405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -965,11 +983,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="253258752"/>
-        <c:axId val="253424768"/>
+        <c:axId val="41081088"/>
+        <c:axId val="41103744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="253258752"/>
+        <c:axId val="41081088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,14 +1030,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253424768"/>
+        <c:crossAx val="41103744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="253424768"/>
+        <c:axId val="41103744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1088,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253258752"/>
+        <c:crossAx val="41081088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1196,6 +1214,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1230,7 +1249,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1302,6 +1321,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>153462.94180681123</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>170728.87901612459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1316,8 +1338,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="254875520"/>
-        <c:axId val="254873984"/>
+        <c:axId val="610847360"/>
+        <c:axId val="610845440"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1342,7 +1364,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1414,6 +1436,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1423,7 +1448,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1495,6 +1520,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>3.7161979980468751</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6159379882812499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1511,11 +1539,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="254318080"/>
-        <c:axId val="254812928"/>
+        <c:axId val="82306560"/>
+        <c:axId val="82308096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="254318080"/>
+        <c:axId val="82306560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,14 +1586,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254812928"/>
+        <c:crossAx val="82308096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="254812928"/>
+        <c:axId val="82308096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1616,12 +1644,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254318080"/>
+        <c:crossAx val="82306560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="254873984"/>
+        <c:axId val="610845440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1658,12 +1686,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254875520"/>
+        <c:crossAx val="610847360"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="254875520"/>
+        <c:axId val="610847360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1672,7 +1700,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254873984"/>
+        <c:crossAx val="610845440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2081,7 +2109,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3207,6 +3235,44 @@
         <v>657.86627675392538</v>
       </c>
     </row>
+    <row r="27" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>45044</v>
+      </c>
+      <c r="B27" s="15">
+        <v>3.6159379882812499</v>
+      </c>
+      <c r="C27" s="15">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D27" s="16">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E27" s="16">
+        <v>170728.87901612459</v>
+      </c>
+      <c r="F27" s="17">
+        <v>47215.654574119646</v>
+      </c>
+      <c r="G27" s="17">
+        <v>1200870.8556668111</v>
+      </c>
+      <c r="H27" s="17">
+        <v>4342274.5460254326</v>
+      </c>
+      <c r="I27" s="17">
+        <v>4430455.1153657371</v>
+      </c>
+      <c r="J27" s="17">
+        <v>4342932.4123021867</v>
+      </c>
+      <c r="K27" s="17">
+        <v>-87522.703063550405</v>
+      </c>
+      <c r="L27" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -401,7 +401,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -476,6 +476,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -485,7 +491,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -560,6 +566,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4430455.1153657371</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4716133.4036750533</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4928970.1932542296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -602,7 +614,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -677,6 +689,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -686,7 +704,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -761,6 +779,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4342932.4123021867</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4430043.0691781146</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4846029.7311005173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -803,7 +827,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -878,6 +902,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -887,7 +917,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -962,6 +992,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-87522.703063550405</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-286090.33449693862</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-82940.462153712288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -983,11 +1019,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="41081088"/>
-        <c:axId val="41103744"/>
+        <c:axId val="49950720"/>
+        <c:axId val="49952640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="41081088"/>
+        <c:axId val="49950720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1030,14 +1066,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41103744"/>
+        <c:crossAx val="49952640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="41103744"/>
+        <c:axId val="49952640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,7 +1124,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41081088"/>
+        <c:crossAx val="49950720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1249,7 +1285,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1324,6 +1360,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>170728.87901612459</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>285678.28830931569</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>212836.78957917634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1338,8 +1380,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="610847360"/>
-        <c:axId val="610845440"/>
+        <c:axId val="503440896"/>
+        <c:axId val="481428992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1364,7 +1406,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1439,6 +1481,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1448,7 +1496,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1523,6 +1571,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>3.6159379882812499</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.4505849609374999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.608843017578125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1539,11 +1593,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82306560"/>
-        <c:axId val="82308096"/>
+        <c:axId val="450799488"/>
+        <c:axId val="481427456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="82306560"/>
+        <c:axId val="450799488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1586,14 +1640,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82308096"/>
+        <c:crossAx val="481427456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="82308096"/>
+        <c:axId val="481427456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,12 +1698,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82306560"/>
+        <c:crossAx val="450799488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="610845440"/>
+        <c:axId val="481428992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1686,12 +1740,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610847360"/>
+        <c:crossAx val="503440896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="610847360"/>
+        <c:axId val="503440896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1700,7 +1754,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="610845440"/>
+        <c:crossAx val="481428992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2109,7 +2163,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3273,6 +3327,82 @@
         <v>657.86627675392538</v>
       </c>
     </row>
+    <row r="28" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
+        <v>45077</v>
+      </c>
+      <c r="B28" s="15">
+        <v>3.4505849609374999</v>
+      </c>
+      <c r="C28" s="15">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D28" s="16">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E28" s="16">
+        <v>285678.28830931569</v>
+      </c>
+      <c r="F28" s="17">
+        <v>82791.263378050222</v>
+      </c>
+      <c r="G28" s="17">
+        <v>1283662.1190448613</v>
+      </c>
+      <c r="H28" s="17">
+        <v>4429385.2029013606</v>
+      </c>
+      <c r="I28" s="17">
+        <v>4716133.4036750533</v>
+      </c>
+      <c r="J28" s="17">
+        <v>4430043.0691781146</v>
+      </c>
+      <c r="K28" s="17">
+        <v>-286090.33449693862</v>
+      </c>
+      <c r="L28" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
+        <v>45107</v>
+      </c>
+      <c r="B29" s="15">
+        <v>3.608843017578125</v>
+      </c>
+      <c r="C29" s="15">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D29" s="16">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E29" s="16">
+        <v>212836.78957917634</v>
+      </c>
+      <c r="F29" s="17">
+        <v>58976.4610271161</v>
+      </c>
+      <c r="G29" s="17">
+        <v>1342638.5800719773</v>
+      </c>
+      <c r="H29" s="17">
+        <v>4845371.8648237633</v>
+      </c>
+      <c r="I29" s="17">
+        <v>4928970.1932542296</v>
+      </c>
+      <c r="J29" s="17">
+        <v>4846029.7311005173</v>
+      </c>
+      <c r="K29" s="17">
+        <v>-82940.462153712288</v>
+      </c>
+      <c r="L29" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -222,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -275,6 +275,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -401,8 +404,8 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
+                <c:ptCount val="28"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -482,6 +485,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -491,7 +497,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -572,6 +578,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>4928970.1932542296</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5114477.6274139844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -614,8 +623,8 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
+                <c:ptCount val="28"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -695,6 +704,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -704,7 +716,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -785,6 +797,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>4846029.7311005173</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5031537.165260273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -827,8 +842,8 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
+                <c:ptCount val="28"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -908,6 +923,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -917,7 +935,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -998,6 +1016,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-82940.462153712288</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-82940.462153711356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1019,17 +1040,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="49950720"/>
-        <c:axId val="49952640"/>
+        <c:axId val="177715456"/>
+        <c:axId val="356453376"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="49950720"/>
+      <c:catAx>
+        <c:axId val="177715456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -1066,14 +1087,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49952640"/>
+        <c:crossAx val="356453376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="49952640"/>
+        <c:axId val="356453376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1124,7 +1146,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49950720"/>
+        <c:crossAx val="177715456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1285,7 +1307,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1366,6 +1388,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>212836.78957917634</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>185507.43415975483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1380,8 +1405,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="503440896"/>
-        <c:axId val="481428992"/>
+        <c:axId val="593566720"/>
+        <c:axId val="593564800"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1406,8 +1431,8 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
+                <c:ptCount val="28"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1487,6 +1512,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1496,7 +1524,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1576,6 +1604,9 @@
                   <c:v>3.4505849609374999</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>3.608843017578125</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>3.608843017578125</c:v>
                 </c:pt>
               </c:numCache>
@@ -1593,17 +1624,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="450799488"/>
-        <c:axId val="481427456"/>
+        <c:axId val="571360768"/>
+        <c:axId val="571362304"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="450799488"/>
+      <c:catAx>
+        <c:axId val="571360768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1640,14 +1671,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481427456"/>
+        <c:crossAx val="571362304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="481427456"/>
+        <c:axId val="571362304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,12 +1730,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450799488"/>
+        <c:crossAx val="571360768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="481428992"/>
+        <c:axId val="593564800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1740,12 +1772,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503440896"/>
+        <c:crossAx val="593566720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="503440896"/>
+        <c:axId val="593566720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1754,7 +1786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="481428992"/>
+        <c:crossAx val="593564800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2163,7 +2195,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA29"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2258,7 +2290,7 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
+      <c r="A3" s="28">
         <v>44316</v>
       </c>
       <c r="B3" s="15">
@@ -3400,6 +3432,44 @@
         <v>-82940.462153712288</v>
       </c>
       <c r="L29" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
+        <v>45138</v>
+      </c>
+      <c r="B30" s="15">
+        <v>3.608843017578125</v>
+      </c>
+      <c r="C30" s="15">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D30" s="16">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E30" s="16">
+        <v>185507.43415975483</v>
+      </c>
+      <c r="F30" s="17">
+        <v>51403.575399699119</v>
+      </c>
+      <c r="G30" s="17">
+        <v>1394042.1554716765</v>
+      </c>
+      <c r="H30" s="17">
+        <v>5030879.298983519</v>
+      </c>
+      <c r="I30" s="17">
+        <v>5114477.6274139844</v>
+      </c>
+      <c r="J30" s="17">
+        <v>5031537.165260273</v>
+      </c>
+      <c r="K30" s="17">
+        <v>-82940.462153711356</v>
+      </c>
+      <c r="L30" s="16">
         <v>657.86627675392538</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -222,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -275,9 +275,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -405,7 +402,7 @@
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="28"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -624,7 +621,7 @@
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="28"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -799,7 +796,7 @@
                   <c:v>4846029.7311005173</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5031537.165260273</c:v>
+                  <c:v>5060472.4033898367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -843,7 +840,7 @@
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="28"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1018,7 +1015,7 @@
                   <c:v>-82940.462153712288</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-82940.462153711356</c:v>
+                  <c:v>-54005.224024147727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1040,17 +1037,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="177715456"/>
-        <c:axId val="356453376"/>
+        <c:axId val="549814656"/>
+        <c:axId val="549817344"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="177715456"/>
+      <c:dateAx>
+        <c:axId val="549814656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -1087,15 +1084,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356453376"/>
+        <c:crossAx val="549817344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="356453376"/>
+        <c:axId val="549817344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1146,7 +1142,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177715456"/>
+        <c:crossAx val="549814656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1405,8 +1401,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="593566720"/>
-        <c:axId val="593564800"/>
+        <c:axId val="555442560"/>
+        <c:axId val="555354752"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1432,7 +1428,7 @@
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="28"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1607,7 +1603,7 @@
                   <c:v>3.608843017578125</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.608843017578125</c:v>
+                  <c:v>3.6303940429687498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1624,17 +1620,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="571360768"/>
-        <c:axId val="571362304"/>
+        <c:axId val="552092416"/>
+        <c:axId val="552094336"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="571360768"/>
+      <c:dateAx>
+        <c:axId val="552092416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1671,15 +1667,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="571362304"/>
+        <c:crossAx val="552094336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="571362304"/>
+        <c:axId val="552094336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1730,12 +1725,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="571360768"/>
+        <c:crossAx val="552092416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="593564800"/>
+        <c:axId val="555354752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1772,12 +1767,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593566720"/>
+        <c:crossAx val="555442560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="593566720"/>
+        <c:axId val="555442560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1786,7 +1781,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="593564800"/>
+        <c:crossAx val="555354752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2290,7 +2285,7 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
+      <c r="A3" s="14">
         <v>44316</v>
       </c>
       <c r="B3" s="15">
@@ -3440,7 +3435,7 @@
         <v>45138</v>
       </c>
       <c r="B30" s="15">
-        <v>3.608843017578125</v>
+        <v>3.6303940429687498</v>
       </c>
       <c r="C30" s="15">
         <v>22.409999849999998</v>
@@ -3452,22 +3447,22 @@
         <v>185507.43415975483</v>
       </c>
       <c r="F30" s="17">
-        <v>51403.575399699119</v>
+        <v>51098.429526965723</v>
       </c>
       <c r="G30" s="17">
-        <v>1394042.1554716765</v>
+        <v>1393737.0095989432</v>
       </c>
       <c r="H30" s="17">
-        <v>5030879.298983519</v>
+        <v>5059814.5371130826</v>
       </c>
       <c r="I30" s="17">
         <v>5114477.6274139844</v>
       </c>
       <c r="J30" s="17">
-        <v>5031537.165260273</v>
+        <v>5060472.4033898367</v>
       </c>
       <c r="K30" s="17">
-        <v>-82940.462153711356</v>
+        <v>-54005.224024147727</v>
       </c>
       <c r="L30" s="16">
         <v>657.86627675392538</v>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -222,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -275,6 +275,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -401,8 +404,8 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
+                <c:ptCount val="29"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -485,6 +488,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -494,7 +500,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -578,6 +584,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5114477.6274139844</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5370568.2510646563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -620,8 +629,8 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
+                <c:ptCount val="29"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -704,6 +713,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -713,7 +725,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -797,6 +809,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5060472.4033898367</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4971815.2362525882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -839,8 +854,8 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
+                <c:ptCount val="29"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -923,6 +938,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -932,7 +950,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1016,6 +1034,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-54005.224024147727</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-398753.01481206808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1037,17 +1058,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="549814656"/>
-        <c:axId val="549817344"/>
+        <c:axId val="89892352"/>
+        <c:axId val="90329088"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="549814656"/>
+      <c:catAx>
+        <c:axId val="89892352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -1084,14 +1105,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549817344"/>
+        <c:crossAx val="90329088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="549817344"/>
+        <c:axId val="90329088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1142,7 +1164,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549814656"/>
+        <c:crossAx val="89892352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1303,7 +1325,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1387,6 +1409,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>185507.43415975483</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>256090.62365067154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1401,8 +1426,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="555442560"/>
-        <c:axId val="555354752"/>
+        <c:axId val="502913280"/>
+        <c:axId val="502911744"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1427,8 +1452,8 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
+                <c:ptCount val="29"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1511,6 +1536,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1520,7 +1548,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1604,6 +1632,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>3.6303940429687498</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3830390625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1620,17 +1651,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="552092416"/>
-        <c:axId val="552094336"/>
+        <c:axId val="466637568"/>
+        <c:axId val="466639488"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="552092416"/>
+      <c:catAx>
+        <c:axId val="466637568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1667,14 +1698,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552094336"/>
+        <c:crossAx val="466639488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="552094336"/>
+        <c:axId val="466639488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1725,12 +1757,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552092416"/>
+        <c:crossAx val="466637568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="555354752"/>
+        <c:axId val="502911744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1767,12 +1799,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555442560"/>
+        <c:crossAx val="502913280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="555442560"/>
+        <c:axId val="502913280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1781,7 +1813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="555354752"/>
+        <c:crossAx val="502911744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2190,7 +2222,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2285,7 +2317,7 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
+      <c r="A3" s="28">
         <v>44316</v>
       </c>
       <c r="B3" s="15">
@@ -3465,6 +3497,44 @@
         <v>-54005.224024147727</v>
       </c>
       <c r="L30" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="14">
+        <v>45169</v>
+      </c>
+      <c r="B31" s="15">
+        <v>3.3830390625</v>
+      </c>
+      <c r="C31" s="15">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D31" s="16">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E31" s="16">
+        <v>256090.62365067154</v>
+      </c>
+      <c r="F31" s="17">
+        <v>75698.393935015803</v>
+      </c>
+      <c r="G31" s="17">
+        <v>1469435.4035339591</v>
+      </c>
+      <c r="H31" s="17">
+        <v>4971157.3699758342</v>
+      </c>
+      <c r="I31" s="17">
+        <v>5370568.2510646563</v>
+      </c>
+      <c r="J31" s="17">
+        <v>4971815.2362525882</v>
+      </c>
+      <c r="K31" s="17">
+        <v>-398753.01481206808</v>
+      </c>
+      <c r="L31" s="16">
         <v>657.86627675392538</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -404,7 +404,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -491,6 +491,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -500,7 +503,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -587,6 +590,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5370568.2510646563</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5718998.8921297649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -629,7 +635,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -716,6 +722,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -725,7 +734,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -812,6 +821,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>4971815.2362525882</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5097075.3754059775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -854,7 +866,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -941,6 +953,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,7 +965,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1037,6 +1052,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-398753.01481206808</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-621923.51672378741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,11 +1076,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89892352"/>
-        <c:axId val="90329088"/>
+        <c:axId val="103504896"/>
+        <c:axId val="296957824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89892352"/>
+        <c:axId val="103504896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,7 +1123,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90329088"/>
+        <c:crossAx val="296957824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1113,7 +1131,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90329088"/>
+        <c:axId val="296957824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1164,7 +1182,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89892352"/>
+        <c:crossAx val="103504896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1325,7 +1343,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1412,6 +1430,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>256090.62365067154</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>348430.64106510871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1426,8 +1447,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="502913280"/>
-        <c:axId val="502911744"/>
+        <c:axId val="451194240"/>
+        <c:axId val="451192704"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1452,7 +1473,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1539,6 +1560,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1548,7 +1572,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1635,6 +1659,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>3.3830390625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.2311640625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1651,11 +1678,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="466637568"/>
-        <c:axId val="466639488"/>
+        <c:axId val="451179648"/>
+        <c:axId val="451191168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="466637568"/>
+        <c:axId val="451179648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,7 +1725,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466639488"/>
+        <c:crossAx val="451191168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1706,7 +1733,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="466639488"/>
+        <c:axId val="451191168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1757,12 +1784,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466637568"/>
+        <c:crossAx val="451179648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="502911744"/>
+        <c:axId val="451192704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1799,12 +1826,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502913280"/>
+        <c:crossAx val="451194240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="502913280"/>
+        <c:axId val="451194240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1813,7 +1840,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502911744"/>
+        <c:crossAx val="451192704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2222,7 +2249,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3538,6 +3565,44 @@
         <v>657.86627675392538</v>
       </c>
     </row>
+    <row r="32" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="14">
+        <v>45197</v>
+      </c>
+      <c r="B32" s="15">
+        <v>3.2311640625</v>
+      </c>
+      <c r="C32" s="15">
+        <v>19.25</v>
+      </c>
+      <c r="D32" s="16">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E32" s="16">
+        <v>348430.64106510871</v>
+      </c>
+      <c r="F32" s="17">
+        <v>107834.40095441106</v>
+      </c>
+      <c r="G32" s="17">
+        <v>1577269.8044883702</v>
+      </c>
+      <c r="H32" s="17">
+        <v>5096417.5091292234</v>
+      </c>
+      <c r="I32" s="17">
+        <v>5718998.8921297649</v>
+      </c>
+      <c r="J32" s="17">
+        <v>5097075.3754059775</v>
+      </c>
+      <c r="K32" s="17">
+        <v>-621923.51672378741</v>
+      </c>
+      <c r="L32" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -222,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -275,9 +275,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -404,8 +401,8 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -494,6 +491,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,7 +503,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -593,6 +593,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>5718998.8921297649</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6083191.8155736588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -635,8 +638,8 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -725,6 +728,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -734,7 +740,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -824,6 +830,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>5097075.3754059775</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5302046.0697069839</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -866,8 +875,8 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -956,6 +965,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -965,7 +977,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1055,6 +1067,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-621923.51672378741</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-781145.74586667493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1076,17 +1091,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103504896"/>
-        <c:axId val="296957824"/>
+        <c:axId val="38931456"/>
+        <c:axId val="40720256"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="103504896"/>
+      <c:dateAx>
+        <c:axId val="38931456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -1123,15 +1138,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296957824"/>
+        <c:crossAx val="40720256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="296957824"/>
+        <c:axId val="40720256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1182,7 +1196,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103504896"/>
+        <c:crossAx val="38931456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1343,7 +1357,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1433,6 +1447,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>348430.64106510871</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>364192.92344389425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1447,8 +1464,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="451194240"/>
-        <c:axId val="451192704"/>
+        <c:axId val="447619456"/>
+        <c:axId val="447551744"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1473,8 +1490,8 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1563,6 +1580,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1572,7 +1592,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1662,6 +1682,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>3.2311640625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.1302160644531249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1678,17 +1701,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451179648"/>
-        <c:axId val="451191168"/>
+        <c:axId val="344149376"/>
+        <c:axId val="444488704"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="451179648"/>
+      <c:dateAx>
+        <c:axId val="344149376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1725,15 +1748,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451191168"/>
+        <c:crossAx val="444488704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="451191168"/>
+        <c:axId val="444488704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1784,12 +1806,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451179648"/>
+        <c:crossAx val="344149376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451192704"/>
+        <c:axId val="447551744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1826,12 +1848,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451194240"/>
+        <c:crossAx val="447619456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="451194240"/>
+        <c:axId val="447619456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1840,7 +1862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451192704"/>
+        <c:crossAx val="447551744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2249,7 +2271,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2344,7 +2366,7 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
+      <c r="A3" s="14">
         <v>44316</v>
       </c>
       <c r="B3" s="15">
@@ -3600,6 +3622,44 @@
         <v>-621923.51672378741</v>
       </c>
       <c r="L32" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="14">
+        <v>45230</v>
+      </c>
+      <c r="B33" s="15">
+        <v>3.1302160644531249</v>
+      </c>
+      <c r="C33" s="15">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D33" s="16">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E33" s="16">
+        <v>364192.92344389425</v>
+      </c>
+      <c r="F33" s="17">
+        <v>116347.53510458449</v>
+      </c>
+      <c r="G33" s="17">
+        <v>1693617.3395929546</v>
+      </c>
+      <c r="H33" s="17">
+        <v>5301388.2034302298</v>
+      </c>
+      <c r="I33" s="17">
+        <v>6083191.8155736588</v>
+      </c>
+      <c r="J33" s="17">
+        <v>5302046.0697069839</v>
+      </c>
+      <c r="K33" s="17">
+        <v>-781145.74586667493</v>
+      </c>
+      <c r="L33" s="16">
         <v>657.86627675392538</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -401,7 +401,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -494,6 +494,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,7 +509,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -596,6 +602,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6083191.8155736588</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6486276.3330609258</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6880146.601980241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -638,7 +650,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -731,6 +743,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -740,7 +758,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -833,6 +851,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>5302046.0697069839</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5595275.768923969</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5931030.6730265608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -875,7 +899,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -968,6 +992,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -977,7 +1007,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1070,6 +1100,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-781145.74586667493</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-891000.56413695682</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-949115.92895368021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,11 +1127,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="38931456"/>
-        <c:axId val="40720256"/>
+        <c:axId val="492738816"/>
+        <c:axId val="493711360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="38931456"/>
+        <c:axId val="492738816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,14 +1174,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40720256"/>
+        <c:crossAx val="493711360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="40720256"/>
+        <c:axId val="493711360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1196,7 +1232,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38931456"/>
+        <c:crossAx val="492738816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1357,7 +1393,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1450,6 +1486,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>364192.92344389425</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>403084.51748726668</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>393870.26891931542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1464,8 +1506,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="447619456"/>
-        <c:axId val="447551744"/>
+        <c:axId val="561578752"/>
+        <c:axId val="516500480"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1490,7 +1532,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1583,6 +1625,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1592,7 +1640,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1685,6 +1733,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3.1302160644531249</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0653520507812502</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.0335100097656249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1701,11 +1755,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="344149376"/>
-        <c:axId val="444488704"/>
+        <c:axId val="511731968"/>
+        <c:axId val="516497792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="344149376"/>
+        <c:axId val="511731968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1748,14 +1802,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444488704"/>
+        <c:crossAx val="516497792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="444488704"/>
+        <c:axId val="516497792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1806,12 +1860,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344149376"/>
+        <c:crossAx val="511731968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="447551744"/>
+        <c:axId val="516500480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1848,12 +1902,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447619456"/>
+        <c:crossAx val="561578752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="447619456"/>
+        <c:axId val="561578752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1862,7 +1916,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="447551744"/>
+        <c:crossAx val="516500480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2271,7 +2325,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA33"/>
+  <dimension ref="A1:AA35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3663,6 +3717,82 @@
         <v>657.86627675392538</v>
       </c>
     </row>
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="14">
+        <v>45260</v>
+      </c>
+      <c r="B34" s="15">
+        <v>3.0653520507812502</v>
+      </c>
+      <c r="C34" s="15">
+        <v>17.93000031</v>
+      </c>
+      <c r="D34" s="16">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E34" s="16">
+        <v>403084.51748726668</v>
+      </c>
+      <c r="F34" s="17">
+        <v>131496.97353181167</v>
+      </c>
+      <c r="G34" s="17">
+        <v>1825114.3131247663</v>
+      </c>
+      <c r="H34" s="17">
+        <v>5594617.9026472149</v>
+      </c>
+      <c r="I34" s="17">
+        <v>6486276.3330609258</v>
+      </c>
+      <c r="J34" s="17">
+        <v>5595275.768923969</v>
+      </c>
+      <c r="K34" s="17">
+        <v>-891000.56413695682</v>
+      </c>
+      <c r="L34" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="14">
+        <v>45289</v>
+      </c>
+      <c r="B35" s="15">
+        <v>3.0335100097656249</v>
+      </c>
+      <c r="C35" s="15">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D35" s="16">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E35" s="16">
+        <v>393870.26891931542</v>
+      </c>
+      <c r="F35" s="17">
+        <v>129839.77888694906</v>
+      </c>
+      <c r="G35" s="17">
+        <v>1954954.0920117153</v>
+      </c>
+      <c r="H35" s="17">
+        <v>5930372.8067498067</v>
+      </c>
+      <c r="I35" s="17">
+        <v>6880146.601980241</v>
+      </c>
+      <c r="J35" s="17">
+        <v>5931030.6730265608</v>
+      </c>
+      <c r="K35" s="17">
+        <v>-949115.92895368021</v>
+      </c>
+      <c r="L35" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -401,7 +401,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -500,6 +500,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -509,7 +512,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -608,6 +611,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>6880146.601980241</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7444842.0136018358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -650,7 +656,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -749,6 +755,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -758,7 +767,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -857,6 +866,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>5931030.6730265608</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5708530.6005531531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -899,7 +911,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -998,6 +1010,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1007,7 +1022,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1106,6 +1121,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-949115.92895368021</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1736311.4130486827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1127,11 +1145,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492738816"/>
-        <c:axId val="493711360"/>
+        <c:axId val="404257792"/>
+        <c:axId val="447947520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492738816"/>
+        <c:axId val="404257792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1174,14 +1192,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493711360"/>
+        <c:crossAx val="447947520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493711360"/>
+        <c:axId val="447947520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1232,7 +1250,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492738816"/>
+        <c:crossAx val="404257792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1393,7 +1411,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1492,6 +1510,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>393870.26891931542</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>564695.41162159434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1506,8 +1527,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="561578752"/>
-        <c:axId val="516500480"/>
+        <c:axId val="487793792"/>
+        <c:axId val="458295552"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1532,7 +1553,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1631,6 +1652,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1640,7 +1664,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1739,6 +1763,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>3.0335100097656249</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.6308430175781252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1755,11 +1782,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511731968"/>
-        <c:axId val="516497792"/>
+        <c:axId val="457934336"/>
+        <c:axId val="458294016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511731968"/>
+        <c:axId val="457934336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1802,14 +1829,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516497792"/>
+        <c:crossAx val="458294016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="516497792"/>
+        <c:axId val="458294016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1860,12 +1887,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511731968"/>
+        <c:crossAx val="457934336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516500480"/>
+        <c:axId val="458295552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1902,12 +1929,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561578752"/>
+        <c:crossAx val="487793792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="561578752"/>
+        <c:axId val="487793792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,7 +1943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="516500480"/>
+        <c:crossAx val="458295552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2325,7 +2352,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA35"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3793,6 +3820,44 @@
         <v>657.86627675392538</v>
       </c>
     </row>
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="14">
+        <v>45322</v>
+      </c>
+      <c r="B36" s="15">
+        <v>2.6308430175781252</v>
+      </c>
+      <c r="C36" s="15">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D36" s="16">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E36" s="16">
+        <v>564695.41162159434</v>
+      </c>
+      <c r="F36" s="17">
+        <v>214644.28240246576</v>
+      </c>
+      <c r="G36" s="17">
+        <v>2169598.3744141809</v>
+      </c>
+      <c r="H36" s="17">
+        <v>5707872.734276399</v>
+      </c>
+      <c r="I36" s="17">
+        <v>7444842.0136018358</v>
+      </c>
+      <c r="J36" s="17">
+        <v>5708530.6005531531</v>
+      </c>
+      <c r="K36" s="17">
+        <v>-1736311.4130486827</v>
+      </c>
+      <c r="L36" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -401,7 +401,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -503,6 +503,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -512,7 +515,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -614,6 +617,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>7444842.0136018358</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7810883.1460298952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -656,7 +662,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -758,6 +764,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -767,7 +776,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -869,6 +878,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>5708530.6005531531</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6880321.6902052686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -911,7 +923,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1013,6 +1025,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,7 +1037,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1124,6 +1139,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-1736311.4130486827</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-930561.45582462661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1145,11 +1163,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="404257792"/>
-        <c:axId val="447947520"/>
+        <c:axId val="92081536"/>
+        <c:axId val="92124672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="404257792"/>
+        <c:axId val="92081536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1192,14 +1210,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447947520"/>
+        <c:crossAx val="92124672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="447947520"/>
+        <c:axId val="92124672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1250,7 +1268,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404257792"/>
+        <c:crossAx val="92081536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1411,7 +1429,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1513,6 +1531,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>564695.41162159434</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>366041.13242805976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1527,8 +1548,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="487793792"/>
-        <c:axId val="458295552"/>
+        <c:axId val="405058304"/>
+        <c:axId val="405011072"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1553,7 +1574,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1655,6 +1676,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1664,7 +1688,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1766,6 +1790,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>2.6308430175781252</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.0022250976562499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1782,11 +1809,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="457934336"/>
-        <c:axId val="458294016"/>
+        <c:axId val="156087424"/>
+        <c:axId val="405009536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="457934336"/>
+        <c:axId val="156087424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1829,14 +1856,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458294016"/>
+        <c:crossAx val="405009536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="458294016"/>
+        <c:axId val="405009536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1887,12 +1914,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457934336"/>
+        <c:crossAx val="156087424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="458295552"/>
+        <c:axId val="405011072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1929,12 +1956,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487793792"/>
+        <c:crossAx val="405058304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="487793792"/>
+        <c:axId val="405058304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,7 +1970,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="458295552"/>
+        <c:crossAx val="405011072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2352,7 +2379,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA36"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3858,6 +3885,44 @@
         <v>657.86627675392538</v>
       </c>
     </row>
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="14">
+        <v>45351</v>
+      </c>
+      <c r="B37" s="15">
+        <v>3.0022250976562499</v>
+      </c>
+      <c r="C37" s="15">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D37" s="16">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E37" s="16">
+        <v>366041.13242805976</v>
+      </c>
+      <c r="F37" s="17">
+        <v>121923.28040752756</v>
+      </c>
+      <c r="G37" s="17">
+        <v>2291521.6548217083</v>
+      </c>
+      <c r="H37" s="17">
+        <v>6879663.8239285145</v>
+      </c>
+      <c r="I37" s="17">
+        <v>7810883.1460298952</v>
+      </c>
+      <c r="J37" s="17">
+        <v>6880321.6902052686</v>
+      </c>
+      <c r="K37" s="17">
+        <v>-930561.45582462661</v>
+      </c>
+      <c r="L37" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -401,7 +401,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -506,6 +506,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -515,7 +518,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -620,6 +623,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>7810883.1460298952</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8143731.5480047083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -662,7 +668,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -767,6 +773,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -776,7 +785,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -881,6 +890,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>6880321.6902052686</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7297493.1658864655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,7 +935,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1028,6 +1040,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1037,7 +1052,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1142,6 +1157,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-930561.45582462661</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-846238.38211824279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1163,11 +1181,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92081536"/>
-        <c:axId val="92124672"/>
+        <c:axId val="490504960"/>
+        <c:axId val="490506880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92081536"/>
+        <c:axId val="490504960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,14 +1228,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92124672"/>
+        <c:crossAx val="490506880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92124672"/>
+        <c:axId val="490506880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,7 +1286,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92081536"/>
+        <c:crossAx val="490504960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1429,7 +1447,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1534,6 +1552,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>366041.13242805976</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>332848.40197481349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1548,8 +1569,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="405058304"/>
-        <c:axId val="405011072"/>
+        <c:axId val="567380608"/>
+        <c:axId val="567378688"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1574,7 +1595,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1679,6 +1700,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1688,7 +1712,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1793,6 +1817,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3.0022250976562499</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.0390229492187499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1809,11 +1836,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156087424"/>
-        <c:axId val="405009536"/>
+        <c:axId val="564298496"/>
+        <c:axId val="564300032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="156087424"/>
+        <c:axId val="564298496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1856,14 +1883,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405009536"/>
+        <c:crossAx val="564300032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="405009536"/>
+        <c:axId val="564300032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1914,12 +1941,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156087424"/>
+        <c:crossAx val="564298496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405011072"/>
+        <c:axId val="567378688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1956,12 +1983,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405058304"/>
+        <c:crossAx val="567380608"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="405058304"/>
+        <c:axId val="567380608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1970,7 +1997,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="405011072"/>
+        <c:crossAx val="567378688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2379,7 +2406,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA37"/>
+  <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3923,6 +3950,44 @@
         <v>657.86627675392538</v>
       </c>
     </row>
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="14">
+        <v>45380</v>
+      </c>
+      <c r="B38" s="15">
+        <v>3.0390229492187499</v>
+      </c>
+      <c r="C38" s="15">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D38" s="16">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E38" s="16">
+        <v>332848.40197481349</v>
+      </c>
+      <c r="F38" s="17">
+        <v>109524.80699771608</v>
+      </c>
+      <c r="G38" s="17">
+        <v>2401046.4618194243</v>
+      </c>
+      <c r="H38" s="17">
+        <v>7296835.2996097114</v>
+      </c>
+      <c r="I38" s="17">
+        <v>8143731.5480047083</v>
+      </c>
+      <c r="J38" s="17">
+        <v>7297493.1658864655</v>
+      </c>
+      <c r="K38" s="17">
+        <v>-846238.38211824279</v>
+      </c>
+      <c r="L38" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -401,7 +401,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -509,6 +509,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -518,7 +521,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -626,6 +629,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>8143731.5480047083</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8428066.6876684092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,7 +674,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -776,6 +782,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -785,7 +794,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -893,6 +902,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7297493.1658864655</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7747706.8513460197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -935,7 +947,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1043,6 +1055,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,7 +1067,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1160,6 +1175,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-846238.38211824279</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-680359.83632238954</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1181,11 +1199,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490504960"/>
-        <c:axId val="490506880"/>
+        <c:axId val="407597440"/>
+        <c:axId val="407598976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490504960"/>
+        <c:axId val="407597440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1228,14 +1246,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490506880"/>
+        <c:crossAx val="407598976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490506880"/>
+        <c:axId val="407598976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1286,7 +1304,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490504960"/>
+        <c:crossAx val="407597440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1447,7 +1465,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1555,6 +1573,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>332848.40197481349</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>284335.13966370182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1569,8 +1590,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="567380608"/>
-        <c:axId val="567378688"/>
+        <c:axId val="458364416"/>
+        <c:axId val="458235264"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1595,7 +1616,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1703,6 +1724,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1712,7 +1736,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1820,6 +1844,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>3.0390229492187499</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.1081088867187501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1836,11 +1863,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="564298496"/>
-        <c:axId val="564300032"/>
+        <c:axId val="458231808"/>
+        <c:axId val="458233728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="564298496"/>
+        <c:axId val="458231808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1883,14 +1910,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564300032"/>
+        <c:crossAx val="458233728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="564300032"/>
+        <c:axId val="458233728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1941,12 +1968,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564298496"/>
+        <c:crossAx val="458231808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="567378688"/>
+        <c:axId val="458235264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1983,12 +2010,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567380608"/>
+        <c:crossAx val="458364416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="567380608"/>
+        <c:axId val="458364416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,7 +2024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="567378688"/>
+        <c:crossAx val="458235264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2406,7 +2433,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA38"/>
+  <dimension ref="A1:AA39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3988,6 +4015,44 @@
         <v>657.86627675392538</v>
       </c>
     </row>
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="14">
+        <v>45412</v>
+      </c>
+      <c r="B39" s="15">
+        <v>3.1081088867187501</v>
+      </c>
+      <c r="C39" s="15">
+        <v>18.11000061</v>
+      </c>
+      <c r="D39" s="16">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E39" s="16">
+        <v>284335.13966370182</v>
+      </c>
+      <c r="F39" s="17">
+        <v>91481.717670411541</v>
+      </c>
+      <c r="G39" s="17">
+        <v>2492528.1794898356</v>
+      </c>
+      <c r="H39" s="17">
+        <v>7747048.9850692656</v>
+      </c>
+      <c r="I39" s="17">
+        <v>8428066.6876684092</v>
+      </c>
+      <c r="J39" s="17">
+        <v>7747706.8513460197</v>
+      </c>
+      <c r="K39" s="17">
+        <v>-680359.83632238954</v>
+      </c>
+      <c r="L39" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -541,97 +541,97 @@
                   <c:v>133057.78626791219</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>167517.16799780785</c:v>
+                  <c:v>167517.1680652448</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>209123.5851968638</c:v>
+                  <c:v>209123.5658202371</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>260275.18576464822</c:v>
+                  <c:v>260275.13658656832</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>437051.31262262433</c:v>
+                  <c:v>437051.24032763776</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>589827.70011059835</c:v>
+                  <c:v>589827.62857830385</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>888806.09136624332</c:v>
+                  <c:v>888806.02103122673</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1319010.550392495</c:v>
+                  <c:v>1319010.481298164</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1763676.4212813163</c:v>
+                  <c:v>1763676.3533594389</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1920895.2116506842</c:v>
+                  <c:v>1920895.1446143824</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2133454.6209823084</c:v>
+                  <c:v>2133454.5544761713</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2386078.2576552797</c:v>
+                  <c:v>2386078.1922119362</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2783426.6719821105</c:v>
+                  <c:v>2783426.5590554052</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3177957.0157916369</c:v>
+                  <c:v>3177956.9036157345</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3491367.8882929226</c:v>
+                  <c:v>3491367.7771099494</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3778915.2574131573</c:v>
+                  <c:v>3778915.1467994382</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3926375.3409039653</c:v>
+                  <c:v>3926375.2307351218</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4106263.2945428016</c:v>
+                  <c:v>4106263.1847244794</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4259726.2363496125</c:v>
+                  <c:v>4259726.1270722775</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4430455.1153657371</c:v>
+                  <c:v>4430455.006317555</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4716133.4036750533</c:v>
+                  <c:v>4716133.2949023377</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4928970.1932542296</c:v>
+                  <c:v>4928970.084747429</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5114477.6274139844</c:v>
+                  <c:v>5114477.5194405084</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5370568.2510646563</c:v>
+                  <c:v>5370568.1436276669</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5718998.8921297649</c:v>
+                  <c:v>5718998.7851925138</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6083191.8155736588</c:v>
+                  <c:v>6083191.709301644</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6486276.3330609258</c:v>
+                  <c:v>6486276.2276792787</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6880146.601980241</c:v>
+                  <c:v>6880146.496732045</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7444842.0136018358</c:v>
+                  <c:v>7444841.9084968325</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7810883.1460298952</c:v>
+                  <c:v>7810883.0412011128</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8143731.5480047083</c:v>
+                  <c:v>8140840.9215566153</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8428066.6876684092</c:v>
+                  <c:v>8425176.0615711026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -814,97 +814,97 @@
                   <c:v>131800.09546521373</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>170637.52921398092</c:v>
+                  <c:v>170637.5292814179</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>215275.21819342475</c:v>
+                  <c:v>215275.19881800067</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>262454.74910559482</c:v>
+                  <c:v>262454.70028731175</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>411291.93533102429</c:v>
+                  <c:v>411291.86860571749</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>563265.80093122798</c:v>
+                  <c:v>563265.73509901762</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>801294.16393625352</c:v>
+                  <c:v>801294.10643324163</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1155979.8827978123</c:v>
+                  <c:v>1155979.8319593659</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1645176.2592709265</c:v>
+                  <c:v>1645176.2076454265</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2016525.9004339518</c:v>
+                  <c:v>2016525.84297193</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2112757.4288516776</c:v>
+                  <c:v>2112757.3752357299</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2272518.8626229991</c:v>
+                  <c:v>2272518.812427165</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2452340.6509319474</c:v>
+                  <c:v>2452340.5580589124</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2811476.8556647277</c:v>
+                  <c:v>2811476.7648832737</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3278991.3368012891</c:v>
+                  <c:v>3278991.2420356562</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3560170.9704664377</c:v>
+                  <c:v>3560170.8764541284</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4053489.2149225362</c:v>
+                  <c:v>4053489.1122204475</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4091614.9930710532</c:v>
+                  <c:v>4091614.8943118565</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4287869.0150137786</c:v>
+                  <c:v>4287868.9157625558</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4342932.4123021867</c:v>
+                  <c:v>4342932.3159578331</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4430043.0691781146</c:v>
+                  <c:v>4430042.9775149552</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4846029.7311005173</c:v>
+                  <c:v>4846029.6354992222</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5060472.4033898367</c:v>
+                  <c:v>5060472.3077509608</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4971815.2362525882</c:v>
+                  <c:v>4971815.1476665037</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5097075.3754059775</c:v>
+                  <c:v>5097075.2912965305</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5302046.0697069839</c:v>
+                  <c:v>5302045.9888905203</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5595275.768923969</c:v>
+                  <c:v>5595275.6906725438</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5931030.6730265608</c:v>
+                  <c:v>5931030.5957214404</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5708530.6005531531</c:v>
+                  <c:v>5708530.53365268</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6880321.6902052686</c:v>
+                  <c:v>6880321.614137033</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7297493.1658864655</c:v>
+                  <c:v>7294602.567266562</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7747706.8513460197</c:v>
+                  <c:v>7744750.54126132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1087,97 +1087,97 @@
                   <c:v>-1257.6908026984602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3120.3612161730707</c:v>
+                  <c:v>3120.3612161730998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6151.6329965609475</c:v>
+                  <c:v>6151.632997763576</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2179.5633409465954</c:v>
+                  <c:v>2179.563700743427</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-25759.377291600045</c:v>
+                  <c:v>-25759.371721920266</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-26561.899179370375</c:v>
+                  <c:v>-26561.893479286227</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-87511.927429989795</c:v>
+                  <c:v>-87511.914597985102</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-163030.66759468266</c:v>
+                  <c:v>-163030.64933879813</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-118500.16201038985</c:v>
+                  <c:v>-118500.14571401244</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>95630.688783267513</c:v>
+                  <c:v>95630.698357547633</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-20697.192130630836</c:v>
+                  <c:v>-20697.179240441415</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-113559.39503228059</c:v>
+                  <c:v>-113559.37978477124</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-331086.02105016308</c:v>
+                  <c:v>-331086.0009964928</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-366480.16012690915</c:v>
+                  <c:v>-366480.13873246079</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-212376.55149163352</c:v>
+                  <c:v>-212376.53507429315</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-218744.28694671951</c:v>
+                  <c:v>-218744.27034530975</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>127113.87401857087</c:v>
+                  <c:v>127113.88148532575</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-14648.301471748389</c:v>
+                  <c:v>-14648.29041262297</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>28142.778664166108</c:v>
+                  <c:v>28142.788690278307</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-87522.703063550405</c:v>
+                  <c:v>-87522.690359721892</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-286090.33449693862</c:v>
+                  <c:v>-286090.3173873825</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-82940.462153712288</c:v>
+                  <c:v>-82940.449248206802</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-54005.224024147727</c:v>
+                  <c:v>-54005.211689547636</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-398753.01481206808</c:v>
+                  <c:v>-398752.99596116319</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-621923.51672378741</c:v>
+                  <c:v>-621923.49389598332</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-781145.74586667493</c:v>
+                  <c:v>-781145.72041112371</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-891000.56413695682</c:v>
+                  <c:v>-891000.53700673487</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-949115.92895368021</c:v>
+                  <c:v>-949115.90101060458</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1736311.4130486827</c:v>
+                  <c:v>-1736311.3748441525</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-930561.45582462661</c:v>
+                  <c:v>-930561.42706407979</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-846238.38211824279</c:v>
+                  <c:v>-846238.35429005325</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-680359.83632238954</c:v>
+                  <c:v>-680425.52030978259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1199,11 +1199,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="407597440"/>
-        <c:axId val="407598976"/>
+        <c:axId val="506721408"/>
+        <c:axId val="506723328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="407597440"/>
+        <c:axId val="506721408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1246,14 +1246,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407598976"/>
+        <c:crossAx val="506723328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="407598976"/>
+        <c:axId val="506723328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,7 +1304,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407597440"/>
+        <c:crossAx val="506721408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1485,97 +1485,97 @@
                   <c:v>87657.679798291982</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34459.381729895649</c:v>
+                  <c:v>34459.3817973326</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41606.417199055955</c:v>
+                  <c:v>41606.397754992307</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51151.60056778443</c:v>
+                  <c:v>51151.570766331228</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>176776.12685797611</c:v>
+                  <c:v>176776.10374106947</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>152776.38748797405</c:v>
+                  <c:v>152776.38825066606</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>298978.39125564491</c:v>
+                  <c:v>298978.39245292288</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>430204.45902625163</c:v>
+                  <c:v>430204.46026693727</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>444665.87088882137</c:v>
+                  <c:v>444665.872061275</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>157218.79036936784</c:v>
+                  <c:v>157218.79125494338</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>212559.40933162411</c:v>
+                  <c:v>212559.40986178888</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>252623.6366729713</c:v>
+                  <c:v>252623.63773576493</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>397348.414326831</c:v>
+                  <c:v>397348.36684346898</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>394530.34380952618</c:v>
+                  <c:v>394530.34456032957</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>313410.87250128563</c:v>
+                  <c:v>313410.87349421479</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>287547.36912023439</c:v>
+                  <c:v>287547.36968948861</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>147460.08349080823</c:v>
+                  <c:v>147460.08393568356</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>179887.95363883613</c:v>
+                  <c:v>179887.95398935772</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>153462.94180681123</c:v>
+                  <c:v>153462.94234779794</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>170728.87901612459</c:v>
+                  <c:v>170728.87924527752</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>285678.28830931569</c:v>
+                  <c:v>285678.28858478251</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>212836.78957917634</c:v>
+                  <c:v>212836.78984509152</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>185507.43415975483</c:v>
+                  <c:v>185507.43469307973</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>256090.62365067154</c:v>
+                  <c:v>256090.62418715825</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>348430.64106510871</c:v>
+                  <c:v>348430.6415648465</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>364192.92344389425</c:v>
+                  <c:v>364192.9241091304</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>403084.51748726668</c:v>
+                  <c:v>403084.51837763441</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>393870.26891931542</c:v>
+                  <c:v>393870.26905276586</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>564695.41162159434</c:v>
+                  <c:v>564695.41176478763</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>366041.13242805976</c:v>
+                  <c:v>366041.1327042802</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>332848.40197481349</c:v>
+                  <c:v>329957.88035550242</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>284335.13966370182</c:v>
+                  <c:v>284335.14001448749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1590,8 +1590,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="458364416"/>
-        <c:axId val="458235264"/>
+        <c:axId val="697763712"/>
+        <c:axId val="697761792"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1863,11 +1863,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="458231808"/>
-        <c:axId val="458233728"/>
+        <c:axId val="693435008"/>
+        <c:axId val="693551872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="458231808"/>
+        <c:axId val="693435008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1910,14 +1910,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458233728"/>
+        <c:crossAx val="693551872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="458233728"/>
+        <c:axId val="693551872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1968,12 +1968,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458231808"/>
+        <c:crossAx val="693435008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="458235264"/>
+        <c:axId val="697761792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2010,12 +2010,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458364416"/>
+        <c:crossAx val="697763712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="458364416"/>
+        <c:axId val="697763712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2024,7 +2024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="458235264"/>
+        <c:crossAx val="697761792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2642,25 +2642,25 @@
         <v>44561</v>
       </c>
       <c r="Q4" s="9">
-        <v>260275.18576464822</v>
+        <v>260275.13658656832</v>
       </c>
       <c r="R4" s="4">
-        <v>260275.18576464822</v>
+        <v>260275.13658656832</v>
       </c>
       <c r="S4" s="4">
-        <v>262454.74910559482</v>
+        <v>262454.70028731175</v>
       </c>
       <c r="T4" s="4">
-        <v>2179.5633409465954</v>
+        <v>2179.563700743427</v>
       </c>
       <c r="U4" s="4">
         <v>657.86627675392538</v>
       </c>
       <c r="V4" s="8">
-        <v>8.3740727512819774E-3</v>
+        <v>8.374075715904955E-3</v>
       </c>
       <c r="W4" s="8">
-        <v>8.3740727512819774E-3</v>
+        <v>8.374075715904955E-3</v>
       </c>
       <c r="Y4" s="19">
         <v>44925</v>
@@ -2715,22 +2715,22 @@
         <v>44925</v>
       </c>
       <c r="Q5" s="9">
-        <v>3518640.0716485092</v>
+        <v>3518640.0102128698</v>
       </c>
       <c r="R5" s="4">
-        <v>3778915.2574131573</v>
+        <v>3778915.1467994382</v>
       </c>
       <c r="S5" s="4">
-        <v>3560170.9704664377</v>
+        <v>3560170.8764541284</v>
       </c>
       <c r="T5" s="4">
-        <v>-218744.28694671951</v>
+        <v>-218744.27034530975</v>
       </c>
       <c r="U5" s="4">
         <v>657.86627675392538</v>
       </c>
       <c r="V5" s="8">
-        <v>-5.7885470312573274E-2</v>
+        <v>-5.7885467613787454E-2</v>
       </c>
       <c r="W5" s="8">
         <v>-5.4345791240333341E-2</v>
@@ -2870,31 +2870,31 @@
         <v>4.8678999999999997</v>
       </c>
       <c r="C9" s="15">
-        <v>36.299999239999998</v>
+        <v>36.299999237060547</v>
       </c>
       <c r="D9" s="16">
-        <v>39.253623134275358</v>
+        <v>39.253623134226025</v>
       </c>
       <c r="E9" s="16">
-        <v>34459.381729895649</v>
+        <v>34459.3817973326</v>
       </c>
       <c r="F9" s="17">
-        <v>7078.9009079676352</v>
+        <v>7078.9009218210322</v>
       </c>
       <c r="G9" s="17">
-        <v>34918.478797269257</v>
+        <v>34918.478811122659</v>
       </c>
       <c r="H9" s="17">
-        <v>169979.662937227</v>
+        <v>169979.66300466398</v>
       </c>
       <c r="I9" s="17">
-        <v>167517.16799780785</v>
+        <v>167517.1680652448</v>
       </c>
       <c r="J9" s="17">
-        <v>170637.52921398092</v>
+        <v>170637.5292814179</v>
       </c>
       <c r="K9" s="17">
-        <v>3120.3612161730707</v>
+        <v>3120.3612161730998</v>
       </c>
       <c r="L9" s="16">
         <v>657.86627675392538</v>
@@ -2909,31 +2909,31 @@
         <v>4.9547099609374996</v>
       </c>
       <c r="C10" s="15">
-        <v>35.450000000000003</v>
+        <v>35.450000762939453</v>
       </c>
       <c r="D10" s="16">
-        <v>38.695499988749994</v>
+        <v>38.695499993324269</v>
       </c>
       <c r="E10" s="16">
-        <v>41606.417199055955</v>
+        <v>41606.397754992307</v>
       </c>
       <c r="F10" s="17">
-        <v>8397.3466715665127</v>
+        <v>8397.3427472069034</v>
       </c>
       <c r="G10" s="17">
-        <v>43315.82546883577</v>
+        <v>43315.821558329561</v>
       </c>
       <c r="H10" s="17">
-        <v>214617.35191667083</v>
+        <v>214617.33254124675</v>
       </c>
       <c r="I10" s="17">
-        <v>209123.5851968638</v>
+        <v>209123.5658202371</v>
       </c>
       <c r="J10" s="17">
-        <v>215275.21819342475</v>
+        <v>215275.19881800067</v>
       </c>
       <c r="K10" s="17">
-        <v>6151.6329965609475</v>
+        <v>6151.632997763576</v>
       </c>
       <c r="L10" s="16">
         <v>657.86627675392538</v>
@@ -2948,31 +2948,31 @@
         <v>4.8630097656249998</v>
       </c>
       <c r="C11" s="15">
-        <v>34.630000000000003</v>
+        <v>34.630001068115234</v>
       </c>
       <c r="D11" s="16">
-        <v>38.228579205136612</v>
+        <v>38.2285792249669</v>
       </c>
       <c r="E11" s="16">
-        <v>51151.60056778443</v>
+        <v>51151.570766331228</v>
       </c>
       <c r="F11" s="17">
-        <v>10518.506651859534</v>
+        <v>10518.500523668426</v>
       </c>
       <c r="G11" s="17">
-        <v>53834.332120695304</v>
+        <v>53834.322081997991</v>
       </c>
       <c r="H11" s="17">
-        <v>261796.88282884087</v>
+        <v>261796.8340105578</v>
       </c>
       <c r="I11" s="17">
-        <v>260275.18576464822</v>
+        <v>260275.13658656832</v>
       </c>
       <c r="J11" s="17">
-        <v>262454.74910559482</v>
+        <v>262454.70028731175</v>
       </c>
       <c r="K11" s="17">
-        <v>2179.5633409465954</v>
+        <v>2179.563700743427</v>
       </c>
       <c r="L11" s="16">
         <v>657.86627675392538</v>
@@ -2987,31 +2987,31 @@
         <v>4.3440297851562502</v>
       </c>
       <c r="C12" s="15">
-        <v>31.02</v>
+        <v>31.020000457763672</v>
       </c>
       <c r="D12" s="16">
-        <v>37.709801928118821</v>
+        <v>37.709801948471814</v>
       </c>
       <c r="E12" s="16">
-        <v>176776.12685797611</v>
+        <v>176776.10374106947</v>
       </c>
       <c r="F12" s="17">
-        <v>40694.041155525287</v>
+        <v>40694.035833990267</v>
       </c>
       <c r="G12" s="17">
-        <v>94528.373276220591</v>
+        <v>94528.35791598825</v>
       </c>
       <c r="H12" s="17">
-        <v>410634.06905427034</v>
+        <v>410634.00232896354</v>
       </c>
       <c r="I12" s="17">
-        <v>437051.31262262433</v>
+        <v>437051.24032763776</v>
       </c>
       <c r="J12" s="17">
-        <v>411291.93533102429</v>
+        <v>411291.86860571749</v>
       </c>
       <c r="K12" s="17">
-        <v>-25759.377291600045</v>
+        <v>-25759.371721920266</v>
       </c>
       <c r="L12" s="16">
         <v>657.86627675392538</v>
@@ -3026,31 +3026,31 @@
         <v>4.3355400390624999</v>
       </c>
       <c r="C13" s="15">
-        <v>30.969999309999999</v>
+        <v>30.969999313354492</v>
       </c>
       <c r="D13" s="16">
-        <v>37.189128385091756</v>
+        <v>37.189128403969853</v>
       </c>
       <c r="E13" s="16">
-        <v>152776.38748797405</v>
+        <v>152776.38825066606</v>
       </c>
       <c r="F13" s="17">
-        <v>35238.144755090259</v>
+        <v>35238.144931006522</v>
       </c>
       <c r="G13" s="17">
-        <v>129766.51803131084</v>
+        <v>129766.50284699477</v>
       </c>
       <c r="H13" s="17">
-        <v>562607.93465447403</v>
+        <v>562607.86882226367</v>
       </c>
       <c r="I13" s="17">
-        <v>589827.70011059835</v>
+        <v>589827.62857830385</v>
       </c>
       <c r="J13" s="17">
-        <v>563265.80093122798</v>
+        <v>563265.73509901762</v>
       </c>
       <c r="K13" s="17">
-        <v>-26561.899179370375</v>
+        <v>-26561.893479286227</v>
       </c>
       <c r="L13" s="16">
         <v>657.86627675392538</v>
@@ -3065,31 +3065,31 @@
         <v>3.8658500976562502</v>
       </c>
       <c r="C14" s="15">
-        <v>27.63999939</v>
+        <v>27.639999389648438</v>
       </c>
       <c r="D14" s="16">
-        <v>36.340041456763494</v>
+        <v>36.340041473831867</v>
       </c>
       <c r="E14" s="16">
-        <v>298978.39125564491</v>
+        <v>298978.39245292288</v>
       </c>
       <c r="F14" s="17">
-        <v>77338.330173978189</v>
+        <v>77338.330483684447</v>
       </c>
       <c r="G14" s="17">
-        <v>207104.84820528905</v>
+        <v>207104.83333067922</v>
       </c>
       <c r="H14" s="17">
-        <v>800636.29765949957</v>
+        <v>800636.24015648768</v>
       </c>
       <c r="I14" s="17">
-        <v>888806.09136624332</v>
+        <v>888806.02103122673</v>
       </c>
       <c r="J14" s="17">
-        <v>801294.16393625352</v>
+        <v>801294.10643324163</v>
       </c>
       <c r="K14" s="17">
-        <v>-87511.927429989795</v>
+        <v>-87511.914597985102</v>
       </c>
       <c r="L14" s="16">
         <v>657.86627675392538</v>
@@ -3104,31 +3104,31 @@
         <v>3.5012099609375</v>
       </c>
       <c r="C15" s="15">
-        <v>25.129999160000001</v>
+        <v>25.129999160766602</v>
       </c>
       <c r="D15" s="16">
-        <v>35.566115356769217</v>
+        <v>35.566115372584406</v>
       </c>
       <c r="E15" s="16">
-        <v>430204.45902625163</v>
+        <v>430204.46026693727</v>
       </c>
       <c r="F15" s="17">
-        <v>122873.08211332122</v>
+        <v>122873.08246768033</v>
       </c>
       <c r="G15" s="17">
-        <v>329977.93031861028</v>
+        <v>329977.91579835955</v>
       </c>
       <c r="H15" s="17">
-        <v>1155322.0165210585</v>
+        <v>1155321.965682612</v>
       </c>
       <c r="I15" s="17">
-        <v>1319010.550392495</v>
+        <v>1319010.481298164</v>
       </c>
       <c r="J15" s="17">
-        <v>1155979.8827978123</v>
+        <v>1155979.8319593659</v>
       </c>
       <c r="K15" s="17">
-        <v>-163030.66759468266</v>
+        <v>-163030.64933879813</v>
       </c>
       <c r="L15" s="16">
         <v>657.86627675392538</v>
@@ -3143,31 +3143,31 @@
         <v>3.6361599121093748</v>
       </c>
       <c r="C16" s="15">
-        <v>24.129999160000001</v>
+        <v>24.129999160766602</v>
       </c>
       <c r="D16" s="16">
-        <v>34.740071647956981</v>
+        <v>34.740071662711408</v>
       </c>
       <c r="E16" s="16">
-        <v>444665.87088882137</v>
+        <v>444665.872061275</v>
       </c>
       <c r="F16" s="17">
-        <v>122289.96568824335</v>
+        <v>122289.96601068616</v>
       </c>
       <c r="G16" s="17">
-        <v>452267.89600685361</v>
+        <v>452267.88180904568</v>
       </c>
       <c r="H16" s="17">
-        <v>1644518.3929941726</v>
+        <v>1644518.3413686727</v>
       </c>
       <c r="I16" s="17">
-        <v>1763676.4212813163</v>
+        <v>1763676.3533594389</v>
       </c>
       <c r="J16" s="17">
-        <v>1645176.2592709265</v>
+        <v>1645176.2076454265</v>
       </c>
       <c r="K16" s="17">
-        <v>-118500.16201038985</v>
+        <v>-118500.14571401244</v>
       </c>
       <c r="L16" s="16">
         <v>657.86627675392538</v>
@@ -3182,31 +3182,31 @@
         <v>4.1096201171875002</v>
       </c>
       <c r="C17" s="15">
-        <v>27.809999470000001</v>
+        <v>27.809999465942383</v>
       </c>
       <c r="D17" s="16">
-        <v>34.118899961366665</v>
+        <v>34.118899975077305</v>
       </c>
       <c r="E17" s="16">
-        <v>157218.79036936784</v>
+        <v>157218.79125494338</v>
       </c>
       <c r="F17" s="17">
-        <v>38256.28303497882</v>
+        <v>38256.283250467241</v>
       </c>
       <c r="G17" s="17">
-        <v>490524.17904183245</v>
+        <v>490524.16505951295</v>
       </c>
       <c r="H17" s="17">
-        <v>2015868.0341571979</v>
+        <v>2015867.9766951762</v>
       </c>
       <c r="I17" s="17">
-        <v>1920895.2116506842</v>
+        <v>1920895.1446143824</v>
       </c>
       <c r="J17" s="17">
-        <v>2016525.9004339518</v>
+        <v>2016525.84297193</v>
       </c>
       <c r="K17" s="17">
-        <v>95630.688783267513</v>
+        <v>95630.698357547633</v>
       </c>
       <c r="L17" s="16">
         <v>657.86627675392538</v>
@@ -3221,31 +3221,31 @@
         <v>3.8724699707031252</v>
       </c>
       <c r="C18" s="15">
-        <v>26.329999919999999</v>
+        <v>26.329999923706055</v>
       </c>
       <c r="D18" s="16">
-        <v>33.665700887975071</v>
+        <v>33.665700900829464</v>
       </c>
       <c r="E18" s="16">
-        <v>212559.40933162411</v>
+        <v>212559.40986178888</v>
       </c>
       <c r="F18" s="17">
-        <v>54889.879312099518</v>
+        <v>54889.879449005624</v>
       </c>
       <c r="G18" s="17">
-        <v>545414.05835393199</v>
+        <v>545414.04450851853</v>
       </c>
       <c r="H18" s="17">
-        <v>2112099.5625749235</v>
+        <v>2112099.5089589758</v>
       </c>
       <c r="I18" s="17">
-        <v>2133454.6209823084</v>
+        <v>2133454.5544761713</v>
       </c>
       <c r="J18" s="17">
-        <v>2112757.4288516776</v>
+        <v>2112757.3752357299</v>
       </c>
       <c r="K18" s="17">
-        <v>-20697.192130630836</v>
+        <v>-20697.179240441415</v>
       </c>
       <c r="L18" s="16">
         <v>657.86627675392538</v>
@@ -3260,31 +3260,31 @@
         <v>3.7022099609375001</v>
       </c>
       <c r="C19" s="15">
-        <v>25.18000031</v>
+        <v>25.180000305175781</v>
       </c>
       <c r="D19" s="16">
-        <v>33.177209264156971</v>
+        <v>33.177209276154976</v>
       </c>
       <c r="E19" s="16">
-        <v>252623.6366729713</v>
+        <v>252623.63773576493</v>
       </c>
       <c r="F19" s="17">
-        <v>68235.902160719197</v>
+        <v>68235.902447789253</v>
       </c>
       <c r="G19" s="17">
-        <v>613649.96051465115</v>
+        <v>613649.94695630774</v>
       </c>
       <c r="H19" s="17">
-        <v>2271860.9963462451</v>
+        <v>2271860.9461504109</v>
       </c>
       <c r="I19" s="17">
-        <v>2386078.2576552797</v>
+        <v>2386078.1922119362</v>
       </c>
       <c r="J19" s="17">
-        <v>2272518.8626229991</v>
+        <v>2272518.812427165</v>
       </c>
       <c r="K19" s="17">
-        <v>-113559.39503228059</v>
+        <v>-113559.37978477124</v>
       </c>
       <c r="L19" s="16">
         <v>657.86627675392538</v>
@@ -3299,31 +3299,31 @@
         <v>3.3477299804687499</v>
       </c>
       <c r="C20" s="15">
-        <v>22.61</v>
+        <v>22.610000610351563</v>
       </c>
       <c r="D20" s="16">
-        <v>32.639682710465742</v>
+        <v>32.639682721540886</v>
       </c>
       <c r="E20" s="16">
-        <v>397348.414326831</v>
+        <v>397348.36684346898</v>
       </c>
       <c r="F20" s="17">
-        <v>118691.89470029903</v>
+        <v>118691.88051654995</v>
       </c>
       <c r="G20" s="17">
-        <v>732341.85521495016</v>
+        <v>732341.82747285767</v>
       </c>
       <c r="H20" s="17">
-        <v>2451682.7846551933</v>
+        <v>2451682.6917821583</v>
       </c>
       <c r="I20" s="17">
-        <v>2783426.6719821105</v>
+        <v>2783426.5590554052</v>
       </c>
       <c r="J20" s="17">
-        <v>2452340.6509319474</v>
+        <v>2452340.5580589124</v>
       </c>
       <c r="K20" s="17">
-        <v>-331086.02105016308</v>
+        <v>-331086.0009964928</v>
       </c>
       <c r="L20" s="16">
         <v>657.86627675392538</v>
@@ -3339,31 +3339,31 @@
         <v>3.2993999023437501</v>
       </c>
       <c r="C21" s="15">
-        <v>22.239999770000001</v>
+        <v>22.239999771118164</v>
       </c>
       <c r="D21" s="16">
-        <v>32.234052986719142</v>
+        <v>32.234052997346801</v>
       </c>
       <c r="E21" s="16">
-        <v>394530.34380952618</v>
+        <v>394530.34456032957</v>
       </c>
       <c r="F21" s="17">
-        <v>119576.3943404584</v>
+        <v>119576.39456801595</v>
       </c>
       <c r="G21" s="17">
-        <v>851918.24955540861</v>
+        <v>851918.2220408736</v>
       </c>
       <c r="H21" s="17">
-        <v>2810818.9893879737</v>
+        <v>2810818.8986065197</v>
       </c>
       <c r="I21" s="17">
-        <v>3177957.0157916369</v>
+        <v>3177956.9036157345</v>
       </c>
       <c r="J21" s="17">
-        <v>2811476.8556647277</v>
+        <v>2811476.7648832737</v>
       </c>
       <c r="K21" s="17">
-        <v>-366480.16012690915</v>
+        <v>-366480.13873246079</v>
       </c>
       <c r="L21" s="16">
         <v>657.86627675392538</v>
@@ -3377,31 +3377,31 @@
         <v>3.4802900390625</v>
       </c>
       <c r="C22" s="15">
-        <v>22.809999470000001</v>
+        <v>22.809999465942383</v>
       </c>
       <c r="D22" s="16">
-        <v>31.717553830421821</v>
+        <v>31.717553840474388</v>
       </c>
       <c r="E22" s="16">
-        <v>313410.87250128563</v>
+        <v>313410.87349421479</v>
       </c>
       <c r="F22" s="17">
-        <v>90053.0901113375</v>
+        <v>90053.090396638188</v>
       </c>
       <c r="G22" s="17">
-        <v>941971.33966674609</v>
+        <v>941971.31243751175</v>
       </c>
       <c r="H22" s="17">
-        <v>3278333.470524535</v>
+        <v>3278333.3757589022</v>
       </c>
       <c r="I22" s="17">
-        <v>3491367.8882929226</v>
+        <v>3491367.7771099494</v>
       </c>
       <c r="J22" s="17">
-        <v>3278991.3368012891</v>
+        <v>3278991.2420356562</v>
       </c>
       <c r="K22" s="17">
-        <v>-212376.55149163352</v>
+        <v>-212376.53507429315</v>
       </c>
       <c r="L22" s="16">
         <v>657.86627675392538</v>
@@ -3415,31 +3415,31 @@
         <v>3.4735300292968749</v>
       </c>
       <c r="C23" s="15">
-        <v>22.739999770000001</v>
+        <v>22.739999771118164</v>
       </c>
       <c r="D23" s="16">
-        <v>31.272103983435283</v>
+        <v>31.2721039929989</v>
       </c>
       <c r="E23" s="16">
-        <v>287547.36912023439</v>
+        <v>287547.36968948861</v>
       </c>
       <c r="F23" s="17">
-        <v>82782.462421504039</v>
+        <v>82782.462585387533</v>
       </c>
       <c r="G23" s="17">
-        <v>1024753.8020882502</v>
+        <v>1024753.7750228993</v>
       </c>
       <c r="H23" s="17">
-        <v>3559513.1041896837</v>
+        <v>3559513.0101773744</v>
       </c>
       <c r="I23" s="17">
-        <v>3778915.2574131573</v>
+        <v>3778915.1467994382</v>
       </c>
       <c r="J23" s="17">
-        <v>3560170.9704664377</v>
+        <v>3560170.8764541284</v>
       </c>
       <c r="K23" s="17">
-        <v>-218744.28694671951</v>
+        <v>-218744.27034530975</v>
       </c>
       <c r="L23" s="16">
         <v>657.86627675392538</v>
@@ -3456,28 +3456,28 @@
         <v>24.899999618530273</v>
       </c>
       <c r="D24" s="16">
-        <v>31.009964160696924</v>
+        <v>31.009964169913562</v>
       </c>
       <c r="E24" s="16">
-        <v>147460.08349080823</v>
+        <v>147460.08393568356</v>
       </c>
       <c r="F24" s="17">
-        <v>38692.936203457255</v>
+        <v>38692.936320190762</v>
       </c>
       <c r="G24" s="17">
-        <v>1063446.7382917074</v>
+        <v>1063446.71134309</v>
       </c>
       <c r="H24" s="17">
-        <v>4052831.3486457821</v>
+        <v>4052831.2459436934</v>
       </c>
       <c r="I24" s="17">
-        <v>3926375.3409039653</v>
+        <v>3926375.2307351218</v>
       </c>
       <c r="J24" s="17">
-        <v>4053489.2149225362</v>
+        <v>4053489.1122204475</v>
       </c>
       <c r="K24" s="17">
-        <v>127113.87401857087</v>
+        <v>127113.88148532575</v>
       </c>
       <c r="L24" s="16">
         <v>657.86627675392538</v>
@@ -3491,31 +3491,31 @@
         <v>3.6777292480468748</v>
       </c>
       <c r="C25" s="15">
-        <v>23.979999540000001</v>
+        <v>23.979999542236328</v>
       </c>
       <c r="D25" s="16">
-        <v>30.728425585070163</v>
+        <v>30.72842559388133</v>
       </c>
       <c r="E25" s="16">
-        <v>179887.95363883613</v>
+        <v>179887.95398935772</v>
       </c>
       <c r="F25" s="17">
-        <v>48912.777832780623</v>
+        <v>48912.777928089869</v>
       </c>
       <c r="G25" s="17">
-        <v>1112359.5161244881</v>
+        <v>1112359.48927118</v>
       </c>
       <c r="H25" s="17">
-        <v>4090957.1267942991</v>
+        <v>4090957.0280351024</v>
       </c>
       <c r="I25" s="17">
-        <v>4106263.2945428016</v>
+        <v>4106263.1847244794</v>
       </c>
       <c r="J25" s="17">
-        <v>4091614.9930710532</v>
+        <v>4091614.8943118565</v>
       </c>
       <c r="K25" s="17">
-        <v>-14648.301471748389</v>
+        <v>-14648.29041262297</v>
       </c>
       <c r="L25" s="16">
         <v>657.86627675392538</v>
@@ -3529,31 +3529,31 @@
         <v>3.7161979980468751</v>
       </c>
       <c r="C26" s="15">
-        <v>24.159999849999998</v>
+        <v>24.159999847412109</v>
       </c>
       <c r="D26" s="16">
-        <v>30.393087180738309</v>
+        <v>30.393087189136843</v>
       </c>
       <c r="E26" s="16">
-        <v>153462.94180681123</v>
+        <v>153462.94234779794</v>
       </c>
       <c r="F26" s="17">
-        <v>41295.684968203219</v>
+        <v>41295.685113778534</v>
       </c>
       <c r="G26" s="17">
-        <v>1153655.2010926914</v>
+        <v>1153655.1743849586</v>
       </c>
       <c r="H26" s="17">
-        <v>4287211.1487370245</v>
+        <v>4287211.0494858017</v>
       </c>
       <c r="I26" s="17">
-        <v>4259726.2363496125</v>
+        <v>4259726.1270722775</v>
       </c>
       <c r="J26" s="17">
-        <v>4287869.0150137786</v>
+        <v>4287868.9157625558</v>
       </c>
       <c r="K26" s="17">
-        <v>28142.778664166108</v>
+        <v>28142.788690278307</v>
       </c>
       <c r="L26" s="16">
         <v>657.86627675392538</v>
@@ -3567,31 +3567,31 @@
         <v>3.6159379882812499</v>
       </c>
       <c r="C27" s="15">
-        <v>23.579999919999999</v>
+        <v>23.579999923706055</v>
       </c>
       <c r="D27" s="16">
-        <v>30.154382097569265</v>
+        <v>30.1543821056874</v>
       </c>
       <c r="E27" s="16">
-        <v>170728.87901612459</v>
+        <v>170728.87924527752</v>
       </c>
       <c r="F27" s="17">
-        <v>47215.654574119646</v>
+        <v>47215.654637492669</v>
       </c>
       <c r="G27" s="17">
-        <v>1200870.8556668111</v>
+        <v>1200870.8290224513</v>
       </c>
       <c r="H27" s="17">
-        <v>4342274.5460254326</v>
+        <v>4342274.449681079</v>
       </c>
       <c r="I27" s="17">
-        <v>4430455.1153657371</v>
+        <v>4430455.006317555</v>
       </c>
       <c r="J27" s="17">
-        <v>4342932.4123021867</v>
+        <v>4342932.3159578331</v>
       </c>
       <c r="K27" s="17">
-        <v>-87522.703063550405</v>
+        <v>-87522.690359721892</v>
       </c>
       <c r="L27" s="16">
         <v>657.86627675392538</v>
@@ -3605,31 +3605,31 @@
         <v>3.4505849609374999</v>
       </c>
       <c r="C28" s="15">
-        <v>21.329999919999999</v>
+        <v>21.329999923706055</v>
       </c>
       <c r="D28" s="16">
-        <v>29.834329246495866</v>
+        <v>29.834329254302094</v>
       </c>
       <c r="E28" s="16">
-        <v>285678.28830931569</v>
+        <v>285678.28858478251</v>
       </c>
       <c r="F28" s="17">
-        <v>82791.263378050222</v>
+        <v>82791.263457882145</v>
       </c>
       <c r="G28" s="17">
-        <v>1283662.1190448613</v>
+        <v>1283662.0924803335</v>
       </c>
       <c r="H28" s="17">
-        <v>4429385.2029013606</v>
+        <v>4429385.1112382011</v>
       </c>
       <c r="I28" s="17">
-        <v>4716133.4036750533</v>
+        <v>4716133.2949023377</v>
       </c>
       <c r="J28" s="17">
-        <v>4430043.0691781146</v>
+        <v>4430042.9775149552</v>
       </c>
       <c r="K28" s="17">
-        <v>-286090.33449693862</v>
+        <v>-286090.3173873825</v>
       </c>
       <c r="L28" s="16">
         <v>657.86627675392538</v>
@@ -3643,31 +3643,31 @@
         <v>3.608843017578125</v>
       </c>
       <c r="C29" s="15">
-        <v>22.200000760000002</v>
+        <v>22.200000762939453</v>
       </c>
       <c r="D29" s="16">
-        <v>29.540486543586262</v>
+        <v>29.540486551111261</v>
       </c>
       <c r="E29" s="16">
-        <v>212836.78957917634</v>
+        <v>212836.78984509152</v>
       </c>
       <c r="F29" s="17">
-        <v>58976.4610271161</v>
+        <v>58976.461100800429</v>
       </c>
       <c r="G29" s="17">
-        <v>1342638.5800719773</v>
+        <v>1342638.553581134</v>
       </c>
       <c r="H29" s="17">
-        <v>4845371.8648237633</v>
+        <v>4845371.7692224681</v>
       </c>
       <c r="I29" s="17">
-        <v>4928970.1932542296</v>
+        <v>4928970.084747429</v>
       </c>
       <c r="J29" s="17">
-        <v>4846029.7311005173</v>
+        <v>4846029.6354992222</v>
       </c>
       <c r="K29" s="17">
-        <v>-82940.462153712288</v>
+        <v>-82940.449248206802</v>
       </c>
       <c r="L29" s="16">
         <v>657.86627675392538</v>
@@ -3681,31 +3681,31 @@
         <v>3.6303940429687498</v>
       </c>
       <c r="C30" s="15">
-        <v>22.409999849999998</v>
+        <v>22.409999847412109</v>
       </c>
       <c r="D30" s="16">
-        <v>29.263021620154856</v>
+        <v>29.26302162741802</v>
       </c>
       <c r="E30" s="16">
-        <v>185507.43415975483</v>
+        <v>185507.43469307973</v>
       </c>
       <c r="F30" s="17">
-        <v>51098.429526965723</v>
+        <v>51098.429673871236</v>
       </c>
       <c r="G30" s="17">
-        <v>1393737.0095989432</v>
+        <v>1393736.9832550052</v>
       </c>
       <c r="H30" s="17">
-        <v>5059814.5371130826</v>
+        <v>5059814.4414742067</v>
       </c>
       <c r="I30" s="17">
-        <v>5114477.6274139844</v>
+        <v>5114477.5194405084</v>
       </c>
       <c r="J30" s="17">
-        <v>5060472.4033898367</v>
+        <v>5060472.3077509608</v>
       </c>
       <c r="K30" s="17">
-        <v>-54005.224024147727</v>
+        <v>-54005.211689547636</v>
       </c>
       <c r="L30" s="16">
         <v>657.86627675392538</v>
@@ -3719,31 +3719,31 @@
         <v>3.3830390625</v>
       </c>
       <c r="C31" s="15">
-        <v>20.899999619999999</v>
+        <v>20.899999618530273</v>
       </c>
       <c r="D31" s="16">
-        <v>28.951898109092557</v>
+        <v>28.951898116056832</v>
       </c>
       <c r="E31" s="16">
-        <v>256090.62365067154</v>
+        <v>256090.62418715825</v>
       </c>
       <c r="F31" s="17">
-        <v>75698.393935015803</v>
+        <v>75698.39409359709</v>
       </c>
       <c r="G31" s="17">
-        <v>1469435.4035339591</v>
+        <v>1469435.3773486023</v>
       </c>
       <c r="H31" s="17">
-        <v>4971157.3699758342</v>
+        <v>4971157.2813897496</v>
       </c>
       <c r="I31" s="17">
-        <v>5370568.2510646563</v>
+        <v>5370568.1436276669</v>
       </c>
       <c r="J31" s="17">
-        <v>4971815.2362525882</v>
+        <v>4971815.1476665037</v>
       </c>
       <c r="K31" s="17">
-        <v>-398753.01481206808</v>
+        <v>-398752.99596116319</v>
       </c>
       <c r="L31" s="16">
         <v>657.86627675392538</v>
@@ -3760,28 +3760,28 @@
         <v>19.25</v>
       </c>
       <c r="D32" s="16">
-        <v>28.642033266404177</v>
+        <v>28.642033273139454</v>
       </c>
       <c r="E32" s="16">
-        <v>348430.64106510871</v>
+        <v>348430.6415648465</v>
       </c>
       <c r="F32" s="17">
-        <v>107834.40095441106</v>
+        <v>107834.4011090729</v>
       </c>
       <c r="G32" s="17">
-        <v>1577269.8044883702</v>
+        <v>1577269.7784576751</v>
       </c>
       <c r="H32" s="17">
-        <v>5096417.5091292234</v>
+        <v>5096417.4250197764</v>
       </c>
       <c r="I32" s="17">
-        <v>5718998.8921297649</v>
+        <v>5718998.7851925138</v>
       </c>
       <c r="J32" s="17">
-        <v>5097075.3754059775</v>
+        <v>5097075.2912965305</v>
       </c>
       <c r="K32" s="17">
-        <v>-621923.51672378741</v>
+        <v>-621923.49389598332</v>
       </c>
       <c r="L32" s="16">
         <v>657.86627675392538</v>
@@ -3795,31 +3795,31 @@
         <v>3.1302160644531249</v>
       </c>
       <c r="C33" s="15">
-        <v>18.770000459999999</v>
+        <v>18.770000457763672</v>
       </c>
       <c r="D33" s="16">
-        <v>28.372122106405978</v>
+        <v>28.372122112939287</v>
       </c>
       <c r="E33" s="16">
-        <v>364192.92344389425</v>
+        <v>364192.9241091304</v>
       </c>
       <c r="F33" s="17">
-        <v>116347.53510458449</v>
+        <v>116347.53531710533</v>
       </c>
       <c r="G33" s="17">
-        <v>1693617.3395929546</v>
+        <v>1693617.3137747804</v>
       </c>
       <c r="H33" s="17">
-        <v>5301388.2034302298</v>
+        <v>5301388.1226137662</v>
       </c>
       <c r="I33" s="17">
-        <v>6083191.8155736588</v>
+        <v>6083191.709301644</v>
       </c>
       <c r="J33" s="17">
-        <v>5302046.0697069839</v>
+        <v>5302045.9888905203</v>
       </c>
       <c r="K33" s="17">
-        <v>-781145.74586667493</v>
+        <v>-781145.72041112371</v>
       </c>
       <c r="L33" s="16">
         <v>657.86627675392538</v>
@@ -3833,31 +3833,31 @@
         <v>3.0653520507812502</v>
       </c>
       <c r="C34" s="15">
-        <v>17.93000031</v>
+        <v>17.930000305175781</v>
       </c>
       <c r="D34" s="16">
-        <v>28.031817636002071</v>
+        <v>28.031817642334733</v>
       </c>
       <c r="E34" s="16">
-        <v>403084.51748726668</v>
+        <v>403084.51837763441</v>
       </c>
       <c r="F34" s="17">
-        <v>131496.97353181167</v>
+        <v>131496.97382227349</v>
       </c>
       <c r="G34" s="17">
-        <v>1825114.3131247663</v>
+        <v>1825114.2875970539</v>
       </c>
       <c r="H34" s="17">
-        <v>5594617.9026472149</v>
+        <v>5594617.8243957898</v>
       </c>
       <c r="I34" s="17">
-        <v>6486276.3330609258</v>
+        <v>6486276.2276792787</v>
       </c>
       <c r="J34" s="17">
-        <v>5595275.768923969</v>
+        <v>5595275.6906725438</v>
       </c>
       <c r="K34" s="17">
-        <v>-891000.56413695682</v>
+        <v>-891000.53700673487</v>
       </c>
       <c r="L34" s="16">
         <v>657.86627675392538</v>
@@ -3871,31 +3871,31 @@
         <v>3.0335100097656249</v>
       </c>
       <c r="C35" s="15">
-        <v>17.709999079999999</v>
+        <v>17.709999084472656</v>
       </c>
       <c r="D35" s="16">
-        <v>27.695688446862572</v>
+        <v>27.695688453026897</v>
       </c>
       <c r="E35" s="16">
-        <v>393870.26891931542</v>
+        <v>393870.26905276586</v>
       </c>
       <c r="F35" s="17">
-        <v>129839.77888694906</v>
+        <v>129839.77893094115</v>
       </c>
       <c r="G35" s="17">
-        <v>1954954.0920117153</v>
+        <v>1954954.066527995</v>
       </c>
       <c r="H35" s="17">
-        <v>5930372.8067498067</v>
+        <v>5930372.7294446863</v>
       </c>
       <c r="I35" s="17">
-        <v>6880146.601980241</v>
+        <v>6880146.496732045</v>
       </c>
       <c r="J35" s="17">
-        <v>5931030.6730265608</v>
+        <v>5931030.5957214404</v>
       </c>
       <c r="K35" s="17">
-        <v>-949115.92895368021</v>
+        <v>-949115.90101060458</v>
       </c>
       <c r="L35" s="16">
         <v>657.86627675392538</v>
@@ -3909,31 +3909,31 @@
         <v>2.6308430175781252</v>
       </c>
       <c r="C36" s="15">
-        <v>15.380000109999999</v>
+        <v>15.380000114440918</v>
       </c>
       <c r="D36" s="16">
-        <v>27.336624370286405</v>
+        <v>27.336624376243282</v>
       </c>
       <c r="E36" s="16">
-        <v>564695.41162159434</v>
+        <v>564695.41176478763</v>
       </c>
       <c r="F36" s="17">
-        <v>214644.28240246576</v>
+        <v>214644.28245689443</v>
       </c>
       <c r="G36" s="17">
-        <v>2169598.3744141809</v>
+        <v>2169598.3489848897</v>
       </c>
       <c r="H36" s="17">
-        <v>5707872.734276399</v>
+        <v>5707872.6673759259</v>
       </c>
       <c r="I36" s="17">
-        <v>7444842.0136018358</v>
+        <v>7444841.9084968325</v>
       </c>
       <c r="J36" s="17">
-        <v>5708530.6005531531</v>
+        <v>5708530.53365268</v>
       </c>
       <c r="K36" s="17">
-        <v>-1736311.4130486827</v>
+        <v>-1736311.3748441525</v>
       </c>
       <c r="L36" s="16">
         <v>657.86627675392538</v>
@@ -3947,31 +3947,31 @@
         <v>3.0022250976562499</v>
       </c>
       <c r="C37" s="15">
-        <v>17.479999540000001</v>
+        <v>17.479999542236328</v>
       </c>
       <c r="D37" s="16">
-        <v>27.106454812893954</v>
+        <v>27.106454818762419</v>
       </c>
       <c r="E37" s="16">
-        <v>366041.13242805976</v>
+        <v>366041.1327042802</v>
       </c>
       <c r="F37" s="17">
-        <v>121923.28040752756</v>
+        <v>121923.2804995328</v>
       </c>
       <c r="G37" s="17">
-        <v>2291521.6548217083</v>
+        <v>2291521.6294844225</v>
       </c>
       <c r="H37" s="17">
-        <v>6879663.8239285145</v>
+        <v>6879663.7478602789</v>
       </c>
       <c r="I37" s="17">
-        <v>7810883.1460298952</v>
+        <v>7810883.0412011128</v>
       </c>
       <c r="J37" s="17">
-        <v>6880321.6902052686</v>
+        <v>6880321.614137033</v>
       </c>
       <c r="K37" s="17">
-        <v>-930561.45582462661</v>
+        <v>-930561.42706407979</v>
       </c>
       <c r="L37" s="16">
         <v>657.86627675392538</v>
@@ -3985,31 +3985,31 @@
         <v>3.0390229492187499</v>
       </c>
       <c r="C38" s="15">
-        <v>17.659999849999998</v>
+        <v>17.700000762939453</v>
       </c>
       <c r="D38" s="16">
-        <v>26.839619570961851</v>
+        <v>26.839674750359887</v>
       </c>
       <c r="E38" s="16">
-        <v>332848.40197481349</v>
+        <v>329957.88035550242</v>
       </c>
       <c r="F38" s="17">
-        <v>109524.80699771608</v>
+        <v>108573.67182446766</v>
       </c>
       <c r="G38" s="17">
-        <v>2401046.4618194243</v>
+        <v>2400095.3013088903</v>
       </c>
       <c r="H38" s="17">
-        <v>7296835.2996097114</v>
+        <v>7293944.700989808</v>
       </c>
       <c r="I38" s="17">
-        <v>8143731.5480047083</v>
+        <v>8140840.9215566153</v>
       </c>
       <c r="J38" s="17">
-        <v>7297493.1658864655</v>
+        <v>7294602.567266562</v>
       </c>
       <c r="K38" s="17">
-        <v>-846238.38211824279</v>
+        <v>-846238.35429005325</v>
       </c>
       <c r="L38" s="16">
         <v>657.86627675392538</v>
@@ -4023,31 +4023,31 @@
         <v>3.1081088867187501</v>
       </c>
       <c r="C39" s="15">
-        <v>18.11000061</v>
+        <v>18.110000610351563</v>
       </c>
       <c r="D39" s="16">
-        <v>26.594314351352136</v>
+        <v>26.594314356937268</v>
       </c>
       <c r="E39" s="16">
-        <v>284335.13966370182</v>
+        <v>284335.14001448749</v>
       </c>
       <c r="F39" s="17">
-        <v>91481.717670411541</v>
+        <v>91481.717783272994</v>
       </c>
       <c r="G39" s="17">
-        <v>2492528.1794898356</v>
+        <v>2491577.0190921635</v>
       </c>
       <c r="H39" s="17">
-        <v>7747048.9850692656</v>
+        <v>7744092.6749845659</v>
       </c>
       <c r="I39" s="17">
-        <v>8428066.6876684092</v>
+        <v>8425176.0615711026</v>
       </c>
       <c r="J39" s="17">
-        <v>7747706.8513460197</v>
+        <v>7744750.54126132</v>
       </c>
       <c r="K39" s="17">
-        <v>-680359.83632238954</v>
+        <v>-680425.52030978259</v>
       </c>
       <c r="L39" s="16">
         <v>657.86627675392538</v>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -1199,11 +1199,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506721408"/>
-        <c:axId val="506723328"/>
+        <c:axId val="68443520"/>
+        <c:axId val="68560000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506721408"/>
+        <c:axId val="68443520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1246,14 +1246,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506723328"/>
+        <c:crossAx val="68560000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506723328"/>
+        <c:axId val="68560000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,7 +1304,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506721408"/>
+        <c:crossAx val="68443520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1590,8 +1590,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="697763712"/>
-        <c:axId val="697761792"/>
+        <c:axId val="507349632"/>
+        <c:axId val="507348096"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1863,11 +1863,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="693435008"/>
-        <c:axId val="693551872"/>
+        <c:axId val="499816704"/>
+        <c:axId val="506709120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="693435008"/>
+        <c:axId val="499816704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1910,14 +1910,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693551872"/>
+        <c:crossAx val="506709120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="693551872"/>
+        <c:axId val="506709120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1968,12 +1968,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693435008"/>
+        <c:crossAx val="499816704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="697761792"/>
+        <c:axId val="507348096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2010,12 +2010,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697763712"/>
+        <c:crossAx val="507349632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="697763712"/>
+        <c:axId val="507349632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2024,7 +2024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="697761792"/>
+        <c:crossAx val="507348096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -222,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -277,6 +277,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -401,7 +403,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -512,6 +514,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -521,7 +526,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -632,6 +637,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>8425176.0615711026</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8681764.3246558532</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -674,7 +682,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -785,6 +793,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -794,7 +805,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -905,6 +916,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>7744750.54126132</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7776464.2456502719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -947,7 +961,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1058,6 +1072,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1067,7 +1084,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1178,6 +1195,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-680425.52030978259</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-905300.07900558133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1199,11 +1219,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68443520"/>
-        <c:axId val="68560000"/>
+        <c:axId val="77408128"/>
+        <c:axId val="77409664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="68443520"/>
+        <c:axId val="77408128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1246,14 +1266,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68560000"/>
+        <c:crossAx val="77409664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="68560000"/>
+        <c:axId val="77409664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,7 +1324,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68443520"/>
+        <c:crossAx val="77408128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1465,7 +1485,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1576,6 +1596,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>284335.14001448749</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>256588.26308475045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1590,8 +1613,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="507349632"/>
-        <c:axId val="507348096"/>
+        <c:axId val="162085504"/>
+        <c:axId val="98958720"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1616,7 +1639,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1727,6 +1750,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1736,7 +1762,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1847,6 +1873,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>3.1081088867187501</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.01785498046875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1863,11 +1892,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="499816704"/>
-        <c:axId val="506709120"/>
+        <c:axId val="90709376"/>
+        <c:axId val="98957184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="499816704"/>
+        <c:axId val="90709376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1910,14 +1939,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506709120"/>
+        <c:crossAx val="98957184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506709120"/>
+        <c:axId val="98957184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1968,12 +1997,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499816704"/>
+        <c:crossAx val="90709376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="507348096"/>
+        <c:axId val="98958720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2010,12 +2039,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507349632"/>
+        <c:crossAx val="162085504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="507349632"/>
+        <c:axId val="162085504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2024,7 +2053,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="507348096"/>
+        <c:crossAx val="98958720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2433,7 +2462,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA39"/>
+  <dimension ref="A1:AD41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2463,10 +2492,12 @@
     <col min="21" max="21" width="10.375" style="1" customWidth="1"/>
     <col min="22" max="22" width="10.25" style="1" customWidth="1"/>
     <col min="23" max="23" width="10.125" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="24" max="25" width="9" style="1"/>
+    <col min="26" max="26" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -2505,7 +2536,7 @@
       </c>
       <c r="N1" s="11"/>
     </row>
-    <row r="2" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2527,7 +2558,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44316</v>
       </c>
@@ -2592,15 +2623,26 @@
       <c r="Y3" s="19">
         <v>44561</v>
       </c>
-      <c r="Z3" s="1">
-        <v>260275.18576464822</v>
+      <c r="Z3" s="29">
+        <f>Q4</f>
+        <v>260275.13658656832</v>
       </c>
       <c r="AA3" s="1">
         <f>-Z3</f>
-        <v>-260275.18576464822</v>
+        <v>-260275.13658656832</v>
+      </c>
+      <c r="AB3" s="19">
+        <v>44561</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>260275.13658656832</v>
+      </c>
+      <c r="AD3" s="1">
+        <f>-AC3</f>
+        <v>-260275.13658656832</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44347</v>
       </c>
@@ -2665,15 +2707,26 @@
       <c r="Y4" s="19">
         <v>44925</v>
       </c>
-      <c r="Z4" s="1">
-        <v>3518640.0716485092</v>
+      <c r="Z4" s="29">
+        <f>Q5</f>
+        <v>3518640.0102128698</v>
       </c>
       <c r="AA4" s="1">
         <f>-Z4</f>
-        <v>-3518640.0716485092</v>
+        <v>-3518640.0102128698</v>
+      </c>
+      <c r="AB4" s="19">
+        <v>44925</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>3518640.0102128698</v>
+      </c>
+      <c r="AD4" s="1">
+        <f>-AC4</f>
+        <v>-3518640.0102128698</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44377</v>
       </c>
@@ -2733,16 +2786,26 @@
         <v>-5.7885467613787454E-2</v>
       </c>
       <c r="W5" s="8">
-        <v>-5.4345791240333341E-2</v>
+        <v>-5.4345789230150321E-2</v>
       </c>
       <c r="Y5" s="19">
         <v>44925</v>
       </c>
       <c r="AA5" s="1">
-        <v>3560170.9704664377</v>
+        <v>3560170.8764541284</v>
+      </c>
+      <c r="AB5" s="19">
+        <v>45289</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>3101231.3499326068</v>
+      </c>
+      <c r="AD5" s="1">
+        <f>-AC5</f>
+        <v>-3101231.3499326068</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44407</v>
       </c>
@@ -2780,11 +2843,41 @@
         <v>657.86627675392538</v>
       </c>
       <c r="M6" s="6"/>
+      <c r="P6" s="19">
+        <v>45289</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>3101231.3499326068</v>
+      </c>
+      <c r="R6" s="4">
+        <v>6880146.496732045</v>
+      </c>
+      <c r="S6" s="4">
+        <v>5931030.5957214404</v>
+      </c>
+      <c r="T6" s="4">
+        <v>-949115.90101060458</v>
+      </c>
+      <c r="U6" s="4">
+        <v>657.86627675392538</v>
+      </c>
+      <c r="V6" s="8">
+        <v>-0.13794995520246828</v>
+      </c>
+      <c r="W6" s="8">
+        <v>-9.0099644036938709E-2</v>
+      </c>
       <c r="AA6" s="2">
-        <v>-5.4345791240333341E-2</v>
+        <v>-5.4345789230150321E-2</v>
+      </c>
+      <c r="AB6" s="19">
+        <v>45289</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>5931030.5957214404</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44439</v>
       </c>
@@ -2822,8 +2915,11 @@
         <v>657.86627675392538</v>
       </c>
       <c r="M7" s="6"/>
+      <c r="AD7" s="2">
+        <v>-9.0099644036938709E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44469</v>
       </c>
@@ -2862,7 +2958,7 @@
       </c>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44498</v>
       </c>
@@ -2901,7 +2997,7 @@
       </c>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44530</v>
       </c>
@@ -2940,7 +3036,7 @@
       </c>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>44561</v>
       </c>
@@ -2979,7 +3075,7 @@
       </c>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44589</v>
       </c>
@@ -3018,7 +3114,7 @@
       </c>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>44620</v>
       </c>
@@ -3057,7 +3153,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>44651</v>
       </c>
@@ -3096,7 +3192,7 @@
       </c>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>44680</v>
       </c>
@@ -3135,7 +3231,7 @@
       </c>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>44712</v>
       </c>
@@ -4052,6 +4148,47 @@
       <c r="L39" s="16">
         <v>657.86627675392538</v>
       </c>
+    </row>
+    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="14">
+        <v>45443</v>
+      </c>
+      <c r="B40" s="15">
+        <v>3.01785498046875</v>
+      </c>
+      <c r="C40" s="15">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D40" s="16">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E40" s="16">
+        <v>256588.26308475045</v>
+      </c>
+      <c r="F40" s="17">
+        <v>85023.39070146298</v>
+      </c>
+      <c r="G40" s="17">
+        <v>2576600.4097936265</v>
+      </c>
+      <c r="H40" s="17">
+        <v>7775806.3793735178</v>
+      </c>
+      <c r="I40" s="17">
+        <v>8681764.3246558532</v>
+      </c>
+      <c r="J40" s="17">
+        <v>7776464.2456502719</v>
+      </c>
+      <c r="K40" s="17">
+        <v>-905300.07900558133</v>
+      </c>
+      <c r="L40" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -222,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -277,7 +277,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -403,7 +402,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -517,6 +516,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -526,7 +528,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -640,6 +642,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>8681764.3246558532</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8956105.1812789217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -682,7 +687,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -796,6 +801,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -805,7 +813,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -919,6 +927,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>7776464.2456502719</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7842502.4338412527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -961,7 +972,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1075,6 +1086,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1084,7 +1098,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1198,6 +1212,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-905300.07900558133</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1113602.747437669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1219,11 +1236,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77408128"/>
-        <c:axId val="77409664"/>
+        <c:axId val="104993536"/>
+        <c:axId val="104995456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="77408128"/>
+        <c:axId val="104993536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,14 +1283,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77409664"/>
+        <c:crossAx val="104995456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="77409664"/>
+        <c:axId val="104995456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1324,7 +1341,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77408128"/>
+        <c:crossAx val="104993536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1485,7 +1502,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1599,6 +1616,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>256588.26308475045</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>274340.85662306892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1613,8 +1633,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="162085504"/>
-        <c:axId val="98958720"/>
+        <c:axId val="512225664"/>
+        <c:axId val="507021568"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1639,7 +1659,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1753,6 +1773,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1762,7 +1785,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1876,6 +1899,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>3.01785498046875</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.9370109863281249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1892,11 +1918,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90709376"/>
-        <c:axId val="98957184"/>
+        <c:axId val="493800064"/>
+        <c:axId val="507019648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90709376"/>
+        <c:axId val="493800064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1939,14 +1965,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98957184"/>
+        <c:crossAx val="507019648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="98957184"/>
+        <c:axId val="507019648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,12 +2023,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90709376"/>
+        <c:crossAx val="493800064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98958720"/>
+        <c:axId val="507021568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2039,12 +2065,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162085504"/>
+        <c:crossAx val="512225664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="162085504"/>
+        <c:axId val="512225664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2053,7 +2079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98958720"/>
+        <c:crossAx val="507021568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2623,7 +2649,7 @@
       <c r="Y3" s="19">
         <v>44561</v>
       </c>
-      <c r="Z3" s="29">
+      <c r="Z3" s="28">
         <f>Q4</f>
         <v>260275.13658656832</v>
       </c>
@@ -2707,7 +2733,7 @@
       <c r="Y4" s="19">
         <v>44925</v>
       </c>
-      <c r="Z4" s="29">
+      <c r="Z4" s="28">
         <f>Q5</f>
         <v>3518640.0102128698</v>
       </c>
@@ -4187,8 +4213,43 @@
         <v>657.86627675392538</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A41" s="28"/>
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="14">
+        <v>45471</v>
+      </c>
+      <c r="B41" s="15">
+        <v>2.9370109863281249</v>
+      </c>
+      <c r="C41" s="15">
+        <v>17.86000061</v>
+      </c>
+      <c r="D41" s="16">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E41" s="16">
+        <v>274340.85662306892</v>
+      </c>
+      <c r="F41" s="17">
+        <v>93408.181957825116</v>
+      </c>
+      <c r="G41" s="17">
+        <v>2670008.5917514516</v>
+      </c>
+      <c r="H41" s="17">
+        <v>7841844.5675644986</v>
+      </c>
+      <c r="I41" s="17">
+        <v>8956105.1812789217</v>
+      </c>
+      <c r="J41" s="17">
+        <v>7842502.4338412527</v>
+      </c>
+      <c r="K41" s="17">
+        <v>-1113602.747437669</v>
+      </c>
+      <c r="L41" s="16">
+        <v>657.86627675392538</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -519,6 +519,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -528,7 +531,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -645,6 +648,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>8956105.1812789217</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9224382.576519141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -687,7 +693,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -804,6 +810,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -813,7 +822,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -930,6 +939,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>7842502.4338412527</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8055315.8761913944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -972,7 +984,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1089,6 +1101,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1098,7 +1113,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1215,6 +1230,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-1113602.747437669</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1169066.7003277466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1236,11 +1254,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104993536"/>
-        <c:axId val="104995456"/>
+        <c:axId val="225120640"/>
+        <c:axId val="225122560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="104993536"/>
+        <c:axId val="225120640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,14 +1301,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104995456"/>
+        <c:crossAx val="225122560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="104995456"/>
+        <c:axId val="225122560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,7 +1359,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104993536"/>
+        <c:crossAx val="225120640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1502,7 +1520,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1619,6 +1637,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>274340.85662306892</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>268277.3952402196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1633,8 +1654,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="512225664"/>
-        <c:axId val="507021568"/>
+        <c:axId val="448466944"/>
+        <c:axId val="442675200"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1659,7 +1680,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1776,6 +1797,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1785,7 +1809,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1902,6 +1926,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2.9370109863281249</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.916238037109375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1918,11 +1945,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493800064"/>
-        <c:axId val="507019648"/>
+        <c:axId val="441789440"/>
+        <c:axId val="442635392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493800064"/>
+        <c:axId val="441789440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1965,14 +1992,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507019648"/>
+        <c:crossAx val="442635392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507019648"/>
+        <c:axId val="442635392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2023,12 +2050,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493800064"/>
+        <c:crossAx val="441789440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="507021568"/>
+        <c:axId val="442675200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2065,12 +2092,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512225664"/>
+        <c:crossAx val="448466944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="512225664"/>
+        <c:axId val="448466944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2079,7 +2106,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="507021568"/>
+        <c:crossAx val="442675200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2488,7 +2515,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD41"/>
+  <dimension ref="A1:AD42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4251,6 +4278,44 @@
         <v>657.86627675392538</v>
       </c>
     </row>
+    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="14">
+        <v>45504</v>
+      </c>
+      <c r="B42" s="15">
+        <v>2.916238037109375</v>
+      </c>
+      <c r="C42" s="15">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D42" s="16">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E42" s="16">
+        <v>268277.3952402196</v>
+      </c>
+      <c r="F42" s="17">
+        <v>91994.34059441209</v>
+      </c>
+      <c r="G42" s="17">
+        <v>2762002.9323458639</v>
+      </c>
+      <c r="H42" s="17">
+        <v>8054658.0099146403</v>
+      </c>
+      <c r="I42" s="17">
+        <v>9224382.576519141</v>
+      </c>
+      <c r="J42" s="17">
+        <v>8055315.8761913944</v>
+      </c>
+      <c r="K42" s="17">
+        <v>-1169066.7003277466</v>
+      </c>
+      <c r="L42" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -522,6 +522,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -531,7 +534,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -651,6 +654,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>9224382.576519141</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9329542.1142139155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -693,7 +699,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -813,6 +819,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -822,7 +831,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -942,6 +951,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>8055315.8761913944</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7848159.3699060958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,7 +996,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1104,6 +1116,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1113,7 +1128,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1233,6 +1248,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>-1169066.7003277466</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1481382.7443078198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1254,11 +1272,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="225120640"/>
-        <c:axId val="225122560"/>
+        <c:axId val="80378496"/>
+        <c:axId val="342445056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="225120640"/>
+        <c:axId val="80378496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1301,14 +1319,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225122560"/>
+        <c:crossAx val="342445056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="225122560"/>
+        <c:axId val="342445056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1359,7 +1377,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225120640"/>
+        <c:crossAx val="80378496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1520,7 +1538,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1640,6 +1658,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>268277.3952402196</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>105159.53769477447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1654,8 +1675,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="448466944"/>
-        <c:axId val="442675200"/>
+        <c:axId val="486880768"/>
+        <c:axId val="486879232"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1680,7 +1701,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1800,6 +1821,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1809,7 +1833,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1929,6 +1953,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>2.916238037109375</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.8031621093750001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1945,11 +1972,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="441789440"/>
-        <c:axId val="442635392"/>
+        <c:axId val="486220160"/>
+        <c:axId val="486222080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="441789440"/>
+        <c:axId val="486220160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1992,14 +2019,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442635392"/>
+        <c:crossAx val="486222080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442635392"/>
+        <c:axId val="486222080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,12 +2077,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441789440"/>
+        <c:crossAx val="486220160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442675200"/>
+        <c:axId val="486879232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2092,12 +2119,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448466944"/>
+        <c:crossAx val="486880768"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="448466944"/>
+        <c:axId val="486880768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2106,7 +2133,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="442675200"/>
+        <c:crossAx val="486879232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2515,7 +2542,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD42"/>
+  <dimension ref="A1:AD43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4316,6 +4343,44 @@
         <v>657.86627675392538</v>
       </c>
     </row>
+    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="14">
+        <v>45534</v>
+      </c>
+      <c r="B43" s="15">
+        <v>2.8031621093750001</v>
+      </c>
+      <c r="C43" s="15">
+        <v>20.56999969</v>
+      </c>
+      <c r="D43" s="16">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E43" s="16">
+        <v>105159.53769477447</v>
+      </c>
+      <c r="F43" s="17">
+        <v>37514.611567798733</v>
+      </c>
+      <c r="G43" s="17">
+        <v>2799517.5439136624</v>
+      </c>
+      <c r="H43" s="17">
+        <v>7847501.5036293417</v>
+      </c>
+      <c r="I43" s="17">
+        <v>9329542.1142139155</v>
+      </c>
+      <c r="J43" s="17">
+        <v>7848159.3699060958</v>
+      </c>
+      <c r="K43" s="17">
+        <v>-1481382.7443078198</v>
+      </c>
+      <c r="L43" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -525,6 +525,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -534,7 +537,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -657,6 +660,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>9329542.1142139155</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9330076.697563054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -699,7 +705,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -822,6 +828,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -831,7 +840,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -954,6 +963,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>7848159.3699060958</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9948737.4124364611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -996,7 +1008,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1119,6 +1131,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1128,7 +1143,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1251,6 +1266,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>-1481382.7443078198</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>618660.71487340704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1272,11 +1290,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80378496"/>
-        <c:axId val="342445056"/>
+        <c:axId val="370583808"/>
+        <c:axId val="414485120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80378496"/>
+        <c:axId val="370583808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,14 +1337,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342445056"/>
+        <c:crossAx val="414485120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="342445056"/>
+        <c:axId val="414485120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1377,7 +1395,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80378496"/>
+        <c:crossAx val="370583808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1538,7 +1556,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1661,6 +1679,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>105159.53769477447</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>534.58334913787519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1675,8 +1696,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="486880768"/>
-        <c:axId val="486879232"/>
+        <c:axId val="532507648"/>
+        <c:axId val="532505728"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1701,7 +1722,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1824,6 +1845,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1833,7 +1857,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1956,6 +1980,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2.8031621093750001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.5533068847656248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1972,11 +1999,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="486220160"/>
-        <c:axId val="486222080"/>
+        <c:axId val="467804928"/>
+        <c:axId val="467806848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="486220160"/>
+        <c:axId val="467804928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2019,14 +2046,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486222080"/>
+        <c:crossAx val="467806848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="486222080"/>
+        <c:axId val="467806848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2077,12 +2104,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486220160"/>
+        <c:crossAx val="467804928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486879232"/>
+        <c:axId val="532505728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2119,12 +2146,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486880768"/>
+        <c:crossAx val="532507648"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="486880768"/>
+        <c:axId val="532507648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2133,7 +2160,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="486879232"/>
+        <c:crossAx val="532505728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2542,7 +2569,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD43"/>
+  <dimension ref="A1:AD44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4381,6 +4408,44 @@
         <v>657.86627675392538</v>
       </c>
     </row>
+    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="14">
+        <v>45565</v>
+      </c>
+      <c r="B44" s="15">
+        <v>3.5533068847656248</v>
+      </c>
+      <c r="C44" s="15">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D44" s="16">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E44" s="16">
+        <v>534.58334913787519</v>
+      </c>
+      <c r="F44" s="17">
+        <v>150.44671526398039</v>
+      </c>
+      <c r="G44" s="17">
+        <v>2799667.9906289265</v>
+      </c>
+      <c r="H44" s="17">
+        <v>9948079.546159707</v>
+      </c>
+      <c r="I44" s="17">
+        <v>9330076.697563054</v>
+      </c>
+      <c r="J44" s="17">
+        <v>9948737.4124364611</v>
+      </c>
+      <c r="K44" s="17">
+        <v>618660.71487340704</v>
+      </c>
+      <c r="L44" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -528,6 +528,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -537,7 +540,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -663,6 +666,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>9330076.697563054</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9331801.6174881868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -705,7 +711,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -831,6 +837,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -840,7 +849,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -966,6 +975,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>9948737.4124364611</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9960354.1280550472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1008,7 +1020,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1134,6 +1146,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1143,7 +1158,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1269,6 +1284,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>618660.71487340704</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>628552.51056686044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1290,11 +1308,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370583808"/>
-        <c:axId val="414485120"/>
+        <c:axId val="70801280"/>
+        <c:axId val="70802816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370583808"/>
+        <c:axId val="70801280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1337,14 +1355,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414485120"/>
+        <c:crossAx val="70802816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="414485120"/>
+        <c:axId val="70802816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1395,7 +1413,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370583808"/>
+        <c:crossAx val="70801280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1556,7 +1574,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1682,6 +1700,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>534.58334913787519</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1724.9199251330979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1696,8 +1717,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="532507648"/>
-        <c:axId val="532505728"/>
+        <c:axId val="471906560"/>
+        <c:axId val="471905024"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1722,7 +1743,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1848,6 +1869,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1857,7 +1881,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1983,6 +2007,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3.5533068847656248</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.5568400878906248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1999,11 +2026,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="467804928"/>
-        <c:axId val="467806848"/>
+        <c:axId val="98326784"/>
+        <c:axId val="354445568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="467804928"/>
+        <c:axId val="98326784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2046,14 +2073,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467806848"/>
+        <c:crossAx val="354445568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="467806848"/>
+        <c:axId val="354445568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2104,12 +2131,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467804928"/>
+        <c:crossAx val="98326784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="532505728"/>
+        <c:axId val="471905024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2146,12 +2173,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532507648"/>
+        <c:crossAx val="471906560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="532507648"/>
+        <c:axId val="471906560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2160,7 +2187,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="532505728"/>
+        <c:crossAx val="471905024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2569,7 +2596,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD44"/>
+  <dimension ref="A1:AD45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4446,6 +4473,44 @@
         <v>657.86627675392538</v>
       </c>
     </row>
+    <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="14">
+        <v>45596</v>
+      </c>
+      <c r="B45" s="15">
+        <v>3.5568400878906248</v>
+      </c>
+      <c r="C45" s="15">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D45" s="16">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E45" s="16">
+        <v>1724.9199251330979</v>
+      </c>
+      <c r="F45" s="17">
+        <v>484.95852568847351</v>
+      </c>
+      <c r="G45" s="17">
+        <v>2800152.9491546149</v>
+      </c>
+      <c r="H45" s="17">
+        <v>9959696.2617782932</v>
+      </c>
+      <c r="I45" s="17">
+        <v>9331801.6174881868</v>
+      </c>
+      <c r="J45" s="17">
+        <v>9960354.1280550472</v>
+      </c>
+      <c r="K45" s="17">
+        <v>628552.51056686044</v>
+      </c>
+      <c r="L45" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -531,6 +531,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -540,7 +543,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -669,6 +672,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>9331801.6174881868</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9334814.2341408487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -711,7 +717,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -840,6 +846,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -849,7 +858,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -978,6 +987,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>9960354.1280550472</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9998925.8159113917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1020,7 +1032,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1149,6 +1161,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1158,7 +1173,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1287,6 +1302,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>628552.51056686044</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>664111.58177054301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1308,11 +1326,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70801280"/>
-        <c:axId val="70802816"/>
+        <c:axId val="436231168"/>
+        <c:axId val="472617728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="70801280"/>
+        <c:axId val="436231168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1355,14 +1373,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70802816"/>
+        <c:crossAx val="472617728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="70802816"/>
+        <c:axId val="472617728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1413,7 +1431,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70801280"/>
+        <c:crossAx val="436231168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1574,7 +1592,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1703,6 +1721,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1724.9199251330979</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3012.6166526625288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1717,8 +1738,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="471906560"/>
-        <c:axId val="471905024"/>
+        <c:axId val="564345856"/>
+        <c:axId val="564344320"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1743,7 +1764,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1872,6 +1893,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1881,7 +1905,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2010,6 +2034,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>3.5568400878906248</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.5695390625000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2026,11 +2053,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98326784"/>
-        <c:axId val="354445568"/>
+        <c:axId val="564328320"/>
+        <c:axId val="564329856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="98326784"/>
+        <c:axId val="564328320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2073,14 +2100,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354445568"/>
+        <c:crossAx val="564329856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="354445568"/>
+        <c:axId val="564329856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,12 +2158,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98326784"/>
+        <c:crossAx val="564328320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="471905024"/>
+        <c:axId val="564344320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2173,12 +2200,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471906560"/>
+        <c:crossAx val="564345856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="471906560"/>
+        <c:axId val="564345856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2187,7 +2214,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471905024"/>
+        <c:crossAx val="564344320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2596,7 +2623,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD45"/>
+  <dimension ref="A1:AD46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4511,6 +4538,44 @@
         <v>657.86627675392538</v>
       </c>
     </row>
+    <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="14">
+        <v>45625</v>
+      </c>
+      <c r="B46" s="15">
+        <v>3.5695390625000001</v>
+      </c>
+      <c r="C46" s="15">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D46" s="16">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E46" s="16">
+        <v>3012.6166526625288</v>
+      </c>
+      <c r="F46" s="17">
+        <v>843.97918048068107</v>
+      </c>
+      <c r="G46" s="17">
+        <v>2800996.9283350958</v>
+      </c>
+      <c r="H46" s="17">
+        <v>9998267.9496346377</v>
+      </c>
+      <c r="I46" s="17">
+        <v>9334814.2341408487</v>
+      </c>
+      <c r="J46" s="17">
+        <v>9998925.8159113917</v>
+      </c>
+      <c r="K46" s="17">
+        <v>664111.58177054301</v>
+      </c>
+      <c r="L46" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -222,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -278,6 +278,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -402,7 +403,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -534,6 +535,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -543,7 +547,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -675,6 +679,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>9334814.2341408487</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9337213.449360555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -717,7 +724,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -849,6 +856,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -858,7 +868,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -990,6 +1000,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>9998925.8159113917</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10113154.970262304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1032,7 +1045,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1164,6 +1177,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1173,7 +1189,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1305,6 +1321,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>664111.58177054301</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>775941.52090174891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1326,11 +1345,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="436231168"/>
-        <c:axId val="472617728"/>
+        <c:axId val="425954688"/>
+        <c:axId val="426407040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="436231168"/>
+        <c:axId val="425954688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1373,14 +1392,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472617728"/>
+        <c:crossAx val="426407040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472617728"/>
+        <c:axId val="426407040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,7 +1450,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436231168"/>
+        <c:crossAx val="425954688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1592,7 +1611,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1724,6 +1743,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3012.6166526625288</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2399.2152197068949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1738,8 +1760,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="564345856"/>
-        <c:axId val="564344320"/>
+        <c:axId val="87730432"/>
+        <c:axId val="87728896"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1764,7 +1786,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1896,6 +1918,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1905,7 +1930,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2037,6 +2062,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3.5695390625000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.6094641113281249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2053,11 +2081,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="564328320"/>
-        <c:axId val="564329856"/>
+        <c:axId val="87721472"/>
+        <c:axId val="87723008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="564328320"/>
+        <c:axId val="87721472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2100,14 +2128,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564329856"/>
+        <c:crossAx val="87723008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="564329856"/>
+        <c:axId val="87723008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2158,12 +2186,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564328320"/>
+        <c:crossAx val="87721472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="564344320"/>
+        <c:axId val="87728896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,12 +2228,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564345856"/>
+        <c:crossAx val="87730432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="564345856"/>
+        <c:axId val="87730432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2214,7 +2242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564344320"/>
+        <c:crossAx val="87728896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2623,7 +2651,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD46"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2658,7 +2686,7 @@
     <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -2697,7 +2725,7 @@
       </c>
       <c r="N1" s="11"/>
     </row>
-    <row r="2" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2719,7 +2747,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44316</v>
       </c>
@@ -2802,8 +2830,18 @@
         <f>-AC3</f>
         <v>-260275.13658656832</v>
       </c>
+      <c r="AE3" s="19">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>260275.13658656832</v>
+      </c>
+      <c r="AG3" s="1">
+        <f>-AF3</f>
+        <v>-260275.13658656832</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44347</v>
       </c>
@@ -2886,8 +2924,18 @@
         <f>-AC4</f>
         <v>-3518640.0102128698</v>
       </c>
+      <c r="AE4" s="19">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>3518640.0102128698</v>
+      </c>
+      <c r="AG4" s="1">
+        <f>-AF4</f>
+        <v>-3518640.0102128698</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44377</v>
       </c>
@@ -2965,8 +3013,18 @@
         <f>-AC5</f>
         <v>-3101231.3499326068</v>
       </c>
+      <c r="AE5" s="19">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>3101231.3499326068</v>
+      </c>
+      <c r="AG5" s="1">
+        <f>-AF5</f>
+        <v>-3101231.3499326068</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44407</v>
       </c>
@@ -3037,8 +3095,18 @@
       <c r="AD6" s="1">
         <v>5931030.5957214404</v>
       </c>
+      <c r="AE6" s="19">
+        <v>45657</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>2457066.9526285101</v>
+      </c>
+      <c r="AG6" s="1">
+        <f>-AF6</f>
+        <v>-2457066.9526285101</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44439</v>
       </c>
@@ -3076,11 +3144,41 @@
         <v>657.86627675392538</v>
       </c>
       <c r="M7" s="6"/>
+      <c r="P7" s="19">
+        <v>45657</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>2457066.9526285101</v>
+      </c>
+      <c r="R7" s="4">
+        <v>9337213.449360555</v>
+      </c>
+      <c r="S7" s="4">
+        <v>10113154.970262304</v>
+      </c>
+      <c r="T7" s="4">
+        <v>775941.52090174891</v>
+      </c>
+      <c r="U7" s="4">
+        <v>657.86627675392538</v>
+      </c>
+      <c r="V7" s="8">
+        <v>8.3102043785331703E-2</v>
+      </c>
+      <c r="W7" s="8">
+        <v>3.7251485634379744E-2</v>
+      </c>
       <c r="AD7" s="2">
         <v>-9.0099644036938709E-2</v>
       </c>
+      <c r="AE7" s="19">
+        <v>45657</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>10113154.970262304</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44469</v>
       </c>
@@ -3118,8 +3216,11 @@
         <v>657.86627675392538</v>
       </c>
       <c r="M8" s="6"/>
+      <c r="AG8" s="2">
+        <v>3.7251485634379744E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44498</v>
       </c>
@@ -3158,7 +3259,7 @@
       </c>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44530</v>
       </c>
@@ -3197,7 +3298,7 @@
       </c>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>44561</v>
       </c>
@@ -3236,7 +3337,7 @@
       </c>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44589</v>
       </c>
@@ -3275,7 +3376,7 @@
       </c>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>44620</v>
       </c>
@@ -3314,7 +3415,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>44651</v>
       </c>
@@ -3353,7 +3454,7 @@
       </c>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>44680</v>
       </c>
@@ -3392,7 +3493,7 @@
       </c>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>44712</v>
       </c>
@@ -4575,6 +4676,47 @@
       <c r="L46" s="16">
         <v>657.86627675392538</v>
       </c>
+    </row>
+    <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="14">
+        <v>45657</v>
+      </c>
+      <c r="B47" s="15">
+        <v>3.6094641113281249</v>
+      </c>
+      <c r="C47" s="15">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D47" s="16">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E47" s="16">
+        <v>2399.2152197068949</v>
+      </c>
+      <c r="F47" s="17">
+        <v>664.70122591801828</v>
+      </c>
+      <c r="G47" s="17">
+        <v>2801661.6295610135</v>
+      </c>
+      <c r="H47" s="17">
+        <v>10112497.10398555</v>
+      </c>
+      <c r="I47" s="17">
+        <v>9337213.449360555</v>
+      </c>
+      <c r="J47" s="17">
+        <v>10113154.970262304</v>
+      </c>
+      <c r="K47" s="17">
+        <v>775941.52090174891</v>
+      </c>
+      <c r="L47" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -222,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -278,7 +278,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -669,19 +668,19 @@
                   <c:v>9224382.576519141</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9329542.1142139155</c:v>
+                  <c:v>9329542.1142252237</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9330076.697563054</c:v>
+                  <c:v>9330076.6975751501</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9331801.6174881868</c:v>
+                  <c:v>9331801.6175002828</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9334814.2341408487</c:v>
+                  <c:v>9334814.2341529448</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9337213.449360555</c:v>
+                  <c:v>9337213.4493726511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -990,19 +989,19 @@
                   <c:v>8055315.8761913944</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7848159.3699060958</c:v>
+                  <c:v>7848159.3699174048</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9948737.4124364611</c:v>
+                  <c:v>9948737.4124515858</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9960354.1280550472</c:v>
+                  <c:v>9960354.128070185</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9998925.8159113917</c:v>
+                  <c:v>9998925.8159265835</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>10113154.970262304</c:v>
+                  <c:v>10113154.970277667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1311,19 +1310,19 @@
                   <c:v>-1169066.7003277466</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1481382.7443078198</c:v>
+                  <c:v>-1481382.7443078188</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>618660.71487340704</c:v>
+                  <c:v>618660.7148764357</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>628552.51056686044</c:v>
+                  <c:v>628552.51056990214</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>664111.58177054301</c:v>
+                  <c:v>664111.58177363873</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>775941.52090174891</c:v>
+                  <c:v>775941.52090501599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1345,11 +1344,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="425954688"/>
-        <c:axId val="426407040"/>
+        <c:axId val="403436672"/>
+        <c:axId val="403438976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="425954688"/>
+        <c:axId val="403436672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1392,14 +1391,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426407040"/>
+        <c:crossAx val="403438976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="426407040"/>
+        <c:axId val="403438976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1450,7 +1449,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425954688"/>
+        <c:crossAx val="403436672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1733,10 +1732,10 @@
                   <c:v>268277.3952402196</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>105159.53769477447</c:v>
+                  <c:v>105159.5377060835</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>534.58334913787519</c:v>
+                  <c:v>534.58334992613857</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1724.9199251330979</c:v>
@@ -1760,8 +1759,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="87730432"/>
-        <c:axId val="87728896"/>
+        <c:axId val="453159552"/>
+        <c:axId val="453158016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2081,11 +2080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87721472"/>
-        <c:axId val="87723008"/>
+        <c:axId val="446326272"/>
+        <c:axId val="446327808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87721472"/>
+        <c:axId val="446326272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2128,14 +2127,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87723008"/>
+        <c:crossAx val="446327808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="87723008"/>
+        <c:axId val="446327808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2186,12 +2185,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87721472"/>
+        <c:crossAx val="446326272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87728896"/>
+        <c:axId val="453158016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2228,12 +2227,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87730432"/>
+        <c:crossAx val="453159552"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="87730432"/>
+        <c:axId val="453159552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,7 +2241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87728896"/>
+        <c:crossAx val="453158016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2651,7 +2650,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3148,22 +3147,22 @@
         <v>45657</v>
       </c>
       <c r="Q7" s="9">
-        <v>2457066.9526285101</v>
+        <v>2457066.9526406061</v>
       </c>
       <c r="R7" s="4">
-        <v>9337213.449360555</v>
+        <v>9337213.4493726511</v>
       </c>
       <c r="S7" s="4">
-        <v>10113154.970262304</v>
+        <v>10113154.970277667</v>
       </c>
       <c r="T7" s="4">
-        <v>775941.52090174891</v>
+        <v>775941.52090501599</v>
       </c>
       <c r="U7" s="4">
         <v>657.86627675392538</v>
       </c>
       <c r="V7" s="8">
-        <v>8.3102043785331703E-2</v>
+        <v>8.310204378557394E-2</v>
       </c>
       <c r="W7" s="8">
         <v>3.7251485634379744E-2</v>
@@ -4536,28 +4535,28 @@
         <v>20.56999969</v>
       </c>
       <c r="D43" s="16">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E43" s="16">
-        <v>105159.53769477447</v>
+        <v>105159.5377060835</v>
       </c>
       <c r="F43" s="17">
-        <v>37514.611567798733</v>
+        <v>37514.611571833113</v>
       </c>
       <c r="G43" s="17">
-        <v>2799517.5439136624</v>
+        <v>2799517.5439176969</v>
       </c>
       <c r="H43" s="17">
-        <v>7847501.5036293417</v>
+        <v>7847501.5036406508</v>
       </c>
       <c r="I43" s="17">
-        <v>9329542.1142139155</v>
+        <v>9329542.1142252237</v>
       </c>
       <c r="J43" s="17">
-        <v>7848159.3699060958</v>
+        <v>7848159.3699174048</v>
       </c>
       <c r="K43" s="17">
-        <v>-1481382.7443078198</v>
+        <v>-1481382.7443078188</v>
       </c>
       <c r="L43" s="16">
         <v>657.86627675392538</v>
@@ -4574,28 +4573,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D44" s="16">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E44" s="16">
-        <v>534.58334913787519</v>
+        <v>534.58334992613857</v>
       </c>
       <c r="F44" s="17">
-        <v>150.44671526398039</v>
+        <v>150.44671548581977</v>
       </c>
       <c r="G44" s="17">
-        <v>2799667.9906289265</v>
+        <v>2799667.9906331827</v>
       </c>
       <c r="H44" s="17">
-        <v>9948079.546159707</v>
+        <v>9948079.5461748317</v>
       </c>
       <c r="I44" s="17">
-        <v>9330076.697563054</v>
+        <v>9330076.6975751501</v>
       </c>
       <c r="J44" s="17">
-        <v>9948737.4124364611</v>
+        <v>9948737.4124515858</v>
       </c>
       <c r="K44" s="17">
-        <v>618660.71487340704</v>
+        <v>618660.7148764357</v>
       </c>
       <c r="L44" s="16">
         <v>657.86627675392538</v>
@@ -4621,19 +4620,19 @@
         <v>484.95852568847351</v>
       </c>
       <c r="G45" s="17">
-        <v>2800152.9491546149</v>
+        <v>2800152.9491588711</v>
       </c>
       <c r="H45" s="17">
-        <v>9959696.2617782932</v>
+        <v>9959696.2617934309</v>
       </c>
       <c r="I45" s="17">
-        <v>9331801.6174881868</v>
+        <v>9331801.6175002828</v>
       </c>
       <c r="J45" s="17">
-        <v>9960354.1280550472</v>
+        <v>9960354.128070185</v>
       </c>
       <c r="K45" s="17">
-        <v>628552.51056686044</v>
+        <v>628552.51056990214</v>
       </c>
       <c r="L45" s="16">
         <v>657.86627675392538</v>
@@ -4659,19 +4658,19 @@
         <v>843.97918048068107</v>
       </c>
       <c r="G46" s="17">
-        <v>2800996.9283350958</v>
+        <v>2800996.9283393519</v>
       </c>
       <c r="H46" s="17">
-        <v>9998267.9496346377</v>
+        <v>9998267.9496498294</v>
       </c>
       <c r="I46" s="17">
-        <v>9334814.2341408487</v>
+        <v>9334814.2341529448</v>
       </c>
       <c r="J46" s="17">
-        <v>9998925.8159113917</v>
+        <v>9998925.8159265835</v>
       </c>
       <c r="K46" s="17">
-        <v>664111.58177054301</v>
+        <v>664111.58177363873</v>
       </c>
       <c r="L46" s="16">
         <v>657.86627675392538</v>
@@ -4697,26 +4696,23 @@
         <v>664.70122591801828</v>
       </c>
       <c r="G47" s="17">
-        <v>2801661.6295610135</v>
+        <v>2801661.6295652697</v>
       </c>
       <c r="H47" s="17">
-        <v>10112497.10398555</v>
+        <v>10112497.104000913</v>
       </c>
       <c r="I47" s="17">
-        <v>9337213.449360555</v>
+        <v>9337213.4493726511</v>
       </c>
       <c r="J47" s="17">
-        <v>10113154.970262304</v>
+        <v>10113154.970277667</v>
       </c>
       <c r="K47" s="17">
-        <v>775941.52090174891</v>
+        <v>775941.52090501599</v>
       </c>
       <c r="L47" s="16">
         <v>657.86627675392538</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A48" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -537,6 +537,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -546,7 +549,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -681,6 +684,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>9337213.4493726511</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9342349.5348931719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -723,7 +729,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -858,6 +864,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -867,7 +876,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1002,6 +1011,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>10113154.970277667</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9968651.1344057918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1044,7 +1056,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1179,6 +1191,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1188,7 +1203,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1323,6 +1338,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>775941.52090501599</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>626301.5995126199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1344,11 +1362,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="403436672"/>
-        <c:axId val="403438976"/>
+        <c:axId val="85548032"/>
+        <c:axId val="86514304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="403436672"/>
+        <c:axId val="85548032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1391,14 +1409,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403438976"/>
+        <c:crossAx val="86514304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="403438976"/>
+        <c:axId val="86514304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1449,7 +1467,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403436672"/>
+        <c:crossAx val="85548032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1610,7 +1628,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1745,6 +1763,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>2399.2152197068949</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5136.0855205209327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1759,8 +1780,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="453159552"/>
-        <c:axId val="453158016"/>
+        <c:axId val="385117184"/>
+        <c:axId val="385115264"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1785,7 +1806,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1920,6 +1941,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1929,7 +1953,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2064,6 +2088,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>3.6094641113281249</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.5560529785156252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2080,11 +2107,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="446326272"/>
-        <c:axId val="446327808"/>
+        <c:axId val="106194048"/>
+        <c:axId val="384789888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="446326272"/>
+        <c:axId val="106194048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2127,14 +2154,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446327808"/>
+        <c:crossAx val="384789888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="446327808"/>
+        <c:axId val="384789888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2185,12 +2212,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446326272"/>
+        <c:crossAx val="106194048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="453158016"/>
+        <c:axId val="385115264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2227,12 +2254,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453159552"/>
+        <c:crossAx val="385117184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="453159552"/>
+        <c:axId val="385117184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2241,7 +2268,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="453158016"/>
+        <c:crossAx val="385115264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2650,7 +2677,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG47"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4714,6 +4741,44 @@
         <v>657.86627675392538</v>
       </c>
     </row>
+    <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="14">
+        <v>45684</v>
+      </c>
+      <c r="B48" s="15">
+        <v>3.5560529785156252</v>
+      </c>
+      <c r="C48" s="15">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D48" s="16">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E48" s="16">
+        <v>5136.0855205209327</v>
+      </c>
+      <c r="F48" s="17">
+        <v>1444.3219917001484</v>
+      </c>
+      <c r="G48" s="17">
+        <v>2803105.9515569699</v>
+      </c>
+      <c r="H48" s="17">
+        <v>9967993.2681290377</v>
+      </c>
+      <c r="I48" s="17">
+        <v>9342349.5348931719</v>
+      </c>
+      <c r="J48" s="17">
+        <v>9968651.1344057918</v>
+      </c>
+      <c r="K48" s="17">
+        <v>626301.5995126199</v>
+      </c>
+      <c r="L48" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -540,6 +540,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -549,7 +552,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -686,6 +689,9 @@
                   <c:v>9337213.4493726511</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>9342349.5348931719</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>9342349.5348931719</c:v>
                 </c:pt>
               </c:numCache>
@@ -729,7 +735,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -867,6 +873,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -876,7 +885,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1014,6 +1023,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>9968651.1344057918</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10616462.880592203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1056,7 +1068,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1194,6 +1206,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1203,7 +1218,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1341,6 +1356,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>626301.5995126199</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1274113.3456990309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1362,11 +1380,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85548032"/>
-        <c:axId val="86514304"/>
+        <c:axId val="92113920"/>
+        <c:axId val="97981184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="85548032"/>
+        <c:axId val="92113920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1409,14 +1427,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86514304"/>
+        <c:crossAx val="97981184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="86514304"/>
+        <c:axId val="97981184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,7 +1485,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85548032"/>
+        <c:crossAx val="92113920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1628,7 +1646,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1766,6 +1784,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>5136.0855205209327</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1054.5417431386754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1780,8 +1801,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="385117184"/>
-        <c:axId val="385115264"/>
+        <c:axId val="452361600"/>
+        <c:axId val="452359296"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1806,7 +1827,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1944,6 +1965,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1953,7 +1977,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2091,6 +2115,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>3.5560529785156252</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.7871579589843751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2107,11 +2134,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106194048"/>
-        <c:axId val="384789888"/>
+        <c:axId val="442541184"/>
+        <c:axId val="442543104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="106194048"/>
+        <c:axId val="442541184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2154,14 +2181,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384789888"/>
+        <c:crossAx val="442543104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="384789888"/>
+        <c:axId val="442543104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2212,12 +2239,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106194048"/>
+        <c:crossAx val="442541184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="385115264"/>
+        <c:axId val="452359296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2254,12 +2281,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385117184"/>
+        <c:crossAx val="452361600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="385117184"/>
+        <c:axId val="452361600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2268,7 +2295,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="385115264"/>
+        <c:crossAx val="452359296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2677,7 +2704,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AG49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4779,6 +4806,44 @@
         <v>657.86627675392538</v>
       </c>
     </row>
+    <row r="49" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="14">
+        <v>45716</v>
+      </c>
+      <c r="B49" s="15">
+        <v>3.7871579589843751</v>
+      </c>
+      <c r="C49" s="15">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D49" s="16">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E49" s="16">
+        <v>-1054.5417431386754</v>
+      </c>
+      <c r="F49" s="17">
+        <v>-278.45200927966528</v>
+      </c>
+      <c r="G49" s="17">
+        <v>2802827.4995476902</v>
+      </c>
+      <c r="H49" s="17">
+        <v>10614750.47257231</v>
+      </c>
+      <c r="I49" s="17">
+        <v>9342349.5348931719</v>
+      </c>
+      <c r="J49" s="17">
+        <v>10616462.880592203</v>
+      </c>
+      <c r="K49" s="17">
+        <v>1274113.3456990309</v>
+      </c>
+      <c r="L49" s="16">
+        <v>1712.4080198926008</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -543,6 +543,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -552,7 +555,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -692,6 +695,9 @@
                   <c:v>9342349.5348931719</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>9342349.5348931719</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>9342349.5348931719</c:v>
                 </c:pt>
               </c:numCache>
@@ -735,7 +741,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -876,6 +882,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -885,7 +894,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1026,6 +1035,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>10616462.880592203</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10412243.093617713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1068,7 +1080,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1209,6 +1221,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1218,7 +1233,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1359,6 +1374,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1274113.3456990309</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1069893.5587245412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1380,11 +1398,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92113920"/>
-        <c:axId val="97981184"/>
+        <c:axId val="89514368"/>
+        <c:axId val="112062464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92113920"/>
+        <c:axId val="89514368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1427,14 +1445,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97981184"/>
+        <c:crossAx val="112062464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="97981184"/>
+        <c:axId val="112062464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1485,7 +1503,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92113920"/>
+        <c:crossAx val="89514368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1646,7 +1664,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1787,6 +1805,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-1054.5417431386754</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-11.050952879581011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1801,8 +1822,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="452361600"/>
-        <c:axId val="452359296"/>
+        <c:axId val="451947904"/>
+        <c:axId val="451946368"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1827,7 +1848,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1968,6 +1989,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1977,7 +2001,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2118,6 +2142,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>3.7871579589843751</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.7142958984374999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2134,11 +2161,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442541184"/>
-        <c:axId val="442543104"/>
+        <c:axId val="418015488"/>
+        <c:axId val="451944448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442541184"/>
+        <c:axId val="418015488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2181,14 +2208,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442543104"/>
+        <c:crossAx val="451944448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442543104"/>
+        <c:axId val="451944448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2239,12 +2266,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442541184"/>
+        <c:crossAx val="418015488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="452359296"/>
+        <c:axId val="451946368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2281,12 +2308,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452361600"/>
+        <c:crossAx val="451947904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="452361600"/>
+        <c:axId val="451947904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2295,7 +2322,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="452359296"/>
+        <c:crossAx val="451946368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2704,7 +2731,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG49"/>
+  <dimension ref="A1:AG50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4844,6 +4871,44 @@
         <v>1712.4080198926008</v>
       </c>
     </row>
+    <row r="50" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="14">
+        <v>45747</v>
+      </c>
+      <c r="B50" s="15">
+        <v>3.7142958984374999</v>
+      </c>
+      <c r="C50" s="15">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D50" s="16">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E50" s="16">
+        <v>-11.050952879581011</v>
+      </c>
+      <c r="F50" s="17">
+        <v>-2.9752483867076496</v>
+      </c>
+      <c r="G50" s="17">
+        <v>2802824.5242993035</v>
+      </c>
+      <c r="H50" s="17">
+        <v>10410519.63464494</v>
+      </c>
+      <c r="I50" s="17">
+        <v>9342349.5348931719</v>
+      </c>
+      <c r="J50" s="17">
+        <v>10412243.093617713</v>
+      </c>
+      <c r="K50" s="17">
+        <v>1069893.5587245412</v>
+      </c>
+      <c r="L50" s="16">
+        <v>1723.4589727721818</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -546,6 +546,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -555,7 +558,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -699,6 +702,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>9342349.5348931719</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9351588.6696039252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -741,7 +747,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -885,6 +891,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -894,7 +903,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1038,6 +1047,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>10412243.093617713</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9782547.7221212052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1080,7 +1092,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1224,6 +1236,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1233,7 +1248,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1377,6 +1392,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1069893.5587245412</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>430959.05251727998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1398,11 +1416,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89514368"/>
-        <c:axId val="112062464"/>
+        <c:axId val="75733248"/>
+        <c:axId val="75751808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89514368"/>
+        <c:axId val="75733248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,14 +1463,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112062464"/>
+        <c:crossAx val="75751808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="112062464"/>
+        <c:axId val="75751808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1503,7 +1521,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89514368"/>
+        <c:crossAx val="75733248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1664,7 +1682,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1808,6 +1826,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>-11.050952879581011</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9239.1347107527126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1822,8 +1843,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="451947904"/>
-        <c:axId val="451946368"/>
+        <c:axId val="452990080"/>
+        <c:axId val="449371136"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1848,7 +1869,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1992,6 +2013,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2001,7 +2025,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2145,6 +2169,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>3.7142958984374999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.4863349609375001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2161,11 +2188,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="418015488"/>
-        <c:axId val="451944448"/>
+        <c:axId val="417951104"/>
+        <c:axId val="449369216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="418015488"/>
+        <c:axId val="417951104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,14 +2235,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451944448"/>
+        <c:crossAx val="449369216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451944448"/>
+        <c:axId val="449369216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2266,12 +2293,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418015488"/>
+        <c:crossAx val="417951104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451946368"/>
+        <c:axId val="449371136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2308,12 +2335,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451947904"/>
+        <c:crossAx val="452990080"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="451947904"/>
+        <c:axId val="452990080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2322,7 +2349,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451946368"/>
+        <c:crossAx val="449371136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2731,7 +2758,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG50"/>
+  <dimension ref="A1:AG51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4909,6 +4936,44 @@
         <v>1723.4589727721818</v>
       </c>
     </row>
+    <row r="51" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="14">
+        <v>45777</v>
+      </c>
+      <c r="B51" s="15">
+        <v>3.4863349609375001</v>
+      </c>
+      <c r="C51" s="15">
+        <v>24.010000229999999</v>
+      </c>
+      <c r="D51" s="16">
+        <v>25.539386200172402</v>
+      </c>
+      <c r="E51" s="16">
+        <v>9239.1347107527126</v>
+      </c>
+      <c r="F51" s="17">
+        <v>2650.0995498918569</v>
+      </c>
+      <c r="G51" s="17">
+        <v>2805474.6238491954</v>
+      </c>
+      <c r="H51" s="17">
+        <v>9780824.2631484326</v>
+      </c>
+      <c r="I51" s="17">
+        <v>9351588.6696039252</v>
+      </c>
+      <c r="J51" s="17">
+        <v>9782547.7221212052</v>
+      </c>
+      <c r="K51" s="17">
+        <v>430959.05251727998</v>
+      </c>
+      <c r="L51" s="16">
+        <v>1723.4589727721818</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -549,6 +549,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -558,7 +561,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -705,6 +708,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>9351588.6696039252</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9370815.7511015385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -747,7 +753,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -894,6 +900,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -903,7 +912,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1050,6 +1059,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>9782547.7221212052</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9932970.468242798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1092,7 +1104,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1239,6 +1251,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1248,7 +1263,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1395,6 +1410,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>430959.05251727998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>562154.71714125946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1416,11 +1434,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75733248"/>
-        <c:axId val="75751808"/>
+        <c:axId val="77083776"/>
+        <c:axId val="77085312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="75733248"/>
+        <c:axId val="77083776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1463,14 +1481,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75751808"/>
+        <c:crossAx val="77085312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="75751808"/>
+        <c:axId val="77085312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1521,7 +1539,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75733248"/>
+        <c:crossAx val="77083776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1682,7 +1700,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1829,6 +1847,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>9239.1347107527126</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19227.081497612831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1843,8 +1864,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="452990080"/>
-        <c:axId val="449371136"/>
+        <c:axId val="536841216"/>
+        <c:axId val="309927296"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1869,7 +1890,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2016,6 +2037,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2025,7 +2049,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2172,6 +2196,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>3.4863349609375001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.5330991210937501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2188,11 +2215,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="417951104"/>
-        <c:axId val="449369216"/>
+        <c:axId val="309924224"/>
+        <c:axId val="309925760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="417951104"/>
+        <c:axId val="309924224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2235,14 +2262,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449369216"/>
+        <c:crossAx val="309925760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="449369216"/>
+        <c:axId val="309925760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2293,12 +2320,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417951104"/>
+        <c:crossAx val="309924224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="449371136"/>
+        <c:axId val="309927296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2335,12 +2362,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452990080"/>
+        <c:crossAx val="536841216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="452990080"/>
+        <c:axId val="536841216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2349,7 +2376,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="449371136"/>
+        <c:crossAx val="309927296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2758,7 +2785,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG51"/>
+  <dimension ref="A1:AG52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4974,6 +5001,44 @@
         <v>1723.4589727721818</v>
       </c>
     </row>
+    <row r="52" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="14">
+        <v>45807</v>
+      </c>
+      <c r="B52" s="15">
+        <v>3.5330991210937501</v>
+      </c>
+      <c r="C52" s="15">
+        <v>23.299999239999998</v>
+      </c>
+      <c r="D52" s="16">
+        <v>25.506266578519043</v>
+      </c>
+      <c r="E52" s="16">
+        <v>19227.081497612831</v>
+      </c>
+      <c r="F52" s="17">
+        <v>5441.9875691629777</v>
+      </c>
+      <c r="G52" s="17">
+        <v>2810916.6114183585</v>
+      </c>
+      <c r="H52" s="17">
+        <v>9931247.0092700254</v>
+      </c>
+      <c r="I52" s="17">
+        <v>9370815.7511015385</v>
+      </c>
+      <c r="J52" s="17">
+        <v>9932970.468242798</v>
+      </c>
+      <c r="K52" s="17">
+        <v>562154.71714125946</v>
+      </c>
+      <c r="L52" s="16">
+        <v>1723.4589727721818</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -552,6 +552,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -561,7 +564,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -711,6 +714,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>9370815.7511015385</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9376218.8075327799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -753,7 +759,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -903,6 +909,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -912,7 +921,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1062,6 +1071,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>9932970.468242798</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10265389.633969223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1104,7 +1116,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1254,6 +1266,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1263,7 +1278,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1413,6 +1428,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>562154.71714125946</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>889170.82643644325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1434,11 +1452,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77083776"/>
-        <c:axId val="77085312"/>
+        <c:axId val="89037440"/>
+        <c:axId val="90972928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="77083776"/>
+        <c:axId val="89037440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1481,14 +1499,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77085312"/>
+        <c:crossAx val="90972928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="77085312"/>
+        <c:axId val="90972928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1539,7 +1557,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77083776"/>
+        <c:crossAx val="89037440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1700,7 +1718,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1850,6 +1868,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>19227.081497612831</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5403.0564312410688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1864,8 +1885,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="536841216"/>
-        <c:axId val="309927296"/>
+        <c:axId val="161340800"/>
+        <c:axId val="161338880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1890,7 +1911,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2040,6 +2061,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2049,7 +2073,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2199,6 +2223,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>3.5330991210937501</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.6494370117187498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2215,11 +2242,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="309924224"/>
-        <c:axId val="309925760"/>
+        <c:axId val="161302400"/>
+        <c:axId val="161303936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="309924224"/>
+        <c:axId val="161302400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2262,14 +2289,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309925760"/>
+        <c:crossAx val="161303936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="309925760"/>
+        <c:axId val="161303936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2320,12 +2347,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309924224"/>
+        <c:crossAx val="161302400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="309927296"/>
+        <c:axId val="161338880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2362,12 +2389,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536841216"/>
+        <c:crossAx val="161340800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="536841216"/>
+        <c:axId val="161340800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2376,7 +2403,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="309927296"/>
+        <c:crossAx val="161338880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2785,7 +2812,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG52"/>
+  <dimension ref="A1:AG53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5039,6 +5066,44 @@
         <v>1723.4589727721818</v>
       </c>
     </row>
+    <row r="53" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="14">
+        <v>45838</v>
+      </c>
+      <c r="B53" s="15">
+        <v>3.6494370117187498</v>
+      </c>
+      <c r="C53" s="15">
+        <v>24.299999239999998</v>
+      </c>
+      <c r="D53" s="16">
+        <v>25.46955573186175</v>
+      </c>
+      <c r="E53" s="16">
+        <v>5403.0564312410688</v>
+      </c>
+      <c r="F53" s="17">
+        <v>1480.5177932627009</v>
+      </c>
+      <c r="G53" s="17">
+        <v>2812397.1292116214</v>
+      </c>
+      <c r="H53" s="17">
+        <v>10263666.174996451</v>
+      </c>
+      <c r="I53" s="17">
+        <v>9376218.8075327799</v>
+      </c>
+      <c r="J53" s="17">
+        <v>10265389.633969223</v>
+      </c>
+      <c r="K53" s="17">
+        <v>889170.82643644325</v>
+      </c>
+      <c r="L53" s="16">
+        <v>1723.4589727721818</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -555,6 +555,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -564,7 +567,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -717,6 +720,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>9376218.8075327799</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9376392.18772012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -759,7 +765,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -912,6 +918,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -921,7 +930,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1074,6 +1083,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>10265389.633969223</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10685462.282316651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1116,7 +1128,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1269,6 +1281,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1278,7 +1293,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1431,6 +1446,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>889170.82643644325</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1309070.0945965312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1452,11 +1470,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89037440"/>
-        <c:axId val="90972928"/>
+        <c:axId val="361912192"/>
+        <c:axId val="420640640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89037440"/>
+        <c:axId val="361912192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,14 +1517,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90972928"/>
+        <c:crossAx val="420640640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90972928"/>
+        <c:axId val="420640640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1557,7 +1575,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89037440"/>
+        <c:crossAx val="361912192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1718,7 +1736,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1871,6 +1889,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>5403.0564312410688</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>173.38018734075604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1885,8 +1906,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="161340800"/>
-        <c:axId val="161338880"/>
+        <c:axId val="464123008"/>
+        <c:axId val="455338624"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1911,7 +1932,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2064,6 +2085,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2073,7 +2097,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2226,6 +2250,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>3.6494370117187498</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.7987399902343748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2242,11 +2269,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161302400"/>
-        <c:axId val="161303936"/>
+        <c:axId val="454958464"/>
+        <c:axId val="455337088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="161302400"/>
+        <c:axId val="454958464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2289,14 +2316,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161303936"/>
+        <c:crossAx val="455337088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="161303936"/>
+        <c:axId val="455337088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2347,12 +2374,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161302400"/>
+        <c:crossAx val="454958464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161338880"/>
+        <c:axId val="455338624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,12 +2416,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161340800"/>
+        <c:crossAx val="464123008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="161340800"/>
+        <c:axId val="464123008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2403,7 +2430,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161338880"/>
+        <c:crossAx val="455338624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2812,7 +2839,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG53"/>
+  <dimension ref="A1:AG54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5104,6 +5131,44 @@
         <v>1723.4589727721818</v>
       </c>
     </row>
+    <row r="54" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="14">
+        <v>45869</v>
+      </c>
+      <c r="B54" s="15">
+        <v>3.7987399902343748</v>
+      </c>
+      <c r="C54" s="15">
+        <v>25.25</v>
+      </c>
+      <c r="D54" s="16">
+        <v>25.459508277435798</v>
+      </c>
+      <c r="E54" s="16">
+        <v>173.38018734075604</v>
+      </c>
+      <c r="F54" s="17">
+        <v>45.641498967150639</v>
+      </c>
+      <c r="G54" s="17">
+        <v>2812442.7707105884</v>
+      </c>
+      <c r="H54" s="17">
+        <v>10683738.823343879</v>
+      </c>
+      <c r="I54" s="17">
+        <v>9376392.18772012</v>
+      </c>
+      <c r="J54" s="17">
+        <v>10685462.282316651</v>
+      </c>
+      <c r="K54" s="17">
+        <v>1309070.0945965312</v>
+      </c>
+      <c r="L54" s="16">
+        <v>1723.4589727721818</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -558,6 +558,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,7 +570,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -722,6 +725,9 @@
                   <c:v>9376218.8075327799</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>9376392.18772012</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>9376392.18772012</c:v>
                 </c:pt>
               </c:numCache>
@@ -765,7 +771,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -921,6 +927,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -930,7 +939,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1086,6 +1095,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>10685462.282316651</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12764433.573730325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1128,7 +1140,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1284,6 +1296,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1293,7 +1308,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1449,6 +1464,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1309070.0945965312</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3388041.3860102054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1470,11 +1488,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="361912192"/>
-        <c:axId val="420640640"/>
+        <c:axId val="100826112"/>
+        <c:axId val="418150656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="361912192"/>
+        <c:axId val="100826112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,14 +1535,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420640640"/>
+        <c:crossAx val="418150656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="420640640"/>
+        <c:axId val="418150656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1575,7 +1593,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361912192"/>
+        <c:crossAx val="100826112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1736,7 +1754,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1892,6 +1910,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>173.38018734075604</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-80971.164290520144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1906,8 +1927,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="464123008"/>
-        <c:axId val="455338624"/>
+        <c:axId val="526457856"/>
+        <c:axId val="526456320"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1932,7 +1953,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2088,6 +2109,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2097,7 +2121,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2253,6 +2277,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>3.7987399902343748</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.5379448242187497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2269,11 +2296,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="454958464"/>
-        <c:axId val="455337088"/>
+        <c:axId val="503432704"/>
+        <c:axId val="503434240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="454958464"/>
+        <c:axId val="503432704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2316,14 +2343,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455337088"/>
+        <c:crossAx val="503434240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="455337088"/>
+        <c:axId val="503434240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2374,12 +2401,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454958464"/>
+        <c:crossAx val="503432704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="455338624"/>
+        <c:axId val="526456320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2416,12 +2443,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464123008"/>
+        <c:crossAx val="526457856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="464123008"/>
+        <c:axId val="526457856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2430,7 +2457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="455338624"/>
+        <c:crossAx val="526456320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2839,7 +2866,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG54"/>
+  <dimension ref="A1:AG55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5169,6 +5196,44 @@
         <v>1723.4589727721818</v>
       </c>
     </row>
+    <row r="55" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="14">
+        <v>45898</v>
+      </c>
+      <c r="B55" s="15">
+        <v>4.5379448242187497</v>
+      </c>
+      <c r="C55" s="15">
+        <v>30.020000459999999</v>
+      </c>
+      <c r="D55" s="16">
+        <v>25.492415128467428</v>
+      </c>
+      <c r="E55" s="16">
+        <v>-80971.164290520144</v>
+      </c>
+      <c r="F55" s="17">
+        <v>-17843.135478065251</v>
+      </c>
+      <c r="G55" s="17">
+        <v>2794599.6352325231</v>
+      </c>
+      <c r="H55" s="17">
+        <v>12681738.950467033</v>
+      </c>
+      <c r="I55" s="17">
+        <v>9376392.18772012</v>
+      </c>
+      <c r="J55" s="17">
+        <v>12764433.573730325</v>
+      </c>
+      <c r="K55" s="17">
+        <v>3388041.3860102054</v>
+      </c>
+      <c r="L55" s="16">
+        <v>82694.62326329232</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -561,6 +561,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -570,7 +573,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -728,6 +731,9 @@
                   <c:v>9376392.18772012</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>9376392.18772012</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>9376392.18772012</c:v>
                 </c:pt>
               </c:numCache>
@@ -771,7 +777,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -930,6 +936,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -939,7 +948,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1098,6 +1107,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>12764433.573730325</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14218059.311143037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1140,7 +1152,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1299,6 +1311,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1308,7 +1323,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1467,6 +1482,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>3388041.3860102054</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4841667.123422917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1488,11 +1506,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100826112"/>
-        <c:axId val="418150656"/>
+        <c:axId val="410085248"/>
+        <c:axId val="424957824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="100826112"/>
+        <c:axId val="410085248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1535,14 +1553,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418150656"/>
+        <c:crossAx val="424957824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="418150656"/>
+        <c:axId val="424957824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1593,7 +1611,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100826112"/>
+        <c:crossAx val="410085248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1754,7 +1772,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1913,6 +1931,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>-80971.164290520144</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-207876.55105672523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1927,8 +1948,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="526457856"/>
-        <c:axId val="526456320"/>
+        <c:axId val="609605888"/>
+        <c:axId val="609603584"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1953,7 +1974,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2112,6 +2133,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2121,7 +2145,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2280,6 +2304,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>4.5379448242187497</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.0581000976562498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2296,11 +2323,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="503432704"/>
-        <c:axId val="503434240"/>
+        <c:axId val="537726336"/>
+        <c:axId val="540833280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="503432704"/>
+        <c:axId val="537726336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2343,14 +2370,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503434240"/>
+        <c:crossAx val="540833280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="503434240"/>
+        <c:axId val="540833280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2401,12 +2428,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503432704"/>
+        <c:crossAx val="537726336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="526456320"/>
+        <c:axId val="609603584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2443,12 +2470,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526457856"/>
+        <c:crossAx val="609605888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="526457856"/>
+        <c:axId val="609605888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2457,7 +2484,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="526456320"/>
+        <c:crossAx val="609603584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2866,7 +2893,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG55"/>
+  <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5234,6 +5261,44 @@
         <v>82694.62326329232</v>
       </c>
     </row>
+    <row r="56" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="14">
+        <v>45930</v>
+      </c>
+      <c r="B56" s="15">
+        <v>5.0581000976562498</v>
+      </c>
+      <c r="C56" s="15">
+        <v>32.849998470000003</v>
+      </c>
+      <c r="D56" s="16">
+        <v>25.595553284386586</v>
+      </c>
+      <c r="E56" s="16">
+        <v>-207876.55105672523</v>
+      </c>
+      <c r="F56" s="17">
+        <v>-41097.753512835407</v>
+      </c>
+      <c r="G56" s="17">
+        <v>2753501.8817196875</v>
+      </c>
+      <c r="H56" s="17">
+        <v>13927488.136823019</v>
+      </c>
+      <c r="I56" s="17">
+        <v>9376392.18772012</v>
+      </c>
+      <c r="J56" s="17">
+        <v>14218059.311143037</v>
+      </c>
+      <c r="K56" s="17">
+        <v>4841667.123422917</v>
+      </c>
+      <c r="L56" s="16">
+        <v>290571.17432001757</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -564,6 +564,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -573,7 +576,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -734,6 +737,9 @@
                   <c:v>9376392.18772012</c:v>
                 </c:pt>
                 <c:pt idx="53">
+                  <c:v>9376392.18772012</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>9376392.18772012</c:v>
                 </c:pt>
               </c:numCache>
@@ -777,7 +783,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -939,6 +945,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -948,7 +957,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1110,6 +1119,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>14218059.311143037</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14039747.208084894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1152,7 +1164,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1314,6 +1326,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1323,7 +1338,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1485,6 +1500,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>4841667.123422917</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4663355.0203647744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1506,11 +1524,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="410085248"/>
-        <c:axId val="424957824"/>
+        <c:axId val="407650304"/>
+        <c:axId val="416692480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="410085248"/>
+        <c:axId val="407650304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1553,14 +1571,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424957824"/>
+        <c:crossAx val="416692480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="424957824"/>
+        <c:axId val="416692480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1611,7 +1629,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410085248"/>
+        <c:crossAx val="407650304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1772,7 +1790,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1934,6 +1952,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>-207876.55105672523</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-165332.38013883011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1948,8 +1969,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="609605888"/>
-        <c:axId val="609603584"/>
+        <c:axId val="468143488"/>
+        <c:axId val="468141568"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1974,7 +1995,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2136,6 +2157,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2145,7 +2169,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2307,6 +2331,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>5.0581000976562498</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.9933417968749998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2323,11 +2350,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537726336"/>
-        <c:axId val="540833280"/>
+        <c:axId val="466833408"/>
+        <c:axId val="466836480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537726336"/>
+        <c:axId val="466833408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2370,14 +2397,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540833280"/>
+        <c:crossAx val="466836480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="540833280"/>
+        <c:axId val="466836480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,12 +2455,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537726336"/>
+        <c:crossAx val="466833408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="609603584"/>
+        <c:axId val="468141568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2470,12 +2497,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609605888"/>
+        <c:crossAx val="468143488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="609605888"/>
+        <c:axId val="468143488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2484,7 +2511,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="609603584"/>
+        <c:crossAx val="468141568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2893,7 +2920,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG56"/>
+  <dimension ref="A1:AG57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5299,6 +5326,44 @@
         <v>290571.17432001757</v>
       </c>
     </row>
+    <row r="57" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="14">
+        <v>45961</v>
+      </c>
+      <c r="B57" s="15">
+        <v>4.9933417968749998</v>
+      </c>
+      <c r="C57" s="15">
+        <v>32.159999849999998</v>
+      </c>
+      <c r="D57" s="16">
+        <v>25.690355441740447</v>
+      </c>
+      <c r="E57" s="16">
+        <v>-165332.38013883011</v>
+      </c>
+      <c r="F57" s="17">
+        <v>-33110.567404438574</v>
+      </c>
+      <c r="G57" s="17">
+        <v>2720391.3143152487</v>
+      </c>
+      <c r="H57" s="17">
+        <v>13583843.653626047</v>
+      </c>
+      <c r="I57" s="17">
+        <v>9376392.18772012</v>
+      </c>
+      <c r="J57" s="17">
+        <v>14039747.208084894</v>
+      </c>
+      <c r="K57" s="17">
+        <v>4663355.0203647744</v>
+      </c>
+      <c r="L57" s="16">
+        <v>455903.55445884768</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4.xlsx
@@ -402,7 +402,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -567,6 +567,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -576,7 +579,7 @@
               <c:f>'model4(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -740,6 +743,9 @@
                   <c:v>9376392.18772012</c:v>
                 </c:pt>
                 <c:pt idx="54">
+                  <c:v>9376392.18772012</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>9376392.18772012</c:v>
                 </c:pt>
               </c:numCache>
@@ -783,7 +789,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -948,6 +954,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -957,7 +966,7 @@
               <c:f>'model4(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1122,6 +1131,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>14039747.208084894</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13579330.276349539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1164,7 +1176,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1329,6 +1341,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1338,7 +1353,7 @@
               <c:f>'model4(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1503,6 +1518,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>4663355.0203647744</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4202938.088629419</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1524,11 +1542,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="407650304"/>
-        <c:axId val="416692480"/>
+        <c:axId val="433547904"/>
+        <c:axId val="466712448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="407650304"/>
+        <c:axId val="433547904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1571,14 +1589,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416692480"/>
+        <c:crossAx val="466712448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="416692480"/>
+        <c:axId val="466712448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1629,7 +1647,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407650304"/>
+        <c:crossAx val="433547904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1790,7 +1808,7 @@
               <c:f>'model4(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1955,6 +1973,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>-165332.38013883011</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-63583.378859762786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1969,8 +1990,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="468143488"/>
-        <c:axId val="468141568"/>
+        <c:axId val="507685888"/>
+        <c:axId val="507683200"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1995,7 +2016,7 @@
               <c:f>'model4(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2160,6 +2181,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2169,7 +2193,7 @@
               <c:f>'model4(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2334,6 +2358,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>4.9933417968749998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.8240952148437497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2350,11 +2377,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="466833408"/>
-        <c:axId val="466836480"/>
+        <c:axId val="474835584"/>
+        <c:axId val="475260416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="466833408"/>
+        <c:axId val="474835584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2397,14 +2424,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466836480"/>
+        <c:crossAx val="475260416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="466836480"/>
+        <c:axId val="475260416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2455,12 +2482,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466833408"/>
+        <c:crossAx val="474835584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="468141568"/>
+        <c:axId val="507683200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,12 +2524,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468143488"/>
+        <c:crossAx val="507685888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="468143488"/>
+        <c:axId val="507685888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2511,7 +2538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="468141568"/>
+        <c:crossAx val="507683200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2920,7 +2947,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG57"/>
+  <dimension ref="A1:AG58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5364,6 +5391,44 @@
         <v>455903.55445884768</v>
       </c>
     </row>
+    <row r="58" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="14">
+        <v>45989</v>
+      </c>
+      <c r="B58" s="15">
+        <v>4.8240952148437497</v>
+      </c>
+      <c r="C58" s="15">
+        <v>29.780000690000001</v>
+      </c>
+      <c r="D58" s="16">
+        <v>25.767886790921306</v>
+      </c>
+      <c r="E58" s="16">
+        <v>-63583.378859762786</v>
+      </c>
+      <c r="F58" s="17">
+        <v>-13180.373941234951</v>
+      </c>
+      <c r="G58" s="17">
+        <v>2707210.940374014</v>
+      </c>
+      <c r="H58" s="17">
+        <v>13059843.343030928</v>
+      </c>
+      <c r="I58" s="17">
+        <v>9376392.18772012</v>
+      </c>
+      <c r="J58" s="17">
+        <v>13579330.276349539</v>
+      </c>
+      <c r="K58" s="17">
+        <v>4202938.088629419</v>
+      </c>
+      <c r="L58" s="16">
+        <v>519486.93331861048</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
